--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -5109,2905 +5109,4457 @@
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45728</v>
       </c>
       <c r="D18" t="n">
-        <v>5680</v>
+        <v>5603</v>
       </c>
       <c r="E18" t="n">
-        <v>5640</v>
+        <v>5533</v>
       </c>
       <c r="F18" t="n">
-        <v>5580</v>
+        <v>5493</v>
       </c>
       <c r="G18" t="n">
-        <v>5520</v>
+        <v>5463</v>
       </c>
       <c r="H18" t="n">
-        <v>5423</v>
+        <v>6599</v>
       </c>
       <c r="I18" t="n">
-        <v>5393</v>
+        <v>6569</v>
       </c>
       <c r="J18" t="n">
-        <v>5363</v>
+        <v>6549</v>
       </c>
       <c r="K18" t="n">
-        <v>5343</v>
+        <v>6519</v>
       </c>
       <c r="L18" t="n">
-        <v>5293</v>
+        <v>6623</v>
       </c>
       <c r="M18" t="n">
-        <v>5273</v>
+        <v>6603</v>
       </c>
       <c r="N18" t="n">
-        <v>5263</v>
+        <v>6593</v>
       </c>
       <c r="O18" t="n">
-        <v>5233</v>
+        <v>6593</v>
       </c>
       <c r="P18" t="n">
-        <v>5241</v>
+        <v>6462</v>
       </c>
       <c r="Q18" t="n">
-        <v>5241</v>
+        <v>6472</v>
       </c>
       <c r="R18" t="n">
-        <v>5251</v>
+        <v>6472</v>
       </c>
       <c r="S18" t="n">
-        <v>5281</v>
+        <v>6482</v>
       </c>
       <c r="T18" t="n">
-        <v>5298</v>
+        <v>6205.3</v>
       </c>
       <c r="U18" t="n">
-        <v>5318</v>
+        <v>6225.3</v>
       </c>
       <c r="V18" t="n">
-        <v>5348</v>
+        <v>6255.3</v>
       </c>
       <c r="W18" t="n">
-        <v>5388</v>
+        <v>6295.3</v>
       </c>
       <c r="X18" t="n">
-        <v>5471</v>
+        <v>5877</v>
       </c>
       <c r="Y18" t="n">
-        <v>5561</v>
+        <v>5957</v>
       </c>
       <c r="Z18" t="n">
-        <v>5661</v>
+        <v>6057</v>
       </c>
       <c r="AA18" t="n">
-        <v>5801</v>
+        <v>6167</v>
       </c>
       <c r="AB18" t="n">
-        <v>6024</v>
+        <v>5622.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>6184</v>
+        <v>5772.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6354</v>
+        <v>5922.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>6514</v>
+        <v>6072.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>6541</v>
+        <v>5885.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>6671</v>
+        <v>6025.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>6781</v>
+        <v>6155.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>6861</v>
+        <v>6265.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6911</v>
+        <v>6056.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>6921</v>
+        <v>6126.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>6911</v>
+        <v>6176.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>6871</v>
+        <v>6196.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>6958</v>
+        <v>6315.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>6868</v>
+        <v>6295.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>6768</v>
+        <v>6265.6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6668</v>
+        <v>6225.6</v>
       </c>
       <c r="AR18" t="n">
-        <v>6377</v>
+        <v>6660.2</v>
       </c>
       <c r="AS18" t="n">
-        <v>6267</v>
+        <v>6610.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>6167</v>
+        <v>6560.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>6067</v>
+        <v>6520.2</v>
       </c>
       <c r="AV18" t="n">
-        <v>6024</v>
+        <v>6962.8</v>
       </c>
       <c r="AW18" t="n">
-        <v>5944</v>
+        <v>6932.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>5864</v>
+        <v>6912.8</v>
       </c>
       <c r="AY18" t="n">
-        <v>5804</v>
+        <v>6902.8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>5744</v>
+        <v>7083.8</v>
       </c>
       <c r="BA18" t="n">
-        <v>5694</v>
+        <v>7083.8</v>
       </c>
       <c r="BB18" t="n">
-        <v>5664</v>
+        <v>7083.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>5644</v>
+        <v>7093.8</v>
       </c>
       <c r="BD18" t="n">
-        <v>5671</v>
+        <v>7189.3</v>
       </c>
       <c r="BE18" t="n">
-        <v>5661</v>
+        <v>7199.3</v>
       </c>
       <c r="BF18" t="n">
-        <v>5671</v>
+        <v>7199.3</v>
       </c>
       <c r="BG18" t="n">
-        <v>5681</v>
+        <v>7199.3</v>
       </c>
       <c r="BH18" t="n">
-        <v>5805</v>
+        <v>7068.6</v>
       </c>
       <c r="BI18" t="n">
-        <v>5825</v>
+        <v>7058.6</v>
       </c>
       <c r="BJ18" t="n">
-        <v>5855</v>
+        <v>7058.6</v>
       </c>
       <c r="BK18" t="n">
-        <v>5895</v>
+        <v>7048.6</v>
       </c>
       <c r="BL18" t="n">
-        <v>5871</v>
+        <v>6786.8</v>
       </c>
       <c r="BM18" t="n">
-        <v>5911</v>
+        <v>6786.8</v>
       </c>
       <c r="BN18" t="n">
-        <v>5961</v>
+        <v>6786.8</v>
       </c>
       <c r="BO18" t="n">
-        <v>6021</v>
+        <v>6796.8</v>
       </c>
       <c r="BP18" t="n">
-        <v>6228</v>
+        <v>6217.6</v>
       </c>
       <c r="BQ18" t="n">
-        <v>6318</v>
+        <v>6257.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>6408</v>
+        <v>6297.6</v>
       </c>
       <c r="BS18" t="n">
-        <v>6528</v>
+        <v>6337.6</v>
       </c>
       <c r="BT18" t="n">
-        <v>6502</v>
+        <v>5931.6</v>
       </c>
       <c r="BU18" t="n">
-        <v>6642</v>
+        <v>5981.6</v>
       </c>
       <c r="BV18" t="n">
-        <v>6782</v>
+        <v>6041.6</v>
       </c>
       <c r="BW18" t="n">
-        <v>6932</v>
+        <v>6091.6</v>
       </c>
       <c r="BX18" t="n">
-        <v>7102</v>
+        <v>5950.1</v>
       </c>
       <c r="BY18" t="n">
-        <v>7252</v>
+        <v>6030.1</v>
       </c>
       <c r="BZ18" t="n">
-        <v>7382</v>
+        <v>6110.1</v>
       </c>
       <c r="CA18" t="n">
-        <v>7502</v>
+        <v>6190.1</v>
       </c>
       <c r="CB18" t="n">
-        <v>7526</v>
+        <v>6186.3</v>
       </c>
       <c r="CC18" t="n">
-        <v>7586</v>
+        <v>6256.3</v>
       </c>
       <c r="CD18" t="n">
-        <v>7586</v>
+        <v>6286.3</v>
       </c>
       <c r="CE18" t="n">
-        <v>7586</v>
+        <v>6276.3</v>
       </c>
       <c r="CF18" t="n">
-        <v>7605</v>
+        <v>6589.5</v>
       </c>
       <c r="CG18" t="n">
-        <v>7575</v>
+        <v>6529.5</v>
       </c>
       <c r="CH18" t="n">
-        <v>7505</v>
+        <v>6459.5</v>
       </c>
       <c r="CI18" t="n">
-        <v>7435</v>
+        <v>6379.5</v>
       </c>
       <c r="CJ18" t="n">
-        <v>7272</v>
+        <v>6756.2</v>
       </c>
       <c r="CK18" t="n">
-        <v>7102</v>
+        <v>6616.2</v>
       </c>
       <c r="CL18" t="n">
-        <v>6992</v>
+        <v>6496.2</v>
       </c>
       <c r="CM18" t="n">
-        <v>6872</v>
+        <v>6356.2</v>
       </c>
       <c r="CN18" t="n">
-        <v>6652</v>
+        <v>6676.6</v>
       </c>
       <c r="CO18" t="n">
-        <v>6532</v>
+        <v>6546.6</v>
       </c>
       <c r="CP18" t="n">
-        <v>6352</v>
+        <v>6376.6</v>
       </c>
       <c r="CQ18" t="n">
-        <v>6182</v>
+        <v>6226.6</v>
       </c>
       <c r="CR18" t="n">
-        <v>6176</v>
+        <v>6299.8</v>
       </c>
       <c r="CS18" t="n">
-        <v>5966</v>
+        <v>6159.8</v>
       </c>
       <c r="CT18" t="n">
-        <v>5896</v>
+        <v>6039.8</v>
       </c>
       <c r="CU18" t="n">
-        <v>5786</v>
+        <v>5929.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="n">
-        <v>45722</v>
+        <v>45728</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="D19" t="n">
-        <v>5708</v>
+        <v>6138.1</v>
       </c>
       <c r="E19" t="n">
-        <v>5658</v>
+        <v>6068.1</v>
       </c>
       <c r="F19" t="n">
-        <v>5608</v>
+        <v>6018.1</v>
       </c>
       <c r="G19" t="n">
-        <v>5558</v>
+        <v>5968.1</v>
       </c>
       <c r="H19" t="n">
-        <v>5426</v>
+        <v>5945.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5396</v>
+        <v>5895.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5366</v>
+        <v>5855.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5336</v>
+        <v>5825.5</v>
       </c>
       <c r="L19" t="n">
-        <v>5302</v>
+        <v>5939.2</v>
       </c>
       <c r="M19" t="n">
-        <v>5282</v>
+        <v>5919.2</v>
       </c>
       <c r="N19" t="n">
-        <v>5272</v>
+        <v>5899.2</v>
       </c>
       <c r="O19" t="n">
-        <v>5272</v>
+        <v>5889.2</v>
       </c>
       <c r="P19" t="n">
-        <v>5228</v>
+        <v>6125.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>5238</v>
+        <v>6125.9</v>
       </c>
       <c r="R19" t="n">
-        <v>5238</v>
+        <v>6135.9</v>
       </c>
       <c r="S19" t="n">
-        <v>5238</v>
+        <v>6155.9</v>
       </c>
       <c r="T19" t="n">
-        <v>5240</v>
+        <v>6303.8</v>
       </c>
       <c r="U19" t="n">
-        <v>5250</v>
+        <v>6323.8</v>
       </c>
       <c r="V19" t="n">
-        <v>5260</v>
+        <v>6363.8</v>
       </c>
       <c r="W19" t="n">
-        <v>5290</v>
+        <v>6403.8</v>
       </c>
       <c r="X19" t="n">
-        <v>5399</v>
+        <v>6296</v>
       </c>
       <c r="Y19" t="n">
-        <v>5479</v>
+        <v>6376</v>
       </c>
       <c r="Z19" t="n">
-        <v>5589</v>
+        <v>6476</v>
       </c>
       <c r="AA19" t="n">
-        <v>5729</v>
+        <v>6596</v>
       </c>
       <c r="AB19" t="n">
-        <v>5880</v>
+        <v>6600.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>6050</v>
+        <v>6750.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6230</v>
+        <v>6910.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>6390</v>
+        <v>7080.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6348</v>
+        <v>7148.1</v>
       </c>
       <c r="AG19" t="n">
-        <v>6468</v>
+        <v>7288.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>6568</v>
+        <v>7418.1</v>
       </c>
       <c r="AI19" t="n">
-        <v>6648</v>
+        <v>7518.1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6698</v>
+        <v>7578.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>6698</v>
+        <v>7618.6</v>
       </c>
       <c r="AL19" t="n">
-        <v>6678</v>
+        <v>7648.6</v>
       </c>
       <c r="AM19" t="n">
-        <v>6618</v>
+        <v>7638.6</v>
       </c>
       <c r="AN19" t="n">
-        <v>6695</v>
+        <v>7506.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>6605</v>
+        <v>7466.2</v>
       </c>
       <c r="AP19" t="n">
-        <v>6515</v>
+        <v>7416.2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6425</v>
+        <v>7356.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>6506</v>
+        <v>7785</v>
       </c>
       <c r="AS19" t="n">
-        <v>6426</v>
+        <v>7725</v>
       </c>
       <c r="AT19" t="n">
-        <v>6356</v>
+        <v>7675</v>
       </c>
       <c r="AU19" t="n">
-        <v>6296</v>
+        <v>7625</v>
       </c>
       <c r="AV19" t="n">
-        <v>6272</v>
+        <v>8050.4</v>
       </c>
       <c r="AW19" t="n">
-        <v>6232</v>
+        <v>8010.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>6192</v>
+        <v>7980.4</v>
       </c>
       <c r="AY19" t="n">
-        <v>6162</v>
+        <v>7950.4</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6108</v>
+        <v>8126.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>6078</v>
+        <v>8106.7</v>
       </c>
       <c r="BB19" t="n">
-        <v>6068</v>
+        <v>8086.7</v>
       </c>
       <c r="BC19" t="n">
-        <v>6058</v>
+        <v>8076.7</v>
       </c>
       <c r="BD19" t="n">
-        <v>6049</v>
+        <v>8141.9</v>
       </c>
       <c r="BE19" t="n">
-        <v>6059</v>
+        <v>8141.9</v>
       </c>
       <c r="BF19" t="n">
-        <v>6069</v>
+        <v>8141.9</v>
       </c>
       <c r="BG19" t="n">
-        <v>6089</v>
+        <v>8141.9</v>
       </c>
       <c r="BH19" t="n">
-        <v>6141</v>
+        <v>8107.7</v>
       </c>
       <c r="BI19" t="n">
-        <v>6171</v>
+        <v>8127.7</v>
       </c>
       <c r="BJ19" t="n">
-        <v>6211</v>
+        <v>8137.7</v>
       </c>
       <c r="BK19" t="n">
-        <v>6251</v>
+        <v>8147.7</v>
       </c>
       <c r="BL19" t="n">
-        <v>6335</v>
+        <v>7995.6</v>
       </c>
       <c r="BM19" t="n">
-        <v>6385</v>
+        <v>8005.6</v>
       </c>
       <c r="BN19" t="n">
-        <v>6435</v>
+        <v>8035.6</v>
       </c>
       <c r="BO19" t="n">
-        <v>6505</v>
+        <v>8065.6</v>
       </c>
       <c r="BP19" t="n">
-        <v>6631</v>
+        <v>7845.5</v>
       </c>
       <c r="BQ19" t="n">
-        <v>6721</v>
+        <v>7895.5</v>
       </c>
       <c r="BR19" t="n">
-        <v>6831</v>
+        <v>7955.5</v>
       </c>
       <c r="BS19" t="n">
-        <v>6951</v>
+        <v>8025.5</v>
       </c>
       <c r="BT19" t="n">
-        <v>6868</v>
+        <v>7468.7</v>
       </c>
       <c r="BU19" t="n">
-        <v>7008</v>
+        <v>7538.7</v>
       </c>
       <c r="BV19" t="n">
-        <v>7138</v>
+        <v>7608.7</v>
       </c>
       <c r="BW19" t="n">
-        <v>7278</v>
+        <v>7678.7</v>
       </c>
       <c r="BX19" t="n">
-        <v>7291</v>
+        <v>7379.2</v>
       </c>
       <c r="BY19" t="n">
-        <v>7411</v>
+        <v>7459.2</v>
       </c>
       <c r="BZ19" t="n">
-        <v>7511</v>
+        <v>7549.2</v>
       </c>
       <c r="CA19" t="n">
-        <v>7601</v>
+        <v>7649.2</v>
       </c>
       <c r="CB19" t="n">
-        <v>7699</v>
+        <v>7350.5</v>
       </c>
       <c r="CC19" t="n">
-        <v>7729</v>
+        <v>7410.5</v>
       </c>
       <c r="CD19" t="n">
-        <v>7729</v>
+        <v>7450.5</v>
       </c>
       <c r="CE19" t="n">
-        <v>7699</v>
+        <v>7440.5</v>
       </c>
       <c r="CF19" t="n">
-        <v>7638</v>
+        <v>7458.9</v>
       </c>
       <c r="CG19" t="n">
-        <v>7578</v>
+        <v>7418.9</v>
       </c>
       <c r="CH19" t="n">
-        <v>7498</v>
+        <v>7338.9</v>
       </c>
       <c r="CI19" t="n">
-        <v>7408</v>
+        <v>7228.9</v>
       </c>
       <c r="CJ19" t="n">
-        <v>7471</v>
+        <v>7318</v>
       </c>
       <c r="CK19" t="n">
-        <v>7311</v>
+        <v>7178</v>
       </c>
       <c r="CL19" t="n">
-        <v>7211</v>
+        <v>7028</v>
       </c>
       <c r="CM19" t="n">
-        <v>7111</v>
+        <v>6898</v>
       </c>
       <c r="CN19" t="n">
-        <v>7050</v>
+        <v>7234.6</v>
       </c>
       <c r="CO19" t="n">
-        <v>6940</v>
+        <v>7094.6</v>
       </c>
       <c r="CP19" t="n">
-        <v>6770</v>
+        <v>6954.6</v>
       </c>
       <c r="CQ19" t="n">
-        <v>6630</v>
+        <v>6794.6</v>
       </c>
       <c r="CR19" t="n">
-        <v>6421</v>
+        <v>6789.7</v>
       </c>
       <c r="CS19" t="n">
-        <v>6251</v>
+        <v>6659.7</v>
       </c>
       <c r="CT19" t="n">
-        <v>6161</v>
+        <v>6529.7</v>
       </c>
       <c r="CU19" t="n">
-        <v>6051</v>
+        <v>6429.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" s="2" t="n">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45730</v>
       </c>
       <c r="D20" t="n">
-        <v>5728</v>
+        <v>6674</v>
       </c>
       <c r="E20" t="n">
-        <v>5598</v>
+        <v>6614</v>
       </c>
       <c r="F20" t="n">
-        <v>5548</v>
+        <v>6564</v>
       </c>
       <c r="G20" t="n">
-        <v>5498</v>
+        <v>6504</v>
       </c>
       <c r="H20" t="n">
-        <v>5366</v>
+        <v>6444.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5336</v>
+        <v>6404.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5306</v>
+        <v>6374.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5276</v>
+        <v>6334.5</v>
       </c>
       <c r="L20" t="n">
-        <v>5242</v>
+        <v>6480.3</v>
       </c>
       <c r="M20" t="n">
-        <v>5222</v>
+        <v>6460.3</v>
       </c>
       <c r="N20" t="n">
-        <v>5212</v>
+        <v>6440.3</v>
       </c>
       <c r="O20" t="n">
-        <v>5212</v>
+        <v>6430.3</v>
       </c>
       <c r="P20" t="n">
-        <v>5168</v>
+        <v>6536.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>5178</v>
+        <v>6536.6</v>
       </c>
       <c r="R20" t="n">
-        <v>5178</v>
+        <v>6536.6</v>
       </c>
       <c r="S20" t="n">
-        <v>5178</v>
+        <v>6556.6</v>
       </c>
       <c r="T20" t="n">
-        <v>5180</v>
+        <v>6293.6</v>
       </c>
       <c r="U20" t="n">
-        <v>5190</v>
+        <v>6313.6</v>
       </c>
       <c r="V20" t="n">
-        <v>5200</v>
+        <v>6333.6</v>
       </c>
       <c r="W20" t="n">
-        <v>5230</v>
+        <v>6363.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5339</v>
+        <v>6035.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5419</v>
+        <v>6105.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>5529</v>
+        <v>6195.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>5669</v>
+        <v>6275.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>5820</v>
+        <v>5929.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>5990</v>
+        <v>6079.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>6170</v>
+        <v>6239.8</v>
       </c>
       <c r="AE20" t="n">
-        <v>6330</v>
+        <v>6399.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>6288</v>
+        <v>6451.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>6408</v>
+        <v>6621.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>6508</v>
+        <v>6691.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>6588</v>
+        <v>6701.6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6638</v>
+        <v>6560.2</v>
       </c>
       <c r="AK20" t="n">
-        <v>6638</v>
+        <v>6540.2</v>
       </c>
       <c r="AL20" t="n">
-        <v>6618</v>
+        <v>6490.2</v>
       </c>
       <c r="AM20" t="n">
-        <v>6558</v>
+        <v>6400.2</v>
       </c>
       <c r="AN20" t="n">
-        <v>6635</v>
+        <v>6084.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>6545</v>
+        <v>5954.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>6455</v>
+        <v>5824.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6365</v>
+        <v>5684.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>6446</v>
+        <v>5935.1</v>
       </c>
       <c r="AS20" t="n">
-        <v>6366</v>
+        <v>5815.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>6296</v>
+        <v>5695.1</v>
       </c>
       <c r="AU20" t="n">
-        <v>6236</v>
+        <v>5595.1</v>
       </c>
       <c r="AV20" t="n">
-        <v>6212</v>
+        <v>5772.6</v>
       </c>
       <c r="AW20" t="n">
-        <v>6172</v>
+        <v>5692.6</v>
       </c>
       <c r="AX20" t="n">
-        <v>6132</v>
+        <v>5632.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>6102</v>
+        <v>5582.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6048</v>
+        <v>5513.8</v>
       </c>
       <c r="BA20" t="n">
-        <v>6018</v>
+        <v>5473.8</v>
       </c>
       <c r="BB20" t="n">
-        <v>6008</v>
+        <v>5453.8</v>
       </c>
       <c r="BC20" t="n">
-        <v>5998</v>
+        <v>5443.8</v>
       </c>
       <c r="BD20" t="n">
-        <v>5989</v>
+        <v>5434.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>5999</v>
+        <v>5444.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>6009</v>
+        <v>5464.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>6029</v>
+        <v>5484.4</v>
       </c>
       <c r="BH20" t="n">
-        <v>6081</v>
+        <v>5335.5</v>
       </c>
       <c r="BI20" t="n">
-        <v>6111</v>
+        <v>5365.5</v>
       </c>
       <c r="BJ20" t="n">
-        <v>6151</v>
+        <v>5405.5</v>
       </c>
       <c r="BK20" t="n">
-        <v>6191</v>
+        <v>5485.5</v>
       </c>
       <c r="BL20" t="n">
-        <v>6275</v>
+        <v>5466.1</v>
       </c>
       <c r="BM20" t="n">
-        <v>6325</v>
+        <v>5546.1</v>
       </c>
       <c r="BN20" t="n">
-        <v>6375</v>
+        <v>5626.1</v>
       </c>
       <c r="BO20" t="n">
-        <v>6445</v>
+        <v>5716.1</v>
       </c>
       <c r="BP20" t="n">
-        <v>6571</v>
+        <v>5906.2</v>
       </c>
       <c r="BQ20" t="n">
-        <v>6661</v>
+        <v>6016.2</v>
       </c>
       <c r="BR20" t="n">
-        <v>6771</v>
+        <v>6136.2</v>
       </c>
       <c r="BS20" t="n">
-        <v>6891</v>
+        <v>6256.2</v>
       </c>
       <c r="BT20" t="n">
-        <v>6808</v>
+        <v>5993.5</v>
       </c>
       <c r="BU20" t="n">
-        <v>6948</v>
+        <v>6123.5</v>
       </c>
       <c r="BV20" t="n">
-        <v>7078</v>
+        <v>6253.5</v>
       </c>
       <c r="BW20" t="n">
-        <v>7218</v>
+        <v>6383.5</v>
       </c>
       <c r="BX20" t="n">
-        <v>7231</v>
+        <v>6370.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>7351</v>
+        <v>6500.9</v>
       </c>
       <c r="BZ20" t="n">
-        <v>7451</v>
+        <v>6630.9</v>
       </c>
       <c r="CA20" t="n">
-        <v>7541</v>
+        <v>6740.9</v>
       </c>
       <c r="CB20" t="n">
-        <v>7639</v>
+        <v>6817</v>
       </c>
       <c r="CC20" t="n">
-        <v>7669</v>
+        <v>6867</v>
       </c>
       <c r="CD20" t="n">
-        <v>7669</v>
+        <v>6897</v>
       </c>
       <c r="CE20" t="n">
-        <v>7639</v>
+        <v>6897</v>
       </c>
       <c r="CF20" t="n">
-        <v>7578</v>
+        <v>7081.1</v>
       </c>
       <c r="CG20" t="n">
-        <v>7518</v>
+        <v>7051.1</v>
       </c>
       <c r="CH20" t="n">
-        <v>7438</v>
+        <v>6991.1</v>
       </c>
       <c r="CI20" t="n">
-        <v>7348</v>
+        <v>6921.1</v>
       </c>
       <c r="CJ20" t="n">
-        <v>7411</v>
+        <v>7288</v>
       </c>
       <c r="CK20" t="n">
-        <v>7251</v>
+        <v>7118</v>
       </c>
       <c r="CL20" t="n">
-        <v>7151</v>
+        <v>7008</v>
       </c>
       <c r="CM20" t="n">
-        <v>7051</v>
+        <v>6888</v>
       </c>
       <c r="CN20" t="n">
-        <v>6990</v>
+        <v>7283.5</v>
       </c>
       <c r="CO20" t="n">
-        <v>6880</v>
+        <v>7143.5</v>
       </c>
       <c r="CP20" t="n">
-        <v>6710</v>
+        <v>6973.5</v>
       </c>
       <c r="CQ20" t="n">
-        <v>6570</v>
+        <v>6823.5</v>
       </c>
       <c r="CR20" t="n">
-        <v>6361</v>
+        <v>6779.2</v>
       </c>
       <c r="CS20" t="n">
-        <v>6191</v>
+        <v>6629.2</v>
       </c>
       <c r="CT20" t="n">
-        <v>6101</v>
+        <v>6519.2</v>
       </c>
       <c r="CU20" t="n">
-        <v>5991</v>
+        <v>6409.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="n">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45731</v>
       </c>
       <c r="D21" t="n">
-        <v>5748</v>
+        <v>6385.7</v>
       </c>
       <c r="E21" t="n">
-        <v>5698</v>
+        <v>6315.7</v>
       </c>
       <c r="F21" t="n">
-        <v>5678</v>
+        <v>6285.7</v>
       </c>
       <c r="G21" t="n">
-        <v>5628</v>
+        <v>6235.7</v>
       </c>
       <c r="H21" t="n">
-        <v>5486</v>
+        <v>6167.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5436</v>
+        <v>6127.1</v>
       </c>
       <c r="J21" t="n">
-        <v>5396</v>
+        <v>6097.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5356</v>
+        <v>6067.1</v>
       </c>
       <c r="L21" t="n">
-        <v>5322</v>
+        <v>5908</v>
       </c>
       <c r="M21" t="n">
-        <v>5302</v>
+        <v>5868</v>
       </c>
       <c r="N21" t="n">
-        <v>5282</v>
+        <v>5848</v>
       </c>
       <c r="O21" t="n">
-        <v>5272</v>
+        <v>5828</v>
       </c>
       <c r="P21" t="n">
-        <v>5208</v>
+        <v>5856.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>5208</v>
+        <v>5846.7</v>
       </c>
       <c r="R21" t="n">
-        <v>5208</v>
+        <v>5846.7</v>
       </c>
       <c r="S21" t="n">
-        <v>5208</v>
+        <v>5846.7</v>
       </c>
       <c r="T21" t="n">
-        <v>5200</v>
+        <v>5683.4</v>
       </c>
       <c r="U21" t="n">
-        <v>5200</v>
+        <v>5683.4</v>
       </c>
       <c r="V21" t="n">
-        <v>5200</v>
+        <v>5693.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5210</v>
+        <v>5713.4</v>
       </c>
       <c r="X21" t="n">
-        <v>5279</v>
+        <v>5508.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5299</v>
+        <v>5528.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>5329</v>
+        <v>5538.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>5359</v>
+        <v>5568.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>5400</v>
+        <v>5488</v>
       </c>
       <c r="AC21" t="n">
-        <v>5440</v>
+        <v>5528</v>
       </c>
       <c r="AD21" t="n">
-        <v>5490</v>
+        <v>5568</v>
       </c>
       <c r="AE21" t="n">
-        <v>5540</v>
+        <v>5618</v>
       </c>
       <c r="AF21" t="n">
-        <v>5398</v>
+        <v>5708.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>5438</v>
+        <v>5758.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>5468</v>
+        <v>5818.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>5498</v>
+        <v>5868.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5518</v>
+        <v>6088.6</v>
       </c>
       <c r="AK21" t="n">
-        <v>5518</v>
+        <v>6128.6</v>
       </c>
       <c r="AL21" t="n">
-        <v>5498</v>
+        <v>6148.6</v>
       </c>
       <c r="AM21" t="n">
-        <v>5458</v>
+        <v>6148.6</v>
       </c>
       <c r="AN21" t="n">
-        <v>5545</v>
+        <v>6159</v>
       </c>
       <c r="AO21" t="n">
-        <v>5475</v>
+        <v>6089</v>
       </c>
       <c r="AP21" t="n">
-        <v>5395</v>
+        <v>6039</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5305</v>
+        <v>5989</v>
       </c>
       <c r="AR21" t="n">
-        <v>5376</v>
+        <v>6156.8</v>
       </c>
       <c r="AS21" t="n">
-        <v>5286</v>
+        <v>6106.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>5186</v>
+        <v>6056.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>5106</v>
+        <v>6006.8</v>
       </c>
       <c r="AV21" t="n">
-        <v>5052</v>
+        <v>6451.8</v>
       </c>
       <c r="AW21" t="n">
-        <v>4982</v>
+        <v>6411.8</v>
       </c>
       <c r="AX21" t="n">
-        <v>4922</v>
+        <v>6381.8</v>
       </c>
       <c r="AY21" t="n">
-        <v>4872</v>
+        <v>6351.8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4808</v>
+        <v>6112.9</v>
       </c>
       <c r="BA21" t="n">
-        <v>4768</v>
+        <v>6082.9</v>
       </c>
       <c r="BB21" t="n">
-        <v>4748</v>
+        <v>6062.9</v>
       </c>
       <c r="BC21" t="n">
-        <v>4728</v>
+        <v>6042.9</v>
       </c>
       <c r="BD21" t="n">
-        <v>4719</v>
+        <v>6302</v>
       </c>
       <c r="BE21" t="n">
-        <v>4719</v>
+        <v>6292</v>
       </c>
       <c r="BF21" t="n">
-        <v>4729</v>
+        <v>6292</v>
       </c>
       <c r="BG21" t="n">
-        <v>4749</v>
+        <v>6302</v>
       </c>
       <c r="BH21" t="n">
-        <v>4801</v>
+        <v>6039.6</v>
       </c>
       <c r="BI21" t="n">
-        <v>4841</v>
+        <v>6059.6</v>
       </c>
       <c r="BJ21" t="n">
-        <v>4901</v>
+        <v>6089.6</v>
       </c>
       <c r="BK21" t="n">
-        <v>4961</v>
+        <v>6119.6</v>
       </c>
       <c r="BL21" t="n">
-        <v>5075</v>
+        <v>5752</v>
       </c>
       <c r="BM21" t="n">
-        <v>5155</v>
+        <v>5802</v>
       </c>
       <c r="BN21" t="n">
-        <v>5245</v>
+        <v>5842</v>
       </c>
       <c r="BO21" t="n">
-        <v>5345</v>
+        <v>5902</v>
       </c>
       <c r="BP21" t="n">
-        <v>5501</v>
+        <v>5100.2</v>
       </c>
       <c r="BQ21" t="n">
-        <v>5611</v>
+        <v>5180.2</v>
       </c>
       <c r="BR21" t="n">
-        <v>5741</v>
+        <v>5280.2</v>
       </c>
       <c r="BS21" t="n">
-        <v>5871</v>
+        <v>5400.2</v>
       </c>
       <c r="BT21" t="n">
-        <v>5788</v>
+        <v>5115.8</v>
       </c>
       <c r="BU21" t="n">
-        <v>5928</v>
+        <v>5255.8</v>
       </c>
       <c r="BV21" t="n">
-        <v>6068</v>
+        <v>5395.8</v>
       </c>
       <c r="BW21" t="n">
-        <v>6218</v>
+        <v>5525.8</v>
       </c>
       <c r="BX21" t="n">
-        <v>6261</v>
+        <v>5790.1</v>
       </c>
       <c r="BY21" t="n">
-        <v>6411</v>
+        <v>5900.1</v>
       </c>
       <c r="BZ21" t="n">
-        <v>6571</v>
+        <v>5990.1</v>
       </c>
       <c r="CA21" t="n">
-        <v>6731</v>
+        <v>6070.1</v>
       </c>
       <c r="CB21" t="n">
-        <v>6899</v>
+        <v>6119.1</v>
       </c>
       <c r="CC21" t="n">
-        <v>7009</v>
+        <v>6159.1</v>
       </c>
       <c r="CD21" t="n">
-        <v>7049</v>
+        <v>6169.1</v>
       </c>
       <c r="CE21" t="n">
-        <v>7049</v>
+        <v>6149.1</v>
       </c>
       <c r="CF21" t="n">
-        <v>7038</v>
+        <v>6255.1</v>
       </c>
       <c r="CG21" t="n">
-        <v>7028</v>
+        <v>6215.1</v>
       </c>
       <c r="CH21" t="n">
-        <v>6948</v>
+        <v>6155.1</v>
       </c>
       <c r="CI21" t="n">
-        <v>6868</v>
+        <v>6085.1</v>
       </c>
       <c r="CJ21" t="n">
-        <v>6931</v>
+        <v>6226.5</v>
       </c>
       <c r="CK21" t="n">
-        <v>6781</v>
+        <v>6126.5</v>
       </c>
       <c r="CL21" t="n">
-        <v>6691</v>
+        <v>6046.5</v>
       </c>
       <c r="CM21" t="n">
-        <v>6601</v>
+        <v>5946.5</v>
       </c>
       <c r="CN21" t="n">
-        <v>6550</v>
+        <v>6271.3</v>
       </c>
       <c r="CO21" t="n">
-        <v>6450</v>
+        <v>6171.3</v>
       </c>
       <c r="CP21" t="n">
-        <v>6290</v>
+        <v>6031.3</v>
       </c>
       <c r="CQ21" t="n">
-        <v>6160</v>
+        <v>5891.3</v>
       </c>
       <c r="CR21" t="n">
-        <v>5971</v>
+        <v>6103.2</v>
       </c>
       <c r="CS21" t="n">
-        <v>5831</v>
+        <v>5993.2</v>
       </c>
       <c r="CT21" t="n">
-        <v>5731</v>
+        <v>5883.2</v>
       </c>
       <c r="CU21" t="n">
-        <v>5621</v>
+        <v>5773.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="n">
-        <v>45724</v>
+        <v>45731</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45732</v>
       </c>
       <c r="D22" t="n">
-        <v>5448</v>
+        <v>5884.4</v>
       </c>
       <c r="E22" t="n">
-        <v>5348</v>
+        <v>5814.4</v>
       </c>
       <c r="F22" t="n">
-        <v>5288</v>
+        <v>5774.4</v>
       </c>
       <c r="G22" t="n">
-        <v>5218</v>
+        <v>5724.4</v>
       </c>
       <c r="H22" t="n">
-        <v>5046</v>
+        <v>4853</v>
       </c>
       <c r="I22" t="n">
-        <v>4986</v>
+        <v>4813</v>
       </c>
       <c r="J22" t="n">
-        <v>4946</v>
+        <v>4773</v>
       </c>
       <c r="K22" t="n">
-        <v>4906</v>
+        <v>4743</v>
       </c>
       <c r="L22" t="n">
-        <v>4882</v>
+        <v>4689</v>
       </c>
       <c r="M22" t="n">
-        <v>4862</v>
+        <v>4679</v>
       </c>
       <c r="N22" t="n">
-        <v>4852</v>
+        <v>4669</v>
       </c>
       <c r="O22" t="n">
-        <v>4842</v>
+        <v>4659</v>
       </c>
       <c r="P22" t="n">
-        <v>4778</v>
+        <v>4669</v>
       </c>
       <c r="Q22" t="n">
-        <v>4768</v>
+        <v>4659</v>
       </c>
       <c r="R22" t="n">
-        <v>4758</v>
+        <v>4659</v>
       </c>
       <c r="S22" t="n">
-        <v>4758</v>
+        <v>4659</v>
       </c>
       <c r="T22" t="n">
-        <v>4750</v>
+        <v>4693</v>
       </c>
       <c r="U22" t="n">
-        <v>4750</v>
+        <v>4703</v>
       </c>
       <c r="V22" t="n">
-        <v>4760</v>
+        <v>4703</v>
       </c>
       <c r="W22" t="n">
-        <v>4770</v>
+        <v>4713</v>
       </c>
       <c r="X22" t="n">
-        <v>4829</v>
+        <v>4751</v>
       </c>
       <c r="Y22" t="n">
-        <v>4839</v>
+        <v>4771</v>
       </c>
       <c r="Z22" t="n">
-        <v>4849</v>
+        <v>4791</v>
       </c>
       <c r="AA22" t="n">
-        <v>4859</v>
+        <v>4821</v>
       </c>
       <c r="AB22" t="n">
-        <v>4860</v>
+        <v>4831</v>
       </c>
       <c r="AC22" t="n">
-        <v>4870</v>
+        <v>4851</v>
       </c>
       <c r="AD22" t="n">
-        <v>4880</v>
+        <v>4871</v>
       </c>
       <c r="AE22" t="n">
-        <v>4880</v>
+        <v>4901</v>
       </c>
       <c r="AF22" t="n">
-        <v>4698</v>
+        <v>5025</v>
       </c>
       <c r="AG22" t="n">
-        <v>4708</v>
+        <v>5055</v>
       </c>
       <c r="AH22" t="n">
-        <v>4718</v>
+        <v>5085</v>
       </c>
       <c r="AI22" t="n">
-        <v>4728</v>
+        <v>5115</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4758</v>
+        <v>5239</v>
       </c>
       <c r="AK22" t="n">
-        <v>4768</v>
+        <v>5259</v>
       </c>
       <c r="AL22" t="n">
-        <v>4768</v>
+        <v>5269</v>
       </c>
       <c r="AM22" t="n">
-        <v>4748</v>
+        <v>5279</v>
       </c>
       <c r="AN22" t="n">
-        <v>4875</v>
+        <v>5470</v>
       </c>
       <c r="AO22" t="n">
-        <v>4845</v>
+        <v>5460</v>
       </c>
       <c r="AP22" t="n">
-        <v>4795</v>
+        <v>5450</v>
       </c>
       <c r="AQ22" t="n">
-        <v>4735</v>
+        <v>5430</v>
       </c>
       <c r="AR22" t="n">
-        <v>4826</v>
+        <v>5376</v>
       </c>
       <c r="AS22" t="n">
-        <v>4756</v>
+        <v>5366</v>
       </c>
       <c r="AT22" t="n">
-        <v>4686</v>
+        <v>5366</v>
       </c>
       <c r="AU22" t="n">
-        <v>4626</v>
+        <v>5356</v>
       </c>
       <c r="AV22" t="n">
-        <v>4592</v>
+        <v>5445</v>
       </c>
       <c r="AW22" t="n">
-        <v>4542</v>
+        <v>5435</v>
       </c>
       <c r="AX22" t="n">
-        <v>4492</v>
+        <v>5425</v>
       </c>
       <c r="AY22" t="n">
-        <v>4462</v>
+        <v>5415</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4418</v>
+        <v>5349</v>
       </c>
       <c r="BA22" t="n">
-        <v>4398</v>
+        <v>5339</v>
       </c>
       <c r="BB22" t="n">
-        <v>4388</v>
+        <v>5319</v>
       </c>
       <c r="BC22" t="n">
-        <v>4378</v>
+        <v>5309</v>
       </c>
       <c r="BD22" t="n">
-        <v>4369</v>
+        <v>5292</v>
       </c>
       <c r="BE22" t="n">
-        <v>4359</v>
+        <v>5282</v>
       </c>
       <c r="BF22" t="n">
-        <v>4359</v>
+        <v>5282</v>
       </c>
       <c r="BG22" t="n">
-        <v>4359</v>
+        <v>5282</v>
       </c>
       <c r="BH22" t="n">
-        <v>4391</v>
+        <v>5373</v>
       </c>
       <c r="BI22" t="n">
-        <v>4411</v>
+        <v>5373</v>
       </c>
       <c r="BJ22" t="n">
-        <v>4431</v>
+        <v>5373</v>
       </c>
       <c r="BK22" t="n">
-        <v>4471</v>
+        <v>5383</v>
       </c>
       <c r="BL22" t="n">
-        <v>4555</v>
+        <v>5335</v>
       </c>
       <c r="BM22" t="n">
-        <v>4615</v>
+        <v>5345</v>
       </c>
       <c r="BN22" t="n">
-        <v>4685</v>
+        <v>5355</v>
       </c>
       <c r="BO22" t="n">
-        <v>4775</v>
+        <v>5375</v>
       </c>
       <c r="BP22" t="n">
-        <v>4921</v>
+        <v>5494</v>
       </c>
       <c r="BQ22" t="n">
-        <v>5021</v>
+        <v>5544</v>
       </c>
       <c r="BR22" t="n">
-        <v>5141</v>
+        <v>5624</v>
       </c>
       <c r="BS22" t="n">
-        <v>5271</v>
+        <v>5714</v>
       </c>
       <c r="BT22" t="n">
-        <v>5188</v>
+        <v>5630</v>
       </c>
       <c r="BU22" t="n">
-        <v>5318</v>
+        <v>5750</v>
       </c>
       <c r="BV22" t="n">
-        <v>5458</v>
+        <v>5870</v>
       </c>
       <c r="BW22" t="n">
-        <v>5608</v>
+        <v>6000</v>
       </c>
       <c r="BX22" t="n">
-        <v>5651</v>
+        <v>6074</v>
       </c>
       <c r="BY22" t="n">
-        <v>5821</v>
+        <v>6194</v>
       </c>
       <c r="BZ22" t="n">
-        <v>5981</v>
+        <v>6324</v>
       </c>
       <c r="CA22" t="n">
-        <v>6151</v>
+        <v>6424</v>
       </c>
       <c r="CB22" t="n">
-        <v>6339</v>
+        <v>6515</v>
       </c>
       <c r="CC22" t="n">
-        <v>6449</v>
+        <v>6585</v>
       </c>
       <c r="CD22" t="n">
-        <v>6499</v>
+        <v>6625</v>
       </c>
       <c r="CE22" t="n">
-        <v>6499</v>
+        <v>6615</v>
       </c>
       <c r="CF22" t="n">
-        <v>6488</v>
+        <v>6682</v>
       </c>
       <c r="CG22" t="n">
-        <v>6448</v>
+        <v>6632</v>
       </c>
       <c r="CH22" t="n">
-        <v>6368</v>
+        <v>6582</v>
       </c>
       <c r="CI22" t="n">
-        <v>6298</v>
+        <v>6532</v>
       </c>
       <c r="CJ22" t="n">
-        <v>6381</v>
+        <v>6409</v>
       </c>
       <c r="CK22" t="n">
-        <v>6261</v>
+        <v>6319</v>
       </c>
       <c r="CL22" t="n">
-        <v>6191</v>
+        <v>6249</v>
       </c>
       <c r="CM22" t="n">
-        <v>6111</v>
+        <v>6169</v>
       </c>
       <c r="CN22" t="n">
-        <v>6080</v>
+        <v>5902</v>
       </c>
       <c r="CO22" t="n">
-        <v>5990</v>
+        <v>5802</v>
       </c>
       <c r="CP22" t="n">
-        <v>5850</v>
+        <v>5672</v>
       </c>
       <c r="CQ22" t="n">
-        <v>5730</v>
+        <v>5552</v>
       </c>
       <c r="CR22" t="n">
-        <v>5551</v>
+        <v>5443</v>
       </c>
       <c r="CS22" t="n">
-        <v>5431</v>
+        <v>5343</v>
       </c>
       <c r="CT22" t="n">
-        <v>5321</v>
+        <v>5233</v>
       </c>
       <c r="CU22" t="n">
-        <v>5221</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" s="2" t="n">
-        <v>45725</v>
+        <v>45732</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45733</v>
       </c>
       <c r="D23" t="n">
-        <v>5098</v>
+        <v>5023</v>
       </c>
       <c r="E23" t="n">
-        <v>5028</v>
+        <v>4963</v>
       </c>
       <c r="F23" t="n">
-        <v>4988</v>
+        <v>4913</v>
       </c>
       <c r="G23" t="n">
-        <v>4948</v>
+        <v>4873</v>
       </c>
       <c r="H23" t="n">
-        <v>4836</v>
+        <v>4854.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4816</v>
+        <v>4824.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4786</v>
+        <v>4794.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4766</v>
+        <v>4774.3</v>
       </c>
       <c r="L23" t="n">
-        <v>4732</v>
+        <v>4758.8</v>
       </c>
       <c r="M23" t="n">
-        <v>4722</v>
+        <v>4758.8</v>
       </c>
       <c r="N23" t="n">
-        <v>4712</v>
+        <v>4758.8</v>
       </c>
       <c r="O23" t="n">
-        <v>4702</v>
+        <v>4758.8</v>
       </c>
       <c r="P23" t="n">
-        <v>4658</v>
+        <v>4755.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>4658</v>
+        <v>4755.8</v>
       </c>
       <c r="R23" t="n">
-        <v>4668</v>
+        <v>4755.8</v>
       </c>
       <c r="S23" t="n">
-        <v>4678</v>
+        <v>4765.8</v>
       </c>
       <c r="T23" t="n">
-        <v>4690</v>
+        <v>4676.5</v>
       </c>
       <c r="U23" t="n">
-        <v>4720</v>
+        <v>4706.5</v>
       </c>
       <c r="V23" t="n">
-        <v>4750</v>
+        <v>4756.5</v>
       </c>
       <c r="W23" t="n">
-        <v>4800</v>
+        <v>4816.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4919</v>
+        <v>4601.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5009</v>
+        <v>4711.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>5119</v>
+        <v>4841.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>5259</v>
+        <v>5011.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>5410</v>
+        <v>4602.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>5570</v>
+        <v>4782.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5750</v>
+        <v>4982.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>5930</v>
+        <v>5162.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>5908</v>
+        <v>4951.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>6058</v>
+        <v>5121.3</v>
       </c>
       <c r="AH23" t="n">
-        <v>6188</v>
+        <v>5271.3</v>
       </c>
       <c r="AI23" t="n">
-        <v>6298</v>
+        <v>5411.3</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6388</v>
+        <v>5193.3</v>
       </c>
       <c r="AK23" t="n">
-        <v>6438</v>
+        <v>5283.3</v>
       </c>
       <c r="AL23" t="n">
-        <v>6468</v>
+        <v>5353.3</v>
       </c>
       <c r="AM23" t="n">
-        <v>6428</v>
+        <v>5383.3</v>
       </c>
       <c r="AN23" t="n">
-        <v>6535</v>
+        <v>5355.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>6475</v>
+        <v>5355.2</v>
       </c>
       <c r="AP23" t="n">
-        <v>6395</v>
+        <v>5345.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6305</v>
+        <v>5315.2</v>
       </c>
       <c r="AR23" t="n">
-        <v>6386</v>
+        <v>5492.6</v>
       </c>
       <c r="AS23" t="n">
-        <v>6306</v>
+        <v>5452.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>6226</v>
+        <v>5402.6</v>
       </c>
       <c r="AU23" t="n">
-        <v>6166</v>
+        <v>5342.6</v>
       </c>
       <c r="AV23" t="n">
-        <v>6132</v>
+        <v>5639.9</v>
       </c>
       <c r="AW23" t="n">
-        <v>6092</v>
+        <v>5619.9</v>
       </c>
       <c r="AX23" t="n">
-        <v>6052</v>
+        <v>5599.9</v>
       </c>
       <c r="AY23" t="n">
-        <v>6022</v>
+        <v>5569.9</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5978</v>
+        <v>5745.9</v>
       </c>
       <c r="BA23" t="n">
-        <v>5948</v>
+        <v>5725.9</v>
       </c>
       <c r="BB23" t="n">
-        <v>5928</v>
+        <v>5715.9</v>
       </c>
       <c r="BC23" t="n">
-        <v>5908</v>
+        <v>5695.9</v>
       </c>
       <c r="BD23" t="n">
-        <v>5889</v>
+        <v>5911.7</v>
       </c>
       <c r="BE23" t="n">
-        <v>5879</v>
+        <v>5911.7</v>
       </c>
       <c r="BF23" t="n">
-        <v>5879</v>
+        <v>5911.7</v>
       </c>
       <c r="BG23" t="n">
-        <v>5889</v>
+        <v>5911.7</v>
       </c>
       <c r="BH23" t="n">
-        <v>5921</v>
+        <v>6134.6</v>
       </c>
       <c r="BI23" t="n">
-        <v>5951</v>
+        <v>6134.6</v>
       </c>
       <c r="BJ23" t="n">
-        <v>5981</v>
+        <v>6134.6</v>
       </c>
       <c r="BK23" t="n">
-        <v>6011</v>
+        <v>6134.6</v>
       </c>
       <c r="BL23" t="n">
-        <v>6085</v>
+        <v>6338.5</v>
       </c>
       <c r="BM23" t="n">
-        <v>6125</v>
+        <v>6338.5</v>
       </c>
       <c r="BN23" t="n">
-        <v>6175</v>
+        <v>6338.5</v>
       </c>
       <c r="BO23" t="n">
-        <v>6235</v>
+        <v>6338.5</v>
       </c>
       <c r="BP23" t="n">
-        <v>6341</v>
+        <v>6318.6</v>
       </c>
       <c r="BQ23" t="n">
-        <v>6431</v>
+        <v>6338.6</v>
       </c>
       <c r="BR23" t="n">
-        <v>6531</v>
+        <v>6378.6</v>
       </c>
       <c r="BS23" t="n">
-        <v>6661</v>
+        <v>6438.6</v>
       </c>
       <c r="BT23" t="n">
-        <v>6578</v>
+        <v>6458.6</v>
       </c>
       <c r="BU23" t="n">
-        <v>6718</v>
+        <v>6528.6</v>
       </c>
       <c r="BV23" t="n">
-        <v>6868</v>
+        <v>6598.6</v>
       </c>
       <c r="BW23" t="n">
-        <v>7008</v>
+        <v>6668.6</v>
       </c>
       <c r="BX23" t="n">
-        <v>7021</v>
+        <v>6938.8</v>
       </c>
       <c r="BY23" t="n">
-        <v>7141</v>
+        <v>7038.8</v>
       </c>
       <c r="BZ23" t="n">
-        <v>7241</v>
+        <v>7118.8</v>
       </c>
       <c r="CA23" t="n">
-        <v>7331</v>
+        <v>7218.8</v>
       </c>
       <c r="CB23" t="n">
-        <v>7449</v>
+        <v>7312.8</v>
       </c>
       <c r="CC23" t="n">
-        <v>7499</v>
+        <v>7392.8</v>
       </c>
       <c r="CD23" t="n">
-        <v>7499</v>
+        <v>7442.8</v>
       </c>
       <c r="CE23" t="n">
-        <v>7499</v>
+        <v>7432.8</v>
       </c>
       <c r="CF23" t="n">
-        <v>7468</v>
+        <v>7711</v>
       </c>
       <c r="CG23" t="n">
-        <v>7438</v>
+        <v>7651</v>
       </c>
       <c r="CH23" t="n">
-        <v>7368</v>
+        <v>7571</v>
       </c>
       <c r="CI23" t="n">
-        <v>7308</v>
+        <v>7491</v>
       </c>
       <c r="CJ23" t="n">
-        <v>7381</v>
+        <v>7736.8</v>
       </c>
       <c r="CK23" t="n">
-        <v>7231</v>
+        <v>7596.8</v>
       </c>
       <c r="CL23" t="n">
-        <v>7131</v>
+        <v>7486.8</v>
       </c>
       <c r="CM23" t="n">
-        <v>7011</v>
+        <v>7356.8</v>
       </c>
       <c r="CN23" t="n">
-        <v>6940</v>
+        <v>7898.7</v>
       </c>
       <c r="CO23" t="n">
-        <v>6800</v>
+        <v>7758.7</v>
       </c>
       <c r="CP23" t="n">
-        <v>6630</v>
+        <v>7608.7</v>
       </c>
       <c r="CQ23" t="n">
-        <v>6500</v>
+        <v>7458.7</v>
       </c>
       <c r="CR23" t="n">
-        <v>6281</v>
+        <v>7659.9</v>
       </c>
       <c r="CS23" t="n">
-        <v>6121</v>
+        <v>7519.9</v>
       </c>
       <c r="CT23" t="n">
-        <v>6031</v>
+        <v>7409.9</v>
       </c>
       <c r="CU23" t="n">
-        <v>5971</v>
+        <v>7299.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" s="2" t="n">
-        <v>45725</v>
+        <v>45733</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45734</v>
       </c>
       <c r="D24" t="n">
-        <v>5588</v>
+        <v>7441.3</v>
       </c>
       <c r="E24" t="n">
-        <v>5538</v>
+        <v>7381.3</v>
       </c>
       <c r="F24" t="n">
-        <v>5488</v>
+        <v>7311.3</v>
       </c>
       <c r="G24" t="n">
-        <v>5438</v>
+        <v>7251.3</v>
       </c>
       <c r="H24" t="n">
-        <v>5306</v>
+        <v>5534</v>
       </c>
       <c r="I24" t="n">
-        <v>5276</v>
+        <v>5494</v>
       </c>
       <c r="J24" t="n">
-        <v>5246</v>
+        <v>5454</v>
       </c>
       <c r="K24" t="n">
-        <v>5216</v>
+        <v>5414</v>
       </c>
       <c r="L24" t="n">
-        <v>5182</v>
+        <v>5410</v>
       </c>
       <c r="M24" t="n">
-        <v>5162</v>
+        <v>5400</v>
       </c>
       <c r="N24" t="n">
-        <v>5152</v>
+        <v>5390</v>
       </c>
       <c r="O24" t="n">
-        <v>5152</v>
+        <v>5380</v>
       </c>
       <c r="P24" t="n">
-        <v>5108</v>
+        <v>5350</v>
       </c>
       <c r="Q24" t="n">
-        <v>5118</v>
+        <v>5360</v>
       </c>
       <c r="R24" t="n">
-        <v>5118</v>
+        <v>5370</v>
       </c>
       <c r="S24" t="n">
-        <v>5118</v>
+        <v>5390</v>
       </c>
       <c r="T24" t="n">
-        <v>5120</v>
+        <v>5418</v>
       </c>
       <c r="U24" t="n">
-        <v>5130</v>
+        <v>5448</v>
       </c>
       <c r="V24" t="n">
-        <v>5140</v>
+        <v>5478</v>
       </c>
       <c r="W24" t="n">
-        <v>5170</v>
+        <v>5518</v>
       </c>
       <c r="X24" t="n">
-        <v>5279</v>
+        <v>5596</v>
       </c>
       <c r="Y24" t="n">
-        <v>5329</v>
+        <v>5666</v>
       </c>
       <c r="Z24" t="n">
-        <v>5439</v>
+        <v>5756</v>
       </c>
       <c r="AA24" t="n">
-        <v>5579</v>
+        <v>5876</v>
       </c>
       <c r="AB24" t="n">
-        <v>5730</v>
+        <v>6222</v>
       </c>
       <c r="AC24" t="n">
-        <v>5900</v>
+        <v>6372</v>
       </c>
       <c r="AD24" t="n">
-        <v>6080</v>
+        <v>6542</v>
       </c>
       <c r="AE24" t="n">
-        <v>6240</v>
+        <v>6722</v>
       </c>
       <c r="AF24" t="n">
-        <v>6198</v>
+        <v>6935</v>
       </c>
       <c r="AG24" t="n">
-        <v>6318</v>
+        <v>7115</v>
       </c>
       <c r="AH24" t="n">
-        <v>6418</v>
+        <v>7275</v>
       </c>
       <c r="AI24" t="n">
-        <v>6468</v>
+        <v>7415</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6488</v>
+        <v>7503</v>
       </c>
       <c r="AK24" t="n">
-        <v>6488</v>
+        <v>7583</v>
       </c>
       <c r="AL24" t="n">
-        <v>6468</v>
+        <v>7633</v>
       </c>
       <c r="AM24" t="n">
-        <v>6408</v>
+        <v>7653</v>
       </c>
       <c r="AN24" t="n">
-        <v>6485</v>
+        <v>7467</v>
       </c>
       <c r="AO24" t="n">
-        <v>6395</v>
+        <v>7427</v>
       </c>
       <c r="AP24" t="n">
-        <v>6305</v>
+        <v>7357</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6215</v>
+        <v>7267</v>
       </c>
       <c r="AR24" t="n">
-        <v>6296</v>
+        <v>7224</v>
       </c>
       <c r="AS24" t="n">
-        <v>6216</v>
+        <v>7114</v>
       </c>
       <c r="AT24" t="n">
-        <v>6146</v>
+        <v>7004</v>
       </c>
       <c r="AU24" t="n">
-        <v>6086</v>
+        <v>6904</v>
       </c>
       <c r="AV24" t="n">
-        <v>6062</v>
+        <v>6856</v>
       </c>
       <c r="AW24" t="n">
-        <v>6022</v>
+        <v>6766</v>
       </c>
       <c r="AX24" t="n">
-        <v>5982</v>
+        <v>6676</v>
       </c>
       <c r="AY24" t="n">
-        <v>5952</v>
+        <v>6606</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5898</v>
+        <v>6562</v>
       </c>
       <c r="BA24" t="n">
-        <v>5868</v>
+        <v>6502</v>
       </c>
       <c r="BB24" t="n">
-        <v>5858</v>
+        <v>6452</v>
       </c>
       <c r="BC24" t="n">
-        <v>5848</v>
+        <v>6422</v>
       </c>
       <c r="BD24" t="n">
-        <v>5839</v>
+        <v>6392</v>
       </c>
       <c r="BE24" t="n">
-        <v>5849</v>
+        <v>6372</v>
       </c>
       <c r="BF24" t="n">
-        <v>5859</v>
+        <v>6362</v>
       </c>
       <c r="BG24" t="n">
-        <v>5879</v>
+        <v>6372</v>
       </c>
       <c r="BH24" t="n">
-        <v>5931</v>
+        <v>6457</v>
       </c>
       <c r="BI24" t="n">
-        <v>5961</v>
+        <v>6477</v>
       </c>
       <c r="BJ24" t="n">
-        <v>6001</v>
+        <v>6507</v>
       </c>
       <c r="BK24" t="n">
-        <v>6041</v>
+        <v>6547</v>
       </c>
       <c r="BL24" t="n">
-        <v>6125</v>
+        <v>6597</v>
       </c>
       <c r="BM24" t="n">
-        <v>6175</v>
+        <v>6647</v>
       </c>
       <c r="BN24" t="n">
-        <v>6225</v>
+        <v>6707</v>
       </c>
       <c r="BO24" t="n">
-        <v>6295</v>
+        <v>6777</v>
       </c>
       <c r="BP24" t="n">
-        <v>6421</v>
+        <v>6835</v>
       </c>
       <c r="BQ24" t="n">
-        <v>6511</v>
+        <v>6935</v>
       </c>
       <c r="BR24" t="n">
-        <v>6621</v>
+        <v>7035</v>
       </c>
       <c r="BS24" t="n">
-        <v>6741</v>
+        <v>7145</v>
       </c>
       <c r="BT24" t="n">
-        <v>6658</v>
+        <v>7170</v>
       </c>
       <c r="BU24" t="n">
-        <v>6798</v>
+        <v>7280</v>
       </c>
       <c r="BV24" t="n">
-        <v>6928</v>
+        <v>7390</v>
       </c>
       <c r="BW24" t="n">
-        <v>7068</v>
+        <v>7500</v>
       </c>
       <c r="BX24" t="n">
-        <v>7081</v>
+        <v>7578</v>
       </c>
       <c r="BY24" t="n">
-        <v>7201</v>
+        <v>7688</v>
       </c>
       <c r="BZ24" t="n">
-        <v>7301</v>
+        <v>7788</v>
       </c>
       <c r="CA24" t="n">
-        <v>7391</v>
+        <v>7888</v>
       </c>
       <c r="CB24" t="n">
-        <v>7489</v>
+        <v>8044</v>
       </c>
       <c r="CC24" t="n">
-        <v>7519</v>
+        <v>8114</v>
       </c>
       <c r="CD24" t="n">
-        <v>7519</v>
+        <v>8144</v>
       </c>
       <c r="CE24" t="n">
-        <v>7489</v>
+        <v>8134</v>
       </c>
       <c r="CF24" t="n">
-        <v>7428</v>
+        <v>8088</v>
       </c>
       <c r="CG24" t="n">
-        <v>7368</v>
+        <v>8038</v>
       </c>
       <c r="CH24" t="n">
-        <v>7288</v>
+        <v>7968</v>
       </c>
       <c r="CI24" t="n">
-        <v>7198</v>
+        <v>7858</v>
       </c>
       <c r="CJ24" t="n">
-        <v>7261</v>
+        <v>7686</v>
       </c>
       <c r="CK24" t="n">
-        <v>7101</v>
+        <v>7566</v>
       </c>
       <c r="CL24" t="n">
-        <v>7001</v>
+        <v>7436</v>
       </c>
       <c r="CM24" t="n">
-        <v>6901</v>
+        <v>7316</v>
       </c>
       <c r="CN24" t="n">
-        <v>6840</v>
+        <v>7168</v>
       </c>
       <c r="CO24" t="n">
-        <v>6730</v>
+        <v>7028</v>
       </c>
       <c r="CP24" t="n">
-        <v>6560</v>
+        <v>6898</v>
       </c>
       <c r="CQ24" t="n">
-        <v>6420</v>
+        <v>6748</v>
       </c>
       <c r="CR24" t="n">
-        <v>6211</v>
+        <v>6492</v>
       </c>
       <c r="CS24" t="n">
-        <v>6041</v>
+        <v>6352</v>
       </c>
       <c r="CT24" t="n">
-        <v>5951</v>
+        <v>6212</v>
       </c>
       <c r="CU24" t="n">
-        <v>5841</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" s="2" t="n">
+        <v>45734</v>
+      </c>
       <c r="C25" s="2" t="n">
         <v>45735</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="inlineStr"/>
-      <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="inlineStr"/>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
-      <c r="BN25" t="inlineStr"/>
-      <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr"/>
-      <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="inlineStr"/>
-      <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="inlineStr"/>
-      <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
-      <c r="BX25" t="inlineStr"/>
-      <c r="BY25" t="inlineStr"/>
-      <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr"/>
-      <c r="CB25" t="inlineStr"/>
-      <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr"/>
-      <c r="CE25" t="inlineStr"/>
-      <c r="CF25" t="inlineStr"/>
-      <c r="CG25" t="inlineStr"/>
-      <c r="CH25" t="inlineStr"/>
-      <c r="CI25" t="inlineStr"/>
-      <c r="CJ25" t="inlineStr"/>
-      <c r="CK25" t="inlineStr"/>
-      <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr"/>
-      <c r="CN25" t="inlineStr"/>
-      <c r="CO25" t="inlineStr"/>
-      <c r="CP25" t="inlineStr"/>
-      <c r="CQ25" t="inlineStr"/>
-      <c r="CR25" t="inlineStr"/>
-      <c r="CS25" t="inlineStr"/>
-      <c r="CT25" t="inlineStr"/>
-      <c r="CU25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6010</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5910</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5850</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5831</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5791</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5751</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5711</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5660</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5650</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5640</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5630</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5625</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5635</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5645</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5655</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5688</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5718</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5738</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5768</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5846</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5906</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5996</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6106</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6449</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6599</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6759</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6951</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>7101</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7221</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>7321</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>7434</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>7454</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>7464</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>7464</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>7542</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7472</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>7382</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>7252</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>7176</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>7046</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>6916</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6796</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>6731</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>6621</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>6521</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>6421</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>6304</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>6214</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>6174</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>6154</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>6137</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>6127</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>6117</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>6117</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>6210</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>6220</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>6230</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>6240</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>6317</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>6357</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>6407</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>6467</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>6463</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>6563</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>6683</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>6803</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>6639</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>6779</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>6919</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>7069</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>7329</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>7489</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>7639</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>7799</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>7749</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>7829</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>7839</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>7839</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>7795</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>7725</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>7645</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>7565</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>7583</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>7473</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>7343</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>7183</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>6997</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>6847</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>6687</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>6547</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>6393</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>6253</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>6143</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>6023</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" s="2" t="n">
+        <v>45735</v>
+      </c>
       <c r="C26" s="2" t="n">
         <v>45736</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
-      <c r="BQ26" t="inlineStr"/>
-      <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
-      <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="inlineStr"/>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr"/>
-      <c r="BX26" t="inlineStr"/>
-      <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr"/>
-      <c r="CB26" t="inlineStr"/>
-      <c r="CC26" t="inlineStr"/>
-      <c r="CD26" t="inlineStr"/>
-      <c r="CE26" t="inlineStr"/>
-      <c r="CF26" t="inlineStr"/>
-      <c r="CG26" t="inlineStr"/>
-      <c r="CH26" t="inlineStr"/>
-      <c r="CI26" t="inlineStr"/>
-      <c r="CJ26" t="inlineStr"/>
-      <c r="CK26" t="inlineStr"/>
-      <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
-      <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
-      <c r="CP26" t="inlineStr"/>
-      <c r="CQ26" t="inlineStr"/>
-      <c r="CR26" t="inlineStr"/>
-      <c r="CS26" t="inlineStr"/>
-      <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>6083</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6033</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5983</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5933</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5814</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5784</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5764</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5734</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5635</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5605</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5595</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5585</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5550</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5560</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5560</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5580</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5634</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5654</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5684</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5724</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5776</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5846</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5936</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6036</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6284</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6414</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6544</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6674</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6818</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6918</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6988</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>7018</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>7054</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>7014</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>6964</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>6894</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6767</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6667</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>6547</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>6407</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>6444</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>6314</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>6194</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>6074</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>5941</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5841</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5751</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>5681</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>5617</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>5567</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>5527</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>5527</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5576</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>5596</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>5616</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>5646</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>5709</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>5759</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>5819</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>5889</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>5990</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>6110</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>6250</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>6410</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>6367</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>6547</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>6727</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>6907</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>7159</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>7339</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>7509</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>7669</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>7771</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>7871</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>7921</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>7911</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>7808</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>7758</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>7688</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>7618</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>7529</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>7409</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>7299</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>7159</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>7078</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>6928</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>6758</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>6608</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>6463</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>6333</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>6213</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>6103</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" s="2" t="n">
+        <v>45735</v>
+      </c>
       <c r="C27" s="2" t="n">
         <v>45737</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
-      <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr"/>
-      <c r="BQ27" t="inlineStr"/>
-      <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
-      <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr"/>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
-      <c r="BY27" t="inlineStr"/>
-      <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr"/>
-      <c r="CB27" t="inlineStr"/>
-      <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="inlineStr"/>
-      <c r="CE27" t="inlineStr"/>
-      <c r="CF27" t="inlineStr"/>
-      <c r="CG27" t="inlineStr"/>
-      <c r="CH27" t="inlineStr"/>
-      <c r="CI27" t="inlineStr"/>
-      <c r="CJ27" t="inlineStr"/>
-      <c r="CK27" t="inlineStr"/>
-      <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
-      <c r="CP27" t="inlineStr"/>
-      <c r="CQ27" t="inlineStr"/>
-      <c r="CR27" t="inlineStr"/>
-      <c r="CS27" t="inlineStr"/>
-      <c r="CT27" t="inlineStr"/>
-      <c r="CU27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>6033</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5983</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5923</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5863</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5744</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5704</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5684</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5654</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5545</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5525</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5515</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5505</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5490</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5500</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5510</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5530</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5564</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5584</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5614</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5654</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5726</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5806</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5896</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6016</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6304</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6434</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6564</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6694</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6738</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>6818</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>6888</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6928</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>7004</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>7004</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>6994</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>6974</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6877</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6787</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>6677</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>6567</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>6614</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>6484</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>6354</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6224</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>6101</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5991</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5891</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5801</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>5737</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>5677</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5637</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>5607</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>5587</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>5587</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5597</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5617</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5686</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>5726</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>5776</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>5836</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>5899</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>5979</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>6069</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>6169</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>6270</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>6390</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>6510</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>6630</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>6547</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>6667</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>6777</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>6927</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>7089</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>7219</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>7379</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>7519</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>7641</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>7771</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>7821</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>7821</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>7748</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>7678</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>7608</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>7488</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>7359</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>7219</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>7099</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>6959</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>6918</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>6778</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>6628</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>6478</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>6283</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>6143</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>6023</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>5913</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" s="2" t="n">
+        <v>45730</v>
+      </c>
       <c r="C28" s="2" t="n">
         <v>45738</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
-      <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
-      <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr"/>
-      <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr"/>
-      <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr"/>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
-      <c r="BY28" t="inlineStr"/>
-      <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="inlineStr"/>
-      <c r="CC28" t="inlineStr"/>
-      <c r="CD28" t="inlineStr"/>
-      <c r="CE28" t="inlineStr"/>
-      <c r="CF28" t="inlineStr"/>
-      <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="inlineStr"/>
-      <c r="CI28" t="inlineStr"/>
-      <c r="CJ28" t="inlineStr"/>
-      <c r="CK28" t="inlineStr"/>
-      <c r="CL28" t="inlineStr"/>
-      <c r="CM28" t="inlineStr"/>
-      <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="inlineStr"/>
-      <c r="CP28" t="inlineStr"/>
-      <c r="CQ28" t="inlineStr"/>
-      <c r="CR28" t="inlineStr"/>
-      <c r="CS28" t="inlineStr"/>
-      <c r="CT28" t="inlineStr"/>
-      <c r="CU28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>5913</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5803</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5763</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6899</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6869</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6829</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6779</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6873</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6843</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6813</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6803</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6662</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6662</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6662</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6672</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6385.3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6395.3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6415.3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6435.3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5977</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6027</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>6067</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6127</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>5512.9</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>5572.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5612.9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5652.9</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>5295.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>5305.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>5295.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>5275.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>4916.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>4856.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>4786.5</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>4696.5</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4745.6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>4645.6</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>4535.6</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>4435.6</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>4810.2</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>4720.2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4630.2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>4550.2</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>4962.8</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4912.8</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4862.8</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>4812.8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>5003.8</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>4963.8</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>4943.8</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>4923.8</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>4939.3</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>4929.3</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>4929.3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>4939.3</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>4878.6</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>4918.6</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>4958.6</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>5028.6</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>4846.8</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>4926.8</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>5016.8</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>5126.8</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>4637.6</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>4777.6</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>4927.6</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>5097.6</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>4851.6</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>5041.6</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>5231.6</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>5421.6</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>5360.1</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>5520.1</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>5650.1</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>5770.1</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>5766.3</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>5816.3</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>5836.3</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>5826.3</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>6169.5</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>6139.5</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>6079.5</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>6019.5</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>6426.2</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>6286.2</v>
+      </c>
+      <c r="CL28" t="n">
+        <v>6216.2</v>
+      </c>
+      <c r="CM28" t="n">
+        <v>6146.2</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>6526.6</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>6436.6</v>
+      </c>
+      <c r="CP28" t="n">
+        <v>6276.6</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>6146.6</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>6229.8</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>6079.8</v>
+      </c>
+      <c r="CT28" t="n">
+        <v>5989.8</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>5879.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" s="2" t="n">
+        <v>45730</v>
+      </c>
       <c r="C29" s="2" t="n">
         <v>45739</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
-      <c r="BE29" t="inlineStr"/>
-      <c r="BF29" t="inlineStr"/>
-      <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="inlineStr"/>
-      <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr"/>
-      <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr"/>
-      <c r="BQ29" t="inlineStr"/>
-      <c r="BR29" t="inlineStr"/>
-      <c r="BS29" t="inlineStr"/>
-      <c r="BT29" t="inlineStr"/>
-      <c r="BU29" t="inlineStr"/>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
-      <c r="BX29" t="inlineStr"/>
-      <c r="BY29" t="inlineStr"/>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
-      <c r="CB29" t="inlineStr"/>
-      <c r="CC29" t="inlineStr"/>
-      <c r="CD29" t="inlineStr"/>
-      <c r="CE29" t="inlineStr"/>
-      <c r="CF29" t="inlineStr"/>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="inlineStr"/>
-      <c r="CI29" t="inlineStr"/>
-      <c r="CJ29" t="inlineStr"/>
-      <c r="CK29" t="inlineStr"/>
-      <c r="CL29" t="inlineStr"/>
-      <c r="CM29" t="inlineStr"/>
-      <c r="CN29" t="inlineStr"/>
-      <c r="CO29" t="inlineStr"/>
-      <c r="CP29" t="inlineStr"/>
-      <c r="CQ29" t="inlineStr"/>
-      <c r="CR29" t="inlineStr"/>
-      <c r="CS29" t="inlineStr"/>
-      <c r="CT29" t="inlineStr"/>
-      <c r="CU29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>5563</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5493</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5453</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5413</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6549</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6519</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6479</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6449</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6553</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6533</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6523</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6503</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6362</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6352</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6342</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6342</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6035.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6035.3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6035.3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6045.3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5577</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5597</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5627</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5647</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5012.9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>5022.9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>5032.9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>5032.9</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>4635.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>4605.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>4575.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>4525.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>4146.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4076.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>3996.5</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>3906.5</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3945.6</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>3845.6</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3735.6</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3625.6</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>4000.2</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3900.2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3810.2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>3730.2</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>4142.8</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4092.8</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4042.8</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>4002.8</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>4193.8</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>4173.8</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4163.8</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>4153.8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>4189.3</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>4199.3</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4219.3</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4249.3</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4198.6</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>4238.6</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>4298.6</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>4368.6</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>4186.8</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>4276.8</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>4376.8</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>4486.8</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>4017.6</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>4177.6</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>4347.6</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>4527.6</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>4291.6</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>4471.6</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>4661.6</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>4821.6</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>4740.1</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>4890.1</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>5030.1</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>5160.1</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>5196.3</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>5286.3</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>5346.3</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>5346.3</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>5689.5</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>5649.5</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>5579.5</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>5519.5</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>5946.2</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>5836.2</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>5786.2</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>5716.2</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>6106.6</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>6016.6</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>5886.6</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>5776.6</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>5859.8</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>5769.8</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>5649.8</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>5549.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" s="2" t="n">
+        <v>45732</v>
+      </c>
       <c r="C30" s="2" t="n">
         <v>45740</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
-      <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="inlineStr"/>
-      <c r="BR30" t="inlineStr"/>
-      <c r="BS30" t="inlineStr"/>
-      <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr"/>
-      <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="inlineStr"/>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
-      <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr"/>
-      <c r="CD30" t="inlineStr"/>
-      <c r="CE30" t="inlineStr"/>
-      <c r="CF30" t="inlineStr"/>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="inlineStr"/>
-      <c r="CI30" t="inlineStr"/>
-      <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="inlineStr"/>
-      <c r="CM30" t="inlineStr"/>
-      <c r="CN30" t="inlineStr"/>
-      <c r="CO30" t="inlineStr"/>
-      <c r="CP30" t="inlineStr"/>
-      <c r="CQ30" t="inlineStr"/>
-      <c r="CR30" t="inlineStr"/>
-      <c r="CS30" t="inlineStr"/>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>5303</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5263</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5193</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6299</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6279</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6249</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6209</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6303</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6273</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6253</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6263</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6142</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6162</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6192</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6212</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5925.3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5945.3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5985.3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6035.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5617</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5727</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5857</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6027</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5542.9</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5732.9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5922.9</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>6102.9</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>5875.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>6005.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6095.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6145.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>5846.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>5826.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>5776.5</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>5696.5</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5735.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5625.6</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>5505.6</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>5385.6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>5740.2</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>5620.2</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>5510.2</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>5400.2</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>5782.8</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5702.8</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5622.8</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>5562.8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>5733.8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>5693.8</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>5663.8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>5653.8</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>5689.3</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>5699.3</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5709.3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>5739.3</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5678.6</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>5718.6</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>5758.6</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>5818.6</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>5616.8</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>5686.8</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>5766.8</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>5866.8</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>5357.6</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>5477.6</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>5607.6</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>5737.6</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>5441.6</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5571.6</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>5701.6</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>5831.6</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>5710.1</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>5840.1</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>5960.1</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>6090.1</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>6106.3</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>6196.3</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>6256.3</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>6276.3</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>6629.5</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>6599.5</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>6529.5</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>6449.5</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>6836.2</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>6666.2</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>6556.2</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>6426.2</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>6776.6</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>6656.6</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>6476.6</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>6316.6</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>6329.8</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>6139.8</v>
+      </c>
+      <c r="CT30" t="n">
+        <v>6059.8</v>
+      </c>
+      <c r="CU30" t="n">
+        <v>5949.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" s="2" t="n">
+        <v>45733</v>
+      </c>
       <c r="C31" s="2" t="n">
         <v>45741</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
-      <c r="BE31" t="inlineStr"/>
-      <c r="BF31" t="inlineStr"/>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
-      <c r="BN31" t="inlineStr"/>
-      <c r="BO31" t="inlineStr"/>
-      <c r="BP31" t="inlineStr"/>
-      <c r="BQ31" t="inlineStr"/>
-      <c r="BR31" t="inlineStr"/>
-      <c r="BS31" t="inlineStr"/>
-      <c r="BT31" t="inlineStr"/>
-      <c r="BU31" t="inlineStr"/>
-      <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr"/>
-      <c r="BX31" t="inlineStr"/>
-      <c r="BY31" t="inlineStr"/>
-      <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr"/>
-      <c r="CB31" t="inlineStr"/>
-      <c r="CC31" t="inlineStr"/>
-      <c r="CD31" t="inlineStr"/>
-      <c r="CE31" t="inlineStr"/>
-      <c r="CF31" t="inlineStr"/>
-      <c r="CG31" t="inlineStr"/>
-      <c r="CH31" t="inlineStr"/>
-      <c r="CI31" t="inlineStr"/>
-      <c r="CJ31" t="inlineStr"/>
-      <c r="CK31" t="inlineStr"/>
-      <c r="CL31" t="inlineStr"/>
-      <c r="CM31" t="inlineStr"/>
-      <c r="CN31" t="inlineStr"/>
-      <c r="CO31" t="inlineStr"/>
-      <c r="CP31" t="inlineStr"/>
-      <c r="CQ31" t="inlineStr"/>
-      <c r="CR31" t="inlineStr"/>
-      <c r="CS31" t="inlineStr"/>
-      <c r="CT31" t="inlineStr"/>
-      <c r="CU31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>5803</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5773</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5693</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5633</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6769</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6729</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6689</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6649</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6743</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6723</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6703</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6703</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6582</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6592</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6602</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6612</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6325.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6335.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6365.3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6405.3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5977</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>6057</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>6157</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6267</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>5732.9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5862.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5982.9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6092.9</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5795.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>5875.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>5915.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>5945.5</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>5616.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5586.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>5536.5</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>5466.5</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5515.6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5415.6</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>5295.6</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>5165.6</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>5530.2</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>5400.2</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>5290.2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>5180.2</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>5572.8</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5492.8</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5422.8</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>5372.8</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>5553.8</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>5523.8</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5503.8</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>5493.8</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>5529.3</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>5539.3</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>5549.3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>5579.3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5528.6</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5578.6</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>5628.6</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>5688.6</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>5506.8</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>5576.8</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>5656.8</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>5736.8</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>5217.6</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>5317.6</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>5427.6</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>5547.6</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>5231.6</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5371.6</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>5511.6</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>5641.6</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>5540.1</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>5680.1</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>5820.1</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>5950.1</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>5976.3</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>6056.3</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>6096.3</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>6096.3</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>6419.5</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>6379.5</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>6319.5</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>6279.5</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>6716.2</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>6606.2</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>6526.2</v>
+      </c>
+      <c r="CM31" t="n">
+        <v>6396.2</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>6716.6</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>6586.6</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>6426.6</v>
+      </c>
+      <c r="CQ31" t="n">
+        <v>6286.6</v>
+      </c>
+      <c r="CR31" t="n">
+        <v>6289.8</v>
+      </c>
+      <c r="CS31" t="n">
+        <v>6129.8</v>
+      </c>
+      <c r="CT31" t="n">
+        <v>6039.8</v>
+      </c>
+      <c r="CU31" t="n">
+        <v>5929.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" s="2" t="n">
+        <v>45734</v>
+      </c>
       <c r="C32" s="2" t="n">
         <v>45742</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
-      <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
-      <c r="BN32" t="inlineStr"/>
-      <c r="BO32" t="inlineStr"/>
-      <c r="BP32" t="inlineStr"/>
-      <c r="BQ32" t="inlineStr"/>
-      <c r="BR32" t="inlineStr"/>
-      <c r="BS32" t="inlineStr"/>
-      <c r="BT32" t="inlineStr"/>
-      <c r="BU32" t="inlineStr"/>
-      <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr"/>
-      <c r="BX32" t="inlineStr"/>
-      <c r="BY32" t="inlineStr"/>
-      <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr"/>
-      <c r="CB32" t="inlineStr"/>
-      <c r="CC32" t="inlineStr"/>
-      <c r="CD32" t="inlineStr"/>
-      <c r="CE32" t="inlineStr"/>
-      <c r="CF32" t="inlineStr"/>
-      <c r="CG32" t="inlineStr"/>
-      <c r="CH32" t="inlineStr"/>
-      <c r="CI32" t="inlineStr"/>
-      <c r="CJ32" t="inlineStr"/>
-      <c r="CK32" t="inlineStr"/>
-      <c r="CL32" t="inlineStr"/>
-      <c r="CM32" t="inlineStr"/>
-      <c r="CN32" t="inlineStr"/>
-      <c r="CO32" t="inlineStr"/>
-      <c r="CP32" t="inlineStr"/>
-      <c r="CQ32" t="inlineStr"/>
-      <c r="CR32" t="inlineStr"/>
-      <c r="CS32" t="inlineStr"/>
-      <c r="CT32" t="inlineStr"/>
-      <c r="CU32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>7441.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7411.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7351.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7291.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5584</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5554</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5514</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5474</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5460</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5430</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5420</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5420</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5390</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5400</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5410</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5428</v>
+      </c>
+      <c r="U32" t="n">
+        <v>5438</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5468</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5508</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5596</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>5676</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5786</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5906</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6252</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6382</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6512</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>6632</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6765</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>6845</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6895</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>6925</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>6893</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>6863</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>6813</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>6743</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6487</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>6377</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>6267</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>6157</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>6094</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>5984</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>5884</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>5794</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>5756</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5686</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5626</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>5576</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>5562</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>5522</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5502</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>5482</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>5472</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>5472</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>5472</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5492</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>5587</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>5627</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>5667</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>5707</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>5777</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>5837</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>5917</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>6007</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>6085</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>6195</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>6325</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>6465</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>6510</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>6640</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>6770</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>6900</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>6998</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>7118</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>7248</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>7378</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>7564</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>7654</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>7704</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>7704</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>7668</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>7628</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>7568</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>7518</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>7396</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>7276</v>
+      </c>
+      <c r="CL32" t="n">
+        <v>7186</v>
+      </c>
+      <c r="CM32" t="n">
+        <v>7046</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>6858</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>6738</v>
+      </c>
+      <c r="CP32" t="n">
+        <v>6578</v>
+      </c>
+      <c r="CQ32" t="n">
+        <v>6408</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>6062</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>5882</v>
+      </c>
+      <c r="CT32" t="n">
+        <v>5802</v>
+      </c>
+      <c r="CU32" t="n">
+        <v>5692</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -7782,2196 +7782,2964 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" s="2" t="n">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45737</v>
       </c>
       <c r="D27" t="n">
-        <v>6033</v>
+        <v>6016</v>
       </c>
       <c r="E27" t="n">
-        <v>5983</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="n">
-        <v>5923</v>
+        <v>5916</v>
       </c>
       <c r="G27" t="n">
-        <v>5863</v>
+        <v>5856</v>
       </c>
       <c r="H27" t="n">
-        <v>5744</v>
+        <v>5521.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5704</v>
+        <v>5481.9</v>
       </c>
       <c r="J27" t="n">
-        <v>5684</v>
+        <v>5461.9</v>
       </c>
       <c r="K27" t="n">
-        <v>5654</v>
+        <v>5431.9</v>
       </c>
       <c r="L27" t="n">
-        <v>5545</v>
+        <v>5508.7</v>
       </c>
       <c r="M27" t="n">
-        <v>5525</v>
+        <v>5498.7</v>
       </c>
       <c r="N27" t="n">
-        <v>5515</v>
+        <v>5478.7</v>
       </c>
       <c r="O27" t="n">
-        <v>5505</v>
+        <v>5478.7</v>
       </c>
       <c r="P27" t="n">
-        <v>5490</v>
+        <v>5363.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>5500</v>
+        <v>5363.2</v>
       </c>
       <c r="R27" t="n">
-        <v>5510</v>
+        <v>5363.2</v>
       </c>
       <c r="S27" t="n">
-        <v>5530</v>
+        <v>5373.2</v>
       </c>
       <c r="T27" t="n">
-        <v>5564</v>
+        <v>5311.9</v>
       </c>
       <c r="U27" t="n">
-        <v>5584</v>
+        <v>5321.9</v>
       </c>
       <c r="V27" t="n">
-        <v>5614</v>
+        <v>5331.9</v>
       </c>
       <c r="W27" t="n">
-        <v>5654</v>
+        <v>5371.9</v>
       </c>
       <c r="X27" t="n">
-        <v>5726</v>
+        <v>5306</v>
       </c>
       <c r="Y27" t="n">
-        <v>5806</v>
+        <v>5376</v>
       </c>
       <c r="Z27" t="n">
-        <v>5896</v>
+        <v>5466</v>
       </c>
       <c r="AA27" t="n">
-        <v>6016</v>
+        <v>5576</v>
       </c>
       <c r="AB27" t="n">
-        <v>6304</v>
+        <v>5368.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>6434</v>
+        <v>5488.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>6564</v>
+        <v>5608.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>6694</v>
+        <v>5718.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>6738</v>
+        <v>6029.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>6818</v>
+        <v>6089.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6888</v>
+        <v>6119.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>6928</v>
+        <v>6119.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7004</v>
+        <v>6458.6</v>
       </c>
       <c r="AK27" t="n">
-        <v>7004</v>
+        <v>6358.6</v>
       </c>
       <c r="AL27" t="n">
-        <v>6994</v>
+        <v>6268.6</v>
       </c>
       <c r="AM27" t="n">
-        <v>6974</v>
+        <v>6148.6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6877</v>
+        <v>6119.1</v>
       </c>
       <c r="AO27" t="n">
-        <v>6787</v>
+        <v>5979.1</v>
       </c>
       <c r="AP27" t="n">
-        <v>6677</v>
+        <v>5829.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6567</v>
+        <v>5699.1</v>
       </c>
       <c r="AR27" t="n">
-        <v>6614</v>
+        <v>6051.7</v>
       </c>
       <c r="AS27" t="n">
-        <v>6484</v>
+        <v>5931.7</v>
       </c>
       <c r="AT27" t="n">
-        <v>6354</v>
+        <v>5831.7</v>
       </c>
       <c r="AU27" t="n">
-        <v>6224</v>
+        <v>5731.7</v>
       </c>
       <c r="AV27" t="n">
-        <v>6101</v>
+        <v>6046.6</v>
       </c>
       <c r="AW27" t="n">
-        <v>5991</v>
+        <v>5966.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>5891</v>
+        <v>5896.6</v>
       </c>
       <c r="AY27" t="n">
-        <v>5801</v>
+        <v>5826.6</v>
       </c>
       <c r="AZ27" t="n">
-        <v>5737</v>
+        <v>5729.2</v>
       </c>
       <c r="BA27" t="n">
-        <v>5677</v>
+        <v>5679.2</v>
       </c>
       <c r="BB27" t="n">
-        <v>5637</v>
+        <v>5639.2</v>
       </c>
       <c r="BC27" t="n">
-        <v>5607</v>
+        <v>5609.2</v>
       </c>
       <c r="BD27" t="n">
-        <v>5587</v>
+        <v>5600.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>5587</v>
+        <v>5610.5</v>
       </c>
       <c r="BF27" t="n">
-        <v>5597</v>
+        <v>5610.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>5617</v>
+        <v>5620.5</v>
       </c>
       <c r="BH27" t="n">
-        <v>5686</v>
+        <v>5489.8</v>
       </c>
       <c r="BI27" t="n">
-        <v>5726</v>
+        <v>5509.8</v>
       </c>
       <c r="BJ27" t="n">
-        <v>5776</v>
+        <v>5549.8</v>
       </c>
       <c r="BK27" t="n">
-        <v>5836</v>
+        <v>5589.8</v>
       </c>
       <c r="BL27" t="n">
-        <v>5899</v>
+        <v>5251.9</v>
       </c>
       <c r="BM27" t="n">
-        <v>5979</v>
+        <v>5321.9</v>
       </c>
       <c r="BN27" t="n">
-        <v>6069</v>
+        <v>5411.9</v>
       </c>
       <c r="BO27" t="n">
-        <v>6169</v>
+        <v>5521.9</v>
       </c>
       <c r="BP27" t="n">
-        <v>6270</v>
+        <v>5140</v>
       </c>
       <c r="BQ27" t="n">
-        <v>6390</v>
+        <v>5300</v>
       </c>
       <c r="BR27" t="n">
-        <v>6510</v>
+        <v>5480</v>
       </c>
       <c r="BS27" t="n">
-        <v>6630</v>
+        <v>5660</v>
       </c>
       <c r="BT27" t="n">
-        <v>6547</v>
+        <v>5276.3</v>
       </c>
       <c r="BU27" t="n">
-        <v>6667</v>
+        <v>5466.3</v>
       </c>
       <c r="BV27" t="n">
-        <v>6777</v>
+        <v>5636.3</v>
       </c>
       <c r="BW27" t="n">
-        <v>6927</v>
+        <v>5806.3</v>
       </c>
       <c r="BX27" t="n">
-        <v>7089</v>
+        <v>5541.3</v>
       </c>
       <c r="BY27" t="n">
-        <v>7219</v>
+        <v>5711.3</v>
       </c>
       <c r="BZ27" t="n">
-        <v>7379</v>
+        <v>5881.3</v>
       </c>
       <c r="CA27" t="n">
-        <v>7519</v>
+        <v>6031.3</v>
       </c>
       <c r="CB27" t="n">
-        <v>7641</v>
+        <v>6145</v>
       </c>
       <c r="CC27" t="n">
-        <v>7771</v>
+        <v>6265</v>
       </c>
       <c r="CD27" t="n">
-        <v>7821</v>
+        <v>6335</v>
       </c>
       <c r="CE27" t="n">
-        <v>7821</v>
+        <v>6355</v>
       </c>
       <c r="CF27" t="n">
-        <v>7748</v>
+        <v>6663</v>
       </c>
       <c r="CG27" t="n">
-        <v>7678</v>
+        <v>6593</v>
       </c>
       <c r="CH27" t="n">
-        <v>7608</v>
+        <v>6513</v>
       </c>
       <c r="CI27" t="n">
-        <v>7488</v>
+        <v>6443</v>
       </c>
       <c r="CJ27" t="n">
-        <v>7359</v>
+        <v>6628.3</v>
       </c>
       <c r="CK27" t="n">
-        <v>7219</v>
+        <v>6508.3</v>
       </c>
       <c r="CL27" t="n">
-        <v>7099</v>
+        <v>6398.3</v>
       </c>
       <c r="CM27" t="n">
-        <v>6959</v>
+        <v>6248.3</v>
       </c>
       <c r="CN27" t="n">
-        <v>6918</v>
+        <v>6725.3</v>
       </c>
       <c r="CO27" t="n">
-        <v>6778</v>
+        <v>6595.3</v>
       </c>
       <c r="CP27" t="n">
-        <v>6628</v>
+        <v>6425.3</v>
       </c>
       <c r="CQ27" t="n">
-        <v>6478</v>
+        <v>6275.3</v>
       </c>
       <c r="CR27" t="n">
-        <v>6283</v>
+        <v>6362.3</v>
       </c>
       <c r="CS27" t="n">
-        <v>6143</v>
+        <v>6212.3</v>
       </c>
       <c r="CT27" t="n">
-        <v>6023</v>
+        <v>6102.3</v>
       </c>
       <c r="CU27" t="n">
-        <v>5913</v>
+        <v>5992.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" s="2" t="n">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45738</v>
       </c>
       <c r="D28" t="n">
-        <v>5913</v>
+        <v>6032.8</v>
       </c>
       <c r="E28" t="n">
-        <v>5843</v>
+        <v>5982.8</v>
       </c>
       <c r="F28" t="n">
-        <v>5803</v>
+        <v>5932.8</v>
       </c>
       <c r="G28" t="n">
-        <v>5763</v>
+        <v>5892.8</v>
       </c>
       <c r="H28" t="n">
-        <v>6899</v>
+        <v>4187.7</v>
       </c>
       <c r="I28" t="n">
-        <v>6869</v>
+        <v>4147.7</v>
       </c>
       <c r="J28" t="n">
-        <v>6829</v>
+        <v>4107.7</v>
       </c>
       <c r="K28" t="n">
-        <v>6779</v>
+        <v>4067.7</v>
       </c>
       <c r="L28" t="n">
-        <v>6873</v>
+        <v>4019.2</v>
       </c>
       <c r="M28" t="n">
-        <v>6843</v>
+        <v>3999.2</v>
       </c>
       <c r="N28" t="n">
-        <v>6813</v>
+        <v>3969.2</v>
       </c>
       <c r="O28" t="n">
-        <v>6803</v>
+        <v>3949.2</v>
       </c>
       <c r="P28" t="n">
-        <v>6662</v>
+        <v>3909.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>6662</v>
+        <v>3899.3</v>
       </c>
       <c r="R28" t="n">
-        <v>6662</v>
+        <v>3899.3</v>
       </c>
       <c r="S28" t="n">
-        <v>6672</v>
+        <v>3909.3</v>
       </c>
       <c r="T28" t="n">
-        <v>6385.3</v>
+        <v>3893.1</v>
       </c>
       <c r="U28" t="n">
-        <v>6395.3</v>
+        <v>3903.1</v>
       </c>
       <c r="V28" t="n">
-        <v>6415.3</v>
+        <v>3913.1</v>
       </c>
       <c r="W28" t="n">
-        <v>6435.3</v>
+        <v>3933.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5977</v>
+        <v>3971.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>6027</v>
+        <v>4001.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>6067</v>
+        <v>4021.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>6127</v>
+        <v>4051.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>5512.9</v>
+        <v>4323.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5572.9</v>
+        <v>4363.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>5612.9</v>
+        <v>4383.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>5652.9</v>
+        <v>4403.4</v>
       </c>
       <c r="AF28" t="n">
-        <v>5295.5</v>
+        <v>4845.2</v>
       </c>
       <c r="AG28" t="n">
-        <v>5305.5</v>
+        <v>4845.2</v>
       </c>
       <c r="AH28" t="n">
-        <v>5295.5</v>
+        <v>4835.2</v>
       </c>
       <c r="AI28" t="n">
-        <v>5275.5</v>
+        <v>4815.2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4916.5</v>
+        <v>5974.1</v>
       </c>
       <c r="AK28" t="n">
-        <v>4856.5</v>
+        <v>5934.1</v>
       </c>
       <c r="AL28" t="n">
-        <v>4786.5</v>
+        <v>5884.1</v>
       </c>
       <c r="AM28" t="n">
-        <v>4696.5</v>
+        <v>5814.1</v>
       </c>
       <c r="AN28" t="n">
-        <v>4745.6</v>
+        <v>6671.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>4645.6</v>
+        <v>6591.6</v>
       </c>
       <c r="AP28" t="n">
-        <v>4535.6</v>
+        <v>6511.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4435.6</v>
+        <v>6421.6</v>
       </c>
       <c r="AR28" t="n">
-        <v>4810.2</v>
+        <v>7076.4</v>
       </c>
       <c r="AS28" t="n">
-        <v>4720.2</v>
+        <v>6996.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>4630.2</v>
+        <v>6926.4</v>
       </c>
       <c r="AU28" t="n">
-        <v>4550.2</v>
+        <v>6866.4</v>
       </c>
       <c r="AV28" t="n">
-        <v>4962.8</v>
+        <v>7464.2</v>
       </c>
       <c r="AW28" t="n">
-        <v>4912.8</v>
+        <v>7414.2</v>
       </c>
       <c r="AX28" t="n">
-        <v>4862.8</v>
+        <v>7374.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>4812.8</v>
+        <v>7324.2</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5003.8</v>
+        <v>7379.4</v>
       </c>
       <c r="BA28" t="n">
-        <v>4963.8</v>
+        <v>7349.4</v>
       </c>
       <c r="BB28" t="n">
-        <v>4943.8</v>
+        <v>7339.4</v>
       </c>
       <c r="BC28" t="n">
-        <v>4923.8</v>
+        <v>7339.4</v>
       </c>
       <c r="BD28" t="n">
-        <v>4939.3</v>
+        <v>7331.4</v>
       </c>
       <c r="BE28" t="n">
-        <v>4929.3</v>
+        <v>7331.4</v>
       </c>
       <c r="BF28" t="n">
-        <v>4929.3</v>
+        <v>7331.4</v>
       </c>
       <c r="BG28" t="n">
-        <v>4939.3</v>
+        <v>7341.4</v>
       </c>
       <c r="BH28" t="n">
-        <v>4878.6</v>
+        <v>7439.3</v>
       </c>
       <c r="BI28" t="n">
-        <v>4918.6</v>
+        <v>7459.3</v>
       </c>
       <c r="BJ28" t="n">
-        <v>4958.6</v>
+        <v>7479.3</v>
       </c>
       <c r="BK28" t="n">
-        <v>5028.6</v>
+        <v>7529.3</v>
       </c>
       <c r="BL28" t="n">
-        <v>4846.8</v>
+        <v>6523.6</v>
       </c>
       <c r="BM28" t="n">
-        <v>4926.8</v>
+        <v>6603.6</v>
       </c>
       <c r="BN28" t="n">
-        <v>5016.8</v>
+        <v>6683.6</v>
       </c>
       <c r="BO28" t="n">
-        <v>5126.8</v>
+        <v>6783.6</v>
       </c>
       <c r="BP28" t="n">
-        <v>4637.6</v>
+        <v>6156.8</v>
       </c>
       <c r="BQ28" t="n">
-        <v>4777.6</v>
+        <v>6296.8</v>
       </c>
       <c r="BR28" t="n">
-        <v>4927.6</v>
+        <v>6436.8</v>
       </c>
       <c r="BS28" t="n">
-        <v>5097.6</v>
+        <v>6576.8</v>
       </c>
       <c r="BT28" t="n">
-        <v>4851.6</v>
+        <v>5927.3</v>
       </c>
       <c r="BU28" t="n">
-        <v>5041.6</v>
+        <v>6087.3</v>
       </c>
       <c r="BV28" t="n">
-        <v>5231.6</v>
+        <v>6247.3</v>
       </c>
       <c r="BW28" t="n">
-        <v>5421.6</v>
+        <v>6427.3</v>
       </c>
       <c r="BX28" t="n">
-        <v>5360.1</v>
+        <v>5749.4</v>
       </c>
       <c r="BY28" t="n">
-        <v>5520.1</v>
+        <v>5909.4</v>
       </c>
       <c r="BZ28" t="n">
-        <v>5650.1</v>
+        <v>6059.4</v>
       </c>
       <c r="CA28" t="n">
-        <v>5770.1</v>
+        <v>6219.4</v>
       </c>
       <c r="CB28" t="n">
-        <v>5766.3</v>
+        <v>6966.2</v>
       </c>
       <c r="CC28" t="n">
-        <v>5816.3</v>
+        <v>7046.2</v>
       </c>
       <c r="CD28" t="n">
-        <v>5836.3</v>
+        <v>7076.2</v>
       </c>
       <c r="CE28" t="n">
-        <v>5826.3</v>
+        <v>7086.2</v>
       </c>
       <c r="CF28" t="n">
-        <v>6169.5</v>
+        <v>7278.5</v>
       </c>
       <c r="CG28" t="n">
-        <v>6139.5</v>
+        <v>7248.5</v>
       </c>
       <c r="CH28" t="n">
-        <v>6079.5</v>
+        <v>7178.5</v>
       </c>
       <c r="CI28" t="n">
-        <v>6019.5</v>
+        <v>7088.5</v>
       </c>
       <c r="CJ28" t="n">
-        <v>6426.2</v>
+        <v>6539.8</v>
       </c>
       <c r="CK28" t="n">
-        <v>6286.2</v>
+        <v>6419.8</v>
       </c>
       <c r="CL28" t="n">
-        <v>6216.2</v>
+        <v>6319.8</v>
       </c>
       <c r="CM28" t="n">
-        <v>6146.2</v>
+        <v>6189.8</v>
       </c>
       <c r="CN28" t="n">
-        <v>6526.6</v>
+        <v>6084.3</v>
       </c>
       <c r="CO28" t="n">
-        <v>6436.6</v>
+        <v>5944.3</v>
       </c>
       <c r="CP28" t="n">
-        <v>6276.6</v>
+        <v>5804.3</v>
       </c>
       <c r="CQ28" t="n">
-        <v>6146.6</v>
+        <v>5674.3</v>
       </c>
       <c r="CR28" t="n">
-        <v>6229.8</v>
+        <v>5745.6</v>
       </c>
       <c r="CS28" t="n">
-        <v>6079.8</v>
+        <v>5625.6</v>
       </c>
       <c r="CT28" t="n">
-        <v>5989.8</v>
+        <v>5525.6</v>
       </c>
       <c r="CU28" t="n">
-        <v>5879.8</v>
+        <v>5415.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="n">
-        <v>45730</v>
+        <v>45738</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45739</v>
       </c>
       <c r="D29" t="n">
-        <v>5563</v>
+        <v>5126</v>
       </c>
       <c r="E29" t="n">
-        <v>5493</v>
+        <v>5076</v>
       </c>
       <c r="F29" t="n">
-        <v>5453</v>
+        <v>5036</v>
       </c>
       <c r="G29" t="n">
-        <v>5413</v>
+        <v>4986</v>
       </c>
       <c r="H29" t="n">
-        <v>6549</v>
+        <v>5384</v>
       </c>
       <c r="I29" t="n">
-        <v>6519</v>
+        <v>5334</v>
       </c>
       <c r="J29" t="n">
-        <v>6479</v>
+        <v>5304</v>
       </c>
       <c r="K29" t="n">
+        <v>5274</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5204</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5184</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5164</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5117</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5097</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5087</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5077</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5065</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5065</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5065</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5065</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5106</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5116</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5126</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5136</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>5158</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>5178</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5200</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>5220</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>5240</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>5250</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>5416</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>5416</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>5406</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>5376</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5376</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5316</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>5256</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>5166</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>5046</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>4966</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4896</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>4836</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>4838</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4788</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4758</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>4728</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>4726</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>4706</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4696</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>4696</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4686</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4696</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4614</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>4654</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>4694</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>4754</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>4852</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>4922</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>5002</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>5102</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>5282</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>5412</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>5542</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>5682</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>5688</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5828</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>5958</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>6088</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>6233</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>6353</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>6483</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>6623</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>6752</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>6832</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>6862</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>6862</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>6901</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>6851</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>6801</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>6741</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>6589</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>6509</v>
+      </c>
+      <c r="CL29" t="n">
         <v>6449</v>
       </c>
-      <c r="L29" t="n">
-        <v>6553</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6533</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6523</v>
-      </c>
-      <c r="O29" t="n">
-        <v>6503</v>
-      </c>
-      <c r="P29" t="n">
-        <v>6362</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>6352</v>
-      </c>
-      <c r="R29" t="n">
-        <v>6342</v>
-      </c>
-      <c r="S29" t="n">
-        <v>6342</v>
-      </c>
-      <c r="T29" t="n">
-        <v>6035.3</v>
-      </c>
-      <c r="U29" t="n">
-        <v>6035.3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>6035.3</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6045.3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>5577</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>5597</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>5627</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>5647</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>5012.9</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>5022.9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>5032.9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>5032.9</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>4635.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>4605.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>4575.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>4525.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>4146.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>4076.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>3996.5</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>3906.5</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3945.6</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>3845.6</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>3735.6</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>3625.6</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>4000.2</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>3900.2</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3810.2</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>3730.2</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>4142.8</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>4092.8</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4042.8</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>4002.8</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>4193.8</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>4173.8</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>4163.8</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>4153.8</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>4189.3</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>4199.3</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>4219.3</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>4249.3</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>4198.6</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>4238.6</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>4298.6</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>4368.6</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>4186.8</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>4276.8</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>4376.8</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>4486.8</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>4017.6</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>4177.6</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>4347.6</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>4527.6</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>4291.6</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>4471.6</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>4661.6</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>4821.6</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>4740.1</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>4890.1</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>5030.1</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>5160.1</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>5196.3</v>
-      </c>
-      <c r="CC29" t="n">
-        <v>5286.3</v>
-      </c>
-      <c r="CD29" t="n">
-        <v>5346.3</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>5346.3</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>5689.5</v>
-      </c>
-      <c r="CG29" t="n">
-        <v>5649.5</v>
-      </c>
-      <c r="CH29" t="n">
-        <v>5579.5</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>5519.5</v>
-      </c>
-      <c r="CJ29" t="n">
-        <v>5946.2</v>
-      </c>
-      <c r="CK29" t="n">
-        <v>5836.2</v>
-      </c>
-      <c r="CL29" t="n">
-        <v>5786.2</v>
-      </c>
       <c r="CM29" t="n">
-        <v>5716.2</v>
+        <v>6359</v>
       </c>
       <c r="CN29" t="n">
-        <v>6106.6</v>
+        <v>6270</v>
       </c>
       <c r="CO29" t="n">
-        <v>6016.6</v>
+        <v>6170</v>
       </c>
       <c r="CP29" t="n">
-        <v>5886.6</v>
+        <v>6070</v>
       </c>
       <c r="CQ29" t="n">
-        <v>5776.6</v>
+        <v>5970</v>
       </c>
       <c r="CR29" t="n">
-        <v>5859.8</v>
+        <v>5888</v>
       </c>
       <c r="CS29" t="n">
-        <v>5769.8</v>
+        <v>5778</v>
       </c>
       <c r="CT29" t="n">
-        <v>5649.8</v>
+        <v>5678</v>
       </c>
       <c r="CU29" t="n">
-        <v>5549.8</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="n">
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45740</v>
       </c>
       <c r="D30" t="n">
-        <v>5303</v>
+        <v>5006</v>
       </c>
       <c r="E30" t="n">
-        <v>5263</v>
+        <v>4956</v>
       </c>
       <c r="F30" t="n">
-        <v>5193</v>
+        <v>4926</v>
       </c>
       <c r="G30" t="n">
-        <v>5143</v>
+        <v>4886</v>
       </c>
       <c r="H30" t="n">
-        <v>6299</v>
+        <v>5284</v>
       </c>
       <c r="I30" t="n">
-        <v>6279</v>
+        <v>5254</v>
       </c>
       <c r="J30" t="n">
-        <v>6249</v>
+        <v>5224</v>
       </c>
       <c r="K30" t="n">
-        <v>6209</v>
+        <v>5194</v>
       </c>
       <c r="L30" t="n">
-        <v>6303</v>
+        <v>5144</v>
       </c>
       <c r="M30" t="n">
-        <v>6273</v>
+        <v>5134</v>
       </c>
       <c r="N30" t="n">
-        <v>6253</v>
+        <v>5114</v>
       </c>
       <c r="O30" t="n">
-        <v>6263</v>
+        <v>5094</v>
       </c>
       <c r="P30" t="n">
-        <v>6142</v>
+        <v>5077</v>
       </c>
       <c r="Q30" t="n">
-        <v>6162</v>
+        <v>5067</v>
       </c>
       <c r="R30" t="n">
-        <v>6192</v>
+        <v>5067</v>
       </c>
       <c r="S30" t="n">
-        <v>6212</v>
+        <v>5077</v>
       </c>
       <c r="T30" t="n">
-        <v>5925.3</v>
+        <v>5105</v>
       </c>
       <c r="U30" t="n">
-        <v>5945.3</v>
+        <v>5145</v>
       </c>
       <c r="V30" t="n">
-        <v>5985.3</v>
+        <v>5185</v>
       </c>
       <c r="W30" t="n">
-        <v>6035.3</v>
+        <v>5235</v>
       </c>
       <c r="X30" t="n">
-        <v>5617</v>
+        <v>5336</v>
       </c>
       <c r="Y30" t="n">
-        <v>5727</v>
+        <v>5416</v>
       </c>
       <c r="Z30" t="n">
-        <v>5857</v>
+        <v>5526</v>
       </c>
       <c r="AA30" t="n">
-        <v>6027</v>
+        <v>5656</v>
       </c>
       <c r="AB30" t="n">
-        <v>5542.9</v>
+        <v>5808</v>
       </c>
       <c r="AC30" t="n">
-        <v>5732.9</v>
+        <v>5968</v>
       </c>
       <c r="AD30" t="n">
-        <v>5922.9</v>
+        <v>6108</v>
       </c>
       <c r="AE30" t="n">
-        <v>6102.9</v>
+        <v>6278</v>
       </c>
       <c r="AF30" t="n">
-        <v>5875.5</v>
+        <v>6380</v>
       </c>
       <c r="AG30" t="n">
-        <v>6005.5</v>
+        <v>6530</v>
       </c>
       <c r="AH30" t="n">
-        <v>6095.5</v>
+        <v>6670</v>
       </c>
       <c r="AI30" t="n">
-        <v>6145.5</v>
+        <v>6780</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5846.5</v>
+        <v>7026</v>
       </c>
       <c r="AK30" t="n">
-        <v>5826.5</v>
+        <v>7066</v>
       </c>
       <c r="AL30" t="n">
-        <v>5776.5</v>
+        <v>7096</v>
       </c>
       <c r="AM30" t="n">
-        <v>5696.5</v>
+        <v>7096</v>
       </c>
       <c r="AN30" t="n">
-        <v>5735.6</v>
+        <v>7126</v>
       </c>
       <c r="AO30" t="n">
-        <v>5625.6</v>
+        <v>7116</v>
       </c>
       <c r="AP30" t="n">
-        <v>5505.6</v>
+        <v>7076</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5385.6</v>
+        <v>7036</v>
       </c>
       <c r="AR30" t="n">
-        <v>5740.2</v>
+        <v>6956</v>
       </c>
       <c r="AS30" t="n">
-        <v>5620.2</v>
+        <v>6886</v>
       </c>
       <c r="AT30" t="n">
-        <v>5510.2</v>
+        <v>6816</v>
       </c>
       <c r="AU30" t="n">
-        <v>5400.2</v>
+        <v>6746</v>
       </c>
       <c r="AV30" t="n">
-        <v>5782.8</v>
+        <v>6748</v>
       </c>
       <c r="AW30" t="n">
-        <v>5702.8</v>
+        <v>6698</v>
       </c>
       <c r="AX30" t="n">
-        <v>5622.8</v>
+        <v>6658</v>
       </c>
       <c r="AY30" t="n">
-        <v>5562.8</v>
+        <v>6618</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5733.8</v>
+        <v>6616</v>
       </c>
       <c r="BA30" t="n">
-        <v>5693.8</v>
+        <v>6586</v>
       </c>
       <c r="BB30" t="n">
-        <v>5663.8</v>
+        <v>6566</v>
       </c>
       <c r="BC30" t="n">
-        <v>5653.8</v>
+        <v>6546</v>
       </c>
       <c r="BD30" t="n">
-        <v>5689.3</v>
+        <v>6516</v>
       </c>
       <c r="BE30" t="n">
-        <v>5699.3</v>
+        <v>6516</v>
       </c>
       <c r="BF30" t="n">
-        <v>5709.3</v>
+        <v>6516</v>
       </c>
       <c r="BG30" t="n">
-        <v>5739.3</v>
+        <v>6526</v>
       </c>
       <c r="BH30" t="n">
-        <v>5678.6</v>
+        <v>6434</v>
       </c>
       <c r="BI30" t="n">
-        <v>5718.6</v>
+        <v>6454</v>
       </c>
       <c r="BJ30" t="n">
-        <v>5758.6</v>
+        <v>6474</v>
       </c>
       <c r="BK30" t="n">
-        <v>5818.6</v>
+        <v>6504</v>
       </c>
       <c r="BL30" t="n">
-        <v>5616.8</v>
+        <v>6552</v>
       </c>
       <c r="BM30" t="n">
-        <v>5686.8</v>
+        <v>6572</v>
       </c>
       <c r="BN30" t="n">
-        <v>5766.8</v>
+        <v>6592</v>
       </c>
       <c r="BO30" t="n">
-        <v>5866.8</v>
+        <v>6622</v>
       </c>
       <c r="BP30" t="n">
-        <v>5357.6</v>
+        <v>6732</v>
       </c>
       <c r="BQ30" t="n">
-        <v>5477.6</v>
+        <v>6792</v>
       </c>
       <c r="BR30" t="n">
-        <v>5607.6</v>
+        <v>6862</v>
       </c>
       <c r="BS30" t="n">
-        <v>5737.6</v>
+        <v>6962</v>
       </c>
       <c r="BT30" t="n">
-        <v>5441.6</v>
+        <v>6928</v>
       </c>
       <c r="BU30" t="n">
-        <v>5571.6</v>
+        <v>7048</v>
       </c>
       <c r="BV30" t="n">
-        <v>5701.6</v>
+        <v>7158</v>
       </c>
       <c r="BW30" t="n">
-        <v>5831.6</v>
+        <v>7268</v>
       </c>
       <c r="BX30" t="n">
-        <v>5710.1</v>
+        <v>7383</v>
       </c>
       <c r="BY30" t="n">
-        <v>5840.1</v>
+        <v>7493</v>
       </c>
       <c r="BZ30" t="n">
-        <v>5960.1</v>
+        <v>7593</v>
       </c>
       <c r="CA30" t="n">
-        <v>6090.1</v>
+        <v>7683</v>
       </c>
       <c r="CB30" t="n">
-        <v>6106.3</v>
+        <v>7772</v>
       </c>
       <c r="CC30" t="n">
-        <v>6196.3</v>
+        <v>7832</v>
       </c>
       <c r="CD30" t="n">
-        <v>6256.3</v>
+        <v>7832</v>
       </c>
       <c r="CE30" t="n">
-        <v>6276.3</v>
+        <v>7822</v>
       </c>
       <c r="CF30" t="n">
-        <v>6629.5</v>
+        <v>7871</v>
       </c>
       <c r="CG30" t="n">
-        <v>6599.5</v>
+        <v>7851</v>
       </c>
       <c r="CH30" t="n">
-        <v>6529.5</v>
+        <v>7821</v>
       </c>
       <c r="CI30" t="n">
-        <v>6449.5</v>
+        <v>7761</v>
       </c>
       <c r="CJ30" t="n">
-        <v>6836.2</v>
+        <v>7569</v>
       </c>
       <c r="CK30" t="n">
-        <v>6666.2</v>
+        <v>7449</v>
       </c>
       <c r="CL30" t="n">
-        <v>6556.2</v>
+        <v>7339</v>
       </c>
       <c r="CM30" t="n">
-        <v>6426.2</v>
+        <v>7209</v>
       </c>
       <c r="CN30" t="n">
-        <v>6776.6</v>
+        <v>7050</v>
       </c>
       <c r="CO30" t="n">
-        <v>6656.6</v>
+        <v>6920</v>
       </c>
       <c r="CP30" t="n">
-        <v>6476.6</v>
+        <v>6750</v>
       </c>
       <c r="CQ30" t="n">
-        <v>6316.6</v>
+        <v>6580</v>
       </c>
       <c r="CR30" t="n">
-        <v>6329.8</v>
+        <v>6438</v>
       </c>
       <c r="CS30" t="n">
-        <v>6139.8</v>
+        <v>6278</v>
       </c>
       <c r="CT30" t="n">
-        <v>6059.8</v>
+        <v>6138</v>
       </c>
       <c r="CU30" t="n">
-        <v>5949.8</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" s="2" t="n">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45741</v>
       </c>
       <c r="D31" t="n">
-        <v>5803</v>
+        <v>5944</v>
       </c>
       <c r="E31" t="n">
-        <v>5773</v>
+        <v>5894</v>
       </c>
       <c r="F31" t="n">
-        <v>5693</v>
+        <v>5854</v>
       </c>
       <c r="G31" t="n">
-        <v>5633</v>
+        <v>5804</v>
       </c>
       <c r="H31" t="n">
-        <v>6769</v>
+        <v>5562</v>
       </c>
       <c r="I31" t="n">
-        <v>6729</v>
+        <v>5522</v>
       </c>
       <c r="J31" t="n">
-        <v>6689</v>
+        <v>5492</v>
       </c>
       <c r="K31" t="n">
-        <v>6649</v>
+        <v>5452</v>
       </c>
       <c r="L31" t="n">
-        <v>6743</v>
+        <v>5459</v>
       </c>
       <c r="M31" t="n">
-        <v>6723</v>
+        <v>5449</v>
       </c>
       <c r="N31" t="n">
-        <v>6703</v>
+        <v>5439</v>
       </c>
       <c r="O31" t="n">
-        <v>6703</v>
+        <v>5429</v>
       </c>
       <c r="P31" t="n">
-        <v>6582</v>
+        <v>5371</v>
       </c>
       <c r="Q31" t="n">
-        <v>6592</v>
+        <v>5351</v>
       </c>
       <c r="R31" t="n">
-        <v>6602</v>
+        <v>5351</v>
       </c>
       <c r="S31" t="n">
-        <v>6612</v>
+        <v>5361</v>
       </c>
       <c r="T31" t="n">
-        <v>6325.3</v>
+        <v>5336</v>
       </c>
       <c r="U31" t="n">
-        <v>6335.3</v>
+        <v>5356</v>
       </c>
       <c r="V31" t="n">
-        <v>6365.3</v>
+        <v>5386</v>
       </c>
       <c r="W31" t="n">
-        <v>6405.3</v>
+        <v>5436</v>
       </c>
       <c r="X31" t="n">
-        <v>5977</v>
+        <v>5518</v>
       </c>
       <c r="Y31" t="n">
-        <v>6057</v>
+        <v>5598</v>
       </c>
       <c r="Z31" t="n">
-        <v>6157</v>
+        <v>5698</v>
       </c>
       <c r="AA31" t="n">
-        <v>6267</v>
+        <v>5808</v>
       </c>
       <c r="AB31" t="n">
-        <v>5732.9</v>
+        <v>6037</v>
       </c>
       <c r="AC31" t="n">
-        <v>5862.9</v>
+        <v>6167</v>
       </c>
       <c r="AD31" t="n">
-        <v>5982.9</v>
+        <v>6287</v>
       </c>
       <c r="AE31" t="n">
-        <v>6092.9</v>
+        <v>6407</v>
       </c>
       <c r="AF31" t="n">
-        <v>5795.5</v>
+        <v>6291</v>
       </c>
       <c r="AG31" t="n">
-        <v>5875.5</v>
+        <v>6391</v>
       </c>
       <c r="AH31" t="n">
-        <v>5915.5</v>
+        <v>6471</v>
       </c>
       <c r="AI31" t="n">
-        <v>5945.5</v>
+        <v>6551</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5616.5</v>
+        <v>6497</v>
       </c>
       <c r="AK31" t="n">
-        <v>5586.5</v>
+        <v>6537</v>
       </c>
       <c r="AL31" t="n">
-        <v>5536.5</v>
+        <v>6547</v>
       </c>
       <c r="AM31" t="n">
-        <v>5466.5</v>
+        <v>6547</v>
       </c>
       <c r="AN31" t="n">
-        <v>5515.6</v>
+        <v>6722</v>
       </c>
       <c r="AO31" t="n">
-        <v>5415.6</v>
+        <v>6682</v>
       </c>
       <c r="AP31" t="n">
-        <v>5295.6</v>
+        <v>6622</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5165.6</v>
+        <v>6552</v>
       </c>
       <c r="AR31" t="n">
-        <v>5530.2</v>
+        <v>6556</v>
       </c>
       <c r="AS31" t="n">
-        <v>5400.2</v>
+        <v>6476</v>
       </c>
       <c r="AT31" t="n">
-        <v>5290.2</v>
+        <v>6396</v>
       </c>
       <c r="AU31" t="n">
-        <v>5180.2</v>
+        <v>6326</v>
       </c>
       <c r="AV31" t="n">
-        <v>5572.8</v>
+        <v>6488</v>
       </c>
       <c r="AW31" t="n">
-        <v>5492.8</v>
+        <v>6438</v>
       </c>
       <c r="AX31" t="n">
-        <v>5422.8</v>
+        <v>6408</v>
       </c>
       <c r="AY31" t="n">
-        <v>5372.8</v>
+        <v>6388</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5553.8</v>
+        <v>6421</v>
       </c>
       <c r="BA31" t="n">
-        <v>5523.8</v>
+        <v>6411</v>
       </c>
       <c r="BB31" t="n">
-        <v>5503.8</v>
+        <v>6401</v>
       </c>
       <c r="BC31" t="n">
-        <v>5493.8</v>
+        <v>6401</v>
       </c>
       <c r="BD31" t="n">
-        <v>5529.3</v>
+        <v>6406</v>
       </c>
       <c r="BE31" t="n">
-        <v>5539.3</v>
+        <v>6406</v>
       </c>
       <c r="BF31" t="n">
-        <v>5549.3</v>
+        <v>6406</v>
       </c>
       <c r="BG31" t="n">
-        <v>5579.3</v>
+        <v>6406</v>
       </c>
       <c r="BH31" t="n">
-        <v>5528.6</v>
+        <v>6418</v>
       </c>
       <c r="BI31" t="n">
-        <v>5578.6</v>
+        <v>6438</v>
       </c>
       <c r="BJ31" t="n">
-        <v>5628.6</v>
+        <v>6458</v>
       </c>
       <c r="BK31" t="n">
-        <v>5688.6</v>
+        <v>6488</v>
       </c>
       <c r="BL31" t="n">
-        <v>5506.8</v>
+        <v>6458</v>
       </c>
       <c r="BM31" t="n">
-        <v>5576.8</v>
+        <v>6488</v>
       </c>
       <c r="BN31" t="n">
-        <v>5656.8</v>
+        <v>6528</v>
       </c>
       <c r="BO31" t="n">
-        <v>5736.8</v>
+        <v>6578</v>
       </c>
       <c r="BP31" t="n">
-        <v>5217.6</v>
+        <v>6409</v>
       </c>
       <c r="BQ31" t="n">
-        <v>5317.6</v>
+        <v>6479</v>
       </c>
       <c r="BR31" t="n">
-        <v>5427.6</v>
+        <v>6559</v>
       </c>
       <c r="BS31" t="n">
-        <v>5547.6</v>
+        <v>6669</v>
       </c>
       <c r="BT31" t="n">
-        <v>5231.6</v>
+        <v>6427</v>
       </c>
       <c r="BU31" t="n">
-        <v>5371.6</v>
+        <v>6547</v>
       </c>
       <c r="BV31" t="n">
-        <v>5511.6</v>
+        <v>6677</v>
       </c>
       <c r="BW31" t="n">
-        <v>5641.6</v>
+        <v>6797</v>
       </c>
       <c r="BX31" t="n">
-        <v>5540.1</v>
+        <v>6922</v>
       </c>
       <c r="BY31" t="n">
-        <v>5680.1</v>
+        <v>7022</v>
       </c>
       <c r="BZ31" t="n">
-        <v>5820.1</v>
+        <v>7102</v>
       </c>
       <c r="CA31" t="n">
-        <v>5950.1</v>
+        <v>7172</v>
       </c>
       <c r="CB31" t="n">
-        <v>5976.3</v>
+        <v>7305</v>
       </c>
       <c r="CC31" t="n">
-        <v>6056.3</v>
+        <v>7325</v>
       </c>
       <c r="CD31" t="n">
-        <v>6096.3</v>
+        <v>7325</v>
       </c>
       <c r="CE31" t="n">
-        <v>6096.3</v>
+        <v>7305</v>
       </c>
       <c r="CF31" t="n">
-        <v>6419.5</v>
+        <v>7218</v>
       </c>
       <c r="CG31" t="n">
-        <v>6379.5</v>
+        <v>7188</v>
       </c>
       <c r="CH31" t="n">
-        <v>6319.5</v>
+        <v>7158</v>
       </c>
       <c r="CI31" t="n">
-        <v>6279.5</v>
+        <v>7088</v>
       </c>
       <c r="CJ31" t="n">
-        <v>6716.2</v>
+        <v>6946</v>
       </c>
       <c r="CK31" t="n">
-        <v>6606.2</v>
+        <v>6826</v>
       </c>
       <c r="CL31" t="n">
-        <v>6526.2</v>
+        <v>6726</v>
       </c>
       <c r="CM31" t="n">
-        <v>6396.2</v>
+        <v>6596</v>
       </c>
       <c r="CN31" t="n">
-        <v>6716.6</v>
+        <v>6583</v>
       </c>
       <c r="CO31" t="n">
-        <v>6586.6</v>
+        <v>6443</v>
       </c>
       <c r="CP31" t="n">
-        <v>6426.6</v>
+        <v>6273</v>
       </c>
       <c r="CQ31" t="n">
-        <v>6286.6</v>
+        <v>6113</v>
       </c>
       <c r="CR31" t="n">
-        <v>6289.8</v>
+        <v>6044</v>
       </c>
       <c r="CS31" t="n">
-        <v>6129.8</v>
+        <v>5884</v>
       </c>
       <c r="CT31" t="n">
-        <v>6039.8</v>
+        <v>5754</v>
       </c>
       <c r="CU31" t="n">
-        <v>5929.8</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" s="2" t="n">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="D32" t="n">
-        <v>7441.3</v>
+        <v>5844</v>
       </c>
       <c r="E32" t="n">
-        <v>7411.3</v>
+        <v>5794</v>
       </c>
       <c r="F32" t="n">
-        <v>7351.3</v>
+        <v>5744</v>
       </c>
       <c r="G32" t="n">
-        <v>7291.3</v>
+        <v>5704</v>
       </c>
       <c r="H32" t="n">
-        <v>5584</v>
+        <v>5492</v>
       </c>
       <c r="I32" t="n">
-        <v>5554</v>
+        <v>5452</v>
       </c>
       <c r="J32" t="n">
-        <v>5514</v>
+        <v>5432</v>
       </c>
       <c r="K32" t="n">
-        <v>5474</v>
+        <v>5402</v>
       </c>
       <c r="L32" t="n">
-        <v>5460</v>
+        <v>5409</v>
       </c>
       <c r="M32" t="n">
-        <v>5430</v>
+        <v>5399</v>
       </c>
       <c r="N32" t="n">
-        <v>5420</v>
+        <v>5379</v>
       </c>
       <c r="O32" t="n">
-        <v>5420</v>
+        <v>5379</v>
       </c>
       <c r="P32" t="n">
-        <v>5390</v>
+        <v>5321</v>
       </c>
       <c r="Q32" t="n">
-        <v>5400</v>
+        <v>5311</v>
       </c>
       <c r="R32" t="n">
-        <v>5400</v>
+        <v>5301</v>
       </c>
       <c r="S32" t="n">
-        <v>5410</v>
+        <v>5301</v>
       </c>
       <c r="T32" t="n">
-        <v>5428</v>
+        <v>5266</v>
       </c>
       <c r="U32" t="n">
-        <v>5438</v>
+        <v>5286</v>
       </c>
       <c r="V32" t="n">
+        <v>5326</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5376</v>
+      </c>
+      <c r="X32" t="n">
         <v>5468</v>
       </c>
-      <c r="W32" t="n">
-        <v>5508</v>
-      </c>
-      <c r="X32" t="n">
-        <v>5596</v>
-      </c>
       <c r="Y32" t="n">
-        <v>5676</v>
+        <v>5548</v>
       </c>
       <c r="Z32" t="n">
-        <v>5786</v>
+        <v>5648</v>
       </c>
       <c r="AA32" t="n">
-        <v>5906</v>
+        <v>5758</v>
       </c>
       <c r="AB32" t="n">
-        <v>6252</v>
+        <v>5997</v>
       </c>
       <c r="AC32" t="n">
-        <v>6382</v>
+        <v>6117</v>
       </c>
       <c r="AD32" t="n">
-        <v>6512</v>
+        <v>6237</v>
       </c>
       <c r="AE32" t="n">
+        <v>6357</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6241</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>6341</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6421</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>6491</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>6447</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>6487</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>6497</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>6497</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6682</v>
+      </c>
+      <c r="AO32" t="n">
         <v>6632</v>
       </c>
-      <c r="AF32" t="n">
-        <v>6765</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>6845</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>6895</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>6925</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>6893</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>6863</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>6813</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>6743</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>6487</v>
-      </c>
-      <c r="AO32" t="n">
+      <c r="AP32" t="n">
+        <v>6572</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>6502</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>6506</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>6426</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6346</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6276</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>6428</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>6388</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6348</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>6328</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>6361</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>6351</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>6351</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6351</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>6368</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>6388</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>6408</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>6438</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>6418</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>6448</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>6488</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>6538</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>6369</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>6439</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>6519</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>6619</v>
+      </c>
+      <c r="BT32" t="n">
         <v>6377</v>
       </c>
-      <c r="AP32" t="n">
-        <v>6267</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>6157</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>6094</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>5984</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>5884</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>5794</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>5756</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>5686</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>5626</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>5576</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>5562</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>5522</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>5502</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>5482</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>5472</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>5472</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>5472</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>5492</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>5587</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>5627</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>5667</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>5707</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>5777</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>5837</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>5917</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>6007</v>
-      </c>
-      <c r="BP32" t="n">
-        <v>6085</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>6195</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>6325</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>6465</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>6510</v>
-      </c>
       <c r="BU32" t="n">
-        <v>6640</v>
+        <v>6497</v>
       </c>
       <c r="BV32" t="n">
-        <v>6770</v>
+        <v>6627</v>
       </c>
       <c r="BW32" t="n">
-        <v>6900</v>
+        <v>6737</v>
       </c>
       <c r="BX32" t="n">
-        <v>6998</v>
+        <v>6872</v>
       </c>
       <c r="BY32" t="n">
-        <v>7118</v>
+        <v>6972</v>
       </c>
       <c r="BZ32" t="n">
-        <v>7248</v>
+        <v>7052</v>
       </c>
       <c r="CA32" t="n">
-        <v>7378</v>
+        <v>7132</v>
       </c>
       <c r="CB32" t="n">
-        <v>7564</v>
+        <v>7255</v>
       </c>
       <c r="CC32" t="n">
-        <v>7654</v>
+        <v>7275</v>
       </c>
       <c r="CD32" t="n">
-        <v>7704</v>
+        <v>7275</v>
       </c>
       <c r="CE32" t="n">
-        <v>7704</v>
+        <v>7255</v>
       </c>
       <c r="CF32" t="n">
-        <v>7668</v>
+        <v>7178</v>
       </c>
       <c r="CG32" t="n">
-        <v>7628</v>
+        <v>7148</v>
       </c>
       <c r="CH32" t="n">
-        <v>7568</v>
+        <v>7098</v>
       </c>
       <c r="CI32" t="n">
-        <v>7518</v>
+        <v>7038</v>
       </c>
       <c r="CJ32" t="n">
-        <v>7396</v>
+        <v>6896</v>
       </c>
       <c r="CK32" t="n">
-        <v>7276</v>
+        <v>6776</v>
       </c>
       <c r="CL32" t="n">
-        <v>7186</v>
+        <v>6646</v>
       </c>
       <c r="CM32" t="n">
-        <v>7046</v>
+        <v>6506</v>
       </c>
       <c r="CN32" t="n">
-        <v>6858</v>
+        <v>6523</v>
       </c>
       <c r="CO32" t="n">
-        <v>6738</v>
+        <v>6383</v>
       </c>
       <c r="CP32" t="n">
-        <v>6578</v>
+        <v>6213</v>
       </c>
       <c r="CQ32" t="n">
-        <v>6408</v>
+        <v>6043</v>
       </c>
       <c r="CR32" t="n">
-        <v>6062</v>
+        <v>5964</v>
       </c>
       <c r="CS32" t="n">
-        <v>5882</v>
+        <v>5814</v>
       </c>
       <c r="CT32" t="n">
-        <v>5802</v>
+        <v>5694</v>
       </c>
       <c r="CU32" t="n">
-        <v>5692</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" s="2" t="n">
+        <v>45736</v>
+      </c>
       <c r="C33" s="2" t="n">
         <v>45743</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
-      <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="inlineStr"/>
-      <c r="BO33" t="inlineStr"/>
-      <c r="BP33" t="inlineStr"/>
-      <c r="BQ33" t="inlineStr"/>
-      <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr"/>
-      <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="inlineStr"/>
-      <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr"/>
-      <c r="BX33" t="inlineStr"/>
-      <c r="BY33" t="inlineStr"/>
-      <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
-      <c r="CB33" t="inlineStr"/>
-      <c r="CC33" t="inlineStr"/>
-      <c r="CD33" t="inlineStr"/>
-      <c r="CE33" t="inlineStr"/>
-      <c r="CF33" t="inlineStr"/>
-      <c r="CG33" t="inlineStr"/>
-      <c r="CH33" t="inlineStr"/>
-      <c r="CI33" t="inlineStr"/>
-      <c r="CJ33" t="inlineStr"/>
-      <c r="CK33" t="inlineStr"/>
-      <c r="CL33" t="inlineStr"/>
-      <c r="CM33" t="inlineStr"/>
-      <c r="CN33" t="inlineStr"/>
-      <c r="CO33" t="inlineStr"/>
-      <c r="CP33" t="inlineStr"/>
-      <c r="CQ33" t="inlineStr"/>
-      <c r="CR33" t="inlineStr"/>
-      <c r="CS33" t="inlineStr"/>
-      <c r="CT33" t="inlineStr"/>
-      <c r="CU33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5680</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5640</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5553</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5523</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5493</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5473</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5433</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5413</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5393</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5383</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5391</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5391</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5401</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5421</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5468</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5508</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5538</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5578</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5651</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5731</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5831</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5941</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>6144</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6274</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6394</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>6514</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>6511</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>6611</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>6701</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>6771</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>6821</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>6851</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>6871</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>6861</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>6988</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>6938</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>6888</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>6818</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>6577</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>6497</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>6427</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6367</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>6364</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6324</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6294</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>6264</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6244</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>6224</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6214</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>6204</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>6251</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>6355</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>6375</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>6395</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>6401</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>6441</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>6481</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>6521</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>6728</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>6798</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>6878</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>6968</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>6932</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>7042</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>7152</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>7262</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>7392</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>7482</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>7572</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>7642</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>7646</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>7686</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>7706</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>7686</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>7695</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>7655</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>7585</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>7515</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>7372</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>7232</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>7122</v>
+      </c>
+      <c r="CM33" t="n">
+        <v>7002</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>6762</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>6632</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>6462</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>6312</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>6316</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>6176</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>6046</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>5966</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" s="2" t="n">
+        <v>45736</v>
+      </c>
       <c r="C34" s="2" t="n">
         <v>45744</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="inlineStr"/>
-      <c r="BP34" t="inlineStr"/>
-      <c r="BQ34" t="inlineStr"/>
-      <c r="BR34" t="inlineStr"/>
-      <c r="BS34" t="inlineStr"/>
-      <c r="BT34" t="inlineStr"/>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
-      <c r="BX34" t="inlineStr"/>
-      <c r="BY34" t="inlineStr"/>
-      <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="inlineStr"/>
-      <c r="CB34" t="inlineStr"/>
-      <c r="CC34" t="inlineStr"/>
-      <c r="CD34" t="inlineStr"/>
-      <c r="CE34" t="inlineStr"/>
-      <c r="CF34" t="inlineStr"/>
-      <c r="CG34" t="inlineStr"/>
-      <c r="CH34" t="inlineStr"/>
-      <c r="CI34" t="inlineStr"/>
-      <c r="CJ34" t="inlineStr"/>
-      <c r="CK34" t="inlineStr"/>
-      <c r="CL34" t="inlineStr"/>
-      <c r="CM34" t="inlineStr"/>
-      <c r="CN34" t="inlineStr"/>
-      <c r="CO34" t="inlineStr"/>
-      <c r="CP34" t="inlineStr"/>
-      <c r="CQ34" t="inlineStr"/>
-      <c r="CR34" t="inlineStr"/>
-      <c r="CS34" t="inlineStr"/>
-      <c r="CT34" t="inlineStr"/>
-      <c r="CU34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>5853</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5803</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5763</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5713</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6839</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6809</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6789</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6769</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6883</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6873</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6863</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6853</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6712</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6702</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6702</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6712</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6425.3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6445.3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>6475.3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6525.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6087</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6167</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>6257</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6357</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5802.9</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>5922.9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6032.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>6142.9</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5865.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>5955.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>6035.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>6105.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>5836.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>5866.5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>5876.5</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>5876.5</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5985.6</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>5945.6</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>5885.6</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>5815.6</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>6230.2</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>6150.2</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>6080.2</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6020.2</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>6452.8</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>6412.8</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6382.8</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>6352.8</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>6563.8</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>6543.8</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>6533.8</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>6523.8</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>6559.3</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>6559.3</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>6559.3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>6569.3</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>6488.6</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>6508.6</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>6528.6</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>6558.6</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>6336.8</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>6376.8</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>6416.8</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>6456.8</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>5907.6</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>5977.6</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>6057.6</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>6147.6</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>5821.6</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5931.6</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>6041.6</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>6151.6</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>6010.1</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>6100.1</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>6180.1</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>6260.1</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>6236.3</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>6276.3</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>6276.3</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>6266.3</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>6609.5</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>6569.5</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>6499.5</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>6429.5</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>6826.2</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>6696.2</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>6586.2</v>
+      </c>
+      <c r="CM34" t="n">
+        <v>6436.2</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>6776.6</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>6656.6</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>6486.6</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>6336.6</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>6379.8</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>6239.8</v>
+      </c>
+      <c r="CT34" t="n">
+        <v>6109.8</v>
+      </c>
+      <c r="CU34" t="n">
+        <v>5979.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" s="2" t="n">
+        <v>45737</v>
+      </c>
       <c r="C35" s="2" t="n">
         <v>45745</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
-      <c r="BN35" t="inlineStr"/>
-      <c r="BO35" t="inlineStr"/>
-      <c r="BP35" t="inlineStr"/>
-      <c r="BQ35" t="inlineStr"/>
-      <c r="BR35" t="inlineStr"/>
-      <c r="BS35" t="inlineStr"/>
-      <c r="BT35" t="inlineStr"/>
-      <c r="BU35" t="inlineStr"/>
-      <c r="BV35" t="inlineStr"/>
-      <c r="BW35" t="inlineStr"/>
-      <c r="BX35" t="inlineStr"/>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
-      <c r="CB35" t="inlineStr"/>
-      <c r="CC35" t="inlineStr"/>
-      <c r="CD35" t="inlineStr"/>
-      <c r="CE35" t="inlineStr"/>
-      <c r="CF35" t="inlineStr"/>
-      <c r="CG35" t="inlineStr"/>
-      <c r="CH35" t="inlineStr"/>
-      <c r="CI35" t="inlineStr"/>
-      <c r="CJ35" t="inlineStr"/>
-      <c r="CK35" t="inlineStr"/>
-      <c r="CL35" t="inlineStr"/>
-      <c r="CM35" t="inlineStr"/>
-      <c r="CN35" t="inlineStr"/>
-      <c r="CO35" t="inlineStr"/>
-      <c r="CP35" t="inlineStr"/>
-      <c r="CQ35" t="inlineStr"/>
-      <c r="CR35" t="inlineStr"/>
-      <c r="CS35" t="inlineStr"/>
-      <c r="CT35" t="inlineStr"/>
-      <c r="CU35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>5666</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5636</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5616</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5596</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5064.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5044.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5024.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4994.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5082.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5062.1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5052.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5042.1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5067.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5067.6</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5067.6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5077.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4930.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4940.4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4950.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4960.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4847.6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4867.6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4907.6</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4947.6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4488.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4528.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4558.6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>4588.6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>4241.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4241.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>4241.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4211.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>4333.8</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>4283.8</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>4213.8</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>4133.8</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4552.1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>4462.1</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4372.1</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>4272.1</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>5068.9</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4978.9</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>4898.9</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>4828.9</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>5288.7</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5228.7</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>5168.7</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>5118.7</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>5187.3</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>5157.3</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>5137.3</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>5117.3</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>4704.8</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>4714.8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4734.8</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4764.8</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4651.1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>4701.1</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>4761.1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4821.1</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>4925.9</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>5005.9</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>5105.9</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>5205.9</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>4417.3</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>4557.3</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>4707.3</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>4867.3</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>4182.2</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4342.2</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>4512.2</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>4662.2</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>4344.6</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>4494.6</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>4654.6</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>4794.6</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>4873.2</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>4983.2</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>5043.2</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>5053.2</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>5300.2</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>5270.2</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>5200.2</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>5120.2</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>5406.9</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>5286.9</v>
+      </c>
+      <c r="CL35" t="n">
+        <v>5176.9</v>
+      </c>
+      <c r="CM35" t="n">
+        <v>5046.9</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>5470.2</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>5330.2</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>5200.2</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>5070.2</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>5261.4</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>5131.4</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>5011.4</v>
+      </c>
+      <c r="CU35" t="n">
+        <v>4901.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" s="2" t="n">
+        <v>45737</v>
+      </c>
       <c r="C36" s="2" t="n">
         <v>45746</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>5310.9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5250.9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5200.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5150.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5087</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5037</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4997</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4967</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4916</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4886</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4856</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4826</v>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
-      <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="inlineStr"/>
-      <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="inlineStr"/>
-      <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="inlineStr"/>
-      <c r="BS36" t="inlineStr"/>
-      <c r="BT36" t="inlineStr"/>
-      <c r="BU36" t="inlineStr"/>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
-      <c r="CB36" t="inlineStr"/>
-      <c r="CC36" t="inlineStr"/>
-      <c r="CD36" t="inlineStr"/>
-      <c r="CE36" t="inlineStr"/>
-      <c r="CF36" t="inlineStr"/>
-      <c r="CG36" t="inlineStr"/>
-      <c r="CH36" t="inlineStr"/>
-      <c r="CI36" t="inlineStr"/>
-      <c r="CJ36" t="inlineStr"/>
-      <c r="CK36" t="inlineStr"/>
-      <c r="CL36" t="inlineStr"/>
-      <c r="CM36" t="inlineStr"/>
-      <c r="CN36" t="inlineStr"/>
-      <c r="CO36" t="inlineStr"/>
-      <c r="CP36" t="inlineStr"/>
-      <c r="CQ36" t="inlineStr"/>
-      <c r="CR36" t="inlineStr"/>
-      <c r="CS36" t="inlineStr"/>
-      <c r="CT36" t="inlineStr"/>
-      <c r="CU36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>4694</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4694</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4704</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4724</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4774</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>4804</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4834</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>4864</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4944</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4964</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4984</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4984</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>4842</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>4822</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4792</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>4735</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>4685</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>4615</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>4525</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4558</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>4448</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>4338</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>4228</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>4285</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>4185</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>4095</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>4015</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>3972</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3932</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3902</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>3882</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>3868</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>3858</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>3858</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>3858</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>3881</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3881</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3881</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>3881</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3853</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>3873</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>3893</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>3923</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>3878</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3918</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>3968</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>4028</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>4203</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>4283</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>4393</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>4503</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>4537</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4667</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>4807</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>4937</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>4951</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>5101</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>5251</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>5421</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>5606</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>5796</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>5996</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>6176</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>6339</v>
+      </c>
+      <c r="CG36" t="n">
+        <v>6469</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>6519</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>6529</v>
+      </c>
+      <c r="CJ36" t="n">
+        <v>6517</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>6477</v>
+      </c>
+      <c r="CL36" t="n">
+        <v>6417</v>
+      </c>
+      <c r="CM36" t="n">
+        <v>6337</v>
+      </c>
+      <c r="CN36" t="n">
+        <v>6295</v>
+      </c>
+      <c r="CO36" t="n">
+        <v>6175</v>
+      </c>
+      <c r="CP36" t="n">
+        <v>6025</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>5885</v>
+      </c>
+      <c r="CR36" t="n">
+        <v>5773</v>
+      </c>
+      <c r="CS36" t="n">
+        <v>5643</v>
+      </c>
+      <c r="CT36" t="n">
+        <v>5523</v>
+      </c>
+      <c r="CU36" t="n">
+        <v>5413</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1841,415 +1841,1191 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>45743</v>
+      </c>
       <c r="C7" s="2" t="n">
         <v>45748</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
-      <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>5558</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5498</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5398</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5440</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5400</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5360</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5320</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5293</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5253</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5233</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5223</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5179</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5179</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5169</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5169</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5154</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5184</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5204</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5244</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5325</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5385</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5455</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5545</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5688</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5808</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5928</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6058</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6192</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6332</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6472</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6592</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6571</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>6671</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6751</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>6811</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7046</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7056</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>7046</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>7016</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>7027</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>6947</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6917</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6864</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6834</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6814</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>6794</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>6845</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>6835</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>6825</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>6815</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>6804</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>6794</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>6774</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>6764</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6709</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>6689</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>6679</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>6659</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>6606</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>6576</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>6556</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>6546</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>6456</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>6466</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>6496</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>6536</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>6384</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6434</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>6484</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>6534</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>6516</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>6576</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>6646</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>6736</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>6887</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>7017</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>7137</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>7237</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>7292</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>7362</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>7372</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>7372</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>7362</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>7262</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>7182</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>7052</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>7050</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>6910</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>6750</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>6580</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>6457</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>6317</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>6207</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>6077</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>45743</v>
+      </c>
       <c r="C8" s="2" t="n">
         <v>45749</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>5690</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5580</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5530</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5433</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5393</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5353</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5313</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5253</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5213</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5193</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5183</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5201</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5201</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5211</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5221</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5238</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5258</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5288</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5318</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5381</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5441</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5511</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5601</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5784</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5904</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6024</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6154</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6161</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6441</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6561</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6681</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6781</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6861</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6921</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7118</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7138</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7128</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>7098</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6897</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>6847</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6807</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6767</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6774</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6744</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6724</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6704</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6684</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>6674</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6664</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6654</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6681</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6671</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6651</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>6641</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>6715</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6695</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>6685</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6665</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>6591</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>6561</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>6541</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>6531</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>6678</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>6688</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>6718</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6758</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>6672</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6722</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>6772</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>6822</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>6902</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>6962</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>7032</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>7122</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>7166</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>7296</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>7416</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>7516</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>7645</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>7715</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>7735</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>7725</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>7632</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>7542</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>7462</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>7332</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>7072</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>6922</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>6762</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6592</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>6616</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>6476</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>6366</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>6236</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" s="2" t="n">
+        <v>45743</v>
+      </c>
       <c r="C9" s="2" t="n">
         <v>45750</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>5740</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5680</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5630</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5580</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5483</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5443</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5403</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5363</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5303</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5263</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5243</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5233</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5251</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5251</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5261</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5271</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5288</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5308</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5338</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5368</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5431</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5491</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5561</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5651</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5834</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5944</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6074</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6204</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6211</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6491</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6631</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6751</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6861</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6941</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>7001</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>7158</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>7108</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>6877</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>6807</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6727</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6667</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6654</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6614</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6584</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>6564</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>6544</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>6534</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>6524</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>6504</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>6511</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>6471</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>6431</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>6391</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>6445</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>6415</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>6385</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>6365</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>6301</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>6291</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>6291</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>6291</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>6438</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>6458</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>6478</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>6508</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>6392</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6432</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>6462</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>6492</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6562</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>6602</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>6672</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>6772</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>6836</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>6996</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>7176</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>7346</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>7555</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>7685</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>7745</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>7745</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>7652</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>7552</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>7452</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>7342</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>7112</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>6952</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>6792</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>6632</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>6646</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>6516</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>6396</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>6286</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>45743</v>
+      </c>
       <c r="C10" s="2" t="n">
         <v>45751</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>5640</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5590</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5540</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5480</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5383</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5293</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5253</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5193</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5163</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5143</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5133</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5151</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5161</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5161</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5171</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5188</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5208</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5238</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5268</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5331</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5391</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5471</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5551</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5734</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5844</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5974</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6104</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6111</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6391</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6531</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6651</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6761</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6841</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>6901</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7088</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7088</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7058</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>7008</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6777</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>6697</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6627</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6567</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>6554</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6514</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6484</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6464</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>6444</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>6434</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6424</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>6394</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>6411</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6371</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>6331</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>6291</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>6345</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>6315</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>6285</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>6265</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>6201</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>6191</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>6191</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>6191</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6338</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>6358</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>6378</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>6408</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>6292</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6332</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>6362</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6392</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>6462</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>6502</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>6572</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>6672</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6736</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>6896</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>7076</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>7246</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>7455</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>7585</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>7645</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>7655</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>7562</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>7482</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>7382</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>7252</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>7012</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>6872</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>6692</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>6542</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>6566</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>6436</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>6316</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>6206</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -12755,2072 +13531,2072 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" s="2" t="n">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45741</v>
       </c>
       <c r="D64" t="n">
-        <v>5942</v>
+        <v>5593.4</v>
       </c>
       <c r="E64" t="n">
-        <v>5892</v>
+        <v>5523.4</v>
       </c>
       <c r="F64" t="n">
-        <v>5852</v>
+        <v>5463.4</v>
       </c>
       <c r="G64" t="n">
-        <v>5802</v>
+        <v>5413.4</v>
       </c>
       <c r="H64" t="n">
-        <v>6884.9</v>
+        <v>5266</v>
       </c>
       <c r="I64" t="n">
-        <v>6844.9</v>
+        <v>5216</v>
       </c>
       <c r="J64" t="n">
-        <v>6814.9</v>
+        <v>5176</v>
       </c>
       <c r="K64" t="n">
-        <v>6774.9</v>
+        <v>5136</v>
       </c>
       <c r="L64" t="n">
-        <v>6562</v>
+        <v>5089</v>
       </c>
       <c r="M64" t="n">
-        <v>6552</v>
+        <v>5069</v>
       </c>
       <c r="N64" t="n">
-        <v>6542</v>
+        <v>5049</v>
       </c>
       <c r="O64" t="n">
-        <v>6532</v>
+        <v>5039</v>
       </c>
       <c r="P64" t="n">
-        <v>6333.3</v>
+        <v>5037</v>
       </c>
       <c r="Q64" t="n">
-        <v>6313.3</v>
+        <v>5037</v>
       </c>
       <c r="R64" t="n">
-        <v>6313.3</v>
+        <v>5047</v>
       </c>
       <c r="S64" t="n">
-        <v>6323.3</v>
+        <v>5057</v>
       </c>
       <c r="T64" t="n">
-        <v>6073.5</v>
+        <v>5077</v>
       </c>
       <c r="U64" t="n">
-        <v>6093.5</v>
+        <v>5107</v>
       </c>
       <c r="V64" t="n">
-        <v>6123.5</v>
+        <v>5137</v>
       </c>
       <c r="W64" t="n">
-        <v>6173.5</v>
+        <v>5177</v>
       </c>
       <c r="X64" t="n">
-        <v>5810.5</v>
+        <v>5265</v>
       </c>
       <c r="Y64" t="n">
-        <v>5890.5</v>
+        <v>5325</v>
       </c>
       <c r="Z64" t="n">
-        <v>5990.5</v>
+        <v>5405</v>
       </c>
       <c r="AA64" t="n">
-        <v>6100.5</v>
+        <v>5495</v>
       </c>
       <c r="AB64" t="n">
-        <v>5653.8</v>
+        <v>5590</v>
       </c>
       <c r="AC64" t="n">
-        <v>5783.8</v>
+        <v>5710</v>
       </c>
       <c r="AD64" t="n">
-        <v>5903.8</v>
+        <v>5850</v>
       </c>
       <c r="AE64" t="n">
-        <v>6023.8</v>
+        <v>5990</v>
       </c>
       <c r="AF64" t="n">
-        <v>5706.3</v>
+        <v>6122</v>
       </c>
       <c r="AG64" t="n">
-        <v>5806.3</v>
+        <v>6252</v>
       </c>
       <c r="AH64" t="n">
-        <v>5886.3</v>
+        <v>6362</v>
       </c>
       <c r="AI64" t="n">
-        <v>5966.3</v>
+        <v>6452</v>
       </c>
       <c r="AJ64" t="n">
-        <v>5790.1</v>
+        <v>6692</v>
       </c>
       <c r="AK64" t="n">
-        <v>5830.1</v>
+        <v>6712</v>
       </c>
       <c r="AL64" t="n">
-        <v>5840.1</v>
+        <v>6702</v>
       </c>
       <c r="AM64" t="n">
-        <v>5840.1</v>
+        <v>6652</v>
       </c>
       <c r="AN64" t="n">
-        <v>5965.2</v>
+        <v>6566</v>
       </c>
       <c r="AO64" t="n">
-        <v>5925.2</v>
+        <v>6456</v>
       </c>
       <c r="AP64" t="n">
-        <v>5865.2</v>
+        <v>6346</v>
       </c>
       <c r="AQ64" t="n">
-        <v>5795.2</v>
+        <v>6226</v>
       </c>
       <c r="AR64" t="n">
-        <v>6033</v>
+        <v>6034</v>
       </c>
       <c r="AS64" t="n">
-        <v>5953</v>
+        <v>5924</v>
       </c>
       <c r="AT64" t="n">
-        <v>5873</v>
+        <v>5824</v>
       </c>
       <c r="AU64" t="n">
-        <v>5803</v>
+        <v>5734</v>
       </c>
       <c r="AV64" t="n">
-        <v>5914.2</v>
+        <v>5589</v>
       </c>
       <c r="AW64" t="n">
-        <v>5864.2</v>
+        <v>5529</v>
       </c>
       <c r="AX64" t="n">
-        <v>5834.2</v>
+        <v>5479</v>
       </c>
       <c r="AY64" t="n">
-        <v>5814.2</v>
+        <v>5439</v>
       </c>
       <c r="AZ64" t="n">
-        <v>5852.7</v>
+        <v>5464</v>
       </c>
       <c r="BA64" t="n">
-        <v>5842.7</v>
+        <v>5424</v>
       </c>
       <c r="BB64" t="n">
-        <v>5832.7</v>
+        <v>5394</v>
       </c>
       <c r="BC64" t="n">
-        <v>5832.7</v>
+        <v>5374</v>
       </c>
       <c r="BD64" t="n">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="BE64" t="n">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="BF64" t="n">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="BG64" t="n">
-        <v>5607.6</v>
+        <v>5374</v>
       </c>
       <c r="BH64" t="n">
-        <v>5542.2</v>
+        <v>5441</v>
       </c>
       <c r="BI64" t="n">
-        <v>5562.2</v>
+        <v>5471</v>
       </c>
       <c r="BJ64" t="n">
-        <v>5582.2</v>
+        <v>5511</v>
       </c>
       <c r="BK64" t="n">
-        <v>5612.2</v>
+        <v>5551</v>
       </c>
       <c r="BL64" t="n">
-        <v>5530.7</v>
+        <v>5651</v>
       </c>
       <c r="BM64" t="n">
-        <v>5560.7</v>
+        <v>5701</v>
       </c>
       <c r="BN64" t="n">
-        <v>5600.7</v>
+        <v>5751</v>
       </c>
       <c r="BO64" t="n">
-        <v>5650.7</v>
+        <v>5821</v>
       </c>
       <c r="BP64" t="n">
-        <v>5447.9</v>
+        <v>5974</v>
       </c>
       <c r="BQ64" t="n">
-        <v>5517.9</v>
+        <v>6064</v>
       </c>
       <c r="BR64" t="n">
-        <v>5597.9</v>
+        <v>6164</v>
       </c>
       <c r="BS64" t="n">
-        <v>5707.9</v>
+        <v>6264</v>
       </c>
       <c r="BT64" t="n">
-        <v>5501.6</v>
+        <v>6292</v>
       </c>
       <c r="BU64" t="n">
-        <v>5621.6</v>
+        <v>6392</v>
       </c>
       <c r="BV64" t="n">
-        <v>5751.6</v>
+        <v>6502</v>
       </c>
       <c r="BW64" t="n">
-        <v>5871.6</v>
+        <v>6632</v>
       </c>
       <c r="BX64" t="n">
-        <v>5814.3</v>
+        <v>6609</v>
       </c>
       <c r="BY64" t="n">
-        <v>5914.3</v>
+        <v>6729</v>
       </c>
       <c r="BZ64" t="n">
-        <v>5994.3</v>
+        <v>6849</v>
       </c>
       <c r="CA64" t="n">
-        <v>6064.3</v>
+        <v>6979</v>
       </c>
       <c r="CB64" t="n">
-        <v>6354.7</v>
+        <v>7030</v>
       </c>
       <c r="CC64" t="n">
-        <v>6374.7</v>
+        <v>7130</v>
       </c>
       <c r="CD64" t="n">
-        <v>6374.7</v>
+        <v>7190</v>
       </c>
       <c r="CE64" t="n">
-        <v>6354.7</v>
+        <v>7200</v>
       </c>
       <c r="CF64" t="n">
-        <v>6467.4</v>
+        <v>7233</v>
       </c>
       <c r="CG64" t="n">
-        <v>6437.4</v>
+        <v>7203</v>
       </c>
       <c r="CH64" t="n">
-        <v>6407.4</v>
+        <v>7163</v>
       </c>
       <c r="CI64" t="n">
-        <v>6337.4</v>
+        <v>7093</v>
       </c>
       <c r="CJ64" t="n">
-        <v>6314.2</v>
+        <v>7118</v>
       </c>
       <c r="CK64" t="n">
-        <v>6194.2</v>
+        <v>6998</v>
       </c>
       <c r="CL64" t="n">
-        <v>6094.2</v>
+        <v>6878</v>
       </c>
       <c r="CM64" t="n">
-        <v>5964.2</v>
+        <v>6748</v>
       </c>
       <c r="CN64" t="n">
-        <v>6289.8</v>
+        <v>6684</v>
       </c>
       <c r="CO64" t="n">
-        <v>6149.8</v>
+        <v>6534</v>
       </c>
       <c r="CP64" t="n">
-        <v>5979.8</v>
+        <v>6404</v>
       </c>
       <c r="CQ64" t="n">
-        <v>5819.8</v>
+        <v>6254</v>
       </c>
       <c r="CR64" t="n">
-        <v>5867.7</v>
+        <v>6207</v>
       </c>
       <c r="CS64" t="n">
-        <v>5707.7</v>
+        <v>6097</v>
       </c>
       <c r="CT64" t="n">
-        <v>5577.7</v>
+        <v>5967</v>
       </c>
       <c r="CU64" t="n">
-        <v>5467.7</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" s="2" t="n">
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="D65" t="n">
-        <v>5844</v>
+        <v>5625</v>
       </c>
       <c r="E65" t="n">
-        <v>5794</v>
+        <v>5565</v>
       </c>
       <c r="F65" t="n">
-        <v>5744</v>
+        <v>5525</v>
       </c>
       <c r="G65" t="n">
-        <v>5704</v>
+        <v>5465</v>
       </c>
       <c r="H65" t="n">
-        <v>5492</v>
+        <v>4813.1</v>
       </c>
       <c r="I65" t="n">
-        <v>5452</v>
+        <v>4763.1</v>
       </c>
       <c r="J65" t="n">
-        <v>5432</v>
+        <v>4723.1</v>
       </c>
       <c r="K65" t="n">
-        <v>5402</v>
+        <v>4683.1</v>
       </c>
       <c r="L65" t="n">
-        <v>5409</v>
+        <v>4748.1</v>
       </c>
       <c r="M65" t="n">
-        <v>5399</v>
+        <v>4708.1</v>
       </c>
       <c r="N65" t="n">
-        <v>5379</v>
+        <v>4678.1</v>
       </c>
       <c r="O65" t="n">
-        <v>5379</v>
+        <v>4658.1</v>
       </c>
       <c r="P65" t="n">
-        <v>5321</v>
+        <v>4662.1</v>
       </c>
       <c r="Q65" t="n">
-        <v>5311</v>
+        <v>4662.1</v>
       </c>
       <c r="R65" t="n">
-        <v>5301</v>
+        <v>4662.1</v>
       </c>
       <c r="S65" t="n">
-        <v>5301</v>
+        <v>4672.1</v>
       </c>
       <c r="T65" t="n">
-        <v>5266</v>
+        <v>4629.2</v>
       </c>
       <c r="U65" t="n">
-        <v>5286</v>
+        <v>4659.2</v>
       </c>
       <c r="V65" t="n">
-        <v>5326</v>
+        <v>4689.2</v>
       </c>
       <c r="W65" t="n">
-        <v>5376</v>
+        <v>4739.2</v>
       </c>
       <c r="X65" t="n">
-        <v>5468</v>
+        <v>4650</v>
       </c>
       <c r="Y65" t="n">
-        <v>5548</v>
+        <v>4730</v>
       </c>
       <c r="Z65" t="n">
-        <v>5648</v>
+        <v>4830</v>
       </c>
       <c r="AA65" t="n">
-        <v>5758</v>
+        <v>4940</v>
       </c>
       <c r="AB65" t="n">
-        <v>5997</v>
+        <v>4718.1</v>
       </c>
       <c r="AC65" t="n">
-        <v>6117</v>
+        <v>4848.1</v>
       </c>
       <c r="AD65" t="n">
-        <v>6237</v>
+        <v>4988.1</v>
       </c>
       <c r="AE65" t="n">
-        <v>6357</v>
+        <v>5128.1</v>
       </c>
       <c r="AF65" t="n">
-        <v>6241</v>
+        <v>5048.8</v>
       </c>
       <c r="AG65" t="n">
-        <v>6341</v>
+        <v>5178.8</v>
       </c>
       <c r="AH65" t="n">
-        <v>6421</v>
+        <v>5298.8</v>
       </c>
       <c r="AI65" t="n">
-        <v>6491</v>
+        <v>5388.8</v>
       </c>
       <c r="AJ65" t="n">
-        <v>6447</v>
+        <v>5296.6</v>
       </c>
       <c r="AK65" t="n">
-        <v>6487</v>
+        <v>5326.6</v>
       </c>
       <c r="AL65" t="n">
-        <v>6497</v>
+        <v>5326.6</v>
       </c>
       <c r="AM65" t="n">
-        <v>6497</v>
+        <v>5326.6</v>
       </c>
       <c r="AN65" t="n">
-        <v>6682</v>
+        <v>5427.9</v>
       </c>
       <c r="AO65" t="n">
-        <v>6632</v>
+        <v>5377.9</v>
       </c>
       <c r="AP65" t="n">
-        <v>6572</v>
+        <v>5317.9</v>
       </c>
       <c r="AQ65" t="n">
-        <v>6502</v>
+        <v>5247.9</v>
       </c>
       <c r="AR65" t="n">
-        <v>6506</v>
+        <v>5505.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>6426</v>
+        <v>5425.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>6346</v>
+        <v>5355.6</v>
       </c>
       <c r="AU65" t="n">
-        <v>6276</v>
+        <v>5295.6</v>
       </c>
       <c r="AV65" t="n">
-        <v>6428</v>
+        <v>5465.3</v>
       </c>
       <c r="AW65" t="n">
-        <v>6388</v>
+        <v>5415.3</v>
       </c>
       <c r="AX65" t="n">
-        <v>6348</v>
+        <v>5385.3</v>
       </c>
       <c r="AY65" t="n">
-        <v>6328</v>
+        <v>5365.3</v>
       </c>
       <c r="AZ65" t="n">
-        <v>6361</v>
+        <v>5379.7</v>
       </c>
       <c r="BA65" t="n">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="BB65" t="n">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="BC65" t="n">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="BD65" t="n">
-        <v>6356</v>
+        <v>5360.5</v>
       </c>
       <c r="BE65" t="n">
-        <v>6356</v>
+        <v>5390.5</v>
       </c>
       <c r="BF65" t="n">
-        <v>6356</v>
+        <v>5420.5</v>
       </c>
       <c r="BG65" t="n">
-        <v>6356</v>
+        <v>5440.5</v>
       </c>
       <c r="BH65" t="n">
-        <v>6368</v>
+        <v>5446.3</v>
       </c>
       <c r="BI65" t="n">
-        <v>6388</v>
+        <v>5476.3</v>
       </c>
       <c r="BJ65" t="n">
-        <v>6408</v>
+        <v>5516.3</v>
       </c>
       <c r="BK65" t="n">
-        <v>6438</v>
+        <v>5546.3</v>
       </c>
       <c r="BL65" t="n">
-        <v>6418</v>
+        <v>5496.7</v>
       </c>
       <c r="BM65" t="n">
-        <v>6448</v>
+        <v>5526.7</v>
       </c>
       <c r="BN65" t="n">
-        <v>6488</v>
+        <v>5566.7</v>
       </c>
       <c r="BO65" t="n">
-        <v>6538</v>
+        <v>5606.7</v>
       </c>
       <c r="BP65" t="n">
-        <v>6369</v>
+        <v>5417.5</v>
       </c>
       <c r="BQ65" t="n">
-        <v>6439</v>
+        <v>5477.5</v>
       </c>
       <c r="BR65" t="n">
-        <v>6519</v>
+        <v>5537.5</v>
       </c>
       <c r="BS65" t="n">
-        <v>6619</v>
+        <v>5597.5</v>
       </c>
       <c r="BT65" t="n">
-        <v>6377</v>
+        <v>5414.7</v>
       </c>
       <c r="BU65" t="n">
-        <v>6497</v>
+        <v>5494.7</v>
       </c>
       <c r="BV65" t="n">
-        <v>6627</v>
+        <v>5564.7</v>
       </c>
       <c r="BW65" t="n">
-        <v>6737</v>
+        <v>5644.7</v>
       </c>
       <c r="BX65" t="n">
-        <v>6872</v>
+        <v>5741.1</v>
       </c>
       <c r="BY65" t="n">
-        <v>6972</v>
+        <v>5831.1</v>
       </c>
       <c r="BZ65" t="n">
-        <v>7052</v>
+        <v>5921.1</v>
       </c>
       <c r="CA65" t="n">
-        <v>7132</v>
+        <v>6021.1</v>
       </c>
       <c r="CB65" t="n">
-        <v>7255</v>
+        <v>6006.1</v>
       </c>
       <c r="CC65" t="n">
-        <v>7275</v>
+        <v>6076.1</v>
       </c>
       <c r="CD65" t="n">
-        <v>7275</v>
+        <v>6116.1</v>
       </c>
       <c r="CE65" t="n">
-        <v>7255</v>
+        <v>6106.1</v>
       </c>
       <c r="CF65" t="n">
-        <v>7178</v>
+        <v>6147.2</v>
       </c>
       <c r="CG65" t="n">
-        <v>7148</v>
+        <v>6087.2</v>
       </c>
       <c r="CH65" t="n">
-        <v>7098</v>
+        <v>6027.2</v>
       </c>
       <c r="CI65" t="n">
-        <v>7038</v>
+        <v>5967.2</v>
       </c>
       <c r="CJ65" t="n">
-        <v>6896</v>
+        <v>6284.7</v>
       </c>
       <c r="CK65" t="n">
-        <v>6776</v>
+        <v>6144.7</v>
       </c>
       <c r="CL65" t="n">
-        <v>6646</v>
+        <v>6044.7</v>
       </c>
       <c r="CM65" t="n">
-        <v>6506</v>
+        <v>5884.7</v>
       </c>
       <c r="CN65" t="n">
-        <v>6523</v>
+        <v>5977.3</v>
       </c>
       <c r="CO65" t="n">
-        <v>6383</v>
+        <v>5837.3</v>
       </c>
       <c r="CP65" t="n">
-        <v>6213</v>
+        <v>5657.3</v>
       </c>
       <c r="CQ65" t="n">
-        <v>6043</v>
+        <v>5517.3</v>
       </c>
       <c r="CR65" t="n">
-        <v>5964</v>
+        <v>5519.3</v>
       </c>
       <c r="CS65" t="n">
-        <v>5814</v>
+        <v>5369.3</v>
       </c>
       <c r="CT65" t="n">
-        <v>5694</v>
+        <v>5269.3</v>
       </c>
       <c r="CU65" t="n">
-        <v>5644</v>
+        <v>5159.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" s="2" t="n">
-        <v>45736</v>
+        <v>45742</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="D66" t="n">
-        <v>5760</v>
+        <v>5204.3</v>
       </c>
       <c r="E66" t="n">
-        <v>5730</v>
+        <v>5154.3</v>
       </c>
       <c r="F66" t="n">
-        <v>5680</v>
+        <v>5094.3</v>
       </c>
       <c r="G66" t="n">
-        <v>5640</v>
+        <v>5054.3</v>
       </c>
       <c r="H66" t="n">
-        <v>5553</v>
+        <v>5136</v>
       </c>
       <c r="I66" t="n">
-        <v>5523</v>
+        <v>5106</v>
       </c>
       <c r="J66" t="n">
-        <v>5493</v>
+        <v>5066</v>
       </c>
       <c r="K66" t="n">
-        <v>5473</v>
+        <v>5016</v>
       </c>
       <c r="L66" t="n">
-        <v>5433</v>
+        <v>4986</v>
       </c>
       <c r="M66" t="n">
-        <v>5413</v>
+        <v>4956</v>
       </c>
       <c r="N66" t="n">
-        <v>5393</v>
+        <v>4936</v>
       </c>
       <c r="O66" t="n">
-        <v>5383</v>
+        <v>4926</v>
       </c>
       <c r="P66" t="n">
-        <v>5391</v>
+        <v>4916</v>
       </c>
       <c r="Q66" t="n">
-        <v>5391</v>
+        <v>4916</v>
       </c>
       <c r="R66" t="n">
-        <v>5401</v>
+        <v>4916</v>
       </c>
       <c r="S66" t="n">
-        <v>5421</v>
+        <v>4926</v>
       </c>
       <c r="T66" t="n">
-        <v>5468</v>
+        <v>4924</v>
       </c>
       <c r="U66" t="n">
-        <v>5508</v>
+        <v>4934</v>
       </c>
       <c r="V66" t="n">
-        <v>5538</v>
+        <v>4954</v>
       </c>
       <c r="W66" t="n">
-        <v>5578</v>
+        <v>4994</v>
       </c>
       <c r="X66" t="n">
-        <v>5651</v>
+        <v>5034</v>
       </c>
       <c r="Y66" t="n">
-        <v>5731</v>
+        <v>5114</v>
       </c>
       <c r="Z66" t="n">
-        <v>5831</v>
+        <v>5214</v>
       </c>
       <c r="AA66" t="n">
-        <v>5941</v>
+        <v>5334</v>
       </c>
       <c r="AB66" t="n">
-        <v>6144</v>
+        <v>5464</v>
       </c>
       <c r="AC66" t="n">
+        <v>5604</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>5754</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>5904</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>6124</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>6244</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>6354</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>6434</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>6484</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>6494</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>6504</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>6504</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>6506</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>6466</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>6416</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>6356</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>6301</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>6241</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>6191</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>6131</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>6071</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>6041</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>6011</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>5991</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>5981</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>5971</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>5971</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>5971</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>5981</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>5991</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>6001</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>6021</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>6031</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>6051</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>6091</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>6121</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>6171</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>6211</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>6281</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>6331</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>6391</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>6451</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>6531</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>6591</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>6661</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>6731</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>6801</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>6876</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>6946</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>7026</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>7126</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>7226</v>
+      </c>
+      <c r="CC66" t="n">
+        <v>7306</v>
+      </c>
+      <c r="CD66" t="n">
+        <v>7356</v>
+      </c>
+      <c r="CE66" t="n">
+        <v>7366</v>
+      </c>
+      <c r="CF66" t="n">
+        <v>7314</v>
+      </c>
+      <c r="CG66" t="n">
+        <v>7274</v>
+      </c>
+      <c r="CH66" t="n">
+        <v>7214</v>
+      </c>
+      <c r="CI66" t="n">
+        <v>7144</v>
+      </c>
+      <c r="CJ66" t="n">
+        <v>7034</v>
+      </c>
+      <c r="CK66" t="n">
+        <v>6904</v>
+      </c>
+      <c r="CL66" t="n">
+        <v>6774</v>
+      </c>
+      <c r="CM66" t="n">
+        <v>6624</v>
+      </c>
+      <c r="CN66" t="n">
+        <v>6424</v>
+      </c>
+      <c r="CO66" t="n">
         <v>6274</v>
       </c>
-      <c r="AD66" t="n">
-        <v>6394</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>6514</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>6511</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>6611</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>6701</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>6771</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>6821</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>6851</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>6871</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>6861</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>6988</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>6938</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>6888</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>6818</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>6577</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>6497</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>6427</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>6367</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>6364</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>6324</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>6294</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>6264</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>6244</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>6224</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>6214</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>6204</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>6241</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>6241</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>6241</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>6251</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>6355</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>6375</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>6395</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>6425</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>6401</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>6441</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>6481</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>6521</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>6728</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>6798</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>6878</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>6968</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>6932</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>7042</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>7152</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>7262</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>7392</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>7482</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>7572</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>7642</v>
-      </c>
-      <c r="CB66" t="n">
-        <v>7646</v>
-      </c>
-      <c r="CC66" t="n">
-        <v>7686</v>
-      </c>
-      <c r="CD66" t="n">
-        <v>7706</v>
-      </c>
-      <c r="CE66" t="n">
-        <v>7686</v>
-      </c>
-      <c r="CF66" t="n">
-        <v>7695</v>
-      </c>
-      <c r="CG66" t="n">
-        <v>7655</v>
-      </c>
-      <c r="CH66" t="n">
-        <v>7585</v>
-      </c>
-      <c r="CI66" t="n">
-        <v>7515</v>
-      </c>
-      <c r="CJ66" t="n">
-        <v>7372</v>
-      </c>
-      <c r="CK66" t="n">
-        <v>7232</v>
-      </c>
-      <c r="CL66" t="n">
-        <v>7122</v>
-      </c>
-      <c r="CM66" t="n">
-        <v>7002</v>
-      </c>
-      <c r="CN66" t="n">
-        <v>6762</v>
-      </c>
-      <c r="CO66" t="n">
-        <v>6632</v>
-      </c>
       <c r="CP66" t="n">
-        <v>6462</v>
+        <v>6114</v>
       </c>
       <c r="CQ66" t="n">
-        <v>6312</v>
+        <v>5964</v>
       </c>
       <c r="CR66" t="n">
-        <v>6316</v>
+        <v>5846</v>
       </c>
       <c r="CS66" t="n">
-        <v>6176</v>
+        <v>5686</v>
       </c>
       <c r="CT66" t="n">
-        <v>6046</v>
+        <v>5586</v>
       </c>
       <c r="CU66" t="n">
-        <v>5966</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" s="2" t="n">
-        <v>45736</v>
+        <v>45743</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45744</v>
       </c>
       <c r="D67" t="n">
-        <v>5853</v>
+        <v>5456</v>
       </c>
       <c r="E67" t="n">
-        <v>5803</v>
+        <v>5396</v>
       </c>
       <c r="F67" t="n">
-        <v>5763</v>
+        <v>5346</v>
       </c>
       <c r="G67" t="n">
-        <v>5713</v>
+        <v>5296</v>
       </c>
       <c r="H67" t="n">
-        <v>6839</v>
+        <v>6271.3</v>
       </c>
       <c r="I67" t="n">
-        <v>6809</v>
+        <v>6231.3</v>
       </c>
       <c r="J67" t="n">
-        <v>6789</v>
+        <v>6191.3</v>
       </c>
       <c r="K67" t="n">
-        <v>6769</v>
+        <v>6151.3</v>
       </c>
       <c r="L67" t="n">
-        <v>6883</v>
+        <v>6348.5</v>
       </c>
       <c r="M67" t="n">
-        <v>6873</v>
+        <v>6318.5</v>
       </c>
       <c r="N67" t="n">
-        <v>6863</v>
+        <v>6298.5</v>
       </c>
       <c r="O67" t="n">
-        <v>6853</v>
+        <v>6288.5</v>
       </c>
       <c r="P67" t="n">
-        <v>6712</v>
+        <v>6401.3</v>
       </c>
       <c r="Q67" t="n">
-        <v>6702</v>
+        <v>6411.3</v>
       </c>
       <c r="R67" t="n">
-        <v>6702</v>
+        <v>6411.3</v>
       </c>
       <c r="S67" t="n">
-        <v>6712</v>
+        <v>6421.3</v>
       </c>
       <c r="T67" t="n">
-        <v>6425.3</v>
+        <v>6436</v>
       </c>
       <c r="U67" t="n">
-        <v>6445.3</v>
+        <v>6446</v>
       </c>
       <c r="V67" t="n">
-        <v>6475.3</v>
+        <v>6466</v>
       </c>
       <c r="W67" t="n">
-        <v>6525.3</v>
+        <v>6496</v>
       </c>
       <c r="X67" t="n">
-        <v>6087</v>
+        <v>6455</v>
       </c>
       <c r="Y67" t="n">
-        <v>6167</v>
+        <v>6515</v>
       </c>
       <c r="Z67" t="n">
-        <v>6257</v>
+        <v>6595</v>
       </c>
       <c r="AA67" t="n">
-        <v>6357</v>
+        <v>6695</v>
       </c>
       <c r="AB67" t="n">
-        <v>5802.9</v>
+        <v>6629.1</v>
       </c>
       <c r="AC67" t="n">
-        <v>5922.9</v>
+        <v>6769.1</v>
       </c>
       <c r="AD67" t="n">
-        <v>6032.9</v>
+        <v>6919.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>6142.9</v>
+        <v>7079.1</v>
       </c>
       <c r="AF67" t="n">
-        <v>5865.5</v>
+        <v>7267.3</v>
       </c>
       <c r="AG67" t="n">
-        <v>5955.5</v>
+        <v>7427.3</v>
       </c>
       <c r="AH67" t="n">
-        <v>6035.5</v>
+        <v>7567.3</v>
       </c>
       <c r="AI67" t="n">
-        <v>6105.5</v>
+        <v>7697.3</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5836.5</v>
+        <v>7863.9</v>
       </c>
       <c r="AK67" t="n">
-        <v>5866.5</v>
+        <v>7953.9</v>
       </c>
       <c r="AL67" t="n">
-        <v>5876.5</v>
+        <v>8003.9</v>
       </c>
       <c r="AM67" t="n">
-        <v>5876.5</v>
+        <v>8033.9</v>
       </c>
       <c r="AN67" t="n">
-        <v>5985.6</v>
+        <v>7855.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>5945.6</v>
+        <v>7845.3</v>
       </c>
       <c r="AP67" t="n">
-        <v>5885.6</v>
+        <v>7815.3</v>
       </c>
       <c r="AQ67" t="n">
-        <v>5815.6</v>
+        <v>7765.3</v>
       </c>
       <c r="AR67" t="n">
-        <v>6230.2</v>
+        <v>7717.9</v>
       </c>
       <c r="AS67" t="n">
-        <v>6150.2</v>
+        <v>7667.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>6080.2</v>
+        <v>7617.9</v>
       </c>
       <c r="AU67" t="n">
-        <v>6020.2</v>
+        <v>7567.9</v>
       </c>
       <c r="AV67" t="n">
-        <v>6452.8</v>
+        <v>7836.6</v>
       </c>
       <c r="AW67" t="n">
-        <v>6412.8</v>
+        <v>7806.6</v>
       </c>
       <c r="AX67" t="n">
-        <v>6382.8</v>
+        <v>7776.6</v>
       </c>
       <c r="AY67" t="n">
-        <v>6352.8</v>
+        <v>7756.6</v>
       </c>
       <c r="AZ67" t="n">
-        <v>6563.8</v>
+        <v>7867.8</v>
       </c>
       <c r="BA67" t="n">
-        <v>6543.8</v>
+        <v>7847.8</v>
       </c>
       <c r="BB67" t="n">
-        <v>6533.8</v>
+        <v>7837.8</v>
       </c>
       <c r="BC67" t="n">
-        <v>6523.8</v>
+        <v>7827.8</v>
       </c>
       <c r="BD67" t="n">
-        <v>6559.3</v>
+        <v>7780.8</v>
       </c>
       <c r="BE67" t="n">
-        <v>6559.3</v>
+        <v>7780.8</v>
       </c>
       <c r="BF67" t="n">
-        <v>6559.3</v>
+        <v>7790.8</v>
       </c>
       <c r="BG67" t="n">
-        <v>6569.3</v>
+        <v>7800.8</v>
       </c>
       <c r="BH67" t="n">
-        <v>6488.6</v>
+        <v>7855</v>
       </c>
       <c r="BI67" t="n">
-        <v>6508.6</v>
+        <v>7875</v>
       </c>
       <c r="BJ67" t="n">
-        <v>6528.6</v>
+        <v>7885</v>
       </c>
       <c r="BK67" t="n">
-        <v>6558.6</v>
+        <v>7895</v>
       </c>
       <c r="BL67" t="n">
-        <v>6336.8</v>
+        <v>7835.7</v>
       </c>
       <c r="BM67" t="n">
-        <v>6376.8</v>
+        <v>7845.7</v>
       </c>
       <c r="BN67" t="n">
-        <v>6416.8</v>
+        <v>7875.7</v>
       </c>
       <c r="BO67" t="n">
-        <v>6456.8</v>
+        <v>7895.7</v>
       </c>
       <c r="BP67" t="n">
-        <v>5907.6</v>
+        <v>7732.2</v>
       </c>
       <c r="BQ67" t="n">
-        <v>5977.6</v>
+        <v>7772.2</v>
       </c>
       <c r="BR67" t="n">
-        <v>6057.6</v>
+        <v>7822.2</v>
       </c>
       <c r="BS67" t="n">
-        <v>6147.6</v>
+        <v>7872.2</v>
       </c>
       <c r="BT67" t="n">
-        <v>5821.6</v>
+        <v>7666.7</v>
       </c>
       <c r="BU67" t="n">
-        <v>5931.6</v>
+        <v>7726.7</v>
       </c>
       <c r="BV67" t="n">
-        <v>6041.6</v>
+        <v>7766.7</v>
       </c>
       <c r="BW67" t="n">
-        <v>6151.6</v>
+        <v>7816.7</v>
       </c>
       <c r="BX67" t="n">
-        <v>6010.1</v>
+        <v>7500.2</v>
       </c>
       <c r="BY67" t="n">
-        <v>6100.1</v>
+        <v>7550.2</v>
       </c>
       <c r="BZ67" t="n">
-        <v>6180.1</v>
+        <v>7620.2</v>
       </c>
       <c r="CA67" t="n">
-        <v>6260.1</v>
+        <v>7700.2</v>
       </c>
       <c r="CB67" t="n">
-        <v>6236.3</v>
+        <v>7610.1</v>
       </c>
       <c r="CC67" t="n">
-        <v>6276.3</v>
+        <v>7680.1</v>
       </c>
       <c r="CD67" t="n">
-        <v>6276.3</v>
+        <v>7720.1</v>
       </c>
       <c r="CE67" t="n">
-        <v>6266.3</v>
+        <v>7730.1</v>
       </c>
       <c r="CF67" t="n">
-        <v>6609.5</v>
+        <v>7925.8</v>
       </c>
       <c r="CG67" t="n">
-        <v>6569.5</v>
+        <v>7885.8</v>
       </c>
       <c r="CH67" t="n">
-        <v>6499.5</v>
+        <v>7805.8</v>
       </c>
       <c r="CI67" t="n">
-        <v>6429.5</v>
+        <v>7715.8</v>
       </c>
       <c r="CJ67" t="n">
-        <v>6826.2</v>
+        <v>7696.9</v>
       </c>
       <c r="CK67" t="n">
-        <v>6696.2</v>
+        <v>7586.9</v>
       </c>
       <c r="CL67" t="n">
-        <v>6586.2</v>
+        <v>7446.9</v>
       </c>
       <c r="CM67" t="n">
-        <v>6436.2</v>
+        <v>7316.9</v>
       </c>
       <c r="CN67" t="n">
-        <v>6776.6</v>
+        <v>7710.8</v>
       </c>
       <c r="CO67" t="n">
-        <v>6656.6</v>
+        <v>7560.8</v>
       </c>
       <c r="CP67" t="n">
-        <v>6486.6</v>
+        <v>7420.8</v>
       </c>
       <c r="CQ67" t="n">
-        <v>6336.6</v>
+        <v>7260.8</v>
       </c>
       <c r="CR67" t="n">
-        <v>6379.8</v>
+        <v>7251.3</v>
       </c>
       <c r="CS67" t="n">
-        <v>6239.8</v>
+        <v>7111.3</v>
       </c>
       <c r="CT67" t="n">
-        <v>6109.8</v>
+        <v>6971.3</v>
       </c>
       <c r="CU67" t="n">
-        <v>5979.8</v>
+        <v>6861.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" s="2" t="n">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45745</v>
       </c>
       <c r="D68" t="n">
-        <v>5666</v>
+        <v>5416</v>
       </c>
       <c r="E68" t="n">
-        <v>5636</v>
+        <v>5356</v>
       </c>
       <c r="F68" t="n">
-        <v>5616</v>
+        <v>5306</v>
       </c>
       <c r="G68" t="n">
-        <v>5596</v>
+        <v>5246</v>
       </c>
       <c r="H68" t="n">
-        <v>5064.3</v>
+        <v>6221.3</v>
       </c>
       <c r="I68" t="n">
-        <v>5044.3</v>
+        <v>6171.3</v>
       </c>
       <c r="J68" t="n">
-        <v>5024.3</v>
+        <v>6131.3</v>
       </c>
       <c r="K68" t="n">
-        <v>4994.3</v>
+        <v>6091.3</v>
       </c>
       <c r="L68" t="n">
-        <v>5082.1</v>
+        <v>6278.5</v>
       </c>
       <c r="M68" t="n">
-        <v>5062.1</v>
+        <v>6248.5</v>
       </c>
       <c r="N68" t="n">
-        <v>5052.1</v>
+        <v>6218.5</v>
       </c>
       <c r="O68" t="n">
-        <v>5042.1</v>
+        <v>6198.5</v>
       </c>
       <c r="P68" t="n">
-        <v>5067.6</v>
+        <v>6291.3</v>
       </c>
       <c r="Q68" t="n">
-        <v>5067.6</v>
+        <v>6281.3</v>
       </c>
       <c r="R68" t="n">
-        <v>5067.6</v>
+        <v>6271.3</v>
       </c>
       <c r="S68" t="n">
-        <v>5077.6</v>
+        <v>6271.3</v>
       </c>
       <c r="T68" t="n">
-        <v>4930.4</v>
+        <v>6286</v>
       </c>
       <c r="U68" t="n">
-        <v>4940.4</v>
+        <v>6296</v>
       </c>
       <c r="V68" t="n">
-        <v>4950.4</v>
+        <v>6316</v>
       </c>
       <c r="W68" t="n">
-        <v>4960.4</v>
+        <v>6346</v>
       </c>
       <c r="X68" t="n">
-        <v>4847.6</v>
+        <v>6295</v>
       </c>
       <c r="Y68" t="n">
-        <v>4867.6</v>
+        <v>6325</v>
       </c>
       <c r="Z68" t="n">
-        <v>4907.6</v>
+        <v>6365</v>
       </c>
       <c r="AA68" t="n">
-        <v>4947.6</v>
+        <v>6395</v>
       </c>
       <c r="AB68" t="n">
-        <v>4488.6</v>
+        <v>6249.1</v>
       </c>
       <c r="AC68" t="n">
-        <v>4528.6</v>
+        <v>6279.1</v>
       </c>
       <c r="AD68" t="n">
-        <v>4558.6</v>
+        <v>6319.1</v>
       </c>
       <c r="AE68" t="n">
-        <v>4588.6</v>
+        <v>6359.1</v>
       </c>
       <c r="AF68" t="n">
-        <v>4241.5</v>
+        <v>6417.3</v>
       </c>
       <c r="AG68" t="n">
-        <v>4241.5</v>
+        <v>6467.3</v>
       </c>
       <c r="AH68" t="n">
-        <v>4241.5</v>
+        <v>6517.3</v>
       </c>
       <c r="AI68" t="n">
-        <v>4211.5</v>
+        <v>6587.3</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4333.8</v>
+        <v>6703.9</v>
       </c>
       <c r="AK68" t="n">
-        <v>4283.8</v>
+        <v>6773.9</v>
       </c>
       <c r="AL68" t="n">
-        <v>4213.8</v>
+        <v>6833.9</v>
       </c>
       <c r="AM68" t="n">
-        <v>4133.8</v>
+        <v>6883.9</v>
       </c>
       <c r="AN68" t="n">
-        <v>4552.1</v>
+        <v>6735.3</v>
       </c>
       <c r="AO68" t="n">
-        <v>4462.1</v>
+        <v>6775.3</v>
       </c>
       <c r="AP68" t="n">
-        <v>4372.1</v>
+        <v>6795.3</v>
       </c>
       <c r="AQ68" t="n">
-        <v>4272.1</v>
+        <v>6795.3</v>
       </c>
       <c r="AR68" t="n">
-        <v>5068.9</v>
+        <v>6767.9</v>
       </c>
       <c r="AS68" t="n">
-        <v>4978.9</v>
+        <v>6747.9</v>
       </c>
       <c r="AT68" t="n">
-        <v>4898.9</v>
+        <v>6717.9</v>
       </c>
       <c r="AU68" t="n">
-        <v>4828.9</v>
+        <v>6697.9</v>
       </c>
       <c r="AV68" t="n">
-        <v>5288.7</v>
+        <v>6986.6</v>
       </c>
       <c r="AW68" t="n">
-        <v>5228.7</v>
+        <v>6966.6</v>
       </c>
       <c r="AX68" t="n">
-        <v>5168.7</v>
+        <v>6956.6</v>
       </c>
       <c r="AY68" t="n">
-        <v>5118.7</v>
+        <v>6946.6</v>
       </c>
       <c r="AZ68" t="n">
-        <v>5187.3</v>
+        <v>7067.8</v>
       </c>
       <c r="BA68" t="n">
-        <v>5157.3</v>
+        <v>7047.8</v>
       </c>
       <c r="BB68" t="n">
-        <v>5137.3</v>
+        <v>7037.8</v>
       </c>
       <c r="BC68" t="n">
-        <v>5117.3</v>
+        <v>7017.8</v>
       </c>
       <c r="BD68" t="n">
-        <v>4704.8</v>
+        <v>6960.8</v>
       </c>
       <c r="BE68" t="n">
-        <v>4714.8</v>
+        <v>6940.8</v>
       </c>
       <c r="BF68" t="n">
-        <v>4734.8</v>
+        <v>6920.8</v>
       </c>
       <c r="BG68" t="n">
-        <v>4764.8</v>
+        <v>6910.8</v>
       </c>
       <c r="BH68" t="n">
-        <v>4651.1</v>
+        <v>6955</v>
       </c>
       <c r="BI68" t="n">
-        <v>4701.1</v>
+        <v>6955</v>
       </c>
       <c r="BJ68" t="n">
-        <v>4761.1</v>
+        <v>6975</v>
       </c>
       <c r="BK68" t="n">
-        <v>4821.1</v>
+        <v>6995</v>
       </c>
       <c r="BL68" t="n">
-        <v>4925.9</v>
+        <v>6945.7</v>
       </c>
       <c r="BM68" t="n">
-        <v>5005.9</v>
+        <v>6975.7</v>
       </c>
       <c r="BN68" t="n">
-        <v>5105.9</v>
+        <v>7005.7</v>
       </c>
       <c r="BO68" t="n">
-        <v>5205.9</v>
+        <v>7045.7</v>
       </c>
       <c r="BP68" t="n">
-        <v>4417.3</v>
+        <v>6892.2</v>
       </c>
       <c r="BQ68" t="n">
-        <v>4557.3</v>
+        <v>6942.2</v>
       </c>
       <c r="BR68" t="n">
-        <v>4707.3</v>
+        <v>7002.2</v>
       </c>
       <c r="BS68" t="n">
-        <v>4867.3</v>
+        <v>7072.2</v>
       </c>
       <c r="BT68" t="n">
-        <v>4182.2</v>
+        <v>6896.7</v>
       </c>
       <c r="BU68" t="n">
-        <v>4342.2</v>
+        <v>6976.7</v>
       </c>
       <c r="BV68" t="n">
-        <v>4512.2</v>
+        <v>7056.7</v>
       </c>
       <c r="BW68" t="n">
-        <v>4662.2</v>
+        <v>7136.7</v>
       </c>
       <c r="BX68" t="n">
-        <v>4344.6</v>
+        <v>6830.2</v>
       </c>
       <c r="BY68" t="n">
-        <v>4494.6</v>
+        <v>6910.2</v>
       </c>
       <c r="BZ68" t="n">
-        <v>4654.6</v>
+        <v>7000.2</v>
       </c>
       <c r="CA68" t="n">
-        <v>4794.6</v>
+        <v>7080.2</v>
       </c>
       <c r="CB68" t="n">
-        <v>4873.2</v>
+        <v>7000.1</v>
       </c>
       <c r="CC68" t="n">
-        <v>4983.2</v>
+        <v>7080.1</v>
       </c>
       <c r="CD68" t="n">
-        <v>5043.2</v>
+        <v>7100.1</v>
       </c>
       <c r="CE68" t="n">
-        <v>5053.2</v>
+        <v>7100.1</v>
       </c>
       <c r="CF68" t="n">
-        <v>5300.2</v>
+        <v>7295.8</v>
       </c>
       <c r="CG68" t="n">
-        <v>5270.2</v>
+        <v>7265.8</v>
       </c>
       <c r="CH68" t="n">
-        <v>5200.2</v>
+        <v>7215.8</v>
       </c>
       <c r="CI68" t="n">
-        <v>5120.2</v>
+        <v>7145.8</v>
       </c>
       <c r="CJ68" t="n">
-        <v>5406.9</v>
+        <v>7116.9</v>
       </c>
       <c r="CK68" t="n">
-        <v>5286.9</v>
+        <v>7006.9</v>
       </c>
       <c r="CL68" t="n">
-        <v>5176.9</v>
+        <v>6906.9</v>
       </c>
       <c r="CM68" t="n">
-        <v>5046.9</v>
+        <v>6796.9</v>
       </c>
       <c r="CN68" t="n">
-        <v>5470.2</v>
+        <v>7190.8</v>
       </c>
       <c r="CO68" t="n">
-        <v>5330.2</v>
+        <v>7060.8</v>
       </c>
       <c r="CP68" t="n">
-        <v>5200.2</v>
+        <v>6930.8</v>
       </c>
       <c r="CQ68" t="n">
-        <v>5070.2</v>
+        <v>6790.8</v>
       </c>
       <c r="CR68" t="n">
-        <v>5261.4</v>
+        <v>6791.3</v>
       </c>
       <c r="CS68" t="n">
-        <v>5131.4</v>
+        <v>6661.3</v>
       </c>
       <c r="CT68" t="n">
-        <v>5011.4</v>
+        <v>6561.3</v>
       </c>
       <c r="CU68" t="n">
-        <v>4901.4</v>
+        <v>6451.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45746</v>
       </c>
       <c r="D69" t="n">
-        <v>5310.9</v>
+        <v>5108.191213470099</v>
       </c>
       <c r="E69" t="n">
-        <v>5250.9</v>
+        <v>5061.365202245017</v>
       </c>
       <c r="F69" t="n">
-        <v>5200.9</v>
+        <v>5014.539191019934</v>
       </c>
       <c r="G69" t="n">
-        <v>5150.9</v>
+        <v>4958.347977549835</v>
       </c>
       <c r="H69" t="n">
-        <v>5087</v>
+        <v>4917.967098896846</v>
       </c>
       <c r="I69" t="n">
-        <v>5037</v>
+        <v>4880.50628991678</v>
       </c>
       <c r="J69" t="n">
-        <v>4997</v>
+        <v>4852.41068318173</v>
       </c>
       <c r="K69" t="n">
-        <v>4967</v>
+        <v>4814.949874201665</v>
       </c>
       <c r="L69" t="n">
-        <v>4916</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="M69" t="n">
-        <v>4886</v>
+        <v>4750.853493323011</v>
       </c>
       <c r="N69" t="n">
-        <v>4856</v>
+        <v>4722.757886587962</v>
       </c>
       <c r="O69" t="n">
-        <v>4826</v>
+        <v>4704.027482097929</v>
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>4694</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="U69" t="n">
-        <v>4694</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="V69" t="n">
-        <v>4704</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="W69" t="n">
-        <v>4724</v>
+        <v>4656.439713566867</v>
       </c>
       <c r="X69" t="n">
-        <v>4774</v>
+        <v>4664.408360750919</v>
       </c>
       <c r="Y69" t="n">
-        <v>4804</v>
+        <v>4683.138765240952</v>
       </c>
       <c r="Z69" t="n">
-        <v>4834</v>
+        <v>4711.234371976002</v>
       </c>
       <c r="AA69" t="n">
-        <v>4864</v>
+        <v>4729.964776466035</v>
       </c>
       <c r="AB69" t="n">
-        <v>4944</v>
+        <v>4760.218695568028</v>
       </c>
       <c r="AC69" t="n">
-        <v>4964</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="AD69" t="n">
-        <v>4984</v>
+        <v>4797.679504548094</v>
       </c>
       <c r="AE69" t="n">
-        <v>4984</v>
+        <v>4816.409909038127</v>
       </c>
       <c r="AF69" t="n">
-        <v>4852</v>
+        <v>4827.332301141862</v>
       </c>
       <c r="AG69" t="n">
-        <v>4842</v>
+        <v>4846.062705631894</v>
       </c>
       <c r="AH69" t="n">
-        <v>4822</v>
+        <v>4874.158312366944</v>
       </c>
       <c r="AI69" t="n">
-        <v>4792</v>
+        <v>4902.253919101993</v>
       </c>
       <c r="AJ69" t="n">
-        <v>4735</v>
+        <v>4917.746855041611</v>
       </c>
       <c r="AK69" t="n">
-        <v>4685</v>
+        <v>4936.477259531644</v>
       </c>
       <c r="AL69" t="n">
-        <v>4615</v>
+        <v>4955.207664021676</v>
       </c>
       <c r="AM69" t="n">
-        <v>4525</v>
+        <v>4964.572866266692</v>
       </c>
       <c r="AN69" t="n">
-        <v>4558</v>
+        <v>4960.954519063286</v>
       </c>
       <c r="AO69" t="n">
-        <v>4448</v>
+        <v>4951.58931681827</v>
       </c>
       <c r="AP69" t="n">
-        <v>4338</v>
+        <v>4932.858912328237</v>
       </c>
       <c r="AQ69" t="n">
-        <v>4228</v>
+        <v>4914.128507838204</v>
       </c>
       <c r="AR69" t="n">
-        <v>4285</v>
+        <v>4877.840139345849</v>
       </c>
       <c r="AS69" t="n">
-        <v>4185</v>
+        <v>4831.014128120766</v>
       </c>
       <c r="AT69" t="n">
-        <v>4095</v>
+        <v>4784.188116895684</v>
       </c>
       <c r="AU69" t="n">
-        <v>4015</v>
+        <v>4737.362105670602</v>
       </c>
       <c r="AV69" t="n">
-        <v>3972</v>
+        <v>4698.504741629572</v>
       </c>
       <c r="AW69" t="n">
-        <v>3932</v>
+        <v>4670.409134894523</v>
       </c>
       <c r="AX69" t="n">
-        <v>3902</v>
+        <v>4642.313528159473</v>
       </c>
       <c r="AY69" t="n">
-        <v>3882</v>
+        <v>4632.948325914457</v>
       </c>
       <c r="AZ69" t="n">
-        <v>3868</v>
+        <v>4613.011805689956</v>
       </c>
       <c r="BA69" t="n">
-        <v>3858</v>
+        <v>4603.64660344494</v>
       </c>
       <c r="BB69" t="n">
-        <v>3858</v>
+        <v>4603.64660344494</v>
       </c>
       <c r="BC69" t="n">
-        <v>3858</v>
+        <v>4594.281401199923</v>
       </c>
       <c r="BD69" t="n">
-        <v>3881</v>
+        <v>4583.138765240952</v>
       </c>
       <c r="BE69" t="n">
-        <v>3881</v>
+        <v>4573.773562995936</v>
       </c>
       <c r="BF69" t="n">
-        <v>3881</v>
+        <v>4573.773562995936</v>
       </c>
       <c r="BG69" t="n">
-        <v>3881</v>
+        <v>4564.408360750919</v>
       </c>
       <c r="BH69" t="n">
-        <v>3853</v>
+        <v>4569.901296690537</v>
       </c>
       <c r="BI69" t="n">
-        <v>3873</v>
+        <v>4579.266498935553</v>
       </c>
       <c r="BJ69" t="n">
-        <v>3893</v>
+        <v>4588.63170118057</v>
       </c>
       <c r="BK69" t="n">
-        <v>3923</v>
+        <v>4597.996903425586</v>
       </c>
       <c r="BL69" t="n">
-        <v>3878</v>
+        <v>4616.219469711632</v>
       </c>
       <c r="BM69" t="n">
-        <v>3918</v>
+        <v>4634.949874201665</v>
       </c>
       <c r="BN69" t="n">
-        <v>3968</v>
+        <v>4663.045480936714</v>
       </c>
       <c r="BO69" t="n">
-        <v>4028</v>
+        <v>4691.141087671763</v>
       </c>
       <c r="BP69" t="n">
-        <v>4203</v>
+        <v>4730.603444939036</v>
       </c>
       <c r="BQ69" t="n">
-        <v>4283</v>
+        <v>4786.794658409135</v>
       </c>
       <c r="BR69" t="n">
-        <v>4393</v>
+        <v>4852.35107412425</v>
       </c>
       <c r="BS69" t="n">
-        <v>4503</v>
+        <v>4936.637894329398</v>
       </c>
       <c r="BT69" t="n">
-        <v>4537</v>
+        <v>5026.701374104897</v>
       </c>
       <c r="BU69" t="n">
-        <v>4667</v>
+        <v>5120.353396555061</v>
       </c>
       <c r="BV69" t="n">
-        <v>4807</v>
+        <v>5204.640216760209</v>
       </c>
       <c r="BW69" t="n">
-        <v>4937</v>
+        <v>5288.927036965357</v>
       </c>
       <c r="BX69" t="n">
-        <v>4951</v>
+        <v>5362.769498742016</v>
       </c>
       <c r="BY69" t="n">
-        <v>5101</v>
+        <v>5428.325914457132</v>
       </c>
       <c r="BZ69" t="n">
-        <v>5251</v>
+        <v>5503.247532417264</v>
       </c>
       <c r="CA69" t="n">
-        <v>5421</v>
+        <v>5596.899554867428</v>
       </c>
       <c r="CB69" t="n">
-        <v>5606</v>
+        <v>5700.297658215599</v>
       </c>
       <c r="CC69" t="n">
-        <v>5796</v>
+        <v>5822.045287400813</v>
       </c>
       <c r="CD69" t="n">
-        <v>5996</v>
+        <v>5943.792916586027</v>
       </c>
       <c r="CE69" t="n">
-        <v>6176</v>
+        <v>6056.175343526224</v>
       </c>
       <c r="CF69" t="n">
-        <v>6339</v>
+        <v>6161.160441261854</v>
       </c>
       <c r="CG69" t="n">
-        <v>6469</v>
+        <v>6254.812463712019</v>
       </c>
       <c r="CH69" t="n">
-        <v>6519</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="CI69" t="n">
-        <v>6529</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="CJ69" t="n">
-        <v>6517</v>
+        <v>6255.828140119992</v>
       </c>
       <c r="CK69" t="n">
-        <v>6477</v>
+        <v>6209.00212889491</v>
       </c>
       <c r="CL69" t="n">
-        <v>6417</v>
+        <v>6162.176117669828</v>
       </c>
       <c r="CM69" t="n">
-        <v>6337</v>
+        <v>6087.254499709697</v>
       </c>
       <c r="CN69" t="n">
-        <v>6295</v>
+        <v>5975.887749177473</v>
       </c>
       <c r="CO69" t="n">
-        <v>6175</v>
+        <v>5854.140119992258</v>
       </c>
       <c r="CP69" t="n">
-        <v>6025</v>
+        <v>5741.757693052061</v>
       </c>
       <c r="CQ69" t="n">
-        <v>5885</v>
+        <v>5601.279659376814</v>
       </c>
       <c r="CR69" t="n">
-        <v>5773</v>
+        <v>5473.912134700987</v>
       </c>
       <c r="CS69" t="n">
-        <v>5643</v>
+        <v>5352.164505515773</v>
       </c>
       <c r="CT69" t="n">
-        <v>5523</v>
+        <v>5239.782078575576</v>
       </c>
       <c r="CU69" t="n">
-        <v>5413</v>
+        <v>5136.764853880395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45739</v>
+        <v>45743</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45747</v>
       </c>
       <c r="D70" t="n">
-        <v>6175.7</v>
+        <v>4974.477104702923</v>
       </c>
       <c r="E70" t="n">
-        <v>6115.7</v>
+        <v>4927.65109347784</v>
       </c>
       <c r="F70" t="n">
-        <v>6055.7</v>
+        <v>4880.825082252758</v>
       </c>
       <c r="G70" t="n">
-        <v>5995.7</v>
+        <v>4824.633868782659</v>
       </c>
       <c r="H70" t="n">
-        <v>5937.1</v>
+        <v>4776.068511708922</v>
       </c>
       <c r="I70" t="n">
-        <v>5897.1</v>
+        <v>4738.607702728857</v>
       </c>
       <c r="J70" t="n">
-        <v>5867.1</v>
+        <v>4691.781691503774</v>
       </c>
       <c r="K70" t="n">
-        <v>5827.1</v>
+        <v>4654.320882523708</v>
       </c>
       <c r="L70" t="n">
-        <v>5668</v>
+        <v>4607.738029804529</v>
       </c>
       <c r="M70" t="n">
-        <v>5638</v>
+        <v>4579.642423069479</v>
       </c>
       <c r="N70" t="n">
-        <v>5628</v>
+        <v>4560.912018579446</v>
       </c>
       <c r="O70" t="n">
-        <v>5618</v>
+        <v>4551.54681633443</v>
       </c>
       <c r="P70" t="n">
-        <v>5676.7</v>
+        <v>4536.521153473969</v>
       </c>
       <c r="Q70" t="n">
-        <v>5686.7</v>
+        <v>4536.521153473969</v>
       </c>
       <c r="R70" t="n">
-        <v>5696.7</v>
+        <v>4545.886355718986</v>
       </c>
       <c r="S70" t="n">
-        <v>5696.7</v>
+        <v>4564.616760209019</v>
       </c>
       <c r="T70" t="n">
-        <v>5533.4</v>
+        <v>4575.228101412812</v>
       </c>
       <c r="U70" t="n">
-        <v>5553.4</v>
+        <v>4593.958505902845</v>
       </c>
       <c r="V70" t="n">
-        <v>5583.4</v>
+        <v>4612.688910392878</v>
       </c>
       <c r="W70" t="n">
-        <v>5623.4</v>
+        <v>4659.51492161796</v>
       </c>
       <c r="X70" t="n">
-        <v>5448.1</v>
+        <v>4726.992839171667</v>
       </c>
       <c r="Y70" t="n">
-        <v>5528.1</v>
+        <v>4801.914457131798</v>
       </c>
       <c r="Z70" t="n">
-        <v>5638.1</v>
+        <v>4895.566479581962</v>
       </c>
       <c r="AA70" t="n">
-        <v>5768.1</v>
+        <v>5017.314108767177</v>
       </c>
       <c r="AB70" t="n">
-        <v>5788</v>
+        <v>5166.393652022451</v>
       </c>
       <c r="AC70" t="n">
-        <v>5958</v>
+        <v>5316.236887942713</v>
       </c>
       <c r="AD70" t="n">
-        <v>6148</v>
+        <v>5475.445326107993</v>
       </c>
       <c r="AE70" t="n">
-        <v>6338</v>
+        <v>5653.384168763306</v>
       </c>
       <c r="AF70" t="n">
-        <v>6558.5</v>
+        <v>5827.188542674666</v>
       </c>
       <c r="AG70" t="n">
-        <v>6728.5</v>
+        <v>5995.762183084962</v>
       </c>
       <c r="AH70" t="n">
-        <v>6888.5</v>
+        <v>6145.605419005225</v>
       </c>
       <c r="AI70" t="n">
-        <v>7028.5</v>
+        <v>6286.083452680472</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7288.6</v>
+        <v>6409.068937487904</v>
       </c>
       <c r="AK70" t="n">
-        <v>7368.6</v>
+        <v>6502.720959938069</v>
       </c>
       <c r="AL70" t="n">
-        <v>7408.6</v>
+        <v>6549.546971163151</v>
       </c>
       <c r="AM70" t="n">
-        <v>7418.6</v>
+        <v>6596.372982388233</v>
       </c>
       <c r="AN70" t="n">
-        <v>7429</v>
+        <v>6622.238513644281</v>
       </c>
       <c r="AO70" t="n">
-        <v>7379</v>
+        <v>6622.238513644281</v>
       </c>
       <c r="AP70" t="n">
-        <v>7309</v>
+        <v>6603.508109154248</v>
       </c>
       <c r="AQ70" t="n">
-        <v>7229</v>
+        <v>6566.047300174182</v>
       </c>
       <c r="AR70" t="n">
-        <v>7356.8</v>
+        <v>6478.827172440488</v>
       </c>
       <c r="AS70" t="n">
-        <v>7266.8</v>
+        <v>6432.001161215406</v>
       </c>
       <c r="AT70" t="n">
-        <v>7186.8</v>
+        <v>6375.809947745307</v>
       </c>
       <c r="AU70" t="n">
-        <v>7106.8</v>
+        <v>6319.618734275208</v>
       </c>
       <c r="AV70" t="n">
-        <v>7531.8</v>
+        <v>6252.614437778208</v>
       </c>
       <c r="AW70" t="n">
-        <v>7481.8</v>
+        <v>6215.153628798142</v>
       </c>
       <c r="AX70" t="n">
-        <v>7441.8</v>
+        <v>6187.058022063093</v>
       </c>
       <c r="AY70" t="n">
-        <v>7411.8</v>
+        <v>6158.962415328044</v>
       </c>
       <c r="AZ70" t="n">
-        <v>7192.9</v>
+        <v>6127.770930907684</v>
       </c>
       <c r="BA70" t="n">
-        <v>7172.9</v>
+        <v>6109.040526417652</v>
       </c>
       <c r="BB70" t="n">
-        <v>7142.9</v>
+        <v>6090.310121927618</v>
       </c>
       <c r="BC70" t="n">
-        <v>7122.9</v>
+        <v>6071.579717437585</v>
       </c>
       <c r="BD70" t="n">
-        <v>7372</v>
+        <v>6048.075633830074</v>
       </c>
       <c r="BE70" t="n">
-        <v>7362</v>
+        <v>6029.345229340042</v>
       </c>
       <c r="BF70" t="n">
-        <v>7352</v>
+        <v>6019.980027095025</v>
       </c>
       <c r="BG70" t="n">
-        <v>7362</v>
+        <v>6001.249622604993</v>
       </c>
       <c r="BH70" t="n">
-        <v>7099.6</v>
+        <v>6004.055428682021</v>
       </c>
       <c r="BI70" t="n">
-        <v>7109.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="BJ70" t="n">
-        <v>7129.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="BK70" t="n">
-        <v>7149.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="BL70" t="n">
-        <v>6772</v>
+        <v>6005.615095800271</v>
       </c>
       <c r="BM70" t="n">
-        <v>6792</v>
+        <v>6005.615095800271</v>
       </c>
       <c r="BN70" t="n">
-        <v>6812</v>
+        <v>6014.980298045288</v>
       </c>
       <c r="BO70" t="n">
-        <v>6842</v>
+        <v>6014.980298045288</v>
       </c>
       <c r="BP70" t="n">
-        <v>6010.2</v>
+        <v>6040.856589897426</v>
       </c>
       <c r="BQ70" t="n">
-        <v>6070.2</v>
+        <v>6059.586994387459</v>
       </c>
       <c r="BR70" t="n">
-        <v>6130.2</v>
+        <v>6078.317398877492</v>
       </c>
       <c r="BS70" t="n">
-        <v>6220.2</v>
+        <v>6106.413005612541</v>
       </c>
       <c r="BT70" t="n">
-        <v>5905.8</v>
+        <v>6183.662937874976</v>
       </c>
       <c r="BU70" t="n">
-        <v>5995.8</v>
+        <v>6230.488949100059</v>
       </c>
       <c r="BV70" t="n">
-        <v>6085.8</v>
+        <v>6277.31496032514</v>
       </c>
       <c r="BW70" t="n">
-        <v>6175.8</v>
+        <v>6333.506173795239</v>
       </c>
       <c r="BX70" t="n">
-        <v>6320.1</v>
+        <v>6413.787962066964</v>
       </c>
       <c r="BY70" t="n">
-        <v>6400.1</v>
+        <v>6488.709580027095</v>
       </c>
       <c r="BZ70" t="n">
-        <v>6480.1</v>
+        <v>6582.36160247726</v>
       </c>
       <c r="CA70" t="n">
-        <v>6570.1</v>
+        <v>6685.378827172441</v>
       </c>
       <c r="CB70" t="n">
-        <v>6669.1</v>
+        <v>6831.801045093865</v>
       </c>
       <c r="CC70" t="n">
-        <v>6739.1</v>
+        <v>6953.548674279079</v>
       </c>
       <c r="CD70" t="n">
-        <v>6829.1</v>
+        <v>7056.56589897426</v>
       </c>
       <c r="CE70" t="n">
-        <v>6909.1</v>
+        <v>7140.852719179408</v>
       </c>
       <c r="CF70" t="n">
-        <v>7135.1</v>
+        <v>7203.336713760403</v>
       </c>
       <c r="CG70" t="n">
-        <v>7195.1</v>
+        <v>7259.527927230502</v>
       </c>
       <c r="CH70" t="n">
-        <v>7215.1</v>
+        <v>7268.893129475518</v>
       </c>
       <c r="CI70" t="n">
-        <v>7225.1</v>
+        <v>7268.893129475518</v>
       </c>
       <c r="CJ70" t="n">
-        <v>7416.5</v>
+        <v>7189.428294948713</v>
       </c>
       <c r="CK70" t="n">
-        <v>7326.5</v>
+        <v>7095.776272498549</v>
       </c>
       <c r="CL70" t="n">
-        <v>7226.5</v>
+        <v>6992.759047803368</v>
       </c>
       <c r="CM70" t="n">
-        <v>7086.5</v>
+        <v>6880.376620863171</v>
       </c>
       <c r="CN70" t="n">
-        <v>7381.3</v>
+        <v>6690.278923940391</v>
       </c>
       <c r="CO70" t="n">
-        <v>7241.3</v>
+        <v>6540.435688020128</v>
       </c>
       <c r="CP70" t="n">
-        <v>7081.3</v>
+        <v>6390.592452099864</v>
       </c>
       <c r="CQ70" t="n">
-        <v>6931.3</v>
+        <v>6240.749216179602</v>
       </c>
       <c r="CR70" t="n">
-        <v>7053.2</v>
+        <v>6071.695064834527</v>
       </c>
       <c r="CS70" t="n">
-        <v>6903.2</v>
+        <v>5949.947435649313</v>
       </c>
       <c r="CT70" t="n">
-        <v>6783.2</v>
+        <v>5846.930210954132</v>
       </c>
       <c r="CU70" t="n">
-        <v>6673.2</v>
+        <v>5743.912986258951</v>
       </c>
     </row>
     <row r="71">

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1842,298 +1842,298 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" s="2" t="n">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45748</v>
       </c>
       <c r="D7" t="n">
-        <v>5558</v>
+        <v>5419.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5498</v>
+        <v>5369.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5448</v>
+        <v>5319.5</v>
       </c>
       <c r="G7" t="n">
-        <v>5398</v>
+        <v>5259.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5440</v>
+        <v>4731.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5400</v>
+        <v>4691.1</v>
       </c>
       <c r="J7" t="n">
-        <v>5360</v>
+        <v>4651.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5320</v>
+        <v>4611.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5293</v>
+        <v>4550.7</v>
       </c>
       <c r="M7" t="n">
-        <v>5253</v>
+        <v>4510.7</v>
       </c>
       <c r="N7" t="n">
-        <v>5233</v>
+        <v>4490.7</v>
       </c>
       <c r="O7" t="n">
-        <v>5223</v>
+        <v>4480.7</v>
       </c>
       <c r="P7" t="n">
-        <v>5179</v>
+        <v>4487.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>5179</v>
+        <v>4487.3</v>
       </c>
       <c r="R7" t="n">
-        <v>5169</v>
+        <v>4497.3</v>
       </c>
       <c r="S7" t="n">
-        <v>5169</v>
+        <v>4517.3</v>
       </c>
       <c r="T7" t="n">
-        <v>5154</v>
+        <v>4486.4</v>
       </c>
       <c r="U7" t="n">
-        <v>5184</v>
+        <v>4506.4</v>
       </c>
       <c r="V7" t="n">
-        <v>5204</v>
+        <v>4526.4</v>
       </c>
       <c r="W7" t="n">
-        <v>5244</v>
+        <v>4566.4</v>
       </c>
       <c r="X7" t="n">
-        <v>5325</v>
+        <v>4572.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5385</v>
+        <v>4632.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>5455</v>
+        <v>4712.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>5545</v>
+        <v>4822.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>5688</v>
+        <v>4429.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>5808</v>
+        <v>4569.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>5928</v>
+        <v>4719.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>6058</v>
+        <v>4879.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>6192</v>
+        <v>4965</v>
       </c>
       <c r="AG7" t="n">
-        <v>6332</v>
+        <v>5125</v>
       </c>
       <c r="AH7" t="n">
-        <v>6472</v>
+        <v>5275</v>
       </c>
       <c r="AI7" t="n">
-        <v>6592</v>
+        <v>5405</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6571</v>
+        <v>5291.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>6671</v>
+        <v>5381.2</v>
       </c>
       <c r="AL7" t="n">
-        <v>6751</v>
+        <v>5431.2</v>
       </c>
       <c r="AM7" t="n">
-        <v>6811</v>
+        <v>5461.2</v>
       </c>
       <c r="AN7" t="n">
-        <v>7046</v>
+        <v>5605.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7056</v>
+        <v>5585.1</v>
       </c>
       <c r="AP7" t="n">
-        <v>7046</v>
+        <v>5545.1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7016</v>
+        <v>5495.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>7027</v>
+        <v>5834</v>
       </c>
       <c r="AS7" t="n">
-        <v>6987</v>
+        <v>5774</v>
       </c>
       <c r="AT7" t="n">
-        <v>6947</v>
+        <v>5714</v>
       </c>
       <c r="AU7" t="n">
-        <v>6917</v>
+        <v>5654</v>
       </c>
       <c r="AV7" t="n">
-        <v>6864</v>
+        <v>6058.9</v>
       </c>
       <c r="AW7" t="n">
-        <v>6834</v>
+        <v>6008.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>6814</v>
+        <v>5958.9</v>
       </c>
       <c r="AY7" t="n">
-        <v>6794</v>
+        <v>5918.9</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6845</v>
+        <v>5979.3</v>
       </c>
       <c r="BA7" t="n">
-        <v>6835</v>
+        <v>5929.3</v>
       </c>
       <c r="BB7" t="n">
-        <v>6825</v>
+        <v>5879.3</v>
       </c>
       <c r="BC7" t="n">
-        <v>6815</v>
+        <v>5839.3</v>
       </c>
       <c r="BD7" t="n">
-        <v>6804</v>
+        <v>5863.5</v>
       </c>
       <c r="BE7" t="n">
-        <v>6794</v>
+        <v>5823.5</v>
       </c>
       <c r="BF7" t="n">
-        <v>6774</v>
+        <v>5803.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>6764</v>
+        <v>5793.5</v>
       </c>
       <c r="BH7" t="n">
-        <v>6709</v>
+        <v>5787.5</v>
       </c>
       <c r="BI7" t="n">
-        <v>6689</v>
+        <v>5797.5</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6679</v>
+        <v>5797.5</v>
       </c>
       <c r="BK7" t="n">
-        <v>6659</v>
+        <v>5807.5</v>
       </c>
       <c r="BL7" t="n">
-        <v>6606</v>
+        <v>5712.5</v>
       </c>
       <c r="BM7" t="n">
-        <v>6576</v>
+        <v>5732.5</v>
       </c>
       <c r="BN7" t="n">
-        <v>6556</v>
+        <v>5742.5</v>
       </c>
       <c r="BO7" t="n">
-        <v>6546</v>
+        <v>5752.5</v>
       </c>
       <c r="BP7" t="n">
-        <v>6456</v>
+        <v>5495.2</v>
       </c>
       <c r="BQ7" t="n">
-        <v>6466</v>
+        <v>5525.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>6496</v>
+        <v>5575.2</v>
       </c>
       <c r="BS7" t="n">
-        <v>6536</v>
+        <v>5635.2</v>
       </c>
       <c r="BT7" t="n">
-        <v>6384</v>
+        <v>5287.9</v>
       </c>
       <c r="BU7" t="n">
-        <v>6434</v>
+        <v>5347.9</v>
       </c>
       <c r="BV7" t="n">
-        <v>6484</v>
+        <v>5417.9</v>
       </c>
       <c r="BW7" t="n">
-        <v>6534</v>
+        <v>5477.9</v>
       </c>
       <c r="BX7" t="n">
-        <v>6516</v>
+        <v>5307.1</v>
       </c>
       <c r="BY7" t="n">
-        <v>6576</v>
+        <v>5357.1</v>
       </c>
       <c r="BZ7" t="n">
-        <v>6646</v>
+        <v>5417.1</v>
       </c>
       <c r="CA7" t="n">
-        <v>6736</v>
+        <v>5497.1</v>
       </c>
       <c r="CB7" t="n">
-        <v>6887</v>
+        <v>5227.4</v>
       </c>
       <c r="CC7" t="n">
-        <v>7017</v>
+        <v>5327.4</v>
       </c>
       <c r="CD7" t="n">
-        <v>7137</v>
+        <v>5417.4</v>
       </c>
       <c r="CE7" t="n">
-        <v>7237</v>
+        <v>5487.4</v>
       </c>
       <c r="CF7" t="n">
-        <v>7292</v>
+        <v>5417.5</v>
       </c>
       <c r="CG7" t="n">
-        <v>7362</v>
+        <v>5477.5</v>
       </c>
       <c r="CH7" t="n">
-        <v>7372</v>
+        <v>5497.5</v>
       </c>
       <c r="CI7" t="n">
-        <v>7372</v>
+        <v>5497.5</v>
       </c>
       <c r="CJ7" t="n">
-        <v>7362</v>
+        <v>5756.3</v>
       </c>
       <c r="CK7" t="n">
-        <v>7262</v>
+        <v>5656.3</v>
       </c>
       <c r="CL7" t="n">
-        <v>7182</v>
+        <v>5556.3</v>
       </c>
       <c r="CM7" t="n">
-        <v>7052</v>
+        <v>5426.3</v>
       </c>
       <c r="CN7" t="n">
-        <v>7050</v>
+        <v>5685.8</v>
       </c>
       <c r="CO7" t="n">
-        <v>6910</v>
+        <v>5545.8</v>
       </c>
       <c r="CP7" t="n">
-        <v>6750</v>
+        <v>5385.8</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6580</v>
+        <v>5225.8</v>
       </c>
       <c r="CR7" t="n">
-        <v>6457</v>
+        <v>5419.6</v>
       </c>
       <c r="CS7" t="n">
-        <v>6317</v>
+        <v>5279.6</v>
       </c>
       <c r="CT7" t="n">
-        <v>6207</v>
+        <v>5149.6</v>
       </c>
       <c r="CU7" t="n">
-        <v>6077</v>
+        <v>5029.6</v>
       </c>
     </row>
     <row r="8">
@@ -3029,312 +3029,894 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>45744</v>
+      </c>
       <c r="C11" s="2" t="n">
         <v>45752</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5430</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5380</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5320</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5223</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5173</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5133</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5083</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5023</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4993</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4963</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4953</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4961</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4951</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4951</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4961</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4968</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4968</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4968</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4978</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5011</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5021</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5041</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5144</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5164</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5204</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5234</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5151</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5191</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5241</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5281</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5321</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5351</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5371</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5381</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5528</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5508</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5468</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5418</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>5197</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>5137</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>5067</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>5017</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>5004</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4964</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4914</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4874</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>4824</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4784</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4744</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4704</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4701</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4661</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4621</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4601</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4685</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4695</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>4705</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4735</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>4721</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4771</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>4821</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4881</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>5098</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>5168</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>5258</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>5348</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>5302</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5392</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>5482</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5572</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>5682</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>5752</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>5832</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5922</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>5956</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>6076</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6186</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>6286</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>6515</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>6545</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>6545</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>6472</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>6402</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>6322</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>6222</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>6022</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>5892</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>5752</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>5612</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>5636</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>5516</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>5406</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>5296</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>45744</v>
+      </c>
       <c r="C12" s="2" t="n">
         <v>45753</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>5855.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5785.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5745.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5695.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5627.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5587.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5547.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5517.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5358</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5328</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5298</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5268</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5306.7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5286.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5276.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5266.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5093.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5093.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5103.4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5113.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4888.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4898.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4908.1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4918.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4798</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4808</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4808</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>4818</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4848.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4848.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4848.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4848.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>4988.6</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4968.6</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4948.6</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4918.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4919</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4869</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>4829</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4789</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>4956.8</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4916.8</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4886.8</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4856.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>5321.8</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5311.8</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5301.8</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>5281.8</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5082.9</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5072.9</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5052.9</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5032.9</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>5292</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>5282</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>5272</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>5282</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5019.6</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>5039.6</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>5059.6</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5089.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4712</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>4742</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>4782</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4822</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>4000.2</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>4060.2</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>4130.2</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>4210.2</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>3885.8</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3975.8</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>4065.8</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4145.8</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>4300.1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4390.1</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>4480.1</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>4570.1</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>4679.1</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>4809.1</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>4939.1</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>5059.1</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>5335.1</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>5435.1</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>5475.1</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>5475.1</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>5636.5</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>5566.5</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>5496.5</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>5396.5</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>5731.3</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>5631.3</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>5511.3</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>5401.3</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>5613.2</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>5483.2</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>5383.2</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>5273.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" s="2" t="n">
+        <v>45746</v>
+      </c>
       <c r="C13" s="2" t="n">
         <v>45754</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4394.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4374.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4354.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4334.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4446</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4416</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4396</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4366</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4326</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4306</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4286</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4276</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4276</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4276</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4286</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4296</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4294</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4314</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4354</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4394</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4454</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4534</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4624</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4744</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4884</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5034</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5214</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5394</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5594</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5784</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5984</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6164</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6334</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6474</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6594</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>6694</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6776</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6806</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>6816</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>6806</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>6781</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6741</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>6691</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6641</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6581</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6531</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6471</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>6421</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>6371</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>6331</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6281</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>6211</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6181</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>6161</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>6141</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>6131</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>6131</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>6121</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>6121</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>6111</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>6101</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>6091</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>6081</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>6081</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>6091</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>6111</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>6131</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>6161</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6191</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>6221</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>6251</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>6286</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>6336</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>6416</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>6516</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>6636</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>6786</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>6926</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>7046</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>7154</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>7254</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>7314</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>7344</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>7314</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>7254</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>7154</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>7034</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>6864</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>6714</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>6554</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>6374</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>6226</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>6086</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>5956</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>5816</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -14719,884 +15301,884 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" s="2" t="n">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45745</v>
       </c>
       <c r="D68" t="n">
-        <v>5416</v>
+        <v>6936.9</v>
       </c>
       <c r="E68" t="n">
-        <v>5356</v>
+        <v>6876.9</v>
       </c>
       <c r="F68" t="n">
-        <v>5306</v>
+        <v>6826.9</v>
       </c>
       <c r="G68" t="n">
-        <v>5246</v>
+        <v>6766.9</v>
       </c>
       <c r="H68" t="n">
-        <v>6221.3</v>
+        <v>6570</v>
       </c>
       <c r="I68" t="n">
-        <v>6171.3</v>
+        <v>6510</v>
       </c>
       <c r="J68" t="n">
-        <v>6131.3</v>
+        <v>6470</v>
       </c>
       <c r="K68" t="n">
-        <v>6091.3</v>
+        <v>6430</v>
       </c>
       <c r="L68" t="n">
-        <v>6278.5</v>
+        <v>6389.8</v>
       </c>
       <c r="M68" t="n">
-        <v>6248.5</v>
+        <v>6369.8</v>
       </c>
       <c r="N68" t="n">
-        <v>6218.5</v>
+        <v>6349.8</v>
       </c>
       <c r="O68" t="n">
-        <v>6198.5</v>
+        <v>6329.8</v>
       </c>
       <c r="P68" t="n">
-        <v>6291.3</v>
+        <v>6320.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>6281.3</v>
+        <v>6310.6</v>
       </c>
       <c r="R68" t="n">
-        <v>6271.3</v>
+        <v>6310.6</v>
       </c>
       <c r="S68" t="n">
-        <v>6271.3</v>
+        <v>6310.6</v>
       </c>
       <c r="T68" t="n">
-        <v>6286</v>
+        <v>6205.8</v>
       </c>
       <c r="U68" t="n">
-        <v>6296</v>
+        <v>6215.8</v>
       </c>
       <c r="V68" t="n">
-        <v>6316</v>
+        <v>6225.8</v>
       </c>
       <c r="W68" t="n">
-        <v>6346</v>
+        <v>6235.8</v>
       </c>
       <c r="X68" t="n">
-        <v>6295</v>
+        <v>6135.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>6325</v>
+        <v>6155.4</v>
       </c>
       <c r="Z68" t="n">
-        <v>6365</v>
+        <v>6185.4</v>
       </c>
       <c r="AA68" t="n">
-        <v>6395</v>
+        <v>6215.4</v>
       </c>
       <c r="AB68" t="n">
-        <v>6249.1</v>
+        <v>6385.4</v>
       </c>
       <c r="AC68" t="n">
-        <v>6279.1</v>
+        <v>6425.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>6319.1</v>
+        <v>6475.4</v>
       </c>
       <c r="AE68" t="n">
-        <v>6359.1</v>
+        <v>6525.4</v>
       </c>
       <c r="AF68" t="n">
-        <v>6417.3</v>
+        <v>6239.3</v>
       </c>
       <c r="AG68" t="n">
-        <v>6467.3</v>
+        <v>6309.3</v>
       </c>
       <c r="AH68" t="n">
-        <v>6517.3</v>
+        <v>6369.3</v>
       </c>
       <c r="AI68" t="n">
-        <v>6587.3</v>
+        <v>6439.3</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6703.9</v>
+        <v>7021</v>
       </c>
       <c r="AK68" t="n">
-        <v>6773.9</v>
+        <v>7081</v>
       </c>
       <c r="AL68" t="n">
-        <v>6833.9</v>
+        <v>7131</v>
       </c>
       <c r="AM68" t="n">
-        <v>6883.9</v>
+        <v>7171</v>
       </c>
       <c r="AN68" t="n">
-        <v>6735.3</v>
+        <v>6652</v>
       </c>
       <c r="AO68" t="n">
-        <v>6775.3</v>
+        <v>6662</v>
       </c>
       <c r="AP68" t="n">
-        <v>6795.3</v>
+        <v>6662</v>
       </c>
       <c r="AQ68" t="n">
-        <v>6795.3</v>
+        <v>6652</v>
       </c>
       <c r="AR68" t="n">
-        <v>6767.9</v>
+        <v>6606.9</v>
       </c>
       <c r="AS68" t="n">
-        <v>6747.9</v>
+        <v>6586.9</v>
       </c>
       <c r="AT68" t="n">
-        <v>6717.9</v>
+        <v>6566.9</v>
       </c>
       <c r="AU68" t="n">
-        <v>6697.9</v>
+        <v>6546.9</v>
       </c>
       <c r="AV68" t="n">
-        <v>6986.6</v>
+        <v>6864.4</v>
       </c>
       <c r="AW68" t="n">
-        <v>6966.6</v>
+        <v>6844.4</v>
       </c>
       <c r="AX68" t="n">
-        <v>6956.6</v>
+        <v>6824.4</v>
       </c>
       <c r="AY68" t="n">
-        <v>6946.6</v>
+        <v>6804.4</v>
       </c>
       <c r="AZ68" t="n">
-        <v>7067.8</v>
+        <v>7002.1</v>
       </c>
       <c r="BA68" t="n">
-        <v>7047.8</v>
+        <v>6992.1</v>
       </c>
       <c r="BB68" t="n">
-        <v>7037.8</v>
+        <v>6972.1</v>
       </c>
       <c r="BC68" t="n">
-        <v>7017.8</v>
+        <v>6952.1</v>
       </c>
       <c r="BD68" t="n">
-        <v>6960.8</v>
+        <v>6884.7</v>
       </c>
       <c r="BE68" t="n">
-        <v>6940.8</v>
+        <v>6864.7</v>
       </c>
       <c r="BF68" t="n">
-        <v>6920.8</v>
+        <v>6854.7</v>
       </c>
       <c r="BG68" t="n">
-        <v>6910.8</v>
+        <v>6844.7</v>
       </c>
       <c r="BH68" t="n">
-        <v>6955</v>
+        <v>6549.5</v>
       </c>
       <c r="BI68" t="n">
-        <v>6955</v>
+        <v>6549.5</v>
       </c>
       <c r="BJ68" t="n">
-        <v>6975</v>
+        <v>6559.5</v>
       </c>
       <c r="BK68" t="n">
-        <v>6995</v>
+        <v>6569.5</v>
       </c>
       <c r="BL68" t="n">
-        <v>6945.7</v>
+        <v>5882</v>
       </c>
       <c r="BM68" t="n">
-        <v>6975.7</v>
+        <v>5902</v>
       </c>
       <c r="BN68" t="n">
-        <v>7005.7</v>
+        <v>5932</v>
       </c>
       <c r="BO68" t="n">
-        <v>7045.7</v>
+        <v>5962</v>
       </c>
       <c r="BP68" t="n">
-        <v>6892.2</v>
+        <v>5697.8</v>
       </c>
       <c r="BQ68" t="n">
-        <v>6942.2</v>
+        <v>5747.8</v>
       </c>
       <c r="BR68" t="n">
-        <v>7002.2</v>
+        <v>5807.8</v>
       </c>
       <c r="BS68" t="n">
-        <v>7072.2</v>
+        <v>5877.8</v>
       </c>
       <c r="BT68" t="n">
-        <v>6896.7</v>
+        <v>5269.7</v>
       </c>
       <c r="BU68" t="n">
-        <v>6976.7</v>
+        <v>5349.7</v>
       </c>
       <c r="BV68" t="n">
-        <v>7056.7</v>
+        <v>5429.7</v>
       </c>
       <c r="BW68" t="n">
-        <v>7136.7</v>
+        <v>5519.7</v>
       </c>
       <c r="BX68" t="n">
-        <v>6830.2</v>
+        <v>5607.4</v>
       </c>
       <c r="BY68" t="n">
-        <v>6910.2</v>
+        <v>5707.4</v>
       </c>
       <c r="BZ68" t="n">
-        <v>7000.2</v>
+        <v>5817.4</v>
       </c>
       <c r="CA68" t="n">
-        <v>7080.2</v>
+        <v>5927.4</v>
       </c>
       <c r="CB68" t="n">
-        <v>7000.1</v>
+        <v>5871</v>
       </c>
       <c r="CC68" t="n">
-        <v>7080.1</v>
+        <v>5961</v>
       </c>
       <c r="CD68" t="n">
-        <v>7100.1</v>
+        <v>6021</v>
       </c>
       <c r="CE68" t="n">
-        <v>7100.1</v>
+        <v>6051</v>
       </c>
       <c r="CF68" t="n">
-        <v>7295.8</v>
+        <v>5884.9</v>
       </c>
       <c r="CG68" t="n">
-        <v>7265.8</v>
+        <v>5854.9</v>
       </c>
       <c r="CH68" t="n">
-        <v>7215.8</v>
+        <v>5784.9</v>
       </c>
       <c r="CI68" t="n">
-        <v>7145.8</v>
+        <v>5704.9</v>
       </c>
       <c r="CJ68" t="n">
-        <v>7116.9</v>
+        <v>5734.3</v>
       </c>
       <c r="CK68" t="n">
-        <v>7006.9</v>
+        <v>5634.3</v>
       </c>
       <c r="CL68" t="n">
-        <v>6906.9</v>
+        <v>5534.3</v>
       </c>
       <c r="CM68" t="n">
-        <v>6796.9</v>
+        <v>5414.3</v>
       </c>
       <c r="CN68" t="n">
-        <v>7190.8</v>
+        <v>4353.1</v>
       </c>
       <c r="CO68" t="n">
-        <v>7060.8</v>
+        <v>4213.1</v>
       </c>
       <c r="CP68" t="n">
-        <v>6930.8</v>
+        <v>4073.1</v>
       </c>
       <c r="CQ68" t="n">
-        <v>6790.8</v>
+        <v>3933.1</v>
       </c>
       <c r="CR68" t="n">
-        <v>6791.3</v>
+        <v>4047.7</v>
       </c>
       <c r="CS68" t="n">
-        <v>6661.3</v>
+        <v>3927.7</v>
       </c>
       <c r="CT68" t="n">
-        <v>6561.3</v>
+        <v>3787.7</v>
       </c>
       <c r="CU68" t="n">
-        <v>6451.3</v>
+        <v>3677.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45743</v>
+        <v>45745</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45746</v>
       </c>
       <c r="D69" t="n">
-        <v>5108.191213470099</v>
+        <v>3284</v>
       </c>
       <c r="E69" t="n">
-        <v>5061.365202245017</v>
+        <v>3234</v>
       </c>
       <c r="F69" t="n">
-        <v>5014.539191019934</v>
+        <v>3184</v>
       </c>
       <c r="G69" t="n">
-        <v>4958.347977549835</v>
+        <v>3134</v>
       </c>
       <c r="H69" t="n">
-        <v>4917.967098896846</v>
+        <v>4589.1</v>
       </c>
       <c r="I69" t="n">
-        <v>4880.50628991678</v>
+        <v>4549.1</v>
       </c>
       <c r="J69" t="n">
-        <v>4852.41068318173</v>
+        <v>4509.1</v>
       </c>
       <c r="K69" t="n">
-        <v>4814.949874201665</v>
+        <v>4469.1</v>
       </c>
       <c r="L69" t="n">
-        <v>4778.949100058061</v>
+        <v>4412.4</v>
       </c>
       <c r="M69" t="n">
-        <v>4750.853493323011</v>
+        <v>4382.4</v>
       </c>
       <c r="N69" t="n">
-        <v>4722.757886587962</v>
+        <v>4362.4</v>
       </c>
       <c r="O69" t="n">
-        <v>4704.027482097929</v>
+        <v>4352.4</v>
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>4647.07451132185</v>
+        <v>4177.2</v>
       </c>
       <c r="U69" t="n">
-        <v>4647.07451132185</v>
+        <v>4177.2</v>
       </c>
       <c r="V69" t="n">
-        <v>4647.07451132185</v>
+        <v>4177.2</v>
       </c>
       <c r="W69" t="n">
-        <v>4656.439713566867</v>
+        <v>4187.2</v>
       </c>
       <c r="X69" t="n">
-        <v>4664.408360750919</v>
+        <v>4161</v>
       </c>
       <c r="Y69" t="n">
-        <v>4683.138765240952</v>
+        <v>4181</v>
       </c>
       <c r="Z69" t="n">
-        <v>4711.234371976002</v>
+        <v>4191</v>
       </c>
       <c r="AA69" t="n">
-        <v>4729.964776466035</v>
+        <v>4211</v>
       </c>
       <c r="AB69" t="n">
-        <v>4760.218695568028</v>
+        <v>4150.7</v>
       </c>
       <c r="AC69" t="n">
-        <v>4778.949100058061</v>
+        <v>4160.7</v>
       </c>
       <c r="AD69" t="n">
-        <v>4797.679504548094</v>
+        <v>4170.7</v>
       </c>
       <c r="AE69" t="n">
-        <v>4816.409909038127</v>
+        <v>4190.7</v>
       </c>
       <c r="AF69" t="n">
-        <v>4827.332301141862</v>
+        <v>4330.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>4846.062705631894</v>
+        <v>4360.2</v>
       </c>
       <c r="AH69" t="n">
-        <v>4874.158312366944</v>
+        <v>4400.2</v>
       </c>
       <c r="AI69" t="n">
-        <v>4902.253919101993</v>
+        <v>4440.2</v>
       </c>
       <c r="AJ69" t="n">
-        <v>4917.746855041611</v>
+        <v>4289</v>
       </c>
       <c r="AK69" t="n">
-        <v>4936.477259531644</v>
+        <v>4339</v>
       </c>
       <c r="AL69" t="n">
-        <v>4955.207664021676</v>
+        <v>4389</v>
       </c>
       <c r="AM69" t="n">
-        <v>4964.572866266692</v>
+        <v>4439</v>
       </c>
       <c r="AN69" t="n">
-        <v>4960.954519063286</v>
+        <v>4594.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>4951.58931681827</v>
+        <v>4624.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>4932.858912328237</v>
+        <v>4634.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>4914.128507838204</v>
+        <v>4634.5</v>
       </c>
       <c r="AR69" t="n">
-        <v>4877.840139345849</v>
+        <v>4840.9</v>
       </c>
       <c r="AS69" t="n">
-        <v>4831.014128120766</v>
+        <v>4810.9</v>
       </c>
       <c r="AT69" t="n">
-        <v>4784.188116895684</v>
+        <v>4780.9</v>
       </c>
       <c r="AU69" t="n">
-        <v>4737.362105670602</v>
+        <v>4750.9</v>
       </c>
       <c r="AV69" t="n">
-        <v>4698.504741629572</v>
+        <v>4852.7</v>
       </c>
       <c r="AW69" t="n">
-        <v>4670.409134894523</v>
+        <v>4832.7</v>
       </c>
       <c r="AX69" t="n">
-        <v>4642.313528159473</v>
+        <v>4822.7</v>
       </c>
       <c r="AY69" t="n">
-        <v>4632.948325914457</v>
+        <v>4802.7</v>
       </c>
       <c r="AZ69" t="n">
-        <v>4613.011805689956</v>
+        <v>4559.2</v>
       </c>
       <c r="BA69" t="n">
-        <v>4603.64660344494</v>
+        <v>4549.2</v>
       </c>
       <c r="BB69" t="n">
-        <v>4603.64660344494</v>
+        <v>4539.2</v>
       </c>
       <c r="BC69" t="n">
-        <v>4594.281401199923</v>
+        <v>4529.2</v>
       </c>
       <c r="BD69" t="n">
-        <v>4583.138765240952</v>
+        <v>4202.6</v>
       </c>
       <c r="BE69" t="n">
-        <v>4573.773562995936</v>
+        <v>4192.6</v>
       </c>
       <c r="BF69" t="n">
-        <v>4573.773562995936</v>
+        <v>4182.6</v>
       </c>
       <c r="BG69" t="n">
-        <v>4564.408360750919</v>
+        <v>4172.6</v>
       </c>
       <c r="BH69" t="n">
-        <v>4569.901296690537</v>
+        <v>4057.1</v>
       </c>
       <c r="BI69" t="n">
-        <v>4579.266498935553</v>
+        <v>4047.1</v>
       </c>
       <c r="BJ69" t="n">
-        <v>4588.63170118057</v>
+        <v>4037.1</v>
       </c>
       <c r="BK69" t="n">
-        <v>4597.996903425586</v>
+        <v>4027.1</v>
       </c>
       <c r="BL69" t="n">
-        <v>4616.219469711632</v>
+        <v>4217.6</v>
       </c>
       <c r="BM69" t="n">
-        <v>4634.949874201665</v>
+        <v>4217.6</v>
       </c>
       <c r="BN69" t="n">
-        <v>4663.045480936714</v>
+        <v>4217.6</v>
       </c>
       <c r="BO69" t="n">
-        <v>4691.141087671763</v>
+        <v>4227.6</v>
       </c>
       <c r="BP69" t="n">
-        <v>4730.603444939036</v>
+        <v>4150.3</v>
       </c>
       <c r="BQ69" t="n">
-        <v>4786.794658409135</v>
+        <v>4200.3</v>
       </c>
       <c r="BR69" t="n">
-        <v>4852.35107412425</v>
+        <v>4250.3</v>
       </c>
       <c r="BS69" t="n">
-        <v>4936.637894329398</v>
+        <v>4300.3</v>
       </c>
       <c r="BT69" t="n">
-        <v>5026.701374104897</v>
+        <v>4179</v>
       </c>
       <c r="BU69" t="n">
-        <v>5120.353396555061</v>
+        <v>4239</v>
       </c>
       <c r="BV69" t="n">
-        <v>5204.640216760209</v>
+        <v>4309</v>
       </c>
       <c r="BW69" t="n">
-        <v>5288.927036965357</v>
+        <v>4389</v>
       </c>
       <c r="BX69" t="n">
-        <v>5362.769498742016</v>
+        <v>4638.6</v>
       </c>
       <c r="BY69" t="n">
-        <v>5428.325914457132</v>
+        <v>4718.6</v>
       </c>
       <c r="BZ69" t="n">
-        <v>5503.247532417264</v>
+        <v>4808.6</v>
       </c>
       <c r="CA69" t="n">
-        <v>5596.899554867428</v>
+        <v>4898.6</v>
       </c>
       <c r="CB69" t="n">
-        <v>5700.297658215599</v>
+        <v>4881.9</v>
       </c>
       <c r="CC69" t="n">
-        <v>5822.045287400813</v>
+        <v>4991.9</v>
       </c>
       <c r="CD69" t="n">
-        <v>5943.792916586027</v>
+        <v>5101.9</v>
       </c>
       <c r="CE69" t="n">
-        <v>6056.175343526224</v>
+        <v>5231.9</v>
       </c>
       <c r="CF69" t="n">
-        <v>6161.160441261854</v>
+        <v>5122.2</v>
       </c>
       <c r="CG69" t="n">
-        <v>6254.812463712019</v>
+        <v>5222.2</v>
       </c>
       <c r="CH69" t="n">
-        <v>6273.542868202052</v>
+        <v>5262.2</v>
       </c>
       <c r="CI69" t="n">
-        <v>6273.542868202052</v>
+        <v>5272.2</v>
       </c>
       <c r="CJ69" t="n">
-        <v>6255.828140119992</v>
+        <v>5327.6</v>
       </c>
       <c r="CK69" t="n">
-        <v>6209.00212889491</v>
+        <v>5267.6</v>
       </c>
       <c r="CL69" t="n">
-        <v>6162.176117669828</v>
+        <v>5197.6</v>
       </c>
       <c r="CM69" t="n">
-        <v>6087.254499709697</v>
+        <v>5097.6</v>
       </c>
       <c r="CN69" t="n">
-        <v>5975.887749177473</v>
+        <v>5405.9</v>
       </c>
       <c r="CO69" t="n">
-        <v>5854.140119992258</v>
+        <v>5285.9</v>
       </c>
       <c r="CP69" t="n">
-        <v>5741.757693052061</v>
+        <v>5135.9</v>
       </c>
       <c r="CQ69" t="n">
-        <v>5601.279659376814</v>
+        <v>4975.9</v>
       </c>
       <c r="CR69" t="n">
-        <v>5473.912134700987</v>
+        <v>5034.8</v>
       </c>
       <c r="CS69" t="n">
-        <v>5352.164505515773</v>
+        <v>4914.8</v>
       </c>
       <c r="CT69" t="n">
-        <v>5239.782078575576</v>
+        <v>4814.8</v>
       </c>
       <c r="CU69" t="n">
-        <v>5136.764853880395</v>
+        <v>4704.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45747</v>
       </c>
       <c r="D70" t="n">
-        <v>4974.477104702923</v>
+        <v>4999.5</v>
       </c>
       <c r="E70" t="n">
-        <v>4927.65109347784</v>
+        <v>4949.5</v>
       </c>
       <c r="F70" t="n">
-        <v>4880.825082252758</v>
+        <v>4899.5</v>
       </c>
       <c r="G70" t="n">
-        <v>4824.633868782659</v>
+        <v>4839.5</v>
       </c>
       <c r="H70" t="n">
-        <v>4776.068511708922</v>
+        <v>4311.1</v>
       </c>
       <c r="I70" t="n">
-        <v>4738.607702728857</v>
+        <v>4261.1</v>
       </c>
       <c r="J70" t="n">
-        <v>4691.781691503774</v>
+        <v>4221.1</v>
       </c>
       <c r="K70" t="n">
-        <v>4654.320882523708</v>
+        <v>4181.1</v>
       </c>
       <c r="L70" t="n">
-        <v>4607.738029804529</v>
+        <v>4120.7</v>
       </c>
       <c r="M70" t="n">
-        <v>4579.642423069479</v>
+        <v>4100.7</v>
       </c>
       <c r="N70" t="n">
-        <v>4560.912018579446</v>
+        <v>4090.7</v>
       </c>
       <c r="O70" t="n">
-        <v>4551.54681633443</v>
+        <v>4080.7</v>
       </c>
       <c r="P70" t="n">
-        <v>4536.521153473969</v>
+        <v>4077.3</v>
       </c>
       <c r="Q70" t="n">
-        <v>4536.521153473969</v>
+        <v>4077.3</v>
       </c>
       <c r="R70" t="n">
-        <v>4545.886355718986</v>
+        <v>4077.3</v>
       </c>
       <c r="S70" t="n">
-        <v>4564.616760209019</v>
+        <v>4087.3</v>
       </c>
       <c r="T70" t="n">
-        <v>4575.228101412812</v>
+        <v>4066.4</v>
       </c>
       <c r="U70" t="n">
-        <v>4593.958505902845</v>
+        <v>4096.4</v>
       </c>
       <c r="V70" t="n">
-        <v>4612.688910392878</v>
+        <v>4116.4</v>
       </c>
       <c r="W70" t="n">
-        <v>4659.51492161796</v>
+        <v>4146.4</v>
       </c>
       <c r="X70" t="n">
-        <v>4726.992839171667</v>
+        <v>4172.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>4801.914457131798</v>
+        <v>4232.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>4895.566479581962</v>
+        <v>4312.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>5017.314108767177</v>
+        <v>4422.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>5166.393652022451</v>
+        <v>4059.9</v>
       </c>
       <c r="AC70" t="n">
-        <v>5316.236887942713</v>
+        <v>4199.9</v>
       </c>
       <c r="AD70" t="n">
-        <v>5475.445326107993</v>
+        <v>4359.9</v>
       </c>
       <c r="AE70" t="n">
-        <v>5653.384168763306</v>
+        <v>4539.9</v>
       </c>
       <c r="AF70" t="n">
-        <v>5827.188542674666</v>
+        <v>4705</v>
       </c>
       <c r="AG70" t="n">
-        <v>5995.762183084962</v>
+        <v>4905</v>
       </c>
       <c r="AH70" t="n">
-        <v>6145.605419005225</v>
+        <v>5085</v>
       </c>
       <c r="AI70" t="n">
-        <v>6286.083452680472</v>
+        <v>5245</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6409.068937487904</v>
+        <v>5191.2</v>
       </c>
       <c r="AK70" t="n">
-        <v>6502.720959938069</v>
+        <v>5331.2</v>
       </c>
       <c r="AL70" t="n">
-        <v>6549.546971163151</v>
+        <v>5411.2</v>
       </c>
       <c r="AM70" t="n">
-        <v>6596.372982388233</v>
+        <v>5471.2</v>
       </c>
       <c r="AN70" t="n">
-        <v>6622.238513644281</v>
+        <v>5645.1</v>
       </c>
       <c r="AO70" t="n">
-        <v>6622.238513644281</v>
+        <v>5655.1</v>
       </c>
       <c r="AP70" t="n">
-        <v>6603.508109154248</v>
+        <v>5645.1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>6566.047300174182</v>
+        <v>5635.1</v>
       </c>
       <c r="AR70" t="n">
-        <v>6478.827172440488</v>
+        <v>5994</v>
       </c>
       <c r="AS70" t="n">
-        <v>6432.001161215406</v>
+        <v>5954</v>
       </c>
       <c r="AT70" t="n">
-        <v>6375.809947745307</v>
+        <v>5924</v>
       </c>
       <c r="AU70" t="n">
-        <v>6319.618734275208</v>
+        <v>5864</v>
       </c>
       <c r="AV70" t="n">
-        <v>6252.614437778208</v>
+        <v>6248.9</v>
       </c>
       <c r="AW70" t="n">
-        <v>6215.153628798142</v>
+        <v>6198.9</v>
       </c>
       <c r="AX70" t="n">
-        <v>6187.058022063093</v>
+        <v>6138.9</v>
       </c>
       <c r="AY70" t="n">
-        <v>6158.962415328044</v>
+        <v>6078.9</v>
       </c>
       <c r="AZ70" t="n">
-        <v>6127.770930907684</v>
+        <v>6119.3</v>
       </c>
       <c r="BA70" t="n">
-        <v>6109.040526417652</v>
+        <v>6049.3</v>
       </c>
       <c r="BB70" t="n">
-        <v>6090.310121927618</v>
+        <v>5969.3</v>
       </c>
       <c r="BC70" t="n">
-        <v>6071.579717437585</v>
+        <v>5899.3</v>
       </c>
       <c r="BD70" t="n">
-        <v>6048.075633830074</v>
+        <v>5903.5</v>
       </c>
       <c r="BE70" t="n">
-        <v>6029.345229340042</v>
+        <v>5873.5</v>
       </c>
       <c r="BF70" t="n">
-        <v>6019.980027095025</v>
+        <v>5833.5</v>
       </c>
       <c r="BG70" t="n">
-        <v>6001.249622604993</v>
+        <v>5823.5</v>
       </c>
       <c r="BH70" t="n">
-        <v>6004.055428682021</v>
+        <v>5817.5</v>
       </c>
       <c r="BI70" t="n">
-        <v>5994.690226437004</v>
+        <v>5807.5</v>
       </c>
       <c r="BJ70" t="n">
-        <v>5994.690226437004</v>
+        <v>5807.5</v>
       </c>
       <c r="BK70" t="n">
-        <v>5994.690226437004</v>
+        <v>5817.5</v>
       </c>
       <c r="BL70" t="n">
-        <v>6005.615095800271</v>
+        <v>5732.5</v>
       </c>
       <c r="BM70" t="n">
-        <v>6005.615095800271</v>
+        <v>5742.5</v>
       </c>
       <c r="BN70" t="n">
-        <v>6014.980298045288</v>
+        <v>5762.5</v>
       </c>
       <c r="BO70" t="n">
-        <v>6014.980298045288</v>
+        <v>5782.5</v>
       </c>
       <c r="BP70" t="n">
-        <v>6040.856589897426</v>
+        <v>5515.2</v>
       </c>
       <c r="BQ70" t="n">
-        <v>6059.586994387459</v>
+        <v>5545.2</v>
       </c>
       <c r="BR70" t="n">
-        <v>6078.317398877492</v>
+        <v>5595.2</v>
       </c>
       <c r="BS70" t="n">
-        <v>6106.413005612541</v>
+        <v>5645.2</v>
       </c>
       <c r="BT70" t="n">
-        <v>6183.662937874976</v>
+        <v>5287.9</v>
       </c>
       <c r="BU70" t="n">
-        <v>6230.488949100059</v>
+        <v>5347.9</v>
       </c>
       <c r="BV70" t="n">
-        <v>6277.31496032514</v>
+        <v>5417.9</v>
       </c>
       <c r="BW70" t="n">
-        <v>6333.506173795239</v>
+        <v>5477.9</v>
       </c>
       <c r="BX70" t="n">
-        <v>6413.787962066964</v>
+        <v>5317.1</v>
       </c>
       <c r="BY70" t="n">
-        <v>6488.709580027095</v>
+        <v>5377.1</v>
       </c>
       <c r="BZ70" t="n">
-        <v>6582.36160247726</v>
+        <v>5447.1</v>
       </c>
       <c r="CA70" t="n">
-        <v>6685.378827172441</v>
+        <v>5527.1</v>
       </c>
       <c r="CB70" t="n">
-        <v>6831.801045093865</v>
+        <v>5247.4</v>
       </c>
       <c r="CC70" t="n">
-        <v>6953.548674279079</v>
+        <v>5317.4</v>
       </c>
       <c r="CD70" t="n">
-        <v>7056.56589897426</v>
+        <v>5397.4</v>
       </c>
       <c r="CE70" t="n">
-        <v>7140.852719179408</v>
+        <v>5477.4</v>
       </c>
       <c r="CF70" t="n">
-        <v>7203.336713760403</v>
+        <v>5427.5</v>
       </c>
       <c r="CG70" t="n">
-        <v>7259.527927230502</v>
+        <v>5487.5</v>
       </c>
       <c r="CH70" t="n">
-        <v>7268.893129475518</v>
+        <v>5497.5</v>
       </c>
       <c r="CI70" t="n">
-        <v>7268.893129475518</v>
+        <v>5497.5</v>
       </c>
       <c r="CJ70" t="n">
-        <v>7189.428294948713</v>
+        <v>5766.3</v>
       </c>
       <c r="CK70" t="n">
-        <v>7095.776272498549</v>
+        <v>5676.3</v>
       </c>
       <c r="CL70" t="n">
-        <v>6992.759047803368</v>
+        <v>5556.3</v>
       </c>
       <c r="CM70" t="n">
-        <v>6880.376620863171</v>
+        <v>5406.3</v>
       </c>
       <c r="CN70" t="n">
-        <v>6690.278923940391</v>
+        <v>5665.8</v>
       </c>
       <c r="CO70" t="n">
-        <v>6540.435688020128</v>
+        <v>5525.8</v>
       </c>
       <c r="CP70" t="n">
-        <v>6390.592452099864</v>
+        <v>5355.8</v>
       </c>
       <c r="CQ70" t="n">
-        <v>6240.749216179602</v>
+        <v>5185.8</v>
       </c>
       <c r="CR70" t="n">
-        <v>6071.695064834527</v>
+        <v>5409.6</v>
       </c>
       <c r="CS70" t="n">
-        <v>5949.947435649313</v>
+        <v>5269.6</v>
       </c>
       <c r="CT70" t="n">
-        <v>5846.930210954132</v>
+        <v>5149.6</v>
       </c>
       <c r="CU70" t="n">
-        <v>5743.912986258951</v>
+        <v>5029.6</v>
       </c>
     </row>
     <row r="71">

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1842,2493 +1842,3269 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" s="2" t="n">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45748</v>
       </c>
       <c r="D7" t="n">
-        <v>5419.5</v>
+        <v>4967.7</v>
       </c>
       <c r="E7" t="n">
-        <v>5369.5</v>
+        <v>4907.7</v>
       </c>
       <c r="F7" t="n">
-        <v>5319.5</v>
+        <v>4857.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5259.5</v>
+        <v>4807.7</v>
       </c>
       <c r="H7" t="n">
-        <v>4731.1</v>
+        <v>5496</v>
       </c>
       <c r="I7" t="n">
-        <v>4691.1</v>
+        <v>5446</v>
       </c>
       <c r="J7" t="n">
-        <v>4651.1</v>
+        <v>5406</v>
       </c>
       <c r="K7" t="n">
-        <v>4611.1</v>
+        <v>5376</v>
       </c>
       <c r="L7" t="n">
-        <v>4550.7</v>
+        <v>5228</v>
       </c>
       <c r="M7" t="n">
-        <v>4510.7</v>
+        <v>5198</v>
       </c>
       <c r="N7" t="n">
-        <v>4490.7</v>
+        <v>5178</v>
       </c>
       <c r="O7" t="n">
-        <v>4480.7</v>
+        <v>5168</v>
       </c>
       <c r="P7" t="n">
-        <v>4487.3</v>
+        <v>5188</v>
       </c>
       <c r="Q7" t="n">
-        <v>4487.3</v>
+        <v>5188</v>
       </c>
       <c r="R7" t="n">
-        <v>4497.3</v>
+        <v>5188</v>
       </c>
       <c r="S7" t="n">
-        <v>4517.3</v>
+        <v>5198</v>
       </c>
       <c r="T7" t="n">
-        <v>4486.4</v>
+        <v>5248</v>
       </c>
       <c r="U7" t="n">
-        <v>4506.4</v>
+        <v>5258</v>
       </c>
       <c r="V7" t="n">
-        <v>4526.4</v>
+        <v>5278</v>
       </c>
       <c r="W7" t="n">
-        <v>4566.4</v>
+        <v>5298</v>
       </c>
       <c r="X7" t="n">
-        <v>4572.5</v>
+        <v>5313</v>
       </c>
       <c r="Y7" t="n">
-        <v>4632.5</v>
+        <v>5373</v>
       </c>
       <c r="Z7" t="n">
-        <v>4712.5</v>
+        <v>5453</v>
       </c>
       <c r="AA7" t="n">
-        <v>4822.5</v>
+        <v>5553</v>
       </c>
       <c r="AB7" t="n">
-        <v>4429.9</v>
+        <v>5893</v>
       </c>
       <c r="AC7" t="n">
-        <v>4569.9</v>
+        <v>6033</v>
       </c>
       <c r="AD7" t="n">
-        <v>4719.9</v>
+        <v>6193</v>
       </c>
       <c r="AE7" t="n">
-        <v>4879.9</v>
+        <v>6363</v>
       </c>
       <c r="AF7" t="n">
-        <v>4965</v>
+        <v>6565</v>
       </c>
       <c r="AG7" t="n">
-        <v>5125</v>
+        <v>6725</v>
       </c>
       <c r="AH7" t="n">
-        <v>5275</v>
+        <v>6885</v>
       </c>
       <c r="AI7" t="n">
-        <v>5405</v>
+        <v>7015</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5291.2</v>
+        <v>7140</v>
       </c>
       <c r="AK7" t="n">
-        <v>5381.2</v>
+        <v>7210</v>
       </c>
       <c r="AL7" t="n">
-        <v>5431.2</v>
+        <v>7250</v>
       </c>
       <c r="AM7" t="n">
-        <v>5461.2</v>
+        <v>7250</v>
       </c>
       <c r="AN7" t="n">
-        <v>5605.1</v>
+        <v>7190</v>
       </c>
       <c r="AO7" t="n">
-        <v>5585.1</v>
+        <v>7140</v>
       </c>
       <c r="AP7" t="n">
-        <v>5545.1</v>
+        <v>7060</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5495.1</v>
+        <v>6980</v>
       </c>
       <c r="AR7" t="n">
-        <v>5834</v>
+        <v>6992</v>
       </c>
       <c r="AS7" t="n">
-        <v>5774</v>
+        <v>6892</v>
       </c>
       <c r="AT7" t="n">
-        <v>5714</v>
+        <v>6792</v>
       </c>
       <c r="AU7" t="n">
-        <v>5654</v>
+        <v>6702</v>
       </c>
       <c r="AV7" t="n">
-        <v>6058.9</v>
+        <v>6528</v>
       </c>
       <c r="AW7" t="n">
-        <v>6008.9</v>
+        <v>6438</v>
       </c>
       <c r="AX7" t="n">
-        <v>5958.9</v>
+        <v>6358</v>
       </c>
       <c r="AY7" t="n">
-        <v>5918.9</v>
+        <v>6288</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5979.3</v>
+        <v>6192</v>
       </c>
       <c r="BA7" t="n">
-        <v>5929.3</v>
+        <v>6132</v>
       </c>
       <c r="BB7" t="n">
-        <v>5879.3</v>
+        <v>6082</v>
       </c>
       <c r="BC7" t="n">
-        <v>5839.3</v>
+        <v>6042</v>
       </c>
       <c r="BD7" t="n">
-        <v>5863.5</v>
+        <v>6037</v>
       </c>
       <c r="BE7" t="n">
-        <v>5823.5</v>
+        <v>6017</v>
       </c>
       <c r="BF7" t="n">
-        <v>5803.5</v>
+        <v>6007</v>
       </c>
       <c r="BG7" t="n">
-        <v>5793.5</v>
+        <v>6017</v>
       </c>
       <c r="BH7" t="n">
-        <v>5787.5</v>
+        <v>6042</v>
       </c>
       <c r="BI7" t="n">
-        <v>5797.5</v>
+        <v>6052</v>
       </c>
       <c r="BJ7" t="n">
-        <v>5797.5</v>
+        <v>6062</v>
       </c>
       <c r="BK7" t="n">
-        <v>5807.5</v>
+        <v>6072</v>
       </c>
       <c r="BL7" t="n">
-        <v>5712.5</v>
+        <v>6136</v>
       </c>
       <c r="BM7" t="n">
-        <v>5732.5</v>
+        <v>6146</v>
       </c>
       <c r="BN7" t="n">
-        <v>5742.5</v>
+        <v>6156</v>
       </c>
       <c r="BO7" t="n">
-        <v>5752.5</v>
+        <v>6176</v>
       </c>
       <c r="BP7" t="n">
-        <v>5495.2</v>
+        <v>6234</v>
       </c>
       <c r="BQ7" t="n">
-        <v>5525.2</v>
+        <v>6284</v>
       </c>
       <c r="BR7" t="n">
-        <v>5575.2</v>
+        <v>6334</v>
       </c>
       <c r="BS7" t="n">
-        <v>5635.2</v>
+        <v>6394</v>
       </c>
       <c r="BT7" t="n">
-        <v>5287.9</v>
+        <v>6458</v>
       </c>
       <c r="BU7" t="n">
-        <v>5347.9</v>
+        <v>6538</v>
       </c>
       <c r="BV7" t="n">
-        <v>5417.9</v>
+        <v>6618</v>
       </c>
       <c r="BW7" t="n">
-        <v>5477.9</v>
+        <v>6698</v>
       </c>
       <c r="BX7" t="n">
-        <v>5307.1</v>
+        <v>6760</v>
       </c>
       <c r="BY7" t="n">
-        <v>5357.1</v>
+        <v>6840</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5417.1</v>
+        <v>6930</v>
       </c>
       <c r="CA7" t="n">
-        <v>5497.1</v>
+        <v>7020</v>
       </c>
       <c r="CB7" t="n">
-        <v>5227.4</v>
+        <v>7121</v>
       </c>
       <c r="CC7" t="n">
-        <v>5327.4</v>
+        <v>7241</v>
       </c>
       <c r="CD7" t="n">
-        <v>5417.4</v>
+        <v>7371</v>
       </c>
       <c r="CE7" t="n">
-        <v>5487.4</v>
+        <v>7491</v>
       </c>
       <c r="CF7" t="n">
-        <v>5417.5</v>
+        <v>7560</v>
       </c>
       <c r="CG7" t="n">
-        <v>5477.5</v>
+        <v>7660</v>
       </c>
       <c r="CH7" t="n">
-        <v>5497.5</v>
+        <v>7710</v>
       </c>
       <c r="CI7" t="n">
-        <v>5497.5</v>
+        <v>7700</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5756.3</v>
+        <v>7579</v>
       </c>
       <c r="CK7" t="n">
-        <v>5656.3</v>
+        <v>7489</v>
       </c>
       <c r="CL7" t="n">
-        <v>5556.3</v>
+        <v>7359</v>
       </c>
       <c r="CM7" t="n">
-        <v>5426.3</v>
+        <v>7239</v>
       </c>
       <c r="CN7" t="n">
-        <v>5685.8</v>
+        <v>7152</v>
       </c>
       <c r="CO7" t="n">
-        <v>5545.8</v>
+        <v>6972</v>
       </c>
       <c r="CP7" t="n">
-        <v>5385.8</v>
+        <v>6822</v>
       </c>
       <c r="CQ7" t="n">
-        <v>5225.8</v>
+        <v>6642</v>
       </c>
       <c r="CR7" t="n">
-        <v>5419.6</v>
+        <v>6424</v>
       </c>
       <c r="CS7" t="n">
-        <v>5279.6</v>
+        <v>6274</v>
       </c>
       <c r="CT7" t="n">
-        <v>5149.6</v>
+        <v>6134</v>
       </c>
       <c r="CU7" t="n">
-        <v>5029.6</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" s="2" t="n">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="D8" t="n">
-        <v>5690</v>
+        <v>5665</v>
       </c>
       <c r="E8" t="n">
-        <v>5630</v>
+        <v>5605</v>
       </c>
       <c r="F8" t="n">
-        <v>5580</v>
+        <v>5545</v>
       </c>
       <c r="G8" t="n">
-        <v>5530</v>
+        <v>5485</v>
       </c>
       <c r="H8" t="n">
-        <v>5433</v>
+        <v>4484</v>
       </c>
       <c r="I8" t="n">
-        <v>5393</v>
+        <v>4434</v>
       </c>
       <c r="J8" t="n">
-        <v>5353</v>
+        <v>4394</v>
       </c>
       <c r="K8" t="n">
-        <v>5313</v>
+        <v>4354</v>
       </c>
       <c r="L8" t="n">
-        <v>5253</v>
+        <v>4789.3</v>
       </c>
       <c r="M8" t="n">
-        <v>5213</v>
+        <v>4759.3</v>
       </c>
       <c r="N8" t="n">
-        <v>5193</v>
+        <v>4739.3</v>
       </c>
       <c r="O8" t="n">
-        <v>5183</v>
+        <v>4719.3</v>
       </c>
       <c r="P8" t="n">
-        <v>5201</v>
+        <v>5044.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5201</v>
+        <v>5044.1</v>
       </c>
       <c r="R8" t="n">
-        <v>5211</v>
+        <v>5064.1</v>
       </c>
       <c r="S8" t="n">
-        <v>5221</v>
+        <v>5074.1</v>
       </c>
       <c r="T8" t="n">
-        <v>5238</v>
+        <v>5166.7</v>
       </c>
       <c r="U8" t="n">
-        <v>5258</v>
+        <v>5186.7</v>
       </c>
       <c r="V8" t="n">
-        <v>5288</v>
+        <v>5216.7</v>
       </c>
       <c r="W8" t="n">
-        <v>5318</v>
+        <v>5266.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5381</v>
+        <v>5264.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5441</v>
+        <v>5334.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>5511</v>
+        <v>5414.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>5601</v>
+        <v>5524.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>5784</v>
+        <v>5224.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5904</v>
+        <v>5354.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6024</v>
+        <v>5504.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>6154</v>
+        <v>5654.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>6161</v>
+        <v>6211.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6301</v>
+        <v>6351.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>6441</v>
+        <v>6491.7</v>
       </c>
       <c r="AI8" t="n">
-        <v>6561</v>
+        <v>6601.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6681</v>
+        <v>6597.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>6781</v>
+        <v>6667.3</v>
       </c>
       <c r="AL8" t="n">
-        <v>6861</v>
+        <v>6697.3</v>
       </c>
       <c r="AM8" t="n">
-        <v>6921</v>
+        <v>6697.3</v>
       </c>
       <c r="AN8" t="n">
-        <v>7118</v>
+        <v>6966.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>7138</v>
+        <v>6906.3</v>
       </c>
       <c r="AP8" t="n">
-        <v>7128</v>
+        <v>6836.3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7098</v>
+        <v>6746.3</v>
       </c>
       <c r="AR8" t="n">
-        <v>6897</v>
+        <v>6281.3</v>
       </c>
       <c r="AS8" t="n">
-        <v>6847</v>
+        <v>6181.3</v>
       </c>
       <c r="AT8" t="n">
-        <v>6807</v>
+        <v>6091.3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6767</v>
+        <v>6011.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>6774</v>
+        <v>6175.2</v>
       </c>
       <c r="AW8" t="n">
-        <v>6744</v>
+        <v>6125.2</v>
       </c>
       <c r="AX8" t="n">
-        <v>6724</v>
+        <v>6085.2</v>
       </c>
       <c r="AY8" t="n">
-        <v>6704</v>
+        <v>6045.2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>6684</v>
+        <v>6025.9</v>
       </c>
       <c r="BA8" t="n">
-        <v>6674</v>
+        <v>6005.9</v>
       </c>
       <c r="BB8" t="n">
-        <v>6664</v>
+        <v>5985.9</v>
       </c>
       <c r="BC8" t="n">
-        <v>6654</v>
+        <v>5965.9</v>
       </c>
       <c r="BD8" t="n">
-        <v>6681</v>
+        <v>5480.6</v>
       </c>
       <c r="BE8" t="n">
-        <v>6671</v>
+        <v>5460.6</v>
       </c>
       <c r="BF8" t="n">
-        <v>6651</v>
+        <v>5450.6</v>
       </c>
       <c r="BG8" t="n">
-        <v>6641</v>
+        <v>5450.6</v>
       </c>
       <c r="BH8" t="n">
-        <v>6715</v>
+        <v>5359.1</v>
       </c>
       <c r="BI8" t="n">
-        <v>6695</v>
+        <v>5369.1</v>
       </c>
       <c r="BJ8" t="n">
-        <v>6685</v>
+        <v>5379.1</v>
       </c>
       <c r="BK8" t="n">
-        <v>6665</v>
+        <v>5389.1</v>
       </c>
       <c r="BL8" t="n">
-        <v>6591</v>
+        <v>5136.6</v>
       </c>
       <c r="BM8" t="n">
-        <v>6561</v>
+        <v>5146.6</v>
       </c>
       <c r="BN8" t="n">
-        <v>6541</v>
+        <v>5156.6</v>
       </c>
       <c r="BO8" t="n">
-        <v>6531</v>
+        <v>5166.6</v>
       </c>
       <c r="BP8" t="n">
-        <v>6678</v>
+        <v>5848.6</v>
       </c>
       <c r="BQ8" t="n">
-        <v>6688</v>
+        <v>5878.6</v>
       </c>
       <c r="BR8" t="n">
-        <v>6718</v>
+        <v>5918.6</v>
       </c>
       <c r="BS8" t="n">
-        <v>6758</v>
+        <v>5978.6</v>
       </c>
       <c r="BT8" t="n">
-        <v>6672</v>
+        <v>6191.2</v>
       </c>
       <c r="BU8" t="n">
-        <v>6722</v>
+        <v>6261.2</v>
       </c>
       <c r="BV8" t="n">
-        <v>6772</v>
+        <v>6331.2</v>
       </c>
       <c r="BW8" t="n">
-        <v>6822</v>
+        <v>6401.2</v>
       </c>
       <c r="BX8" t="n">
-        <v>6902</v>
+        <v>5851.4</v>
       </c>
       <c r="BY8" t="n">
-        <v>6962</v>
+        <v>5941.4</v>
       </c>
       <c r="BZ8" t="n">
-        <v>7032</v>
+        <v>6021.4</v>
       </c>
       <c r="CA8" t="n">
-        <v>7122</v>
+        <v>6121.4</v>
       </c>
       <c r="CB8" t="n">
-        <v>7166</v>
+        <v>6033.7</v>
       </c>
       <c r="CC8" t="n">
-        <v>7296</v>
+        <v>6153.7</v>
       </c>
       <c r="CD8" t="n">
-        <v>7416</v>
+        <v>6273.7</v>
       </c>
       <c r="CE8" t="n">
-        <v>7516</v>
+        <v>6393.7</v>
       </c>
       <c r="CF8" t="n">
-        <v>7645</v>
+        <v>6249</v>
       </c>
       <c r="CG8" t="n">
-        <v>7715</v>
+        <v>6339</v>
       </c>
       <c r="CH8" t="n">
-        <v>7735</v>
+        <v>6369</v>
       </c>
       <c r="CI8" t="n">
-        <v>7725</v>
+        <v>6349</v>
       </c>
       <c r="CJ8" t="n">
-        <v>7632</v>
+        <v>5724.4</v>
       </c>
       <c r="CK8" t="n">
-        <v>7542</v>
+        <v>5624.4</v>
       </c>
       <c r="CL8" t="n">
-        <v>7462</v>
+        <v>5504.4</v>
       </c>
       <c r="CM8" t="n">
-        <v>7332</v>
+        <v>5364.4</v>
       </c>
       <c r="CN8" t="n">
-        <v>7072</v>
+        <v>5265</v>
       </c>
       <c r="CO8" t="n">
-        <v>6922</v>
+        <v>5085</v>
       </c>
       <c r="CP8" t="n">
-        <v>6762</v>
+        <v>4925</v>
       </c>
       <c r="CQ8" t="n">
-        <v>6592</v>
+        <v>4755</v>
       </c>
       <c r="CR8" t="n">
-        <v>6616</v>
+        <v>4848.8</v>
       </c>
       <c r="CS8" t="n">
-        <v>6476</v>
+        <v>4708.8</v>
       </c>
       <c r="CT8" t="n">
-        <v>6366</v>
+        <v>4578.8</v>
       </c>
       <c r="CU8" t="n">
-        <v>6236</v>
+        <v>4478.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="n">
-        <v>45743</v>
+        <v>45749</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45750</v>
       </c>
       <c r="D9" t="n">
-        <v>5740</v>
+        <v>4849.9</v>
       </c>
       <c r="E9" t="n">
-        <v>5680</v>
+        <v>4799.9</v>
       </c>
       <c r="F9" t="n">
-        <v>5630</v>
+        <v>4749.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5580</v>
+        <v>4679.9</v>
       </c>
       <c r="H9" t="n">
-        <v>5483</v>
+        <v>5388.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5443</v>
+        <v>5338.2</v>
       </c>
       <c r="J9" t="n">
-        <v>5403</v>
+        <v>5288.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5363</v>
+        <v>5268.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5303</v>
+        <v>5356.2</v>
       </c>
       <c r="M9" t="n">
-        <v>5263</v>
+        <v>5336.2</v>
       </c>
       <c r="N9" t="n">
-        <v>5243</v>
+        <v>5316.2</v>
       </c>
       <c r="O9" t="n">
-        <v>5233</v>
+        <v>5296.2</v>
       </c>
       <c r="P9" t="n">
-        <v>5251</v>
+        <v>5317.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>5251</v>
+        <v>5307.2</v>
       </c>
       <c r="R9" t="n">
-        <v>5261</v>
+        <v>5307.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5271</v>
+        <v>5307.2</v>
       </c>
       <c r="T9" t="n">
-        <v>5288</v>
+        <v>5295</v>
       </c>
       <c r="U9" t="n">
-        <v>5308</v>
+        <v>5305</v>
       </c>
       <c r="V9" t="n">
-        <v>5338</v>
+        <v>5335</v>
       </c>
       <c r="W9" t="n">
-        <v>5368</v>
+        <v>5385</v>
       </c>
       <c r="X9" t="n">
-        <v>5431</v>
+        <v>5260.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5491</v>
+        <v>5340.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>5561</v>
+        <v>5440.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>5651</v>
+        <v>5550.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>5834</v>
+        <v>5260.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>5944</v>
+        <v>5400.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6074</v>
+        <v>5550.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>6204</v>
+        <v>5700.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>6211</v>
+        <v>6162.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>6351</v>
+        <v>6312.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>6491</v>
+        <v>6452.6</v>
       </c>
       <c r="AI9" t="n">
-        <v>6631</v>
+        <v>6572.6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6751</v>
+        <v>6432.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>6861</v>
+        <v>6512.1</v>
       </c>
       <c r="AL9" t="n">
-        <v>6941</v>
+        <v>6562.1</v>
       </c>
       <c r="AM9" t="n">
-        <v>7001</v>
+        <v>6572.1</v>
       </c>
       <c r="AN9" t="n">
-        <v>7188</v>
+        <v>6742.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>7188</v>
+        <v>6702.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>7158</v>
+        <v>6632.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7108</v>
+        <v>6552.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>6877</v>
+        <v>6619.3</v>
       </c>
       <c r="AS9" t="n">
-        <v>6807</v>
+        <v>6529.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>6727</v>
+        <v>6429.3</v>
       </c>
       <c r="AU9" t="n">
-        <v>6667</v>
+        <v>6349.3</v>
       </c>
       <c r="AV9" t="n">
-        <v>6654</v>
+        <v>6246.2</v>
       </c>
       <c r="AW9" t="n">
-        <v>6614</v>
+        <v>6176.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>6584</v>
+        <v>6116.2</v>
       </c>
       <c r="AY9" t="n">
-        <v>6564</v>
+        <v>6066.2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6544</v>
+        <v>5826</v>
       </c>
       <c r="BA9" t="n">
-        <v>6534</v>
+        <v>5786</v>
       </c>
       <c r="BB9" t="n">
-        <v>6524</v>
+        <v>5746</v>
       </c>
       <c r="BC9" t="n">
-        <v>6504</v>
+        <v>5706</v>
       </c>
       <c r="BD9" t="n">
-        <v>6511</v>
+        <v>5527.1</v>
       </c>
       <c r="BE9" t="n">
-        <v>6471</v>
+        <v>5517.1</v>
       </c>
       <c r="BF9" t="n">
-        <v>6431</v>
+        <v>5497.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>6391</v>
+        <v>5487.1</v>
       </c>
       <c r="BH9" t="n">
-        <v>6445</v>
+        <v>5673.3</v>
       </c>
       <c r="BI9" t="n">
-        <v>6415</v>
+        <v>5683.3</v>
       </c>
       <c r="BJ9" t="n">
-        <v>6385</v>
+        <v>5683.3</v>
       </c>
       <c r="BK9" t="n">
-        <v>6365</v>
+        <v>5693.3</v>
       </c>
       <c r="BL9" t="n">
-        <v>6301</v>
+        <v>5629.2</v>
       </c>
       <c r="BM9" t="n">
-        <v>6291</v>
+        <v>5629.2</v>
       </c>
       <c r="BN9" t="n">
-        <v>6291</v>
+        <v>5629.2</v>
       </c>
       <c r="BO9" t="n">
-        <v>6291</v>
+        <v>5629.2</v>
       </c>
       <c r="BP9" t="n">
-        <v>6438</v>
+        <v>5368.5</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6458</v>
+        <v>5388.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>6478</v>
+        <v>5428.5</v>
       </c>
       <c r="BS9" t="n">
-        <v>6508</v>
+        <v>5488.5</v>
       </c>
       <c r="BT9" t="n">
-        <v>6392</v>
+        <v>5697.4</v>
       </c>
       <c r="BU9" t="n">
-        <v>6432</v>
+        <v>5777.4</v>
       </c>
       <c r="BV9" t="n">
-        <v>6462</v>
+        <v>5847.4</v>
       </c>
       <c r="BW9" t="n">
-        <v>6492</v>
+        <v>5927.4</v>
       </c>
       <c r="BX9" t="n">
-        <v>6562</v>
+        <v>5749.1</v>
       </c>
       <c r="BY9" t="n">
-        <v>6602</v>
+        <v>5819.1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6672</v>
+        <v>5899.1</v>
       </c>
       <c r="CA9" t="n">
-        <v>6772</v>
+        <v>5999.1</v>
       </c>
       <c r="CB9" t="n">
-        <v>6836</v>
+        <v>5981.7</v>
       </c>
       <c r="CC9" t="n">
-        <v>6996</v>
+        <v>6111.7</v>
       </c>
       <c r="CD9" t="n">
-        <v>7176</v>
+        <v>6241.7</v>
       </c>
       <c r="CE9" t="n">
-        <v>7346</v>
+        <v>6371.7</v>
       </c>
       <c r="CF9" t="n">
-        <v>7555</v>
+        <v>6419.4</v>
       </c>
       <c r="CG9" t="n">
-        <v>7685</v>
+        <v>6519.4</v>
       </c>
       <c r="CH9" t="n">
-        <v>7745</v>
+        <v>6559.4</v>
       </c>
       <c r="CI9" t="n">
-        <v>7745</v>
+        <v>6569.4</v>
       </c>
       <c r="CJ9" t="n">
-        <v>7652</v>
+        <v>6629.6</v>
       </c>
       <c r="CK9" t="n">
-        <v>7552</v>
+        <v>6519.6</v>
       </c>
       <c r="CL9" t="n">
-        <v>7452</v>
+        <v>6409.6</v>
       </c>
       <c r="CM9" t="n">
-        <v>7342</v>
+        <v>6279.6</v>
       </c>
       <c r="CN9" t="n">
-        <v>7112</v>
+        <v>6753.4</v>
       </c>
       <c r="CO9" t="n">
-        <v>6952</v>
+        <v>6593.4</v>
       </c>
       <c r="CP9" t="n">
-        <v>6792</v>
+        <v>6403.4</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6632</v>
+        <v>6243.4</v>
       </c>
       <c r="CR9" t="n">
-        <v>6646</v>
+        <v>6313.1</v>
       </c>
       <c r="CS9" t="n">
-        <v>6516</v>
+        <v>6123.1</v>
       </c>
       <c r="CT9" t="n">
-        <v>6396</v>
+        <v>6013.1</v>
       </c>
       <c r="CU9" t="n">
-        <v>6286</v>
+        <v>5903.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" s="2" t="n">
-        <v>45743</v>
+        <v>45750</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45751</v>
       </c>
       <c r="D10" t="n">
-        <v>5640</v>
+        <v>5740.4</v>
       </c>
       <c r="E10" t="n">
-        <v>5590</v>
+        <v>5690.4</v>
       </c>
       <c r="F10" t="n">
-        <v>5540</v>
+        <v>5640.4</v>
       </c>
       <c r="G10" t="n">
-        <v>5480</v>
+        <v>5580.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5383</v>
+        <v>5335.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5333</v>
+        <v>5285.6</v>
       </c>
       <c r="J10" t="n">
-        <v>5293</v>
+        <v>5255.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5253</v>
+        <v>5225.6</v>
       </c>
       <c r="L10" t="n">
-        <v>5193</v>
+        <v>5011.5</v>
       </c>
       <c r="M10" t="n">
-        <v>5163</v>
+        <v>4991.5</v>
       </c>
       <c r="N10" t="n">
-        <v>5143</v>
+        <v>4981.5</v>
       </c>
       <c r="O10" t="n">
-        <v>5133</v>
+        <v>4961.5</v>
       </c>
       <c r="P10" t="n">
-        <v>5151</v>
+        <v>5010.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>5161</v>
+        <v>4990.6</v>
       </c>
       <c r="R10" t="n">
-        <v>5161</v>
+        <v>4990.6</v>
       </c>
       <c r="S10" t="n">
-        <v>5171</v>
+        <v>5000.6</v>
       </c>
       <c r="T10" t="n">
-        <v>5188</v>
+        <v>5045.4</v>
       </c>
       <c r="U10" t="n">
-        <v>5208</v>
+        <v>5055.4</v>
       </c>
       <c r="V10" t="n">
-        <v>5238</v>
+        <v>5065.4</v>
       </c>
       <c r="W10" t="n">
-        <v>5268</v>
+        <v>5095.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5331</v>
+        <v>5282.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>5391</v>
+        <v>5352.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>5471</v>
+        <v>5442.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>5551</v>
+        <v>5542.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>5734</v>
+        <v>5432</v>
       </c>
       <c r="AC10" t="n">
-        <v>5844</v>
+        <v>5552</v>
       </c>
       <c r="AD10" t="n">
-        <v>5974</v>
+        <v>5682</v>
       </c>
       <c r="AE10" t="n">
-        <v>6104</v>
+        <v>5852</v>
       </c>
       <c r="AF10" t="n">
-        <v>6111</v>
+        <v>5925.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>6251</v>
+        <v>6115.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>6391</v>
+        <v>6275.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>6531</v>
+        <v>6405.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6651</v>
+        <v>6257.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>6761</v>
+        <v>6307.9</v>
       </c>
       <c r="AL10" t="n">
-        <v>6841</v>
+        <v>6317.9</v>
       </c>
       <c r="AM10" t="n">
-        <v>6901</v>
+        <v>6327.9</v>
       </c>
       <c r="AN10" t="n">
-        <v>7088</v>
+        <v>6729.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>7088</v>
+        <v>6699.3</v>
       </c>
       <c r="AP10" t="n">
-        <v>7058</v>
+        <v>6639.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7008</v>
+        <v>6549.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>6777</v>
+        <v>6673.7</v>
       </c>
       <c r="AS10" t="n">
-        <v>6697</v>
+        <v>6573.7</v>
       </c>
       <c r="AT10" t="n">
-        <v>6627</v>
+        <v>6473.7</v>
       </c>
       <c r="AU10" t="n">
-        <v>6567</v>
+        <v>6373.7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6554</v>
+        <v>6767.2</v>
       </c>
       <c r="AW10" t="n">
-        <v>6514</v>
+        <v>6677.2</v>
       </c>
       <c r="AX10" t="n">
-        <v>6484</v>
+        <v>6597.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>6464</v>
+        <v>6527.2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6444</v>
+        <v>6216.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>6434</v>
+        <v>6166.5</v>
       </c>
       <c r="BB10" t="n">
-        <v>6424</v>
+        <v>6126.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>6394</v>
+        <v>6096.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>6411</v>
+        <v>5750.7</v>
       </c>
       <c r="BE10" t="n">
-        <v>6371</v>
+        <v>5750.7</v>
       </c>
       <c r="BF10" t="n">
-        <v>6331</v>
+        <v>5740.7</v>
       </c>
       <c r="BG10" t="n">
-        <v>6291</v>
+        <v>5740.7</v>
       </c>
       <c r="BH10" t="n">
-        <v>6345</v>
+        <v>5790.2</v>
       </c>
       <c r="BI10" t="n">
-        <v>6315</v>
+        <v>5790.2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>6285</v>
+        <v>5800.2</v>
       </c>
       <c r="BK10" t="n">
-        <v>6265</v>
+        <v>5800.2</v>
       </c>
       <c r="BL10" t="n">
-        <v>6201</v>
+        <v>5913.2</v>
       </c>
       <c r="BM10" t="n">
-        <v>6191</v>
+        <v>5923.2</v>
       </c>
       <c r="BN10" t="n">
-        <v>6191</v>
+        <v>5933.2</v>
       </c>
       <c r="BO10" t="n">
-        <v>6191</v>
+        <v>5943.2</v>
       </c>
       <c r="BP10" t="n">
-        <v>6338</v>
+        <v>5644.4</v>
       </c>
       <c r="BQ10" t="n">
-        <v>6358</v>
+        <v>5684.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>6378</v>
+        <v>5744.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>6408</v>
+        <v>5804.4</v>
       </c>
       <c r="BT10" t="n">
-        <v>6292</v>
+        <v>5664.4</v>
       </c>
       <c r="BU10" t="n">
-        <v>6332</v>
+        <v>5734.4</v>
       </c>
       <c r="BV10" t="n">
-        <v>6362</v>
+        <v>5804.4</v>
       </c>
       <c r="BW10" t="n">
-        <v>6392</v>
+        <v>5884.4</v>
       </c>
       <c r="BX10" t="n">
-        <v>6462</v>
+        <v>5716.2</v>
       </c>
       <c r="BY10" t="n">
-        <v>6502</v>
+        <v>5796.2</v>
       </c>
       <c r="BZ10" t="n">
-        <v>6572</v>
+        <v>5886.2</v>
       </c>
       <c r="CA10" t="n">
-        <v>6672</v>
+        <v>5996.2</v>
       </c>
       <c r="CB10" t="n">
-        <v>6736</v>
+        <v>5595.1</v>
       </c>
       <c r="CC10" t="n">
-        <v>6896</v>
+        <v>5715.1</v>
       </c>
       <c r="CD10" t="n">
-        <v>7076</v>
+        <v>5835.1</v>
       </c>
       <c r="CE10" t="n">
-        <v>7246</v>
+        <v>5955.1</v>
       </c>
       <c r="CF10" t="n">
-        <v>7455</v>
+        <v>5728</v>
       </c>
       <c r="CG10" t="n">
-        <v>7585</v>
+        <v>5798</v>
       </c>
       <c r="CH10" t="n">
-        <v>7645</v>
+        <v>5808</v>
       </c>
       <c r="CI10" t="n">
-        <v>7655</v>
+        <v>5808</v>
       </c>
       <c r="CJ10" t="n">
-        <v>7562</v>
+        <v>5948.9</v>
       </c>
       <c r="CK10" t="n">
-        <v>7482</v>
+        <v>5858.9</v>
       </c>
       <c r="CL10" t="n">
-        <v>7382</v>
+        <v>5758.9</v>
       </c>
       <c r="CM10" t="n">
-        <v>7252</v>
+        <v>5628.9</v>
       </c>
       <c r="CN10" t="n">
-        <v>7012</v>
+        <v>5845</v>
       </c>
       <c r="CO10" t="n">
-        <v>6872</v>
+        <v>5695</v>
       </c>
       <c r="CP10" t="n">
-        <v>6692</v>
+        <v>5515</v>
       </c>
       <c r="CQ10" t="n">
-        <v>6542</v>
+        <v>5345</v>
       </c>
       <c r="CR10" t="n">
-        <v>6566</v>
+        <v>5484.1</v>
       </c>
       <c r="CS10" t="n">
-        <v>6436</v>
+        <v>5344.1</v>
       </c>
       <c r="CT10" t="n">
-        <v>6316</v>
+        <v>5224.1</v>
       </c>
       <c r="CU10" t="n">
-        <v>6206</v>
+        <v>5104.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="n">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45752</v>
       </c>
       <c r="D11" t="n">
-        <v>5490</v>
+        <v>5680.4</v>
       </c>
       <c r="E11" t="n">
-        <v>5430</v>
+        <v>5610.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5380</v>
+        <v>5580.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5320</v>
+        <v>5510.4</v>
       </c>
       <c r="H11" t="n">
-        <v>5223</v>
+        <v>5265.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5173</v>
+        <v>5205.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5133</v>
+        <v>5155.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5083</v>
+        <v>5125.6</v>
       </c>
       <c r="L11" t="n">
-        <v>5023</v>
+        <v>4911.5</v>
       </c>
       <c r="M11" t="n">
-        <v>4993</v>
+        <v>4881.5</v>
       </c>
       <c r="N11" t="n">
-        <v>4963</v>
+        <v>4861.5</v>
       </c>
       <c r="O11" t="n">
-        <v>4953</v>
+        <v>4841.5</v>
       </c>
       <c r="P11" t="n">
-        <v>4961</v>
+        <v>4890.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>4951</v>
+        <v>4860.6</v>
       </c>
       <c r="R11" t="n">
-        <v>4951</v>
+        <v>4870.6</v>
       </c>
       <c r="S11" t="n">
-        <v>4961</v>
+        <v>4870.6</v>
       </c>
       <c r="T11" t="n">
-        <v>4968</v>
+        <v>4905.4</v>
       </c>
       <c r="U11" t="n">
-        <v>4968</v>
+        <v>4925.4</v>
       </c>
       <c r="V11" t="n">
-        <v>4968</v>
+        <v>4935.4</v>
       </c>
       <c r="W11" t="n">
-        <v>4978</v>
+        <v>4955.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5001</v>
+        <v>5102.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>5011</v>
+        <v>5122.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>5021</v>
+        <v>5142.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>5041</v>
+        <v>5172.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>5144</v>
+        <v>4982</v>
       </c>
       <c r="AC11" t="n">
-        <v>5164</v>
+        <v>5022</v>
       </c>
       <c r="AD11" t="n">
-        <v>5204</v>
+        <v>5072</v>
       </c>
       <c r="AE11" t="n">
-        <v>5234</v>
+        <v>5132</v>
       </c>
       <c r="AF11" t="n">
-        <v>5151</v>
+        <v>5105.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>5191</v>
+        <v>5185.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>5241</v>
+        <v>5265.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>5281</v>
+        <v>5355.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5321</v>
+        <v>5167.9</v>
       </c>
       <c r="AK11" t="n">
-        <v>5351</v>
+        <v>5227.9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5371</v>
+        <v>5277.9</v>
       </c>
       <c r="AM11" t="n">
-        <v>5381</v>
+        <v>5277.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>5528</v>
+        <v>5699.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>5508</v>
+        <v>5679.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>5468</v>
+        <v>5639.3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5418</v>
+        <v>5589.3</v>
       </c>
       <c r="AR11" t="n">
-        <v>5197</v>
+        <v>5763.7</v>
       </c>
       <c r="AS11" t="n">
-        <v>5137</v>
+        <v>5703.7</v>
       </c>
       <c r="AT11" t="n">
-        <v>5067</v>
+        <v>5653.7</v>
       </c>
       <c r="AU11" t="n">
-        <v>5017</v>
+        <v>5603.7</v>
       </c>
       <c r="AV11" t="n">
-        <v>5004</v>
+        <v>6077.2</v>
       </c>
       <c r="AW11" t="n">
-        <v>4964</v>
+        <v>6057.2</v>
       </c>
       <c r="AX11" t="n">
-        <v>4914</v>
+        <v>6027.2</v>
       </c>
       <c r="AY11" t="n">
-        <v>4874</v>
+        <v>6007.2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4824</v>
+        <v>5756.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>4784</v>
+        <v>5736.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>4744</v>
+        <v>5716.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>4704</v>
+        <v>5686.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>4701</v>
+        <v>5340.7</v>
       </c>
       <c r="BE11" t="n">
-        <v>4661</v>
+        <v>5330.7</v>
       </c>
       <c r="BF11" t="n">
-        <v>4621</v>
+        <v>5320.7</v>
       </c>
       <c r="BG11" t="n">
-        <v>4601</v>
+        <v>5310.7</v>
       </c>
       <c r="BH11" t="n">
-        <v>4685</v>
+        <v>5360.2</v>
       </c>
       <c r="BI11" t="n">
-        <v>4695</v>
+        <v>5370.2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4705</v>
+        <v>5380.2</v>
       </c>
       <c r="BK11" t="n">
-        <v>4735</v>
+        <v>5390.2</v>
       </c>
       <c r="BL11" t="n">
-        <v>4721</v>
+        <v>5503.2</v>
       </c>
       <c r="BM11" t="n">
-        <v>4771</v>
+        <v>5503.2</v>
       </c>
       <c r="BN11" t="n">
-        <v>4821</v>
+        <v>5513.2</v>
       </c>
       <c r="BO11" t="n">
-        <v>4881</v>
+        <v>5523.2</v>
       </c>
       <c r="BP11" t="n">
-        <v>5098</v>
+        <v>5194.4</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5168</v>
+        <v>5214.4</v>
       </c>
       <c r="BR11" t="n">
-        <v>5258</v>
+        <v>5254.4</v>
       </c>
       <c r="BS11" t="n">
-        <v>5348</v>
+        <v>5294.4</v>
       </c>
       <c r="BT11" t="n">
-        <v>5302</v>
+        <v>5134.4</v>
       </c>
       <c r="BU11" t="n">
-        <v>5392</v>
+        <v>5204.4</v>
       </c>
       <c r="BV11" t="n">
-        <v>5482</v>
+        <v>5274.4</v>
       </c>
       <c r="BW11" t="n">
-        <v>5572</v>
+        <v>5344.4</v>
       </c>
       <c r="BX11" t="n">
-        <v>5682</v>
+        <v>5176.2</v>
       </c>
       <c r="BY11" t="n">
-        <v>5752</v>
+        <v>5266.2</v>
       </c>
       <c r="BZ11" t="n">
-        <v>5832</v>
+        <v>5376.2</v>
       </c>
       <c r="CA11" t="n">
-        <v>5922</v>
+        <v>5506.2</v>
       </c>
       <c r="CB11" t="n">
-        <v>5956</v>
+        <v>5135.1</v>
       </c>
       <c r="CC11" t="n">
-        <v>6076</v>
+        <v>5295.1</v>
       </c>
       <c r="CD11" t="n">
-        <v>6186</v>
+        <v>5435.1</v>
       </c>
       <c r="CE11" t="n">
-        <v>6286</v>
+        <v>5555.1</v>
       </c>
       <c r="CF11" t="n">
-        <v>6425</v>
+        <v>5288</v>
       </c>
       <c r="CG11" t="n">
-        <v>6515</v>
+        <v>5338</v>
       </c>
       <c r="CH11" t="n">
-        <v>6545</v>
+        <v>5338</v>
       </c>
       <c r="CI11" t="n">
-        <v>6545</v>
+        <v>5288</v>
       </c>
       <c r="CJ11" t="n">
-        <v>6472</v>
+        <v>5368.9</v>
       </c>
       <c r="CK11" t="n">
-        <v>6402</v>
+        <v>5218.9</v>
       </c>
       <c r="CL11" t="n">
-        <v>6322</v>
+        <v>5128.9</v>
       </c>
       <c r="CM11" t="n">
-        <v>6222</v>
+        <v>5038.9</v>
       </c>
       <c r="CN11" t="n">
-        <v>6022</v>
+        <v>5335</v>
       </c>
       <c r="CO11" t="n">
-        <v>5892</v>
+        <v>5235</v>
       </c>
       <c r="CP11" t="n">
-        <v>5752</v>
+        <v>5065</v>
       </c>
       <c r="CQ11" t="n">
-        <v>5612</v>
+        <v>4925</v>
       </c>
       <c r="CR11" t="n">
-        <v>5636</v>
+        <v>5064.1</v>
       </c>
       <c r="CS11" t="n">
-        <v>5516</v>
+        <v>4904.1</v>
       </c>
       <c r="CT11" t="n">
-        <v>5406</v>
+        <v>4814.1</v>
       </c>
       <c r="CU11" t="n">
-        <v>5296</v>
+        <v>4704.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" s="2" t="n">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45753</v>
       </c>
       <c r="D12" t="n">
-        <v>5855.7</v>
+        <v>5275</v>
       </c>
       <c r="E12" t="n">
-        <v>5785.7</v>
+        <v>5225</v>
       </c>
       <c r="F12" t="n">
-        <v>5745.7</v>
+        <v>5175</v>
       </c>
       <c r="G12" t="n">
-        <v>5695.7</v>
+        <v>5095</v>
       </c>
       <c r="H12" t="n">
-        <v>5627.1</v>
+        <v>4064</v>
       </c>
       <c r="I12" t="n">
-        <v>5587.1</v>
+        <v>4004</v>
       </c>
       <c r="J12" t="n">
-        <v>5547.1</v>
+        <v>3944</v>
       </c>
       <c r="K12" t="n">
-        <v>5517.1</v>
+        <v>3904</v>
       </c>
       <c r="L12" t="n">
-        <v>5358</v>
+        <v>4329.3</v>
       </c>
       <c r="M12" t="n">
-        <v>5328</v>
+        <v>4309.3</v>
       </c>
       <c r="N12" t="n">
-        <v>5298</v>
+        <v>4289.3</v>
       </c>
       <c r="O12" t="n">
-        <v>5268</v>
+        <v>4279.3</v>
       </c>
       <c r="P12" t="n">
-        <v>5306.7</v>
+        <v>4604.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>5286.7</v>
+        <v>4594.1</v>
       </c>
       <c r="R12" t="n">
-        <v>5276.7</v>
+        <v>4594.1</v>
       </c>
       <c r="S12" t="n">
-        <v>5266.7</v>
+        <v>4594.1</v>
       </c>
       <c r="T12" t="n">
-        <v>5093.4</v>
+        <v>4656.7</v>
       </c>
       <c r="U12" t="n">
-        <v>5093.4</v>
+        <v>4656.7</v>
       </c>
       <c r="V12" t="n">
-        <v>5103.4</v>
+        <v>4656.7</v>
       </c>
       <c r="W12" t="n">
-        <v>5113.4</v>
+        <v>4656.7</v>
       </c>
       <c r="X12" t="n">
-        <v>4888.1</v>
+        <v>4604.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>4898.1</v>
+        <v>4614.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>4908.1</v>
+        <v>4624.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>4918.1</v>
+        <v>4644.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>4798</v>
+        <v>4264.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>4808</v>
+        <v>4304.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>4808</v>
+        <v>4344.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>4818</v>
+        <v>4384.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>4848.5</v>
+        <v>4841.7</v>
       </c>
       <c r="AG12" t="n">
-        <v>4848.5</v>
+        <v>4881.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>4848.5</v>
+        <v>4931.7</v>
       </c>
       <c r="AI12" t="n">
-        <v>4848.5</v>
+        <v>4971.7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4988.6</v>
+        <v>4907.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>4968.6</v>
+        <v>4937.3</v>
       </c>
       <c r="AL12" t="n">
-        <v>4948.6</v>
+        <v>4947.3</v>
       </c>
       <c r="AM12" t="n">
-        <v>4918.6</v>
+        <v>4957.3</v>
       </c>
       <c r="AN12" t="n">
-        <v>4919</v>
+        <v>5236.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>4869</v>
+        <v>5226.3</v>
       </c>
       <c r="AP12" t="n">
-        <v>4829</v>
+        <v>5196.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4789</v>
+        <v>5166.3</v>
       </c>
       <c r="AR12" t="n">
-        <v>4956.8</v>
+        <v>4771.3</v>
       </c>
       <c r="AS12" t="n">
-        <v>4916.8</v>
+        <v>4741.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4886.8</v>
+        <v>4711.3</v>
       </c>
       <c r="AU12" t="n">
-        <v>4856.8</v>
+        <v>4691.3</v>
       </c>
       <c r="AV12" t="n">
-        <v>5321.8</v>
+        <v>4895.2</v>
       </c>
       <c r="AW12" t="n">
-        <v>5311.8</v>
+        <v>4875.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>5301.8</v>
+        <v>4865.2</v>
       </c>
       <c r="AY12" t="n">
-        <v>5281.8</v>
+        <v>4845.2</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5082.9</v>
+        <v>4835.9</v>
       </c>
       <c r="BA12" t="n">
-        <v>5072.9</v>
+        <v>4815.9</v>
       </c>
       <c r="BB12" t="n">
-        <v>5052.9</v>
+        <v>4805.9</v>
       </c>
       <c r="BC12" t="n">
-        <v>5032.9</v>
+        <v>4785.9</v>
       </c>
       <c r="BD12" t="n">
-        <v>5292</v>
+        <v>4300.6</v>
       </c>
       <c r="BE12" t="n">
-        <v>5282</v>
+        <v>4290.6</v>
       </c>
       <c r="BF12" t="n">
-        <v>5272</v>
+        <v>4280.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>5282</v>
+        <v>4280.6</v>
       </c>
       <c r="BH12" t="n">
-        <v>5019.6</v>
+        <v>4189.1</v>
       </c>
       <c r="BI12" t="n">
-        <v>5039.6</v>
+        <v>4189.1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>5059.6</v>
+        <v>4199.1</v>
       </c>
       <c r="BK12" t="n">
-        <v>5089.6</v>
+        <v>4209.1</v>
       </c>
       <c r="BL12" t="n">
-        <v>4712</v>
+        <v>3966.6</v>
       </c>
       <c r="BM12" t="n">
-        <v>4742</v>
+        <v>3976.6</v>
       </c>
       <c r="BN12" t="n">
-        <v>4782</v>
+        <v>3986.6</v>
       </c>
       <c r="BO12" t="n">
-        <v>4822</v>
+        <v>4006.6</v>
       </c>
       <c r="BP12" t="n">
-        <v>4000.2</v>
+        <v>4708.6</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4060.2</v>
+        <v>4738.6</v>
       </c>
       <c r="BR12" t="n">
-        <v>4130.2</v>
+        <v>4788.6</v>
       </c>
       <c r="BS12" t="n">
-        <v>4210.2</v>
+        <v>4848.6</v>
       </c>
       <c r="BT12" t="n">
-        <v>3885.8</v>
+        <v>5061.2</v>
       </c>
       <c r="BU12" t="n">
-        <v>3975.8</v>
+        <v>5131.2</v>
       </c>
       <c r="BV12" t="n">
-        <v>4065.8</v>
+        <v>5201.2</v>
       </c>
       <c r="BW12" t="n">
-        <v>4145.8</v>
+        <v>5261.2</v>
       </c>
       <c r="BX12" t="n">
-        <v>4300.1</v>
+        <v>4711.4</v>
       </c>
       <c r="BY12" t="n">
-        <v>4390.1</v>
+        <v>4781.4</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4480.1</v>
+        <v>4851.4</v>
       </c>
       <c r="CA12" t="n">
-        <v>4570.1</v>
+        <v>4951.4</v>
       </c>
       <c r="CB12" t="n">
-        <v>4679.1</v>
+        <v>4863.7</v>
       </c>
       <c r="CC12" t="n">
-        <v>4809.1</v>
+        <v>4983.7</v>
       </c>
       <c r="CD12" t="n">
-        <v>4939.1</v>
+        <v>5113.7</v>
       </c>
       <c r="CE12" t="n">
-        <v>5059.1</v>
+        <v>5233.7</v>
       </c>
       <c r="CF12" t="n">
-        <v>5335.1</v>
+        <v>5089</v>
       </c>
       <c r="CG12" t="n">
-        <v>5435.1</v>
+        <v>5189</v>
       </c>
       <c r="CH12" t="n">
-        <v>5475.1</v>
+        <v>5209</v>
       </c>
       <c r="CI12" t="n">
-        <v>5475.1</v>
+        <v>5209</v>
       </c>
       <c r="CJ12" t="n">
-        <v>5636.5</v>
+        <v>4614.4</v>
       </c>
       <c r="CK12" t="n">
-        <v>5566.5</v>
+        <v>4504.4</v>
       </c>
       <c r="CL12" t="n">
-        <v>5496.5</v>
+        <v>4454.4</v>
       </c>
       <c r="CM12" t="n">
-        <v>5396.5</v>
+        <v>4384.4</v>
       </c>
       <c r="CN12" t="n">
-        <v>5731.3</v>
+        <v>4335</v>
       </c>
       <c r="CO12" t="n">
-        <v>5631.3</v>
+        <v>4235</v>
       </c>
       <c r="CP12" t="n">
-        <v>5511.3</v>
+        <v>4065</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5401.3</v>
+        <v>3955</v>
       </c>
       <c r="CR12" t="n">
-        <v>5613.2</v>
+        <v>4128.8</v>
       </c>
       <c r="CS12" t="n">
-        <v>5483.2</v>
+        <v>3978.8</v>
       </c>
       <c r="CT12" t="n">
-        <v>5383.2</v>
+        <v>3888.8</v>
       </c>
       <c r="CU12" t="n">
-        <v>5273.2</v>
+        <v>3778.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" s="2" t="n">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="D13" t="n">
-        <v>4394.3</v>
+        <v>5135</v>
       </c>
       <c r="E13" t="n">
-        <v>4374.3</v>
+        <v>5075</v>
       </c>
       <c r="F13" t="n">
-        <v>4354.3</v>
+        <v>5025</v>
       </c>
       <c r="G13" t="n">
-        <v>4334.3</v>
+        <v>4965</v>
       </c>
       <c r="H13" t="n">
-        <v>4446</v>
+        <v>3964</v>
       </c>
       <c r="I13" t="n">
-        <v>4416</v>
+        <v>3914</v>
       </c>
       <c r="J13" t="n">
-        <v>4396</v>
+        <v>3874</v>
       </c>
       <c r="K13" t="n">
-        <v>4366</v>
+        <v>3844</v>
       </c>
       <c r="L13" t="n">
-        <v>4326</v>
+        <v>4279.3</v>
       </c>
       <c r="M13" t="n">
-        <v>4306</v>
+        <v>4259.3</v>
       </c>
       <c r="N13" t="n">
-        <v>4286</v>
+        <v>4249.3</v>
       </c>
       <c r="O13" t="n">
-        <v>4276</v>
+        <v>4249.3</v>
       </c>
       <c r="P13" t="n">
-        <v>4276</v>
+        <v>4584.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>4276</v>
+        <v>4594.1</v>
       </c>
       <c r="R13" t="n">
-        <v>4286</v>
+        <v>4594.1</v>
       </c>
       <c r="S13" t="n">
-        <v>4296</v>
+        <v>4604.1</v>
       </c>
       <c r="T13" t="n">
-        <v>4294</v>
+        <v>4686.7</v>
       </c>
       <c r="U13" t="n">
-        <v>4314</v>
+        <v>4706.7</v>
       </c>
       <c r="V13" t="n">
-        <v>4354</v>
+        <v>4736.7</v>
       </c>
       <c r="W13" t="n">
-        <v>4394</v>
+        <v>4776.7</v>
       </c>
       <c r="X13" t="n">
-        <v>4454</v>
+        <v>4784.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4534</v>
+        <v>4864.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>4624</v>
+        <v>4974.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>4744</v>
+        <v>5104.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>4884</v>
+        <v>4854.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>5034</v>
+        <v>5024.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>5214</v>
+        <v>5224.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>5394</v>
+        <v>5424.9</v>
       </c>
       <c r="AF13" t="n">
-        <v>5594</v>
+        <v>6041.7</v>
       </c>
       <c r="AG13" t="n">
-        <v>5784</v>
+        <v>6241.7</v>
       </c>
       <c r="AH13" t="n">
-        <v>5984</v>
+        <v>6431.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>6164</v>
+        <v>6591.7</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6334</v>
+        <v>6637.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>6474</v>
+        <v>6737.3</v>
       </c>
       <c r="AL13" t="n">
-        <v>6594</v>
+        <v>6807.3</v>
       </c>
       <c r="AM13" t="n">
-        <v>6694</v>
+        <v>6807.3</v>
       </c>
       <c r="AN13" t="n">
-        <v>6776</v>
+        <v>7096.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>6806</v>
+        <v>7096.3</v>
       </c>
       <c r="AP13" t="n">
-        <v>6816</v>
+        <v>7046.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6806</v>
+        <v>6976.3</v>
       </c>
       <c r="AR13" t="n">
-        <v>6781</v>
+        <v>6531.3</v>
       </c>
       <c r="AS13" t="n">
-        <v>6741</v>
+        <v>6451.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6691</v>
+        <v>6371.3</v>
       </c>
       <c r="AU13" t="n">
-        <v>6641</v>
+        <v>6301.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>6581</v>
+        <v>6465.2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6531</v>
+        <v>6405.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>6471</v>
+        <v>6355.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>6421</v>
+        <v>6315.2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6371</v>
+        <v>6295.9</v>
       </c>
       <c r="BA13" t="n">
-        <v>6331</v>
+        <v>6265.9</v>
       </c>
       <c r="BB13" t="n">
-        <v>6281</v>
+        <v>6235.9</v>
       </c>
       <c r="BC13" t="n">
-        <v>6241</v>
+        <v>6205.9</v>
       </c>
       <c r="BD13" t="n">
-        <v>6211</v>
+        <v>5720.6</v>
       </c>
       <c r="BE13" t="n">
-        <v>6181</v>
+        <v>5700.6</v>
       </c>
       <c r="BF13" t="n">
-        <v>6161</v>
+        <v>5690.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>6141</v>
+        <v>5680.6</v>
       </c>
       <c r="BH13" t="n">
-        <v>6131</v>
+        <v>5589.1</v>
       </c>
       <c r="BI13" t="n">
-        <v>6131</v>
+        <v>5589.1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6121</v>
+        <v>5589.1</v>
       </c>
       <c r="BK13" t="n">
-        <v>6121</v>
+        <v>5589.1</v>
       </c>
       <c r="BL13" t="n">
-        <v>6111</v>
+        <v>5326.6</v>
       </c>
       <c r="BM13" t="n">
-        <v>6101</v>
+        <v>5326.6</v>
       </c>
       <c r="BN13" t="n">
-        <v>6091</v>
+        <v>5326.6</v>
       </c>
       <c r="BO13" t="n">
-        <v>6081</v>
+        <v>5326.6</v>
       </c>
       <c r="BP13" t="n">
-        <v>6081</v>
+        <v>6008.6</v>
       </c>
       <c r="BQ13" t="n">
-        <v>6091</v>
+        <v>6018.6</v>
       </c>
       <c r="BR13" t="n">
-        <v>6111</v>
+        <v>6048.6</v>
       </c>
       <c r="BS13" t="n">
-        <v>6131</v>
+        <v>6088.6</v>
       </c>
       <c r="BT13" t="n">
-        <v>6161</v>
+        <v>6291.2</v>
       </c>
       <c r="BU13" t="n">
-        <v>6191</v>
+        <v>6341.2</v>
       </c>
       <c r="BV13" t="n">
-        <v>6221</v>
+        <v>6401.2</v>
       </c>
       <c r="BW13" t="n">
-        <v>6251</v>
+        <v>6471.2</v>
       </c>
       <c r="BX13" t="n">
-        <v>6286</v>
+        <v>5921.4</v>
       </c>
       <c r="BY13" t="n">
-        <v>6336</v>
+        <v>6011.4</v>
       </c>
       <c r="BZ13" t="n">
-        <v>6416</v>
+        <v>6121.4</v>
       </c>
       <c r="CA13" t="n">
-        <v>6516</v>
+        <v>6241.4</v>
       </c>
       <c r="CB13" t="n">
-        <v>6636</v>
+        <v>6183.7</v>
       </c>
       <c r="CC13" t="n">
-        <v>6786</v>
+        <v>6323.7</v>
       </c>
       <c r="CD13" t="n">
-        <v>6926</v>
+        <v>6463.7</v>
       </c>
       <c r="CE13" t="n">
-        <v>7046</v>
+        <v>6583.7</v>
       </c>
       <c r="CF13" t="n">
-        <v>7154</v>
+        <v>6419</v>
       </c>
       <c r="CG13" t="n">
-        <v>7254</v>
+        <v>6499</v>
       </c>
       <c r="CH13" t="n">
-        <v>7314</v>
+        <v>6509</v>
       </c>
       <c r="CI13" t="n">
-        <v>7344</v>
+        <v>6499</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7314</v>
+        <v>5834.4</v>
       </c>
       <c r="CK13" t="n">
-        <v>7254</v>
+        <v>5684.4</v>
       </c>
       <c r="CL13" t="n">
-        <v>7154</v>
+        <v>5584.4</v>
       </c>
       <c r="CM13" t="n">
-        <v>7034</v>
+        <v>5474.4</v>
       </c>
       <c r="CN13" t="n">
-        <v>6864</v>
+        <v>5375</v>
       </c>
       <c r="CO13" t="n">
-        <v>6714</v>
+        <v>5255</v>
       </c>
       <c r="CP13" t="n">
-        <v>6554</v>
+        <v>5075</v>
       </c>
       <c r="CQ13" t="n">
-        <v>6374</v>
+        <v>4905</v>
       </c>
       <c r="CR13" t="n">
-        <v>6226</v>
+        <v>4988.8</v>
       </c>
       <c r="CS13" t="n">
-        <v>6086</v>
+        <v>4778.8</v>
       </c>
       <c r="CT13" t="n">
-        <v>5956</v>
+        <v>4708.8</v>
       </c>
       <c r="CU13" t="n">
-        <v>5816</v>
+        <v>4598.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>45750</v>
+      </c>
       <c r="C14" s="2" t="n">
         <v>45755</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5635</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5595</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5535</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4534</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4494</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4464</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4444</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4889.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4879.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4869.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4859.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5194.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5184.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5194.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5194.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5276.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5276.7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5296.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5306.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5284.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5334.1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5394.1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5484.1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5174.9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5304.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5454.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5624.9</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6191.7</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6361.7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6521.7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6661.7</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6677.3</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>6757.3</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>6807.3</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6807.3</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7096.3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7066.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>7006.3</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>6946.3</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>6511.3</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>6441.3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>6381.3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6321.3</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>6505.2</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6455.2</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6415.2</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>6375.2</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>6345.9</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>6305.9</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6265.9</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>6235.9</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5740.6</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>5720.6</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5710.6</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>5700.6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5619.1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>5619.1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>5629.1</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>5629.1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>5386.6</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>5386.6</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>5386.6</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5396.6</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>6078.6</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>6108.6</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>6148.6</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>6188.6</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>6391.2</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6451.2</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>6501.2</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>6561.2</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>6001.4</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>6081.4</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>6171.4</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>6291.4</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>6233.7</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>6383.7</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>6513.7</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>6613.7</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>6439</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>6499</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>6509</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>6489</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>5824.4</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>5684.4</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>5594.4</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>5474.4</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>5375</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5255</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>5075</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>4905</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>4988.8</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>4788.8</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>4708.8</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>4598.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>45750</v>
+      </c>
       <c r="C15" s="2" t="n">
         <v>45756</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr"/>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr"/>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>5535</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5375</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5325</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5275</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4284</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4264</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4244</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4214</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4649.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4619.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4609.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4599.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4934.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4954.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4964.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4984.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5066.7</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5076.7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5086.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5096.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5064.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5104.1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5164.1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5244.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4934.9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5054.9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5194.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5354.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5911.7</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6071.7</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6211.7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6331.7</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6327.3</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6387.3</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6427.3</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>6427.3</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6686.3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6636.3</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>6576.3</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6506.3</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>6061.3</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>5991.3</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5921.3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>5871.3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>6055.2</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6015.2</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5975.2</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>5945.2</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>5925.9</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>5895.9</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5865.9</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>5835.9</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>5340.6</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>5310.6</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5300.6</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>5290.6</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5189.1</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>5189.1</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>5189.1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>5189.1</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>4926.6</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>4926.6</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4926.6</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4926.6</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>5598.6</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>5618.6</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>5658.6</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>5698.6</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>5921.2</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5991.2</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>6071.2</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>6161.2</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>5641.4</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>5751.4</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>5881.4</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>6021.4</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>5973.7</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>6113.7</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>6233.7</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>6333.7</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>6149</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>6219</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>6249</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>6269</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>5654.4</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>5554.4</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>5484.4</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>5364.4</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>5255</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>5125</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>4955</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>4795</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>4868.8</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>4668.8</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>4588.8</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>4478.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>45750</v>
+      </c>
       <c r="C16" s="2" t="n">
         <v>45757</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5585</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5425</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5375</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5325</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4334</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4314</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4294</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4264</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4699.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4669.3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4659.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4649.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4984.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5004.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5014.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5034.1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5116.7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5126.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5136.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5146.7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5114.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5154.1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5214.1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5294.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>4984.9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5104.9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5244.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5404.9</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5961.7</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6121.7</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6261.7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6381.7</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6377.3</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>6437.3</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>6477.3</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>6477.3</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6736.3</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6686.3</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>6626.3</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>6556.3</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>6111.3</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>6041.3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5971.3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>5921.3</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>6105.2</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6065.2</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6025.2</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5995.2</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5975.9</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>5945.9</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5915.9</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5885.9</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>5390.6</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5360.6</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5350.6</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5340.6</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5239.1</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>5239.1</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>5239.1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>5239.1</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>4976.6</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>4976.6</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>4976.6</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4976.6</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>5648.6</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>5668.6</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>5708.6</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>5748.6</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>5971.2</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6041.2</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>6121.2</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>6211.2</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>5691.4</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>5801.4</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>5931.4</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>6071.4</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>6023.7</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>6163.7</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>6283.7</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>6383.7</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>6199</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>6269</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>6299</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>6319</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>5704.4</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>5604.4</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>5534.4</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>5414.4</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>5305</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>5175</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>5005</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>4845</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>4918.8</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>4718.8</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>4638.8</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>4528.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>45750</v>
+      </c>
       <c r="C17" s="2" t="n">
         <v>45758</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>5485</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5325</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5275</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5225</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4234</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4214</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4194</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4164</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4599.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4569.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4559.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4549.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4884.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4904.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4914.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4934.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5016.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5026.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5036.7</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5046.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5014.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5054.1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5114.1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5194.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4884.9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5004.9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5144.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5304.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>5861.7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6021.7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6161.7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6281.7</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6277.3</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>6337.3</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>6377.3</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>6377.3</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6636.3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6586.3</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>6526.3</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>6456.3</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>6011.3</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5941.3</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5871.3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5821.3</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>6005.2</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5965.2</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5925.2</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>5895.2</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>5875.9</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>5845.9</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>5815.9</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5785.9</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>5290.6</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>5260.6</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>5250.6</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>5240.6</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5139.1</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>5139.1</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>5139.1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>5139.1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>4876.6</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>4876.6</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>4876.6</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>4876.6</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>5548.6</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>5568.6</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>5608.6</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>5648.6</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>5871.2</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5941.2</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>6021.2</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>6111.2</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>5591.4</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>5701.4</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>5831.4</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>5971.4</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>5923.7</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>6063.7</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>6183.7</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>6283.7</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>6099</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>6169</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>6199</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>6219</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>5604.4</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>5504.4</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>5434.4</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>5314.4</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>5205</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>5075</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>4905</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>4745</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>4818.8</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>4618.8</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>4538.8</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>4428.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -3030,2802 +3030,4160 @@
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="n">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45752</v>
       </c>
       <c r="D11" t="n">
-        <v>5680.4</v>
+        <v>5369.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5610.4</v>
+        <v>5299.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5580.4</v>
+        <v>5249.7</v>
       </c>
       <c r="G11" t="n">
-        <v>5510.4</v>
+        <v>5189.7</v>
       </c>
       <c r="H11" t="n">
-        <v>5265.6</v>
+        <v>5509</v>
       </c>
       <c r="I11" t="n">
-        <v>5205.6</v>
+        <v>5459</v>
       </c>
       <c r="J11" t="n">
-        <v>5155.6</v>
+        <v>5409</v>
       </c>
       <c r="K11" t="n">
-        <v>5125.6</v>
+        <v>5359</v>
       </c>
       <c r="L11" t="n">
-        <v>4911.5</v>
+        <v>5300</v>
       </c>
       <c r="M11" t="n">
-        <v>4881.5</v>
+        <v>5260</v>
       </c>
       <c r="N11" t="n">
-        <v>4861.5</v>
+        <v>5220</v>
       </c>
       <c r="O11" t="n">
-        <v>4841.5</v>
+        <v>5200</v>
       </c>
       <c r="P11" t="n">
-        <v>4890.6</v>
+        <v>5159</v>
       </c>
       <c r="Q11" t="n">
-        <v>4860.6</v>
+        <v>5139</v>
       </c>
       <c r="R11" t="n">
-        <v>4870.6</v>
+        <v>5139</v>
       </c>
       <c r="S11" t="n">
-        <v>4870.6</v>
+        <v>5129</v>
       </c>
       <c r="T11" t="n">
-        <v>4905.4</v>
+        <v>5132</v>
       </c>
       <c r="U11" t="n">
-        <v>4925.4</v>
+        <v>5132</v>
       </c>
       <c r="V11" t="n">
-        <v>4935.4</v>
+        <v>5142</v>
       </c>
       <c r="W11" t="n">
-        <v>4955.4</v>
+        <v>5162</v>
       </c>
       <c r="X11" t="n">
-        <v>5102.3</v>
+        <v>5183</v>
       </c>
       <c r="Y11" t="n">
-        <v>5122.3</v>
+        <v>5203</v>
       </c>
       <c r="Z11" t="n">
-        <v>5142.3</v>
+        <v>5233</v>
       </c>
       <c r="AA11" t="n">
-        <v>5172.3</v>
+        <v>5263</v>
       </c>
       <c r="AB11" t="n">
-        <v>4982</v>
+        <v>5331</v>
       </c>
       <c r="AC11" t="n">
-        <v>5022</v>
+        <v>5381</v>
       </c>
       <c r="AD11" t="n">
-        <v>5072</v>
+        <v>5431</v>
       </c>
       <c r="AE11" t="n">
-        <v>5132</v>
+        <v>5491</v>
       </c>
       <c r="AF11" t="n">
-        <v>5105.8</v>
+        <v>5580</v>
       </c>
       <c r="AG11" t="n">
-        <v>5185.8</v>
+        <v>5650</v>
       </c>
       <c r="AH11" t="n">
-        <v>5265.8</v>
+        <v>5710</v>
       </c>
       <c r="AI11" t="n">
-        <v>5355.8</v>
+        <v>5760</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5167.9</v>
+        <v>5850</v>
       </c>
       <c r="AK11" t="n">
-        <v>5227.9</v>
+        <v>5880</v>
       </c>
       <c r="AL11" t="n">
-        <v>5277.9</v>
+        <v>5880</v>
       </c>
       <c r="AM11" t="n">
-        <v>5277.9</v>
+        <v>5860</v>
       </c>
       <c r="AN11" t="n">
-        <v>5699.3</v>
+        <v>5905</v>
       </c>
       <c r="AO11" t="n">
-        <v>5679.3</v>
+        <v>5855</v>
       </c>
       <c r="AP11" t="n">
-        <v>5639.3</v>
+        <v>5785</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5589.3</v>
+        <v>5705</v>
       </c>
       <c r="AR11" t="n">
-        <v>5763.7</v>
+        <v>5680</v>
       </c>
       <c r="AS11" t="n">
-        <v>5703.7</v>
+        <v>5610</v>
       </c>
       <c r="AT11" t="n">
-        <v>5653.7</v>
+        <v>5540</v>
       </c>
       <c r="AU11" t="n">
-        <v>5603.7</v>
+        <v>5480</v>
       </c>
       <c r="AV11" t="n">
-        <v>6077.2</v>
+        <v>5463</v>
       </c>
       <c r="AW11" t="n">
-        <v>6057.2</v>
+        <v>5423</v>
       </c>
       <c r="AX11" t="n">
-        <v>6027.2</v>
+        <v>5393</v>
       </c>
       <c r="AY11" t="n">
-        <v>6007.2</v>
+        <v>5373</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5756.5</v>
+        <v>5289</v>
       </c>
       <c r="BA11" t="n">
-        <v>5736.5</v>
+        <v>5269</v>
       </c>
       <c r="BB11" t="n">
-        <v>5716.5</v>
+        <v>5249</v>
       </c>
       <c r="BC11" t="n">
-        <v>5686.5</v>
+        <v>5239</v>
       </c>
       <c r="BD11" t="n">
-        <v>5340.7</v>
+        <v>5211</v>
       </c>
       <c r="BE11" t="n">
-        <v>5330.7</v>
+        <v>5201</v>
       </c>
       <c r="BF11" t="n">
-        <v>5320.7</v>
+        <v>5191</v>
       </c>
       <c r="BG11" t="n">
-        <v>5310.7</v>
+        <v>5191</v>
       </c>
       <c r="BH11" t="n">
-        <v>5360.2</v>
+        <v>5197</v>
       </c>
       <c r="BI11" t="n">
-        <v>5370.2</v>
+        <v>5217</v>
       </c>
       <c r="BJ11" t="n">
-        <v>5380.2</v>
+        <v>5237</v>
       </c>
       <c r="BK11" t="n">
-        <v>5390.2</v>
+        <v>5267</v>
       </c>
       <c r="BL11" t="n">
-        <v>5503.2</v>
+        <v>5283</v>
       </c>
       <c r="BM11" t="n">
-        <v>5503.2</v>
+        <v>5313</v>
       </c>
       <c r="BN11" t="n">
-        <v>5513.2</v>
+        <v>5353</v>
       </c>
       <c r="BO11" t="n">
-        <v>5523.2</v>
+        <v>5393</v>
       </c>
       <c r="BP11" t="n">
-        <v>5194.4</v>
+        <v>5468</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5214.4</v>
+        <v>5528</v>
       </c>
       <c r="BR11" t="n">
-        <v>5254.4</v>
+        <v>5598</v>
       </c>
       <c r="BS11" t="n">
-        <v>5294.4</v>
+        <v>5688</v>
       </c>
       <c r="BT11" t="n">
-        <v>5134.4</v>
+        <v>5921</v>
       </c>
       <c r="BU11" t="n">
-        <v>5204.4</v>
+        <v>6011</v>
       </c>
       <c r="BV11" t="n">
-        <v>5274.4</v>
+        <v>6101</v>
       </c>
       <c r="BW11" t="n">
-        <v>5344.4</v>
+        <v>6181</v>
       </c>
       <c r="BX11" t="n">
-        <v>5176.2</v>
+        <v>6125</v>
       </c>
       <c r="BY11" t="n">
-        <v>5266.2</v>
+        <v>6225</v>
       </c>
       <c r="BZ11" t="n">
-        <v>5376.2</v>
+        <v>6315</v>
       </c>
       <c r="CA11" t="n">
-        <v>5506.2</v>
+        <v>6415</v>
       </c>
       <c r="CB11" t="n">
-        <v>5135.1</v>
+        <v>6346</v>
       </c>
       <c r="CC11" t="n">
-        <v>5295.1</v>
+        <v>6476</v>
       </c>
       <c r="CD11" t="n">
-        <v>5435.1</v>
+        <v>6606</v>
       </c>
       <c r="CE11" t="n">
-        <v>5555.1</v>
+        <v>6726</v>
       </c>
       <c r="CF11" t="n">
-        <v>5288</v>
+        <v>6843</v>
       </c>
       <c r="CG11" t="n">
-        <v>5338</v>
+        <v>6933</v>
       </c>
       <c r="CH11" t="n">
-        <v>5338</v>
+        <v>6963</v>
       </c>
       <c r="CI11" t="n">
-        <v>5288</v>
+        <v>6953</v>
       </c>
       <c r="CJ11" t="n">
-        <v>5368.9</v>
+        <v>6875</v>
       </c>
       <c r="CK11" t="n">
-        <v>5218.9</v>
+        <v>6785</v>
       </c>
       <c r="CL11" t="n">
-        <v>5128.9</v>
+        <v>6685</v>
       </c>
       <c r="CM11" t="n">
-        <v>5038.9</v>
+        <v>6555</v>
       </c>
       <c r="CN11" t="n">
-        <v>5335</v>
+        <v>6430</v>
       </c>
       <c r="CO11" t="n">
-        <v>5235</v>
+        <v>6310</v>
       </c>
       <c r="CP11" t="n">
-        <v>5065</v>
+        <v>6180</v>
       </c>
       <c r="CQ11" t="n">
-        <v>4925</v>
+        <v>6040</v>
       </c>
       <c r="CR11" t="n">
-        <v>5064.1</v>
+        <v>5869</v>
       </c>
       <c r="CS11" t="n">
-        <v>4904.1</v>
+        <v>5739</v>
       </c>
       <c r="CT11" t="n">
-        <v>4814.1</v>
+        <v>5639</v>
       </c>
       <c r="CU11" t="n">
-        <v>4704.1</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" s="2" t="n">
-        <v>45750</v>
+        <v>45752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45753</v>
       </c>
       <c r="D12" t="n">
-        <v>5275</v>
+        <v>5417</v>
       </c>
       <c r="E12" t="n">
-        <v>5225</v>
+        <v>5357</v>
       </c>
       <c r="F12" t="n">
-        <v>5175</v>
+        <v>5307</v>
       </c>
       <c r="G12" t="n">
-        <v>5095</v>
+        <v>5267</v>
       </c>
       <c r="H12" t="n">
-        <v>4064</v>
+        <v>5168</v>
       </c>
       <c r="I12" t="n">
-        <v>4004</v>
+        <v>5128</v>
       </c>
       <c r="J12" t="n">
-        <v>3944</v>
+        <v>5088</v>
       </c>
       <c r="K12" t="n">
-        <v>3904</v>
+        <v>5048</v>
       </c>
       <c r="L12" t="n">
-        <v>4329.3</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>4309.3</v>
+        <v>4980</v>
       </c>
       <c r="N12" t="n">
-        <v>4289.3</v>
+        <v>4960</v>
       </c>
       <c r="O12" t="n">
-        <v>4279.3</v>
+        <v>4950</v>
       </c>
       <c r="P12" t="n">
-        <v>4604.1</v>
+        <v>4925</v>
       </c>
       <c r="Q12" t="n">
-        <v>4594.1</v>
+        <v>4915</v>
       </c>
       <c r="R12" t="n">
-        <v>4594.1</v>
+        <v>4905</v>
       </c>
       <c r="S12" t="n">
-        <v>4594.1</v>
+        <v>4905</v>
       </c>
       <c r="T12" t="n">
-        <v>4656.7</v>
+        <v>4915</v>
       </c>
       <c r="U12" t="n">
-        <v>4656.7</v>
+        <v>4915</v>
       </c>
       <c r="V12" t="n">
-        <v>4656.7</v>
+        <v>4915</v>
       </c>
       <c r="W12" t="n">
-        <v>4656.7</v>
+        <v>4915</v>
       </c>
       <c r="X12" t="n">
-        <v>4604.1</v>
+        <v>4930</v>
       </c>
       <c r="Y12" t="n">
-        <v>4614.1</v>
+        <v>4940</v>
       </c>
       <c r="Z12" t="n">
-        <v>4624.1</v>
+        <v>4950</v>
       </c>
       <c r="AA12" t="n">
-        <v>4644.1</v>
+        <v>4970</v>
       </c>
       <c r="AB12" t="n">
-        <v>4264.9</v>
+        <v>4992</v>
       </c>
       <c r="AC12" t="n">
-        <v>4304.9</v>
+        <v>5002</v>
       </c>
       <c r="AD12" t="n">
-        <v>4344.9</v>
+        <v>5012</v>
       </c>
       <c r="AE12" t="n">
-        <v>4384.9</v>
+        <v>5032</v>
       </c>
       <c r="AF12" t="n">
-        <v>4841.7</v>
+        <v>5016</v>
       </c>
       <c r="AG12" t="n">
-        <v>4881.7</v>
+        <v>5036</v>
       </c>
       <c r="AH12" t="n">
-        <v>4931.7</v>
+        <v>5056</v>
       </c>
       <c r="AI12" t="n">
-        <v>4971.7</v>
+        <v>5086</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4907.3</v>
+        <v>5228</v>
       </c>
       <c r="AK12" t="n">
-        <v>4937.3</v>
+        <v>5258</v>
       </c>
       <c r="AL12" t="n">
-        <v>4947.3</v>
+        <v>5278</v>
       </c>
       <c r="AM12" t="n">
-        <v>4957.3</v>
+        <v>5298</v>
       </c>
       <c r="AN12" t="n">
-        <v>5236.3</v>
+        <v>5398</v>
       </c>
       <c r="AO12" t="n">
-        <v>5226.3</v>
+        <v>5398</v>
       </c>
       <c r="AP12" t="n">
-        <v>5196.3</v>
+        <v>5388</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5166.3</v>
+        <v>5368</v>
       </c>
       <c r="AR12" t="n">
-        <v>4771.3</v>
+        <v>5380</v>
       </c>
       <c r="AS12" t="n">
-        <v>4741.3</v>
+        <v>5350</v>
       </c>
       <c r="AT12" t="n">
-        <v>4711.3</v>
+        <v>5310</v>
       </c>
       <c r="AU12" t="n">
-        <v>4691.3</v>
+        <v>5260</v>
       </c>
       <c r="AV12" t="n">
-        <v>4895.2</v>
+        <v>5353</v>
       </c>
       <c r="AW12" t="n">
-        <v>4875.2</v>
+        <v>5313</v>
       </c>
       <c r="AX12" t="n">
-        <v>4865.2</v>
+        <v>5273</v>
       </c>
       <c r="AY12" t="n">
-        <v>4845.2</v>
+        <v>5233</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4835.9</v>
+        <v>5237</v>
       </c>
       <c r="BA12" t="n">
-        <v>4815.9</v>
+        <v>5207</v>
       </c>
       <c r="BB12" t="n">
-        <v>4805.9</v>
+        <v>5177</v>
       </c>
       <c r="BC12" t="n">
-        <v>4785.9</v>
+        <v>5157</v>
       </c>
       <c r="BD12" t="n">
-        <v>4300.6</v>
+        <v>5081</v>
       </c>
       <c r="BE12" t="n">
-        <v>4290.6</v>
+        <v>5071</v>
       </c>
       <c r="BF12" t="n">
-        <v>4280.6</v>
+        <v>5061</v>
       </c>
       <c r="BG12" t="n">
-        <v>4280.6</v>
+        <v>5061</v>
       </c>
       <c r="BH12" t="n">
-        <v>4189.1</v>
+        <v>5068</v>
       </c>
       <c r="BI12" t="n">
-        <v>4189.1</v>
+        <v>5078</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4199.1</v>
+        <v>5098</v>
       </c>
       <c r="BK12" t="n">
-        <v>4209.1</v>
+        <v>5108</v>
       </c>
       <c r="BL12" t="n">
-        <v>3966.6</v>
+        <v>5068</v>
       </c>
       <c r="BM12" t="n">
-        <v>3976.6</v>
+        <v>5088</v>
       </c>
       <c r="BN12" t="n">
-        <v>3986.6</v>
+        <v>5108</v>
       </c>
       <c r="BO12" t="n">
-        <v>4006.6</v>
+        <v>5128</v>
       </c>
       <c r="BP12" t="n">
-        <v>4708.6</v>
+        <v>5144</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4738.6</v>
+        <v>5194</v>
       </c>
       <c r="BR12" t="n">
-        <v>4788.6</v>
+        <v>5244</v>
       </c>
       <c r="BS12" t="n">
-        <v>4848.6</v>
+        <v>5304</v>
       </c>
       <c r="BT12" t="n">
-        <v>5061.2</v>
+        <v>5295</v>
       </c>
       <c r="BU12" t="n">
-        <v>5131.2</v>
+        <v>5365</v>
       </c>
       <c r="BV12" t="n">
-        <v>5201.2</v>
+        <v>5445</v>
       </c>
       <c r="BW12" t="n">
-        <v>5261.2</v>
+        <v>5525</v>
       </c>
       <c r="BX12" t="n">
-        <v>4711.4</v>
+        <v>5581</v>
       </c>
       <c r="BY12" t="n">
-        <v>4781.4</v>
+        <v>5671</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4851.4</v>
+        <v>5761</v>
       </c>
       <c r="CA12" t="n">
-        <v>4951.4</v>
+        <v>5861</v>
       </c>
       <c r="CB12" t="n">
-        <v>4863.7</v>
+        <v>5976</v>
       </c>
       <c r="CC12" t="n">
-        <v>4983.7</v>
+        <v>6106</v>
       </c>
       <c r="CD12" t="n">
-        <v>5113.7</v>
+        <v>6246</v>
       </c>
       <c r="CE12" t="n">
-        <v>5233.7</v>
+        <v>6376</v>
       </c>
       <c r="CF12" t="n">
-        <v>5089</v>
+        <v>6488</v>
       </c>
       <c r="CG12" t="n">
-        <v>5189</v>
+        <v>6608</v>
       </c>
       <c r="CH12" t="n">
-        <v>5209</v>
+        <v>6678</v>
       </c>
       <c r="CI12" t="n">
-        <v>5209</v>
+        <v>6698</v>
       </c>
       <c r="CJ12" t="n">
-        <v>4614.4</v>
+        <v>6537</v>
       </c>
       <c r="CK12" t="n">
-        <v>4504.4</v>
+        <v>6477</v>
       </c>
       <c r="CL12" t="n">
-        <v>4454.4</v>
+        <v>6397</v>
       </c>
       <c r="CM12" t="n">
-        <v>4384.4</v>
+        <v>6297</v>
       </c>
       <c r="CN12" t="n">
-        <v>4335</v>
+        <v>6183</v>
       </c>
       <c r="CO12" t="n">
-        <v>4235</v>
+        <v>6063</v>
       </c>
       <c r="CP12" t="n">
-        <v>4065</v>
+        <v>5933</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3955</v>
+        <v>5793</v>
       </c>
       <c r="CR12" t="n">
-        <v>4128.8</v>
+        <v>5720</v>
       </c>
       <c r="CS12" t="n">
-        <v>3978.8</v>
+        <v>5590</v>
       </c>
       <c r="CT12" t="n">
-        <v>3888.8</v>
+        <v>5460</v>
       </c>
       <c r="CU12" t="n">
-        <v>3778.8</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" s="2" t="n">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="D13" t="n">
-        <v>5135</v>
+        <v>5298</v>
       </c>
       <c r="E13" t="n">
-        <v>5075</v>
+        <v>5218</v>
       </c>
       <c r="F13" t="n">
-        <v>5025</v>
+        <v>5158</v>
       </c>
       <c r="G13" t="n">
-        <v>4965</v>
+        <v>5108</v>
       </c>
       <c r="H13" t="n">
-        <v>3964</v>
+        <v>5020</v>
       </c>
       <c r="I13" t="n">
-        <v>3914</v>
+        <v>4970</v>
       </c>
       <c r="J13" t="n">
-        <v>3874</v>
+        <v>4930</v>
       </c>
       <c r="K13" t="n">
-        <v>3844</v>
+        <v>4900</v>
       </c>
       <c r="L13" t="n">
-        <v>4279.3</v>
+        <v>4864</v>
       </c>
       <c r="M13" t="n">
-        <v>4259.3</v>
+        <v>4844</v>
       </c>
       <c r="N13" t="n">
-        <v>4249.3</v>
+        <v>4834</v>
       </c>
       <c r="O13" t="n">
-        <v>4249.3</v>
+        <v>4834</v>
       </c>
       <c r="P13" t="n">
-        <v>4584.1</v>
+        <v>4821</v>
       </c>
       <c r="Q13" t="n">
-        <v>4594.1</v>
+        <v>4831</v>
       </c>
       <c r="R13" t="n">
-        <v>4594.1</v>
+        <v>4831</v>
       </c>
       <c r="S13" t="n">
-        <v>4604.1</v>
+        <v>4841</v>
       </c>
       <c r="T13" t="n">
-        <v>4686.7</v>
+        <v>4859</v>
       </c>
       <c r="U13" t="n">
-        <v>4706.7</v>
+        <v>4869</v>
       </c>
       <c r="V13" t="n">
-        <v>4736.7</v>
+        <v>4889</v>
       </c>
       <c r="W13" t="n">
-        <v>4776.7</v>
+        <v>4929</v>
       </c>
       <c r="X13" t="n">
-        <v>4784.1</v>
+        <v>5003</v>
       </c>
       <c r="Y13" t="n">
-        <v>4864.1</v>
+        <v>5093</v>
       </c>
       <c r="Z13" t="n">
-        <v>4974.1</v>
+        <v>5203</v>
       </c>
       <c r="AA13" t="n">
-        <v>5104.1</v>
+        <v>5333</v>
       </c>
       <c r="AB13" t="n">
-        <v>4854.9</v>
+        <v>5508</v>
       </c>
       <c r="AC13" t="n">
-        <v>5024.9</v>
+        <v>5688</v>
       </c>
       <c r="AD13" t="n">
-        <v>5224.9</v>
+        <v>5878</v>
       </c>
       <c r="AE13" t="n">
-        <v>5424.9</v>
+        <v>6078</v>
       </c>
       <c r="AF13" t="n">
-        <v>6041.7</v>
+        <v>6182</v>
       </c>
       <c r="AG13" t="n">
-        <v>6241.7</v>
+        <v>6362</v>
       </c>
       <c r="AH13" t="n">
-        <v>6431.7</v>
+        <v>6532</v>
       </c>
       <c r="AI13" t="n">
-        <v>6591.7</v>
+        <v>6682</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6637.3</v>
+        <v>6811</v>
       </c>
       <c r="AK13" t="n">
-        <v>6737.3</v>
+        <v>6891</v>
       </c>
       <c r="AL13" t="n">
-        <v>6807.3</v>
+        <v>6951</v>
       </c>
       <c r="AM13" t="n">
-        <v>6807.3</v>
+        <v>6971</v>
       </c>
       <c r="AN13" t="n">
-        <v>7096.3</v>
+        <v>6922</v>
       </c>
       <c r="AO13" t="n">
-        <v>7096.3</v>
+        <v>6892</v>
       </c>
       <c r="AP13" t="n">
-        <v>7046.3</v>
+        <v>6842</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6976.3</v>
+        <v>6772</v>
       </c>
       <c r="AR13" t="n">
-        <v>6531.3</v>
+        <v>6871</v>
       </c>
       <c r="AS13" t="n">
-        <v>6451.3</v>
+        <v>6781</v>
       </c>
       <c r="AT13" t="n">
-        <v>6371.3</v>
+        <v>6701</v>
       </c>
       <c r="AU13" t="n">
-        <v>6301.3</v>
+        <v>6621</v>
       </c>
       <c r="AV13" t="n">
-        <v>6465.2</v>
+        <v>6597</v>
       </c>
       <c r="AW13" t="n">
-        <v>6405.2</v>
+        <v>6527</v>
       </c>
       <c r="AX13" t="n">
-        <v>6355.2</v>
+        <v>6467</v>
       </c>
       <c r="AY13" t="n">
-        <v>6315.2</v>
+        <v>6407</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6295.9</v>
+        <v>6396</v>
       </c>
       <c r="BA13" t="n">
-        <v>6265.9</v>
+        <v>6356</v>
       </c>
       <c r="BB13" t="n">
-        <v>6235.9</v>
+        <v>6316</v>
       </c>
       <c r="BC13" t="n">
-        <v>6205.9</v>
+        <v>6296</v>
       </c>
       <c r="BD13" t="n">
-        <v>5720.6</v>
+        <v>6238</v>
       </c>
       <c r="BE13" t="n">
-        <v>5700.6</v>
+        <v>6228</v>
       </c>
       <c r="BF13" t="n">
-        <v>5690.6</v>
+        <v>6228</v>
       </c>
       <c r="BG13" t="n">
-        <v>5680.6</v>
+        <v>6228</v>
       </c>
       <c r="BH13" t="n">
-        <v>5589.1</v>
+        <v>6261</v>
       </c>
       <c r="BI13" t="n">
-        <v>5589.1</v>
+        <v>6271</v>
       </c>
       <c r="BJ13" t="n">
-        <v>5589.1</v>
+        <v>6271</v>
       </c>
       <c r="BK13" t="n">
-        <v>5589.1</v>
+        <v>6281</v>
       </c>
       <c r="BL13" t="n">
-        <v>5326.6</v>
+        <v>6261</v>
       </c>
       <c r="BM13" t="n">
-        <v>5326.6</v>
+        <v>6271</v>
       </c>
       <c r="BN13" t="n">
-        <v>5326.6</v>
+        <v>6281</v>
       </c>
       <c r="BO13" t="n">
-        <v>5326.6</v>
+        <v>6291</v>
       </c>
       <c r="BP13" t="n">
-        <v>6008.6</v>
+        <v>6334</v>
       </c>
       <c r="BQ13" t="n">
-        <v>6018.6</v>
+        <v>6364</v>
       </c>
       <c r="BR13" t="n">
-        <v>6048.6</v>
+        <v>6404</v>
       </c>
       <c r="BS13" t="n">
-        <v>6088.6</v>
+        <v>6454</v>
       </c>
       <c r="BT13" t="n">
-        <v>6291.2</v>
+        <v>6455</v>
       </c>
       <c r="BU13" t="n">
-        <v>6341.2</v>
+        <v>6505</v>
       </c>
       <c r="BV13" t="n">
-        <v>6401.2</v>
+        <v>6565</v>
       </c>
       <c r="BW13" t="n">
-        <v>6471.2</v>
+        <v>6635</v>
       </c>
       <c r="BX13" t="n">
-        <v>5921.4</v>
+        <v>6633</v>
       </c>
       <c r="BY13" t="n">
-        <v>6011.4</v>
+        <v>6703</v>
       </c>
       <c r="BZ13" t="n">
-        <v>6121.4</v>
+        <v>6793</v>
       </c>
       <c r="CA13" t="n">
-        <v>6241.4</v>
+        <v>6893</v>
       </c>
       <c r="CB13" t="n">
-        <v>6183.7</v>
+        <v>6961</v>
       </c>
       <c r="CC13" t="n">
-        <v>6323.7</v>
+        <v>7081</v>
       </c>
       <c r="CD13" t="n">
-        <v>6463.7</v>
+        <v>7211</v>
       </c>
       <c r="CE13" t="n">
-        <v>6583.7</v>
+        <v>7341</v>
       </c>
       <c r="CF13" t="n">
-        <v>6419</v>
+        <v>7468</v>
       </c>
       <c r="CG13" t="n">
-        <v>6499</v>
+        <v>7558</v>
       </c>
       <c r="CH13" t="n">
-        <v>6509</v>
+        <v>7588</v>
       </c>
       <c r="CI13" t="n">
-        <v>6499</v>
+        <v>7578</v>
       </c>
       <c r="CJ13" t="n">
-        <v>5834.4</v>
+        <v>7480</v>
       </c>
       <c r="CK13" t="n">
-        <v>5684.4</v>
+        <v>7380</v>
       </c>
       <c r="CL13" t="n">
-        <v>5584.4</v>
+        <v>7240</v>
       </c>
       <c r="CM13" t="n">
-        <v>5474.4</v>
+        <v>7120</v>
       </c>
       <c r="CN13" t="n">
-        <v>5375</v>
+        <v>7078</v>
       </c>
       <c r="CO13" t="n">
-        <v>5255</v>
+        <v>6908</v>
       </c>
       <c r="CP13" t="n">
-        <v>5075</v>
+        <v>6738</v>
       </c>
       <c r="CQ13" t="n">
-        <v>4905</v>
+        <v>6568</v>
       </c>
       <c r="CR13" t="n">
-        <v>4988.8</v>
+        <v>6377</v>
       </c>
       <c r="CS13" t="n">
-        <v>4778.8</v>
+        <v>6217</v>
       </c>
       <c r="CT13" t="n">
-        <v>4708.8</v>
+        <v>6057</v>
       </c>
       <c r="CU13" t="n">
-        <v>4598.8</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" s="2" t="n">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>45755</v>
       </c>
       <c r="D14" t="n">
-        <v>5695</v>
+        <v>5928</v>
       </c>
       <c r="E14" t="n">
-        <v>5635</v>
+        <v>5838</v>
       </c>
       <c r="F14" t="n">
-        <v>5595</v>
+        <v>5798</v>
       </c>
       <c r="G14" t="n">
-        <v>5535</v>
+        <v>5758</v>
       </c>
       <c r="H14" t="n">
-        <v>4534</v>
+        <v>4925.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4494</v>
+        <v>4885.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4464</v>
+        <v>4845.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4444</v>
+        <v>4805.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4889.3</v>
+        <v>4878.6</v>
       </c>
       <c r="M14" t="n">
-        <v>4879.3</v>
+        <v>4858.6</v>
       </c>
       <c r="N14" t="n">
-        <v>4869.3</v>
+        <v>4838.6</v>
       </c>
       <c r="O14" t="n">
-        <v>4859.3</v>
+        <v>4828.6</v>
       </c>
       <c r="P14" t="n">
-        <v>5194.1</v>
+        <v>4833.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>5184.1</v>
+        <v>4833.8</v>
       </c>
       <c r="R14" t="n">
-        <v>5194.1</v>
+        <v>4833.8</v>
       </c>
       <c r="S14" t="n">
-        <v>5194.1</v>
+        <v>4853.8</v>
       </c>
       <c r="T14" t="n">
-        <v>5276.7</v>
+        <v>4749.6</v>
       </c>
       <c r="U14" t="n">
-        <v>5276.7</v>
+        <v>4779.6</v>
       </c>
       <c r="V14" t="n">
-        <v>5296.7</v>
+        <v>4809.6</v>
       </c>
       <c r="W14" t="n">
-        <v>5306.7</v>
+        <v>4859.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5284.1</v>
+        <v>4688.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>5334.1</v>
+        <v>4768.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>5394.1</v>
+        <v>4858.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>5484.1</v>
+        <v>4958.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>5174.9</v>
+        <v>4715.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5304.9</v>
+        <v>4845.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5454.9</v>
+        <v>4985.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5624.9</v>
+        <v>5125.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>6191.7</v>
+        <v>5402.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6361.7</v>
+        <v>5532.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>6521.7</v>
+        <v>5642.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>6661.7</v>
+        <v>5722.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6677.3</v>
+        <v>5832.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>6757.3</v>
+        <v>5852.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>6807.3</v>
+        <v>5842.4</v>
       </c>
       <c r="AM14" t="n">
-        <v>6807.3</v>
+        <v>5792.4</v>
       </c>
       <c r="AN14" t="n">
-        <v>7096.3</v>
+        <v>5877.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>7066.3</v>
+        <v>5767.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>7006.3</v>
+        <v>5657.7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6946.3</v>
+        <v>5557.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>6511.3</v>
+        <v>5650.2</v>
       </c>
       <c r="AS14" t="n">
-        <v>6441.3</v>
+        <v>5550.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>6381.3</v>
+        <v>5470.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>6321.3</v>
+        <v>5410.2</v>
       </c>
       <c r="AV14" t="n">
-        <v>6505.2</v>
+        <v>5741.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>6455.2</v>
+        <v>5721.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>6415.2</v>
+        <v>5731.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>6375.2</v>
+        <v>5751.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6345.9</v>
+        <v>5862.9</v>
       </c>
       <c r="BA14" t="n">
-        <v>6305.9</v>
+        <v>5892.9</v>
       </c>
       <c r="BB14" t="n">
-        <v>6265.9</v>
+        <v>5922.9</v>
       </c>
       <c r="BC14" t="n">
-        <v>6235.9</v>
+        <v>5942.9</v>
       </c>
       <c r="BD14" t="n">
-        <v>5740.6</v>
+        <v>5720.7</v>
       </c>
       <c r="BE14" t="n">
-        <v>5720.6</v>
+        <v>5740.7</v>
       </c>
       <c r="BF14" t="n">
-        <v>5710.6</v>
+        <v>5770.7</v>
       </c>
       <c r="BG14" t="n">
-        <v>5700.6</v>
+        <v>5790.7</v>
       </c>
       <c r="BH14" t="n">
-        <v>5619.1</v>
+        <v>5713.7</v>
       </c>
       <c r="BI14" t="n">
-        <v>5619.1</v>
+        <v>5733.7</v>
       </c>
       <c r="BJ14" t="n">
-        <v>5629.1</v>
+        <v>5753.7</v>
       </c>
       <c r="BK14" t="n">
-        <v>5629.1</v>
+        <v>5763.7</v>
       </c>
       <c r="BL14" t="n">
-        <v>5386.6</v>
+        <v>5547.5</v>
       </c>
       <c r="BM14" t="n">
-        <v>5386.6</v>
+        <v>5547.5</v>
       </c>
       <c r="BN14" t="n">
-        <v>5386.6</v>
+        <v>5547.5</v>
       </c>
       <c r="BO14" t="n">
-        <v>5396.6</v>
+        <v>5547.5</v>
       </c>
       <c r="BP14" t="n">
-        <v>6078.6</v>
+        <v>5422.9</v>
       </c>
       <c r="BQ14" t="n">
-        <v>6108.6</v>
+        <v>5442.9</v>
       </c>
       <c r="BR14" t="n">
-        <v>6148.6</v>
+        <v>5472.9</v>
       </c>
       <c r="BS14" t="n">
-        <v>6188.6</v>
+        <v>5492.9</v>
       </c>
       <c r="BT14" t="n">
-        <v>6391.2</v>
+        <v>5397.5</v>
       </c>
       <c r="BU14" t="n">
-        <v>6451.2</v>
+        <v>5427.5</v>
       </c>
       <c r="BV14" t="n">
-        <v>6501.2</v>
+        <v>5477.5</v>
       </c>
       <c r="BW14" t="n">
-        <v>6561.2</v>
+        <v>5537.5</v>
       </c>
       <c r="BX14" t="n">
-        <v>6001.4</v>
+        <v>5330.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>6081.4</v>
+        <v>5400.8</v>
       </c>
       <c r="BZ14" t="n">
-        <v>6171.4</v>
+        <v>5490.8</v>
       </c>
       <c r="CA14" t="n">
-        <v>6291.4</v>
+        <v>5610.8</v>
       </c>
       <c r="CB14" t="n">
-        <v>6233.7</v>
+        <v>5477.5</v>
       </c>
       <c r="CC14" t="n">
-        <v>6383.7</v>
+        <v>5627.5</v>
       </c>
       <c r="CD14" t="n">
-        <v>6513.7</v>
+        <v>5767.5</v>
       </c>
       <c r="CE14" t="n">
-        <v>6613.7</v>
+        <v>5887.5</v>
       </c>
       <c r="CF14" t="n">
-        <v>6439</v>
+        <v>5665.1</v>
       </c>
       <c r="CG14" t="n">
-        <v>6499</v>
+        <v>5755.1</v>
       </c>
       <c r="CH14" t="n">
-        <v>6509</v>
+        <v>5775.1</v>
       </c>
       <c r="CI14" t="n">
-        <v>6489</v>
+        <v>5765.1</v>
       </c>
       <c r="CJ14" t="n">
-        <v>5824.4</v>
+        <v>5851</v>
       </c>
       <c r="CK14" t="n">
-        <v>5684.4</v>
+        <v>5741</v>
       </c>
       <c r="CL14" t="n">
-        <v>5594.4</v>
+        <v>5631</v>
       </c>
       <c r="CM14" t="n">
-        <v>5474.4</v>
+        <v>5501</v>
       </c>
       <c r="CN14" t="n">
-        <v>5375</v>
+        <v>5887.8</v>
       </c>
       <c r="CO14" t="n">
-        <v>5255</v>
+        <v>5727.8</v>
       </c>
       <c r="CP14" t="n">
-        <v>5075</v>
+        <v>5547.8</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4905</v>
+        <v>5367.8</v>
       </c>
       <c r="CR14" t="n">
-        <v>4988.8</v>
+        <v>5670.9</v>
       </c>
       <c r="CS14" t="n">
-        <v>4788.8</v>
+        <v>5480.9</v>
       </c>
       <c r="CT14" t="n">
-        <v>4708.8</v>
+        <v>5380.9</v>
       </c>
       <c r="CU14" t="n">
-        <v>4598.8</v>
+        <v>5270.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" s="2" t="n">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="D15" t="n">
-        <v>5535</v>
+        <v>5748.5</v>
       </c>
       <c r="E15" t="n">
-        <v>5375</v>
+        <v>5688.5</v>
       </c>
       <c r="F15" t="n">
-        <v>5325</v>
+        <v>5628.5</v>
       </c>
       <c r="G15" t="n">
-        <v>5275</v>
+        <v>5568.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4284</v>
+        <v>5428.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4264</v>
+        <v>5368.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4244</v>
+        <v>5328.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4214</v>
+        <v>5288.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4649.3</v>
+        <v>5450</v>
       </c>
       <c r="M15" t="n">
-        <v>4619.3</v>
+        <v>5420</v>
       </c>
       <c r="N15" t="n">
-        <v>4609.3</v>
+        <v>5410</v>
       </c>
       <c r="O15" t="n">
-        <v>4599.3</v>
+        <v>5400</v>
       </c>
       <c r="P15" t="n">
-        <v>4934.1</v>
+        <v>5268.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>4954.1</v>
+        <v>5268.9</v>
       </c>
       <c r="R15" t="n">
-        <v>4964.1</v>
+        <v>5278.9</v>
       </c>
       <c r="S15" t="n">
-        <v>4984.1</v>
+        <v>5288.9</v>
       </c>
       <c r="T15" t="n">
-        <v>5066.7</v>
+        <v>5047.5</v>
       </c>
       <c r="U15" t="n">
-        <v>5076.7</v>
+        <v>5057.5</v>
       </c>
       <c r="V15" t="n">
-        <v>5086.7</v>
+        <v>5067.5</v>
       </c>
       <c r="W15" t="n">
-        <v>5096.7</v>
+        <v>5107.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5064.1</v>
+        <v>5191</v>
       </c>
       <c r="Y15" t="n">
-        <v>5104.1</v>
+        <v>5261</v>
       </c>
       <c r="Z15" t="n">
-        <v>5164.1</v>
+        <v>5341</v>
       </c>
       <c r="AA15" t="n">
-        <v>5244.1</v>
+        <v>5451</v>
       </c>
       <c r="AB15" t="n">
-        <v>4934.9</v>
+        <v>5037.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>5054.9</v>
+        <v>5187.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>5194.9</v>
+        <v>5337.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>5354.9</v>
+        <v>5497.3</v>
       </c>
       <c r="AF15" t="n">
-        <v>5911.7</v>
+        <v>5357.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>6071.7</v>
+        <v>5527.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>6211.7</v>
+        <v>5637.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>6331.7</v>
+        <v>5717.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6327.3</v>
+        <v>5643.9</v>
       </c>
       <c r="AK15" t="n">
-        <v>6387.3</v>
+        <v>5653.9</v>
       </c>
       <c r="AL15" t="n">
-        <v>6427.3</v>
+        <v>5643.9</v>
       </c>
       <c r="AM15" t="n">
-        <v>6427.3</v>
+        <v>5593.9</v>
       </c>
       <c r="AN15" t="n">
-        <v>6686.3</v>
+        <v>6056.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>6636.3</v>
+        <v>5946.4</v>
       </c>
       <c r="AP15" t="n">
-        <v>6576.3</v>
+        <v>5836.4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6506.3</v>
+        <v>5706.4</v>
       </c>
       <c r="AR15" t="n">
-        <v>6061.3</v>
+        <v>5756.3</v>
       </c>
       <c r="AS15" t="n">
-        <v>5991.3</v>
+        <v>5626.3</v>
       </c>
       <c r="AT15" t="n">
-        <v>5921.3</v>
+        <v>5506.3</v>
       </c>
       <c r="AU15" t="n">
-        <v>5871.3</v>
+        <v>5396.3</v>
       </c>
       <c r="AV15" t="n">
-        <v>6055.2</v>
+        <v>5880.4</v>
       </c>
       <c r="AW15" t="n">
-        <v>6015.2</v>
+        <v>5800.4</v>
       </c>
       <c r="AX15" t="n">
-        <v>5975.2</v>
+        <v>5750.4</v>
       </c>
       <c r="AY15" t="n">
-        <v>5945.2</v>
+        <v>5700.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5925.9</v>
+        <v>5632.3</v>
       </c>
       <c r="BA15" t="n">
-        <v>5895.9</v>
+        <v>5612.3</v>
       </c>
       <c r="BB15" t="n">
-        <v>5865.9</v>
+        <v>5592.3</v>
       </c>
       <c r="BC15" t="n">
-        <v>5835.9</v>
+        <v>5592.3</v>
       </c>
       <c r="BD15" t="n">
-        <v>5340.6</v>
+        <v>5466.4</v>
       </c>
       <c r="BE15" t="n">
-        <v>5310.6</v>
+        <v>5476.4</v>
       </c>
       <c r="BF15" t="n">
-        <v>5300.6</v>
+        <v>5496.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>5290.6</v>
+        <v>5506.4</v>
       </c>
       <c r="BH15" t="n">
-        <v>5189.1</v>
+        <v>5475.6</v>
       </c>
       <c r="BI15" t="n">
-        <v>5189.1</v>
+        <v>5475.6</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5189.1</v>
+        <v>5485.6</v>
       </c>
       <c r="BK15" t="n">
-        <v>5189.1</v>
+        <v>5505.6</v>
       </c>
       <c r="BL15" t="n">
-        <v>4926.6</v>
+        <v>5482.7</v>
       </c>
       <c r="BM15" t="n">
-        <v>4926.6</v>
+        <v>5512.7</v>
       </c>
       <c r="BN15" t="n">
-        <v>4926.6</v>
+        <v>5532.7</v>
       </c>
       <c r="BO15" t="n">
-        <v>4926.6</v>
+        <v>5562.7</v>
       </c>
       <c r="BP15" t="n">
-        <v>5598.6</v>
+        <v>5270.8</v>
       </c>
       <c r="BQ15" t="n">
-        <v>5618.6</v>
+        <v>5320.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>5658.6</v>
+        <v>5380.8</v>
       </c>
       <c r="BS15" t="n">
-        <v>5698.6</v>
+        <v>5430.8</v>
       </c>
       <c r="BT15" t="n">
-        <v>5921.2</v>
+        <v>5174.2</v>
       </c>
       <c r="BU15" t="n">
-        <v>5991.2</v>
+        <v>5264.2</v>
       </c>
       <c r="BV15" t="n">
-        <v>6071.2</v>
+        <v>5354.2</v>
       </c>
       <c r="BW15" t="n">
-        <v>6161.2</v>
+        <v>5444.2</v>
       </c>
       <c r="BX15" t="n">
-        <v>5641.4</v>
+        <v>5372.6</v>
       </c>
       <c r="BY15" t="n">
-        <v>5751.4</v>
+        <v>5482.6</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5881.4</v>
+        <v>5592.6</v>
       </c>
       <c r="CA15" t="n">
-        <v>6021.4</v>
+        <v>5722.6</v>
       </c>
       <c r="CB15" t="n">
-        <v>5973.7</v>
+        <v>5359.2</v>
       </c>
       <c r="CC15" t="n">
-        <v>6113.7</v>
+        <v>5499.2</v>
       </c>
       <c r="CD15" t="n">
-        <v>6233.7</v>
+        <v>5619.2</v>
       </c>
       <c r="CE15" t="n">
-        <v>6333.7</v>
+        <v>5739.2</v>
       </c>
       <c r="CF15" t="n">
-        <v>6149</v>
+        <v>5388.3</v>
       </c>
       <c r="CG15" t="n">
-        <v>6219</v>
+        <v>5488.3</v>
       </c>
       <c r="CH15" t="n">
-        <v>6249</v>
+        <v>5498.3</v>
       </c>
       <c r="CI15" t="n">
-        <v>6269</v>
+        <v>5488.3</v>
       </c>
       <c r="CJ15" t="n">
-        <v>5654.4</v>
+        <v>5551.2</v>
       </c>
       <c r="CK15" t="n">
-        <v>5554.4</v>
+        <v>5441.2</v>
       </c>
       <c r="CL15" t="n">
-        <v>5484.4</v>
+        <v>5341.2</v>
       </c>
       <c r="CM15" t="n">
-        <v>5364.4</v>
+        <v>5191.2</v>
       </c>
       <c r="CN15" t="n">
-        <v>5255</v>
+        <v>5412</v>
       </c>
       <c r="CO15" t="n">
-        <v>5125</v>
+        <v>5262</v>
       </c>
       <c r="CP15" t="n">
-        <v>4955</v>
+        <v>5072</v>
       </c>
       <c r="CQ15" t="n">
-        <v>4795</v>
+        <v>4902</v>
       </c>
       <c r="CR15" t="n">
-        <v>4868.8</v>
+        <v>5070.4</v>
       </c>
       <c r="CS15" t="n">
-        <v>4668.8</v>
+        <v>4900.4</v>
       </c>
       <c r="CT15" t="n">
-        <v>4588.8</v>
+        <v>4790.4</v>
       </c>
       <c r="CU15" t="n">
-        <v>4478.8</v>
+        <v>4680.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="n">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>45757</v>
       </c>
       <c r="D16" t="n">
-        <v>5585</v>
+        <v>4958.9</v>
       </c>
       <c r="E16" t="n">
-        <v>5425</v>
+        <v>4898.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5375</v>
+        <v>4838.9</v>
       </c>
       <c r="G16" t="n">
-        <v>5325</v>
+        <v>4778.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4334</v>
+        <v>2834.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4314</v>
+        <v>2774.9</v>
       </c>
       <c r="J16" t="n">
-        <v>4294</v>
+        <v>2724.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4264</v>
+        <v>2674.9</v>
       </c>
       <c r="L16" t="n">
-        <v>4699.3</v>
+        <v>2553.3</v>
       </c>
       <c r="M16" t="n">
-        <v>4669.3</v>
+        <v>2513.3</v>
       </c>
       <c r="N16" t="n">
-        <v>4659.3</v>
+        <v>2493.3</v>
       </c>
       <c r="O16" t="n">
-        <v>4649.3</v>
+        <v>2493.3</v>
       </c>
       <c r="P16" t="n">
-        <v>4984.1</v>
+        <v>2730.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>5004.1</v>
+        <v>2730.7</v>
       </c>
       <c r="R16" t="n">
-        <v>5014.1</v>
+        <v>2730.7</v>
       </c>
       <c r="S16" t="n">
-        <v>5034.1</v>
+        <v>2750.7</v>
       </c>
       <c r="T16" t="n">
-        <v>5116.7</v>
+        <v>2731.8</v>
       </c>
       <c r="U16" t="n">
-        <v>5126.7</v>
+        <v>2751.8</v>
       </c>
       <c r="V16" t="n">
-        <v>5136.7</v>
+        <v>2781.8</v>
       </c>
       <c r="W16" t="n">
-        <v>5146.7</v>
+        <v>2831.8</v>
       </c>
       <c r="X16" t="n">
-        <v>5114.1</v>
+        <v>2813.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5154.1</v>
+        <v>2903.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>5214.1</v>
+        <v>3003.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>5294.1</v>
+        <v>3143.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>4984.9</v>
+        <v>3118.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>5104.9</v>
+        <v>3278.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5244.9</v>
+        <v>3448.1</v>
       </c>
       <c r="AE16" t="n">
-        <v>5404.9</v>
+        <v>3608.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>5961.7</v>
+        <v>4319.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>6121.7</v>
+        <v>4459.2</v>
       </c>
       <c r="AH16" t="n">
-        <v>6261.7</v>
+        <v>4569.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>6381.7</v>
+        <v>4649.2</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6377.3</v>
+        <v>6077.3</v>
       </c>
       <c r="AK16" t="n">
-        <v>6437.3</v>
+        <v>6107.3</v>
       </c>
       <c r="AL16" t="n">
-        <v>6477.3</v>
+        <v>6097.3</v>
       </c>
       <c r="AM16" t="n">
-        <v>6477.3</v>
+        <v>6067.3</v>
       </c>
       <c r="AN16" t="n">
-        <v>6736.3</v>
+        <v>7298.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>6686.3</v>
+        <v>7228.2</v>
       </c>
       <c r="AP16" t="n">
-        <v>6626.3</v>
+        <v>7138.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6556.3</v>
+        <v>7048.2</v>
       </c>
       <c r="AR16" t="n">
-        <v>6111.3</v>
+        <v>7525.4</v>
       </c>
       <c r="AS16" t="n">
-        <v>6041.3</v>
+        <v>7435.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>5971.3</v>
+        <v>7345.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>5921.3</v>
+        <v>7275.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>6105.2</v>
+        <v>8090.8</v>
       </c>
       <c r="AW16" t="n">
-        <v>6065.2</v>
+        <v>8030.8</v>
       </c>
       <c r="AX16" t="n">
-        <v>6025.2</v>
+        <v>7990.8</v>
       </c>
       <c r="AY16" t="n">
-        <v>5995.2</v>
+        <v>7960.8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5975.9</v>
+        <v>7783.2</v>
       </c>
       <c r="BA16" t="n">
-        <v>5945.9</v>
+        <v>7763.2</v>
       </c>
       <c r="BB16" t="n">
-        <v>5915.9</v>
+        <v>7763.2</v>
       </c>
       <c r="BC16" t="n">
-        <v>5885.9</v>
+        <v>7763.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>5390.6</v>
+        <v>7352</v>
       </c>
       <c r="BE16" t="n">
-        <v>5360.6</v>
+        <v>7382</v>
       </c>
       <c r="BF16" t="n">
-        <v>5350.6</v>
+        <v>7382</v>
       </c>
       <c r="BG16" t="n">
-        <v>5340.6</v>
+        <v>7382</v>
       </c>
       <c r="BH16" t="n">
-        <v>5239.1</v>
+        <v>5908.3</v>
       </c>
       <c r="BI16" t="n">
-        <v>5239.1</v>
+        <v>5898.3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>5239.1</v>
+        <v>5898.3</v>
       </c>
       <c r="BK16" t="n">
-        <v>5239.1</v>
+        <v>5908.3</v>
       </c>
       <c r="BL16" t="n">
-        <v>4976.6</v>
+        <v>5072</v>
       </c>
       <c r="BM16" t="n">
-        <v>4976.6</v>
+        <v>5082</v>
       </c>
       <c r="BN16" t="n">
-        <v>4976.6</v>
+        <v>5092</v>
       </c>
       <c r="BO16" t="n">
-        <v>4976.6</v>
+        <v>5102</v>
       </c>
       <c r="BP16" t="n">
-        <v>5648.6</v>
+        <v>5202.1</v>
       </c>
       <c r="BQ16" t="n">
-        <v>5668.6</v>
+        <v>5232.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>5708.6</v>
+        <v>5262.1</v>
       </c>
       <c r="BS16" t="n">
-        <v>5748.6</v>
+        <v>5302.1</v>
       </c>
       <c r="BT16" t="n">
-        <v>5971.2</v>
+        <v>5811</v>
       </c>
       <c r="BU16" t="n">
-        <v>6041.2</v>
+        <v>5861</v>
       </c>
       <c r="BV16" t="n">
-        <v>6121.2</v>
+        <v>5931</v>
       </c>
       <c r="BW16" t="n">
-        <v>6211.2</v>
+        <v>5991</v>
       </c>
       <c r="BX16" t="n">
-        <v>5691.4</v>
+        <v>5758.3</v>
       </c>
       <c r="BY16" t="n">
-        <v>5801.4</v>
+        <v>5848.3</v>
       </c>
       <c r="BZ16" t="n">
-        <v>5931.4</v>
+        <v>5948.3</v>
       </c>
       <c r="CA16" t="n">
-        <v>6071.4</v>
+        <v>6068.3</v>
       </c>
       <c r="CB16" t="n">
-        <v>6023.7</v>
+        <v>5912.8</v>
       </c>
       <c r="CC16" t="n">
-        <v>6163.7</v>
+        <v>6062.8</v>
       </c>
       <c r="CD16" t="n">
-        <v>6283.7</v>
+        <v>6202.8</v>
       </c>
       <c r="CE16" t="n">
-        <v>6383.7</v>
+        <v>6322.8</v>
       </c>
       <c r="CF16" t="n">
-        <v>6199</v>
+        <v>6583.3</v>
       </c>
       <c r="CG16" t="n">
-        <v>6269</v>
+        <v>6673.3</v>
       </c>
       <c r="CH16" t="n">
-        <v>6299</v>
+        <v>6713.3</v>
       </c>
       <c r="CI16" t="n">
-        <v>6319</v>
+        <v>6723.3</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5704.4</v>
+        <v>6591.8</v>
       </c>
       <c r="CK16" t="n">
-        <v>5604.4</v>
+        <v>6461.8</v>
       </c>
       <c r="CL16" t="n">
-        <v>5534.4</v>
+        <v>6361.8</v>
       </c>
       <c r="CM16" t="n">
-        <v>5414.4</v>
+        <v>6211.8</v>
       </c>
       <c r="CN16" t="n">
-        <v>5305</v>
+        <v>5590.5</v>
       </c>
       <c r="CO16" t="n">
-        <v>5175</v>
+        <v>5440.5</v>
       </c>
       <c r="CP16" t="n">
-        <v>5005</v>
+        <v>5250.5</v>
       </c>
       <c r="CQ16" t="n">
-        <v>4845</v>
+        <v>5090.5</v>
       </c>
       <c r="CR16" t="n">
-        <v>4918.8</v>
+        <v>5122.7</v>
       </c>
       <c r="CS16" t="n">
-        <v>4718.8</v>
+        <v>4962.7</v>
       </c>
       <c r="CT16" t="n">
-        <v>4638.8</v>
+        <v>4852.7</v>
       </c>
       <c r="CU16" t="n">
-        <v>4528.8</v>
+        <v>4742.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="n">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>45758</v>
       </c>
       <c r="D17" t="n">
-        <v>5485</v>
+        <v>4814.2</v>
       </c>
       <c r="E17" t="n">
-        <v>5325</v>
+        <v>4754.2</v>
       </c>
       <c r="F17" t="n">
-        <v>5275</v>
+        <v>4704.2</v>
       </c>
       <c r="G17" t="n">
-        <v>5225</v>
+        <v>4654.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4234</v>
+        <v>5571</v>
       </c>
       <c r="I17" t="n">
-        <v>4214</v>
+        <v>5521</v>
       </c>
       <c r="J17" t="n">
-        <v>4194</v>
+        <v>5471</v>
       </c>
       <c r="K17" t="n">
-        <v>4164</v>
+        <v>5441</v>
       </c>
       <c r="L17" t="n">
-        <v>4599.3</v>
+        <v>5404</v>
       </c>
       <c r="M17" t="n">
-        <v>4569.3</v>
+        <v>5374</v>
       </c>
       <c r="N17" t="n">
-        <v>4559.3</v>
+        <v>5354</v>
       </c>
       <c r="O17" t="n">
-        <v>4549.3</v>
+        <v>5344</v>
       </c>
       <c r="P17" t="n">
-        <v>4884.1</v>
+        <v>5335</v>
       </c>
       <c r="Q17" t="n">
-        <v>4904.1</v>
+        <v>5345</v>
       </c>
       <c r="R17" t="n">
-        <v>4914.1</v>
+        <v>5355</v>
       </c>
       <c r="S17" t="n">
-        <v>4934.1</v>
+        <v>5365</v>
       </c>
       <c r="T17" t="n">
-        <v>5016.7</v>
+        <v>5359</v>
       </c>
       <c r="U17" t="n">
-        <v>5026.7</v>
+        <v>5379</v>
       </c>
       <c r="V17" t="n">
-        <v>5036.7</v>
+        <v>5399</v>
       </c>
       <c r="W17" t="n">
-        <v>5046.7</v>
+        <v>5429</v>
       </c>
       <c r="X17" t="n">
-        <v>5014.1</v>
+        <v>5495</v>
       </c>
       <c r="Y17" t="n">
-        <v>5054.1</v>
+        <v>5555</v>
       </c>
       <c r="Z17" t="n">
-        <v>5114.1</v>
+        <v>5645</v>
       </c>
       <c r="AA17" t="n">
-        <v>5194.1</v>
+        <v>5755</v>
       </c>
       <c r="AB17" t="n">
-        <v>4884.9</v>
+        <v>5956</v>
       </c>
       <c r="AC17" t="n">
-        <v>5004.9</v>
+        <v>6096</v>
       </c>
       <c r="AD17" t="n">
-        <v>5144.9</v>
+        <v>6246</v>
       </c>
       <c r="AE17" t="n">
-        <v>5304.9</v>
+        <v>6406</v>
       </c>
       <c r="AF17" t="n">
-        <v>5861.7</v>
+        <v>6528</v>
       </c>
       <c r="AG17" t="n">
-        <v>6021.7</v>
+        <v>6678</v>
       </c>
       <c r="AH17" t="n">
-        <v>6161.7</v>
+        <v>6798</v>
       </c>
       <c r="AI17" t="n">
-        <v>6281.7</v>
+        <v>6898</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6277.3</v>
+        <v>7000</v>
       </c>
       <c r="AK17" t="n">
-        <v>6337.3</v>
+        <v>7040</v>
       </c>
       <c r="AL17" t="n">
-        <v>6377.3</v>
+        <v>7060</v>
       </c>
       <c r="AM17" t="n">
-        <v>6377.3</v>
+        <v>7040</v>
       </c>
       <c r="AN17" t="n">
-        <v>6636.3</v>
+        <v>7107</v>
       </c>
       <c r="AO17" t="n">
-        <v>6586.3</v>
+        <v>7047</v>
       </c>
       <c r="AP17" t="n">
-        <v>6526.3</v>
+        <v>6977</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6456.3</v>
+        <v>6887</v>
       </c>
       <c r="AR17" t="n">
-        <v>6011.3</v>
+        <v>6880</v>
       </c>
       <c r="AS17" t="n">
-        <v>5941.3</v>
+        <v>6800</v>
       </c>
       <c r="AT17" t="n">
-        <v>5871.3</v>
+        <v>6720</v>
       </c>
       <c r="AU17" t="n">
-        <v>5821.3</v>
+        <v>6650</v>
       </c>
       <c r="AV17" t="n">
-        <v>6005.2</v>
+        <v>6662</v>
       </c>
       <c r="AW17" t="n">
-        <v>5965.2</v>
+        <v>6602</v>
       </c>
       <c r="AX17" t="n">
-        <v>5925.2</v>
+        <v>6552</v>
       </c>
       <c r="AY17" t="n">
-        <v>5895.2</v>
+        <v>6502</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5875.9</v>
+        <v>6582</v>
       </c>
       <c r="BA17" t="n">
-        <v>5845.9</v>
+        <v>6532</v>
       </c>
       <c r="BB17" t="n">
-        <v>5815.9</v>
+        <v>6492</v>
       </c>
       <c r="BC17" t="n">
-        <v>5785.9</v>
+        <v>6462</v>
       </c>
       <c r="BD17" t="n">
-        <v>5290.6</v>
+        <v>6470</v>
       </c>
       <c r="BE17" t="n">
-        <v>5260.6</v>
+        <v>6450</v>
       </c>
       <c r="BF17" t="n">
-        <v>5250.6</v>
+        <v>6440</v>
       </c>
       <c r="BG17" t="n">
-        <v>5240.6</v>
+        <v>6430</v>
       </c>
       <c r="BH17" t="n">
-        <v>5139.1</v>
+        <v>6484</v>
       </c>
       <c r="BI17" t="n">
-        <v>5139.1</v>
+        <v>6484</v>
       </c>
       <c r="BJ17" t="n">
-        <v>5139.1</v>
+        <v>6494</v>
       </c>
       <c r="BK17" t="n">
-        <v>5139.1</v>
+        <v>6494</v>
       </c>
       <c r="BL17" t="n">
-        <v>4876.6</v>
+        <v>6431</v>
       </c>
       <c r="BM17" t="n">
-        <v>4876.6</v>
+        <v>6431</v>
       </c>
       <c r="BN17" t="n">
-        <v>4876.6</v>
+        <v>6421</v>
       </c>
       <c r="BO17" t="n">
-        <v>4876.6</v>
+        <v>6421</v>
       </c>
       <c r="BP17" t="n">
-        <v>5548.6</v>
+        <v>6372</v>
       </c>
       <c r="BQ17" t="n">
-        <v>5568.6</v>
+        <v>6402</v>
       </c>
       <c r="BR17" t="n">
-        <v>5608.6</v>
+        <v>6432</v>
       </c>
       <c r="BS17" t="n">
-        <v>5648.6</v>
+        <v>6492</v>
       </c>
       <c r="BT17" t="n">
-        <v>5871.2</v>
+        <v>6476</v>
       </c>
       <c r="BU17" t="n">
-        <v>5941.2</v>
+        <v>6546</v>
       </c>
       <c r="BV17" t="n">
-        <v>6021.2</v>
+        <v>6616</v>
       </c>
       <c r="BW17" t="n">
-        <v>6111.2</v>
+        <v>6686</v>
       </c>
       <c r="BX17" t="n">
-        <v>5591.4</v>
+        <v>6662</v>
       </c>
       <c r="BY17" t="n">
-        <v>5701.4</v>
+        <v>6742</v>
       </c>
       <c r="BZ17" t="n">
-        <v>5831.4</v>
+        <v>6842</v>
       </c>
       <c r="CA17" t="n">
-        <v>5971.4</v>
+        <v>6942</v>
       </c>
       <c r="CB17" t="n">
-        <v>5923.7</v>
+        <v>6869</v>
       </c>
       <c r="CC17" t="n">
-        <v>6063.7</v>
+        <v>6989</v>
       </c>
       <c r="CD17" t="n">
-        <v>6183.7</v>
+        <v>7109</v>
       </c>
       <c r="CE17" t="n">
-        <v>6283.7</v>
+        <v>7219</v>
       </c>
       <c r="CF17" t="n">
-        <v>6099</v>
+        <v>7262</v>
       </c>
       <c r="CG17" t="n">
-        <v>6169</v>
+        <v>7332</v>
       </c>
       <c r="CH17" t="n">
-        <v>6199</v>
+        <v>7362</v>
       </c>
       <c r="CI17" t="n">
-        <v>6219</v>
+        <v>7382</v>
       </c>
       <c r="CJ17" t="n">
-        <v>5604.4</v>
+        <v>7338</v>
       </c>
       <c r="CK17" t="n">
-        <v>5504.4</v>
+        <v>7278</v>
       </c>
       <c r="CL17" t="n">
-        <v>5434.4</v>
+        <v>7158</v>
       </c>
       <c r="CM17" t="n">
-        <v>5314.4</v>
+        <v>7038</v>
       </c>
       <c r="CN17" t="n">
-        <v>5205</v>
+        <v>6825</v>
       </c>
       <c r="CO17" t="n">
-        <v>5075</v>
+        <v>6665</v>
       </c>
       <c r="CP17" t="n">
-        <v>4905</v>
+        <v>6495</v>
       </c>
       <c r="CQ17" t="n">
-        <v>4745</v>
+        <v>6325</v>
       </c>
       <c r="CR17" t="n">
-        <v>4818.8</v>
+        <v>6334</v>
       </c>
       <c r="CS17" t="n">
-        <v>4618.8</v>
+        <v>6184</v>
       </c>
       <c r="CT17" t="n">
-        <v>4538.8</v>
+        <v>6034</v>
       </c>
       <c r="CU17" t="n">
-        <v>4428.8</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C18" s="2" t="n">
         <v>45759</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
-      <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
-      <c r="CJ18" t="inlineStr"/>
-      <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr"/>
-      <c r="CQ18" t="inlineStr"/>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
-      <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>4684.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4624.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4574.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4514.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5411</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5351</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5301</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5251</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5214</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5174</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5154</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5134</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5105</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5095</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5095</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5085</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5069</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5079</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5079</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5099</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5125</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5155</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5185</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5235</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>5346</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5406</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5466</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5526</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>5568</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5628</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>5678</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>5718</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>5780</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>5810</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5780</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5827</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5767</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>5707</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>5647</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>5650</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>5580</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5520</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>5460</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>5482</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5442</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5402</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>5362</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>5462</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>5422</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5392</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>5362</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>5380</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>5350</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5340</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5330</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>5364</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>5364</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>5364</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>5364</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>5311</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>5311</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>5321</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>5331</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>5312</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>5352</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>5402</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>5472</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>5486</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5576</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>5666</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>5766</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>5752</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>5862</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>5982</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>6122</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>6079</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>6249</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>6419</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>6559</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>6652</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>6742</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>6752</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>6742</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>6628</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>6488</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>6408</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>6318</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>6125</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>6015</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>5835</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>5705</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>5754</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>5594</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>5504</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>5394</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C19" s="2" t="n">
         <v>45760</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr"/>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
-      <c r="CF19" t="inlineStr"/>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
-      <c r="CJ19" t="inlineStr"/>
-      <c r="CK19" t="inlineStr"/>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr"/>
-      <c r="CQ19" t="inlineStr"/>
-      <c r="CR19" t="inlineStr"/>
-      <c r="CS19" t="inlineStr"/>
-      <c r="CT19" t="inlineStr"/>
-      <c r="CU19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>5465</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5395</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5355</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5295</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4284</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4234</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4144</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4569.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4539.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4519.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4489.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4814.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4794.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4794.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4784.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4856.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4856.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4856.7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4866.7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4814.1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4814.1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>4814.1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4814.1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4394.9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4394.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>4394.9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4394.9</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4801.7</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4801.7</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>4801.7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4801.7</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4687.3</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4657.3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4617.3</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4567.3</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4786.3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4706.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4616.3</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>4526.3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>4061.3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3971.3</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3891.3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3811.3</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>3965.2</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3905.2</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3845.2</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>3795.2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3755.9</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>3705.9</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>3665.9</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>3635.9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>3140.6</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3120.6</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3110.6</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3100.6</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3019.1</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>3019.1</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>3029.1</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>3049.1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2806.6</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2816.6</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2836.6</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2876.6</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>3588.6</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>3658.6</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>3748.6</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3848.6</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>4121.2</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4241.2</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4371.2</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>4511.2</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>4031.4</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>4191.4</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>4381.4</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>4581.4</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>4613.7</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>4833.7</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>5043.7</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>5203.7</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>5069</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>5149</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>5159</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>5159</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>4524.4</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>4414.4</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>4364.4</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>4304.4</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>4255</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>4185</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>4035</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>3905</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>4038.8</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>3908.8</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>3798.8</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>3698.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C20" s="2" t="n">
         <v>45761</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
-      <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="inlineStr"/>
-      <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="inlineStr"/>
-      <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr"/>
-      <c r="BX20" t="inlineStr"/>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
-      <c r="CC20" t="inlineStr"/>
-      <c r="CD20" t="inlineStr"/>
-      <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
-      <c r="CJ20" t="inlineStr"/>
-      <c r="CK20" t="inlineStr"/>
-      <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
-      <c r="CP20" t="inlineStr"/>
-      <c r="CQ20" t="inlineStr"/>
-      <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr"/>
-      <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5175</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5115</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4104</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4064</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3994</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4439.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4409.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4389.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4379.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4704.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4684.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4684.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4704.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4806.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4826.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4866.7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4926.7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4944.1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5034.1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5144.1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5274.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>5024.9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5194.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5374.9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5564.9</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>6151.7</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>6311.7</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6451.7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6561.7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>6537.3</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>6607.3</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6577.3</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>6517.3</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6726.3</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6636.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>6526.3</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>6406.3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>5921.3</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>5821.3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5721.3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>5631.3</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>5785.2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5715.2</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5645.2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>5585.2</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>5535.9</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>5475.9</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5435.9</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>5395.9</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>4900.6</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>4880.6</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>4870.6</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>4880.6</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4799.1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>4809.1</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>4819.1</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>4829.1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>4576.6</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>4576.6</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>4576.6</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4586.6</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>5278.6</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>5308.6</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>5368.6</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>5448.6</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>5681.2</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5771.2</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>5861.2</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>5951.2</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>5411.4</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>5511.4</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>5621.4</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>5751.4</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>5703.7</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>5863.7</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>6033.7</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>6173.7</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>6029</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>6129</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>6159</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>6159</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>5514.4</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>5384.4</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>5284.4</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>5174.4</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>5075</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>4955</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>4765</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>4605</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>4688.8</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>4478.8</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>4408.8</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>4298.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C21" s="2" t="n">
         <v>45762</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr"/>
-      <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
-      <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="inlineStr"/>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
-      <c r="BX21" t="inlineStr"/>
-      <c r="BY21" t="inlineStr"/>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
-      <c r="CF21" t="inlineStr"/>
-      <c r="CG21" t="inlineStr"/>
-      <c r="CH21" t="inlineStr"/>
-      <c r="CI21" t="inlineStr"/>
-      <c r="CJ21" t="inlineStr"/>
-      <c r="CK21" t="inlineStr"/>
-      <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
-      <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
-      <c r="CP21" t="inlineStr"/>
-      <c r="CQ21" t="inlineStr"/>
-      <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="inlineStr"/>
-      <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5645</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5595</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5525</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4514</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4464</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4424</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4384</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4819.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4789.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4779.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4769.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5084.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5084.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5094.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5104.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5186.7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5196.7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5216.7</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5256.7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5244.1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5304.1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>5384.1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5484.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>5194.9</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5334.9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>5474.9</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5624.9</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>6171.7</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>6311.7</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6431.7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6571.7</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>6577.3</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6607.3</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>6587.3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>6557.3</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6776.3</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6696.3</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>6606.3</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>6496.3</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>6021.3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5911.3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5811.3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>5721.3</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>5875.2</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5815.2</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5755.2</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>5695.2</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>5665.9</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>5615.9</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>5575.9</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>5545.9</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>5050.6</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>5030.6</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5010.6</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>5010.6</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4919.1</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>4929.1</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>4939.1</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4949.1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>4696.6</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>4696.6</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>4696.6</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>4706.6</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>5388.6</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>5418.6</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>5458.6</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>5518.6</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>5751.2</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5831.2</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>5911.2</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>5991.2</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>5451.4</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>5531.4</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>5631.4</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>5751.4</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>5693.7</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>5843.7</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>5993.7</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>6133.7</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>5989</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>6089</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>6109</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>6109</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>5454.4</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>5314.4</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>5214.4</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>5094.4</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>4985</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>4855</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>4665</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>4505</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>4588.8</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>4378.8</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>4308.8</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>4198.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C22" s="2" t="n">
         <v>45763</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr"/>
-      <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="inlineStr"/>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
-      <c r="CF22" t="inlineStr"/>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
-      <c r="CJ22" t="inlineStr"/>
-      <c r="CK22" t="inlineStr"/>
-      <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr"/>
-      <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
-      <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>5545</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5495</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5445</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5375</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4364</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4314</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4274</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4234</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4669.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4639.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4629.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4619.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4944.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4944.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4954.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4954.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5036.7</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5046.7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5066.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5106.7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5094.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5154.1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5234.1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5334.1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5044.9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5184.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5324.9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5474.9</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6021.7</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>6161.7</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6281.7</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6381.7</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>6367.3</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>6407.3</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>6407.3</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>6387.3</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6626.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6546.3</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>6456.3</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>6346.3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>5871.3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>5761.3</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>5661.3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>5571.3</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>5725.2</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5665.2</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5605.2</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>5545.2</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>5515.9</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>5465.9</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5425.9</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>5395.9</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>4900.6</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4880.6</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4860.6</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>4860.6</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4769.1</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>4779.1</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>4789.1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>4799.1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>4546.6</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>4546.6</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>4546.6</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>4556.6</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>5238.6</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>5268.6</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>5308.6</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>5368.6</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>5601.2</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>5681.2</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>5761.2</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>5841.2</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>5301.4</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>5381.4</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>5481.4</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>5601.4</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>5543.7</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>5693.7</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>5843.7</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>5983.7</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>5839</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>5939</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>5969</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>5959</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>5304.4</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>5164.4</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>5064.4</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>4944.4</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>4835</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>4705</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>4515</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>4355</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>4438.8</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>4228.8</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>4158.8</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>4048.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C23" s="2" t="n">
         <v>45764</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr"/>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
-      <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr"/>
-      <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
-      <c r="BX23" t="inlineStr"/>
-      <c r="BY23" t="inlineStr"/>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
-      <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
-      <c r="CF23" t="inlineStr"/>
-      <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="inlineStr"/>
-      <c r="CI23" t="inlineStr"/>
-      <c r="CJ23" t="inlineStr"/>
-      <c r="CK23" t="inlineStr"/>
-      <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
-      <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr"/>
-      <c r="CQ23" t="inlineStr"/>
-      <c r="CR23" t="inlineStr"/>
-      <c r="CS23" t="inlineStr"/>
-      <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>5375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5335</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5265</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5205</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4214</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4174</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4134</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4084</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4499.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4459.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4429.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4419.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4754.1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4754.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4764.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4764.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4836.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4846.7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4876.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4916.7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4934.1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5024.1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5144.1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5274.1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>5004.9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>5154.9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>5294.9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5424.9</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>5931.7</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>6021.7</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6071.7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>6101.7</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6017.3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5997.3</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>5947.3</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>5887.3</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6096.3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>5996.3</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>5886.3</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>5776.3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>5301.3</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>5181.3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>5071.3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>4971.3</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>5105.2</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5025.2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4955.2</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>4895.2</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4845.9</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>4805.9</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4765.9</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4735.9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>4240.6</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4220.6</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4210.6</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>4210.6</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4119.1</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>4119.1</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>4129.1</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4129.1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>3876.6</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>3886.6</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>3886.6</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>3896.6</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>4588.6</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>4608.6</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>4648.6</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>4708.6</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>4921.2</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4991.2</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>5051.2</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>5121.2</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>4581.4</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>4661.4</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>4771.4</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>4911.4</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>4873.7</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>5063.7</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>5243.7</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>5403.7</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>5289</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>5419</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>5479</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>5519</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>4904.4</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>4804.4</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>4724.4</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>4604.4</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>4485</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>4345</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>4165</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>4015</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>4088.8</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>3888.8</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>3808.8</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>3698.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" s="2" t="n">
+        <v>45757</v>
+      </c>
       <c r="C24" s="2" t="n">
         <v>45765</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
-      <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr"/>
-      <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="inlineStr"/>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
-      <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="inlineStr"/>
-      <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr"/>
-      <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr"/>
-      <c r="CE24" t="inlineStr"/>
-      <c r="CF24" t="inlineStr"/>
-      <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="inlineStr"/>
-      <c r="CI24" t="inlineStr"/>
-      <c r="CJ24" t="inlineStr"/>
-      <c r="CK24" t="inlineStr"/>
-      <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
-      <c r="CP24" t="inlineStr"/>
-      <c r="CQ24" t="inlineStr"/>
-      <c r="CR24" t="inlineStr"/>
-      <c r="CS24" t="inlineStr"/>
-      <c r="CT24" t="inlineStr"/>
-      <c r="CU24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>4985</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4925</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4875</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4805</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3784</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3714</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3664</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3624</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4049.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4019.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3989.3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3969.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4274.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4254.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4234.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4214.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4276.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4266.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4256.7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4266.7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4224.1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4254.1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>4294.1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4334.1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3984.9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4044.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>4104.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>4174.9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4631.7</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>4681.7</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4721.7</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4731.7</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>4637.3</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>4607.3</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>4557.3</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>4477.3</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4676.3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>4576.3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>4456.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>4346.3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3871.3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3771.3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3691.3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>3621.3</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3795.2</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3745.2</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3705.2</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>3665.2</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>3645.9</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3605.9</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3575.9</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>3535.9</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>3040.6</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3020.6</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2909.1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>2919.1</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2939.1</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2949.1</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2706.6</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2726.6</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>2736.6</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2756.6</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>3458.6</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>3508.6</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>3578.6</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>3668.6</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>3911.2</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4011.2</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>4101.2</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>4191.2</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>3671.4</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>3771.4</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>3901.4</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>4071.4</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>4083.7</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>4323.7</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>4563.7</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>4793.7</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>4739</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>4899</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>4989</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>5039</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>4444.4</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>4354.4</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>4304.4</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>4234.4</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>4175</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>4085</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>3935</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>3775</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>3858.8</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>3698.8</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>3608.8</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>3498.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1842,2505 +1842,3863 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" s="2" t="n">
-        <v>45771</v>
+        <v>45777</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="D7" t="n">
-        <v>5914.2</v>
+        <v>4039.1</v>
       </c>
       <c r="E7" t="n">
-        <v>5854.2</v>
+        <v>3969.1</v>
       </c>
       <c r="F7" t="n">
-        <v>5804.2</v>
+        <v>3899.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5744.2</v>
+        <v>3839.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4846.8</v>
+        <v>3773.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4786.8</v>
+        <v>3723.3</v>
       </c>
       <c r="J7" t="n">
-        <v>4736.8</v>
+        <v>3673.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4686.8</v>
+        <v>3633.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4218.8</v>
+        <v>3684.2</v>
       </c>
       <c r="M7" t="n">
-        <v>4188.8</v>
+        <v>3644.2</v>
       </c>
       <c r="N7" t="n">
-        <v>4148.8</v>
+        <v>3614.2</v>
       </c>
       <c r="O7" t="n">
-        <v>4128.8</v>
+        <v>3594.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4217.1</v>
+        <v>3666.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4197.1</v>
+        <v>3656.3</v>
       </c>
       <c r="R7" t="n">
-        <v>4187.1</v>
+        <v>3646.3</v>
       </c>
       <c r="S7" t="n">
-        <v>4187.1</v>
+        <v>3636.3</v>
       </c>
       <c r="T7" t="n">
-        <v>4111.4</v>
+        <v>3639.4</v>
       </c>
       <c r="U7" t="n">
-        <v>4111.4</v>
+        <v>3639.4</v>
       </c>
       <c r="V7" t="n">
-        <v>4111.4</v>
+        <v>3629.4</v>
       </c>
       <c r="W7" t="n">
-        <v>4111.4</v>
+        <v>3629.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4151.2</v>
+        <v>3579.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4161.2</v>
+        <v>3579.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>4171.2</v>
+        <v>3589.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>4181.2</v>
+        <v>3599.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>5090.6</v>
+        <v>3587.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>5120.6</v>
+        <v>3607.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5160.6</v>
+        <v>3627.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>5200.6</v>
+        <v>3647.7</v>
       </c>
       <c r="AF7" t="n">
-        <v>5739.2</v>
+        <v>4102</v>
       </c>
       <c r="AG7" t="n">
-        <v>5789.2</v>
+        <v>4112</v>
       </c>
       <c r="AH7" t="n">
-        <v>5839.2</v>
+        <v>4122</v>
       </c>
       <c r="AI7" t="n">
-        <v>5879.2</v>
+        <v>4112</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6318.1</v>
+        <v>4523.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>6338.1</v>
+        <v>4473.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>6348.1</v>
+        <v>4413.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>6338.1</v>
+        <v>4323.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>6445.5</v>
+        <v>4876.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>6405.5</v>
+        <v>4756.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>6355.5</v>
+        <v>4616.7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6295.5</v>
+        <v>4476.7</v>
       </c>
       <c r="AR7" t="n">
-        <v>6091.5</v>
+        <v>4681.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>6031.5</v>
+        <v>4551.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>5971.5</v>
+        <v>4421.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>5921.5</v>
+        <v>4321.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>4844.5</v>
+        <v>4373</v>
       </c>
       <c r="AW7" t="n">
-        <v>4794.5</v>
+        <v>4313</v>
       </c>
       <c r="AX7" t="n">
-        <v>4754.5</v>
+        <v>4263</v>
       </c>
       <c r="AY7" t="n">
-        <v>4714.5</v>
+        <v>4233</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4879.4</v>
+        <v>4033.2</v>
       </c>
       <c r="BA7" t="n">
-        <v>4849.4</v>
+        <v>4023.2</v>
       </c>
       <c r="BB7" t="n">
-        <v>4809.4</v>
+        <v>4013.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>4779.4</v>
+        <v>4013.2</v>
       </c>
       <c r="BD7" t="n">
-        <v>4480.3</v>
+        <v>3701.4</v>
       </c>
       <c r="BE7" t="n">
-        <v>4460.3</v>
+        <v>3701.4</v>
       </c>
       <c r="BF7" t="n">
-        <v>4440.3</v>
+        <v>3711.4</v>
       </c>
       <c r="BG7" t="n">
-        <v>4440.3</v>
+        <v>3731.4</v>
       </c>
       <c r="BH7" t="n">
-        <v>4439.4</v>
+        <v>3322.2</v>
       </c>
       <c r="BI7" t="n">
-        <v>4449.4</v>
+        <v>3352.2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>4459.4</v>
+        <v>3382.2</v>
       </c>
       <c r="BK7" t="n">
-        <v>4469.4</v>
+        <v>3412.2</v>
       </c>
       <c r="BL7" t="n">
-        <v>4602.5</v>
+        <v>3309.2</v>
       </c>
       <c r="BM7" t="n">
-        <v>4612.5</v>
+        <v>3339.2</v>
       </c>
       <c r="BN7" t="n">
-        <v>4632.5</v>
+        <v>3379.2</v>
       </c>
       <c r="BO7" t="n">
-        <v>4662.5</v>
+        <v>3429.2</v>
       </c>
       <c r="BP7" t="n">
-        <v>4786</v>
+        <v>3776.2</v>
       </c>
       <c r="BQ7" t="n">
-        <v>4846</v>
+        <v>3856.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>4916</v>
+        <v>3936.2</v>
       </c>
       <c r="BS7" t="n">
-        <v>5006</v>
+        <v>4036.2</v>
       </c>
       <c r="BT7" t="n">
-        <v>4700</v>
+        <v>3966.1</v>
       </c>
       <c r="BU7" t="n">
-        <v>4800</v>
+        <v>4106.1</v>
       </c>
       <c r="BV7" t="n">
-        <v>4890</v>
+        <v>4216.1</v>
       </c>
       <c r="BW7" t="n">
-        <v>4980</v>
+        <v>4346.1</v>
       </c>
       <c r="BX7" t="n">
-        <v>5321</v>
+        <v>4219.7</v>
       </c>
       <c r="BY7" t="n">
-        <v>5421</v>
+        <v>4359.7</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5521</v>
+        <v>4499.7</v>
       </c>
       <c r="CA7" t="n">
-        <v>5651</v>
+        <v>4639.7</v>
       </c>
       <c r="CB7" t="n">
-        <v>6091.4</v>
+        <v>3916.6</v>
       </c>
       <c r="CC7" t="n">
-        <v>6221.4</v>
+        <v>4056.6</v>
       </c>
       <c r="CD7" t="n">
-        <v>6331.4</v>
+        <v>4196.6</v>
       </c>
       <c r="CE7" t="n">
-        <v>6451.4</v>
+        <v>4326.6</v>
       </c>
       <c r="CF7" t="n">
-        <v>6778.7</v>
+        <v>4597.5</v>
       </c>
       <c r="CG7" t="n">
-        <v>6878.7</v>
+        <v>4727.5</v>
       </c>
       <c r="CH7" t="n">
-        <v>6948.7</v>
+        <v>4857.5</v>
       </c>
       <c r="CI7" t="n">
-        <v>6998.7</v>
+        <v>4967.5</v>
       </c>
       <c r="CJ7" t="n">
-        <v>6968.2</v>
+        <v>4728.3</v>
       </c>
       <c r="CK7" t="n">
-        <v>6948.2</v>
+        <v>4768.3</v>
       </c>
       <c r="CL7" t="n">
-        <v>6928.2</v>
+        <v>4748.3</v>
       </c>
       <c r="CM7" t="n">
-        <v>6888.2</v>
+        <v>4678.3</v>
       </c>
       <c r="CN7" t="n">
-        <v>6733.3</v>
+        <v>5013.4</v>
       </c>
       <c r="CO7" t="n">
-        <v>6633.3</v>
+        <v>4863.4</v>
       </c>
       <c r="CP7" t="n">
-        <v>6523.3</v>
+        <v>4703.4</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6343.3</v>
+        <v>4543.4</v>
       </c>
       <c r="CR7" t="n">
-        <v>6154</v>
+        <v>4516.2</v>
       </c>
       <c r="CS7" t="n">
-        <v>6004</v>
+        <v>4366.2</v>
       </c>
       <c r="CT7" t="n">
-        <v>5884</v>
+        <v>4236.2</v>
       </c>
       <c r="CU7" t="n">
-        <v>5734</v>
+        <v>4116.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" s="2" t="n">
-        <v>45771</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="D8" t="n">
-        <v>5796</v>
+        <v>4719.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5736</v>
+        <v>4649.6</v>
       </c>
       <c r="F8" t="n">
-        <v>5686</v>
+        <v>4599.6</v>
       </c>
       <c r="G8" t="n">
-        <v>5626</v>
+        <v>4559.6</v>
       </c>
       <c r="H8" t="n">
-        <v>5505.9</v>
+        <v>4887.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5455.9</v>
+        <v>4837.1</v>
       </c>
       <c r="J8" t="n">
-        <v>5405.9</v>
+        <v>4797.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5355.9</v>
+        <v>4747.1</v>
       </c>
       <c r="L8" t="n">
-        <v>5165.3</v>
+        <v>5139.2</v>
       </c>
       <c r="M8" t="n">
-        <v>5125.3</v>
+        <v>5109.2</v>
       </c>
       <c r="N8" t="n">
-        <v>5095.3</v>
+        <v>5089.2</v>
       </c>
       <c r="O8" t="n">
-        <v>5075.3</v>
+        <v>5069.2</v>
       </c>
       <c r="P8" t="n">
-        <v>5089</v>
+        <v>5366.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>5079</v>
+        <v>5356.5</v>
       </c>
       <c r="R8" t="n">
-        <v>5079</v>
+        <v>5356.5</v>
       </c>
       <c r="S8" t="n">
-        <v>5079</v>
+        <v>5356.5</v>
       </c>
       <c r="T8" t="n">
-        <v>5083.4</v>
+        <v>5300.6</v>
       </c>
       <c r="U8" t="n">
-        <v>5093.4</v>
+        <v>5300.6</v>
       </c>
       <c r="V8" t="n">
-        <v>5093.4</v>
+        <v>5300.6</v>
       </c>
       <c r="W8" t="n">
-        <v>5093.4</v>
+        <v>5300.6</v>
       </c>
       <c r="X8" t="n">
-        <v>5091.5</v>
+        <v>5210.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>5101.5</v>
+        <v>5220.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>5131.5</v>
+        <v>5250.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>5171.5</v>
+        <v>5280.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>5246.4</v>
+        <v>4978.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>5306.4</v>
+        <v>5008.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5376.4</v>
+        <v>5058.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>5446.4</v>
+        <v>5128.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>5779.3</v>
+        <v>5173.3</v>
       </c>
       <c r="AG8" t="n">
-        <v>5859.3</v>
+        <v>5223.3</v>
       </c>
       <c r="AH8" t="n">
-        <v>5939.3</v>
+        <v>5273.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>6009.3</v>
+        <v>5303.3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6072.9</v>
+        <v>5486.9</v>
       </c>
       <c r="AK8" t="n">
-        <v>6112.9</v>
+        <v>5486.9</v>
       </c>
       <c r="AL8" t="n">
-        <v>6132.9</v>
+        <v>5476.9</v>
       </c>
       <c r="AM8" t="n">
-        <v>6122.9</v>
+        <v>5446.9</v>
       </c>
       <c r="AN8" t="n">
-        <v>6262.7</v>
+        <v>5684</v>
       </c>
       <c r="AO8" t="n">
-        <v>6212.7</v>
+        <v>5614</v>
       </c>
       <c r="AP8" t="n">
-        <v>6152.7</v>
+        <v>5534</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6082.7</v>
+        <v>5434</v>
       </c>
       <c r="AR8" t="n">
-        <v>5913</v>
+        <v>5685</v>
       </c>
       <c r="AS8" t="n">
-        <v>5843</v>
+        <v>5605</v>
       </c>
       <c r="AT8" t="n">
-        <v>5773</v>
+        <v>5525</v>
       </c>
       <c r="AU8" t="n">
-        <v>5713</v>
+        <v>5445</v>
       </c>
       <c r="AV8" t="n">
-        <v>5466.5</v>
+        <v>5663.7</v>
       </c>
       <c r="AW8" t="n">
-        <v>5426.5</v>
+        <v>5603.7</v>
       </c>
       <c r="AX8" t="n">
-        <v>5386.5</v>
+        <v>5543.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>5346.5</v>
+        <v>5483.7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5267.8</v>
+        <v>4934.4</v>
       </c>
       <c r="BA8" t="n">
-        <v>5237.8</v>
+        <v>4874.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>5207.8</v>
+        <v>4834.4</v>
       </c>
       <c r="BC8" t="n">
-        <v>5177.8</v>
+        <v>4804.4</v>
       </c>
       <c r="BD8" t="n">
-        <v>5131</v>
+        <v>4474.3</v>
       </c>
       <c r="BE8" t="n">
-        <v>5111</v>
+        <v>4474.3</v>
       </c>
       <c r="BF8" t="n">
-        <v>5101</v>
+        <v>4474.3</v>
       </c>
       <c r="BG8" t="n">
-        <v>5091</v>
+        <v>4474.3</v>
       </c>
       <c r="BH8" t="n">
-        <v>5105.8</v>
+        <v>4317</v>
       </c>
       <c r="BI8" t="n">
-        <v>5115.8</v>
+        <v>4317</v>
       </c>
       <c r="BJ8" t="n">
-        <v>5125.8</v>
+        <v>4317</v>
       </c>
       <c r="BK8" t="n">
-        <v>5135.8</v>
+        <v>4337</v>
       </c>
       <c r="BL8" t="n">
-        <v>5234.1</v>
+        <v>4063.9</v>
       </c>
       <c r="BM8" t="n">
-        <v>5244.1</v>
+        <v>4083.9</v>
       </c>
       <c r="BN8" t="n">
-        <v>5264.1</v>
+        <v>4103.9</v>
       </c>
       <c r="BO8" t="n">
-        <v>5294.1</v>
+        <v>4133.9</v>
       </c>
       <c r="BP8" t="n">
-        <v>5337.4</v>
+        <v>3830.9</v>
       </c>
       <c r="BQ8" t="n">
-        <v>5397.4</v>
+        <v>3890.9</v>
       </c>
       <c r="BR8" t="n">
-        <v>5467.4</v>
+        <v>3960.9</v>
       </c>
       <c r="BS8" t="n">
-        <v>5557.4</v>
+        <v>4040.9</v>
       </c>
       <c r="BT8" t="n">
-        <v>5936.1</v>
+        <v>3944.8</v>
       </c>
       <c r="BU8" t="n">
-        <v>6026.1</v>
+        <v>4054.8</v>
       </c>
       <c r="BV8" t="n">
-        <v>6126.1</v>
+        <v>4154.8</v>
       </c>
       <c r="BW8" t="n">
-        <v>6216.1</v>
+        <v>4264.8</v>
       </c>
       <c r="BX8" t="n">
-        <v>6654.7</v>
+        <v>3783.1</v>
       </c>
       <c r="BY8" t="n">
-        <v>6754.7</v>
+        <v>3903.1</v>
       </c>
       <c r="BZ8" t="n">
-        <v>6854.7</v>
+        <v>4013.1</v>
       </c>
       <c r="CA8" t="n">
-        <v>6974.7</v>
+        <v>4153.1</v>
       </c>
       <c r="CB8" t="n">
-        <v>6476.1</v>
+        <v>3712.1</v>
       </c>
       <c r="CC8" t="n">
-        <v>6606.1</v>
+        <v>3842.1</v>
       </c>
       <c r="CD8" t="n">
-        <v>6726.1</v>
+        <v>3962.1</v>
       </c>
       <c r="CE8" t="n">
-        <v>6846.1</v>
+        <v>4092.1</v>
       </c>
       <c r="CF8" t="n">
-        <v>7091.6</v>
+        <v>4271.5</v>
       </c>
       <c r="CG8" t="n">
-        <v>7181.6</v>
+        <v>4381.5</v>
       </c>
       <c r="CH8" t="n">
-        <v>7251.6</v>
+        <v>4481.5</v>
       </c>
       <c r="CI8" t="n">
-        <v>7321.6</v>
+        <v>4601.5</v>
       </c>
       <c r="CJ8" t="n">
-        <v>7369.9</v>
+        <v>4683.9</v>
       </c>
       <c r="CK8" t="n">
-        <v>7349.9</v>
+        <v>4693.9</v>
       </c>
       <c r="CL8" t="n">
-        <v>7319.9</v>
+        <v>4693.9</v>
       </c>
       <c r="CM8" t="n">
-        <v>7269.9</v>
+        <v>4583.9</v>
       </c>
       <c r="CN8" t="n">
-        <v>6950.5</v>
+        <v>4853.7</v>
       </c>
       <c r="CO8" t="n">
-        <v>6850.5</v>
+        <v>4713.7</v>
       </c>
       <c r="CP8" t="n">
-        <v>6730.5</v>
+        <v>4573.7</v>
       </c>
       <c r="CQ8" t="n">
-        <v>6570.5</v>
+        <v>4433.7</v>
       </c>
       <c r="CR8" t="n">
-        <v>6022.4</v>
+        <v>4674.6</v>
       </c>
       <c r="CS8" t="n">
-        <v>5872.4</v>
+        <v>4534.6</v>
       </c>
       <c r="CT8" t="n">
-        <v>5752.4</v>
+        <v>4434.6</v>
       </c>
       <c r="CU8" t="n">
-        <v>5622.4</v>
+        <v>4324.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="n">
-        <v>45773</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="D9" t="n">
-        <v>4780</v>
+        <v>4171.8</v>
       </c>
       <c r="E9" t="n">
-        <v>4720</v>
+        <v>4111.8</v>
       </c>
       <c r="F9" t="n">
-        <v>4670</v>
+        <v>4051.8</v>
       </c>
       <c r="G9" t="n">
-        <v>4610</v>
+        <v>3981.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3890.4</v>
+        <v>3896.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3840.4</v>
+        <v>3836.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3800.4</v>
+        <v>3786.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3760.4</v>
+        <v>3746.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3854.9</v>
+        <v>3761.6</v>
       </c>
       <c r="M9" t="n">
-        <v>3824.9</v>
+        <v>3741.6</v>
       </c>
       <c r="N9" t="n">
-        <v>3794.9</v>
+        <v>3731.6</v>
       </c>
       <c r="O9" t="n">
-        <v>3774.9</v>
+        <v>3731.6</v>
       </c>
       <c r="P9" t="n">
-        <v>3852.8</v>
+        <v>3778.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>3842.8</v>
+        <v>3778.7</v>
       </c>
       <c r="R9" t="n">
-        <v>3832.8</v>
+        <v>3778.7</v>
       </c>
       <c r="S9" t="n">
-        <v>3832.8</v>
+        <v>3778.7</v>
       </c>
       <c r="T9" t="n">
-        <v>3881.2</v>
+        <v>3794.8</v>
       </c>
       <c r="U9" t="n">
-        <v>3881.2</v>
+        <v>3794.8</v>
       </c>
       <c r="V9" t="n">
-        <v>3891.2</v>
+        <v>3794.8</v>
       </c>
       <c r="W9" t="n">
-        <v>3891.2</v>
+        <v>3794.8</v>
       </c>
       <c r="X9" t="n">
-        <v>3889.7</v>
+        <v>3849.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>3899.7</v>
+        <v>3869.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>3919.7</v>
+        <v>3879.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>3949.7</v>
+        <v>3879.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>3973.3</v>
+        <v>3930</v>
       </c>
       <c r="AC9" t="n">
-        <v>4013.3</v>
+        <v>3930</v>
       </c>
       <c r="AD9" t="n">
-        <v>4063.3</v>
+        <v>3930</v>
       </c>
       <c r="AE9" t="n">
-        <v>4123.3</v>
+        <v>3950</v>
       </c>
       <c r="AF9" t="n">
-        <v>4124.1</v>
+        <v>4282.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>4184.1</v>
+        <v>4282.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>4234.1</v>
+        <v>4272.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>4274.1</v>
+        <v>4252.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4256.1</v>
+        <v>4464.4</v>
       </c>
       <c r="AK9" t="n">
-        <v>4266.1</v>
+        <v>4424.4</v>
       </c>
       <c r="AL9" t="n">
-        <v>4256.1</v>
+        <v>4364.4</v>
       </c>
       <c r="AM9" t="n">
-        <v>4226.1</v>
+        <v>4284.4</v>
       </c>
       <c r="AN9" t="n">
-        <v>4522.9</v>
+        <v>4676.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>4462.9</v>
+        <v>4566.9</v>
       </c>
       <c r="AP9" t="n">
-        <v>4382.9</v>
+        <v>4456.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4302.9</v>
+        <v>4336.9</v>
       </c>
       <c r="AR9" t="n">
-        <v>4860.4</v>
+        <v>4835.8</v>
       </c>
       <c r="AS9" t="n">
-        <v>4780.4</v>
+        <v>4735.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>4700.4</v>
+        <v>4665.8</v>
       </c>
       <c r="AU9" t="n">
-        <v>4640.4</v>
+        <v>4595.8</v>
       </c>
       <c r="AV9" t="n">
-        <v>4898.6</v>
+        <v>4766</v>
       </c>
       <c r="AW9" t="n">
-        <v>4848.6</v>
+        <v>4736</v>
       </c>
       <c r="AX9" t="n">
-        <v>4808.6</v>
+        <v>4716</v>
       </c>
       <c r="AY9" t="n">
-        <v>4768.6</v>
+        <v>4716</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4497.5</v>
+        <v>4571.9</v>
       </c>
       <c r="BA9" t="n">
-        <v>4457.5</v>
+        <v>4571.9</v>
       </c>
       <c r="BB9" t="n">
-        <v>4417.5</v>
+        <v>4571.9</v>
       </c>
       <c r="BC9" t="n">
-        <v>4377.5</v>
+        <v>4581.9</v>
       </c>
       <c r="BD9" t="n">
-        <v>3893.4</v>
+        <v>4485.7</v>
       </c>
       <c r="BE9" t="n">
-        <v>3863.4</v>
+        <v>4505.7</v>
       </c>
       <c r="BF9" t="n">
-        <v>3843.4</v>
+        <v>4505.7</v>
       </c>
       <c r="BG9" t="n">
-        <v>3833.4</v>
+        <v>4515.7</v>
       </c>
       <c r="BH9" t="n">
-        <v>3807.1</v>
+        <v>4519.6</v>
       </c>
       <c r="BI9" t="n">
-        <v>3807.1</v>
+        <v>4539.6</v>
       </c>
       <c r="BJ9" t="n">
-        <v>3807.1</v>
+        <v>4569.6</v>
       </c>
       <c r="BK9" t="n">
-        <v>3817.1</v>
+        <v>4599.6</v>
       </c>
       <c r="BL9" t="n">
-        <v>3815.7</v>
+        <v>4502</v>
       </c>
       <c r="BM9" t="n">
-        <v>3815.7</v>
+        <v>4532</v>
       </c>
       <c r="BN9" t="n">
-        <v>3825.7</v>
+        <v>4562</v>
       </c>
       <c r="BO9" t="n">
-        <v>3845.7</v>
+        <v>4612</v>
       </c>
       <c r="BP9" t="n">
-        <v>3980.8</v>
+        <v>4515.1</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4040.8</v>
+        <v>4575.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>4110.8</v>
+        <v>4655.1</v>
       </c>
       <c r="BS9" t="n">
-        <v>4200.8</v>
+        <v>4755.1</v>
       </c>
       <c r="BT9" t="n">
-        <v>3984.1</v>
+        <v>4662.5</v>
       </c>
       <c r="BU9" t="n">
-        <v>4094.1</v>
+        <v>4772.5</v>
       </c>
       <c r="BV9" t="n">
-        <v>4204.1</v>
+        <v>4892.5</v>
       </c>
       <c r="BW9" t="n">
-        <v>4314.1</v>
+        <v>5002.5</v>
       </c>
       <c r="BX9" t="n">
-        <v>3732.5</v>
+        <v>4700.1</v>
       </c>
       <c r="BY9" t="n">
-        <v>3842.5</v>
+        <v>4820.1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3962.5</v>
+        <v>4950.1</v>
       </c>
       <c r="CA9" t="n">
-        <v>4092.5</v>
+        <v>5090.1</v>
       </c>
       <c r="CB9" t="n">
-        <v>3603.9</v>
+        <v>4632.8</v>
       </c>
       <c r="CC9" t="n">
-        <v>3743.9</v>
+        <v>4782.8</v>
       </c>
       <c r="CD9" t="n">
-        <v>3853.9</v>
+        <v>4922.8</v>
       </c>
       <c r="CE9" t="n">
-        <v>3963.9</v>
+        <v>5042.8</v>
       </c>
       <c r="CF9" t="n">
-        <v>3604.7</v>
+        <v>4840.1</v>
       </c>
       <c r="CG9" t="n">
-        <v>3704.7</v>
+        <v>4960.1</v>
       </c>
       <c r="CH9" t="n">
-        <v>3784.7</v>
+        <v>5060.1</v>
       </c>
       <c r="CI9" t="n">
-        <v>3834.7</v>
+        <v>5180.1</v>
       </c>
       <c r="CJ9" t="n">
-        <v>3862.5</v>
+        <v>5579.3</v>
       </c>
       <c r="CK9" t="n">
-        <v>3852.5</v>
+        <v>5579.3</v>
       </c>
       <c r="CL9" t="n">
-        <v>3822.5</v>
+        <v>5569.3</v>
       </c>
       <c r="CM9" t="n">
-        <v>3742.5</v>
+        <v>5509.3</v>
       </c>
       <c r="CN9" t="n">
-        <v>3979.2</v>
+        <v>5274.6</v>
       </c>
       <c r="CO9" t="n">
-        <v>3829.2</v>
+        <v>5134.6</v>
       </c>
       <c r="CP9" t="n">
-        <v>3659.2</v>
+        <v>5004.6</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3499.2</v>
+        <v>4884.6</v>
       </c>
       <c r="CR9" t="n">
-        <v>3892.2</v>
+        <v>5257</v>
       </c>
       <c r="CS9" t="n">
-        <v>3752.2</v>
+        <v>5137</v>
       </c>
       <c r="CT9" t="n">
-        <v>3632.2</v>
+        <v>5037</v>
       </c>
       <c r="CU9" t="n">
-        <v>3522.2</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="D10" t="n">
-        <v>4423</v>
+        <v>5121.6</v>
       </c>
       <c r="E10" t="n">
-        <v>4363</v>
+        <v>5061.6</v>
       </c>
       <c r="F10" t="n">
-        <v>4303</v>
+        <v>5001.6</v>
       </c>
       <c r="G10" t="n">
-        <v>4233</v>
+        <v>4941.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4112</v>
+        <v>4978.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4052</v>
+        <v>4898.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4012</v>
+        <v>4828.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3972</v>
+        <v>4768.9</v>
       </c>
       <c r="L10" t="n">
-        <v>3938</v>
+        <v>4809.4</v>
       </c>
       <c r="M10" t="n">
-        <v>3918</v>
+        <v>4779.4</v>
       </c>
       <c r="N10" t="n">
-        <v>3888</v>
+        <v>4749.4</v>
       </c>
       <c r="O10" t="n">
-        <v>3868</v>
+        <v>4739.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3835</v>
+        <v>4608.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>3815</v>
+        <v>4608.7</v>
       </c>
       <c r="R10" t="n">
-        <v>3795</v>
+        <v>4608.7</v>
       </c>
       <c r="S10" t="n">
-        <v>3785</v>
+        <v>4608.7</v>
       </c>
       <c r="T10" t="n">
-        <v>3763</v>
+        <v>4566.2</v>
       </c>
       <c r="U10" t="n">
-        <v>3753</v>
+        <v>4566.2</v>
       </c>
       <c r="V10" t="n">
-        <v>3753</v>
+        <v>4566.2</v>
       </c>
       <c r="W10" t="n">
-        <v>3753</v>
+        <v>4566.2</v>
       </c>
       <c r="X10" t="n">
-        <v>3755</v>
+        <v>4519.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>3765</v>
+        <v>4519.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>3765</v>
+        <v>4519.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3765</v>
+        <v>4519.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>3807</v>
+        <v>4499.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>3807</v>
+        <v>4499.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>3797</v>
+        <v>4499.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>3787</v>
+        <v>4499.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>3746</v>
+        <v>4728.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>3736</v>
+        <v>4728.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>3726</v>
+        <v>4728.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>3716</v>
+        <v>4718.6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3692</v>
+        <v>5019</v>
       </c>
       <c r="AK10" t="n">
-        <v>3672</v>
+        <v>4989</v>
       </c>
       <c r="AL10" t="n">
-        <v>3642</v>
+        <v>4949</v>
       </c>
       <c r="AM10" t="n">
-        <v>3602</v>
+        <v>4879</v>
       </c>
       <c r="AN10" t="n">
-        <v>3486</v>
+        <v>5098.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>3426</v>
+        <v>5018.9</v>
       </c>
       <c r="AP10" t="n">
-        <v>3366</v>
+        <v>4928.9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3306</v>
+        <v>4848.9</v>
       </c>
       <c r="AR10" t="n">
-        <v>3277</v>
+        <v>4926.1</v>
       </c>
       <c r="AS10" t="n">
-        <v>3227</v>
+        <v>4846.1</v>
       </c>
       <c r="AT10" t="n">
-        <v>3177</v>
+        <v>4796.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>3147</v>
+        <v>4736.1</v>
       </c>
       <c r="AV10" t="n">
-        <v>3362</v>
+        <v>5015.6</v>
       </c>
       <c r="AW10" t="n">
-        <v>3352</v>
+        <v>4975.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>3342</v>
+        <v>4945.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>3332</v>
+        <v>4925.6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3413</v>
+        <v>5078.7</v>
       </c>
       <c r="BA10" t="n">
-        <v>3413</v>
+        <v>5058.7</v>
       </c>
       <c r="BB10" t="n">
-        <v>3403</v>
+        <v>5048.7</v>
       </c>
       <c r="BC10" t="n">
-        <v>3393</v>
+        <v>5048.7</v>
       </c>
       <c r="BD10" t="n">
-        <v>3475</v>
+        <v>5128.1</v>
       </c>
       <c r="BE10" t="n">
-        <v>3465</v>
+        <v>5128.1</v>
       </c>
       <c r="BF10" t="n">
-        <v>3465</v>
+        <v>5138.1</v>
       </c>
       <c r="BG10" t="n">
-        <v>3475</v>
+        <v>5158.1</v>
       </c>
       <c r="BH10" t="n">
-        <v>3525</v>
+        <v>5108.1</v>
       </c>
       <c r="BI10" t="n">
-        <v>3545</v>
+        <v>5138.1</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3565</v>
+        <v>5168.1</v>
       </c>
       <c r="BK10" t="n">
-        <v>3595</v>
+        <v>5218.1</v>
       </c>
       <c r="BL10" t="n">
-        <v>3587</v>
+        <v>5067.2</v>
       </c>
       <c r="BM10" t="n">
-        <v>3617</v>
+        <v>5137.2</v>
       </c>
       <c r="BN10" t="n">
-        <v>3637</v>
+        <v>5197.2</v>
       </c>
       <c r="BO10" t="n">
-        <v>3677</v>
+        <v>5267.2</v>
       </c>
       <c r="BP10" t="n">
-        <v>3706</v>
+        <v>5101.4</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3766</v>
+        <v>5191.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>3846</v>
+        <v>5301.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>3936</v>
+        <v>5411.4</v>
       </c>
       <c r="BT10" t="n">
-        <v>3968</v>
+        <v>5036.8</v>
       </c>
       <c r="BU10" t="n">
-        <v>4078</v>
+        <v>5156.8</v>
       </c>
       <c r="BV10" t="n">
-        <v>4198</v>
+        <v>5266.8</v>
       </c>
       <c r="BW10" t="n">
-        <v>4308</v>
+        <v>5376.8</v>
       </c>
       <c r="BX10" t="n">
-        <v>4267</v>
+        <v>5410</v>
       </c>
       <c r="BY10" t="n">
-        <v>4387</v>
+        <v>5540</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4527</v>
+        <v>5650</v>
       </c>
       <c r="CA10" t="n">
-        <v>4657</v>
+        <v>5800</v>
       </c>
       <c r="CB10" t="n">
-        <v>4730</v>
+        <v>5703.1</v>
       </c>
       <c r="CC10" t="n">
-        <v>4860</v>
+        <v>5853.1</v>
       </c>
       <c r="CD10" t="n">
-        <v>4990</v>
+        <v>5983.1</v>
       </c>
       <c r="CE10" t="n">
-        <v>5110</v>
+        <v>6113.1</v>
       </c>
       <c r="CF10" t="n">
-        <v>5319</v>
+        <v>5860</v>
       </c>
       <c r="CG10" t="n">
-        <v>5429</v>
+        <v>5970</v>
       </c>
       <c r="CH10" t="n">
-        <v>5499</v>
+        <v>6040</v>
       </c>
       <c r="CI10" t="n">
-        <v>5579</v>
+        <v>6130</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5599</v>
+        <v>6396</v>
       </c>
       <c r="CK10" t="n">
-        <v>5589</v>
+        <v>6386</v>
       </c>
       <c r="CL10" t="n">
-        <v>5569</v>
+        <v>6356</v>
       </c>
       <c r="CM10" t="n">
-        <v>5489</v>
+        <v>6286</v>
       </c>
       <c r="CN10" t="n">
-        <v>5155</v>
+        <v>6017.6</v>
       </c>
       <c r="CO10" t="n">
-        <v>5015</v>
+        <v>5877.6</v>
       </c>
       <c r="CP10" t="n">
-        <v>4875</v>
+        <v>5747.6</v>
       </c>
       <c r="CQ10" t="n">
-        <v>4735</v>
+        <v>5597.6</v>
       </c>
       <c r="CR10" t="n">
-        <v>4494</v>
+        <v>5780.5</v>
       </c>
       <c r="CS10" t="n">
-        <v>4364</v>
+        <v>5650.5</v>
       </c>
       <c r="CT10" t="n">
-        <v>4244</v>
+        <v>5540.5</v>
       </c>
       <c r="CU10" t="n">
-        <v>4134</v>
+        <v>5430.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="D11" t="n">
-        <v>4478</v>
+        <v>5285</v>
       </c>
       <c r="E11" t="n">
-        <v>4428</v>
+        <v>5225</v>
       </c>
       <c r="F11" t="n">
-        <v>4368</v>
+        <v>5175</v>
       </c>
       <c r="G11" t="n">
-        <v>4298</v>
+        <v>5095</v>
       </c>
       <c r="H11" t="n">
-        <v>3455.2</v>
+        <v>4955.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3415.2</v>
+        <v>4905.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3365.2</v>
+        <v>4855.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3325.2</v>
+        <v>4805.7</v>
       </c>
       <c r="L11" t="n">
-        <v>3388.6</v>
+        <v>4873.3</v>
       </c>
       <c r="M11" t="n">
-        <v>3348.6</v>
+        <v>4843.3</v>
       </c>
       <c r="N11" t="n">
-        <v>3328.6</v>
+        <v>4833.3</v>
       </c>
       <c r="O11" t="n">
-        <v>3308.6</v>
+        <v>4823.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.8</v>
+        <v>4844.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3323.8</v>
+        <v>4854.5</v>
       </c>
       <c r="R11" t="n">
-        <v>3333.8</v>
+        <v>4854.5</v>
       </c>
       <c r="S11" t="n">
-        <v>3353.8</v>
+        <v>4864.5</v>
       </c>
       <c r="T11" t="n">
-        <v>3269.6</v>
+        <v>4642.6</v>
       </c>
       <c r="U11" t="n">
-        <v>3299.6</v>
+        <v>4652.6</v>
       </c>
       <c r="V11" t="n">
-        <v>3349.6</v>
+        <v>4672.6</v>
       </c>
       <c r="W11" t="n">
-        <v>3409.6</v>
+        <v>4722.6</v>
       </c>
       <c r="X11" t="n">
-        <v>3258.1</v>
+        <v>4487.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>3358.1</v>
+        <v>4557.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>3478.1</v>
+        <v>4667.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>3628.1</v>
+        <v>4797.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>3415.1</v>
+        <v>4432</v>
       </c>
       <c r="AC11" t="n">
-        <v>3595.1</v>
+        <v>4592</v>
       </c>
       <c r="AD11" t="n">
-        <v>3795.1</v>
+        <v>4762</v>
       </c>
       <c r="AE11" t="n">
-        <v>3985.1</v>
+        <v>4932</v>
       </c>
       <c r="AF11" t="n">
-        <v>4312.5</v>
+        <v>4919.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>4492.5</v>
+        <v>5069.2</v>
       </c>
       <c r="AH11" t="n">
-        <v>4642.5</v>
+        <v>5159.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>4762.5</v>
+        <v>5209.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4862.4</v>
+        <v>5408.9</v>
       </c>
       <c r="AK11" t="n">
-        <v>4912.4</v>
+        <v>5388.9</v>
       </c>
       <c r="AL11" t="n">
-        <v>4912.4</v>
+        <v>5368.9</v>
       </c>
       <c r="AM11" t="n">
-        <v>4882.4</v>
+        <v>5308.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>5097.7</v>
+        <v>5524.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>5007.7</v>
+        <v>5434.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>4897.7</v>
+        <v>5344.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4787.7</v>
+        <v>5254.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>4860.2</v>
+        <v>5514.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>4760.2</v>
+        <v>5454.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4670.2</v>
+        <v>5394.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>4600.2</v>
+        <v>5344.2</v>
       </c>
       <c r="AV11" t="n">
-        <v>4931.5</v>
+        <v>5598.3</v>
       </c>
       <c r="AW11" t="n">
-        <v>4881.5</v>
+        <v>5568.3</v>
       </c>
       <c r="AX11" t="n">
-        <v>4831.5</v>
+        <v>5538.3</v>
       </c>
       <c r="AY11" t="n">
-        <v>4801.5</v>
+        <v>5518.3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4832.9</v>
+        <v>5720.1</v>
       </c>
       <c r="BA11" t="n">
-        <v>4792.9</v>
+        <v>5690.1</v>
       </c>
       <c r="BB11" t="n">
-        <v>4752.9</v>
+        <v>5670.1</v>
       </c>
       <c r="BC11" t="n">
-        <v>4722.9</v>
+        <v>5660.1</v>
       </c>
       <c r="BD11" t="n">
-        <v>4440.7</v>
+        <v>5721</v>
       </c>
       <c r="BE11" t="n">
-        <v>4420.7</v>
+        <v>5731</v>
       </c>
       <c r="BF11" t="n">
-        <v>4420.7</v>
+        <v>5741</v>
       </c>
       <c r="BG11" t="n">
-        <v>4430.7</v>
+        <v>5741</v>
       </c>
       <c r="BH11" t="n">
-        <v>4343.7</v>
+        <v>5728.2</v>
       </c>
       <c r="BI11" t="n">
-        <v>4363.7</v>
+        <v>5758.2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4383.7</v>
+        <v>5788.2</v>
       </c>
       <c r="BK11" t="n">
-        <v>4393.7</v>
+        <v>5808.2</v>
       </c>
       <c r="BL11" t="n">
-        <v>4197.5</v>
+        <v>5629.2</v>
       </c>
       <c r="BM11" t="n">
-        <v>4197.5</v>
+        <v>5649.2</v>
       </c>
       <c r="BN11" t="n">
-        <v>4197.5</v>
+        <v>5659.2</v>
       </c>
       <c r="BO11" t="n">
-        <v>4197.5</v>
+        <v>5689.2</v>
       </c>
       <c r="BP11" t="n">
-        <v>4082.9</v>
+        <v>5353.8</v>
       </c>
       <c r="BQ11" t="n">
-        <v>4122.9</v>
+        <v>5403.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>4172.9</v>
+        <v>5463.8</v>
       </c>
       <c r="BS11" t="n">
-        <v>4242.9</v>
+        <v>5523.8</v>
       </c>
       <c r="BT11" t="n">
-        <v>4227.5</v>
+        <v>5236.5</v>
       </c>
       <c r="BU11" t="n">
-        <v>4307.5</v>
+        <v>5316.5</v>
       </c>
       <c r="BV11" t="n">
-        <v>4387.5</v>
+        <v>5386.5</v>
       </c>
       <c r="BW11" t="n">
-        <v>4467.5</v>
+        <v>5466.5</v>
       </c>
       <c r="BX11" t="n">
-        <v>4270.8</v>
+        <v>5101.7</v>
       </c>
       <c r="BY11" t="n">
-        <v>4360.8</v>
+        <v>5191.7</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4470.8</v>
+        <v>5281.7</v>
       </c>
       <c r="CA11" t="n">
-        <v>4590.8</v>
+        <v>5391.7</v>
       </c>
       <c r="CB11" t="n">
-        <v>4487.5</v>
+        <v>5452.9</v>
       </c>
       <c r="CC11" t="n">
-        <v>4597.5</v>
+        <v>5582.9</v>
       </c>
       <c r="CD11" t="n">
-        <v>4697.5</v>
+        <v>5692.9</v>
       </c>
       <c r="CE11" t="n">
-        <v>4797.5</v>
+        <v>5802.9</v>
       </c>
       <c r="CF11" t="n">
-        <v>4515.1</v>
+        <v>5801.4</v>
       </c>
       <c r="CG11" t="n">
-        <v>4615.1</v>
+        <v>5901.4</v>
       </c>
       <c r="CH11" t="n">
-        <v>4705.1</v>
+        <v>6001.4</v>
       </c>
       <c r="CI11" t="n">
-        <v>4785.1</v>
+        <v>6101.4</v>
       </c>
       <c r="CJ11" t="n">
-        <v>5031</v>
+        <v>5943.9</v>
       </c>
       <c r="CK11" t="n">
-        <v>5031</v>
+        <v>5933.9</v>
       </c>
       <c r="CL11" t="n">
-        <v>4991</v>
+        <v>5903.9</v>
       </c>
       <c r="CM11" t="n">
-        <v>4841</v>
+        <v>5793.9</v>
       </c>
       <c r="CN11" t="n">
-        <v>5177.8</v>
+        <v>5891.2</v>
       </c>
       <c r="CO11" t="n">
-        <v>5007.8</v>
+        <v>5761.2</v>
       </c>
       <c r="CP11" t="n">
-        <v>4827.8</v>
+        <v>5601.2</v>
       </c>
       <c r="CQ11" t="n">
-        <v>4637.8</v>
+        <v>5381.2</v>
       </c>
       <c r="CR11" t="n">
-        <v>4950.9</v>
+        <v>5563.2</v>
       </c>
       <c r="CS11" t="n">
-        <v>4800.9</v>
+        <v>5373.2</v>
       </c>
       <c r="CT11" t="n">
-        <v>4680.9</v>
+        <v>5253.2</v>
       </c>
       <c r="CU11" t="n">
-        <v>4550.9</v>
+        <v>5143.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="D12" t="n">
-        <v>5526.1</v>
+        <v>5785</v>
       </c>
       <c r="E12" t="n">
-        <v>5476.1</v>
+        <v>5755</v>
       </c>
       <c r="F12" t="n">
-        <v>5416.1</v>
+        <v>5675</v>
       </c>
       <c r="G12" t="n">
-        <v>5346.1</v>
+        <v>5595</v>
       </c>
       <c r="H12" t="n">
-        <v>4757</v>
+        <v>5495.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4727</v>
+        <v>5445.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4687</v>
+        <v>5395.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4647</v>
+        <v>5335.7</v>
       </c>
       <c r="L12" t="n">
-        <v>4602</v>
+        <v>5383.3</v>
       </c>
       <c r="M12" t="n">
-        <v>4572</v>
+        <v>5353.3</v>
       </c>
       <c r="N12" t="n">
-        <v>4542</v>
+        <v>5323.3</v>
       </c>
       <c r="O12" t="n">
-        <v>4522</v>
+        <v>5313.3</v>
       </c>
       <c r="P12" t="n">
-        <v>4547</v>
+        <v>5354.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4547</v>
+        <v>5354.5</v>
       </c>
       <c r="R12" t="n">
-        <v>4547</v>
+        <v>5364.5</v>
       </c>
       <c r="S12" t="n">
-        <v>4567</v>
+        <v>5364.5</v>
       </c>
       <c r="T12" t="n">
-        <v>4554</v>
+        <v>5102.6</v>
       </c>
       <c r="U12" t="n">
-        <v>4574</v>
+        <v>5112.6</v>
       </c>
       <c r="V12" t="n">
-        <v>4604</v>
+        <v>5142.6</v>
       </c>
       <c r="W12" t="n">
-        <v>4644</v>
+        <v>5182.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4697</v>
+        <v>4947.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>4747</v>
+        <v>5037.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>4817</v>
+        <v>5147.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>4907</v>
+        <v>5277.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>4978</v>
+        <v>4922</v>
       </c>
       <c r="AC12" t="n">
-        <v>5098</v>
+        <v>5082</v>
       </c>
       <c r="AD12" t="n">
-        <v>5218</v>
+        <v>5242</v>
       </c>
       <c r="AE12" t="n">
-        <v>5348</v>
+        <v>5392</v>
       </c>
       <c r="AF12" t="n">
-        <v>5470</v>
+        <v>5259.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>5590</v>
+        <v>5379.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>5710</v>
+        <v>5489.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>5800</v>
+        <v>5579.2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5849</v>
+        <v>5848.9</v>
       </c>
       <c r="AK12" t="n">
-        <v>5879</v>
+        <v>5888.9</v>
       </c>
       <c r="AL12" t="n">
-        <v>5889</v>
+        <v>5908.9</v>
       </c>
       <c r="AM12" t="n">
-        <v>5859</v>
+        <v>5908.9</v>
       </c>
       <c r="AN12" t="n">
-        <v>5814</v>
+        <v>6214.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>5724</v>
+        <v>6174.4</v>
       </c>
       <c r="AP12" t="n">
-        <v>5614</v>
+        <v>6134.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5494</v>
+        <v>6084.4</v>
       </c>
       <c r="AR12" t="n">
-        <v>5443</v>
+        <v>6364.2</v>
       </c>
       <c r="AS12" t="n">
-        <v>5323</v>
+        <v>6314.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>5223</v>
+        <v>6254.2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5123</v>
+        <v>6214.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>5165</v>
+        <v>6468.3</v>
       </c>
       <c r="AW12" t="n">
-        <v>5105</v>
+        <v>6438.3</v>
       </c>
       <c r="AX12" t="n">
-        <v>5055</v>
+        <v>6398.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>5025</v>
+        <v>6368.3</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5112</v>
+        <v>6560.1</v>
       </c>
       <c r="BA12" t="n">
-        <v>5092</v>
+        <v>6530.1</v>
       </c>
       <c r="BB12" t="n">
-        <v>5072</v>
+        <v>6490.1</v>
       </c>
       <c r="BC12" t="n">
-        <v>5052</v>
+        <v>6460.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>5220</v>
+        <v>6481</v>
       </c>
       <c r="BE12" t="n">
-        <v>5210</v>
+        <v>6461</v>
       </c>
       <c r="BF12" t="n">
-        <v>5200</v>
+        <v>6441</v>
       </c>
       <c r="BG12" t="n">
-        <v>5210</v>
+        <v>6441</v>
       </c>
       <c r="BH12" t="n">
-        <v>5174</v>
+        <v>6428.2</v>
       </c>
       <c r="BI12" t="n">
-        <v>5194</v>
+        <v>6428.2</v>
       </c>
       <c r="BJ12" t="n">
-        <v>5204</v>
+        <v>6438.2</v>
       </c>
       <c r="BK12" t="n">
-        <v>5214</v>
+        <v>6448.2</v>
       </c>
       <c r="BL12" t="n">
-        <v>5129</v>
+        <v>6229.2</v>
       </c>
       <c r="BM12" t="n">
-        <v>5149</v>
+        <v>6219.2</v>
       </c>
       <c r="BN12" t="n">
-        <v>5159</v>
+        <v>6209.2</v>
       </c>
       <c r="BO12" t="n">
-        <v>5189</v>
+        <v>6209.2</v>
       </c>
       <c r="BP12" t="n">
-        <v>5283</v>
+        <v>5843.8</v>
       </c>
       <c r="BQ12" t="n">
-        <v>5333</v>
+        <v>5853.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>5403</v>
+        <v>5883.8</v>
       </c>
       <c r="BS12" t="n">
-        <v>5473</v>
+        <v>5913.8</v>
       </c>
       <c r="BT12" t="n">
-        <v>5317</v>
+        <v>5626.5</v>
       </c>
       <c r="BU12" t="n">
-        <v>5387</v>
+        <v>5666.5</v>
       </c>
       <c r="BV12" t="n">
-        <v>5457</v>
+        <v>5706.5</v>
       </c>
       <c r="BW12" t="n">
-        <v>5537</v>
+        <v>5746.5</v>
       </c>
       <c r="BX12" t="n">
-        <v>5508</v>
+        <v>5331.7</v>
       </c>
       <c r="BY12" t="n">
-        <v>5598</v>
+        <v>5381.7</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5698</v>
+        <v>5461.7</v>
       </c>
       <c r="CA12" t="n">
-        <v>5808</v>
+        <v>5561.7</v>
       </c>
       <c r="CB12" t="n">
-        <v>5855</v>
+        <v>5652.9</v>
       </c>
       <c r="CC12" t="n">
-        <v>5955</v>
+        <v>5792.9</v>
       </c>
       <c r="CD12" t="n">
-        <v>6055</v>
+        <v>5912.9</v>
       </c>
       <c r="CE12" t="n">
-        <v>6155</v>
+        <v>6002.9</v>
       </c>
       <c r="CF12" t="n">
-        <v>6172</v>
+        <v>5961.4</v>
       </c>
       <c r="CG12" t="n">
-        <v>6292</v>
+        <v>6051.4</v>
       </c>
       <c r="CH12" t="n">
-        <v>6382</v>
+        <v>6131.4</v>
       </c>
       <c r="CI12" t="n">
-        <v>6482</v>
+        <v>6231.4</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6648</v>
+        <v>6043.9</v>
       </c>
       <c r="CK12" t="n">
-        <v>6648</v>
+        <v>6023.9</v>
       </c>
       <c r="CL12" t="n">
-        <v>6608</v>
+        <v>5973.9</v>
       </c>
       <c r="CM12" t="n">
-        <v>6458</v>
+        <v>5813.9</v>
       </c>
       <c r="CN12" t="n">
-        <v>6135</v>
+        <v>5871.2</v>
       </c>
       <c r="CO12" t="n">
-        <v>5955</v>
+        <v>5711.2</v>
       </c>
       <c r="CP12" t="n">
-        <v>5785</v>
+        <v>5551.2</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5605</v>
+        <v>5381.2</v>
       </c>
       <c r="CR12" t="n">
-        <v>5485</v>
+        <v>5553.2</v>
       </c>
       <c r="CS12" t="n">
-        <v>5345</v>
+        <v>5343.2</v>
       </c>
       <c r="CT12" t="n">
-        <v>5215</v>
+        <v>5273.2</v>
       </c>
       <c r="CU12" t="n">
-        <v>5095</v>
+        <v>5163.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="C13" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4129.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4089.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4019.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3959.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3937.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3897.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3847.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3797.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3814</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3774</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3754</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3734</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3746.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3746.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3746.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3746.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3704.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3714.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3734.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3774.1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3663.3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3743.3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3853.3</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3983.3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3771.9</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3931.9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4091.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4261.9</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4574.6</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4714.6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4834.6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4934.6</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5179.8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>5229.8</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5657.1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5617.1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>5567.1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>5507.1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>5977.7</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>5917.7</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>5867.7</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>5817.7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6244</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6214</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6184</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>6164</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5766</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5736</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5706</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5676</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5628.8</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>5598.8</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5588.8</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>5578.8</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5599.8</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5609.8</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5619.8</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>5629.8</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>5538.7</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>5528.7</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>5528.7</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>5518.7</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>5240.5</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>5250.5</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>5280.5</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>5320.5</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>5598.3</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5638.3</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>5668.3</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>5698.3</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>5177.9</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>5217.9</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>5277.9</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>5367.9</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>5215.6</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>5335.6</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>5435.6</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>5515.6</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>5235.2</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>5305.2</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>5365.2</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>5455.2</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>5499.8</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>5479.8</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>5429.8</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>5279.8</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>5369.7</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>5199.7</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>5049.7</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>4909.7</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>4683.3</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>4503.3</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>4423.3</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>4313.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="C14" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>4079.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4039.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3969.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3909.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3887.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3847.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3807.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3757.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3764</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3724</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3694</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3684</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3696.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3696.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3706.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3706.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3654.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3664.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3684.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3724.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3603.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3693.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3803.3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3933.3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3721.9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3891.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4051.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4221.9</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4534.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4664.6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4774.6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>4854.6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>5069.8</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>5089.8</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>5089.8</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>5069.8</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5447.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5387.1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5327.1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>5257.1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>5717.7</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5657.7</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5607.7</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5557.7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>5974</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5944</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5914</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5884</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>5486</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>5446</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>5406</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>5376</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5308.8</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>5278.8</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5258.8</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>5238.8</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>5269.8</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>5178.7</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>5178.7</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>5178.7</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5188.7</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>4920.5</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>4940.5</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>4970.5</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>5010.5</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>5298.3</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5348.3</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>5398.3</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>5438.3</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>4937.9</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>4997.9</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>5067.9</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>5167.9</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>4995.6</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>5105.6</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>5195.6</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>5265.6</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>4995.2</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>5085.2</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>5185.2</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>5325.2</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>5409.8</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>5419.8</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>5389.8</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>5229.8</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>5319.7</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5149.7</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>4989.7</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>4849.7</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>4643.3</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>4453.3</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>4373.3</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>4263.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="C15" s="2" t="n">
         <v>45786</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr"/>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr"/>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>4079.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4049.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3969.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3899.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3887.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3857.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3817.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3757.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3764</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3714</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3684</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3684</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3696.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3706.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3716.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3716.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3664.1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3664.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3684.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3714.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3593.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3673.3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3793.3</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3943.3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3741.9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3911.9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4081.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4231.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>4534.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4634.6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>4694.6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>4734.6</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>4889.8</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>4859.8</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>4809.8</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4739.8</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5077.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4987.1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>4897.1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>4817.1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>5267.7</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>5187.7</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5127.7</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>5067.7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>5464</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5414</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5364</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>5314</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>4896</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>4846</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4796</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>4756</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4698.8</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>4678.8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4668.8</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>4668.8</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4699.8</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>4709.8</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>4729.8</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>4739.8</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>4658.7</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>4658.7</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4658.7</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4658.7</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>4390.5</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>4410.5</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>4440.5</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>4480.5</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>4778.3</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4828.3</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>4878.3</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>4938.3</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>4437.9</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>4507.9</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>4597.9</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>4707.9</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>4575.6</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>4725.6</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>4865.6</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>4995.6</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>4785.2</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>4925.2</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>5045.2</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>5185.2</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>5259.8</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>5229.8</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>5099.8</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>5209.7</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>5049.7</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>4889.7</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>4749.7</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>4543.3</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>4353.3</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>4273.3</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>4163.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="C16" s="2" t="n">
         <v>45787</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>4079.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4039.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3979.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3899.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3847.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3797.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3747.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3697.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3714</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3684</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3654</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3624</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3616.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3596.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3586.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3576.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3524.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3524.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3534.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3534.1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3363.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3383.3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3393.3</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3413.3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3071.9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3101.9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3131.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3161.9</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3364.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3404.6</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>3434.6</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3474.6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>3659.8</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3669.8</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3659.8</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>3639.8</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4027.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>3967.1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3907.1</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3827.1</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4277.7</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>4207.7</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4137.7</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>4077.7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>4484</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4444</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4404</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>4374</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3946</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3916</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>3886</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>3838.8</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>3818.8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3808.8</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>3808.8</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3839.8</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>3859.8</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3869.8</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>3889.8</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3808.7</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>3818.7</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>3828.7</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3848.7</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>3600.5</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>3640.5</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>3700.5</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>3770.5</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>4088.3</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4168.3</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>4248.3</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>4328.3</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>3847.9</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>3937.9</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>4047.9</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4187.9</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>4065.6</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>4215.6</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>4365.6</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>4485.6</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>4255.2</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>4385.2</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>4505.2</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>4645.2</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>4729.8</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>4749.8</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>4739.8</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>4629.8</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>4779.7</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>4639.7</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>4499.7</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>4369.7</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>4173.3</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>4013.3</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>3923.3</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>3813.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="C17" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>3739.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3679.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3629.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3569.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3517.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3457.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3407.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3367.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3384</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3354</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3324</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3304</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3296.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3286.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3286.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3286.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3234.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3244.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3254.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3264.1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3083.3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3083.3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3083.3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3083.3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2711.9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2701.9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2701.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2701.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2874.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2884.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2904.6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2914.6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3099.8</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>3109.8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3109.8</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3099.8</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3497.1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>3467.1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>3427.1</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3377.1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>3847.7</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3797.7</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3737.7</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3687.7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>4094</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4044</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4004</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3954</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>3546</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>3496</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3456</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>3416</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>3358.8</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>3328.8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3318.8</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3318.8</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3339.8</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>3349.8</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3369.8</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>3379.8</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3308.7</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>3318.7</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>3338.7</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>3368.7</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>3130.5</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3190.5</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>3260.5</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>3350.5</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>3698.3</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3798.3</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>3908.3</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>4008.3</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>3567.9</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>3687.9</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>3817.9</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>3967.9</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>3855.6</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>4005.6</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>4145.6</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>4255.6</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>4005.2</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>4105.2</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>4195.2</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>4295.2</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>4349.8</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>4349.8</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>4349.8</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>4269.8</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>4449.7</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>4339.7</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>4199.7</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>4089.7</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>3943.3</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>3823.3</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>3723.3</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>3613.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" s="2" t="n">
+        <v>45780</v>
+      </c>
       <c r="C18" s="2" t="n">
         <v>45789</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
-      <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
-      <c r="CJ18" t="inlineStr"/>
-      <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr"/>
-      <c r="CQ18" t="inlineStr"/>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
-      <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>3779.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3739.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3669.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3609.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3587.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3547.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3507.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3467.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3494</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3464</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3454</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3454</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3476.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3486.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3496.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3496.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3444.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3444.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3454.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3474.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3333.3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3393.3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3473.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3583.3</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3351.9</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3501.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3651.9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3801.9</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4114.6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>4234.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>4344.6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>4424.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>4639.8</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>4659.8</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>4659.8</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>4629.8</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5007.1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4937.1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4857.1</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>4777.1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>5217.7</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>5137.7</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5067.7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>4997.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>5384</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5324</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5264</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>5214</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>4796</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>4746</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>4696</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4656</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>4598.8</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>4578.8</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>4568.8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>4568.8</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>4599.8</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>4609.8</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>4619.8</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>4629.8</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>4558.7</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>4588.7</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>4608.7</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>4380.5</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>4440.5</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>4510.5</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>4600.5</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>4938.3</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5028.3</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>5108.3</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>5188.3</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>4717.9</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>4797.9</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>4907.9</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>5027.9</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>4905.6</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>5065.6</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>5215.6</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>5335.6</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>5105.2</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>5235.2</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>5345.2</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>5475.2</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>5549.8</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>5559.8</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>5539.8</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>5429.8</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>5579.7</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>5449.7</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>5309.7</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>5149.7</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>4933.3</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>4753.3</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>4673.3</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>4563.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" s="2" t="n">
+        <v>45780</v>
+      </c>
       <c r="C19" s="2" t="n">
         <v>45790</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr"/>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
-      <c r="CF19" t="inlineStr"/>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
-      <c r="CJ19" t="inlineStr"/>
-      <c r="CK19" t="inlineStr"/>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr"/>
-      <c r="CQ19" t="inlineStr"/>
-      <c r="CR19" t="inlineStr"/>
-      <c r="CS19" t="inlineStr"/>
-      <c r="CT19" t="inlineStr"/>
-      <c r="CU19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>4379.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4329.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4279.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4219.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4187.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4147.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4097.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4047.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4064</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4024</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4004</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3994</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3996.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3996.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3996.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3996.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3944.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3944.1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3944.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3954.1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3803.3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3833.3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3893.3</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3963.3</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>3691.9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3791.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3901.9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4011.9</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4284.6</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4384.6</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>4464.6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4524.6</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4709.8</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4709.8</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4689.8</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4629.8</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4977.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4887.1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>4787.1</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>4677.1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>5117.7</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>5027.7</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4957.7</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>4897.7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>5314</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5274</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5244</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5204</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>4806</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>4756</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>4716</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>4608.8</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>4578.8</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>4558.8</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>4558.8</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4589.8</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>4599.8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>4619.8</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>4639.8</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>4558.7</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>4578.7</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>4588.7</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>4618.7</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>4370.5</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>4430.5</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>4510.5</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>4600.5</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>4928.3</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5028.3</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>5118.3</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>5198.3</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>4717.9</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>4797.9</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>4897.9</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>5027.9</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>4905.6</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>5065.6</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>5215.6</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>5335.6</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>5115.2</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>5235.2</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>5345.2</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>5475.2</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>5549.8</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>5559.8</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>5539.8</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>5429.8</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>5569.7</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>5449.7</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>5309.7</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>5159.7</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>4923.3</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>4763.3</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>4673.3</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>4563.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -15210,595 +16568,595 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="D69" t="n">
-        <v>4469.2</v>
+        <v>4474.2</v>
       </c>
       <c r="E69" t="n">
-        <v>4389.2</v>
+        <v>4414.2</v>
       </c>
       <c r="F69" t="n">
-        <v>4329.2</v>
+        <v>4354.2</v>
       </c>
       <c r="G69" t="n">
-        <v>4259.2</v>
+        <v>4294.2</v>
       </c>
       <c r="H69" t="n">
-        <v>4227.3</v>
+        <v>4939</v>
       </c>
       <c r="I69" t="n">
-        <v>4197.3</v>
+        <v>4889</v>
       </c>
       <c r="J69" t="n">
-        <v>4157.3</v>
+        <v>4839</v>
       </c>
       <c r="K69" t="n">
-        <v>4127.3</v>
+        <v>4779</v>
       </c>
       <c r="L69" t="n">
-        <v>4144</v>
+        <v>4711</v>
       </c>
       <c r="M69" t="n">
-        <v>4114</v>
+        <v>4691</v>
       </c>
       <c r="N69" t="n">
-        <v>4094</v>
+        <v>4671</v>
       </c>
       <c r="O69" t="n">
-        <v>4084</v>
+        <v>4651</v>
       </c>
       <c r="P69" t="n">
-        <v>4096.4</v>
+        <v>4617</v>
       </c>
       <c r="Q69" t="n">
-        <v>4096.4</v>
+        <v>4617</v>
       </c>
       <c r="R69" t="n">
-        <v>4106.4</v>
+        <v>4617</v>
       </c>
       <c r="S69" t="n">
-        <v>4106.4</v>
+        <v>4617</v>
       </c>
       <c r="T69" t="n">
-        <v>4064.1</v>
+        <v>4653</v>
       </c>
       <c r="U69" t="n">
-        <v>4074.1</v>
+        <v>4653</v>
       </c>
       <c r="V69" t="n">
-        <v>4094.1</v>
+        <v>4673</v>
       </c>
       <c r="W69" t="n">
-        <v>4134.1</v>
+        <v>4693</v>
       </c>
       <c r="X69" t="n">
-        <v>4003.3</v>
+        <v>4752</v>
       </c>
       <c r="Y69" t="n">
-        <v>4083.3</v>
+        <v>4802</v>
       </c>
       <c r="Z69" t="n">
-        <v>4193.3</v>
+        <v>4852</v>
       </c>
       <c r="AA69" t="n">
-        <v>4323.3</v>
+        <v>4922</v>
       </c>
       <c r="AB69" t="n">
-        <v>4101.9</v>
+        <v>5042</v>
       </c>
       <c r="AC69" t="n">
-        <v>4261.9</v>
+        <v>5152</v>
       </c>
       <c r="AD69" t="n">
-        <v>4431.9</v>
+        <v>5272</v>
       </c>
       <c r="AE69" t="n">
-        <v>4581.9</v>
+        <v>5392</v>
       </c>
       <c r="AF69" t="n">
-        <v>4894.6</v>
+        <v>5562</v>
       </c>
       <c r="AG69" t="n">
-        <v>5004.6</v>
+        <v>5662</v>
       </c>
       <c r="AH69" t="n">
-        <v>5094.6</v>
+        <v>5742</v>
       </c>
       <c r="AI69" t="n">
-        <v>5134.6</v>
+        <v>5792</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5309.8</v>
+        <v>5569</v>
       </c>
       <c r="AK69" t="n">
-        <v>5279.8</v>
+        <v>5549</v>
       </c>
       <c r="AL69" t="n">
-        <v>5199.8</v>
+        <v>5499</v>
       </c>
       <c r="AM69" t="n">
-        <v>5099.8</v>
+        <v>5419</v>
       </c>
       <c r="AN69" t="n">
-        <v>5397.1</v>
+        <v>5369</v>
       </c>
       <c r="AO69" t="n">
-        <v>5257.1</v>
+        <v>5229</v>
       </c>
       <c r="AP69" t="n">
-        <v>5107.1</v>
+        <v>5089</v>
       </c>
       <c r="AQ69" t="n">
-        <v>4957.1</v>
+        <v>4939</v>
       </c>
       <c r="AR69" t="n">
-        <v>5337.7</v>
+        <v>5034</v>
       </c>
       <c r="AS69" t="n">
-        <v>5207.7</v>
+        <v>4894</v>
       </c>
       <c r="AT69" t="n">
-        <v>5087.7</v>
+        <v>4774</v>
       </c>
       <c r="AU69" t="n">
-        <v>4987.7</v>
+        <v>4664</v>
       </c>
       <c r="AV69" t="n">
-        <v>5364</v>
+        <v>4768</v>
       </c>
       <c r="AW69" t="n">
-        <v>5284</v>
+        <v>4688</v>
       </c>
       <c r="AX69" t="n">
-        <v>5224</v>
+        <v>4618</v>
       </c>
       <c r="AY69" t="n">
-        <v>5174</v>
+        <v>4568</v>
       </c>
       <c r="AZ69" t="n">
-        <v>4766</v>
+        <v>4551</v>
       </c>
       <c r="BA69" t="n">
-        <v>4726</v>
+        <v>4531</v>
       </c>
       <c r="BB69" t="n">
-        <v>4696</v>
+        <v>4501</v>
       </c>
       <c r="BC69" t="n">
-        <v>4666</v>
+        <v>4481</v>
       </c>
       <c r="BD69" t="n">
-        <v>4628.8</v>
+        <v>4495</v>
       </c>
       <c r="BE69" t="n">
-        <v>4618.8</v>
+        <v>4475</v>
       </c>
       <c r="BF69" t="n">
-        <v>4608.8</v>
+        <v>4475</v>
       </c>
       <c r="BG69" t="n">
-        <v>4608.8</v>
+        <v>4475</v>
       </c>
       <c r="BH69" t="n">
-        <v>4639.8</v>
+        <v>4487</v>
       </c>
       <c r="BI69" t="n">
-        <v>4649.8</v>
+        <v>4507</v>
       </c>
       <c r="BJ69" t="n">
-        <v>4659.8</v>
+        <v>4537</v>
       </c>
       <c r="BK69" t="n">
-        <v>4669.8</v>
+        <v>4557</v>
       </c>
       <c r="BL69" t="n">
-        <v>4588.7</v>
+        <v>4575</v>
       </c>
       <c r="BM69" t="n">
-        <v>4608.7</v>
+        <v>4615</v>
       </c>
       <c r="BN69" t="n">
-        <v>4638.7</v>
+        <v>4675</v>
       </c>
       <c r="BO69" t="n">
-        <v>4688.7</v>
+        <v>4725</v>
       </c>
       <c r="BP69" t="n">
-        <v>4470.5</v>
+        <v>4763</v>
       </c>
       <c r="BQ69" t="n">
-        <v>4560.5</v>
+        <v>4863</v>
       </c>
       <c r="BR69" t="n">
-        <v>4660.5</v>
+        <v>4973</v>
       </c>
       <c r="BS69" t="n">
-        <v>4780.5</v>
+        <v>5093</v>
       </c>
       <c r="BT69" t="n">
-        <v>5138.3</v>
+        <v>5086</v>
       </c>
       <c r="BU69" t="n">
-        <v>5258.3</v>
+        <v>5216</v>
       </c>
       <c r="BV69" t="n">
-        <v>5378.3</v>
+        <v>5326</v>
       </c>
       <c r="BW69" t="n">
-        <v>5478.3</v>
+        <v>5436</v>
       </c>
       <c r="BX69" t="n">
-        <v>5037.9</v>
+        <v>5242</v>
       </c>
       <c r="BY69" t="n">
-        <v>5147.9</v>
+        <v>5352</v>
       </c>
       <c r="BZ69" t="n">
-        <v>5267.9</v>
+        <v>5472</v>
       </c>
       <c r="CA69" t="n">
-        <v>5407.9</v>
+        <v>5612</v>
       </c>
       <c r="CB69" t="n">
-        <v>5265.6</v>
+        <v>5678</v>
       </c>
       <c r="CC69" t="n">
-        <v>5395.6</v>
+        <v>5828</v>
       </c>
       <c r="CD69" t="n">
-        <v>5525.6</v>
+        <v>5968</v>
       </c>
       <c r="CE69" t="n">
-        <v>5625.6</v>
+        <v>6078</v>
       </c>
       <c r="CF69" t="n">
-        <v>5385.2</v>
+        <v>6165</v>
       </c>
       <c r="CG69" t="n">
-        <v>5505.2</v>
+        <v>6285</v>
       </c>
       <c r="CH69" t="n">
-        <v>5575.2</v>
+        <v>6395</v>
       </c>
       <c r="CI69" t="n">
-        <v>5665.2</v>
+        <v>6495</v>
       </c>
       <c r="CJ69" t="n">
-        <v>5699.8</v>
+        <v>6535</v>
       </c>
       <c r="CK69" t="n">
-        <v>5669.8</v>
+        <v>6525</v>
       </c>
       <c r="CL69" t="n">
-        <v>5629.8</v>
+        <v>6495</v>
       </c>
       <c r="CM69" t="n">
-        <v>5509.8</v>
+        <v>6385</v>
       </c>
       <c r="CN69" t="n">
-        <v>5659.7</v>
+        <v>6271</v>
       </c>
       <c r="CO69" t="n">
-        <v>5529.7</v>
+        <v>6121</v>
       </c>
       <c r="CP69" t="n">
-        <v>5369.7</v>
+        <v>5981</v>
       </c>
       <c r="CQ69" t="n">
-        <v>5189.7</v>
+        <v>5821</v>
       </c>
       <c r="CR69" t="n">
-        <v>5013.3</v>
+        <v>5637</v>
       </c>
       <c r="CS69" t="n">
-        <v>4843.3</v>
+        <v>5457</v>
       </c>
       <c r="CT69" t="n">
-        <v>4713.3</v>
+        <v>5367</v>
       </c>
       <c r="CU69" t="n">
-        <v>4593.3</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="D70" t="n">
-        <v>5914.2</v>
+        <v>5001</v>
       </c>
       <c r="E70" t="n">
-        <v>5854.2</v>
+        <v>4951</v>
       </c>
       <c r="F70" t="n">
-        <v>5804.2</v>
+        <v>4871</v>
       </c>
       <c r="G70" t="n">
-        <v>5744.2</v>
+        <v>4821</v>
       </c>
       <c r="H70" t="n">
-        <v>4836.8</v>
+        <v>3742.3</v>
       </c>
       <c r="I70" t="n">
-        <v>4786.8</v>
+        <v>3692.3</v>
       </c>
       <c r="J70" t="n">
-        <v>4746.8</v>
+        <v>3642.3</v>
       </c>
       <c r="K70" t="n">
-        <v>4706.8</v>
+        <v>3602.3</v>
       </c>
       <c r="L70" t="n">
-        <v>4258.8</v>
+        <v>3616.7</v>
       </c>
       <c r="M70" t="n">
-        <v>4228.8</v>
+        <v>3586.7</v>
       </c>
       <c r="N70" t="n">
-        <v>4198.8</v>
+        <v>3566.7</v>
       </c>
       <c r="O70" t="n">
-        <v>4178.8</v>
+        <v>3556.7</v>
       </c>
       <c r="P70" t="n">
-        <v>4277.1</v>
+        <v>3549.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>4277.1</v>
+        <v>3549.4</v>
       </c>
       <c r="R70" t="n">
-        <v>4277.1</v>
+        <v>3559.4</v>
       </c>
       <c r="S70" t="n">
-        <v>4297.1</v>
+        <v>3559.4</v>
       </c>
       <c r="T70" t="n">
-        <v>4251.4</v>
+        <v>3485</v>
       </c>
       <c r="U70" t="n">
-        <v>4271.4</v>
+        <v>3495</v>
       </c>
       <c r="V70" t="n">
-        <v>4301.4</v>
+        <v>3515</v>
       </c>
       <c r="W70" t="n">
-        <v>4341.4</v>
+        <v>3545</v>
       </c>
       <c r="X70" t="n">
-        <v>4431.2</v>
+        <v>3431.2</v>
       </c>
       <c r="Y70" t="n">
-        <v>4501.2</v>
+        <v>3491.2</v>
       </c>
       <c r="Z70" t="n">
-        <v>4581.2</v>
+        <v>3561.2</v>
       </c>
       <c r="AA70" t="n">
-        <v>4671.2</v>
+        <v>3651.2</v>
       </c>
       <c r="AB70" t="n">
-        <v>5670.6</v>
+        <v>3466.2</v>
       </c>
       <c r="AC70" t="n">
-        <v>5810.6</v>
+        <v>3566.2</v>
       </c>
       <c r="AD70" t="n">
-        <v>5960.6</v>
+        <v>3666.2</v>
       </c>
       <c r="AE70" t="n">
-        <v>6130.6</v>
+        <v>3766.2</v>
       </c>
       <c r="AF70" t="n">
-        <v>6789.2</v>
+        <v>4239.7</v>
       </c>
       <c r="AG70" t="n">
-        <v>6959.2</v>
+        <v>4299.7</v>
       </c>
       <c r="AH70" t="n">
-        <v>7099.2</v>
+        <v>4349.7</v>
       </c>
       <c r="AI70" t="n">
-        <v>7229.2</v>
+        <v>4369.7</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7728.1</v>
+        <v>4916.1</v>
       </c>
       <c r="AK70" t="n">
-        <v>7778.1</v>
+        <v>4886.1</v>
       </c>
       <c r="AL70" t="n">
-        <v>7798.1</v>
+        <v>4816.1</v>
       </c>
       <c r="AM70" t="n">
-        <v>7768.1</v>
+        <v>4726.1</v>
       </c>
       <c r="AN70" t="n">
-        <v>7855.5</v>
+        <v>4745.6</v>
       </c>
       <c r="AO70" t="n">
-        <v>7775.5</v>
+        <v>4615.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>7675.5</v>
+        <v>4475.6</v>
       </c>
       <c r="AQ70" t="n">
-        <v>7575.5</v>
+        <v>4325.6</v>
       </c>
       <c r="AR70" t="n">
-        <v>7331.5</v>
+        <v>4825.1</v>
       </c>
       <c r="AS70" t="n">
-        <v>7241.5</v>
+        <v>4695.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>7161.5</v>
+        <v>4575.1</v>
       </c>
       <c r="AU70" t="n">
-        <v>7091.5</v>
+        <v>4465.1</v>
       </c>
       <c r="AV70" t="n">
-        <v>6004.5</v>
+        <v>4777.9</v>
       </c>
       <c r="AW70" t="n">
-        <v>5954.5</v>
+        <v>4707.9</v>
       </c>
       <c r="AX70" t="n">
-        <v>5904.5</v>
+        <v>4647.9</v>
       </c>
       <c r="AY70" t="n">
-        <v>5864.5</v>
+        <v>4597.9</v>
       </c>
       <c r="AZ70" t="n">
-        <v>6029.4</v>
+        <v>4228.5</v>
       </c>
       <c r="BA70" t="n">
-        <v>5979.4</v>
+        <v>4198.5</v>
       </c>
       <c r="BB70" t="n">
-        <v>5939.4</v>
+        <v>4178.5</v>
       </c>
       <c r="BC70" t="n">
-        <v>5899.4</v>
+        <v>4158.5</v>
       </c>
       <c r="BD70" t="n">
-        <v>5600.3</v>
+        <v>3825.4</v>
       </c>
       <c r="BE70" t="n">
-        <v>5580.3</v>
+        <v>3825.4</v>
       </c>
       <c r="BF70" t="n">
-        <v>5570.3</v>
+        <v>3825.4</v>
       </c>
       <c r="BG70" t="n">
-        <v>5570.3</v>
+        <v>3825.4</v>
       </c>
       <c r="BH70" t="n">
-        <v>5579.4</v>
+        <v>3754.3</v>
       </c>
       <c r="BI70" t="n">
-        <v>5589.4</v>
+        <v>3764.3</v>
       </c>
       <c r="BJ70" t="n">
-        <v>5599.4</v>
+        <v>3774.3</v>
       </c>
       <c r="BK70" t="n">
-        <v>5609.4</v>
+        <v>3784.3</v>
       </c>
       <c r="BL70" t="n">
-        <v>5732.5</v>
+        <v>3660.6</v>
       </c>
       <c r="BM70" t="n">
-        <v>5742.5</v>
+        <v>3690.6</v>
       </c>
       <c r="BN70" t="n">
-        <v>5742.5</v>
+        <v>3720.6</v>
       </c>
       <c r="BO70" t="n">
-        <v>5752.5</v>
+        <v>3780.6</v>
       </c>
       <c r="BP70" t="n">
-        <v>5856</v>
+        <v>3536</v>
       </c>
       <c r="BQ70" t="n">
-        <v>5886</v>
+        <v>3636</v>
       </c>
       <c r="BR70" t="n">
-        <v>5946</v>
+        <v>3726</v>
       </c>
       <c r="BS70" t="n">
-        <v>6016</v>
+        <v>3846</v>
       </c>
       <c r="BT70" t="n">
-        <v>5680</v>
+        <v>3634.6</v>
       </c>
       <c r="BU70" t="n">
-        <v>5760</v>
+        <v>3754.6</v>
       </c>
       <c r="BV70" t="n">
-        <v>5840</v>
+        <v>3874.6</v>
       </c>
       <c r="BW70" t="n">
-        <v>5910</v>
+        <v>4014.6</v>
       </c>
       <c r="BX70" t="n">
-        <v>6241</v>
+        <v>3937.2</v>
       </c>
       <c r="BY70" t="n">
-        <v>6321</v>
+        <v>4057.2</v>
       </c>
       <c r="BZ70" t="n">
-        <v>6431</v>
+        <v>4187.2</v>
       </c>
       <c r="CA70" t="n">
-        <v>6561</v>
+        <v>4337.2</v>
       </c>
       <c r="CB70" t="n">
-        <v>7011.4</v>
+        <v>4205.4</v>
       </c>
       <c r="CC70" t="n">
-        <v>7151.4</v>
+        <v>4335.4</v>
       </c>
       <c r="CD70" t="n">
-        <v>7281.4</v>
+        <v>4475.4</v>
       </c>
       <c r="CE70" t="n">
-        <v>7391.4</v>
+        <v>4595.4</v>
       </c>
       <c r="CF70" t="n">
-        <v>7698.7</v>
+        <v>4355.3</v>
       </c>
       <c r="CG70" t="n">
-        <v>7748.7</v>
+        <v>4485.3</v>
       </c>
       <c r="CH70" t="n">
-        <v>7768.7</v>
+        <v>4585.3</v>
       </c>
       <c r="CI70" t="n">
-        <v>7778.7</v>
+        <v>4695.3</v>
       </c>
       <c r="CJ70" t="n">
-        <v>7698.2</v>
+        <v>4758.9</v>
       </c>
       <c r="CK70" t="n">
-        <v>7608.2</v>
+        <v>4738.9</v>
       </c>
       <c r="CL70" t="n">
-        <v>7508.2</v>
+        <v>4688.9</v>
       </c>
       <c r="CM70" t="n">
-        <v>7368.2</v>
+        <v>4578.9</v>
       </c>
       <c r="CN70" t="n">
-        <v>7113.3</v>
+        <v>4933.3</v>
       </c>
       <c r="CO70" t="n">
-        <v>6973.3</v>
+        <v>4773.3</v>
       </c>
       <c r="CP70" t="n">
-        <v>6803.3</v>
+        <v>4613.3</v>
       </c>
       <c r="CQ70" t="n">
-        <v>6613.3</v>
+        <v>4433.3</v>
       </c>
       <c r="CR70" t="n">
-        <v>6434</v>
+        <v>4495.4</v>
       </c>
       <c r="CS70" t="n">
-        <v>6284</v>
+        <v>4345.4</v>
       </c>
       <c r="CT70" t="n">
-        <v>6134</v>
+        <v>4185.4</v>
       </c>
       <c r="CU70" t="n">
-        <v>6004</v>
+        <v>4065.4</v>
       </c>
     </row>
     <row r="71">

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -11567,2390 +11567,2972 @@
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45798</v>
       </c>
       <c r="D60" t="n">
-        <v>5791.7</v>
+        <v>5340</v>
       </c>
       <c r="E60" t="n">
-        <v>5751.7</v>
+        <v>5290</v>
       </c>
       <c r="F60" t="n">
-        <v>5691.7</v>
+        <v>5220</v>
       </c>
       <c r="G60" t="n">
-        <v>5611.7</v>
+        <v>5160</v>
       </c>
       <c r="H60" t="n">
-        <v>5139</v>
+        <v>4874.9</v>
       </c>
       <c r="I60" t="n">
-        <v>5079</v>
+        <v>4834.9</v>
       </c>
       <c r="J60" t="n">
-        <v>5029</v>
+        <v>4794.9</v>
       </c>
       <c r="K60" t="n">
-        <v>4979</v>
+        <v>4754.9</v>
       </c>
       <c r="L60" t="n">
-        <v>4858</v>
+        <v>4647.5</v>
       </c>
       <c r="M60" t="n">
-        <v>4818</v>
+        <v>4607.5</v>
       </c>
       <c r="N60" t="n">
-        <v>4798</v>
+        <v>4587.5</v>
       </c>
       <c r="O60" t="n">
-        <v>4788</v>
+        <v>4577.5</v>
       </c>
       <c r="P60" t="n">
-        <v>4750</v>
+        <v>4544.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>4740</v>
+        <v>4544.5</v>
       </c>
       <c r="R60" t="n">
-        <v>4730</v>
+        <v>4544.5</v>
       </c>
       <c r="S60" t="n">
-        <v>4740</v>
+        <v>4564.5</v>
       </c>
       <c r="T60" t="n">
-        <v>4774</v>
+        <v>4628.7</v>
       </c>
       <c r="U60" t="n">
-        <v>4774</v>
+        <v>4638.7</v>
       </c>
       <c r="V60" t="n">
-        <v>4784</v>
+        <v>4648.7</v>
       </c>
       <c r="W60" t="n">
-        <v>4794</v>
+        <v>4668.7</v>
       </c>
       <c r="X60" t="n">
-        <v>4868</v>
+        <v>4633.6</v>
       </c>
       <c r="Y60" t="n">
-        <v>4898</v>
+        <v>4673.6</v>
       </c>
       <c r="Z60" t="n">
-        <v>4948</v>
+        <v>4723.6</v>
       </c>
       <c r="AA60" t="n">
-        <v>4998</v>
+        <v>4783.6</v>
       </c>
       <c r="AB60" t="n">
-        <v>5099</v>
+        <v>4748.7</v>
       </c>
       <c r="AC60" t="n">
-        <v>5159</v>
+        <v>4828.7</v>
       </c>
       <c r="AD60" t="n">
-        <v>5229</v>
+        <v>4898.7</v>
       </c>
       <c r="AE60" t="n">
-        <v>5299</v>
+        <v>5018.7</v>
       </c>
       <c r="AF60" t="n">
-        <v>5357</v>
+        <v>4899.8</v>
       </c>
       <c r="AG60" t="n">
-        <v>5417</v>
+        <v>4959.8</v>
       </c>
       <c r="AH60" t="n">
-        <v>5467</v>
+        <v>4999.8</v>
       </c>
       <c r="AI60" t="n">
-        <v>5507</v>
+        <v>5019.8</v>
       </c>
       <c r="AJ60" t="n">
-        <v>5656</v>
+        <v>5227.2</v>
       </c>
       <c r="AK60" t="n">
-        <v>5666</v>
+        <v>5167.2</v>
       </c>
       <c r="AL60" t="n">
-        <v>5676</v>
+        <v>5137.2</v>
       </c>
       <c r="AM60" t="n">
-        <v>5676</v>
+        <v>5057.2</v>
       </c>
       <c r="AN60" t="n">
-        <v>5717</v>
+        <v>5294.6</v>
       </c>
       <c r="AO60" t="n">
-        <v>5697</v>
+        <v>5194.6</v>
       </c>
       <c r="AP60" t="n">
-        <v>5657</v>
+        <v>5094.6</v>
       </c>
       <c r="AQ60" t="n">
-        <v>5607</v>
+        <v>5004.6</v>
       </c>
       <c r="AR60" t="n">
-        <v>5689</v>
+        <v>4905.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>5619</v>
+        <v>4825.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>5559</v>
+        <v>4745.2</v>
       </c>
       <c r="AU60" t="n">
-        <v>5489</v>
+        <v>4685.2</v>
       </c>
       <c r="AV60" t="n">
-        <v>5546</v>
+        <v>4780.3</v>
       </c>
       <c r="AW60" t="n">
-        <v>5486</v>
+        <v>4740.3</v>
       </c>
       <c r="AX60" t="n">
-        <v>5436</v>
+        <v>4710.3</v>
       </c>
       <c r="AY60" t="n">
-        <v>5396</v>
+        <v>4690.3</v>
       </c>
       <c r="AZ60" t="n">
-        <v>5449</v>
+        <v>4824.4</v>
       </c>
       <c r="BA60" t="n">
-        <v>5419</v>
+        <v>4814.4</v>
       </c>
       <c r="BB60" t="n">
-        <v>5399</v>
+        <v>4794.4</v>
       </c>
       <c r="BC60" t="n">
-        <v>5379</v>
+        <v>4804.4</v>
       </c>
       <c r="BD60" t="n">
-        <v>5356</v>
+        <v>4766.9</v>
       </c>
       <c r="BE60" t="n">
-        <v>5346</v>
+        <v>4776.9</v>
       </c>
       <c r="BF60" t="n">
-        <v>5336</v>
+        <v>4776.9</v>
       </c>
       <c r="BG60" t="n">
-        <v>5336</v>
+        <v>4776.9</v>
       </c>
       <c r="BH60" t="n">
-        <v>5367</v>
+        <v>4745.8</v>
       </c>
       <c r="BI60" t="n">
-        <v>5367</v>
+        <v>4745.8</v>
       </c>
       <c r="BJ60" t="n">
-        <v>5367</v>
+        <v>4745.8</v>
       </c>
       <c r="BK60" t="n">
-        <v>5367</v>
+        <v>4765.8</v>
       </c>
       <c r="BL60" t="n">
-        <v>5297</v>
+        <v>4787.6</v>
       </c>
       <c r="BM60" t="n">
-        <v>5307</v>
+        <v>4797.6</v>
       </c>
       <c r="BN60" t="n">
-        <v>5317</v>
+        <v>4817.6</v>
       </c>
       <c r="BO60" t="n">
-        <v>5347</v>
+        <v>4837.6</v>
       </c>
       <c r="BP60" t="n">
-        <v>5365</v>
+        <v>5018.7</v>
       </c>
       <c r="BQ60" t="n">
-        <v>5425</v>
+        <v>5068.7</v>
       </c>
       <c r="BR60" t="n">
-        <v>5485</v>
+        <v>5128.7</v>
       </c>
       <c r="BS60" t="n">
-        <v>5565</v>
+        <v>5208.7</v>
       </c>
       <c r="BT60" t="n">
-        <v>5611</v>
+        <v>4938.9</v>
       </c>
       <c r="BU60" t="n">
-        <v>5691</v>
+        <v>5028.9</v>
       </c>
       <c r="BV60" t="n">
-        <v>5771</v>
+        <v>5118.9</v>
       </c>
       <c r="BW60" t="n">
-        <v>5851</v>
+        <v>5208.9</v>
       </c>
       <c r="BX60" t="n">
-        <v>5893</v>
+        <v>5270.2</v>
       </c>
       <c r="BY60" t="n">
-        <v>5983</v>
+        <v>5380.2</v>
       </c>
       <c r="BZ60" t="n">
-        <v>6073</v>
+        <v>5500.2</v>
       </c>
       <c r="CA60" t="n">
-        <v>6193</v>
+        <v>5640.2</v>
       </c>
       <c r="CB60" t="n">
-        <v>6100</v>
+        <v>5388.2</v>
       </c>
       <c r="CC60" t="n">
-        <v>6240</v>
+        <v>5518.2</v>
       </c>
       <c r="CD60" t="n">
-        <v>6380</v>
+        <v>5628.2</v>
       </c>
       <c r="CE60" t="n">
-        <v>6510</v>
+        <v>5738.2</v>
       </c>
       <c r="CF60" t="n">
-        <v>6614</v>
+        <v>5743.9</v>
       </c>
       <c r="CG60" t="n">
-        <v>6744</v>
+        <v>5843.9</v>
       </c>
       <c r="CH60" t="n">
-        <v>6824</v>
+        <v>5933.9</v>
       </c>
       <c r="CI60" t="n">
-        <v>6874</v>
+        <v>6033.9</v>
       </c>
       <c r="CJ60" t="n">
-        <v>6963</v>
+        <v>6247.9</v>
       </c>
       <c r="CK60" t="n">
-        <v>6943</v>
+        <v>6247.9</v>
       </c>
       <c r="CL60" t="n">
-        <v>6933</v>
+        <v>6227.9</v>
       </c>
       <c r="CM60" t="n">
-        <v>6883</v>
+        <v>6137.9</v>
       </c>
       <c r="CN60" t="n">
-        <v>6849</v>
+        <v>6564.8</v>
       </c>
       <c r="CO60" t="n">
-        <v>6739</v>
+        <v>6404.8</v>
       </c>
       <c r="CP60" t="n">
-        <v>6619</v>
+        <v>6264.8</v>
       </c>
       <c r="CQ60" t="n">
-        <v>6459</v>
+        <v>6104.8</v>
       </c>
       <c r="CR60" t="n">
-        <v>6105</v>
+        <v>6245.9</v>
       </c>
       <c r="CS60" t="n">
-        <v>5955</v>
+        <v>6095.9</v>
       </c>
       <c r="CT60" t="n">
-        <v>5835</v>
+        <v>5985.9</v>
       </c>
       <c r="CU60" t="n">
-        <v>5725</v>
+        <v>5875.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" s="2" t="n">
-        <v>45792</v>
+        <v>45798</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45799</v>
       </c>
       <c r="D61" t="n">
-        <v>4134.2</v>
+        <v>5645.8</v>
       </c>
       <c r="E61" t="n">
-        <v>4084.2</v>
+        <v>5585.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4024.2</v>
+        <v>5515.8</v>
       </c>
       <c r="G61" t="n">
-        <v>3954.2</v>
+        <v>5455.8</v>
       </c>
       <c r="H61" t="n">
-        <v>4861</v>
+        <v>5634.3</v>
       </c>
       <c r="I61" t="n">
-        <v>4821</v>
+        <v>5584.3</v>
       </c>
       <c r="J61" t="n">
-        <v>4781</v>
+        <v>5524.3</v>
       </c>
       <c r="K61" t="n">
-        <v>4731</v>
+        <v>5474.3</v>
       </c>
       <c r="L61" t="n">
-        <v>4684</v>
+        <v>5526.9</v>
       </c>
       <c r="M61" t="n">
-        <v>4654</v>
+        <v>5486.9</v>
       </c>
       <c r="N61" t="n">
-        <v>4624</v>
+        <v>5456.9</v>
       </c>
       <c r="O61" t="n">
-        <v>4614</v>
+        <v>5446.9</v>
       </c>
       <c r="P61" t="n">
-        <v>4595</v>
+        <v>5542.7</v>
       </c>
       <c r="Q61" t="n">
-        <v>4605</v>
+        <v>5542.7</v>
       </c>
       <c r="R61" t="n">
-        <v>4615</v>
+        <v>5542.7</v>
       </c>
       <c r="S61" t="n">
-        <v>4625</v>
+        <v>5542.7</v>
       </c>
       <c r="T61" t="n">
-        <v>4619</v>
+        <v>5604.9</v>
       </c>
       <c r="U61" t="n">
-        <v>4639</v>
+        <v>5604.9</v>
       </c>
       <c r="V61" t="n">
-        <v>4649</v>
+        <v>5614.9</v>
       </c>
       <c r="W61" t="n">
-        <v>4669</v>
+        <v>5624.9</v>
       </c>
       <c r="X61" t="n">
-        <v>4715</v>
+        <v>5649.8</v>
       </c>
       <c r="Y61" t="n">
-        <v>4755</v>
+        <v>5689.8</v>
       </c>
       <c r="Z61" t="n">
-        <v>4815</v>
+        <v>5739.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>4885</v>
+        <v>5809.8</v>
       </c>
       <c r="AB61" t="n">
-        <v>5046</v>
+        <v>5683.2</v>
       </c>
       <c r="AC61" t="n">
-        <v>5146</v>
+        <v>5773.2</v>
       </c>
       <c r="AD61" t="n">
-        <v>5256</v>
+        <v>5873.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>5356</v>
+        <v>5973.2</v>
       </c>
       <c r="AF61" t="n">
-        <v>5428</v>
+        <v>6145.9</v>
       </c>
       <c r="AG61" t="n">
-        <v>5498</v>
+        <v>6235.9</v>
       </c>
       <c r="AH61" t="n">
-        <v>5548</v>
+        <v>6315.9</v>
       </c>
       <c r="AI61" t="n">
-        <v>5568</v>
+        <v>6365.9</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5590</v>
+        <v>6424.2</v>
       </c>
       <c r="AK61" t="n">
-        <v>5540</v>
+        <v>6444.2</v>
       </c>
       <c r="AL61" t="n">
-        <v>5470</v>
+        <v>6444.2</v>
       </c>
       <c r="AM61" t="n">
-        <v>5370</v>
+        <v>6414.2</v>
       </c>
       <c r="AN61" t="n">
-        <v>5357</v>
+        <v>6506.4</v>
       </c>
       <c r="AO61" t="n">
-        <v>5237</v>
+        <v>6446.4</v>
       </c>
       <c r="AP61" t="n">
-        <v>5117</v>
+        <v>6386.4</v>
       </c>
       <c r="AQ61" t="n">
-        <v>5007</v>
+        <v>6316.4</v>
       </c>
       <c r="AR61" t="n">
-        <v>4980</v>
+        <v>6289.4</v>
       </c>
       <c r="AS61" t="n">
-        <v>4910</v>
+        <v>6219.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>4850</v>
+        <v>6159.4</v>
       </c>
       <c r="AU61" t="n">
-        <v>4810</v>
+        <v>6109.4</v>
       </c>
       <c r="AV61" t="n">
-        <v>4862</v>
+        <v>6497.9</v>
       </c>
       <c r="AW61" t="n">
-        <v>4832</v>
+        <v>6457.9</v>
       </c>
       <c r="AX61" t="n">
-        <v>4822</v>
+        <v>6427.9</v>
       </c>
       <c r="AY61" t="n">
-        <v>4802</v>
+        <v>6407.9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>4902</v>
+        <v>6646.9</v>
       </c>
       <c r="BA61" t="n">
-        <v>4872</v>
+        <v>6616.9</v>
       </c>
       <c r="BB61" t="n">
-        <v>4842</v>
+        <v>6596.9</v>
       </c>
       <c r="BC61" t="n">
-        <v>4822</v>
+        <v>6576.9</v>
       </c>
       <c r="BD61" t="n">
-        <v>4830</v>
+        <v>6482.5</v>
       </c>
       <c r="BE61" t="n">
-        <v>4820</v>
+        <v>6472.5</v>
       </c>
       <c r="BF61" t="n">
-        <v>4810</v>
+        <v>6472.5</v>
       </c>
       <c r="BG61" t="n">
-        <v>4820</v>
+        <v>6482.5</v>
       </c>
       <c r="BH61" t="n">
-        <v>4874</v>
+        <v>6292</v>
       </c>
       <c r="BI61" t="n">
-        <v>4884</v>
+        <v>6322</v>
       </c>
       <c r="BJ61" t="n">
-        <v>4904</v>
+        <v>6342</v>
       </c>
       <c r="BK61" t="n">
-        <v>4904</v>
+        <v>6372</v>
       </c>
       <c r="BL61" t="n">
-        <v>4861</v>
+        <v>6309.5</v>
       </c>
       <c r="BM61" t="n">
-        <v>4861</v>
+        <v>6339.5</v>
       </c>
       <c r="BN61" t="n">
-        <v>4871</v>
+        <v>6369.5</v>
       </c>
       <c r="BO61" t="n">
-        <v>4881</v>
+        <v>6399.5</v>
       </c>
       <c r="BP61" t="n">
-        <v>4862</v>
+        <v>6345</v>
       </c>
       <c r="BQ61" t="n">
-        <v>4912</v>
+        <v>6395</v>
       </c>
       <c r="BR61" t="n">
-        <v>4982</v>
+        <v>6455</v>
       </c>
       <c r="BS61" t="n">
-        <v>5072</v>
+        <v>6515</v>
       </c>
       <c r="BT61" t="n">
-        <v>5086</v>
+        <v>6324.5</v>
       </c>
       <c r="BU61" t="n">
-        <v>5186</v>
+        <v>6404.5</v>
       </c>
       <c r="BV61" t="n">
-        <v>5286</v>
+        <v>6474.5</v>
       </c>
       <c r="BW61" t="n">
-        <v>5376</v>
+        <v>6544.5</v>
       </c>
       <c r="BX61" t="n">
-        <v>5372</v>
+        <v>6610.3</v>
       </c>
       <c r="BY61" t="n">
-        <v>5482</v>
+        <v>6690.3</v>
       </c>
       <c r="BZ61" t="n">
-        <v>5612</v>
+        <v>6770.3</v>
       </c>
       <c r="CA61" t="n">
-        <v>5752</v>
+        <v>6870.3</v>
       </c>
       <c r="CB61" t="n">
-        <v>5699</v>
+        <v>6321.4</v>
       </c>
       <c r="CC61" t="n">
-        <v>5839</v>
+        <v>6421.4</v>
       </c>
       <c r="CD61" t="n">
-        <v>5959</v>
+        <v>6521.4</v>
       </c>
       <c r="CE61" t="n">
-        <v>6089</v>
+        <v>6621.4</v>
       </c>
       <c r="CF61" t="n">
-        <v>6192</v>
+        <v>6241.8</v>
       </c>
       <c r="CG61" t="n">
-        <v>6322</v>
+        <v>6331.8</v>
       </c>
       <c r="CH61" t="n">
-        <v>6442</v>
+        <v>6411.8</v>
       </c>
       <c r="CI61" t="n">
-        <v>6562</v>
+        <v>6471.8</v>
       </c>
       <c r="CJ61" t="n">
-        <v>6618</v>
+        <v>6456.7</v>
       </c>
       <c r="CK61" t="n">
-        <v>6608</v>
+        <v>6466.7</v>
       </c>
       <c r="CL61" t="n">
-        <v>6568</v>
+        <v>6426.7</v>
       </c>
       <c r="CM61" t="n">
-        <v>6458</v>
+        <v>6316.7</v>
       </c>
       <c r="CN61" t="n">
-        <v>6245</v>
+        <v>6584</v>
       </c>
       <c r="CO61" t="n">
-        <v>6095</v>
+        <v>6434</v>
       </c>
       <c r="CP61" t="n">
-        <v>5945</v>
+        <v>6264</v>
       </c>
       <c r="CQ61" t="n">
-        <v>5765</v>
+        <v>6114</v>
       </c>
       <c r="CR61" t="n">
-        <v>5714</v>
+        <v>6077.9</v>
       </c>
       <c r="CS61" t="n">
-        <v>5544</v>
+        <v>5927.9</v>
       </c>
       <c r="CT61" t="n">
-        <v>5414</v>
+        <v>5787.9</v>
       </c>
       <c r="CU61" t="n">
-        <v>5294</v>
+        <v>5647.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" s="2" t="n">
-        <v>45792</v>
+        <v>45798</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="D62" t="n">
-        <v>5048.5</v>
+        <v>5525.8</v>
       </c>
       <c r="E62" t="n">
-        <v>5008.5</v>
+        <v>5465.8</v>
       </c>
       <c r="F62" t="n">
-        <v>4948.5</v>
+        <v>5415.8</v>
       </c>
       <c r="G62" t="n">
-        <v>4878.5</v>
+        <v>5365.8</v>
       </c>
       <c r="H62" t="n">
-        <v>4758.1</v>
+        <v>5544.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4718.1</v>
+        <v>5514.3</v>
       </c>
       <c r="J62" t="n">
-        <v>4668.1</v>
+        <v>5474.3</v>
       </c>
       <c r="K62" t="n">
-        <v>4628.1</v>
+        <v>5434.3</v>
       </c>
       <c r="L62" t="n">
-        <v>4780</v>
+        <v>5486.9</v>
       </c>
       <c r="M62" t="n">
-        <v>4750</v>
+        <v>5456.9</v>
       </c>
       <c r="N62" t="n">
-        <v>4730</v>
+        <v>5426.9</v>
       </c>
       <c r="O62" t="n">
-        <v>4710</v>
+        <v>5406.9</v>
       </c>
       <c r="P62" t="n">
-        <v>4588.9</v>
+        <v>5492.7</v>
       </c>
       <c r="Q62" t="n">
-        <v>4588.9</v>
+        <v>5492.7</v>
       </c>
       <c r="R62" t="n">
-        <v>4598.9</v>
+        <v>5502.7</v>
       </c>
       <c r="S62" t="n">
-        <v>4598.9</v>
+        <v>5512.7</v>
       </c>
       <c r="T62" t="n">
-        <v>4367.5</v>
+        <v>5594.9</v>
       </c>
       <c r="U62" t="n">
-        <v>4377.5</v>
+        <v>5614.9</v>
       </c>
       <c r="V62" t="n">
-        <v>4407.5</v>
+        <v>5634.9</v>
       </c>
       <c r="W62" t="n">
-        <v>4427.5</v>
+        <v>5654.9</v>
       </c>
       <c r="X62" t="n">
-        <v>4491</v>
+        <v>5679.8</v>
       </c>
       <c r="Y62" t="n">
-        <v>4541</v>
+        <v>5719.8</v>
       </c>
       <c r="Z62" t="n">
-        <v>4601</v>
+        <v>5769.8</v>
       </c>
       <c r="AA62" t="n">
-        <v>4671</v>
+        <v>5849.8</v>
       </c>
       <c r="AB62" t="n">
-        <v>4217.3</v>
+        <v>5723.2</v>
       </c>
       <c r="AC62" t="n">
-        <v>4307.3</v>
+        <v>5833.2</v>
       </c>
       <c r="AD62" t="n">
-        <v>4397.3</v>
+        <v>5953.2</v>
       </c>
       <c r="AE62" t="n">
-        <v>4497.3</v>
+        <v>6073.2</v>
       </c>
       <c r="AF62" t="n">
-        <v>4247.5</v>
+        <v>6265.9</v>
       </c>
       <c r="AG62" t="n">
-        <v>4327.5</v>
+        <v>6355.9</v>
       </c>
       <c r="AH62" t="n">
-        <v>4397.5</v>
+        <v>6425.9</v>
       </c>
       <c r="AI62" t="n">
-        <v>4447.5</v>
+        <v>6465.9</v>
       </c>
       <c r="AJ62" t="n">
-        <v>4343.9</v>
+        <v>6484.2</v>
       </c>
       <c r="AK62" t="n">
-        <v>4353.9</v>
+        <v>6454.2</v>
       </c>
       <c r="AL62" t="n">
-        <v>4333.9</v>
+        <v>6404.2</v>
       </c>
       <c r="AM62" t="n">
-        <v>4283.9</v>
+        <v>6324.2</v>
       </c>
       <c r="AN62" t="n">
-        <v>4806.4</v>
+        <v>6356.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>4726.4</v>
+        <v>6256.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>4626.4</v>
+        <v>6156.4</v>
       </c>
       <c r="AQ62" t="n">
-        <v>4526.4</v>
+        <v>6066.4</v>
       </c>
       <c r="AR62" t="n">
-        <v>4596.3</v>
+        <v>6019.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>4496.3</v>
+        <v>5949.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>4416.3</v>
+        <v>5899.4</v>
       </c>
       <c r="AU62" t="n">
-        <v>4336.3</v>
+        <v>5849.4</v>
       </c>
       <c r="AV62" t="n">
-        <v>4890.4</v>
+        <v>6237.9</v>
       </c>
       <c r="AW62" t="n">
-        <v>4840.4</v>
+        <v>6207.9</v>
       </c>
       <c r="AX62" t="n">
-        <v>4810.4</v>
+        <v>6167.9</v>
       </c>
       <c r="AY62" t="n">
-        <v>4780.4</v>
+        <v>6137.9</v>
       </c>
       <c r="AZ62" t="n">
-        <v>4752.3</v>
+        <v>6376.9</v>
       </c>
       <c r="BA62" t="n">
-        <v>4732.3</v>
+        <v>6346.9</v>
       </c>
       <c r="BB62" t="n">
-        <v>4712.3</v>
+        <v>6316.9</v>
       </c>
       <c r="BC62" t="n">
-        <v>4692.3</v>
+        <v>6296.9</v>
       </c>
       <c r="BD62" t="n">
-        <v>4506.4</v>
+        <v>6202.5</v>
       </c>
       <c r="BE62" t="n">
-        <v>4496.4</v>
+        <v>6202.5</v>
       </c>
       <c r="BF62" t="n">
-        <v>4486.4</v>
+        <v>6212.5</v>
       </c>
       <c r="BG62" t="n">
-        <v>4486.4</v>
+        <v>6232.5</v>
       </c>
       <c r="BH62" t="n">
-        <v>4445.6</v>
+        <v>6042</v>
       </c>
       <c r="BI62" t="n">
-        <v>4455.6</v>
+        <v>6072</v>
       </c>
       <c r="BJ62" t="n">
-        <v>4455.6</v>
+        <v>6102</v>
       </c>
       <c r="BK62" t="n">
-        <v>4455.6</v>
+        <v>6132</v>
       </c>
       <c r="BL62" t="n">
-        <v>4382.7</v>
+        <v>6069.5</v>
       </c>
       <c r="BM62" t="n">
-        <v>4382.7</v>
+        <v>6099.5</v>
       </c>
       <c r="BN62" t="n">
-        <v>4392.7</v>
+        <v>6139.5</v>
       </c>
       <c r="BO62" t="n">
-        <v>4412.7</v>
+        <v>6189.5</v>
       </c>
       <c r="BP62" t="n">
-        <v>4120.8</v>
+        <v>6155</v>
       </c>
       <c r="BQ62" t="n">
-        <v>4160.8</v>
+        <v>6225</v>
       </c>
       <c r="BR62" t="n">
-        <v>4230.8</v>
+        <v>6305</v>
       </c>
       <c r="BS62" t="n">
-        <v>4300.8</v>
+        <v>6385</v>
       </c>
       <c r="BT62" t="n">
-        <v>4054.2</v>
+        <v>6214.5</v>
       </c>
       <c r="BU62" t="n">
-        <v>4134.2</v>
+        <v>6304.5</v>
       </c>
       <c r="BV62" t="n">
-        <v>4214.2</v>
+        <v>6384.5</v>
       </c>
       <c r="BW62" t="n">
-        <v>4284.2</v>
+        <v>6464.5</v>
       </c>
       <c r="BX62" t="n">
-        <v>4162.6</v>
+        <v>6540.3</v>
       </c>
       <c r="BY62" t="n">
-        <v>4252.6</v>
+        <v>6640.3</v>
       </c>
       <c r="BZ62" t="n">
-        <v>4332.6</v>
+        <v>6720.3</v>
       </c>
       <c r="CA62" t="n">
-        <v>4442.6</v>
+        <v>6830.3</v>
       </c>
       <c r="CB62" t="n">
-        <v>4059.2</v>
+        <v>6311.4</v>
       </c>
       <c r="CC62" t="n">
-        <v>4179.2</v>
+        <v>6421.4</v>
       </c>
       <c r="CD62" t="n">
-        <v>4309.2</v>
+        <v>6521.4</v>
       </c>
       <c r="CE62" t="n">
-        <v>4429.2</v>
+        <v>6621.4</v>
       </c>
       <c r="CF62" t="n">
-        <v>4078.3</v>
+        <v>6241.8</v>
       </c>
       <c r="CG62" t="n">
-        <v>4208.3</v>
+        <v>6341.8</v>
       </c>
       <c r="CH62" t="n">
-        <v>4318.3</v>
+        <v>6421.8</v>
       </c>
       <c r="CI62" t="n">
-        <v>4428.3</v>
+        <v>6471.8</v>
       </c>
       <c r="CJ62" t="n">
-        <v>4571.2</v>
+        <v>6436.7</v>
       </c>
       <c r="CK62" t="n">
-        <v>4561.2</v>
+        <v>6446.7</v>
       </c>
       <c r="CL62" t="n">
-        <v>4531.2</v>
+        <v>6436.7</v>
       </c>
       <c r="CM62" t="n">
-        <v>4401.2</v>
+        <v>6376.7</v>
       </c>
       <c r="CN62" t="n">
-        <v>4642</v>
+        <v>6634</v>
       </c>
       <c r="CO62" t="n">
-        <v>4492</v>
+        <v>6514</v>
       </c>
       <c r="CP62" t="n">
-        <v>4352</v>
+        <v>6364</v>
       </c>
       <c r="CQ62" t="n">
-        <v>4202</v>
+        <v>6194</v>
       </c>
       <c r="CR62" t="n">
-        <v>4350.4</v>
+        <v>6147.9</v>
       </c>
       <c r="CS62" t="n">
-        <v>4210.4</v>
+        <v>5967.9</v>
       </c>
       <c r="CT62" t="n">
-        <v>4090.4</v>
+        <v>5857.9</v>
       </c>
       <c r="CU62" t="n">
-        <v>3980.4</v>
+        <v>5747.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" s="2" t="n">
-        <v>45793</v>
+        <v>45799</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45801</v>
       </c>
       <c r="D63" t="n">
-        <v>3958.2</v>
+        <v>5240</v>
       </c>
       <c r="E63" t="n">
-        <v>3898.2</v>
+        <v>5190</v>
       </c>
       <c r="F63" t="n">
-        <v>3848.2</v>
+        <v>5140</v>
       </c>
       <c r="G63" t="n">
-        <v>3798.2</v>
+        <v>5070</v>
       </c>
       <c r="H63" t="n">
-        <v>5158</v>
+        <v>4804.9</v>
       </c>
       <c r="I63" t="n">
-        <v>5108</v>
+        <v>4744.9</v>
       </c>
       <c r="J63" t="n">
-        <v>5068</v>
+        <v>4704.9</v>
       </c>
       <c r="K63" t="n">
-        <v>5028</v>
+        <v>4654.9</v>
       </c>
       <c r="L63" t="n">
-        <v>4959</v>
+        <v>4527.5</v>
       </c>
       <c r="M63" t="n">
-        <v>4919</v>
+        <v>4477.5</v>
       </c>
       <c r="N63" t="n">
-        <v>4889</v>
+        <v>4437.5</v>
       </c>
       <c r="O63" t="n">
-        <v>4869</v>
+        <v>4407.5</v>
       </c>
       <c r="P63" t="n">
-        <v>4842</v>
+        <v>4374.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4832</v>
+        <v>4364.5</v>
       </c>
       <c r="R63" t="n">
-        <v>4822</v>
+        <v>4354.5</v>
       </c>
       <c r="S63" t="n">
-        <v>4822</v>
+        <v>4354.5</v>
       </c>
       <c r="T63" t="n">
-        <v>4806</v>
+        <v>4388.7</v>
       </c>
       <c r="U63" t="n">
-        <v>4816</v>
+        <v>4378.7</v>
       </c>
       <c r="V63" t="n">
-        <v>4826</v>
+        <v>4378.7</v>
       </c>
       <c r="W63" t="n">
-        <v>4846</v>
+        <v>4378.7</v>
       </c>
       <c r="X63" t="n">
-        <v>4927</v>
+        <v>4323.6</v>
       </c>
       <c r="Y63" t="n">
-        <v>4957</v>
+        <v>4323.6</v>
       </c>
       <c r="Z63" t="n">
-        <v>4977</v>
+        <v>4333.6</v>
       </c>
       <c r="AA63" t="n">
-        <v>5007</v>
+        <v>4343.6</v>
       </c>
       <c r="AB63" t="n">
-        <v>5060</v>
+        <v>4288.7</v>
       </c>
       <c r="AC63" t="n">
-        <v>5090</v>
+        <v>4318.7</v>
       </c>
       <c r="AD63" t="n">
-        <v>5130</v>
+        <v>4358.7</v>
       </c>
       <c r="AE63" t="n">
-        <v>5180</v>
+        <v>4398.7</v>
       </c>
       <c r="AF63" t="n">
-        <v>5151</v>
+        <v>4169.8</v>
       </c>
       <c r="AG63" t="n">
-        <v>5201</v>
+        <v>4219.8</v>
       </c>
       <c r="AH63" t="n">
-        <v>5251</v>
+        <v>4269.8</v>
       </c>
       <c r="AI63" t="n">
-        <v>5301</v>
+        <v>4319.8</v>
       </c>
       <c r="AJ63" t="n">
-        <v>5372</v>
+        <v>4587.2</v>
       </c>
       <c r="AK63" t="n">
-        <v>5402</v>
+        <v>4607.2</v>
       </c>
       <c r="AL63" t="n">
-        <v>5432</v>
+        <v>4607.2</v>
       </c>
       <c r="AM63" t="n">
-        <v>5432</v>
+        <v>4597.2</v>
       </c>
       <c r="AN63" t="n">
-        <v>5662</v>
+        <v>4914.6</v>
       </c>
       <c r="AO63" t="n">
-        <v>5652</v>
+        <v>4884.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>5632</v>
+        <v>4834.6</v>
       </c>
       <c r="AQ63" t="n">
-        <v>5612</v>
+        <v>4794.6</v>
       </c>
       <c r="AR63" t="n">
-        <v>5628</v>
+        <v>4715.2</v>
       </c>
       <c r="AS63" t="n">
-        <v>5608</v>
+        <v>4675.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>5578</v>
+        <v>4635.2</v>
       </c>
       <c r="AU63" t="n">
-        <v>5558</v>
+        <v>4595.2</v>
       </c>
       <c r="AV63" t="n">
-        <v>5606</v>
+        <v>4750.3</v>
       </c>
       <c r="AW63" t="n">
-        <v>5586</v>
+        <v>4730.3</v>
       </c>
       <c r="AX63" t="n">
-        <v>5576</v>
+        <v>4700.3</v>
       </c>
       <c r="AY63" t="n">
-        <v>5566</v>
+        <v>4680.3</v>
       </c>
       <c r="AZ63" t="n">
-        <v>5608</v>
+        <v>4804.4</v>
       </c>
       <c r="BA63" t="n">
-        <v>5598</v>
+        <v>4784.4</v>
       </c>
       <c r="BB63" t="n">
-        <v>5578</v>
+        <v>4754.4</v>
       </c>
       <c r="BC63" t="n">
-        <v>5558</v>
+        <v>4734.4</v>
       </c>
       <c r="BD63" t="n">
-        <v>5530</v>
+        <v>4666.9</v>
       </c>
       <c r="BE63" t="n">
-        <v>5520</v>
+        <v>4656.9</v>
       </c>
       <c r="BF63" t="n">
-        <v>5520</v>
+        <v>4646.9</v>
       </c>
       <c r="BG63" t="n">
-        <v>5530</v>
+        <v>4646.9</v>
       </c>
       <c r="BH63" t="n">
-        <v>5553</v>
+        <v>4625.8</v>
       </c>
       <c r="BI63" t="n">
-        <v>5573</v>
+        <v>4635.8</v>
       </c>
       <c r="BJ63" t="n">
-        <v>5583</v>
+        <v>4645.8</v>
       </c>
       <c r="BK63" t="n">
-        <v>5593</v>
+        <v>4655.8</v>
       </c>
       <c r="BL63" t="n">
-        <v>5666</v>
+        <v>4647.6</v>
       </c>
       <c r="BM63" t="n">
-        <v>5676</v>
+        <v>4667.6</v>
       </c>
       <c r="BN63" t="n">
-        <v>5686</v>
+        <v>4677.6</v>
       </c>
       <c r="BO63" t="n">
-        <v>5696</v>
+        <v>4697.6</v>
       </c>
       <c r="BP63" t="n">
-        <v>5778</v>
+        <v>4878.7</v>
       </c>
       <c r="BQ63" t="n">
-        <v>5808</v>
+        <v>4928.7</v>
       </c>
       <c r="BR63" t="n">
-        <v>5848</v>
+        <v>4988.7</v>
       </c>
       <c r="BS63" t="n">
-        <v>5888</v>
+        <v>5048.7</v>
       </c>
       <c r="BT63" t="n">
-        <v>5853</v>
+        <v>4788.9</v>
       </c>
       <c r="BU63" t="n">
-        <v>5903</v>
+        <v>4858.9</v>
       </c>
       <c r="BV63" t="n">
-        <v>5953</v>
+        <v>4938.9</v>
       </c>
       <c r="BW63" t="n">
-        <v>5993</v>
+        <v>5008.9</v>
       </c>
       <c r="BX63" t="n">
-        <v>5869</v>
+        <v>5000.2</v>
       </c>
       <c r="BY63" t="n">
-        <v>5919</v>
+        <v>5080.2</v>
       </c>
       <c r="BZ63" t="n">
-        <v>5979</v>
+        <v>5170.2</v>
       </c>
       <c r="CA63" t="n">
-        <v>6059</v>
+        <v>5280.2</v>
       </c>
       <c r="CB63" t="n">
-        <v>5935</v>
+        <v>5028.2</v>
       </c>
       <c r="CC63" t="n">
-        <v>6025</v>
+        <v>5148.2</v>
       </c>
       <c r="CD63" t="n">
-        <v>6115</v>
+        <v>5258.2</v>
       </c>
       <c r="CE63" t="n">
-        <v>6195</v>
+        <v>5358.2</v>
       </c>
       <c r="CF63" t="n">
-        <v>6210</v>
+        <v>5383.9</v>
       </c>
       <c r="CG63" t="n">
-        <v>6270</v>
+        <v>5493.9</v>
       </c>
       <c r="CH63" t="n">
-        <v>6320</v>
+        <v>5573.9</v>
       </c>
       <c r="CI63" t="n">
-        <v>6350</v>
+        <v>5673.9</v>
       </c>
       <c r="CJ63" t="n">
-        <v>6404</v>
+        <v>5837.9</v>
       </c>
       <c r="CK63" t="n">
-        <v>6404</v>
+        <v>5827.9</v>
       </c>
       <c r="CL63" t="n">
-        <v>6374</v>
+        <v>5827.9</v>
       </c>
       <c r="CM63" t="n">
-        <v>6324</v>
+        <v>5787.9</v>
       </c>
       <c r="CN63" t="n">
-        <v>6222</v>
+        <v>6304.8</v>
       </c>
       <c r="CO63" t="n">
-        <v>6132</v>
+        <v>6264.8</v>
       </c>
       <c r="CP63" t="n">
-        <v>5992</v>
+        <v>6134.8</v>
       </c>
       <c r="CQ63" t="n">
-        <v>5832</v>
+        <v>5954.8</v>
       </c>
       <c r="CR63" t="n">
-        <v>5700</v>
+        <v>6065.9</v>
       </c>
       <c r="CS63" t="n">
-        <v>5570</v>
+        <v>5905.9</v>
       </c>
       <c r="CT63" t="n">
-        <v>5460</v>
+        <v>5815.9</v>
       </c>
       <c r="CU63" t="n">
-        <v>5330</v>
+        <v>5705.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" s="2" t="n">
-        <v>45793</v>
+        <v>45799</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45802</v>
       </c>
       <c r="D64" t="n">
-        <v>3628.2</v>
+        <v>5090</v>
       </c>
       <c r="E64" t="n">
-        <v>3568.2</v>
+        <v>5050</v>
       </c>
       <c r="F64" t="n">
-        <v>3518.2</v>
+        <v>4990</v>
       </c>
       <c r="G64" t="n">
-        <v>3448.2</v>
+        <v>4910</v>
       </c>
       <c r="H64" t="n">
-        <v>4798</v>
+        <v>4634.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4728</v>
+        <v>4574.9</v>
       </c>
       <c r="J64" t="n">
-        <v>4658</v>
+        <v>4514.9</v>
       </c>
       <c r="K64" t="n">
-        <v>4598</v>
+        <v>4464.9</v>
       </c>
       <c r="L64" t="n">
-        <v>4509</v>
+        <v>4327.5</v>
       </c>
       <c r="M64" t="n">
-        <v>4459</v>
+        <v>4277.5</v>
       </c>
       <c r="N64" t="n">
-        <v>4419</v>
+        <v>4237.5</v>
       </c>
       <c r="O64" t="n">
-        <v>4379</v>
+        <v>4197.5</v>
       </c>
       <c r="P64" t="n">
-        <v>4342</v>
+        <v>4154.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>4302</v>
+        <v>4124.5</v>
       </c>
       <c r="R64" t="n">
-        <v>4272</v>
+        <v>4104.5</v>
       </c>
       <c r="S64" t="n">
-        <v>4252</v>
+        <v>4084.5</v>
       </c>
       <c r="T64" t="n">
-        <v>4206</v>
+        <v>4098.7</v>
       </c>
       <c r="U64" t="n">
-        <v>4186</v>
+        <v>4078.7</v>
       </c>
       <c r="V64" t="n">
-        <v>4186</v>
+        <v>4078.7</v>
       </c>
       <c r="W64" t="n">
-        <v>4186</v>
+        <v>4078.7</v>
       </c>
       <c r="X64" t="n">
-        <v>4267</v>
+        <v>4033.6</v>
       </c>
       <c r="Y64" t="n">
-        <v>4277</v>
+        <v>4033.6</v>
       </c>
       <c r="Z64" t="n">
-        <v>4307</v>
+        <v>4043.6</v>
       </c>
       <c r="AA64" t="n">
-        <v>4327</v>
+        <v>4063.6</v>
       </c>
       <c r="AB64" t="n">
-        <v>4360</v>
+        <v>3988.7</v>
       </c>
       <c r="AC64" t="n">
-        <v>4390</v>
+        <v>4008.7</v>
       </c>
       <c r="AD64" t="n">
-        <v>4410</v>
+        <v>4018.7</v>
       </c>
       <c r="AE64" t="n">
-        <v>4430</v>
+        <v>4038.7</v>
       </c>
       <c r="AF64" t="n">
-        <v>4381</v>
+        <v>3779.8</v>
       </c>
       <c r="AG64" t="n">
-        <v>4401</v>
+        <v>3799.8</v>
       </c>
       <c r="AH64" t="n">
-        <v>4421</v>
+        <v>3819.8</v>
       </c>
       <c r="AI64" t="n">
-        <v>4441</v>
+        <v>3839.8</v>
       </c>
       <c r="AJ64" t="n">
-        <v>4492</v>
+        <v>4097.2</v>
       </c>
       <c r="AK64" t="n">
-        <v>4512</v>
+        <v>4107.2</v>
       </c>
       <c r="AL64" t="n">
-        <v>4522</v>
+        <v>4107.2</v>
       </c>
       <c r="AM64" t="n">
-        <v>4522</v>
+        <v>4097.2</v>
       </c>
       <c r="AN64" t="n">
-        <v>4742</v>
+        <v>4414.6</v>
       </c>
       <c r="AO64" t="n">
-        <v>4722</v>
+        <v>4384.6</v>
       </c>
       <c r="AP64" t="n">
-        <v>4702</v>
+        <v>4344.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>4672</v>
+        <v>4294.6</v>
       </c>
       <c r="AR64" t="n">
-        <v>4688</v>
+        <v>4225.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>4668</v>
+        <v>4175.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>4638</v>
+        <v>4135.2</v>
       </c>
       <c r="AU64" t="n">
-        <v>4618</v>
+        <v>4095.2</v>
       </c>
       <c r="AV64" t="n">
-        <v>4666</v>
+        <v>4250.3</v>
       </c>
       <c r="AW64" t="n">
-        <v>4656</v>
+        <v>4220.3</v>
       </c>
       <c r="AX64" t="n">
-        <v>4656</v>
+        <v>4200.3</v>
       </c>
       <c r="AY64" t="n">
-        <v>4646</v>
+        <v>4180.3</v>
       </c>
       <c r="AZ64" t="n">
-        <v>4708</v>
+        <v>4304.4</v>
       </c>
       <c r="BA64" t="n">
-        <v>4698</v>
+        <v>4284.4</v>
       </c>
       <c r="BB64" t="n">
-        <v>4678</v>
+        <v>4254.4</v>
       </c>
       <c r="BC64" t="n">
-        <v>4658</v>
+        <v>4234.4</v>
       </c>
       <c r="BD64" t="n">
-        <v>4610</v>
+        <v>4166.9</v>
       </c>
       <c r="BE64" t="n">
-        <v>4580</v>
+        <v>4146.9</v>
       </c>
       <c r="BF64" t="n">
-        <v>4560</v>
+        <v>4146.9</v>
       </c>
       <c r="BG64" t="n">
-        <v>4540</v>
+        <v>4146.9</v>
       </c>
       <c r="BH64" t="n">
-        <v>4533</v>
+        <v>4125.8</v>
       </c>
       <c r="BI64" t="n">
-        <v>4533</v>
+        <v>4135.8</v>
       </c>
       <c r="BJ64" t="n">
-        <v>4533</v>
+        <v>4155.8</v>
       </c>
       <c r="BK64" t="n">
-        <v>4533</v>
+        <v>4165.8</v>
       </c>
       <c r="BL64" t="n">
-        <v>4596</v>
+        <v>4157.6</v>
       </c>
       <c r="BM64" t="n">
-        <v>4616</v>
+        <v>4157.6</v>
       </c>
       <c r="BN64" t="n">
-        <v>4626</v>
+        <v>4167.6</v>
       </c>
       <c r="BO64" t="n">
-        <v>4656</v>
+        <v>4177.6</v>
       </c>
       <c r="BP64" t="n">
-        <v>4748</v>
+        <v>4348.7</v>
       </c>
       <c r="BQ64" t="n">
-        <v>4798</v>
+        <v>4388.7</v>
       </c>
       <c r="BR64" t="n">
-        <v>4858</v>
+        <v>4448.7</v>
       </c>
       <c r="BS64" t="n">
-        <v>4928</v>
+        <v>4518.7</v>
       </c>
       <c r="BT64" t="n">
-        <v>4913</v>
+        <v>4258.9</v>
       </c>
       <c r="BU64" t="n">
-        <v>4993</v>
+        <v>4348.9</v>
       </c>
       <c r="BV64" t="n">
-        <v>5073</v>
+        <v>4428.9</v>
       </c>
       <c r="BW64" t="n">
-        <v>5153</v>
+        <v>4508.9</v>
       </c>
       <c r="BX64" t="n">
-        <v>5049</v>
+        <v>4500.2</v>
       </c>
       <c r="BY64" t="n">
-        <v>5129</v>
+        <v>4580.2</v>
       </c>
       <c r="BZ64" t="n">
-        <v>5209</v>
+        <v>4680.2</v>
       </c>
       <c r="CA64" t="n">
-        <v>5309</v>
+        <v>4790.2</v>
       </c>
       <c r="CB64" t="n">
-        <v>5205</v>
+        <v>4548.2</v>
       </c>
       <c r="CC64" t="n">
-        <v>5295</v>
+        <v>4688.2</v>
       </c>
       <c r="CD64" t="n">
-        <v>5385</v>
+        <v>4808.2</v>
       </c>
       <c r="CE64" t="n">
-        <v>5495</v>
+        <v>4898.2</v>
       </c>
       <c r="CF64" t="n">
-        <v>5530</v>
+        <v>4913.9</v>
       </c>
       <c r="CG64" t="n">
-        <v>5630</v>
+        <v>5013.9</v>
       </c>
       <c r="CH64" t="n">
-        <v>5720</v>
+        <v>5093.9</v>
       </c>
       <c r="CI64" t="n">
-        <v>5780</v>
+        <v>5203.9</v>
       </c>
       <c r="CJ64" t="n">
-        <v>5844</v>
+        <v>5417.9</v>
       </c>
       <c r="CK64" t="n">
-        <v>5834</v>
+        <v>5427.9</v>
       </c>
       <c r="CL64" t="n">
-        <v>5804</v>
+        <v>5437.9</v>
       </c>
       <c r="CM64" t="n">
-        <v>5744</v>
+        <v>5377.9</v>
       </c>
       <c r="CN64" t="n">
-        <v>5592</v>
+        <v>5824.8</v>
       </c>
       <c r="CO64" t="n">
-        <v>5492</v>
+        <v>5744.8</v>
       </c>
       <c r="CP64" t="n">
-        <v>5352</v>
+        <v>5624.8</v>
       </c>
       <c r="CQ64" t="n">
-        <v>5242</v>
+        <v>5484.8</v>
       </c>
       <c r="CR64" t="n">
-        <v>5140</v>
+        <v>5615.9</v>
       </c>
       <c r="CS64" t="n">
-        <v>5020</v>
+        <v>5495.9</v>
       </c>
       <c r="CT64" t="n">
-        <v>4910</v>
+        <v>5385.9</v>
       </c>
       <c r="CU64" t="n">
-        <v>4810</v>
+        <v>5285.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" s="2" t="n">
-        <v>45795</v>
+        <v>45799</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45803</v>
       </c>
       <c r="D65" t="n">
-        <v>3378.2</v>
+        <v>4790</v>
       </c>
       <c r="E65" t="n">
-        <v>3308.2</v>
+        <v>4750</v>
       </c>
       <c r="F65" t="n">
-        <v>3248.2</v>
+        <v>4680</v>
       </c>
       <c r="G65" t="n">
-        <v>3178.2</v>
+        <v>4620</v>
       </c>
       <c r="H65" t="n">
-        <v>4538</v>
+        <v>4364.9</v>
       </c>
       <c r="I65" t="n">
-        <v>4488</v>
+        <v>4324.9</v>
       </c>
       <c r="J65" t="n">
-        <v>4448</v>
+        <v>4284.9</v>
       </c>
       <c r="K65" t="n">
-        <v>4408</v>
+        <v>4244.9</v>
       </c>
       <c r="L65" t="n">
-        <v>4349</v>
+        <v>4127.5</v>
       </c>
       <c r="M65" t="n">
-        <v>4329</v>
+        <v>4097.5</v>
       </c>
       <c r="N65" t="n">
-        <v>4319</v>
+        <v>4077.5</v>
       </c>
       <c r="O65" t="n">
-        <v>4319</v>
+        <v>4057.5</v>
       </c>
       <c r="P65" t="n">
-        <v>4322</v>
+        <v>4044.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>4322</v>
+        <v>4044.5</v>
       </c>
       <c r="R65" t="n">
-        <v>4332</v>
+        <v>4054.5</v>
       </c>
       <c r="S65" t="n">
-        <v>4332</v>
+        <v>4074.5</v>
       </c>
       <c r="T65" t="n">
-        <v>4316</v>
+        <v>4118.7</v>
       </c>
       <c r="U65" t="n">
-        <v>4326</v>
+        <v>4128.7</v>
       </c>
       <c r="V65" t="n">
-        <v>4346</v>
+        <v>4148.7</v>
       </c>
       <c r="W65" t="n">
-        <v>4386</v>
+        <v>4178.7</v>
       </c>
       <c r="X65" t="n">
-        <v>4507</v>
+        <v>4173.6</v>
       </c>
       <c r="Y65" t="n">
-        <v>4587</v>
+        <v>4243.6</v>
       </c>
       <c r="Z65" t="n">
-        <v>4687</v>
+        <v>4333.6</v>
       </c>
       <c r="AA65" t="n">
-        <v>4797</v>
+        <v>4443.6</v>
       </c>
       <c r="AB65" t="n">
-        <v>4930</v>
+        <v>4478.7</v>
       </c>
       <c r="AC65" t="n">
-        <v>5060</v>
+        <v>4618.7</v>
       </c>
       <c r="AD65" t="n">
-        <v>5190</v>
+        <v>4768.7</v>
       </c>
       <c r="AE65" t="n">
-        <v>5310</v>
+        <v>4908.7</v>
       </c>
       <c r="AF65" t="n">
-        <v>5371</v>
+        <v>4779.8</v>
       </c>
       <c r="AG65" t="n">
-        <v>5481</v>
+        <v>4909.8</v>
       </c>
       <c r="AH65" t="n">
-        <v>5581</v>
+        <v>5029.8</v>
       </c>
       <c r="AI65" t="n">
-        <v>5671</v>
+        <v>5129.8</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5792</v>
+        <v>5447.2</v>
       </c>
       <c r="AK65" t="n">
-        <v>5852</v>
+        <v>5497.2</v>
       </c>
       <c r="AL65" t="n">
-        <v>5902</v>
+        <v>5507.2</v>
       </c>
       <c r="AM65" t="n">
-        <v>5932</v>
+        <v>5507.2</v>
       </c>
       <c r="AN65" t="n">
-        <v>6172</v>
+        <v>5824.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>6162</v>
+        <v>5774.6</v>
       </c>
       <c r="AP65" t="n">
-        <v>6132</v>
+        <v>5714.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>6092</v>
+        <v>5634.6</v>
       </c>
       <c r="AR65" t="n">
-        <v>6088</v>
+        <v>5525.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>6028</v>
+        <v>5445.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>5958</v>
+        <v>5375.2</v>
       </c>
       <c r="AU65" t="n">
-        <v>5888</v>
+        <v>5305.2</v>
       </c>
       <c r="AV65" t="n">
-        <v>5876</v>
+        <v>5430.3</v>
       </c>
       <c r="AW65" t="n">
-        <v>5816</v>
+        <v>5380.3</v>
       </c>
       <c r="AX65" t="n">
-        <v>5756</v>
+        <v>5330.3</v>
       </c>
       <c r="AY65" t="n">
-        <v>5696</v>
+        <v>5290.3</v>
       </c>
       <c r="AZ65" t="n">
-        <v>5708</v>
+        <v>5394.4</v>
       </c>
       <c r="BA65" t="n">
-        <v>5668</v>
+        <v>5354.4</v>
       </c>
       <c r="BB65" t="n">
-        <v>5628</v>
+        <v>5304.4</v>
       </c>
       <c r="BC65" t="n">
-        <v>5598</v>
+        <v>5264.4</v>
       </c>
       <c r="BD65" t="n">
-        <v>5550</v>
+        <v>5176.9</v>
       </c>
       <c r="BE65" t="n">
-        <v>5540</v>
+        <v>5146.9</v>
       </c>
       <c r="BF65" t="n">
-        <v>5530</v>
+        <v>5126.9</v>
       </c>
       <c r="BG65" t="n">
-        <v>5540</v>
+        <v>5116.9</v>
       </c>
       <c r="BH65" t="n">
-        <v>5563</v>
+        <v>5085.8</v>
       </c>
       <c r="BI65" t="n">
-        <v>5573</v>
+        <v>5095.8</v>
       </c>
       <c r="BJ65" t="n">
-        <v>5593</v>
+        <v>5105.8</v>
       </c>
       <c r="BK65" t="n">
-        <v>5603</v>
+        <v>5115.8</v>
       </c>
       <c r="BL65" t="n">
-        <v>5676</v>
+        <v>5107.6</v>
       </c>
       <c r="BM65" t="n">
-        <v>5686</v>
+        <v>5117.6</v>
       </c>
       <c r="BN65" t="n">
-        <v>5706</v>
+        <v>5127.6</v>
       </c>
       <c r="BO65" t="n">
-        <v>5736</v>
+        <v>5147.6</v>
       </c>
       <c r="BP65" t="n">
-        <v>5838</v>
+        <v>5328.7</v>
       </c>
       <c r="BQ65" t="n">
-        <v>5888</v>
+        <v>5368.7</v>
       </c>
       <c r="BR65" t="n">
-        <v>5958</v>
+        <v>5438.7</v>
       </c>
       <c r="BS65" t="n">
-        <v>6048</v>
+        <v>5518.7</v>
       </c>
       <c r="BT65" t="n">
-        <v>6033</v>
+        <v>5268.9</v>
       </c>
       <c r="BU65" t="n">
-        <v>6103</v>
+        <v>5358.9</v>
       </c>
       <c r="BV65" t="n">
-        <v>6163</v>
+        <v>5448.9</v>
       </c>
       <c r="BW65" t="n">
-        <v>6253</v>
+        <v>5538.9</v>
       </c>
       <c r="BX65" t="n">
-        <v>6159</v>
+        <v>5560.2</v>
       </c>
       <c r="BY65" t="n">
-        <v>6229</v>
+        <v>5660.2</v>
       </c>
       <c r="BZ65" t="n">
-        <v>6309</v>
+        <v>5770.2</v>
       </c>
       <c r="CA65" t="n">
-        <v>6409</v>
+        <v>5900.2</v>
       </c>
       <c r="CB65" t="n">
-        <v>6275</v>
+        <v>5668.2</v>
       </c>
       <c r="CC65" t="n">
-        <v>6385</v>
+        <v>5798.2</v>
       </c>
       <c r="CD65" t="n">
-        <v>6475</v>
+        <v>5908.2</v>
       </c>
       <c r="CE65" t="n">
-        <v>6565</v>
+        <v>5978.2</v>
       </c>
       <c r="CF65" t="n">
-        <v>6590</v>
+        <v>5973.9</v>
       </c>
       <c r="CG65" t="n">
-        <v>6680</v>
+        <v>6053.9</v>
       </c>
       <c r="CH65" t="n">
-        <v>6750</v>
+        <v>6133.9</v>
       </c>
       <c r="CI65" t="n">
-        <v>6830</v>
+        <v>6243.9</v>
       </c>
       <c r="CJ65" t="n">
-        <v>6904</v>
+        <v>6437.9</v>
       </c>
       <c r="CK65" t="n">
-        <v>6904</v>
+        <v>6437.9</v>
       </c>
       <c r="CL65" t="n">
-        <v>6874</v>
+        <v>6427.9</v>
       </c>
       <c r="CM65" t="n">
-        <v>6744</v>
+        <v>6297.9</v>
       </c>
       <c r="CN65" t="n">
-        <v>6532</v>
+        <v>6704.8</v>
       </c>
       <c r="CO65" t="n">
-        <v>6372</v>
+        <v>6574.8</v>
       </c>
       <c r="CP65" t="n">
-        <v>6202</v>
+        <v>6444.8</v>
       </c>
       <c r="CQ65" t="n">
-        <v>6032</v>
+        <v>6264.8</v>
       </c>
       <c r="CR65" t="n">
-        <v>5880</v>
+        <v>6295.9</v>
       </c>
       <c r="CS65" t="n">
-        <v>5740</v>
+        <v>6105.9</v>
       </c>
       <c r="CT65" t="n">
-        <v>5620</v>
+        <v>6025.9</v>
       </c>
       <c r="CU65" t="n">
-        <v>5490</v>
+        <v>5915.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" s="2" t="n">
-        <v>45796</v>
+        <v>45799</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45804</v>
       </c>
       <c r="D66" t="n">
-        <v>5134.2</v>
+        <v>5340</v>
       </c>
       <c r="E66" t="n">
-        <v>5094.2</v>
+        <v>5300</v>
       </c>
       <c r="F66" t="n">
-        <v>5034.2</v>
+        <v>5230</v>
       </c>
       <c r="G66" t="n">
-        <v>4954.2</v>
+        <v>5170</v>
       </c>
       <c r="H66" t="n">
-        <v>4796.3</v>
+        <v>4914.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4746.3</v>
+        <v>4874.9</v>
       </c>
       <c r="J66" t="n">
-        <v>4696.3</v>
+        <v>4834.9</v>
       </c>
       <c r="K66" t="n">
-        <v>4666.3</v>
+        <v>4784.9</v>
       </c>
       <c r="L66" t="n">
-        <v>4817.9</v>
+        <v>4657.5</v>
       </c>
       <c r="M66" t="n">
-        <v>4797.9</v>
+        <v>4617.5</v>
       </c>
       <c r="N66" t="n">
-        <v>4787.9</v>
+        <v>4587.5</v>
       </c>
       <c r="O66" t="n">
-        <v>4787.9</v>
+        <v>4557.5</v>
       </c>
       <c r="P66" t="n">
-        <v>4825.3</v>
+        <v>4544.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4825.3</v>
+        <v>4544.5</v>
       </c>
       <c r="R66" t="n">
-        <v>4835.3</v>
+        <v>4554.5</v>
       </c>
       <c r="S66" t="n">
-        <v>4835.3</v>
+        <v>4554.5</v>
       </c>
       <c r="T66" t="n">
-        <v>4732.7</v>
+        <v>4598.7</v>
       </c>
       <c r="U66" t="n">
-        <v>4732.7</v>
+        <v>4618.7</v>
       </c>
       <c r="V66" t="n">
-        <v>4742.7</v>
+        <v>4638.7</v>
       </c>
       <c r="W66" t="n">
-        <v>4752.7</v>
+        <v>4658.7</v>
       </c>
       <c r="X66" t="n">
-        <v>4648.5</v>
+        <v>4653.6</v>
       </c>
       <c r="Y66" t="n">
-        <v>4678.5</v>
+        <v>4703.6</v>
       </c>
       <c r="Z66" t="n">
-        <v>4708.5</v>
+        <v>4773.6</v>
       </c>
       <c r="AA66" t="n">
-        <v>4758.5</v>
+        <v>4853.6</v>
       </c>
       <c r="AB66" t="n">
-        <v>4414.4</v>
+        <v>4858.7</v>
       </c>
       <c r="AC66" t="n">
-        <v>4474.4</v>
+        <v>4958.7</v>
       </c>
       <c r="AD66" t="n">
-        <v>4544.4</v>
+        <v>5058.7</v>
       </c>
       <c r="AE66" t="n">
-        <v>4624.4</v>
+        <v>5158.7</v>
       </c>
       <c r="AF66" t="n">
-        <v>4513.3</v>
+        <v>4979.8</v>
       </c>
       <c r="AG66" t="n">
-        <v>4603.3</v>
+        <v>5069.8</v>
       </c>
       <c r="AH66" t="n">
-        <v>4693.3</v>
+        <v>5139.8</v>
       </c>
       <c r="AI66" t="n">
-        <v>4783.3</v>
+        <v>5199.8</v>
       </c>
       <c r="AJ66" t="n">
-        <v>4949.9</v>
+        <v>5487.2</v>
       </c>
       <c r="AK66" t="n">
-        <v>5019.9</v>
+        <v>5507.2</v>
       </c>
       <c r="AL66" t="n">
-        <v>5089.9</v>
+        <v>5507.2</v>
       </c>
       <c r="AM66" t="n">
-        <v>5129.9</v>
+        <v>5497.2</v>
       </c>
       <c r="AN66" t="n">
-        <v>5448.8</v>
+        <v>5794.6</v>
       </c>
       <c r="AO66" t="n">
-        <v>5448.8</v>
+        <v>5744.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>5428.8</v>
+        <v>5674.6</v>
       </c>
       <c r="AQ66" t="n">
-        <v>5398.8</v>
+        <v>5604.6</v>
       </c>
       <c r="AR66" t="n">
-        <v>5970.7</v>
+        <v>5485.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>5900.7</v>
+        <v>5405.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>5830.7</v>
+        <v>5335.2</v>
       </c>
       <c r="AU66" t="n">
-        <v>5760.7</v>
+        <v>5255.2</v>
       </c>
       <c r="AV66" t="n">
-        <v>5874.9</v>
+        <v>5380.3</v>
       </c>
       <c r="AW66" t="n">
-        <v>5814.9</v>
+        <v>5330.3</v>
       </c>
       <c r="AX66" t="n">
-        <v>5754.9</v>
+        <v>5280.3</v>
       </c>
       <c r="AY66" t="n">
-        <v>5704.9</v>
+        <v>5230.3</v>
       </c>
       <c r="AZ66" t="n">
-        <v>5877.6</v>
+        <v>5344.4</v>
       </c>
       <c r="BA66" t="n">
-        <v>5847.6</v>
+        <v>5304.4</v>
       </c>
       <c r="BB66" t="n">
-        <v>5817.6</v>
+        <v>5264.4</v>
       </c>
       <c r="BC66" t="n">
-        <v>5787.6</v>
+        <v>5224.4</v>
       </c>
       <c r="BD66" t="n">
-        <v>5985</v>
+        <v>5136.9</v>
       </c>
       <c r="BE66" t="n">
-        <v>5965</v>
+        <v>5106.9</v>
       </c>
       <c r="BF66" t="n">
-        <v>5955</v>
+        <v>5086.9</v>
       </c>
       <c r="BG66" t="n">
-        <v>5945</v>
+        <v>5066.9</v>
       </c>
       <c r="BH66" t="n">
-        <v>6026.9</v>
+        <v>5035.8</v>
       </c>
       <c r="BI66" t="n">
-        <v>6026.9</v>
+        <v>5035.8</v>
       </c>
       <c r="BJ66" t="n">
-        <v>6016.9</v>
+        <v>5045.8</v>
       </c>
       <c r="BK66" t="n">
-        <v>6006.9</v>
+        <v>5055.8</v>
       </c>
       <c r="BL66" t="n">
-        <v>5965.5</v>
+        <v>5057.6</v>
       </c>
       <c r="BM66" t="n">
-        <v>5965.5</v>
+        <v>5067.6</v>
       </c>
       <c r="BN66" t="n">
-        <v>5965.5</v>
+        <v>5087.6</v>
       </c>
       <c r="BO66" t="n">
-        <v>5975.5</v>
+        <v>5117.6</v>
       </c>
       <c r="BP66" t="n">
+        <v>5308.7</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>5358.7</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>5428.7</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>5518.7</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>5268.9</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>5368.9</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>5458.9</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>5548.9</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>5560.2</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>5660.2</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>5770.2</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>5900.2</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>5668.2</v>
+      </c>
+      <c r="CC66" t="n">
+        <v>5798.2</v>
+      </c>
+      <c r="CD66" t="n">
         <v>5918.2</v>
       </c>
-      <c r="BQ66" t="n">
-        <v>5948.2</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>5998.2</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>6058.2</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>5889.7</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>5949.7</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>6009.7</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>6069.7</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>6097.4</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>6167.4</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>6247.4</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>6357.4</v>
-      </c>
-      <c r="CB66" t="n">
-        <v>5792</v>
-      </c>
-      <c r="CC66" t="n">
-        <v>5922</v>
-      </c>
-      <c r="CD66" t="n">
-        <v>6052</v>
-      </c>
       <c r="CE66" t="n">
-        <v>6152</v>
+        <v>6008.2</v>
       </c>
       <c r="CF66" t="n">
-        <v>5841.4</v>
+        <v>6023.9</v>
       </c>
       <c r="CG66" t="n">
-        <v>5961.4</v>
+        <v>6113.9</v>
       </c>
       <c r="CH66" t="n">
-        <v>6061.4</v>
+        <v>6203.9</v>
       </c>
       <c r="CI66" t="n">
-        <v>6181.4</v>
+        <v>6313.9</v>
       </c>
       <c r="CJ66" t="n">
-        <v>6315.6</v>
+        <v>6487.9</v>
       </c>
       <c r="CK66" t="n">
-        <v>6295.6</v>
+        <v>6487.9</v>
       </c>
       <c r="CL66" t="n">
-        <v>6275.6</v>
+        <v>6477.9</v>
       </c>
       <c r="CM66" t="n">
-        <v>6185.6</v>
+        <v>6337.9</v>
       </c>
       <c r="CN66" t="n">
-        <v>6393.6</v>
+        <v>6744.8</v>
       </c>
       <c r="CO66" t="n">
-        <v>6293.6</v>
+        <v>6614.8</v>
       </c>
       <c r="CP66" t="n">
-        <v>6143.6</v>
+        <v>6464.8</v>
       </c>
       <c r="CQ66" t="n">
-        <v>5973.6</v>
+        <v>6284.8</v>
       </c>
       <c r="CR66" t="n">
-        <v>5929.2</v>
+        <v>6325.9</v>
       </c>
       <c r="CS66" t="n">
-        <v>5739.2</v>
+        <v>6125.9</v>
       </c>
       <c r="CT66" t="n">
-        <v>5659.2</v>
+        <v>6045.9</v>
       </c>
       <c r="CU66" t="n">
-        <v>5549.2</v>
+        <v>5935.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" s="2" t="n">
+        <v>45799</v>
+      </c>
       <c r="C67" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
-      <c r="AU67" t="inlineStr"/>
-      <c r="AV67" t="inlineStr"/>
-      <c r="AW67" t="inlineStr"/>
-      <c r="AX67" t="inlineStr"/>
-      <c r="AY67" t="inlineStr"/>
-      <c r="AZ67" t="inlineStr"/>
-      <c r="BA67" t="inlineStr"/>
-      <c r="BB67" t="inlineStr"/>
-      <c r="BC67" t="inlineStr"/>
-      <c r="BD67" t="inlineStr"/>
-      <c r="BE67" t="inlineStr"/>
-      <c r="BF67" t="inlineStr"/>
-      <c r="BG67" t="inlineStr"/>
-      <c r="BH67" t="inlineStr"/>
-      <c r="BI67" t="inlineStr"/>
-      <c r="BJ67" t="inlineStr"/>
-      <c r="BK67" t="inlineStr"/>
-      <c r="BL67" t="inlineStr"/>
-      <c r="BM67" t="inlineStr"/>
-      <c r="BN67" t="inlineStr"/>
-      <c r="BO67" t="inlineStr"/>
-      <c r="BP67" t="inlineStr"/>
-      <c r="BQ67" t="inlineStr"/>
-      <c r="BR67" t="inlineStr"/>
-      <c r="BS67" t="inlineStr"/>
-      <c r="BT67" t="inlineStr"/>
-      <c r="BU67" t="inlineStr"/>
-      <c r="BV67" t="inlineStr"/>
-      <c r="BW67" t="inlineStr"/>
-      <c r="BX67" t="inlineStr"/>
-      <c r="BY67" t="inlineStr"/>
-      <c r="BZ67" t="inlineStr"/>
-      <c r="CA67" t="inlineStr"/>
-      <c r="CB67" t="inlineStr"/>
-      <c r="CC67" t="inlineStr"/>
-      <c r="CD67" t="inlineStr"/>
-      <c r="CE67" t="inlineStr"/>
-      <c r="CF67" t="inlineStr"/>
-      <c r="CG67" t="inlineStr"/>
-      <c r="CH67" t="inlineStr"/>
-      <c r="CI67" t="inlineStr"/>
-      <c r="CJ67" t="inlineStr"/>
-      <c r="CK67" t="inlineStr"/>
-      <c r="CL67" t="inlineStr"/>
-      <c r="CM67" t="inlineStr"/>
-      <c r="CN67" t="inlineStr"/>
-      <c r="CO67" t="inlineStr"/>
-      <c r="CP67" t="inlineStr"/>
-      <c r="CQ67" t="inlineStr"/>
-      <c r="CR67" t="inlineStr"/>
-      <c r="CS67" t="inlineStr"/>
-      <c r="CT67" t="inlineStr"/>
-      <c r="CU67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5180</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5120</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4864.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4824.9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4784.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4734.9</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4607.5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4567.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4537.5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4527.5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4514.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4514.5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4524.5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4524.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="U67" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4588.7</v>
+      </c>
+      <c r="W67" t="n">
+        <v>4608.7</v>
+      </c>
+      <c r="X67" t="n">
+        <v>4603.6</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>4653.6</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>4723.6</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>4803.6</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>4808.7</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>4908.7</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>5008.7</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>5108.7</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>4929.8</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>5019.8</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>5089.8</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>5149.8</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>5437.2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>5457.2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>5467.2</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>5447.2</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>5744.6</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>5694.6</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>5624.6</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>5554.6</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>5435.2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>5355.2</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>5285.2</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>5205.2</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>5330.3</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>5280.3</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>5230.3</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>5180.3</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>5294.4</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>5254.4</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>5214.4</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>5174.4</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>5086.9</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>5056.9</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5036.9</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>5016.9</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4985.8</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>4985.8</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>4995.8</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>5005.8</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>5007.6</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>5017.6</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>5037.6</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>5067.6</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>5258.7</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>5308.7</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>5378.7</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>5468.7</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>5218.9</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>5318.9</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>5408.9</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>5498.9</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>5510.2</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>5610.2</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>5720.2</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>5850.2</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>5618.2</v>
+      </c>
+      <c r="CC67" t="n">
+        <v>5748.2</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>5868.2</v>
+      </c>
+      <c r="CE67" t="n">
+        <v>5958.2</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>5973.9</v>
+      </c>
+      <c r="CG67" t="n">
+        <v>6063.9</v>
+      </c>
+      <c r="CH67" t="n">
+        <v>6153.9</v>
+      </c>
+      <c r="CI67" t="n">
+        <v>6263.9</v>
+      </c>
+      <c r="CJ67" t="n">
+        <v>6467.9</v>
+      </c>
+      <c r="CK67" t="n">
+        <v>6457.9</v>
+      </c>
+      <c r="CL67" t="n">
+        <v>6427.9</v>
+      </c>
+      <c r="CM67" t="n">
+        <v>6287.9</v>
+      </c>
+      <c r="CN67" t="n">
+        <v>6694.8</v>
+      </c>
+      <c r="CO67" t="n">
+        <v>6564.8</v>
+      </c>
+      <c r="CP67" t="n">
+        <v>6414.8</v>
+      </c>
+      <c r="CQ67" t="n">
+        <v>6234.8</v>
+      </c>
+      <c r="CR67" t="n">
+        <v>6275.9</v>
+      </c>
+      <c r="CS67" t="n">
+        <v>6075.9</v>
+      </c>
+      <c r="CT67" t="n">
+        <v>5995.9</v>
+      </c>
+      <c r="CU67" t="n">
+        <v>5885.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" s="2" t="n">
+        <v>45799</v>
+      </c>
       <c r="C68" s="2" t="n">
         <v>45806</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
-      <c r="AU68" t="inlineStr"/>
-      <c r="AV68" t="inlineStr"/>
-      <c r="AW68" t="inlineStr"/>
-      <c r="AX68" t="inlineStr"/>
-      <c r="AY68" t="inlineStr"/>
-      <c r="AZ68" t="inlineStr"/>
-      <c r="BA68" t="inlineStr"/>
-      <c r="BB68" t="inlineStr"/>
-      <c r="BC68" t="inlineStr"/>
-      <c r="BD68" t="inlineStr"/>
-      <c r="BE68" t="inlineStr"/>
-      <c r="BF68" t="inlineStr"/>
-      <c r="BG68" t="inlineStr"/>
-      <c r="BH68" t="inlineStr"/>
-      <c r="BI68" t="inlineStr"/>
-      <c r="BJ68" t="inlineStr"/>
-      <c r="BK68" t="inlineStr"/>
-      <c r="BL68" t="inlineStr"/>
-      <c r="BM68" t="inlineStr"/>
-      <c r="BN68" t="inlineStr"/>
-      <c r="BO68" t="inlineStr"/>
-      <c r="BP68" t="inlineStr"/>
-      <c r="BQ68" t="inlineStr"/>
-      <c r="BR68" t="inlineStr"/>
-      <c r="BS68" t="inlineStr"/>
-      <c r="BT68" t="inlineStr"/>
-      <c r="BU68" t="inlineStr"/>
-      <c r="BV68" t="inlineStr"/>
-      <c r="BW68" t="inlineStr"/>
-      <c r="BX68" t="inlineStr"/>
-      <c r="BY68" t="inlineStr"/>
-      <c r="BZ68" t="inlineStr"/>
-      <c r="CA68" t="inlineStr"/>
-      <c r="CB68" t="inlineStr"/>
-      <c r="CC68" t="inlineStr"/>
-      <c r="CD68" t="inlineStr"/>
-      <c r="CE68" t="inlineStr"/>
-      <c r="CF68" t="inlineStr"/>
-      <c r="CG68" t="inlineStr"/>
-      <c r="CH68" t="inlineStr"/>
-      <c r="CI68" t="inlineStr"/>
-      <c r="CJ68" t="inlineStr"/>
-      <c r="CK68" t="inlineStr"/>
-      <c r="CL68" t="inlineStr"/>
-      <c r="CM68" t="inlineStr"/>
-      <c r="CN68" t="inlineStr"/>
-      <c r="CO68" t="inlineStr"/>
-      <c r="CP68" t="inlineStr"/>
-      <c r="CQ68" t="inlineStr"/>
-      <c r="CR68" t="inlineStr"/>
-      <c r="CS68" t="inlineStr"/>
-      <c r="CT68" t="inlineStr"/>
-      <c r="CU68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5140</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5080</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4824.9</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4794.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4754.9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4704.9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4587.5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4547.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>4507.5</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4494.5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4494.5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4504.5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4504.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4548.7</v>
+      </c>
+      <c r="U68" t="n">
+        <v>4558.7</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4558.7</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="X68" t="n">
+        <v>4543.6</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>4573.6</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>4613.6</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4663.6</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>4648.7</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>4738.7</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>4828.7</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>4928.7</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>4749.8</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>4849.8</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>4939.8</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>5009.8</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>5297.2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>5327.2</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>5327.2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>5307.2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>5604.6</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>5544.6</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>5484.6</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>5404.6</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>5305.2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>5235.2</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>5175.2</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>5125.2</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>5260.3</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>5230.3</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>5200.3</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>5180.3</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>5314.4</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>5284.4</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>5254.4</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>5234.4</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>5166.9</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>5146.9</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5146.9</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5146.9</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5125.8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>5135.8</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>5155.8</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>5165.8</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>5157.6</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>5167.6</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>5167.6</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>5187.6</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>5358.7</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>5398.7</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>5458.7</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>5528.7</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>5268.9</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>5358.9</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>5438.9</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>5518.9</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>5510.2</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>5580.2</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>5660.2</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>5760.2</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>5498.2</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>5608.2</v>
+      </c>
+      <c r="CD68" t="n">
+        <v>5708.2</v>
+      </c>
+      <c r="CE68" t="n">
+        <v>5798.2</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>5813.9</v>
+      </c>
+      <c r="CG68" t="n">
+        <v>5903.9</v>
+      </c>
+      <c r="CH68" t="n">
+        <v>5983.9</v>
+      </c>
+      <c r="CI68" t="n">
+        <v>6083.9</v>
+      </c>
+      <c r="CJ68" t="n">
+        <v>6267.9</v>
+      </c>
+      <c r="CK68" t="n">
+        <v>6247.9</v>
+      </c>
+      <c r="CL68" t="n">
+        <v>6217.9</v>
+      </c>
+      <c r="CM68" t="n">
+        <v>6127.9</v>
+      </c>
+      <c r="CN68" t="n">
+        <v>6564.8</v>
+      </c>
+      <c r="CO68" t="n">
+        <v>6464.8</v>
+      </c>
+      <c r="CP68" t="n">
+        <v>6324.8</v>
+      </c>
+      <c r="CQ68" t="n">
+        <v>6134.8</v>
+      </c>
+      <c r="CR68" t="n">
+        <v>6195.9</v>
+      </c>
+      <c r="CS68" t="n">
+        <v>6005.9</v>
+      </c>
+      <c r="CT68" t="n">
+        <v>5925.9</v>
+      </c>
+      <c r="CU68" t="n">
+        <v>5815.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" s="2" t="n">
+        <v>45799</v>
+      </c>
       <c r="C69" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
-      <c r="AH69" t="inlineStr"/>
-      <c r="AI69" t="inlineStr"/>
-      <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr"/>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
-      <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
-      <c r="AU69" t="inlineStr"/>
-      <c r="AV69" t="inlineStr"/>
-      <c r="AW69" t="inlineStr"/>
-      <c r="AX69" t="inlineStr"/>
-      <c r="AY69" t="inlineStr"/>
-      <c r="AZ69" t="inlineStr"/>
-      <c r="BA69" t="inlineStr"/>
-      <c r="BB69" t="inlineStr"/>
-      <c r="BC69" t="inlineStr"/>
-      <c r="BD69" t="inlineStr"/>
-      <c r="BE69" t="inlineStr"/>
-      <c r="BF69" t="inlineStr"/>
-      <c r="BG69" t="inlineStr"/>
-      <c r="BH69" t="inlineStr"/>
-      <c r="BI69" t="inlineStr"/>
-      <c r="BJ69" t="inlineStr"/>
-      <c r="BK69" t="inlineStr"/>
-      <c r="BL69" t="inlineStr"/>
-      <c r="BM69" t="inlineStr"/>
-      <c r="BN69" t="inlineStr"/>
-      <c r="BO69" t="inlineStr"/>
-      <c r="BP69" t="inlineStr"/>
-      <c r="BQ69" t="inlineStr"/>
-      <c r="BR69" t="inlineStr"/>
-      <c r="BS69" t="inlineStr"/>
-      <c r="BT69" t="inlineStr"/>
-      <c r="BU69" t="inlineStr"/>
-      <c r="BV69" t="inlineStr"/>
-      <c r="BW69" t="inlineStr"/>
-      <c r="BX69" t="inlineStr"/>
-      <c r="BY69" t="inlineStr"/>
-      <c r="BZ69" t="inlineStr"/>
-      <c r="CA69" t="inlineStr"/>
-      <c r="CB69" t="inlineStr"/>
-      <c r="CC69" t="inlineStr"/>
-      <c r="CD69" t="inlineStr"/>
-      <c r="CE69" t="inlineStr"/>
-      <c r="CF69" t="inlineStr"/>
-      <c r="CG69" t="inlineStr"/>
-      <c r="CH69" t="inlineStr"/>
-      <c r="CI69" t="inlineStr"/>
-      <c r="CJ69" t="inlineStr"/>
-      <c r="CK69" t="inlineStr"/>
-      <c r="CL69" t="inlineStr"/>
-      <c r="CM69" t="inlineStr"/>
-      <c r="CN69" t="inlineStr"/>
-      <c r="CO69" t="inlineStr"/>
-      <c r="CP69" t="inlineStr"/>
-      <c r="CQ69" t="inlineStr"/>
-      <c r="CR69" t="inlineStr"/>
-      <c r="CS69" t="inlineStr"/>
-      <c r="CT69" t="inlineStr"/>
-      <c r="CU69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5230</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5160</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4844.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4804.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4764.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4714.9</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4587.5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4547.5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4517.5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4507.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4494.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4494.5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4504.5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4504.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4548.7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>4558.7</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="W69" t="n">
+        <v>4588.7</v>
+      </c>
+      <c r="X69" t="n">
+        <v>4583.6</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4633.6</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>4693.6</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>4783.6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>4788.7</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>4898.7</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>5008.7</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>5128.7</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>4959.8</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>5059.8</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>5139.8</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>5209.8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>5497.2</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>5527.2</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>5527.2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>5517.2</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>5814.6</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>5754.6</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>5684.6</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>5604.6</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>5495.2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>5415.2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>5335.2</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>5265.2</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>5390.3</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>5340.3</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>5290.3</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>5240.3</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>5354.4</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>5314.4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>5274.4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>5234.4</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>5146.9</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>5116.9</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5096.9</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>5076.9</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5045.8</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>5045.8</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>5055.8</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>5065.8</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>5067.6</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>5077.6</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>5097.6</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>5127.6</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>5318.7</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>5368.7</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>5438.7</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>5528.7</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>5278.9</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>5378.9</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>5468.9</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>5558.9</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>5570.2</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>5660.2</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>5770.2</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>5880.2</v>
+      </c>
+      <c r="CB69" t="n">
+        <v>5628.2</v>
+      </c>
+      <c r="CC69" t="n">
+        <v>5748.2</v>
+      </c>
+      <c r="CD69" t="n">
+        <v>5848.2</v>
+      </c>
+      <c r="CE69" t="n">
+        <v>5928.2</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>5943.9</v>
+      </c>
+      <c r="CG69" t="n">
+        <v>6043.9</v>
+      </c>
+      <c r="CH69" t="n">
+        <v>6133.9</v>
+      </c>
+      <c r="CI69" t="n">
+        <v>6253.9</v>
+      </c>
+      <c r="CJ69" t="n">
+        <v>6447.9</v>
+      </c>
+      <c r="CK69" t="n">
+        <v>6437.9</v>
+      </c>
+      <c r="CL69" t="n">
+        <v>6397.9</v>
+      </c>
+      <c r="CM69" t="n">
+        <v>6267.9</v>
+      </c>
+      <c r="CN69" t="n">
+        <v>6674.8</v>
+      </c>
+      <c r="CO69" t="n">
+        <v>6544.8</v>
+      </c>
+      <c r="CP69" t="n">
+        <v>6394.8</v>
+      </c>
+      <c r="CQ69" t="n">
+        <v>6214.8</v>
+      </c>
+      <c r="CR69" t="n">
+        <v>6265.9</v>
+      </c>
+      <c r="CS69" t="n">
+        <v>6045.9</v>
+      </c>
+      <c r="CT69" t="n">
+        <v>5975.9</v>
+      </c>
+      <c r="CU69" t="n">
+        <v>5865.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1841,621 +1841,1785 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C7" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
-      <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>5780.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5750.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5690.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5600.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4615</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4535</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4465</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4415</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4293</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4253</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4223</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4208</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4188</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4178</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4168</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4157</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4157</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4157</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4167</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4207</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4207</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4217</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4227</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4407</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4407</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4417</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4417</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4376</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>4366</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4356</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4326</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>4379</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>4299</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4259</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4189</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4065</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3975</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3875</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3785</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>3838</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3758</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3688</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3638</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>3743</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3713</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3693</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>3683</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>3606</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3596</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3596</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3586</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3490</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3490</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3480</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>3490</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3553</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3563</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3583</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>3613</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3623</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3673</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>3723</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3783</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>3889</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>3979</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>4069</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4169</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>4424</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4524</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>4624</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4724</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4593</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4693</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>4793</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>4903</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>4838</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>4958</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>5088</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>5198</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>5314</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>5424</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>5464</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>5494</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>5519</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>5509</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>5499</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>5469</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>5422</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>5362</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>5222</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>5102</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4946</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>4826</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>4716</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>4616</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C8" s="2" t="n">
         <v>45810</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>5400.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5350.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5320.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5300.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4335</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4285</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4245</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4163</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4123</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4093</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4063</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4088</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4088</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4088</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4098</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4087</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4107</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4127</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4167</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4257</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4347</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4467</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4607</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4927</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5097</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5257</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5417</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5506</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5616</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5696</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5716</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>5749</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>5679</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5545</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5445</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>5345</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>5245</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>5298</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5208</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5138</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5078</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>5173</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5133</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5093</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5063</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>4956</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>4926</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4896</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>4876</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>4770</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4760</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>4760</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>4770</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4833</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>4843</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>4853</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>4863</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4843</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>4853</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4883</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4913</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>4999</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5059</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>5139</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>5239</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>5484</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5584</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>5674</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>5764</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>5623</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>5713</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>5823</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>5943</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>5888</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>6018</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>6148</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>6248</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6354</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>6454</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>6534</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>6594</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>6619</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>6619</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>6599</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>6519</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>6412</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>6322</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>6182</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>5992</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>5696</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>5506</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>5426</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>5316</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C9" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>5980.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5940.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5890.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5830.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4825</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4785</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4745</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4663</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4623</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4603</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4583</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4568</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4588</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4588</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4598</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4597</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4607</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4647</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4707</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4757</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4817</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4897</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5147</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5247</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5337</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5437</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5476</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5556</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5606</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5616</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>5699</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5699</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>5669</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5485</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5395</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>5285</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>5185</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>5228</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>5128</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5048</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4968</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>5053</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5003</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4963</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>4923</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>4826</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>4796</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4786</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>4776</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4680</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4680</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4680</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>4690</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4743</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4753</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4763</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4783</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>4763</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4783</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>4813</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4853</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>4939</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>5009</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>5089</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>5189</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>5444</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5544</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>5644</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5734</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>5613</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>5713</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>5823</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>5953</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>5908</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>6058</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>6198</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>6318</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>6444</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>6564</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>6594</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>6594</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>6619</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>6619</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>6589</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>6509</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>6422</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>6332</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>6172</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>6012</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>5776</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>5596</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>5516</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>5406</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C10" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>6100.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6000.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5930.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5870.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4925</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4885</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4835</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4785</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4713</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4673</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4653</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4633</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4638</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4628</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4628</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4607</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4597</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4607</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4627</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4697</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4757</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4827</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4907</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5167</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5247</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5327</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5397</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5406</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5446</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5466</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5466</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5529</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>5439</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5379</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5265</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5175</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>5085</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>4985</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>5038</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4948</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4868</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>4798</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>4893</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4843</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4803</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>4773</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4646</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4616</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>4596</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>4490</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>4480</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4470</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>4480</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>4543</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>4553</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>4583</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>4603</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4593</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>4613</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>4643</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>4673</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>4759</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>4839</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>4929</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>5049</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>5324</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5454</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>5574</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>5694</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>5583</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>5693</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>5813</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>5953</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>5918</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>6078</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>6208</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>6308</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>6394</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>6464</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6524</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>6604</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>6659</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>6639</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>6609</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>6519</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>6392</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>6312</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>6182</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>5992</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>5646</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>5496</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>5396</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>5356</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C11" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>6160.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6060.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5990.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5930.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4985</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4945</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4895</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4845</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4773</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4733</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4713</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4693</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4698</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4688</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4688</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4678</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4667</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4657</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4667</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4687</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4757</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4817</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4887</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4967</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5227</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5307</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5387</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5457</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5466</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5506</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5526</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5526</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5589</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5559</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5439</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5325</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5235</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5145</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5045</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>5098</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>5008</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4928</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>4858</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>4953</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4903</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4863</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4833</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>4736</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4706</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4656</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4550</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4540</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4530</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4540</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4603</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4613</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>4643</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4663</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>4653</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4673</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>4703</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4733</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>4819</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>4899</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>4989</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>5109</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>5384</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5514</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>5634</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5754</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>5643</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>5753</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>5873</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>6013</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>5978</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>6138</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6268</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>6368</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>6454</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>6524</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>6584</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>6664</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>6719</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>6699</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>6669</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>6579</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>6452</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>6372</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>6242</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>6052</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>5706</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>5556</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>5456</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>5416</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C12" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>6060.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5960.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5890.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5830.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4885</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4845</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4795</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4745</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4673</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4613</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4593</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4598</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4588</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4588</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4578</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4567</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4557</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4567</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4587</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4657</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4717</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4787</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4867</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5127</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5207</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5287</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5357</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5366</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5406</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5426</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5426</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5489</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5459</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5399</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5339</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5225</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5135</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5045</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4945</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>4998</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4908</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4828</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4758</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4853</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4803</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4763</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>4733</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>4636</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>4606</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4576</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4556</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>4450</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4440</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4430</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4440</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4503</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>4513</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>4543</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>4563</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4553</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>4573</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>4603</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>4633</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>4719</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>4799</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>4889</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>5009</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>5284</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5384</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>5504</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>5624</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>5513</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>5623</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>5743</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>5883</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>5848</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>6008</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>6138</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>6238</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>6324</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>6394</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>6454</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>6534</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>6589</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>6569</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>6539</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>6449</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>6322</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>6242</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>6112</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>5922</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>5576</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>5426</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>5326</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>5286</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -12161,2481 +13325,2675 @@
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" s="2" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="D62" t="n">
-        <v>5525.8</v>
+        <v>5427.6</v>
       </c>
       <c r="E62" t="n">
-        <v>5465.8</v>
+        <v>5367.6</v>
       </c>
       <c r="F62" t="n">
-        <v>5415.8</v>
+        <v>5307.6</v>
       </c>
       <c r="G62" t="n">
-        <v>5365.8</v>
+        <v>5247.6</v>
       </c>
       <c r="H62" t="n">
-        <v>5544.3</v>
+        <v>4873</v>
       </c>
       <c r="I62" t="n">
-        <v>5514.3</v>
+        <v>4823</v>
       </c>
       <c r="J62" t="n">
-        <v>5474.3</v>
+        <v>4783</v>
       </c>
       <c r="K62" t="n">
-        <v>5434.3</v>
+        <v>4743</v>
       </c>
       <c r="L62" t="n">
-        <v>5486.9</v>
+        <v>4728</v>
       </c>
       <c r="M62" t="n">
-        <v>5456.9</v>
+        <v>4698</v>
       </c>
       <c r="N62" t="n">
-        <v>5426.9</v>
+        <v>4678</v>
       </c>
       <c r="O62" t="n">
-        <v>5406.9</v>
+        <v>4678</v>
       </c>
       <c r="P62" t="n">
-        <v>5492.7</v>
+        <v>4717</v>
       </c>
       <c r="Q62" t="n">
-        <v>5492.7</v>
+        <v>4717</v>
       </c>
       <c r="R62" t="n">
-        <v>5502.7</v>
+        <v>4727</v>
       </c>
       <c r="S62" t="n">
-        <v>5512.7</v>
+        <v>4727</v>
       </c>
       <c r="T62" t="n">
-        <v>5594.9</v>
+        <v>4700</v>
       </c>
       <c r="U62" t="n">
-        <v>5614.9</v>
+        <v>4710</v>
       </c>
       <c r="V62" t="n">
-        <v>5634.9</v>
+        <v>4720</v>
       </c>
       <c r="W62" t="n">
-        <v>5654.9</v>
+        <v>4730</v>
       </c>
       <c r="X62" t="n">
-        <v>5679.8</v>
+        <v>4861</v>
       </c>
       <c r="Y62" t="n">
-        <v>5719.8</v>
+        <v>4911</v>
       </c>
       <c r="Z62" t="n">
-        <v>5769.8</v>
+        <v>4981</v>
       </c>
       <c r="AA62" t="n">
-        <v>5849.8</v>
+        <v>5071</v>
       </c>
       <c r="AB62" t="n">
-        <v>5723.2</v>
+        <v>5138</v>
       </c>
       <c r="AC62" t="n">
-        <v>5833.2</v>
+        <v>5248</v>
       </c>
       <c r="AD62" t="n">
-        <v>5953.2</v>
+        <v>5358</v>
       </c>
       <c r="AE62" t="n">
-        <v>6073.2</v>
+        <v>5468</v>
       </c>
       <c r="AF62" t="n">
-        <v>6265.9</v>
+        <v>5503</v>
       </c>
       <c r="AG62" t="n">
-        <v>6355.9</v>
+        <v>5603</v>
       </c>
       <c r="AH62" t="n">
-        <v>6425.9</v>
+        <v>5693</v>
       </c>
       <c r="AI62" t="n">
-        <v>6465.9</v>
+        <v>5773</v>
       </c>
       <c r="AJ62" t="n">
-        <v>6484.2</v>
+        <v>5924</v>
       </c>
       <c r="AK62" t="n">
-        <v>6454.2</v>
+        <v>5964</v>
       </c>
       <c r="AL62" t="n">
-        <v>6404.2</v>
+        <v>5984</v>
       </c>
       <c r="AM62" t="n">
-        <v>6324.2</v>
+        <v>5974</v>
       </c>
       <c r="AN62" t="n">
-        <v>6356.4</v>
+        <v>6053</v>
       </c>
       <c r="AO62" t="n">
-        <v>6256.4</v>
+        <v>5993</v>
       </c>
       <c r="AP62" t="n">
-        <v>6156.4</v>
+        <v>5913</v>
       </c>
       <c r="AQ62" t="n">
-        <v>6066.4</v>
+        <v>5823</v>
       </c>
       <c r="AR62" t="n">
-        <v>6019.4</v>
+        <v>5776</v>
       </c>
       <c r="AS62" t="n">
-        <v>5949.4</v>
+        <v>5656</v>
       </c>
       <c r="AT62" t="n">
-        <v>5899.4</v>
+        <v>5536</v>
       </c>
       <c r="AU62" t="n">
-        <v>5849.4</v>
+        <v>5426</v>
       </c>
       <c r="AV62" t="n">
-        <v>6237.9</v>
+        <v>5404</v>
       </c>
       <c r="AW62" t="n">
-        <v>6207.9</v>
+        <v>5324</v>
       </c>
       <c r="AX62" t="n">
-        <v>6167.9</v>
+        <v>5254</v>
       </c>
       <c r="AY62" t="n">
-        <v>6137.9</v>
+        <v>5204</v>
       </c>
       <c r="AZ62" t="n">
-        <v>6376.9</v>
+        <v>5086</v>
       </c>
       <c r="BA62" t="n">
-        <v>6346.9</v>
+        <v>5066</v>
       </c>
       <c r="BB62" t="n">
-        <v>6316.9</v>
+        <v>5046</v>
       </c>
       <c r="BC62" t="n">
-        <v>6296.9</v>
+        <v>5036</v>
       </c>
       <c r="BD62" t="n">
-        <v>6202.5</v>
+        <v>4969</v>
       </c>
       <c r="BE62" t="n">
-        <v>6202.5</v>
+        <v>4969</v>
       </c>
       <c r="BF62" t="n">
-        <v>6212.5</v>
+        <v>4979</v>
       </c>
       <c r="BG62" t="n">
-        <v>6232.5</v>
+        <v>4989</v>
       </c>
       <c r="BH62" t="n">
-        <v>6042</v>
+        <v>5036</v>
       </c>
       <c r="BI62" t="n">
-        <v>6072</v>
+        <v>5056</v>
       </c>
       <c r="BJ62" t="n">
-        <v>6102</v>
+        <v>5086</v>
       </c>
       <c r="BK62" t="n">
-        <v>6132</v>
+        <v>5116</v>
       </c>
       <c r="BL62" t="n">
-        <v>6069.5</v>
+        <v>5238</v>
       </c>
       <c r="BM62" t="n">
-        <v>6099.5</v>
+        <v>5268</v>
       </c>
       <c r="BN62" t="n">
-        <v>6139.5</v>
+        <v>5308</v>
       </c>
       <c r="BO62" t="n">
-        <v>6189.5</v>
+        <v>5348</v>
       </c>
       <c r="BP62" t="n">
-        <v>6155</v>
+        <v>5365</v>
       </c>
       <c r="BQ62" t="n">
+        <v>5415</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>5475</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>5545</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>5671</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>5731</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>5801</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>5881</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>5975</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>6065</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>6145</v>
+      </c>
+      <c r="CA62" t="n">
         <v>6225</v>
       </c>
-      <c r="BR62" t="n">
-        <v>6305</v>
-      </c>
-      <c r="BS62" t="n">
-        <v>6385</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>6214.5</v>
-      </c>
-      <c r="BU62" t="n">
-        <v>6304.5</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>6384.5</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>6464.5</v>
-      </c>
-      <c r="BX62" t="n">
-        <v>6540.3</v>
-      </c>
-      <c r="BY62" t="n">
-        <v>6640.3</v>
-      </c>
-      <c r="BZ62" t="n">
-        <v>6720.3</v>
-      </c>
-      <c r="CA62" t="n">
-        <v>6830.3</v>
-      </c>
       <c r="CB62" t="n">
-        <v>6311.4</v>
+        <v>6245</v>
       </c>
       <c r="CC62" t="n">
-        <v>6421.4</v>
+        <v>6345</v>
       </c>
       <c r="CD62" t="n">
-        <v>6521.4</v>
+        <v>6425</v>
       </c>
       <c r="CE62" t="n">
-        <v>6621.4</v>
+        <v>6525</v>
       </c>
       <c r="CF62" t="n">
-        <v>6241.8</v>
+        <v>6576</v>
       </c>
       <c r="CG62" t="n">
-        <v>6341.8</v>
+        <v>6656</v>
       </c>
       <c r="CH62" t="n">
-        <v>6421.8</v>
+        <v>6726</v>
       </c>
       <c r="CI62" t="n">
-        <v>6471.8</v>
+        <v>6806</v>
       </c>
       <c r="CJ62" t="n">
-        <v>6436.7</v>
+        <v>6893</v>
       </c>
       <c r="CK62" t="n">
-        <v>6446.7</v>
+        <v>6883</v>
       </c>
       <c r="CL62" t="n">
-        <v>6436.7</v>
+        <v>6853</v>
       </c>
       <c r="CM62" t="n">
-        <v>6376.7</v>
+        <v>6773</v>
       </c>
       <c r="CN62" t="n">
-        <v>6634</v>
+        <v>6658</v>
       </c>
       <c r="CO62" t="n">
-        <v>6514</v>
+        <v>6508</v>
       </c>
       <c r="CP62" t="n">
-        <v>6364</v>
+        <v>6378</v>
       </c>
       <c r="CQ62" t="n">
-        <v>6194</v>
+        <v>6198</v>
       </c>
       <c r="CR62" t="n">
-        <v>6147.9</v>
+        <v>5865</v>
       </c>
       <c r="CS62" t="n">
-        <v>5967.9</v>
+        <v>5725</v>
       </c>
       <c r="CT62" t="n">
-        <v>5857.9</v>
+        <v>5575</v>
       </c>
       <c r="CU62" t="n">
-        <v>5747.9</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45801</v>
       </c>
       <c r="D63" t="n">
-        <v>5240</v>
+        <v>5384</v>
       </c>
       <c r="E63" t="n">
-        <v>5190</v>
+        <v>5314</v>
       </c>
       <c r="F63" t="n">
-        <v>5140</v>
+        <v>5264</v>
       </c>
       <c r="G63" t="n">
-        <v>5070</v>
+        <v>5214</v>
       </c>
       <c r="H63" t="n">
-        <v>4804.9</v>
+        <v>4574.700000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>4744.9</v>
+        <v>4514.700000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>4704.9</v>
+        <v>4464.700000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>4654.9</v>
+        <v>4424.700000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>4527.5</v>
+        <v>4339.6</v>
       </c>
       <c r="M63" t="n">
-        <v>4477.5</v>
+        <v>4299.6</v>
       </c>
       <c r="N63" t="n">
-        <v>4437.5</v>
+        <v>4269.6</v>
       </c>
       <c r="O63" t="n">
-        <v>4407.5</v>
+        <v>4249.6</v>
       </c>
       <c r="P63" t="n">
-        <v>4374.5</v>
+        <v>4186</v>
       </c>
       <c r="Q63" t="n">
-        <v>4364.5</v>
+        <v>4176</v>
       </c>
       <c r="R63" t="n">
-        <v>4354.5</v>
+        <v>4166</v>
       </c>
       <c r="S63" t="n">
-        <v>4354.5</v>
+        <v>4166</v>
       </c>
       <c r="T63" t="n">
-        <v>4388.7</v>
+        <v>4118.1</v>
       </c>
       <c r="U63" t="n">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="V63" t="n">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="W63" t="n">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="X63" t="n">
-        <v>4323.6</v>
+        <v>3854.9</v>
       </c>
       <c r="Y63" t="n">
-        <v>4323.6</v>
+        <v>3864.9</v>
       </c>
       <c r="Z63" t="n">
-        <v>4333.6</v>
+        <v>3874.9</v>
       </c>
       <c r="AA63" t="n">
-        <v>4343.6</v>
+        <v>3884.9</v>
       </c>
       <c r="AB63" t="n">
-        <v>4288.7</v>
+        <v>3995.9</v>
       </c>
       <c r="AC63" t="n">
-        <v>4318.7</v>
+        <v>3995.9</v>
       </c>
       <c r="AD63" t="n">
-        <v>4358.7</v>
+        <v>3995.9</v>
       </c>
       <c r="AE63" t="n">
-        <v>4398.7</v>
+        <v>4025.9</v>
       </c>
       <c r="AF63" t="n">
-        <v>4169.8</v>
+        <v>4434.4</v>
       </c>
       <c r="AG63" t="n">
-        <v>4219.8</v>
+        <v>4514.4</v>
       </c>
       <c r="AH63" t="n">
-        <v>4269.8</v>
+        <v>4564.4</v>
       </c>
       <c r="AI63" t="n">
-        <v>4319.8</v>
+        <v>4614.4</v>
       </c>
       <c r="AJ63" t="n">
-        <v>4587.2</v>
+        <v>4624.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>4607.2</v>
+        <v>4634.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>4607.2</v>
+        <v>4644.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>4597.2</v>
+        <v>4644.5</v>
       </c>
       <c r="AN63" t="n">
-        <v>4914.6</v>
+        <v>4004.7</v>
       </c>
       <c r="AO63" t="n">
-        <v>4884.6</v>
+        <v>3974.7</v>
       </c>
       <c r="AP63" t="n">
-        <v>4834.6</v>
+        <v>3944.7</v>
       </c>
       <c r="AQ63" t="n">
-        <v>4794.6</v>
+        <v>3894.7</v>
       </c>
       <c r="AR63" t="n">
-        <v>4715.2</v>
+        <v>3968.1</v>
       </c>
       <c r="AS63" t="n">
-        <v>4675.2</v>
+        <v>3928.1</v>
       </c>
       <c r="AT63" t="n">
-        <v>4635.2</v>
+        <v>3888.1</v>
       </c>
       <c r="AU63" t="n">
-        <v>4595.2</v>
+        <v>3848.1</v>
       </c>
       <c r="AV63" t="n">
-        <v>4750.3</v>
+        <v>3982.4</v>
       </c>
       <c r="AW63" t="n">
-        <v>4730.3</v>
+        <v>3962.4</v>
       </c>
       <c r="AX63" t="n">
-        <v>4700.3</v>
+        <v>3942.4</v>
       </c>
       <c r="AY63" t="n">
-        <v>4680.3</v>
+        <v>3932.4</v>
       </c>
       <c r="AZ63" t="n">
-        <v>4804.4</v>
+        <v>4086.9</v>
       </c>
       <c r="BA63" t="n">
-        <v>4784.4</v>
+        <v>4076.9</v>
       </c>
       <c r="BB63" t="n">
-        <v>4754.4</v>
+        <v>4056.9</v>
       </c>
       <c r="BC63" t="n">
-        <v>4734.4</v>
+        <v>4046.9</v>
       </c>
       <c r="BD63" t="n">
-        <v>4666.9</v>
+        <v>3984.1</v>
       </c>
       <c r="BE63" t="n">
-        <v>4656.9</v>
+        <v>3984.1</v>
       </c>
       <c r="BF63" t="n">
-        <v>4646.9</v>
+        <v>3984.1</v>
       </c>
       <c r="BG63" t="n">
-        <v>4646.9</v>
+        <v>3984.1</v>
       </c>
       <c r="BH63" t="n">
-        <v>4625.8</v>
+        <v>3993.7</v>
       </c>
       <c r="BI63" t="n">
-        <v>4635.8</v>
+        <v>4013.7</v>
       </c>
       <c r="BJ63" t="n">
-        <v>4645.8</v>
+        <v>4023.7</v>
       </c>
       <c r="BK63" t="n">
-        <v>4655.8</v>
+        <v>4033.7</v>
       </c>
       <c r="BL63" t="n">
-        <v>4647.6</v>
+        <v>3878.3</v>
       </c>
       <c r="BM63" t="n">
-        <v>4667.6</v>
+        <v>3888.3</v>
       </c>
       <c r="BN63" t="n">
-        <v>4677.6</v>
+        <v>3908.3</v>
       </c>
       <c r="BO63" t="n">
-        <v>4697.6</v>
+        <v>3918.3</v>
       </c>
       <c r="BP63" t="n">
-        <v>4878.7</v>
+        <v>3766.8</v>
       </c>
       <c r="BQ63" t="n">
-        <v>4928.7</v>
+        <v>3796.8</v>
       </c>
       <c r="BR63" t="n">
-        <v>4988.7</v>
+        <v>3846.8</v>
       </c>
       <c r="BS63" t="n">
-        <v>5048.7</v>
+        <v>3906.8</v>
       </c>
       <c r="BT63" t="n">
-        <v>4788.9</v>
+        <v>3696.1</v>
       </c>
       <c r="BU63" t="n">
-        <v>4858.9</v>
+        <v>3756.1</v>
       </c>
       <c r="BV63" t="n">
-        <v>4938.9</v>
+        <v>3796.1</v>
       </c>
       <c r="BW63" t="n">
-        <v>5008.9</v>
+        <v>3856.1</v>
       </c>
       <c r="BX63" t="n">
-        <v>5000.2</v>
+        <v>3621.6</v>
       </c>
       <c r="BY63" t="n">
-        <v>5080.2</v>
+        <v>3681.6</v>
       </c>
       <c r="BZ63" t="n">
-        <v>5170.2</v>
+        <v>3761.6</v>
       </c>
       <c r="CA63" t="n">
-        <v>5280.2</v>
+        <v>3861.6</v>
       </c>
       <c r="CB63" t="n">
-        <v>5028.2</v>
+        <v>3538.8</v>
       </c>
       <c r="CC63" t="n">
-        <v>5148.2</v>
+        <v>3658.8</v>
       </c>
       <c r="CD63" t="n">
-        <v>5258.2</v>
+        <v>3758.8</v>
       </c>
       <c r="CE63" t="n">
-        <v>5358.2</v>
+        <v>3848.8</v>
       </c>
       <c r="CF63" t="n">
-        <v>5383.9</v>
+        <v>4190.5</v>
       </c>
       <c r="CG63" t="n">
-        <v>5493.9</v>
+        <v>4280.5</v>
       </c>
       <c r="CH63" t="n">
-        <v>5573.9</v>
+        <v>4360.5</v>
       </c>
       <c r="CI63" t="n">
-        <v>5673.9</v>
+        <v>4450.5</v>
       </c>
       <c r="CJ63" t="n">
-        <v>5837.9</v>
+        <v>4392.6</v>
       </c>
       <c r="CK63" t="n">
-        <v>5827.9</v>
+        <v>4402.6</v>
       </c>
       <c r="CL63" t="n">
-        <v>5827.9</v>
+        <v>4382.6</v>
       </c>
       <c r="CM63" t="n">
-        <v>5787.9</v>
+        <v>4322.6</v>
       </c>
       <c r="CN63" t="n">
-        <v>6304.8</v>
+        <v>4510.5</v>
       </c>
       <c r="CO63" t="n">
-        <v>6264.8</v>
+        <v>4400.5</v>
       </c>
       <c r="CP63" t="n">
-        <v>6134.8</v>
+        <v>4270.5</v>
       </c>
       <c r="CQ63" t="n">
-        <v>5954.8</v>
+        <v>4110.5</v>
       </c>
       <c r="CR63" t="n">
-        <v>6065.9</v>
+        <v>4233.9</v>
       </c>
       <c r="CS63" t="n">
-        <v>5905.9</v>
+        <v>4103.9</v>
       </c>
       <c r="CT63" t="n">
-        <v>5815.9</v>
+        <v>3993.9</v>
       </c>
       <c r="CU63" t="n">
-        <v>5705.9</v>
+        <v>3883.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" s="2" t="n">
-        <v>45799</v>
+        <v>45801</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45802</v>
       </c>
       <c r="D64" t="n">
-        <v>5090</v>
+        <v>4097.200000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>5050</v>
+        <v>4027.2</v>
       </c>
       <c r="F64" t="n">
-        <v>4990</v>
+        <v>3977.2</v>
       </c>
       <c r="G64" t="n">
-        <v>4910</v>
+        <v>3927.2</v>
       </c>
       <c r="H64" t="n">
-        <v>4634.9</v>
+        <v>3589.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4574.9</v>
+        <v>3539.6</v>
       </c>
       <c r="J64" t="n">
-        <v>4514.9</v>
+        <v>3479.6</v>
       </c>
       <c r="K64" t="n">
-        <v>4464.9</v>
+        <v>3429.6</v>
       </c>
       <c r="L64" t="n">
-        <v>4327.5</v>
+        <v>3422.9</v>
       </c>
       <c r="M64" t="n">
-        <v>4277.5</v>
+        <v>3382.9</v>
       </c>
       <c r="N64" t="n">
-        <v>4237.5</v>
+        <v>3352.9</v>
       </c>
       <c r="O64" t="n">
-        <v>4197.5</v>
+        <v>3332.9</v>
       </c>
       <c r="P64" t="n">
-        <v>4154.5</v>
+        <v>3473.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>4124.5</v>
+        <v>3453.6</v>
       </c>
       <c r="R64" t="n">
-        <v>4104.5</v>
+        <v>3433.6</v>
       </c>
       <c r="S64" t="n">
-        <v>4084.5</v>
+        <v>3423.6</v>
       </c>
       <c r="T64" t="n">
-        <v>4098.7</v>
+        <v>3388</v>
       </c>
       <c r="U64" t="n">
-        <v>4078.7</v>
+        <v>3378</v>
       </c>
       <c r="V64" t="n">
-        <v>4078.7</v>
+        <v>3358</v>
       </c>
       <c r="W64" t="n">
-        <v>4078.7</v>
+        <v>3348</v>
       </c>
       <c r="X64" t="n">
-        <v>4033.6</v>
+        <v>3266.9</v>
       </c>
       <c r="Y64" t="n">
-        <v>4033.6</v>
+        <v>3266.9</v>
       </c>
       <c r="Z64" t="n">
-        <v>4043.6</v>
+        <v>3266.9</v>
       </c>
       <c r="AA64" t="n">
-        <v>4063.6</v>
+        <v>3266.9</v>
       </c>
       <c r="AB64" t="n">
-        <v>3988.7</v>
+        <v>3338.2</v>
       </c>
       <c r="AC64" t="n">
-        <v>4008.7</v>
+        <v>3338.2</v>
       </c>
       <c r="AD64" t="n">
-        <v>4018.7</v>
+        <v>3338.2</v>
       </c>
       <c r="AE64" t="n">
-        <v>4038.7</v>
+        <v>3348.2</v>
       </c>
       <c r="AF64" t="n">
-        <v>3779.8</v>
+        <v>3613.9</v>
       </c>
       <c r="AG64" t="n">
-        <v>3799.8</v>
+        <v>3643.9</v>
       </c>
       <c r="AH64" t="n">
-        <v>3819.8</v>
+        <v>3663.9</v>
       </c>
       <c r="AI64" t="n">
-        <v>3839.8</v>
+        <v>3693.9</v>
       </c>
       <c r="AJ64" t="n">
-        <v>4097.2</v>
+        <v>3681.1</v>
       </c>
       <c r="AK64" t="n">
-        <v>4107.2</v>
+        <v>3701.1</v>
       </c>
       <c r="AL64" t="n">
-        <v>4107.2</v>
+        <v>3721.1</v>
       </c>
       <c r="AM64" t="n">
-        <v>4097.2</v>
+        <v>3741.1</v>
       </c>
       <c r="AN64" t="n">
-        <v>4414.6</v>
+        <v>3694.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>4384.6</v>
+        <v>3694.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>4344.6</v>
+        <v>3684.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>4294.6</v>
+        <v>3674.5</v>
       </c>
       <c r="AR64" t="n">
-        <v>4225.2</v>
+        <v>3755.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>4175.2</v>
+        <v>3745.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>4135.2</v>
+        <v>3735.6</v>
       </c>
       <c r="AU64" t="n">
-        <v>4095.2</v>
+        <v>3715.6</v>
       </c>
       <c r="AV64" t="n">
-        <v>4250.3</v>
+        <v>3789.1</v>
       </c>
       <c r="AW64" t="n">
-        <v>4220.3</v>
+        <v>3779.1</v>
       </c>
       <c r="AX64" t="n">
-        <v>4200.3</v>
+        <v>3769.1</v>
       </c>
       <c r="AY64" t="n">
-        <v>4180.3</v>
+        <v>3759.1</v>
       </c>
       <c r="AZ64" t="n">
-        <v>4304.4</v>
+        <v>3870.2</v>
       </c>
       <c r="BA64" t="n">
-        <v>4284.4</v>
+        <v>3850.2</v>
       </c>
       <c r="BB64" t="n">
-        <v>4254.4</v>
+        <v>3840.2</v>
       </c>
       <c r="BC64" t="n">
-        <v>4234.4</v>
+        <v>3830.2</v>
       </c>
       <c r="BD64" t="n">
-        <v>4166.9</v>
+        <v>3833.9</v>
       </c>
       <c r="BE64" t="n">
-        <v>4146.9</v>
+        <v>3823.9</v>
       </c>
       <c r="BF64" t="n">
-        <v>4146.9</v>
+        <v>3813.9</v>
       </c>
       <c r="BG64" t="n">
-        <v>4146.9</v>
+        <v>3813.9</v>
       </c>
       <c r="BH64" t="n">
-        <v>4125.8</v>
+        <v>3907.6</v>
       </c>
       <c r="BI64" t="n">
-        <v>4135.8</v>
+        <v>3907.6</v>
       </c>
       <c r="BJ64" t="n">
-        <v>4155.8</v>
+        <v>3917.6</v>
       </c>
       <c r="BK64" t="n">
-        <v>4165.8</v>
+        <v>3937.6</v>
       </c>
       <c r="BL64" t="n">
-        <v>4157.6</v>
+        <v>3918.6</v>
       </c>
       <c r="BM64" t="n">
-        <v>4157.6</v>
+        <v>3918.6</v>
       </c>
       <c r="BN64" t="n">
-        <v>4167.6</v>
+        <v>3918.6</v>
       </c>
       <c r="BO64" t="n">
-        <v>4177.6</v>
+        <v>3928.6</v>
       </c>
       <c r="BP64" t="n">
-        <v>4348.7</v>
+        <v>3880.2</v>
       </c>
       <c r="BQ64" t="n">
-        <v>4388.7</v>
+        <v>3890.2</v>
       </c>
       <c r="BR64" t="n">
-        <v>4448.7</v>
+        <v>3910.2</v>
       </c>
       <c r="BS64" t="n">
-        <v>4518.7</v>
+        <v>3940.2</v>
       </c>
       <c r="BT64" t="n">
-        <v>4258.9</v>
+        <v>3891.1</v>
       </c>
       <c r="BU64" t="n">
-        <v>4348.9</v>
+        <v>3931.1</v>
       </c>
       <c r="BV64" t="n">
-        <v>4428.9</v>
+        <v>3971.1</v>
       </c>
       <c r="BW64" t="n">
-        <v>4508.9</v>
+        <v>4021.1</v>
       </c>
       <c r="BX64" t="n">
-        <v>4500.2</v>
+        <v>3877.6</v>
       </c>
       <c r="BY64" t="n">
-        <v>4580.2</v>
+        <v>3937.6</v>
       </c>
       <c r="BZ64" t="n">
-        <v>4680.2</v>
+        <v>4017.6</v>
       </c>
       <c r="CA64" t="n">
-        <v>4790.2</v>
+        <v>4117.6</v>
       </c>
       <c r="CB64" t="n">
-        <v>4548.2</v>
+        <v>4049</v>
       </c>
       <c r="CC64" t="n">
-        <v>4688.2</v>
+        <v>4169</v>
       </c>
       <c r="CD64" t="n">
-        <v>4808.2</v>
+        <v>4279</v>
       </c>
       <c r="CE64" t="n">
-        <v>4898.2</v>
+        <v>4379</v>
       </c>
       <c r="CF64" t="n">
-        <v>4913.9</v>
+        <v>4634.2</v>
       </c>
       <c r="CG64" t="n">
-        <v>5013.9</v>
+        <v>4734.2</v>
       </c>
       <c r="CH64" t="n">
-        <v>5093.9</v>
+        <v>4814.2</v>
       </c>
       <c r="CI64" t="n">
-        <v>5203.9</v>
+        <v>4914.2</v>
       </c>
       <c r="CJ64" t="n">
-        <v>5417.9</v>
+        <v>4847.4</v>
       </c>
       <c r="CK64" t="n">
-        <v>5427.9</v>
+        <v>4847.4</v>
       </c>
       <c r="CL64" t="n">
-        <v>5437.9</v>
+        <v>4857.4</v>
       </c>
       <c r="CM64" t="n">
-        <v>5377.9</v>
+        <v>4797.4</v>
       </c>
       <c r="CN64" t="n">
-        <v>5824.8</v>
+        <v>4904.7</v>
       </c>
       <c r="CO64" t="n">
-        <v>5744.8</v>
+        <v>4784.7</v>
       </c>
       <c r="CP64" t="n">
-        <v>5624.8</v>
+        <v>4664.7</v>
       </c>
       <c r="CQ64" t="n">
-        <v>5484.8</v>
+        <v>4524.7</v>
       </c>
       <c r="CR64" t="n">
-        <v>5615.9</v>
+        <v>4773.4</v>
       </c>
       <c r="CS64" t="n">
-        <v>5495.9</v>
+        <v>4653.4</v>
       </c>
       <c r="CT64" t="n">
-        <v>5385.9</v>
+        <v>4543.4</v>
       </c>
       <c r="CU64" t="n">
-        <v>5285.9</v>
+        <v>4433.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" s="2" t="n">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45803</v>
       </c>
       <c r="D65" t="n">
-        <v>4790</v>
+        <v>4313.7</v>
       </c>
       <c r="E65" t="n">
-        <v>4750</v>
+        <v>4253.7</v>
       </c>
       <c r="F65" t="n">
-        <v>4680</v>
+        <v>4193.7</v>
       </c>
       <c r="G65" t="n">
-        <v>4620</v>
+        <v>4143.7</v>
       </c>
       <c r="H65" t="n">
-        <v>4364.9</v>
+        <v>3826.3</v>
       </c>
       <c r="I65" t="n">
-        <v>4324.9</v>
+        <v>3776.3</v>
       </c>
       <c r="J65" t="n">
-        <v>4284.9</v>
+        <v>3756.3</v>
       </c>
       <c r="K65" t="n">
-        <v>4244.9</v>
+        <v>3716.3</v>
       </c>
       <c r="L65" t="n">
-        <v>4127.5</v>
+        <v>3430.2</v>
       </c>
       <c r="M65" t="n">
-        <v>4097.5</v>
+        <v>3400.2</v>
       </c>
       <c r="N65" t="n">
-        <v>4077.5</v>
+        <v>3390.2</v>
       </c>
       <c r="O65" t="n">
-        <v>4057.5</v>
+        <v>3380.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4044.5</v>
+        <v>3435.3</v>
       </c>
       <c r="Q65" t="n">
-        <v>4044.5</v>
+        <v>3435.3</v>
       </c>
       <c r="R65" t="n">
-        <v>4054.5</v>
+        <v>3435.3</v>
       </c>
       <c r="S65" t="n">
-        <v>4074.5</v>
+        <v>3435.3</v>
       </c>
       <c r="T65" t="n">
-        <v>4118.7</v>
+        <v>3289.9</v>
       </c>
       <c r="U65" t="n">
-        <v>4128.7</v>
+        <v>3299.9</v>
       </c>
       <c r="V65" t="n">
-        <v>4148.7</v>
+        <v>3309.9</v>
       </c>
       <c r="W65" t="n">
-        <v>4178.7</v>
+        <v>3339.9</v>
       </c>
       <c r="X65" t="n">
-        <v>4173.6</v>
+        <v>3415.3</v>
       </c>
       <c r="Y65" t="n">
-        <v>4243.6</v>
+        <v>3475.3</v>
       </c>
       <c r="Z65" t="n">
-        <v>4333.6</v>
+        <v>3565.3</v>
       </c>
       <c r="AA65" t="n">
-        <v>4443.6</v>
+        <v>3675.3</v>
       </c>
       <c r="AB65" t="n">
-        <v>4478.7</v>
+        <v>3817</v>
       </c>
       <c r="AC65" t="n">
-        <v>4618.7</v>
+        <v>3957</v>
       </c>
       <c r="AD65" t="n">
-        <v>4768.7</v>
+        <v>4107</v>
       </c>
       <c r="AE65" t="n">
-        <v>4908.7</v>
+        <v>4257</v>
       </c>
       <c r="AF65" t="n">
-        <v>4779.8</v>
+        <v>4426.4</v>
       </c>
       <c r="AG65" t="n">
-        <v>4909.8</v>
+        <v>4566.4</v>
       </c>
       <c r="AH65" t="n">
-        <v>5029.8</v>
+        <v>4686.4</v>
       </c>
       <c r="AI65" t="n">
-        <v>5129.8</v>
+        <v>4786.4</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5447.2</v>
+        <v>4752.1</v>
       </c>
       <c r="AK65" t="n">
-        <v>5497.2</v>
+        <v>4812.1</v>
       </c>
       <c r="AL65" t="n">
-        <v>5507.2</v>
+        <v>4842.1</v>
       </c>
       <c r="AM65" t="n">
-        <v>5507.2</v>
+        <v>4872.1</v>
       </c>
       <c r="AN65" t="n">
-        <v>5824.6</v>
+        <v>4938.1</v>
       </c>
       <c r="AO65" t="n">
-        <v>5774.6</v>
+        <v>4908.1</v>
       </c>
       <c r="AP65" t="n">
-        <v>5714.6</v>
+        <v>4878.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>5634.6</v>
+        <v>4848.1</v>
       </c>
       <c r="AR65" t="n">
-        <v>5525.2</v>
+        <v>4955.4</v>
       </c>
       <c r="AS65" t="n">
-        <v>5445.2</v>
+        <v>4935.4</v>
       </c>
       <c r="AT65" t="n">
-        <v>5375.2</v>
+        <v>4905.4</v>
       </c>
       <c r="AU65" t="n">
-        <v>5305.2</v>
+        <v>4865.4</v>
       </c>
       <c r="AV65" t="n">
-        <v>5430.3</v>
+        <v>4714.1</v>
       </c>
       <c r="AW65" t="n">
-        <v>5380.3</v>
+        <v>4684.1</v>
       </c>
       <c r="AX65" t="n">
-        <v>5330.3</v>
+        <v>4664.1</v>
       </c>
       <c r="AY65" t="n">
-        <v>5290.3</v>
+        <v>4644.1</v>
       </c>
       <c r="AZ65" t="n">
-        <v>5394.4</v>
+        <v>4637.2</v>
       </c>
       <c r="BA65" t="n">
-        <v>5354.4</v>
+        <v>4607.2</v>
       </c>
       <c r="BB65" t="n">
-        <v>5304.4</v>
+        <v>4587.2</v>
       </c>
       <c r="BC65" t="n">
-        <v>5264.4</v>
+        <v>4567.2</v>
       </c>
       <c r="BD65" t="n">
-        <v>5176.9</v>
+        <v>4418.5</v>
       </c>
       <c r="BE65" t="n">
-        <v>5146.9</v>
+        <v>4398.5</v>
       </c>
       <c r="BF65" t="n">
-        <v>5126.9</v>
+        <v>4388.5</v>
       </c>
       <c r="BG65" t="n">
-        <v>5116.9</v>
+        <v>4378.5</v>
       </c>
       <c r="BH65" t="n">
-        <v>5085.8</v>
+        <v>4472</v>
       </c>
       <c r="BI65" t="n">
-        <v>5095.8</v>
+        <v>4472</v>
       </c>
       <c r="BJ65" t="n">
-        <v>5105.8</v>
+        <v>4472</v>
       </c>
       <c r="BK65" t="n">
-        <v>5115.8</v>
+        <v>4482</v>
       </c>
       <c r="BL65" t="n">
-        <v>5107.6</v>
+        <v>4575.2</v>
       </c>
       <c r="BM65" t="n">
-        <v>5117.6</v>
+        <v>4575.2</v>
       </c>
       <c r="BN65" t="n">
-        <v>5127.6</v>
+        <v>4575.2</v>
       </c>
       <c r="BO65" t="n">
-        <v>5147.6</v>
+        <v>4585.2</v>
       </c>
       <c r="BP65" t="n">
-        <v>5328.7</v>
+        <v>4496.6</v>
       </c>
       <c r="BQ65" t="n">
-        <v>5368.7</v>
+        <v>4526.6</v>
       </c>
       <c r="BR65" t="n">
-        <v>5438.7</v>
+        <v>4546.6</v>
       </c>
       <c r="BS65" t="n">
-        <v>5518.7</v>
+        <v>4576.6</v>
       </c>
       <c r="BT65" t="n">
-        <v>5268.9</v>
+        <v>4736.8</v>
       </c>
       <c r="BU65" t="n">
-        <v>5358.9</v>
+        <v>4766.8</v>
       </c>
       <c r="BV65" t="n">
-        <v>5448.9</v>
+        <v>4816.8</v>
       </c>
       <c r="BW65" t="n">
-        <v>5538.9</v>
+        <v>4866.8</v>
       </c>
       <c r="BX65" t="n">
-        <v>5560.2</v>
+        <v>5047.3</v>
       </c>
       <c r="BY65" t="n">
-        <v>5660.2</v>
+        <v>5107.3</v>
       </c>
       <c r="BZ65" t="n">
-        <v>5770.2</v>
+        <v>5187.3</v>
       </c>
       <c r="CA65" t="n">
-        <v>5900.2</v>
+        <v>5277.3</v>
       </c>
       <c r="CB65" t="n">
-        <v>5668.2</v>
+        <v>5538.7</v>
       </c>
       <c r="CC65" t="n">
-        <v>5798.2</v>
+        <v>5638.7</v>
       </c>
       <c r="CD65" t="n">
-        <v>5908.2</v>
+        <v>5728.7</v>
       </c>
       <c r="CE65" t="n">
-        <v>5978.2</v>
+        <v>5808.7</v>
       </c>
       <c r="CF65" t="n">
-        <v>5973.9</v>
+        <v>6035</v>
       </c>
       <c r="CG65" t="n">
-        <v>6053.9</v>
+        <v>6125</v>
       </c>
       <c r="CH65" t="n">
-        <v>6133.9</v>
+        <v>6205</v>
       </c>
       <c r="CI65" t="n">
-        <v>6243.9</v>
+        <v>6315</v>
       </c>
       <c r="CJ65" t="n">
-        <v>6437.9</v>
+        <v>6702.5</v>
       </c>
       <c r="CK65" t="n">
-        <v>6437.9</v>
+        <v>6702.5</v>
       </c>
       <c r="CL65" t="n">
-        <v>6427.9</v>
+        <v>6672.5</v>
       </c>
       <c r="CM65" t="n">
-        <v>6297.9</v>
+        <v>6542.5</v>
       </c>
       <c r="CN65" t="n">
-        <v>6704.8</v>
+        <v>6725.9</v>
       </c>
       <c r="CO65" t="n">
-        <v>6574.8</v>
+        <v>6535.9</v>
       </c>
       <c r="CP65" t="n">
-        <v>6444.8</v>
+        <v>6395.9</v>
       </c>
       <c r="CQ65" t="n">
-        <v>6264.8</v>
+        <v>6225.9</v>
       </c>
       <c r="CR65" t="n">
-        <v>6295.9</v>
+        <v>6264.7</v>
       </c>
       <c r="CS65" t="n">
-        <v>6105.9</v>
+        <v>6104.7</v>
       </c>
       <c r="CT65" t="n">
-        <v>6025.9</v>
+        <v>5974.7</v>
       </c>
       <c r="CU65" t="n">
-        <v>5915.9</v>
+        <v>5864.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" s="2" t="n">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45804</v>
       </c>
       <c r="D66" t="n">
-        <v>5340</v>
+        <v>6240.9</v>
       </c>
       <c r="E66" t="n">
-        <v>5300</v>
+        <v>6180.9</v>
       </c>
       <c r="F66" t="n">
-        <v>5230</v>
+        <v>6120.9</v>
       </c>
       <c r="G66" t="n">
-        <v>5170</v>
+        <v>6050.9</v>
       </c>
       <c r="H66" t="n">
-        <v>4914.9</v>
+        <v>5075</v>
       </c>
       <c r="I66" t="n">
-        <v>4874.9</v>
+        <v>5025</v>
       </c>
       <c r="J66" t="n">
-        <v>4834.9</v>
+        <v>4985</v>
       </c>
       <c r="K66" t="n">
-        <v>4784.9</v>
+        <v>4945</v>
       </c>
       <c r="L66" t="n">
-        <v>4657.5</v>
+        <v>4883</v>
       </c>
       <c r="M66" t="n">
-        <v>4617.5</v>
+        <v>4853</v>
       </c>
       <c r="N66" t="n">
-        <v>4587.5</v>
+        <v>4843</v>
       </c>
       <c r="O66" t="n">
-        <v>4557.5</v>
+        <v>4833</v>
       </c>
       <c r="P66" t="n">
-        <v>4544.5</v>
+        <v>4838</v>
       </c>
       <c r="Q66" t="n">
-        <v>4544.5</v>
+        <v>4848</v>
       </c>
       <c r="R66" t="n">
-        <v>4554.5</v>
+        <v>4848</v>
       </c>
       <c r="S66" t="n">
-        <v>4554.5</v>
+        <v>4858</v>
       </c>
       <c r="T66" t="n">
-        <v>4598.7</v>
+        <v>4847</v>
       </c>
       <c r="U66" t="n">
-        <v>4618.7</v>
+        <v>4847</v>
       </c>
       <c r="V66" t="n">
-        <v>4638.7</v>
+        <v>4857</v>
       </c>
       <c r="W66" t="n">
-        <v>4658.7</v>
+        <v>4867</v>
       </c>
       <c r="X66" t="n">
-        <v>4653.6</v>
+        <v>4927</v>
       </c>
       <c r="Y66" t="n">
-        <v>4703.6</v>
+        <v>4967</v>
       </c>
       <c r="Z66" t="n">
-        <v>4773.6</v>
+        <v>5017</v>
       </c>
       <c r="AA66" t="n">
-        <v>4853.6</v>
+        <v>5097</v>
       </c>
       <c r="AB66" t="n">
-        <v>4858.7</v>
+        <v>5347</v>
       </c>
       <c r="AC66" t="n">
-        <v>4958.7</v>
+        <v>5447</v>
       </c>
       <c r="AD66" t="n">
-        <v>5058.7</v>
+        <v>5557</v>
       </c>
       <c r="AE66" t="n">
-        <v>5158.7</v>
+        <v>5677</v>
       </c>
       <c r="AF66" t="n">
-        <v>4979.8</v>
+        <v>5756</v>
       </c>
       <c r="AG66" t="n">
-        <v>5069.8</v>
+        <v>5866</v>
       </c>
       <c r="AH66" t="n">
-        <v>5139.8</v>
+        <v>5976</v>
       </c>
       <c r="AI66" t="n">
-        <v>5199.8</v>
+        <v>6066</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5487.2</v>
+        <v>6229</v>
       </c>
       <c r="AK66" t="n">
-        <v>5507.2</v>
+        <v>6289</v>
       </c>
       <c r="AL66" t="n">
-        <v>5507.2</v>
+        <v>6329</v>
       </c>
       <c r="AM66" t="n">
-        <v>5497.2</v>
+        <v>6349</v>
       </c>
       <c r="AN66" t="n">
-        <v>5794.6</v>
+        <v>6305</v>
       </c>
       <c r="AO66" t="n">
-        <v>5744.6</v>
+        <v>6285</v>
       </c>
       <c r="AP66" t="n">
-        <v>5674.6</v>
+        <v>6245</v>
       </c>
       <c r="AQ66" t="n">
-        <v>5604.6</v>
+        <v>6195</v>
       </c>
       <c r="AR66" t="n">
-        <v>5485.2</v>
+        <v>6288</v>
       </c>
       <c r="AS66" t="n">
-        <v>5405.2</v>
+        <v>6218</v>
       </c>
       <c r="AT66" t="n">
-        <v>5335.2</v>
+        <v>6158</v>
       </c>
       <c r="AU66" t="n">
-        <v>5255.2</v>
+        <v>6108</v>
       </c>
       <c r="AV66" t="n">
-        <v>5380.3</v>
+        <v>6203</v>
       </c>
       <c r="AW66" t="n">
-        <v>5330.3</v>
+        <v>6163</v>
       </c>
       <c r="AX66" t="n">
-        <v>5280.3</v>
+        <v>6123</v>
       </c>
       <c r="AY66" t="n">
-        <v>5230.3</v>
+        <v>6093</v>
       </c>
       <c r="AZ66" t="n">
-        <v>5344.4</v>
+        <v>5986</v>
       </c>
       <c r="BA66" t="n">
-        <v>5304.4</v>
+        <v>5966</v>
       </c>
       <c r="BB66" t="n">
-        <v>5264.4</v>
+        <v>5956</v>
       </c>
       <c r="BC66" t="n">
-        <v>5224.4</v>
+        <v>5946</v>
       </c>
       <c r="BD66" t="n">
-        <v>5136.9</v>
+        <v>5860</v>
       </c>
       <c r="BE66" t="n">
-        <v>5106.9</v>
+        <v>5850</v>
       </c>
       <c r="BF66" t="n">
-        <v>5086.9</v>
+        <v>5860</v>
       </c>
       <c r="BG66" t="n">
-        <v>5066.9</v>
+        <v>5860</v>
       </c>
       <c r="BH66" t="n">
-        <v>5035.8</v>
+        <v>5923</v>
       </c>
       <c r="BI66" t="n">
-        <v>5035.8</v>
+        <v>5923</v>
       </c>
       <c r="BJ66" t="n">
-        <v>5045.8</v>
+        <v>5923</v>
       </c>
       <c r="BK66" t="n">
-        <v>5055.8</v>
+        <v>5923</v>
       </c>
       <c r="BL66" t="n">
-        <v>5057.6</v>
+        <v>5883</v>
       </c>
       <c r="BM66" t="n">
-        <v>5067.6</v>
+        <v>5873</v>
       </c>
       <c r="BN66" t="n">
-        <v>5087.6</v>
+        <v>5863</v>
       </c>
       <c r="BO66" t="n">
-        <v>5117.6</v>
+        <v>5863</v>
       </c>
       <c r="BP66" t="n">
-        <v>5308.7</v>
+        <v>5909</v>
       </c>
       <c r="BQ66" t="n">
-        <v>5358.7</v>
+        <v>5929</v>
       </c>
       <c r="BR66" t="n">
-        <v>5428.7</v>
+        <v>5959</v>
       </c>
       <c r="BS66" t="n">
-        <v>5518.7</v>
+        <v>5989</v>
       </c>
       <c r="BT66" t="n">
-        <v>5268.9</v>
+        <v>6184</v>
       </c>
       <c r="BU66" t="n">
-        <v>5368.9</v>
+        <v>6224</v>
       </c>
       <c r="BV66" t="n">
-        <v>5458.9</v>
+        <v>6284</v>
       </c>
       <c r="BW66" t="n">
-        <v>5548.9</v>
+        <v>6324</v>
       </c>
       <c r="BX66" t="n">
-        <v>5560.2</v>
+        <v>6153</v>
       </c>
       <c r="BY66" t="n">
-        <v>5660.2</v>
+        <v>6213</v>
       </c>
       <c r="BZ66" t="n">
-        <v>5770.2</v>
+        <v>6293</v>
       </c>
       <c r="CA66" t="n">
-        <v>5900.2</v>
+        <v>6373</v>
       </c>
       <c r="CB66" t="n">
-        <v>5668.2</v>
+        <v>6268</v>
       </c>
       <c r="CC66" t="n">
-        <v>5798.2</v>
+        <v>6348</v>
       </c>
       <c r="CD66" t="n">
-        <v>5918.2</v>
+        <v>6438</v>
       </c>
       <c r="CE66" t="n">
-        <v>6008.2</v>
+        <v>6528</v>
       </c>
       <c r="CF66" t="n">
-        <v>6023.9</v>
+        <v>6614</v>
       </c>
       <c r="CG66" t="n">
-        <v>6113.9</v>
+        <v>6704</v>
       </c>
       <c r="CH66" t="n">
-        <v>6203.9</v>
+        <v>6804</v>
       </c>
       <c r="CI66" t="n">
-        <v>6313.9</v>
+        <v>6894</v>
       </c>
       <c r="CJ66" t="n">
-        <v>6487.9</v>
+        <v>6969</v>
       </c>
       <c r="CK66" t="n">
-        <v>6487.9</v>
+        <v>6969</v>
       </c>
       <c r="CL66" t="n">
-        <v>6477.9</v>
+        <v>6899</v>
       </c>
       <c r="CM66" t="n">
-        <v>6337.9</v>
+        <v>6789</v>
       </c>
       <c r="CN66" t="n">
-        <v>6744.8</v>
+        <v>6662</v>
       </c>
       <c r="CO66" t="n">
-        <v>6614.8</v>
+        <v>6492</v>
       </c>
       <c r="CP66" t="n">
-        <v>6464.8</v>
+        <v>6322</v>
       </c>
       <c r="CQ66" t="n">
-        <v>6284.8</v>
+        <v>6142</v>
       </c>
       <c r="CR66" t="n">
-        <v>6325.9</v>
+        <v>5896</v>
       </c>
       <c r="CS66" t="n">
-        <v>6125.9</v>
+        <v>5736</v>
       </c>
       <c r="CT66" t="n">
-        <v>6045.9</v>
+        <v>5566</v>
       </c>
       <c r="CU66" t="n">
-        <v>5935.9</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" s="2" t="n">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45805</v>
       </c>
       <c r="D67" t="n">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="E67" t="n">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="F67" t="n">
-        <v>5180</v>
+        <v>5189</v>
       </c>
       <c r="G67" t="n">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="H67" t="n">
-        <v>4864.9</v>
+        <v>5069.8</v>
       </c>
       <c r="I67" t="n">
-        <v>4824.9</v>
+        <v>5029.8</v>
       </c>
       <c r="J67" t="n">
-        <v>4784.9</v>
+        <v>4989.8</v>
       </c>
       <c r="K67" t="n">
-        <v>4734.9</v>
+        <v>4959.8</v>
       </c>
       <c r="L67" t="n">
-        <v>4607.5</v>
+        <v>4649.7</v>
       </c>
       <c r="M67" t="n">
-        <v>4567.5</v>
+        <v>4619.7</v>
       </c>
       <c r="N67" t="n">
-        <v>4537.5</v>
+        <v>4599.7</v>
       </c>
       <c r="O67" t="n">
-        <v>4527.5</v>
+        <v>4589.7</v>
       </c>
       <c r="P67" t="n">
-        <v>4514.5</v>
+        <v>4671.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>4514.5</v>
+        <v>4661.6</v>
       </c>
       <c r="R67" t="n">
-        <v>4524.5</v>
+        <v>4661.6</v>
       </c>
       <c r="S67" t="n">
-        <v>4524.5</v>
+        <v>4661.6</v>
       </c>
       <c r="T67" t="n">
-        <v>4568.7</v>
+        <v>4373.3</v>
       </c>
       <c r="U67" t="n">
-        <v>4568.7</v>
+        <v>4383.3</v>
       </c>
       <c r="V67" t="n">
-        <v>4588.7</v>
+        <v>4393.3</v>
       </c>
       <c r="W67" t="n">
-        <v>4608.7</v>
+        <v>4413.3</v>
       </c>
       <c r="X67" t="n">
-        <v>4603.6</v>
+        <v>4236.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>4653.6</v>
+        <v>4276.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>4723.6</v>
+        <v>4306.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>4803.6</v>
+        <v>4336.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>4808.7</v>
+        <v>4505</v>
       </c>
       <c r="AC67" t="n">
-        <v>4908.7</v>
+        <v>4585</v>
       </c>
       <c r="AD67" t="n">
-        <v>5008.7</v>
+        <v>4675</v>
       </c>
       <c r="AE67" t="n">
-        <v>5108.7</v>
+        <v>4805</v>
       </c>
       <c r="AF67" t="n">
-        <v>4929.8</v>
+        <v>5659.8</v>
       </c>
       <c r="AG67" t="n">
-        <v>5019.8</v>
+        <v>5839.8</v>
       </c>
       <c r="AH67" t="n">
-        <v>5089.8</v>
+        <v>5959.8</v>
       </c>
       <c r="AI67" t="n">
-        <v>5149.8</v>
+        <v>6039.8</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5437.2</v>
+        <v>6820.9</v>
       </c>
       <c r="AK67" t="n">
-        <v>5457.2</v>
+        <v>6830.9</v>
       </c>
       <c r="AL67" t="n">
-        <v>5467.2</v>
+        <v>6840.9</v>
       </c>
       <c r="AM67" t="n">
-        <v>5447.2</v>
+        <v>6840.9</v>
       </c>
       <c r="AN67" t="n">
-        <v>5744.6</v>
+        <v>7305.7</v>
       </c>
       <c r="AO67" t="n">
-        <v>5694.6</v>
+        <v>7295.7</v>
       </c>
       <c r="AP67" t="n">
-        <v>5624.6</v>
+        <v>7285.7</v>
       </c>
       <c r="AQ67" t="n">
-        <v>5554.6</v>
+        <v>7225.7</v>
       </c>
       <c r="AR67" t="n">
-        <v>5435.2</v>
+        <v>7552.9</v>
       </c>
       <c r="AS67" t="n">
-        <v>5355.2</v>
+        <v>7472.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>5285.2</v>
+        <v>7402.9</v>
       </c>
       <c r="AU67" t="n">
-        <v>5205.2</v>
+        <v>7322.9</v>
       </c>
       <c r="AV67" t="n">
-        <v>5330.3</v>
+        <v>7502.5</v>
       </c>
       <c r="AW67" t="n">
-        <v>5280.3</v>
+        <v>7432.5</v>
       </c>
       <c r="AX67" t="n">
-        <v>5230.3</v>
+        <v>7362.5</v>
       </c>
       <c r="AY67" t="n">
-        <v>5180.3</v>
+        <v>7292.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>5294.4</v>
+        <v>7031.3</v>
       </c>
       <c r="BA67" t="n">
-        <v>5254.4</v>
+        <v>6991.3</v>
       </c>
       <c r="BB67" t="n">
-        <v>5214.4</v>
+        <v>6971.3</v>
       </c>
       <c r="BC67" t="n">
-        <v>5174.4</v>
+        <v>6971.3</v>
       </c>
       <c r="BD67" t="n">
-        <v>5086.9</v>
+        <v>6909.7</v>
       </c>
       <c r="BE67" t="n">
-        <v>5056.9</v>
+        <v>6919.7</v>
       </c>
       <c r="BF67" t="n">
-        <v>5036.9</v>
+        <v>6929.7</v>
       </c>
       <c r="BG67" t="n">
-        <v>5016.9</v>
+        <v>6939.7</v>
       </c>
       <c r="BH67" t="n">
-        <v>4985.8</v>
+        <v>6437.5</v>
       </c>
       <c r="BI67" t="n">
-        <v>4985.8</v>
+        <v>6437.5</v>
       </c>
       <c r="BJ67" t="n">
-        <v>4995.8</v>
+        <v>6447.5</v>
       </c>
       <c r="BK67" t="n">
-        <v>5005.8</v>
+        <v>6457.5</v>
       </c>
       <c r="BL67" t="n">
-        <v>5007.6</v>
+        <v>6154.1</v>
       </c>
       <c r="BM67" t="n">
-        <v>5017.6</v>
+        <v>6154.1</v>
       </c>
       <c r="BN67" t="n">
-        <v>5037.6</v>
+        <v>6164.1</v>
       </c>
       <c r="BO67" t="n">
-        <v>5067.6</v>
+        <v>6174.1</v>
       </c>
       <c r="BP67" t="n">
-        <v>5258.7</v>
+        <v>5430.1</v>
       </c>
       <c r="BQ67" t="n">
-        <v>5308.7</v>
+        <v>5470.1</v>
       </c>
       <c r="BR67" t="n">
-        <v>5378.7</v>
+        <v>5520.1</v>
       </c>
       <c r="BS67" t="n">
-        <v>5468.7</v>
+        <v>5580.1</v>
       </c>
       <c r="BT67" t="n">
-        <v>5218.9</v>
+        <v>5259.7</v>
       </c>
       <c r="BU67" t="n">
-        <v>5318.9</v>
+        <v>5329.7</v>
       </c>
       <c r="BV67" t="n">
-        <v>5408.9</v>
+        <v>5379.7</v>
       </c>
       <c r="BW67" t="n">
-        <v>5498.9</v>
+        <v>5469.7</v>
       </c>
       <c r="BX67" t="n">
-        <v>5510.2</v>
+        <v>5340.8</v>
       </c>
       <c r="BY67" t="n">
-        <v>5610.2</v>
+        <v>5430.8</v>
       </c>
       <c r="BZ67" t="n">
-        <v>5720.2</v>
+        <v>5520.8</v>
       </c>
       <c r="CA67" t="n">
-        <v>5850.2</v>
+        <v>5620.8</v>
       </c>
       <c r="CB67" t="n">
-        <v>5618.2</v>
+        <v>5816</v>
       </c>
       <c r="CC67" t="n">
-        <v>5748.2</v>
+        <v>5896</v>
       </c>
       <c r="CD67" t="n">
-        <v>5868.2</v>
+        <v>5986</v>
       </c>
       <c r="CE67" t="n">
-        <v>5958.2</v>
+        <v>6056</v>
       </c>
       <c r="CF67" t="n">
-        <v>5973.9</v>
+        <v>6296.6</v>
       </c>
       <c r="CG67" t="n">
-        <v>6063.9</v>
+        <v>6366.6</v>
       </c>
       <c r="CH67" t="n">
-        <v>6153.9</v>
+        <v>6436.6</v>
       </c>
       <c r="CI67" t="n">
-        <v>6263.9</v>
+        <v>6526.6</v>
       </c>
       <c r="CJ67" t="n">
-        <v>6467.9</v>
+        <v>6493.2</v>
       </c>
       <c r="CK67" t="n">
-        <v>6457.9</v>
+        <v>6483.2</v>
       </c>
       <c r="CL67" t="n">
-        <v>6427.9</v>
+        <v>6453.2</v>
       </c>
       <c r="CM67" t="n">
-        <v>6287.9</v>
+        <v>6363.2</v>
       </c>
       <c r="CN67" t="n">
-        <v>6694.8</v>
+        <v>6583</v>
       </c>
       <c r="CO67" t="n">
-        <v>6564.8</v>
+        <v>6373</v>
       </c>
       <c r="CP67" t="n">
-        <v>6414.8</v>
+        <v>6203</v>
       </c>
       <c r="CQ67" t="n">
-        <v>6234.8</v>
+        <v>6043</v>
       </c>
       <c r="CR67" t="n">
-        <v>6275.9</v>
+        <v>4642.9</v>
       </c>
       <c r="CS67" t="n">
-        <v>6075.9</v>
+        <v>4512.9</v>
       </c>
       <c r="CT67" t="n">
-        <v>5995.9</v>
+        <v>4392.9</v>
       </c>
       <c r="CU67" t="n">
-        <v>5885.9</v>
+        <v>4282.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" s="2" t="n">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45806</v>
       </c>
       <c r="D68" t="n">
-        <v>5240</v>
+        <v>4751.8</v>
       </c>
       <c r="E68" t="n">
-        <v>5200</v>
+        <v>4681.8</v>
       </c>
       <c r="F68" t="n">
-        <v>5140</v>
+        <v>4621.8</v>
       </c>
       <c r="G68" t="n">
-        <v>5080</v>
+        <v>4561.8</v>
       </c>
       <c r="H68" t="n">
-        <v>4824.9</v>
+        <v>5333.7</v>
       </c>
       <c r="I68" t="n">
-        <v>4794.9</v>
+        <v>5283.7</v>
       </c>
       <c r="J68" t="n">
-        <v>4754.9</v>
+        <v>5233.7</v>
       </c>
       <c r="K68" t="n">
-        <v>4704.9</v>
+        <v>5183.7</v>
       </c>
       <c r="L68" t="n">
-        <v>4587.5</v>
+        <v>5289.6</v>
       </c>
       <c r="M68" t="n">
-        <v>4547.5</v>
+        <v>5259.6</v>
       </c>
       <c r="N68" t="n">
-        <v>4517.5</v>
+        <v>5239.6</v>
       </c>
       <c r="O68" t="n">
-        <v>4507.5</v>
+        <v>5229.6</v>
       </c>
       <c r="P68" t="n">
-        <v>4494.5</v>
+        <v>5090.9</v>
       </c>
       <c r="Q68" t="n">
-        <v>4494.5</v>
+        <v>5090.9</v>
       </c>
       <c r="R68" t="n">
-        <v>4504.5</v>
+        <v>5090.9</v>
       </c>
       <c r="S68" t="n">
-        <v>4504.5</v>
+        <v>5090.9</v>
       </c>
       <c r="T68" t="n">
-        <v>4548.7</v>
+        <v>4959.1</v>
       </c>
       <c r="U68" t="n">
+        <v>4959.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4959.1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4969.1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>4894.8</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>4924.8</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>4974.8</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5044.8</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>4931.3</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>5021.3</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>5111.3</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>5211.3</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>5155.8</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>5255.8</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>5335.8</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>5395.8</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>5327</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>5357</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>5367</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>5357</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>4931.5</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>4891.5</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>4831.5</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>4761.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>5113.4</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>5043.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>4983.4</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4923.4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>5014.4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>4974.4</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>4944.4</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>4924.4</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>4884.2</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>4874.2</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>4874.2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>4864.2</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>4777.4</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>4777.4</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4777.4</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4777.4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4709.1</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4709.1</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>4709.1</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>4709.1</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>4622.5</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>4622.5</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>4622.5</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>4632.5</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>4570.9</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>4600.9</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>4650.9</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>4700.9</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>4425.7</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>4495.7</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>4555.7</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>4625.7</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>4283.5</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>4363.5</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>4443.5</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>4523.5</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>4388.7</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>4478.7</v>
+      </c>
+      <c r="CD68" t="n">
         <v>4558.7</v>
       </c>
-      <c r="V68" t="n">
-        <v>4558.7</v>
-      </c>
-      <c r="W68" t="n">
-        <v>4568.7</v>
-      </c>
-      <c r="X68" t="n">
-        <v>4543.6</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>4573.6</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>4613.6</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>4663.6</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>4648.7</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>4738.7</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>4828.7</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>4928.7</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>4749.8</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>4849.8</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>4939.8</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>5009.8</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>5297.2</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>5327.2</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>5327.2</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>5307.2</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>5604.6</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>5544.6</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>5484.6</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>5404.6</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>5305.2</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>5235.2</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>5175.2</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>5125.2</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>5260.3</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>5230.3</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>5200.3</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>5180.3</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>5314.4</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>5284.4</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>5254.4</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>5234.4</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>5166.9</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>5146.9</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>5146.9</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>5146.9</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>5125.8</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>5135.8</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>5155.8</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>5165.8</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>5157.6</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>5167.6</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>5167.6</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>5187.6</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>5358.7</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>5398.7</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>5458.7</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>5528.7</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>5268.9</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>5358.9</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>5438.9</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>5518.9</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>5510.2</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>5580.2</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>5660.2</v>
-      </c>
-      <c r="CA68" t="n">
-        <v>5760.2</v>
-      </c>
-      <c r="CB68" t="n">
-        <v>5498.2</v>
-      </c>
-      <c r="CC68" t="n">
-        <v>5608.2</v>
-      </c>
-      <c r="CD68" t="n">
-        <v>5708.2</v>
-      </c>
       <c r="CE68" t="n">
-        <v>5798.2</v>
+        <v>4628.7</v>
       </c>
       <c r="CF68" t="n">
-        <v>5813.9</v>
+        <v>4440.2</v>
       </c>
       <c r="CG68" t="n">
-        <v>5903.9</v>
+        <v>4520.2</v>
       </c>
       <c r="CH68" t="n">
-        <v>5983.9</v>
+        <v>4600.2</v>
       </c>
       <c r="CI68" t="n">
-        <v>6083.9</v>
+        <v>4660.2</v>
       </c>
       <c r="CJ68" t="n">
-        <v>6267.9</v>
+        <v>4774.4</v>
       </c>
       <c r="CK68" t="n">
-        <v>6247.9</v>
+        <v>4754.4</v>
       </c>
       <c r="CL68" t="n">
-        <v>6217.9</v>
+        <v>4694.4</v>
       </c>
       <c r="CM68" t="n">
-        <v>6127.9</v>
+        <v>4614.4</v>
       </c>
       <c r="CN68" t="n">
-        <v>6564.8</v>
+        <v>4707.9</v>
       </c>
       <c r="CO68" t="n">
-        <v>6464.8</v>
+        <v>4587.9</v>
       </c>
       <c r="CP68" t="n">
-        <v>6324.8</v>
+        <v>4447.9</v>
       </c>
       <c r="CQ68" t="n">
-        <v>6134.8</v>
+        <v>4297.9</v>
       </c>
       <c r="CR68" t="n">
-        <v>6195.9</v>
+        <v>4875.2</v>
       </c>
       <c r="CS68" t="n">
-        <v>6005.9</v>
+        <v>4745.2</v>
       </c>
       <c r="CT68" t="n">
-        <v>5925.9</v>
+        <v>4625.2</v>
       </c>
       <c r="CU68" t="n">
-        <v>5815.9</v>
+        <v>4515.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="D69" t="n">
-        <v>5270</v>
+        <v>4611.8</v>
       </c>
       <c r="E69" t="n">
-        <v>5230</v>
+        <v>4571.8</v>
       </c>
       <c r="F69" t="n">
-        <v>5160</v>
+        <v>4511.8</v>
       </c>
       <c r="G69" t="n">
-        <v>5100</v>
+        <v>4431.8</v>
       </c>
       <c r="H69" t="n">
-        <v>4844.9</v>
+        <v>5193.7</v>
       </c>
       <c r="I69" t="n">
-        <v>4804.9</v>
+        <v>5153.7</v>
       </c>
       <c r="J69" t="n">
-        <v>4764.9</v>
+        <v>5113.7</v>
       </c>
       <c r="K69" t="n">
-        <v>4714.9</v>
+        <v>5073.7</v>
       </c>
       <c r="L69" t="n">
-        <v>4587.5</v>
+        <v>5189.6</v>
       </c>
       <c r="M69" t="n">
-        <v>4547.5</v>
+        <v>5169.6</v>
       </c>
       <c r="N69" t="n">
-        <v>4517.5</v>
+        <v>5159.6</v>
       </c>
       <c r="O69" t="n">
-        <v>4507.5</v>
+        <v>5139.6</v>
       </c>
       <c r="P69" t="n">
-        <v>4494.5</v>
+        <v>5020.9</v>
       </c>
       <c r="Q69" t="n">
-        <v>4494.5</v>
+        <v>5020.9</v>
       </c>
       <c r="R69" t="n">
-        <v>4504.5</v>
+        <v>5020.9</v>
       </c>
       <c r="S69" t="n">
-        <v>4504.5</v>
+        <v>5030.9</v>
       </c>
       <c r="T69" t="n">
-        <v>4548.7</v>
+        <v>4909.1</v>
       </c>
       <c r="U69" t="n">
-        <v>4558.7</v>
+        <v>4909.1</v>
       </c>
       <c r="V69" t="n">
-        <v>4568.7</v>
+        <v>4909.1</v>
       </c>
       <c r="W69" t="n">
-        <v>4588.7</v>
+        <v>4929.1</v>
       </c>
       <c r="X69" t="n">
-        <v>4583.6</v>
+        <v>4854.8</v>
       </c>
       <c r="Y69" t="n">
-        <v>4633.6</v>
+        <v>4894.8</v>
       </c>
       <c r="Z69" t="n">
-        <v>4693.6</v>
+        <v>4954.8</v>
       </c>
       <c r="AA69" t="n">
-        <v>4783.6</v>
+        <v>5024.8</v>
       </c>
       <c r="AB69" t="n">
-        <v>4788.7</v>
+        <v>4921.3</v>
       </c>
       <c r="AC69" t="n">
-        <v>4898.7</v>
+        <v>5021.3</v>
       </c>
       <c r="AD69" t="n">
-        <v>5008.7</v>
+        <v>5131.3</v>
       </c>
       <c r="AE69" t="n">
-        <v>5128.7</v>
+        <v>5251.3</v>
       </c>
       <c r="AF69" t="n">
-        <v>4959.8</v>
+        <v>5205.8</v>
       </c>
       <c r="AG69" t="n">
-        <v>5059.8</v>
+        <v>5305.8</v>
       </c>
       <c r="AH69" t="n">
-        <v>5139.8</v>
+        <v>5385.8</v>
       </c>
       <c r="AI69" t="n">
-        <v>5209.8</v>
+        <v>5445.8</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5497.2</v>
+        <v>5367</v>
       </c>
       <c r="AK69" t="n">
-        <v>5527.2</v>
+        <v>5367</v>
       </c>
       <c r="AL69" t="n">
-        <v>5527.2</v>
+        <v>5357</v>
       </c>
       <c r="AM69" t="n">
-        <v>5517.2</v>
+        <v>5327</v>
       </c>
       <c r="AN69" t="n">
-        <v>5814.6</v>
+        <v>4881.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>5754.6</v>
+        <v>4811.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>5684.6</v>
+        <v>4731.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>5604.6</v>
+        <v>4651.5</v>
       </c>
       <c r="AR69" t="n">
-        <v>5495.2</v>
+        <v>5003.4</v>
       </c>
       <c r="AS69" t="n">
-        <v>5415.2</v>
+        <v>4933.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>5335.2</v>
+        <v>4873.4</v>
       </c>
       <c r="AU69" t="n">
-        <v>5265.2</v>
+        <v>4823.4</v>
       </c>
       <c r="AV69" t="n">
-        <v>5390.3</v>
+        <v>4924.4</v>
       </c>
       <c r="AW69" t="n">
-        <v>5340.3</v>
+        <v>4894.4</v>
       </c>
       <c r="AX69" t="n">
-        <v>5290.3</v>
+        <v>4864.4</v>
       </c>
       <c r="AY69" t="n">
-        <v>5240.3</v>
+        <v>4844.4</v>
       </c>
       <c r="AZ69" t="n">
-        <v>5354.4</v>
+        <v>4794.2</v>
       </c>
       <c r="BA69" t="n">
-        <v>5314.4</v>
+        <v>4774.2</v>
       </c>
       <c r="BB69" t="n">
-        <v>5274.4</v>
+        <v>4754.2</v>
       </c>
       <c r="BC69" t="n">
-        <v>5234.4</v>
+        <v>4734.2</v>
       </c>
       <c r="BD69" t="n">
-        <v>5146.9</v>
+        <v>4637.4</v>
       </c>
       <c r="BE69" t="n">
-        <v>5116.9</v>
+        <v>4627.4</v>
       </c>
       <c r="BF69" t="n">
-        <v>5096.9</v>
+        <v>4637.4</v>
       </c>
       <c r="BG69" t="n">
-        <v>5076.9</v>
+        <v>4637.4</v>
       </c>
       <c r="BH69" t="n">
-        <v>5045.8</v>
+        <v>4589.1</v>
       </c>
       <c r="BI69" t="n">
-        <v>5045.8</v>
+        <v>4609.1</v>
       </c>
       <c r="BJ69" t="n">
-        <v>5055.8</v>
+        <v>4629.1</v>
       </c>
       <c r="BK69" t="n">
-        <v>5065.8</v>
+        <v>4649.1</v>
       </c>
       <c r="BL69" t="n">
-        <v>5067.6</v>
+        <v>4582.5</v>
       </c>
       <c r="BM69" t="n">
-        <v>5077.6</v>
+        <v>4602.5</v>
       </c>
       <c r="BN69" t="n">
-        <v>5097.6</v>
+        <v>4622.5</v>
       </c>
       <c r="BO69" t="n">
-        <v>5127.6</v>
+        <v>4642.5</v>
       </c>
       <c r="BP69" t="n">
-        <v>5318.7</v>
+        <v>4580.9</v>
       </c>
       <c r="BQ69" t="n">
-        <v>5368.7</v>
+        <v>4610.9</v>
       </c>
       <c r="BR69" t="n">
-        <v>5438.7</v>
+        <v>4660.9</v>
       </c>
       <c r="BS69" t="n">
-        <v>5528.7</v>
+        <v>4720.9</v>
       </c>
       <c r="BT69" t="n">
-        <v>5278.9</v>
+        <v>4445.7</v>
       </c>
       <c r="BU69" t="n">
-        <v>5378.9</v>
+        <v>4505.7</v>
       </c>
       <c r="BV69" t="n">
-        <v>5468.9</v>
+        <v>4565.7</v>
       </c>
       <c r="BW69" t="n">
-        <v>5558.9</v>
+        <v>4625.7</v>
       </c>
       <c r="BX69" t="n">
-        <v>5570.2</v>
+        <v>4283.5</v>
       </c>
       <c r="BY69" t="n">
-        <v>5660.2</v>
+        <v>4353.5</v>
       </c>
       <c r="BZ69" t="n">
-        <v>5770.2</v>
+        <v>4423.5</v>
       </c>
       <c r="CA69" t="n">
-        <v>5880.2</v>
+        <v>4523.5</v>
       </c>
       <c r="CB69" t="n">
-        <v>5628.2</v>
+        <v>4398.7</v>
       </c>
       <c r="CC69" t="n">
-        <v>5748.2</v>
+        <v>4508.7</v>
       </c>
       <c r="CD69" t="n">
-        <v>5848.2</v>
+        <v>4608.7</v>
       </c>
       <c r="CE69" t="n">
-        <v>5928.2</v>
+        <v>4698.7</v>
       </c>
       <c r="CF69" t="n">
-        <v>5943.9</v>
+        <v>4510.2</v>
       </c>
       <c r="CG69" t="n">
-        <v>6043.9</v>
+        <v>4600.2</v>
       </c>
       <c r="CH69" t="n">
-        <v>6133.9</v>
+        <v>4660.2</v>
       </c>
       <c r="CI69" t="n">
-        <v>6253.9</v>
+        <v>4710.2</v>
       </c>
       <c r="CJ69" t="n">
-        <v>6447.9</v>
+        <v>4794.4</v>
       </c>
       <c r="CK69" t="n">
-        <v>6437.9</v>
+        <v>4794.4</v>
       </c>
       <c r="CL69" t="n">
-        <v>6397.9</v>
+        <v>4774.4</v>
       </c>
       <c r="CM69" t="n">
-        <v>6267.9</v>
+        <v>4694.4</v>
       </c>
       <c r="CN69" t="n">
-        <v>6674.8</v>
+        <v>4767.9</v>
       </c>
       <c r="CO69" t="n">
-        <v>6544.8</v>
+        <v>4677.9</v>
       </c>
       <c r="CP69" t="n">
-        <v>6394.8</v>
+        <v>4527.9</v>
       </c>
       <c r="CQ69" t="n">
-        <v>6214.8</v>
+        <v>4377.9</v>
       </c>
       <c r="CR69" t="n">
-        <v>6265.9</v>
+        <v>4915.2</v>
       </c>
       <c r="CS69" t="n">
-        <v>6045.9</v>
+        <v>4755.2</v>
       </c>
       <c r="CT69" t="n">
-        <v>5975.9</v>
+        <v>4665.2</v>
       </c>
       <c r="CU69" t="n">
-        <v>5865.9</v>
+        <v>4555.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" s="2" t="n">
+        <v>45806</v>
+      </c>
       <c r="C70" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="inlineStr"/>
-      <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="inlineStr"/>
-      <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
-      <c r="AN70" t="inlineStr"/>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
-      <c r="AU70" t="inlineStr"/>
-      <c r="AV70" t="inlineStr"/>
-      <c r="AW70" t="inlineStr"/>
-      <c r="AX70" t="inlineStr"/>
-      <c r="AY70" t="inlineStr"/>
-      <c r="AZ70" t="inlineStr"/>
-      <c r="BA70" t="inlineStr"/>
-      <c r="BB70" t="inlineStr"/>
-      <c r="BC70" t="inlineStr"/>
-      <c r="BD70" t="inlineStr"/>
-      <c r="BE70" t="inlineStr"/>
-      <c r="BF70" t="inlineStr"/>
-      <c r="BG70" t="inlineStr"/>
-      <c r="BH70" t="inlineStr"/>
-      <c r="BI70" t="inlineStr"/>
-      <c r="BJ70" t="inlineStr"/>
-      <c r="BK70" t="inlineStr"/>
-      <c r="BL70" t="inlineStr"/>
-      <c r="BM70" t="inlineStr"/>
-      <c r="BN70" t="inlineStr"/>
-      <c r="BO70" t="inlineStr"/>
-      <c r="BP70" t="inlineStr"/>
-      <c r="BQ70" t="inlineStr"/>
-      <c r="BR70" t="inlineStr"/>
-      <c r="BS70" t="inlineStr"/>
-      <c r="BT70" t="inlineStr"/>
-      <c r="BU70" t="inlineStr"/>
-      <c r="BV70" t="inlineStr"/>
-      <c r="BW70" t="inlineStr"/>
-      <c r="BX70" t="inlineStr"/>
-      <c r="BY70" t="inlineStr"/>
-      <c r="BZ70" t="inlineStr"/>
-      <c r="CA70" t="inlineStr"/>
-      <c r="CB70" t="inlineStr"/>
-      <c r="CC70" t="inlineStr"/>
-      <c r="CD70" t="inlineStr"/>
-      <c r="CE70" t="inlineStr"/>
-      <c r="CF70" t="inlineStr"/>
-      <c r="CG70" t="inlineStr"/>
-      <c r="CH70" t="inlineStr"/>
-      <c r="CI70" t="inlineStr"/>
-      <c r="CJ70" t="inlineStr"/>
-      <c r="CK70" t="inlineStr"/>
-      <c r="CL70" t="inlineStr"/>
-      <c r="CM70" t="inlineStr"/>
-      <c r="CN70" t="inlineStr"/>
-      <c r="CO70" t="inlineStr"/>
-      <c r="CP70" t="inlineStr"/>
-      <c r="CQ70" t="inlineStr"/>
-      <c r="CR70" t="inlineStr"/>
-      <c r="CS70" t="inlineStr"/>
-      <c r="CT70" t="inlineStr"/>
-      <c r="CU70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>6110.9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6070.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6010.9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5920.9</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4925</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4855</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4795</v>
+      </c>
+      <c r="K70" t="n">
+        <v>4755</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4683</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4653</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4643</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4613</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4638</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4638</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4638</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4638</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4627</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4627</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4627</v>
+      </c>
+      <c r="X70" t="n">
+        <v>4667</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>4687</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>4707</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>4727</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>4927</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4957</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4987</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>5017</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4986</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>5016</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>4986</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4976</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>5029</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>4989</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>4929</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>4869</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>4775</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>4705</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>4645</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>4585</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>4678</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>4628</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>4588</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>4568</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>4683</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4673</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4653</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>4643</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>4546</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>4536</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>4526</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>4506</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>4410</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4410</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>4410</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>4410</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>4473</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>4493</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>4503</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>4523</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>4513</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>4533</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>4563</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>4593</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>4679</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>4729</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>4799</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>4879</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>5114</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>5194</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>5264</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>5344</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>5193</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>5273</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>5373</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>5473</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>5408</v>
+      </c>
+      <c r="CC70" t="n">
+        <v>5518</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>5628</v>
+      </c>
+      <c r="CE70" t="n">
+        <v>5708</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>5784</v>
+      </c>
+      <c r="CG70" t="n">
+        <v>5874</v>
+      </c>
+      <c r="CH70" t="n">
+        <v>5944</v>
+      </c>
+      <c r="CI70" t="n">
+        <v>6024</v>
+      </c>
+      <c r="CJ70" t="n">
+        <v>6069</v>
+      </c>
+      <c r="CK70" t="n">
+        <v>6059</v>
+      </c>
+      <c r="CL70" t="n">
+        <v>6059</v>
+      </c>
+      <c r="CM70" t="n">
+        <v>6029</v>
+      </c>
+      <c r="CN70" t="n">
+        <v>5962</v>
+      </c>
+      <c r="CO70" t="n">
+        <v>5902</v>
+      </c>
+      <c r="CP70" t="n">
+        <v>5782</v>
+      </c>
+      <c r="CQ70" t="n">
+        <v>5642</v>
+      </c>
+      <c r="CR70" t="n">
+        <v>5446</v>
+      </c>
+      <c r="CS70" t="n">
+        <v>5326</v>
+      </c>
+      <c r="CT70" t="n">
+        <v>5216</v>
+      </c>
+      <c r="CU70" t="n">
+        <v>5116</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1842,892 +1842,892 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" s="2" t="n">
-        <v>45806</v>
+        <v>45808</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="D7" t="n">
-        <v>5780.9</v>
+        <v>5060</v>
       </c>
       <c r="E7" t="n">
-        <v>5750.9</v>
+        <v>4990</v>
       </c>
       <c r="F7" t="n">
-        <v>5690.9</v>
+        <v>4920</v>
       </c>
       <c r="G7" t="n">
-        <v>5600.9</v>
+        <v>4850</v>
       </c>
       <c r="H7" t="n">
-        <v>4615</v>
+        <v>4629</v>
       </c>
       <c r="I7" t="n">
-        <v>4535</v>
+        <v>4559</v>
       </c>
       <c r="J7" t="n">
-        <v>4465</v>
+        <v>4499</v>
       </c>
       <c r="K7" t="n">
-        <v>4415</v>
+        <v>4449</v>
       </c>
       <c r="L7" t="n">
-        <v>4333</v>
+        <v>4427</v>
       </c>
       <c r="M7" t="n">
-        <v>4293</v>
+        <v>4397</v>
       </c>
       <c r="N7" t="n">
+        <v>4377</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4357</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4355</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4335</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4325</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4283</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4273</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4263</v>
+      </c>
+      <c r="W7" t="n">
         <v>4253</v>
       </c>
-      <c r="O7" t="n">
-        <v>4223</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4208</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4188</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4178</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4168</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4157</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4157</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4157</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4167</v>
-      </c>
       <c r="X7" t="n">
-        <v>4207</v>
+        <v>4271</v>
       </c>
       <c r="Y7" t="n">
-        <v>4207</v>
+        <v>4281</v>
       </c>
       <c r="Z7" t="n">
-        <v>4217</v>
+        <v>4291</v>
       </c>
       <c r="AA7" t="n">
-        <v>4227</v>
+        <v>4301</v>
       </c>
       <c r="AB7" t="n">
-        <v>4407</v>
+        <v>4275</v>
       </c>
       <c r="AC7" t="n">
-        <v>4407</v>
+        <v>4275</v>
       </c>
       <c r="AD7" t="n">
-        <v>4417</v>
+        <v>4275</v>
       </c>
       <c r="AE7" t="n">
-        <v>4417</v>
+        <v>4265</v>
       </c>
       <c r="AF7" t="n">
-        <v>4376</v>
+        <v>4158</v>
       </c>
       <c r="AG7" t="n">
-        <v>4366</v>
+        <v>4138</v>
       </c>
       <c r="AH7" t="n">
-        <v>4356</v>
+        <v>4098</v>
       </c>
       <c r="AI7" t="n">
-        <v>4326</v>
+        <v>4038</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4379</v>
+        <v>4028</v>
       </c>
       <c r="AK7" t="n">
-        <v>4299</v>
+        <v>3948</v>
       </c>
       <c r="AL7" t="n">
-        <v>4259</v>
+        <v>3878</v>
       </c>
       <c r="AM7" t="n">
-        <v>4189</v>
+        <v>3798</v>
       </c>
       <c r="AN7" t="n">
-        <v>4065</v>
+        <v>3854</v>
       </c>
       <c r="AO7" t="n">
-        <v>3975</v>
+        <v>3784</v>
       </c>
       <c r="AP7" t="n">
-        <v>3875</v>
+        <v>3714</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3785</v>
+        <v>3644</v>
       </c>
       <c r="AR7" t="n">
-        <v>3838</v>
+        <v>3558</v>
       </c>
       <c r="AS7" t="n">
-        <v>3758</v>
+        <v>3498</v>
       </c>
       <c r="AT7" t="n">
-        <v>3688</v>
+        <v>3448</v>
       </c>
       <c r="AU7" t="n">
-        <v>3638</v>
+        <v>3408</v>
       </c>
       <c r="AV7" t="n">
-        <v>3743</v>
+        <v>3504</v>
       </c>
       <c r="AW7" t="n">
-        <v>3713</v>
+        <v>3474</v>
       </c>
       <c r="AX7" t="n">
-        <v>3693</v>
+        <v>3454</v>
       </c>
       <c r="AY7" t="n">
-        <v>3683</v>
+        <v>3444</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3606</v>
+        <v>3425</v>
       </c>
       <c r="BA7" t="n">
-        <v>3596</v>
+        <v>3425</v>
       </c>
       <c r="BB7" t="n">
-        <v>3596</v>
+        <v>3415</v>
       </c>
       <c r="BC7" t="n">
-        <v>3586</v>
+        <v>3415</v>
       </c>
       <c r="BD7" t="n">
-        <v>3490</v>
+        <v>3405</v>
       </c>
       <c r="BE7" t="n">
-        <v>3490</v>
+        <v>3405</v>
       </c>
       <c r="BF7" t="n">
-        <v>3480</v>
+        <v>3415</v>
       </c>
       <c r="BG7" t="n">
-        <v>3490</v>
+        <v>3425</v>
       </c>
       <c r="BH7" t="n">
-        <v>3553</v>
+        <v>3448</v>
       </c>
       <c r="BI7" t="n">
-        <v>3563</v>
+        <v>3468</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3583</v>
+        <v>3488</v>
       </c>
       <c r="BK7" t="n">
-        <v>3613</v>
+        <v>3528</v>
       </c>
       <c r="BL7" t="n">
-        <v>3623</v>
+        <v>3579</v>
       </c>
       <c r="BM7" t="n">
-        <v>3673</v>
+        <v>3619</v>
       </c>
       <c r="BN7" t="n">
-        <v>3723</v>
+        <v>3659</v>
       </c>
       <c r="BO7" t="n">
-        <v>3783</v>
+        <v>3709</v>
       </c>
       <c r="BP7" t="n">
-        <v>3889</v>
+        <v>3813</v>
       </c>
       <c r="BQ7" t="n">
-        <v>3979</v>
+        <v>3883</v>
       </c>
       <c r="BR7" t="n">
-        <v>4069</v>
+        <v>3963</v>
       </c>
       <c r="BS7" t="n">
-        <v>4169</v>
+        <v>4053</v>
       </c>
       <c r="BT7" t="n">
-        <v>4424</v>
+        <v>4230</v>
       </c>
       <c r="BU7" t="n">
-        <v>4524</v>
+        <v>4330</v>
       </c>
       <c r="BV7" t="n">
-        <v>4624</v>
+        <v>4430</v>
       </c>
       <c r="BW7" t="n">
-        <v>4724</v>
+        <v>4540</v>
       </c>
       <c r="BX7" t="n">
-        <v>4593</v>
+        <v>4601</v>
       </c>
       <c r="BY7" t="n">
-        <v>4693</v>
+        <v>4721</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4793</v>
+        <v>4841</v>
       </c>
       <c r="CA7" t="n">
-        <v>4903</v>
+        <v>4961</v>
       </c>
       <c r="CB7" t="n">
-        <v>4838</v>
+        <v>5007</v>
       </c>
       <c r="CC7" t="n">
-        <v>4958</v>
+        <v>5117</v>
       </c>
       <c r="CD7" t="n">
-        <v>5088</v>
+        <v>5237</v>
       </c>
       <c r="CE7" t="n">
-        <v>5198</v>
+        <v>5337</v>
       </c>
       <c r="CF7" t="n">
-        <v>5314</v>
+        <v>5509</v>
       </c>
       <c r="CG7" t="n">
-        <v>5424</v>
+        <v>5609</v>
       </c>
       <c r="CH7" t="n">
-        <v>5464</v>
+        <v>5709</v>
       </c>
       <c r="CI7" t="n">
-        <v>5494</v>
+        <v>5779</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5519</v>
+        <v>5513</v>
       </c>
       <c r="CK7" t="n">
-        <v>5509</v>
+        <v>5523</v>
       </c>
       <c r="CL7" t="n">
-        <v>5499</v>
+        <v>5503</v>
       </c>
       <c r="CM7" t="n">
-        <v>5469</v>
+        <v>5453</v>
       </c>
       <c r="CN7" t="n">
-        <v>5422</v>
+        <v>5488</v>
       </c>
       <c r="CO7" t="n">
-        <v>5362</v>
+        <v>5408</v>
       </c>
       <c r="CP7" t="n">
-        <v>5222</v>
+        <v>5308</v>
       </c>
       <c r="CQ7" t="n">
-        <v>5102</v>
+        <v>5188</v>
       </c>
       <c r="CR7" t="n">
-        <v>4946</v>
+        <v>5028</v>
       </c>
       <c r="CS7" t="n">
-        <v>4826</v>
+        <v>4908</v>
       </c>
       <c r="CT7" t="n">
-        <v>4716</v>
+        <v>4798</v>
       </c>
       <c r="CU7" t="n">
-        <v>4616</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" s="2" t="n">
-        <v>45806</v>
+        <v>45809</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45810</v>
       </c>
       <c r="D8" t="n">
-        <v>5400.9</v>
+        <v>4692</v>
       </c>
       <c r="E8" t="n">
-        <v>5350.9</v>
+        <v>4632</v>
       </c>
       <c r="F8" t="n">
-        <v>5320.9</v>
+        <v>4572</v>
       </c>
       <c r="G8" t="n">
-        <v>5300.9</v>
+        <v>4512</v>
       </c>
       <c r="H8" t="n">
-        <v>4375</v>
+        <v>1523.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4335</v>
+        <v>1483.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4285</v>
+        <v>1443.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4245</v>
+        <v>1403.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4163</v>
+        <v>1722.4</v>
       </c>
       <c r="M8" t="n">
-        <v>4123</v>
+        <v>1692.4</v>
       </c>
       <c r="N8" t="n">
-        <v>4093</v>
+        <v>1682.4</v>
       </c>
       <c r="O8" t="n">
-        <v>4063</v>
+        <v>1682.4</v>
       </c>
       <c r="P8" t="n">
-        <v>4088</v>
+        <v>1381.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>4088</v>
+        <v>1391.5</v>
       </c>
       <c r="R8" t="n">
-        <v>4088</v>
+        <v>1401.5</v>
       </c>
       <c r="S8" t="n">
-        <v>4098</v>
+        <v>1411.5</v>
       </c>
       <c r="T8" t="n">
-        <v>4087</v>
+        <v>1466.6</v>
       </c>
       <c r="U8" t="n">
-        <v>4107</v>
+        <v>1486.6</v>
       </c>
       <c r="V8" t="n">
-        <v>4127</v>
+        <v>1506.6</v>
       </c>
       <c r="W8" t="n">
-        <v>4167</v>
+        <v>1526.6</v>
       </c>
       <c r="X8" t="n">
-        <v>4257</v>
+        <v>1799.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>4347</v>
+        <v>1859.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>4467</v>
+        <v>1929.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>4607</v>
+        <v>2029.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>4927</v>
+        <v>2011.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5097</v>
+        <v>2131.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>5257</v>
+        <v>2261.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>5417</v>
+        <v>2391.1</v>
       </c>
       <c r="AF8" t="n">
-        <v>5506</v>
+        <v>3365.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>5616</v>
+        <v>3465.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>5696</v>
+        <v>3545.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>5716</v>
+        <v>3585.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5799</v>
+        <v>5227.1</v>
       </c>
       <c r="AK8" t="n">
-        <v>5799</v>
+        <v>5217.1</v>
       </c>
       <c r="AL8" t="n">
-        <v>5749</v>
+        <v>5177.1</v>
       </c>
       <c r="AM8" t="n">
-        <v>5679</v>
+        <v>5117.1</v>
       </c>
       <c r="AN8" t="n">
-        <v>5545</v>
+        <v>6696.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>5445</v>
+        <v>6616.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>5345</v>
+        <v>6536.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5245</v>
+        <v>6476.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>5298</v>
+        <v>6441</v>
       </c>
       <c r="AS8" t="n">
-        <v>5208</v>
+        <v>6381</v>
       </c>
       <c r="AT8" t="n">
-        <v>5138</v>
+        <v>6331</v>
       </c>
       <c r="AU8" t="n">
-        <v>5078</v>
+        <v>6301</v>
       </c>
       <c r="AV8" t="n">
-        <v>5173</v>
+        <v>6557.4</v>
       </c>
       <c r="AW8" t="n">
-        <v>5133</v>
+        <v>6537.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>5093</v>
+        <v>6517.4</v>
       </c>
       <c r="AY8" t="n">
-        <v>5063</v>
+        <v>6507.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4956</v>
+        <v>6282.1</v>
       </c>
       <c r="BA8" t="n">
-        <v>4926</v>
+        <v>6282.1</v>
       </c>
       <c r="BB8" t="n">
-        <v>4896</v>
+        <v>6292.1</v>
       </c>
       <c r="BC8" t="n">
-        <v>4876</v>
+        <v>6312.1</v>
       </c>
       <c r="BD8" t="n">
-        <v>4770</v>
+        <v>5535.3</v>
       </c>
       <c r="BE8" t="n">
-        <v>4760</v>
+        <v>5565.3</v>
       </c>
       <c r="BF8" t="n">
-        <v>4760</v>
+        <v>5605.3</v>
       </c>
       <c r="BG8" t="n">
-        <v>4770</v>
+        <v>5635.3</v>
       </c>
       <c r="BH8" t="n">
-        <v>4833</v>
+        <v>5452.2</v>
       </c>
       <c r="BI8" t="n">
-        <v>4843</v>
+        <v>5472.2</v>
       </c>
       <c r="BJ8" t="n">
-        <v>4853</v>
+        <v>5502.2</v>
       </c>
       <c r="BK8" t="n">
-        <v>4863</v>
+        <v>5522.2</v>
       </c>
       <c r="BL8" t="n">
-        <v>4843</v>
+        <v>5208.5</v>
       </c>
       <c r="BM8" t="n">
-        <v>4853</v>
+        <v>5228.5</v>
       </c>
       <c r="BN8" t="n">
-        <v>4883</v>
+        <v>5248.5</v>
       </c>
       <c r="BO8" t="n">
-        <v>4913</v>
+        <v>5278.5</v>
       </c>
       <c r="BP8" t="n">
-        <v>4999</v>
+        <v>5169.3</v>
       </c>
       <c r="BQ8" t="n">
-        <v>5059</v>
+        <v>5219.3</v>
       </c>
       <c r="BR8" t="n">
-        <v>5139</v>
+        <v>5289.3</v>
       </c>
       <c r="BS8" t="n">
-        <v>5239</v>
+        <v>5349.3</v>
       </c>
       <c r="BT8" t="n">
-        <v>5484</v>
+        <v>4261.7</v>
       </c>
       <c r="BU8" t="n">
-        <v>5584</v>
+        <v>4321.7</v>
       </c>
       <c r="BV8" t="n">
-        <v>5674</v>
+        <v>4391.7</v>
       </c>
       <c r="BW8" t="n">
-        <v>5764</v>
+        <v>4461.7</v>
       </c>
       <c r="BX8" t="n">
-        <v>5623</v>
+        <v>4341.6</v>
       </c>
       <c r="BY8" t="n">
-        <v>5713</v>
+        <v>4411.6</v>
       </c>
       <c r="BZ8" t="n">
-        <v>5823</v>
+        <v>4501.6</v>
       </c>
       <c r="CA8" t="n">
-        <v>5943</v>
+        <v>4601.6</v>
       </c>
       <c r="CB8" t="n">
-        <v>5888</v>
+        <v>5080.2</v>
       </c>
       <c r="CC8" t="n">
-        <v>6018</v>
+        <v>5180.2</v>
       </c>
       <c r="CD8" t="n">
-        <v>6148</v>
+        <v>5280.2</v>
       </c>
       <c r="CE8" t="n">
-        <v>6248</v>
+        <v>5360.2</v>
       </c>
       <c r="CF8" t="n">
-        <v>6354</v>
+        <v>5638.1</v>
       </c>
       <c r="CG8" t="n">
-        <v>6454</v>
+        <v>5748.1</v>
       </c>
       <c r="CH8" t="n">
-        <v>6534</v>
+        <v>5818.1</v>
       </c>
       <c r="CI8" t="n">
-        <v>6594</v>
+        <v>5898.1</v>
       </c>
       <c r="CJ8" t="n">
-        <v>6619</v>
+        <v>5997.6</v>
       </c>
       <c r="CK8" t="n">
-        <v>6619</v>
+        <v>5977.6</v>
       </c>
       <c r="CL8" t="n">
-        <v>6599</v>
+        <v>5917.6</v>
       </c>
       <c r="CM8" t="n">
-        <v>6519</v>
+        <v>5837.6</v>
       </c>
       <c r="CN8" t="n">
-        <v>6412</v>
+        <v>5876.4</v>
       </c>
       <c r="CO8" t="n">
-        <v>6322</v>
+        <v>5746.4</v>
       </c>
       <c r="CP8" t="n">
-        <v>6182</v>
+        <v>5586.4</v>
       </c>
       <c r="CQ8" t="n">
-        <v>5992</v>
+        <v>5426.4</v>
       </c>
       <c r="CR8" t="n">
-        <v>5696</v>
+        <v>4852.7</v>
       </c>
       <c r="CS8" t="n">
-        <v>5506</v>
+        <v>4702.7</v>
       </c>
       <c r="CT8" t="n">
-        <v>5426</v>
+        <v>4542.7</v>
       </c>
       <c r="CU8" t="n">
-        <v>5316</v>
+        <v>4402.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="n">
-        <v>45806</v>
+        <v>45809</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45811</v>
       </c>
       <c r="D9" t="n">
-        <v>5980.9</v>
+        <v>5182</v>
       </c>
       <c r="E9" t="n">
-        <v>5940.9</v>
+        <v>5132</v>
       </c>
       <c r="F9" t="n">
-        <v>5890.9</v>
+        <v>5082</v>
       </c>
       <c r="G9" t="n">
-        <v>5830.9</v>
+        <v>5062</v>
       </c>
       <c r="H9" t="n">
-        <v>4875</v>
+        <v>2083.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4825</v>
+        <v>2033.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4785</v>
+        <v>1993.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4745</v>
+        <v>1953.8</v>
       </c>
       <c r="L9" t="n">
-        <v>4663</v>
+        <v>2252.4</v>
       </c>
       <c r="M9" t="n">
-        <v>4623</v>
+        <v>2212.4</v>
       </c>
       <c r="N9" t="n">
-        <v>4603</v>
+        <v>2192.4</v>
       </c>
       <c r="O9" t="n">
-        <v>4583</v>
+        <v>2172.4</v>
       </c>
       <c r="P9" t="n">
-        <v>4568</v>
+        <v>1851.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>4588</v>
+        <v>1871.5</v>
       </c>
       <c r="R9" t="n">
-        <v>4588</v>
+        <v>1871.5</v>
       </c>
       <c r="S9" t="n">
-        <v>4598</v>
+        <v>1881.5</v>
       </c>
       <c r="T9" t="n">
-        <v>4597</v>
+        <v>1936.6</v>
       </c>
       <c r="U9" t="n">
-        <v>4607</v>
+        <v>1946.6</v>
       </c>
       <c r="V9" t="n">
-        <v>4627</v>
+        <v>1966.6</v>
       </c>
       <c r="W9" t="n">
-        <v>4647</v>
+        <v>1986.6</v>
       </c>
       <c r="X9" t="n">
-        <v>4707</v>
+        <v>2249.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>4757</v>
+        <v>2299.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>4817</v>
+        <v>2359.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>4897</v>
+        <v>2439.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>5147</v>
+        <v>2391.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>5247</v>
+        <v>2491.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>5337</v>
+        <v>2581.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>5437</v>
+        <v>2681.1</v>
       </c>
       <c r="AF9" t="n">
-        <v>5476</v>
+        <v>3625.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>5556</v>
+        <v>3705.2</v>
       </c>
       <c r="AH9" t="n">
-        <v>5606</v>
+        <v>3755.2</v>
       </c>
       <c r="AI9" t="n">
-        <v>5616</v>
+        <v>3765.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5699</v>
+        <v>5387.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>5699</v>
+        <v>5387.1</v>
       </c>
       <c r="AL9" t="n">
-        <v>5669</v>
+        <v>5357.1</v>
       </c>
       <c r="AM9" t="n">
-        <v>5599</v>
+        <v>5287.1</v>
       </c>
       <c r="AN9" t="n">
-        <v>5485</v>
+        <v>6856.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>5395</v>
+        <v>6766.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>5285</v>
+        <v>6656.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5185</v>
+        <v>6556.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>5228</v>
+        <v>6491</v>
       </c>
       <c r="AS9" t="n">
-        <v>5128</v>
+        <v>6391</v>
       </c>
       <c r="AT9" t="n">
-        <v>5048</v>
+        <v>6311</v>
       </c>
       <c r="AU9" t="n">
-        <v>4968</v>
+        <v>6231</v>
       </c>
       <c r="AV9" t="n">
-        <v>5053</v>
+        <v>6457.4</v>
       </c>
       <c r="AW9" t="n">
-        <v>5003</v>
+        <v>6407.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>4963</v>
+        <v>6367.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>4923</v>
+        <v>6327.4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4826</v>
+        <v>6082.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>4796</v>
+        <v>6052.1</v>
       </c>
       <c r="BB9" t="n">
-        <v>4786</v>
+        <v>6042.1</v>
       </c>
       <c r="BC9" t="n">
-        <v>4776</v>
+        <v>6032.1</v>
       </c>
       <c r="BD9" t="n">
-        <v>4680</v>
+        <v>5225.3</v>
       </c>
       <c r="BE9" t="n">
-        <v>4680</v>
+        <v>5225.3</v>
       </c>
       <c r="BF9" t="n">
-        <v>4680</v>
+        <v>5325.3</v>
       </c>
       <c r="BG9" t="n">
-        <v>4690</v>
+        <v>5335.3</v>
       </c>
       <c r="BH9" t="n">
-        <v>4743</v>
+        <v>5112.2</v>
       </c>
       <c r="BI9" t="n">
-        <v>4753</v>
+        <v>5122.2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>4763</v>
+        <v>5132.2</v>
       </c>
       <c r="BK9" t="n">
-        <v>4783</v>
+        <v>5152.2</v>
       </c>
       <c r="BL9" t="n">
-        <v>4763</v>
+        <v>4828.5</v>
       </c>
       <c r="BM9" t="n">
-        <v>4783</v>
+        <v>4898.5</v>
       </c>
       <c r="BN9" t="n">
-        <v>4813</v>
+        <v>4928.5</v>
       </c>
       <c r="BO9" t="n">
-        <v>4853</v>
+        <v>4968.5</v>
       </c>
       <c r="BP9" t="n">
-        <v>4939</v>
+        <v>4869.3</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5009</v>
+        <v>4939.3</v>
       </c>
       <c r="BR9" t="n">
-        <v>5089</v>
+        <v>5019.3</v>
       </c>
       <c r="BS9" t="n">
-        <v>5189</v>
+        <v>5119.3</v>
       </c>
       <c r="BT9" t="n">
-        <v>5444</v>
+        <v>4061.7</v>
       </c>
       <c r="BU9" t="n">
-        <v>5544</v>
+        <v>4161.7</v>
       </c>
       <c r="BV9" t="n">
-        <v>5644</v>
+        <v>4261.7</v>
       </c>
       <c r="BW9" t="n">
-        <v>5734</v>
+        <v>4351.7</v>
       </c>
       <c r="BX9" t="n">
-        <v>5613</v>
+        <v>4271.6</v>
       </c>
       <c r="BY9" t="n">
-        <v>5713</v>
+        <v>4371.6</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5823</v>
+        <v>4431.6</v>
       </c>
       <c r="CA9" t="n">
-        <v>5953</v>
+        <v>4561.6</v>
       </c>
       <c r="CB9" t="n">
-        <v>5908</v>
+        <v>5090.2</v>
       </c>
       <c r="CC9" t="n">
-        <v>6058</v>
+        <v>5240.2</v>
       </c>
       <c r="CD9" t="n">
-        <v>6198</v>
+        <v>5380.2</v>
       </c>
       <c r="CE9" t="n">
-        <v>6318</v>
+        <v>5500.2</v>
       </c>
       <c r="CF9" t="n">
-        <v>6444</v>
+        <v>5808.1</v>
       </c>
       <c r="CG9" t="n">
-        <v>6564</v>
+        <v>5928.1</v>
       </c>
       <c r="CH9" t="n">
-        <v>6594</v>
+        <v>5958.1</v>
       </c>
       <c r="CI9" t="n">
-        <v>6594</v>
+        <v>5958.1</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6619</v>
+        <v>6037.6</v>
       </c>
       <c r="CK9" t="n">
-        <v>6619</v>
+        <v>6037.6</v>
       </c>
       <c r="CL9" t="n">
-        <v>6589</v>
+        <v>6007.6</v>
       </c>
       <c r="CM9" t="n">
-        <v>6509</v>
+        <v>5927.6</v>
       </c>
       <c r="CN9" t="n">
-        <v>6422</v>
+        <v>5966.4</v>
       </c>
       <c r="CO9" t="n">
-        <v>6332</v>
+        <v>5876.4</v>
       </c>
       <c r="CP9" t="n">
-        <v>6172</v>
+        <v>5716.4</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6012</v>
+        <v>5556.4</v>
       </c>
       <c r="CR9" t="n">
-        <v>5776</v>
+        <v>4962.7</v>
       </c>
       <c r="CS9" t="n">
-        <v>5596</v>
+        <v>4782.7</v>
       </c>
       <c r="CT9" t="n">
-        <v>5516</v>
+        <v>4702.7</v>
       </c>
       <c r="CU9" t="n">
-        <v>5406</v>
+        <v>4592.7</v>
       </c>
     </row>
     <row r="10">
@@ -3623,415 +3623,1191 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" s="2" t="n">
+        <v>45807</v>
+      </c>
       <c r="C13" s="2" t="n">
         <v>45815</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>5990.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5950.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5890.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5810.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4845</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4785</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4725</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4685</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4613</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4573</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4553</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4543</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4538</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4538</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4528</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4528</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4517</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4517</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4517</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4517</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4557</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4577</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4587</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4607</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4787</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4807</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4817</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4827</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4806</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4816</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4826</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4826</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4909</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>4899</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>4879</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4849</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4765</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>4705</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4635</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>4565</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4628</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4548</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4478</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4418</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>4513</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4483</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4453</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>4443</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4356</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>4346</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4336</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>4326</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4240</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>4240</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>4240</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>4250</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4323</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>4343</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>4373</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>4413</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>4413</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>4453</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>4493</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>4543</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>4639</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>4709</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>4799</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>4899</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>5164</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5264</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>5364</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>5454</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>5303</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>5383</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>5463</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>5553</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>5488</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>5608</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>5728</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>5838</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>5934</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>6024</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>6084</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>6134</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>6159</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>6119</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>6109</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>6039</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>5942</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>5852</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>5722</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>5592</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>5386</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>5266</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>5156</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>5056</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>45808</v>
+      </c>
       <c r="C14" s="2" t="n">
         <v>45816</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>5760.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5730.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5690.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5640.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4675</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4575</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4535</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4463</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4433</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4413</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4403</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4388</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4378</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4358</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4348</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4327</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4317</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4317</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4317</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4357</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4367</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4377</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4377</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4557</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4557</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4557</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4557</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4506</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4486</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4456</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>4426</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4469</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>4409</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>4349</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4269</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4135</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4035</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3925</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>3815</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3858</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3758</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3678</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3608</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>3703</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3673</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3653</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>3633</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3556</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>3546</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3546</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>3536</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3440</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3440</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3440</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3440</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3513</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>3543</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3573</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>3623</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3643</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3703</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>3763</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3833</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>3949</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>4039</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>4139</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>4249</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>4514</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4614</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>4714</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>4804</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>4683</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>4773</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>4873</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>4993</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>4938</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>5058</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>5178</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>5268</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>5354</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>5444</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>5494</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>5564</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>5589</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>5559</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>5559</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>5529</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>5462</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5402</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>5282</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>5162</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>4986</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>4886</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>4766</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>4666</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>45808</v>
+      </c>
       <c r="C15" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr"/>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr"/>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>5640.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5600.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5540.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5460.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4495</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4435</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4375</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4335</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4263</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4233</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4203</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4193</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4188</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4188</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4178</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4178</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4167</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4177</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4187</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4197</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4247</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4277</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4307</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4337</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4537</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4557</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4587</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4597</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>4576</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4576</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>4586</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>4576</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>4649</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>4639</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>4609</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4579</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4505</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4455</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>4395</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>4345</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>4428</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>4378</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4338</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>4298</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>4413</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4393</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4383</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>4373</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>4276</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>4266</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4256</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>4246</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4150</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>4150</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4223</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>4243</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>4273</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>4303</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>4313</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>4353</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4403</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4463</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>4569</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>4649</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>4749</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>4849</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>5114</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5224</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>5324</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>5404</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>5273</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>5363</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>5473</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>5603</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>5558</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>5708</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>5838</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>5938</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>6034</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>6124</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>6184</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>6274</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>6329</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>6319</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>6319</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>6259</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>6152</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>6072</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>5952</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>5822</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>5596</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>5476</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>5366</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>5266</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>45809</v>
+      </c>
       <c r="C16" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5820.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5780.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5720.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5640.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4655</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4585</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4515</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4455</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4373</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4343</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4313</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4303</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4308</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4318</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4338</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4358</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4367</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4407</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4437</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4487</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4577</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4647</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4737</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4827</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5107</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5217</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5337</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5467</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5536</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>5646</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5746</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5816</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5959</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5979</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>5979</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5959</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5875</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5815</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>5735</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>5655</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>5718</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>5648</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5578</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>5528</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5643</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5623</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5613</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5603</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5536</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>5536</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5546</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5556</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>5470</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5480</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5490</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5573</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>5593</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>5603</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>5623</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>5613</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>5623</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>5653</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>5683</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>5749</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>5799</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>5859</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>5929</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>6144</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6214</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>6264</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>6314</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6153</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>6223</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>6313</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>6423</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>6358</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>6478</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>6578</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>6648</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>6704</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>6774</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>6824</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>6904</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>6949</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>6929</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>6909</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>6839</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>6732</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>6662</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>6542</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>6362</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>6076</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>5916</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>5826</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>5716</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -15404,595 +16180,595 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="D69" t="n">
-        <v>4611.8</v>
+        <v>4603.1</v>
       </c>
       <c r="E69" t="n">
-        <v>4571.8</v>
+        <v>4543.1</v>
       </c>
       <c r="F69" t="n">
-        <v>4511.8</v>
+        <v>4473.1</v>
       </c>
       <c r="G69" t="n">
-        <v>4431.8</v>
+        <v>4383.1</v>
       </c>
       <c r="H69" t="n">
-        <v>5193.7</v>
+        <v>4943</v>
       </c>
       <c r="I69" t="n">
-        <v>5153.7</v>
+        <v>4863</v>
       </c>
       <c r="J69" t="n">
-        <v>5113.7</v>
+        <v>4813</v>
       </c>
       <c r="K69" t="n">
-        <v>5073.7</v>
+        <v>4773</v>
       </c>
       <c r="L69" t="n">
-        <v>5189.6</v>
+        <v>4764</v>
       </c>
       <c r="M69" t="n">
-        <v>5169.6</v>
+        <v>4754</v>
       </c>
       <c r="N69" t="n">
-        <v>5159.6</v>
+        <v>4744</v>
       </c>
       <c r="O69" t="n">
-        <v>5139.6</v>
+        <v>4734</v>
       </c>
       <c r="P69" t="n">
-        <v>5020.9</v>
+        <v>4776</v>
       </c>
       <c r="Q69" t="n">
-        <v>5020.9</v>
+        <v>4776</v>
       </c>
       <c r="R69" t="n">
-        <v>5020.9</v>
+        <v>4776</v>
       </c>
       <c r="S69" t="n">
-        <v>5030.9</v>
+        <v>4796</v>
       </c>
       <c r="T69" t="n">
-        <v>4909.1</v>
+        <v>4827</v>
       </c>
       <c r="U69" t="n">
-        <v>4909.1</v>
+        <v>4837</v>
       </c>
       <c r="V69" t="n">
-        <v>4909.1</v>
+        <v>4847</v>
       </c>
       <c r="W69" t="n">
-        <v>4929.1</v>
+        <v>4867</v>
       </c>
       <c r="X69" t="n">
-        <v>4854.8</v>
+        <v>4962</v>
       </c>
       <c r="Y69" t="n">
-        <v>4894.8</v>
+        <v>5012</v>
       </c>
       <c r="Z69" t="n">
-        <v>4954.8</v>
+        <v>5062</v>
       </c>
       <c r="AA69" t="n">
-        <v>5024.8</v>
+        <v>5122</v>
       </c>
       <c r="AB69" t="n">
-        <v>4921.3</v>
+        <v>5259</v>
       </c>
       <c r="AC69" t="n">
-        <v>5021.3</v>
+        <v>5339</v>
       </c>
       <c r="AD69" t="n">
-        <v>5131.3</v>
+        <v>5429</v>
       </c>
       <c r="AE69" t="n">
-        <v>5251.3</v>
+        <v>5539</v>
       </c>
       <c r="AF69" t="n">
-        <v>5205.8</v>
+        <v>5767</v>
       </c>
       <c r="AG69" t="n">
-        <v>5305.8</v>
+        <v>5897</v>
       </c>
       <c r="AH69" t="n">
-        <v>5385.8</v>
+        <v>5967</v>
       </c>
       <c r="AI69" t="n">
-        <v>5445.8</v>
+        <v>6017</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5367</v>
+        <v>6003</v>
       </c>
       <c r="AK69" t="n">
-        <v>5367</v>
+        <v>6013</v>
       </c>
       <c r="AL69" t="n">
-        <v>5357</v>
+        <v>6013</v>
       </c>
       <c r="AM69" t="n">
-        <v>5327</v>
+        <v>6003</v>
       </c>
       <c r="AN69" t="n">
-        <v>4881.5</v>
+        <v>6058</v>
       </c>
       <c r="AO69" t="n">
-        <v>4811.5</v>
+        <v>6008</v>
       </c>
       <c r="AP69" t="n">
-        <v>4731.5</v>
+        <v>5938</v>
       </c>
       <c r="AQ69" t="n">
-        <v>4651.5</v>
+        <v>5868</v>
       </c>
       <c r="AR69" t="n">
-        <v>5003.4</v>
+        <v>5964</v>
       </c>
       <c r="AS69" t="n">
-        <v>4933.4</v>
+        <v>5884</v>
       </c>
       <c r="AT69" t="n">
-        <v>4873.4</v>
+        <v>5834</v>
       </c>
       <c r="AU69" t="n">
-        <v>4823.4</v>
+        <v>5754</v>
       </c>
       <c r="AV69" t="n">
-        <v>4924.4</v>
+        <v>5727</v>
       </c>
       <c r="AW69" t="n">
-        <v>4894.4</v>
+        <v>5657</v>
       </c>
       <c r="AX69" t="n">
-        <v>4864.4</v>
+        <v>5617</v>
       </c>
       <c r="AY69" t="n">
-        <v>4844.4</v>
+        <v>5567</v>
       </c>
       <c r="AZ69" t="n">
-        <v>4794.2</v>
+        <v>5464</v>
       </c>
       <c r="BA69" t="n">
-        <v>4774.2</v>
+        <v>5434</v>
       </c>
       <c r="BB69" t="n">
-        <v>4754.2</v>
+        <v>5414</v>
       </c>
       <c r="BC69" t="n">
-        <v>4734.2</v>
+        <v>5404</v>
       </c>
       <c r="BD69" t="n">
-        <v>4637.4</v>
+        <v>5403</v>
       </c>
       <c r="BE69" t="n">
-        <v>4627.4</v>
+        <v>5393</v>
       </c>
       <c r="BF69" t="n">
-        <v>4637.4</v>
+        <v>5393</v>
       </c>
       <c r="BG69" t="n">
-        <v>4637.4</v>
+        <v>5393</v>
       </c>
       <c r="BH69" t="n">
-        <v>4589.1</v>
+        <v>5414</v>
       </c>
       <c r="BI69" t="n">
-        <v>4609.1</v>
+        <v>5424</v>
       </c>
       <c r="BJ69" t="n">
-        <v>4629.1</v>
+        <v>5434</v>
       </c>
       <c r="BK69" t="n">
-        <v>4649.1</v>
+        <v>5444</v>
       </c>
       <c r="BL69" t="n">
-        <v>4582.5</v>
+        <v>5462</v>
       </c>
       <c r="BM69" t="n">
-        <v>4602.5</v>
+        <v>5512</v>
       </c>
       <c r="BN69" t="n">
-        <v>4622.5</v>
+        <v>5562</v>
       </c>
       <c r="BO69" t="n">
-        <v>4642.5</v>
+        <v>5612</v>
       </c>
       <c r="BP69" t="n">
-        <v>4580.9</v>
+        <v>5703</v>
       </c>
       <c r="BQ69" t="n">
-        <v>4610.9</v>
+        <v>5763</v>
       </c>
       <c r="BR69" t="n">
-        <v>4660.9</v>
+        <v>5823</v>
       </c>
       <c r="BS69" t="n">
-        <v>4720.9</v>
+        <v>5893</v>
       </c>
       <c r="BT69" t="n">
-        <v>4445.7</v>
+        <v>5979</v>
       </c>
       <c r="BU69" t="n">
-        <v>4505.7</v>
+        <v>6029</v>
       </c>
       <c r="BV69" t="n">
-        <v>4565.7</v>
+        <v>6089</v>
       </c>
       <c r="BW69" t="n">
-        <v>4625.7</v>
+        <v>6169</v>
       </c>
       <c r="BX69" t="n">
-        <v>4283.5</v>
+        <v>6164</v>
       </c>
       <c r="BY69" t="n">
-        <v>4353.5</v>
+        <v>6264</v>
       </c>
       <c r="BZ69" t="n">
-        <v>4423.5</v>
+        <v>6344</v>
       </c>
       <c r="CA69" t="n">
-        <v>4523.5</v>
+        <v>6424</v>
       </c>
       <c r="CB69" t="n">
-        <v>4398.7</v>
+        <v>6220</v>
       </c>
       <c r="CC69" t="n">
-        <v>4508.7</v>
+        <v>6320</v>
       </c>
       <c r="CD69" t="n">
-        <v>4608.7</v>
+        <v>6400</v>
       </c>
       <c r="CE69" t="n">
-        <v>4698.7</v>
+        <v>6480</v>
       </c>
       <c r="CF69" t="n">
-        <v>4510.2</v>
+        <v>6522</v>
       </c>
       <c r="CG69" t="n">
-        <v>4600.2</v>
+        <v>6592</v>
       </c>
       <c r="CH69" t="n">
-        <v>4660.2</v>
+        <v>6652</v>
       </c>
       <c r="CI69" t="n">
-        <v>4710.2</v>
+        <v>6702</v>
       </c>
       <c r="CJ69" t="n">
-        <v>4794.4</v>
+        <v>6681</v>
       </c>
       <c r="CK69" t="n">
-        <v>4794.4</v>
+        <v>6661</v>
       </c>
       <c r="CL69" t="n">
-        <v>4774.4</v>
+        <v>6641</v>
       </c>
       <c r="CM69" t="n">
-        <v>4694.4</v>
+        <v>6571</v>
       </c>
       <c r="CN69" t="n">
-        <v>4767.9</v>
+        <v>6475</v>
       </c>
       <c r="CO69" t="n">
-        <v>4677.9</v>
+        <v>6315</v>
       </c>
       <c r="CP69" t="n">
-        <v>4527.9</v>
+        <v>6165</v>
       </c>
       <c r="CQ69" t="n">
-        <v>4377.9</v>
+        <v>6015</v>
       </c>
       <c r="CR69" t="n">
-        <v>4915.2</v>
+        <v>5890</v>
       </c>
       <c r="CS69" t="n">
-        <v>4755.2</v>
+        <v>5770</v>
       </c>
       <c r="CT69" t="n">
-        <v>4665.2</v>
+        <v>5660</v>
       </c>
       <c r="CU69" t="n">
-        <v>4555.2</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45808</v>
       </c>
       <c r="D70" t="n">
-        <v>6110.9</v>
+        <v>5312</v>
       </c>
       <c r="E70" t="n">
-        <v>6070.9</v>
+        <v>5242</v>
       </c>
       <c r="F70" t="n">
-        <v>6010.9</v>
+        <v>5172</v>
       </c>
       <c r="G70" t="n">
-        <v>5920.9</v>
+        <v>5112</v>
       </c>
       <c r="H70" t="n">
-        <v>4925</v>
+        <v>4957</v>
       </c>
       <c r="I70" t="n">
-        <v>4855</v>
+        <v>4907</v>
       </c>
       <c r="J70" t="n">
-        <v>4795</v>
+        <v>4847</v>
       </c>
       <c r="K70" t="n">
+        <v>4807</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4754</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4714</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4684</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4664</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4681</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4671</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4661</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4651</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4593</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4583</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4573</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4573</v>
+      </c>
+      <c r="X70" t="n">
+        <v>4563</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>4563</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>4573</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>4593</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>4641</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4661</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4681</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>4701</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4735</v>
+      </c>
+      <c r="AG70" t="n">
         <v>4755</v>
       </c>
-      <c r="L70" t="n">
-        <v>4683</v>
-      </c>
-      <c r="M70" t="n">
-        <v>4653</v>
-      </c>
-      <c r="N70" t="n">
-        <v>4643</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4613</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4638</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>4638</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4638</v>
-      </c>
-      <c r="S70" t="n">
-        <v>4638</v>
-      </c>
-      <c r="T70" t="n">
-        <v>4627</v>
-      </c>
-      <c r="U70" t="n">
-        <v>4627</v>
-      </c>
-      <c r="V70" t="n">
-        <v>4627</v>
-      </c>
-      <c r="W70" t="n">
-        <v>4627</v>
-      </c>
-      <c r="X70" t="n">
-        <v>4667</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>4687</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>4707</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>4727</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>4927</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>4957</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>4987</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>5017</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>4986</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>5016</v>
-      </c>
       <c r="AH70" t="n">
-        <v>4986</v>
+        <v>4775</v>
       </c>
       <c r="AI70" t="n">
-        <v>4976</v>
+        <v>4785</v>
       </c>
       <c r="AJ70" t="n">
-        <v>5029</v>
+        <v>4758</v>
       </c>
       <c r="AK70" t="n">
-        <v>4989</v>
+        <v>4758</v>
       </c>
       <c r="AL70" t="n">
-        <v>4929</v>
+        <v>4738</v>
       </c>
       <c r="AM70" t="n">
-        <v>4869</v>
+        <v>4718</v>
       </c>
       <c r="AN70" t="n">
-        <v>4775</v>
+        <v>4854</v>
       </c>
       <c r="AO70" t="n">
-        <v>4705</v>
+        <v>4804</v>
       </c>
       <c r="AP70" t="n">
-        <v>4645</v>
+        <v>4754</v>
       </c>
       <c r="AQ70" t="n">
-        <v>4585</v>
+        <v>4694</v>
       </c>
       <c r="AR70" t="n">
-        <v>4678</v>
+        <v>4933</v>
       </c>
       <c r="AS70" t="n">
-        <v>4628</v>
+        <v>4873</v>
       </c>
       <c r="AT70" t="n">
-        <v>4588</v>
+        <v>4813</v>
       </c>
       <c r="AU70" t="n">
-        <v>4568</v>
+        <v>4763</v>
       </c>
       <c r="AV70" t="n">
-        <v>4683</v>
+        <v>4621</v>
       </c>
       <c r="AW70" t="n">
-        <v>4673</v>
+        <v>4581</v>
       </c>
       <c r="AX70" t="n">
-        <v>4653</v>
+        <v>4541</v>
       </c>
       <c r="AY70" t="n">
-        <v>4643</v>
+        <v>4511</v>
       </c>
       <c r="AZ70" t="n">
-        <v>4546</v>
+        <v>4478</v>
       </c>
       <c r="BA70" t="n">
-        <v>4536</v>
+        <v>4458</v>
       </c>
       <c r="BB70" t="n">
-        <v>4526</v>
+        <v>4438</v>
       </c>
       <c r="BC70" t="n">
-        <v>4506</v>
+        <v>4428</v>
       </c>
       <c r="BD70" t="n">
-        <v>4410</v>
+        <v>4448</v>
       </c>
       <c r="BE70" t="n">
-        <v>4410</v>
+        <v>4448</v>
       </c>
       <c r="BF70" t="n">
-        <v>4410</v>
+        <v>4448</v>
       </c>
       <c r="BG70" t="n">
-        <v>4410</v>
+        <v>4448</v>
       </c>
       <c r="BH70" t="n">
-        <v>4473</v>
+        <v>4439</v>
       </c>
       <c r="BI70" t="n">
-        <v>4493</v>
+        <v>4449</v>
       </c>
       <c r="BJ70" t="n">
-        <v>4503</v>
+        <v>4459</v>
       </c>
       <c r="BK70" t="n">
-        <v>4523</v>
+        <v>4479</v>
       </c>
       <c r="BL70" t="n">
-        <v>4513</v>
+        <v>4482</v>
       </c>
       <c r="BM70" t="n">
-        <v>4533</v>
+        <v>4502</v>
       </c>
       <c r="BN70" t="n">
-        <v>4563</v>
+        <v>4522</v>
       </c>
       <c r="BO70" t="n">
-        <v>4593</v>
+        <v>4552</v>
       </c>
       <c r="BP70" t="n">
-        <v>4679</v>
+        <v>4596</v>
       </c>
       <c r="BQ70" t="n">
-        <v>4729</v>
+        <v>4656</v>
       </c>
       <c r="BR70" t="n">
-        <v>4799</v>
+        <v>4716</v>
       </c>
       <c r="BS70" t="n">
-        <v>4879</v>
+        <v>4786</v>
       </c>
       <c r="BT70" t="n">
-        <v>5114</v>
+        <v>5056</v>
       </c>
       <c r="BU70" t="n">
-        <v>5194</v>
+        <v>5136</v>
       </c>
       <c r="BV70" t="n">
-        <v>5264</v>
+        <v>5236</v>
       </c>
       <c r="BW70" t="n">
-        <v>5344</v>
+        <v>5336</v>
       </c>
       <c r="BX70" t="n">
-        <v>5193</v>
+        <v>5287</v>
       </c>
       <c r="BY70" t="n">
-        <v>5273</v>
+        <v>5377</v>
       </c>
       <c r="BZ70" t="n">
-        <v>5373</v>
+        <v>5487</v>
       </c>
       <c r="CA70" t="n">
-        <v>5473</v>
+        <v>5597</v>
       </c>
       <c r="CB70" t="n">
+        <v>5298</v>
+      </c>
+      <c r="CC70" t="n">
         <v>5408</v>
       </c>
-      <c r="CC70" t="n">
+      <c r="CD70" t="n">
         <v>5518</v>
       </c>
-      <c r="CD70" t="n">
-        <v>5628</v>
-      </c>
       <c r="CE70" t="n">
-        <v>5708</v>
+        <v>5638</v>
       </c>
       <c r="CF70" t="n">
-        <v>5784</v>
+        <v>5703</v>
       </c>
       <c r="CG70" t="n">
-        <v>5874</v>
+        <v>5813</v>
       </c>
       <c r="CH70" t="n">
-        <v>5944</v>
+        <v>5893</v>
       </c>
       <c r="CI70" t="n">
-        <v>6024</v>
+        <v>5983</v>
       </c>
       <c r="CJ70" t="n">
-        <v>6069</v>
+        <v>5935</v>
       </c>
       <c r="CK70" t="n">
-        <v>6059</v>
+        <v>5945</v>
       </c>
       <c r="CL70" t="n">
-        <v>6059</v>
+        <v>5935</v>
       </c>
       <c r="CM70" t="n">
-        <v>6029</v>
+        <v>5885</v>
       </c>
       <c r="CN70" t="n">
-        <v>5962</v>
+        <v>5861</v>
       </c>
       <c r="CO70" t="n">
-        <v>5902</v>
+        <v>5741</v>
       </c>
       <c r="CP70" t="n">
-        <v>5782</v>
+        <v>5621</v>
       </c>
       <c r="CQ70" t="n">
-        <v>5642</v>
+        <v>5481</v>
       </c>
       <c r="CR70" t="n">
-        <v>5446</v>
+        <v>5268</v>
       </c>
       <c r="CS70" t="n">
-        <v>5326</v>
+        <v>5128</v>
       </c>
       <c r="CT70" t="n">
-        <v>5216</v>
+        <v>5028</v>
       </c>
       <c r="CU70" t="n">
-        <v>5116</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="71">

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -2436,1189 +2436,1189 @@
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="n">
-        <v>45809</v>
+        <v>45810</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45811</v>
       </c>
       <c r="D9" t="n">
-        <v>5182</v>
+        <v>4134.3</v>
       </c>
       <c r="E9" t="n">
-        <v>5132</v>
+        <v>4074.3</v>
       </c>
       <c r="F9" t="n">
-        <v>5082</v>
+        <v>4014.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5062</v>
+        <v>3944.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2083.8</v>
+        <v>4267.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2033.8</v>
+        <v>4227.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1993.8</v>
+        <v>4177.7</v>
       </c>
       <c r="K9" t="n">
-        <v>1953.8</v>
+        <v>4127.7</v>
       </c>
       <c r="L9" t="n">
-        <v>2252.4</v>
+        <v>4159.8</v>
       </c>
       <c r="M9" t="n">
-        <v>2212.4</v>
+        <v>4129.8</v>
       </c>
       <c r="N9" t="n">
-        <v>2192.4</v>
+        <v>4099.8</v>
       </c>
       <c r="O9" t="n">
-        <v>2172.4</v>
+        <v>4089.8</v>
       </c>
       <c r="P9" t="n">
-        <v>1851.5</v>
+        <v>4181.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1871.5</v>
+        <v>4171.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1871.5</v>
+        <v>4171.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1881.5</v>
+        <v>4171.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1936.6</v>
+        <v>4106.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1946.6</v>
+        <v>4106.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1966.6</v>
+        <v>4106.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1986.6</v>
+        <v>4106.9</v>
       </c>
       <c r="X9" t="n">
-        <v>2249.1</v>
+        <v>4180.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>2299.1</v>
+        <v>4180.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2359.1</v>
+        <v>4240.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>2439.1</v>
+        <v>4320.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>2391.1</v>
+        <v>4153.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>2491.1</v>
+        <v>4253.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>2581.1</v>
+        <v>4363.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>2681.1</v>
+        <v>4473.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>3625.2</v>
+        <v>4806.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>3705.2</v>
+        <v>4886.8</v>
       </c>
       <c r="AH9" t="n">
-        <v>3755.2</v>
+        <v>4936.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>3765.2</v>
+        <v>4936.8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5387.1</v>
+        <v>5214.8</v>
       </c>
       <c r="AK9" t="n">
-        <v>5387.1</v>
+        <v>5184.8</v>
       </c>
       <c r="AL9" t="n">
-        <v>5357.1</v>
+        <v>5164.8</v>
       </c>
       <c r="AM9" t="n">
-        <v>5287.1</v>
+        <v>5114.8</v>
       </c>
       <c r="AN9" t="n">
-        <v>6856.5</v>
+        <v>5237.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>6766.5</v>
+        <v>5177.9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6656.5</v>
+        <v>5097.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6556.5</v>
+        <v>5017.9</v>
       </c>
       <c r="AR9" t="n">
-        <v>6491</v>
+        <v>5250.9</v>
       </c>
       <c r="AS9" t="n">
-        <v>6391</v>
+        <v>5180.9</v>
       </c>
       <c r="AT9" t="n">
-        <v>6311</v>
+        <v>5120.9</v>
       </c>
       <c r="AU9" t="n">
-        <v>6231</v>
+        <v>5050.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>6457.4</v>
+        <v>5225.1</v>
       </c>
       <c r="AW9" t="n">
-        <v>6407.4</v>
+        <v>5175.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>6367.4</v>
+        <v>5165.1</v>
       </c>
       <c r="AY9" t="n">
-        <v>6327.4</v>
+        <v>5145.1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6082.1</v>
+        <v>5360.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>6052.1</v>
+        <v>5370.1</v>
       </c>
       <c r="BB9" t="n">
-        <v>6042.1</v>
+        <v>5390.1</v>
       </c>
       <c r="BC9" t="n">
-        <v>6032.1</v>
+        <v>5400.1</v>
       </c>
       <c r="BD9" t="n">
+        <v>5434.9</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>5444.9</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>5464.9</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>5464.9</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5278.3</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>5278.3</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>5278.3</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>5298.3</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>5195.3</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>5205.3</v>
+      </c>
+      <c r="BN9" t="n">
         <v>5225.3</v>
       </c>
-      <c r="BE9" t="n">
-        <v>5225.3</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>5325.3</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>5335.3</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>5112.2</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>5122.2</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>5132.2</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>5152.2</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>4828.5</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>4898.5</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>4928.5</v>
-      </c>
       <c r="BO9" t="n">
-        <v>4968.5</v>
+        <v>5255.3</v>
       </c>
       <c r="BP9" t="n">
-        <v>4869.3</v>
+        <v>4926.4</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4939.3</v>
+        <v>4986.4</v>
       </c>
       <c r="BR9" t="n">
-        <v>5019.3</v>
+        <v>5056.4</v>
       </c>
       <c r="BS9" t="n">
-        <v>5119.3</v>
+        <v>5136.4</v>
       </c>
       <c r="BT9" t="n">
-        <v>4061.7</v>
+        <v>4881.9</v>
       </c>
       <c r="BU9" t="n">
-        <v>4161.7</v>
+        <v>4951.9</v>
       </c>
       <c r="BV9" t="n">
-        <v>4261.7</v>
+        <v>5021.9</v>
       </c>
       <c r="BW9" t="n">
-        <v>4351.7</v>
+        <v>5091.9</v>
       </c>
       <c r="BX9" t="n">
-        <v>4271.6</v>
+        <v>4867.5</v>
       </c>
       <c r="BY9" t="n">
-        <v>4371.6</v>
+        <v>4937.5</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4431.6</v>
+        <v>5017.5</v>
       </c>
       <c r="CA9" t="n">
-        <v>4561.6</v>
+        <v>5117.5</v>
       </c>
       <c r="CB9" t="n">
-        <v>5090.2</v>
+        <v>5258.9</v>
       </c>
       <c r="CC9" t="n">
-        <v>5240.2</v>
+        <v>5368.9</v>
       </c>
       <c r="CD9" t="n">
-        <v>5380.2</v>
+        <v>5468.9</v>
       </c>
       <c r="CE9" t="n">
-        <v>5500.2</v>
+        <v>5548.9</v>
       </c>
       <c r="CF9" t="n">
-        <v>5808.1</v>
+        <v>5418.7</v>
       </c>
       <c r="CG9" t="n">
-        <v>5928.1</v>
+        <v>5508.7</v>
       </c>
       <c r="CH9" t="n">
-        <v>5958.1</v>
+        <v>5588.7</v>
       </c>
       <c r="CI9" t="n">
-        <v>5958.1</v>
+        <v>5698.7</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6037.6</v>
+        <v>5828.5</v>
       </c>
       <c r="CK9" t="n">
-        <v>6037.6</v>
+        <v>5828.5</v>
       </c>
       <c r="CL9" t="n">
-        <v>6007.6</v>
+        <v>5828.5</v>
       </c>
       <c r="CM9" t="n">
-        <v>5927.6</v>
+        <v>5738.5</v>
       </c>
       <c r="CN9" t="n">
-        <v>5966.4</v>
+        <v>6005.6</v>
       </c>
       <c r="CO9" t="n">
-        <v>5876.4</v>
+        <v>5875.6</v>
       </c>
       <c r="CP9" t="n">
-        <v>5716.4</v>
+        <v>5745.6</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5556.4</v>
+        <v>5585.6</v>
       </c>
       <c r="CR9" t="n">
-        <v>4962.7</v>
+        <v>5682.1</v>
       </c>
       <c r="CS9" t="n">
-        <v>4782.7</v>
+        <v>5542.1</v>
       </c>
       <c r="CT9" t="n">
-        <v>4702.7</v>
+        <v>5432.1</v>
       </c>
       <c r="CU9" t="n">
-        <v>4592.7</v>
+        <v>5322.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" s="2" t="n">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45812</v>
       </c>
       <c r="D10" t="n">
-        <v>6100.9</v>
+        <v>5618.9</v>
       </c>
       <c r="E10" t="n">
-        <v>6000.9</v>
+        <v>5558.9</v>
       </c>
       <c r="F10" t="n">
-        <v>5930.9</v>
+        <v>5478.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5870.9</v>
+        <v>5398.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4925</v>
+        <v>5510.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4885</v>
+        <v>5450.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4835</v>
+        <v>5400.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4785</v>
+        <v>5350.7</v>
       </c>
       <c r="L10" t="n">
-        <v>4713</v>
+        <v>5227.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4673</v>
+        <v>5207.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4653</v>
+        <v>5177.2</v>
       </c>
       <c r="O10" t="n">
-        <v>4633</v>
+        <v>5177.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4638</v>
+        <v>5068.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>4628</v>
+        <v>5058.1</v>
       </c>
       <c r="R10" t="n">
-        <v>4628</v>
+        <v>5058.1</v>
       </c>
       <c r="S10" t="n">
-        <v>4618</v>
+        <v>5068.1</v>
       </c>
       <c r="T10" t="n">
-        <v>4607</v>
+        <v>5079.9</v>
       </c>
       <c r="U10" t="n">
-        <v>4597</v>
+        <v>5079.9</v>
       </c>
       <c r="V10" t="n">
-        <v>4607</v>
+        <v>5089.9</v>
       </c>
       <c r="W10" t="n">
-        <v>4627</v>
+        <v>5089.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4697</v>
+        <v>5036.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4757</v>
+        <v>5046.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>4827</v>
+        <v>5106.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>4907</v>
+        <v>5176.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>5167</v>
+        <v>5003.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>5247</v>
+        <v>5103.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5327</v>
+        <v>5203.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>5397</v>
+        <v>5303.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>5406</v>
+        <v>5687.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>5446</v>
+        <v>5757.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>5466</v>
+        <v>5807.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>5466</v>
+        <v>5817.1</v>
       </c>
       <c r="AJ10" t="n">
+        <v>5937.7</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5917.7</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>5887.7</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5847.7</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5684.7</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5614.7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>5544.7</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>5464.7</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>5815.5</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5745.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5675.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5605.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5767.2</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5697.2</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5657.2</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>5657.2</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>5844.7</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>5834.7</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>5834.7</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5854.7</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5670.3</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5690.3</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>5720.3</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5740.3</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5489</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>5509</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>5519</v>
+      </c>
+      <c r="BK10" t="n">
         <v>5529</v>
       </c>
-      <c r="AK10" t="n">
-        <v>5499</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>5439</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>5379</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5265</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5175</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>5085</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>4985</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>5038</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>4948</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4868</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>4798</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>4893</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4843</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4803</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>4773</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>4676</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4646</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>4616</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>4596</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>4490</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>4480</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>4470</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>4480</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>4543</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>4553</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>4583</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>4603</v>
-      </c>
       <c r="BL10" t="n">
-        <v>4593</v>
+        <v>5447</v>
       </c>
       <c r="BM10" t="n">
-        <v>4613</v>
+        <v>5467</v>
       </c>
       <c r="BN10" t="n">
-        <v>4643</v>
+        <v>5497</v>
       </c>
       <c r="BO10" t="n">
-        <v>4673</v>
+        <v>5537</v>
       </c>
       <c r="BP10" t="n">
-        <v>4759</v>
+        <v>5452</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4839</v>
+        <v>5532</v>
       </c>
       <c r="BR10" t="n">
-        <v>4929</v>
+        <v>5622</v>
       </c>
       <c r="BS10" t="n">
-        <v>5049</v>
+        <v>5712</v>
       </c>
       <c r="BT10" t="n">
-        <v>5324</v>
+        <v>5164.1</v>
       </c>
       <c r="BU10" t="n">
-        <v>5454</v>
+        <v>5254.1</v>
       </c>
       <c r="BV10" t="n">
-        <v>5574</v>
+        <v>5324.1</v>
       </c>
       <c r="BW10" t="n">
-        <v>5694</v>
+        <v>5404.1</v>
       </c>
       <c r="BX10" t="n">
-        <v>5583</v>
+        <v>5249.7</v>
       </c>
       <c r="BY10" t="n">
-        <v>5693</v>
+        <v>5339.7</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5813</v>
+        <v>5449.7</v>
       </c>
       <c r="CA10" t="n">
-        <v>5953</v>
+        <v>5559.7</v>
       </c>
       <c r="CB10" t="n">
-        <v>5918</v>
+        <v>5275.9</v>
       </c>
       <c r="CC10" t="n">
-        <v>6078</v>
+        <v>5365.9</v>
       </c>
       <c r="CD10" t="n">
-        <v>6208</v>
+        <v>5445.9</v>
       </c>
       <c r="CE10" t="n">
-        <v>6308</v>
+        <v>5505.9</v>
       </c>
       <c r="CF10" t="n">
-        <v>6394</v>
+        <v>4954.9</v>
       </c>
       <c r="CG10" t="n">
-        <v>6464</v>
+        <v>5024.9</v>
       </c>
       <c r="CH10" t="n">
-        <v>6524</v>
+        <v>5104.9</v>
       </c>
       <c r="CI10" t="n">
-        <v>6604</v>
+        <v>5224.9</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6659</v>
+        <v>5448.6</v>
       </c>
       <c r="CK10" t="n">
-        <v>6639</v>
+        <v>5468.6</v>
       </c>
       <c r="CL10" t="n">
-        <v>6609</v>
+        <v>5468.6</v>
       </c>
       <c r="CM10" t="n">
-        <v>6519</v>
+        <v>5408.6</v>
       </c>
       <c r="CN10" t="n">
-        <v>6392</v>
+        <v>5669.1</v>
       </c>
       <c r="CO10" t="n">
-        <v>6312</v>
+        <v>5549.1</v>
       </c>
       <c r="CP10" t="n">
-        <v>6182</v>
+        <v>5409.1</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5992</v>
+        <v>5239.1</v>
       </c>
       <c r="CR10" t="n">
-        <v>5646</v>
+        <v>5570.6</v>
       </c>
       <c r="CS10" t="n">
-        <v>5496</v>
+        <v>5410.6</v>
       </c>
       <c r="CT10" t="n">
-        <v>5396</v>
+        <v>5310.6</v>
       </c>
       <c r="CU10" t="n">
-        <v>5356</v>
+        <v>5200.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="n">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="D11" t="n">
-        <v>6160.9</v>
+        <v>5532.5</v>
       </c>
       <c r="E11" t="n">
-        <v>6060.9</v>
+        <v>5452.5</v>
       </c>
       <c r="F11" t="n">
-        <v>5990.9</v>
+        <v>5392.5</v>
       </c>
       <c r="G11" t="n">
-        <v>5930.9</v>
+        <v>5312.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4985</v>
+        <v>4338.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4945</v>
+        <v>4268.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4895</v>
+        <v>4218.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4845</v>
+        <v>4168.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4773</v>
+        <v>3759.9</v>
       </c>
       <c r="M11" t="n">
-        <v>4733</v>
+        <v>3729.9</v>
       </c>
       <c r="N11" t="n">
-        <v>4713</v>
+        <v>3719.9</v>
       </c>
       <c r="O11" t="n">
-        <v>4693</v>
+        <v>3709.9</v>
       </c>
       <c r="P11" t="n">
-        <v>4698</v>
+        <v>3769.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688</v>
+        <v>3769.4</v>
       </c>
       <c r="R11" t="n">
-        <v>4688</v>
+        <v>3769.4</v>
       </c>
       <c r="S11" t="n">
-        <v>4678</v>
+        <v>3769.4</v>
       </c>
       <c r="T11" t="n">
-        <v>4667</v>
+        <v>3699.1</v>
       </c>
       <c r="U11" t="n">
-        <v>4657</v>
+        <v>3699.1</v>
       </c>
       <c r="V11" t="n">
-        <v>4667</v>
+        <v>3699.1</v>
       </c>
       <c r="W11" t="n">
-        <v>4687</v>
+        <v>3689.1</v>
       </c>
       <c r="X11" t="n">
-        <v>4757</v>
+        <v>3825.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>4817</v>
+        <v>3825.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>4887</v>
+        <v>3845.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>4967</v>
+        <v>3895.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>5227</v>
+        <v>4014.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>5307</v>
+        <v>4114.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>5387</v>
+        <v>4214.7</v>
       </c>
       <c r="AE11" t="n">
-        <v>5457</v>
+        <v>4344.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>5466</v>
+        <v>5378.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>5506</v>
+        <v>5478.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>5526</v>
+        <v>5558.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>5526</v>
+        <v>5618.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5589</v>
+        <v>6788.7</v>
       </c>
       <c r="AK11" t="n">
-        <v>5559</v>
+        <v>6788.7</v>
       </c>
       <c r="AL11" t="n">
-        <v>5499</v>
+        <v>6768.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>5439</v>
+        <v>6718.7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5325</v>
+        <v>7340.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>5235</v>
+        <v>7260.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>5145</v>
+        <v>7170.8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5045</v>
+        <v>7070.8</v>
       </c>
       <c r="AR11" t="n">
-        <v>5098</v>
+        <v>7280.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>5008</v>
+        <v>7190.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>4928</v>
+        <v>7110.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>4858</v>
+        <v>7040.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>4953</v>
+        <v>7033.6</v>
       </c>
       <c r="AW11" t="n">
-        <v>4903</v>
+        <v>6993.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>4863</v>
+        <v>6973.6</v>
       </c>
       <c r="AY11" t="n">
-        <v>4833</v>
+        <v>6973.6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4736</v>
+        <v>6505.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>4706</v>
+        <v>6505.6</v>
       </c>
       <c r="BB11" t="n">
-        <v>4676</v>
+        <v>6515.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>4656</v>
+        <v>6535.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>4550</v>
+        <v>6232.2</v>
       </c>
       <c r="BE11" t="n">
-        <v>4540</v>
+        <v>6252.2</v>
       </c>
       <c r="BF11" t="n">
-        <v>4530</v>
+        <v>6272.2</v>
       </c>
       <c r="BG11" t="n">
-        <v>4540</v>
+        <v>6282.2</v>
       </c>
       <c r="BH11" t="n">
-        <v>4603</v>
+        <v>5190.9</v>
       </c>
       <c r="BI11" t="n">
-        <v>4613</v>
+        <v>5210.9</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4643</v>
+        <v>5220.9</v>
       </c>
       <c r="BK11" t="n">
-        <v>4663</v>
+        <v>5230.9</v>
       </c>
       <c r="BL11" t="n">
-        <v>4653</v>
+        <v>4699.2</v>
       </c>
       <c r="BM11" t="n">
-        <v>4673</v>
+        <v>4709.2</v>
       </c>
       <c r="BN11" t="n">
-        <v>4703</v>
+        <v>4739.2</v>
       </c>
       <c r="BO11" t="n">
-        <v>4733</v>
+        <v>4779.2</v>
       </c>
       <c r="BP11" t="n">
-        <v>4819</v>
+        <v>5938.8</v>
       </c>
       <c r="BQ11" t="n">
-        <v>4899</v>
+        <v>6018.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>4989</v>
+        <v>6108.8</v>
       </c>
       <c r="BS11" t="n">
-        <v>5109</v>
+        <v>6198.8</v>
       </c>
       <c r="BT11" t="n">
-        <v>5384</v>
+        <v>5379.5</v>
       </c>
       <c r="BU11" t="n">
-        <v>5514</v>
+        <v>5469.5</v>
       </c>
       <c r="BV11" t="n">
-        <v>5634</v>
+        <v>5559.5</v>
       </c>
       <c r="BW11" t="n">
-        <v>5754</v>
+        <v>5649.5</v>
       </c>
       <c r="BX11" t="n">
-        <v>5643</v>
+        <v>4516.2</v>
       </c>
       <c r="BY11" t="n">
-        <v>5753</v>
+        <v>4606.2</v>
       </c>
       <c r="BZ11" t="n">
-        <v>5873</v>
+        <v>4716.2</v>
       </c>
       <c r="CA11" t="n">
-        <v>6013</v>
+        <v>4826.2</v>
       </c>
       <c r="CB11" t="n">
-        <v>5978</v>
+        <v>5243</v>
       </c>
       <c r="CC11" t="n">
-        <v>6138</v>
+        <v>5323</v>
       </c>
       <c r="CD11" t="n">
-        <v>6268</v>
+        <v>5403</v>
       </c>
       <c r="CE11" t="n">
-        <v>6368</v>
+        <v>5453</v>
       </c>
       <c r="CF11" t="n">
-        <v>6454</v>
+        <v>6320.9</v>
       </c>
       <c r="CG11" t="n">
-        <v>6524</v>
+        <v>6380.9</v>
       </c>
       <c r="CH11" t="n">
-        <v>6584</v>
+        <v>6440.9</v>
       </c>
       <c r="CI11" t="n">
-        <v>6664</v>
+        <v>6550.9</v>
       </c>
       <c r="CJ11" t="n">
-        <v>6719</v>
+        <v>6738.2</v>
       </c>
       <c r="CK11" t="n">
-        <v>6699</v>
+        <v>6758.2</v>
       </c>
       <c r="CL11" t="n">
-        <v>6669</v>
+        <v>6748.2</v>
       </c>
       <c r="CM11" t="n">
-        <v>6579</v>
+        <v>6668.2</v>
       </c>
       <c r="CN11" t="n">
-        <v>6452</v>
+        <v>6314.1</v>
       </c>
       <c r="CO11" t="n">
-        <v>6372</v>
+        <v>6194.1</v>
       </c>
       <c r="CP11" t="n">
-        <v>6242</v>
+        <v>6064.1</v>
       </c>
       <c r="CQ11" t="n">
-        <v>6052</v>
+        <v>5884.1</v>
       </c>
       <c r="CR11" t="n">
-        <v>5706</v>
+        <v>5282.5</v>
       </c>
       <c r="CS11" t="n">
-        <v>5556</v>
+        <v>5132.5</v>
       </c>
       <c r="CT11" t="n">
-        <v>5456</v>
+        <v>5022.5</v>
       </c>
       <c r="CU11" t="n">
-        <v>5416</v>
+        <v>4912.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" s="2" t="n">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45814</v>
       </c>
       <c r="D12" t="n">
-        <v>6060.9</v>
+        <v>5512.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5960.9</v>
+        <v>5482.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5890.9</v>
+        <v>5402.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5830.9</v>
+        <v>5312.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4885</v>
+        <v>4378.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4845</v>
+        <v>4318.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4795</v>
+        <v>4258.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4745</v>
+        <v>4208.3</v>
       </c>
       <c r="L12" t="n">
-        <v>4673</v>
+        <v>3789.9</v>
       </c>
       <c r="M12" t="n">
-        <v>4633</v>
+        <v>3759.9</v>
       </c>
       <c r="N12" t="n">
-        <v>4613</v>
+        <v>3739.9</v>
       </c>
       <c r="O12" t="n">
-        <v>4593</v>
+        <v>3729.9</v>
       </c>
       <c r="P12" t="n">
-        <v>4598</v>
+        <v>3819.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>4588</v>
+        <v>3829.4</v>
       </c>
       <c r="R12" t="n">
-        <v>4588</v>
+        <v>3839.4</v>
       </c>
       <c r="S12" t="n">
-        <v>4578</v>
+        <v>3839.4</v>
       </c>
       <c r="T12" t="n">
-        <v>4567</v>
+        <v>3759.1</v>
       </c>
       <c r="U12" t="n">
-        <v>4557</v>
+        <v>3749.1</v>
       </c>
       <c r="V12" t="n">
-        <v>4567</v>
+        <v>3739.1</v>
       </c>
       <c r="W12" t="n">
-        <v>4587</v>
+        <v>3739.1</v>
       </c>
       <c r="X12" t="n">
-        <v>4657</v>
+        <v>3885.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>4717</v>
+        <v>3905.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>4787</v>
+        <v>3945.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>4867</v>
+        <v>4015.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>5127</v>
+        <v>4114.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>5207</v>
+        <v>4224.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5287</v>
+        <v>4334.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>5357</v>
+        <v>4454.7</v>
       </c>
       <c r="AF12" t="n">
-        <v>5366</v>
+        <v>5438.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>5406</v>
+        <v>5538.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>5426</v>
+        <v>5658.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>5426</v>
+        <v>5728.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5489</v>
+        <v>6868.7</v>
       </c>
       <c r="AK12" t="n">
-        <v>5459</v>
+        <v>6858.7</v>
       </c>
       <c r="AL12" t="n">
-        <v>5399</v>
+        <v>6828.7</v>
       </c>
       <c r="AM12" t="n">
-        <v>5339</v>
+        <v>6768.7</v>
       </c>
       <c r="AN12" t="n">
-        <v>5225</v>
+        <v>7430.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>5135</v>
+        <v>7330.8</v>
       </c>
       <c r="AP12" t="n">
-        <v>5045</v>
+        <v>7230.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4945</v>
+        <v>7130.8</v>
       </c>
       <c r="AR12" t="n">
-        <v>4998</v>
+        <v>7300.6</v>
       </c>
       <c r="AS12" t="n">
-        <v>4908</v>
+        <v>7200.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>4828</v>
+        <v>7110.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>4758</v>
+        <v>7040.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>4853</v>
+        <v>7083.6</v>
       </c>
       <c r="AW12" t="n">
-        <v>4803</v>
+        <v>7033.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>4763</v>
+        <v>6993.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>4733</v>
+        <v>6973.6</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4636</v>
+        <v>6465.6</v>
       </c>
       <c r="BA12" t="n">
-        <v>4606</v>
+        <v>6465.6</v>
       </c>
       <c r="BB12" t="n">
-        <v>4576</v>
+        <v>6465.6</v>
       </c>
       <c r="BC12" t="n">
-        <v>4556</v>
+        <v>6475.6</v>
       </c>
       <c r="BD12" t="n">
-        <v>4450</v>
+        <v>6162.2</v>
       </c>
       <c r="BE12" t="n">
-        <v>4440</v>
+        <v>6182.2</v>
       </c>
       <c r="BF12" t="n">
-        <v>4430</v>
+        <v>6212.2</v>
       </c>
       <c r="BG12" t="n">
-        <v>4440</v>
+        <v>6232.2</v>
       </c>
       <c r="BH12" t="n">
-        <v>4503</v>
+        <v>5160.9</v>
       </c>
       <c r="BI12" t="n">
-        <v>4513</v>
+        <v>5180.9</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4543</v>
+        <v>5210.9</v>
       </c>
       <c r="BK12" t="n">
-        <v>4563</v>
+        <v>5220.9</v>
       </c>
       <c r="BL12" t="n">
-        <v>4553</v>
+        <v>4709.2</v>
       </c>
       <c r="BM12" t="n">
-        <v>4573</v>
+        <v>4729.2</v>
       </c>
       <c r="BN12" t="n">
-        <v>4603</v>
+        <v>4769.2</v>
       </c>
       <c r="BO12" t="n">
-        <v>4633</v>
+        <v>4809.2</v>
       </c>
       <c r="BP12" t="n">
-        <v>4719</v>
+        <v>5938.8</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4799</v>
+        <v>6008.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>4889</v>
+        <v>6098.8</v>
       </c>
       <c r="BS12" t="n">
-        <v>5009</v>
+        <v>6198.8</v>
       </c>
       <c r="BT12" t="n">
-        <v>5284</v>
+        <v>5409.5</v>
       </c>
       <c r="BU12" t="n">
-        <v>5384</v>
+        <v>5509.5</v>
       </c>
       <c r="BV12" t="n">
-        <v>5504</v>
+        <v>5609.5</v>
       </c>
       <c r="BW12" t="n">
-        <v>5624</v>
+        <v>5699.5</v>
       </c>
       <c r="BX12" t="n">
-        <v>5513</v>
+        <v>4536.2</v>
       </c>
       <c r="BY12" t="n">
-        <v>5623</v>
+        <v>4636.2</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5743</v>
+        <v>4746.2</v>
       </c>
       <c r="CA12" t="n">
-        <v>5883</v>
+        <v>4866.2</v>
       </c>
       <c r="CB12" t="n">
-        <v>5848</v>
+        <v>5303</v>
       </c>
       <c r="CC12" t="n">
-        <v>6008</v>
+        <v>5403</v>
       </c>
       <c r="CD12" t="n">
-        <v>6138</v>
+        <v>5473</v>
       </c>
       <c r="CE12" t="n">
-        <v>6238</v>
+        <v>5523</v>
       </c>
       <c r="CF12" t="n">
-        <v>6324</v>
+        <v>6420.9</v>
       </c>
       <c r="CG12" t="n">
-        <v>6394</v>
+        <v>6490.9</v>
       </c>
       <c r="CH12" t="n">
-        <v>6454</v>
+        <v>6570.9</v>
       </c>
       <c r="CI12" t="n">
-        <v>6534</v>
+        <v>6670.9</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6589</v>
+        <v>6798.2</v>
       </c>
       <c r="CK12" t="n">
-        <v>6569</v>
+        <v>6798.2</v>
       </c>
       <c r="CL12" t="n">
-        <v>6539</v>
+        <v>6788.2</v>
       </c>
       <c r="CM12" t="n">
-        <v>6449</v>
+        <v>6708.2</v>
       </c>
       <c r="CN12" t="n">
-        <v>6322</v>
+        <v>6374.1</v>
       </c>
       <c r="CO12" t="n">
-        <v>6242</v>
+        <v>6304.1</v>
       </c>
       <c r="CP12" t="n">
-        <v>6112</v>
+        <v>6164.1</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5922</v>
+        <v>5984.1</v>
       </c>
       <c r="CR12" t="n">
-        <v>5576</v>
+        <v>5332.5</v>
       </c>
       <c r="CS12" t="n">
-        <v>5426</v>
+        <v>5142.5</v>
       </c>
       <c r="CT12" t="n">
-        <v>5326</v>
+        <v>5062.5</v>
       </c>
       <c r="CU12" t="n">
-        <v>5286</v>
+        <v>4952.5</v>
       </c>
     </row>
     <row r="13">
@@ -4811,106 +4811,300 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>45811</v>
+      </c>
       <c r="C17" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>4384.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4384.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4284.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4184.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4497.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4447.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4407.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4357.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4379.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4339.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4319.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4299.8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4421.3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4421.3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4411.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4401.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4326.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4316.9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4316.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4316.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4420.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4460.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4520.4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4600.4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4403.7</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4503.7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4593.7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>4683.7</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4926.8</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>4996.8</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5036.8</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>5066.8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>5374.8</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>5364.8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>5334.8</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>5294.8</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5407.9</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5337.9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>5267.9</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>5187.9</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>5420.9</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5340.9</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5270.9</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5200.9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>5405.1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5365.1</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5345.1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>5325.1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>5530.1</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>5530.1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>5540.1</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5550.1</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>5554.9</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>5574.9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>5594.9</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>5614.9</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5458.3</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>5478.3</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>5498.3</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>5508.3</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>5395.3</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>5415.3</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>5455.3</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>5495.3</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>5196.4</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>5276.4</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>5366.4</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>5456.4</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>5211.9</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5291.9</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>5371.9</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>5431.9</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>5207.5</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>5287.5</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>5387.5</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>5517.5</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>5698.9</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>5828.9</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>5918.9</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>5978.9</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>5818.7</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>5888.7</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>5958.7</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>6078.7</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>6198.5</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>6218.5</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>6208.5</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>6108.5</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>6375.6</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>6285.6</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>6165.6</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>5965.6</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>5952.1</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>5762.1</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>5682.1</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>5572.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -2138,518 +2138,1488 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>45863</v>
+      </c>
       <c r="C8" s="2" t="n">
         <v>45871</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>5207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5177</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5107</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4997</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5414</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5334</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5254</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5194</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5161</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5111</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5081</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5051</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5008</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4988</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4978</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4968</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4942</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4922</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4912</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4892</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4897</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4877</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4857</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4847</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4890</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4890</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4910</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4940</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5048</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5098</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5148</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5316</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5346</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>5376</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>5386</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5317</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5307</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>5287</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>5257</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>5219</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5189</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5169</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5139</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>5064</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5054</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5044</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5044</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>5013</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5023</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5033</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5043</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>5117</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>5137</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5157</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5187</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>5270</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5320</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5350</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>5484</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>5514</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>5544</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>5574</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5648</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5708</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>5778</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>5848</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>5912</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5992</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>6072</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>6152</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>6179</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>6249</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>6339</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>6429</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>6337</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>6417</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>6477</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>6517</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6681</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>6731</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>6761</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>6801</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>6749</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>6699</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>6699</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>6679</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>6523</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>6483</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>6353</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6213</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>6064</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>5944</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>5834</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>5734</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" s="2" t="n">
+        <v>45863</v>
+      </c>
       <c r="C9" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>4917</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4857</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4807</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4717</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5154</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5074</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5004</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4954</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4911</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4871</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4831</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4791</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4728</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4698</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4668</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4648</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4612</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4612</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4602</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4602</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4627</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4627</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4627</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4617</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4650</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4640</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4648</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4628</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4608</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4578</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>4616</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4576</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4526</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4476</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4347</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4287</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4227</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>4177</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>4139</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4099</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4089</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4079</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>4014</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4024</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4034</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>4044</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>4023</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>4023</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4023</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>4023</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4087</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4087</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4107</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>4127</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4220</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4260</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4300</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4350</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>4514</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4554</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>4604</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4654</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>4728</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>4798</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>4868</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>4958</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>5032</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5142</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>5252</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5352</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>5419</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>5529</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>5649</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>5769</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>5707</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>5807</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>5887</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>5947</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>6131</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>6201</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>6251</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>6321</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>6309</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>6289</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>6309</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>6299</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>6153</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>6133</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>6013</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>5863</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>5664</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>5544</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>5434</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>5334</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>45864</v>
+      </c>
       <c r="C10" s="2" t="n">
         <v>45873</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4917</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4597</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4507</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4944</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4884</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4814</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4754</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4691</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4641</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4601</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4581</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4538</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4538</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4538</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4538</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4502</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4532</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4532</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4552</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4597</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4647</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4707</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4787</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4940</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5060</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5200</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5350</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5568</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5718</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5848</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5968</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6136</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6216</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6266</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>6306</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6237</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6247</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>6227</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6207</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6189</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>6159</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6139</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6119</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>6044</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6044</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6034</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6034</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>6013</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>6013</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>6013</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>6013</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>6067</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6077</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>6077</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>6077</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>6130</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>6130</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>6130</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>6130</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>6254</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>6264</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>6274</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>6304</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6358</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>6408</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>6468</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>6528</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>6572</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6632</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>6702</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6762</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>6779</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>6849</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>6929</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>7029</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6937</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>7017</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>7087</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>7127</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>7301</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>7351</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>7351</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>7351</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>7309</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>7279</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>7249</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>7209</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>7043</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>7003</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>6863</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>6653</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>6374</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>6174</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>6094</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>5984</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>45865</v>
+      </c>
       <c r="C11" s="2" t="n">
         <v>45874</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>5317</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5207</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5127</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5564</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5504</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5444</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5394</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5341</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5291</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5251</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5211</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5168</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5148</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5138</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5118</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5112</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5112</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5122</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5142</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5187</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5217</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5257</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5317</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5430</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5510</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5700</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5868</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5968</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6058</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6138</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6266</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>6306</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6306</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>6306</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6237</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6207</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>6167</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>6127</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>6089</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>6059</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>6039</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6029</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>5964</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5974</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5984</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>5994</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>5963</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>5963</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5953</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>5943</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>5987</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>5977</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5967</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>5967</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>6030</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>6040</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>6060</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>6090</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>6224</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>6254</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>6294</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>6324</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>6398</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>6448</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>6508</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>6568</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>6602</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6662</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>6712</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>6762</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>6759</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>6809</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>6879</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>6959</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>6857</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>6917</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6967</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>6997</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>7141</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>7151</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>7151</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>7151</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>7109</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>7109</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>7099</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>7059</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>6883</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>6833</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>6713</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>6543</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>6334</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>6194</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>6114</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>6014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>45866</v>
+      </c>
       <c r="C12" s="2" t="n">
         <v>45875</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>5465.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5365.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5275.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5205.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5104.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5044.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4994.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4954.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5019.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4979.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4949.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4929.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4945.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4925.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4915.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4915.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4827.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4837.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4837.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4847.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4669.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4679.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4709.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4749.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4522.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4602.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4702.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>4832.8</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5030.2</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5170.2</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5280.2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5370.2</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5136.6</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5176.6</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5186.6</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5186.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5318.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5288.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5248.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5218.5</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>5508</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>5458</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5398</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>5328</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>5427.1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5367.1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5327.1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>5297.1</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5401.3</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5411.3</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5421.3</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5451.3</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>5402.5</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>5432.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>5452.5</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>5462.5</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5541.6</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>5551.6</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>5561.6</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5581.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>5547.7</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>5577.7</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>5597.7</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5627.7</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>5396.5</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>5436.5</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>5496.5</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>5576.5</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>5557.8</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5637.8</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>5717.8</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>5777.8</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>5508.4</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>5568.4</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>5628.4</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>5688.4</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>5673.5</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>5723.5</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>5763.5</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>5793.5</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>5720.6</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>5750.6</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>5800.6</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>5860.6</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>5799.5</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>5819.5</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>5779.5</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>5689.5</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>6026</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>5886</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>5736</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>5576</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>5737.3</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>5587.3</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>5447.3</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>5317.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -13349,40 +14319,40 @@
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45864</v>
       </c>
       <c r="D66" t="n">
-        <v>6039</v>
+        <v>6096</v>
       </c>
       <c r="E66" t="n">
-        <v>5989</v>
+        <v>6016</v>
       </c>
       <c r="F66" t="n">
-        <v>5929</v>
+        <v>5946</v>
       </c>
       <c r="G66" t="n">
-        <v>5829</v>
+        <v>5866</v>
       </c>
       <c r="H66" t="n">
-        <v>5783</v>
+        <v>5714.3</v>
       </c>
       <c r="I66" t="n">
-        <v>5683</v>
+        <v>5644.3</v>
       </c>
       <c r="J66" t="n">
-        <v>5613</v>
+        <v>5564.3</v>
       </c>
       <c r="K66" t="n">
-        <v>5553</v>
+        <v>5514.3</v>
       </c>
       <c r="L66" t="n">
-        <v>5421</v>
+        <v>5441</v>
       </c>
       <c r="M66" t="n">
-        <v>5391</v>
+        <v>5411</v>
       </c>
       <c r="N66" t="n">
         <v>5371</v>
@@ -13391,1741 +14361,1741 @@
         <v>5351</v>
       </c>
       <c r="P66" t="n">
-        <v>5290</v>
+        <v>5389.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>5280</v>
+        <v>5369.5</v>
       </c>
       <c r="R66" t="n">
-        <v>5260</v>
+        <v>5349.5</v>
       </c>
       <c r="S66" t="n">
-        <v>5250</v>
+        <v>5329.5</v>
       </c>
       <c r="T66" t="n">
-        <v>5216</v>
+        <v>4683.1</v>
       </c>
       <c r="U66" t="n">
-        <v>5186</v>
+        <v>4673.1</v>
       </c>
       <c r="V66" t="n">
-        <v>5146</v>
+        <v>4663.1</v>
       </c>
       <c r="W66" t="n">
-        <v>5166</v>
+        <v>4653.1</v>
       </c>
       <c r="X66" t="n">
-        <v>5223</v>
+        <v>4625.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>5243</v>
+        <v>4615.4</v>
       </c>
       <c r="Z66" t="n">
-        <v>5243</v>
+        <v>4595.4</v>
       </c>
       <c r="AA66" t="n">
-        <v>5233</v>
+        <v>4585.4</v>
       </c>
       <c r="AB66" t="n">
-        <v>5310</v>
+        <v>4615</v>
       </c>
       <c r="AC66" t="n">
-        <v>5300</v>
+        <v>4615</v>
       </c>
       <c r="AD66" t="n">
-        <v>5310</v>
+        <v>4615</v>
       </c>
       <c r="AE66" t="n">
-        <v>5310</v>
+        <v>4625</v>
       </c>
       <c r="AF66" t="n">
-        <v>5438</v>
+        <v>4594.7</v>
       </c>
       <c r="AG66" t="n">
-        <v>5458</v>
+        <v>4614.7</v>
       </c>
       <c r="AH66" t="n">
-        <v>5468</v>
+        <v>4634.7</v>
       </c>
       <c r="AI66" t="n">
-        <v>5488</v>
+        <v>4654.7</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5549</v>
+        <v>4778.2</v>
       </c>
       <c r="AK66" t="n">
-        <v>5549</v>
+        <v>4798.2</v>
       </c>
       <c r="AL66" t="n">
-        <v>5549</v>
+        <v>4808.2</v>
       </c>
       <c r="AM66" t="n">
-        <v>5529</v>
+        <v>4798.2</v>
       </c>
       <c r="AN66" t="n">
-        <v>5458</v>
+        <v>5164.6</v>
       </c>
       <c r="AO66" t="n">
-        <v>5428</v>
+        <v>5144.6</v>
       </c>
       <c r="AP66" t="n">
-        <v>5398</v>
+        <v>5134.6</v>
       </c>
       <c r="AQ66" t="n">
-        <v>5358</v>
+        <v>5114.6</v>
       </c>
       <c r="AR66" t="n">
-        <v>5346</v>
+        <v>5413.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>5326</v>
+        <v>5413.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>5306</v>
+        <v>5413.5</v>
       </c>
       <c r="AU66" t="n">
-        <v>5306</v>
+        <v>5423.5</v>
       </c>
       <c r="AV66" t="n">
-        <v>5262</v>
+        <v>5561.3</v>
       </c>
       <c r="AW66" t="n">
-        <v>5272</v>
+        <v>5571.3</v>
       </c>
       <c r="AX66" t="n">
-        <v>5282</v>
+        <v>5591.3</v>
       </c>
       <c r="AY66" t="n">
-        <v>5302</v>
+        <v>5611.3</v>
       </c>
       <c r="AZ66" t="n">
-        <v>5272</v>
+        <v>5647.3</v>
       </c>
       <c r="BA66" t="n">
-        <v>5292</v>
+        <v>5657.3</v>
       </c>
       <c r="BB66" t="n">
-        <v>5302</v>
+        <v>5657.3</v>
       </c>
       <c r="BC66" t="n">
-        <v>5322</v>
+        <v>5657.3</v>
       </c>
       <c r="BD66" t="n">
-        <v>5402</v>
+        <v>5700.8</v>
       </c>
       <c r="BE66" t="n">
-        <v>5422</v>
+        <v>5700.8</v>
       </c>
       <c r="BF66" t="n">
-        <v>5452</v>
+        <v>5710.8</v>
       </c>
       <c r="BG66" t="n">
-        <v>5492</v>
+        <v>5720.8</v>
       </c>
       <c r="BH66" t="n">
-        <v>5652</v>
+        <v>5718.9</v>
       </c>
       <c r="BI66" t="n">
-        <v>5702</v>
+        <v>5738.9</v>
       </c>
       <c r="BJ66" t="n">
-        <v>5742</v>
+        <v>5768.9</v>
       </c>
       <c r="BK66" t="n">
-        <v>5782</v>
+        <v>5788.9</v>
       </c>
       <c r="BL66" t="n">
-        <v>5953</v>
+        <v>5657.9</v>
       </c>
       <c r="BM66" t="n">
-        <v>5993</v>
+        <v>5697.9</v>
       </c>
       <c r="BN66" t="n">
-        <v>6033</v>
+        <v>5737.9</v>
       </c>
       <c r="BO66" t="n">
-        <v>6073</v>
+        <v>5787.9</v>
       </c>
       <c r="BP66" t="n">
-        <v>6201</v>
+        <v>5401</v>
       </c>
       <c r="BQ66" t="n">
-        <v>6261</v>
+        <v>5491</v>
       </c>
       <c r="BR66" t="n">
-        <v>6341</v>
+        <v>5571</v>
       </c>
       <c r="BS66" t="n">
-        <v>6431</v>
+        <v>5681</v>
       </c>
       <c r="BT66" t="n">
-        <v>6377</v>
+        <v>5424.7</v>
       </c>
       <c r="BU66" t="n">
-        <v>6467</v>
+        <v>5524.7</v>
       </c>
       <c r="BV66" t="n">
-        <v>6547</v>
+        <v>5614.7</v>
       </c>
       <c r="BW66" t="n">
-        <v>6627</v>
+        <v>5714.7</v>
       </c>
       <c r="BX66" t="n">
-        <v>6583</v>
+        <v>5943.4</v>
       </c>
       <c r="BY66" t="n">
-        <v>6683</v>
+        <v>6023.4</v>
       </c>
       <c r="BZ66" t="n">
-        <v>6803</v>
+        <v>6123.4</v>
       </c>
       <c r="CA66" t="n">
-        <v>6943</v>
+        <v>6223.4</v>
       </c>
       <c r="CB66" t="n">
-        <v>6911</v>
+        <v>5918.3</v>
       </c>
       <c r="CC66" t="n">
-        <v>7041</v>
+        <v>6008.3</v>
       </c>
       <c r="CD66" t="n">
-        <v>7131</v>
+        <v>6078.3</v>
       </c>
       <c r="CE66" t="n">
-        <v>7181</v>
+        <v>6138.3</v>
       </c>
       <c r="CF66" t="n">
-        <v>7143</v>
+        <v>6295.4</v>
       </c>
       <c r="CG66" t="n">
-        <v>7163</v>
+        <v>6345.4</v>
       </c>
       <c r="CH66" t="n">
-        <v>7183</v>
+        <v>6375.4</v>
       </c>
       <c r="CI66" t="n">
-        <v>7203</v>
+        <v>6435.4</v>
       </c>
       <c r="CJ66" t="n">
-        <v>7207</v>
+        <v>6482</v>
       </c>
       <c r="CK66" t="n">
-        <v>7207</v>
+        <v>6472</v>
       </c>
       <c r="CL66" t="n">
-        <v>7207</v>
+        <v>6442</v>
       </c>
       <c r="CM66" t="n">
-        <v>7127</v>
+        <v>6382</v>
       </c>
       <c r="CN66" t="n">
-        <v>7072</v>
+        <v>6554.1</v>
       </c>
       <c r="CO66" t="n">
-        <v>7002</v>
+        <v>6474.1</v>
       </c>
       <c r="CP66" t="n">
-        <v>6882</v>
+        <v>6346.1</v>
       </c>
       <c r="CQ66" t="n">
-        <v>6712</v>
+        <v>6184.1</v>
       </c>
       <c r="CR66" t="n">
-        <v>6453</v>
+        <v>6330.8</v>
       </c>
       <c r="CS66" t="n">
-        <v>6313</v>
+        <v>6160.8</v>
       </c>
       <c r="CT66" t="n">
-        <v>6213</v>
+        <v>6040.8</v>
       </c>
       <c r="CU66" t="n">
-        <v>6103</v>
+        <v>5920.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" s="2" t="n">
-        <v>45862</v>
+        <v>45864</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45865</v>
       </c>
       <c r="D67" t="n">
-        <v>5257</v>
+        <v>5972.6</v>
       </c>
       <c r="E67" t="n">
-        <v>5217</v>
+        <v>5882.6</v>
       </c>
       <c r="F67" t="n">
-        <v>5157</v>
+        <v>5802.6</v>
       </c>
       <c r="G67" t="n">
-        <v>5067</v>
+        <v>5712.6</v>
       </c>
       <c r="H67" t="n">
-        <v>5504</v>
+        <v>5309</v>
       </c>
       <c r="I67" t="n">
-        <v>5424</v>
+        <v>5219</v>
       </c>
       <c r="J67" t="n">
-        <v>5364</v>
+        <v>5149</v>
       </c>
       <c r="K67" t="n">
-        <v>5304</v>
+        <v>5089</v>
       </c>
       <c r="L67" t="n">
-        <v>5251</v>
+        <v>4938</v>
       </c>
       <c r="M67" t="n">
-        <v>5211</v>
+        <v>4888</v>
       </c>
       <c r="N67" t="n">
-        <v>5181</v>
+        <v>4858</v>
       </c>
       <c r="O67" t="n">
-        <v>5161</v>
+        <v>4818</v>
       </c>
       <c r="P67" t="n">
-        <v>5118</v>
+        <v>4861</v>
       </c>
       <c r="Q67" t="n">
-        <v>5098</v>
+        <v>4841</v>
       </c>
       <c r="R67" t="n">
-        <v>5078</v>
+        <v>4811</v>
       </c>
       <c r="S67" t="n">
-        <v>5068</v>
+        <v>4791</v>
       </c>
       <c r="T67" t="n">
-        <v>5032</v>
+        <v>4726</v>
       </c>
       <c r="U67" t="n">
-        <v>5012</v>
+        <v>4706</v>
       </c>
       <c r="V67" t="n">
-        <v>4992</v>
+        <v>4686</v>
       </c>
       <c r="W67" t="n">
-        <v>4952</v>
+        <v>4676</v>
       </c>
       <c r="X67" t="n">
-        <v>4997</v>
+        <v>4704</v>
       </c>
       <c r="Y67" t="n">
-        <v>4987</v>
+        <v>4684</v>
       </c>
       <c r="Z67" t="n">
-        <v>4987</v>
+        <v>4664</v>
       </c>
       <c r="AA67" t="n">
-        <v>4987</v>
+        <v>4654</v>
       </c>
       <c r="AB67" t="n">
-        <v>5030</v>
+        <v>4633</v>
       </c>
       <c r="AC67" t="n">
-        <v>5030</v>
+        <v>4623</v>
       </c>
       <c r="AD67" t="n">
-        <v>5020</v>
+        <v>4613</v>
       </c>
       <c r="AE67" t="n">
-        <v>5010</v>
+        <v>4613</v>
       </c>
       <c r="AF67" t="n">
-        <v>5058</v>
+        <v>4581</v>
       </c>
       <c r="AG67" t="n">
-        <v>5028</v>
+        <v>4581</v>
       </c>
       <c r="AH67" t="n">
-        <v>4988</v>
+        <v>4591</v>
       </c>
       <c r="AI67" t="n">
-        <v>4958</v>
+        <v>4601</v>
       </c>
       <c r="AJ67" t="n">
-        <v>4986</v>
+        <v>4737</v>
       </c>
       <c r="AK67" t="n">
-        <v>4946</v>
+        <v>4747</v>
       </c>
       <c r="AL67" t="n">
-        <v>4906</v>
+        <v>4737</v>
       </c>
       <c r="AM67" t="n">
-        <v>4866</v>
+        <v>4737</v>
       </c>
       <c r="AN67" t="n">
-        <v>4767</v>
+        <v>4568</v>
       </c>
       <c r="AO67" t="n">
-        <v>4737</v>
+        <v>4548</v>
       </c>
       <c r="AP67" t="n">
-        <v>4707</v>
+        <v>4528</v>
       </c>
       <c r="AQ67" t="n">
-        <v>4687</v>
+        <v>4498</v>
       </c>
       <c r="AR67" t="n">
-        <v>4669</v>
+        <v>4563</v>
       </c>
       <c r="AS67" t="n">
-        <v>4659</v>
+        <v>4543</v>
       </c>
       <c r="AT67" t="n">
-        <v>4649</v>
+        <v>4523</v>
       </c>
       <c r="AU67" t="n">
-        <v>4639</v>
+        <v>4523</v>
       </c>
       <c r="AV67" t="n">
-        <v>4574</v>
+        <v>4594</v>
       </c>
       <c r="AW67" t="n">
-        <v>4574</v>
+        <v>4604</v>
       </c>
       <c r="AX67" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="AY67" t="n">
-        <v>4574</v>
+        <v>4634</v>
       </c>
       <c r="AZ67" t="n">
-        <v>4553</v>
+        <v>4690</v>
       </c>
       <c r="BA67" t="n">
-        <v>4563</v>
+        <v>4700</v>
       </c>
       <c r="BB67" t="n">
-        <v>4563</v>
+        <v>4720</v>
       </c>
       <c r="BC67" t="n">
-        <v>4573</v>
+        <v>4730</v>
       </c>
       <c r="BD67" t="n">
-        <v>4647</v>
+        <v>4777</v>
       </c>
       <c r="BE67" t="n">
-        <v>4657</v>
+        <v>4797</v>
       </c>
       <c r="BF67" t="n">
-        <v>4687</v>
+        <v>4817</v>
       </c>
       <c r="BG67" t="n">
-        <v>4707</v>
+        <v>4847</v>
       </c>
       <c r="BH67" t="n">
-        <v>4790</v>
+        <v>4942</v>
       </c>
       <c r="BI67" t="n">
-        <v>4820</v>
+        <v>4982</v>
       </c>
       <c r="BJ67" t="n">
-        <v>4850</v>
+        <v>5022</v>
       </c>
       <c r="BK67" t="n">
-        <v>4880</v>
+        <v>5062</v>
       </c>
       <c r="BL67" t="n">
-        <v>5024</v>
+        <v>5197</v>
       </c>
       <c r="BM67" t="n">
-        <v>5054</v>
+        <v>5237</v>
       </c>
       <c r="BN67" t="n">
-        <v>5094</v>
+        <v>5277</v>
       </c>
       <c r="BO67" t="n">
-        <v>5134</v>
+        <v>5327</v>
       </c>
       <c r="BP67" t="n">
-        <v>5198</v>
+        <v>5497</v>
       </c>
       <c r="BQ67" t="n">
-        <v>5258</v>
+        <v>5557</v>
       </c>
       <c r="BR67" t="n">
-        <v>5318</v>
+        <v>5627</v>
       </c>
       <c r="BS67" t="n">
-        <v>5398</v>
+        <v>5707</v>
       </c>
       <c r="BT67" t="n">
-        <v>5452</v>
+        <v>5821</v>
       </c>
       <c r="BU67" t="n">
-        <v>5542</v>
+        <v>5911</v>
       </c>
       <c r="BV67" t="n">
-        <v>5632</v>
+        <v>6001</v>
       </c>
       <c r="BW67" t="n">
-        <v>5732</v>
+        <v>6091</v>
       </c>
       <c r="BX67" t="n">
-        <v>5789</v>
+        <v>5959</v>
       </c>
       <c r="BY67" t="n">
-        <v>5889</v>
+        <v>6049</v>
       </c>
       <c r="BZ67" t="n">
-        <v>5999</v>
+        <v>6129</v>
       </c>
       <c r="CA67" t="n">
-        <v>6119</v>
+        <v>6209</v>
       </c>
       <c r="CB67" t="n">
-        <v>6047</v>
+        <v>6222</v>
       </c>
       <c r="CC67" t="n">
-        <v>6147</v>
+        <v>6282</v>
       </c>
       <c r="CD67" t="n">
-        <v>6237</v>
+        <v>6342</v>
       </c>
       <c r="CE67" t="n">
-        <v>6297</v>
+        <v>6392</v>
       </c>
       <c r="CF67" t="n">
-        <v>6491</v>
+        <v>6351</v>
       </c>
       <c r="CG67" t="n">
-        <v>6551</v>
+        <v>6401</v>
       </c>
       <c r="CH67" t="n">
-        <v>6551</v>
+        <v>6431</v>
       </c>
       <c r="CI67" t="n">
-        <v>6551</v>
+        <v>6461</v>
       </c>
       <c r="CJ67" t="n">
-        <v>6509</v>
+        <v>6452</v>
       </c>
       <c r="CK67" t="n">
-        <v>6489</v>
+        <v>6442</v>
       </c>
       <c r="CL67" t="n">
-        <v>6499</v>
+        <v>6412</v>
       </c>
       <c r="CM67" t="n">
-        <v>6499</v>
+        <v>6382</v>
       </c>
       <c r="CN67" t="n">
-        <v>6363</v>
+        <v>6419</v>
       </c>
       <c r="CO67" t="n">
-        <v>6333</v>
+        <v>6349</v>
       </c>
       <c r="CP67" t="n">
-        <v>6203</v>
+        <v>6249</v>
       </c>
       <c r="CQ67" t="n">
-        <v>6073</v>
+        <v>6139</v>
       </c>
       <c r="CR67" t="n">
-        <v>5954</v>
+        <v>5949</v>
       </c>
       <c r="CS67" t="n">
-        <v>5854</v>
+        <v>5849</v>
       </c>
       <c r="CT67" t="n">
-        <v>5734</v>
+        <v>5729</v>
       </c>
       <c r="CU67" t="n">
-        <v>5634</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" s="2" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="D68" t="n">
-        <v>4917</v>
+        <v>5367</v>
       </c>
       <c r="E68" t="n">
-        <v>4877</v>
+        <v>5287</v>
       </c>
       <c r="F68" t="n">
-        <v>4797</v>
+        <v>5227</v>
       </c>
       <c r="G68" t="n">
-        <v>4707</v>
+        <v>5157</v>
       </c>
       <c r="H68" t="n">
-        <v>5144</v>
+        <v>4845.2</v>
       </c>
       <c r="I68" t="n">
-        <v>5084</v>
+        <v>4785.2</v>
       </c>
       <c r="J68" t="n">
-        <v>5014</v>
+        <v>4735.2</v>
       </c>
       <c r="K68" t="n">
-        <v>4954</v>
+        <v>4685.2</v>
       </c>
       <c r="L68" t="n">
-        <v>4891</v>
+        <v>4688.8</v>
       </c>
       <c r="M68" t="n">
-        <v>4841</v>
+        <v>4658.8</v>
       </c>
       <c r="N68" t="n">
-        <v>4801</v>
+        <v>4638.8</v>
       </c>
       <c r="O68" t="n">
-        <v>4781</v>
+        <v>4628.8</v>
       </c>
       <c r="P68" t="n">
-        <v>4738</v>
+        <v>4584</v>
       </c>
       <c r="Q68" t="n">
-        <v>4738</v>
+        <v>4574</v>
       </c>
       <c r="R68" t="n">
-        <v>4738</v>
+        <v>4574</v>
       </c>
       <c r="S68" t="n">
-        <v>4738</v>
+        <v>4564</v>
       </c>
       <c r="T68" t="n">
-        <v>4702</v>
+        <v>4553.2</v>
       </c>
       <c r="U68" t="n">
-        <v>4732</v>
+        <v>4553.2</v>
       </c>
       <c r="V68" t="n">
-        <v>4732</v>
+        <v>4553.2</v>
       </c>
       <c r="W68" t="n">
-        <v>4752</v>
+        <v>4573.2</v>
       </c>
       <c r="X68" t="n">
-        <v>4797</v>
+        <v>4379</v>
       </c>
       <c r="Y68" t="n">
-        <v>4847</v>
+        <v>4439</v>
       </c>
       <c r="Z68" t="n">
-        <v>4907</v>
+        <v>4529</v>
       </c>
       <c r="AA68" t="n">
-        <v>4987</v>
+        <v>4619</v>
       </c>
       <c r="AB68" t="n">
-        <v>5140</v>
+        <v>4460.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>5260</v>
+        <v>4580.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>5400</v>
+        <v>4710.6</v>
       </c>
       <c r="AE68" t="n">
-        <v>5550</v>
+        <v>4830.6</v>
       </c>
       <c r="AF68" t="n">
-        <v>5768</v>
+        <v>4993.9</v>
       </c>
       <c r="AG68" t="n">
-        <v>5918</v>
+        <v>5103.9</v>
       </c>
       <c r="AH68" t="n">
-        <v>6048</v>
+        <v>5213.9</v>
       </c>
       <c r="AI68" t="n">
-        <v>6168</v>
+        <v>5303.9</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6336</v>
+        <v>5604.6</v>
       </c>
       <c r="AK68" t="n">
-        <v>6416</v>
+        <v>5674.6</v>
       </c>
       <c r="AL68" t="n">
-        <v>6466</v>
+        <v>5724.6</v>
       </c>
       <c r="AM68" t="n">
-        <v>6506</v>
+        <v>5754.6</v>
       </c>
       <c r="AN68" t="n">
-        <v>6437</v>
+        <v>5801.7</v>
       </c>
       <c r="AO68" t="n">
-        <v>6447</v>
+        <v>5801.7</v>
       </c>
       <c r="AP68" t="n">
-        <v>6427</v>
+        <v>5781.7</v>
       </c>
       <c r="AQ68" t="n">
-        <v>6407</v>
+        <v>5751.7</v>
       </c>
       <c r="AR68" t="n">
-        <v>6389</v>
+        <v>6247.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>6359</v>
+        <v>6217.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>6339</v>
+        <v>6187.5</v>
       </c>
       <c r="AU68" t="n">
-        <v>6319</v>
+        <v>6157.5</v>
       </c>
       <c r="AV68" t="n">
-        <v>6244</v>
+        <v>5825.8</v>
       </c>
       <c r="AW68" t="n">
-        <v>6244</v>
+        <v>5815.8</v>
       </c>
       <c r="AX68" t="n">
-        <v>6234</v>
+        <v>5815.8</v>
       </c>
       <c r="AY68" t="n">
-        <v>6234</v>
+        <v>5835.8</v>
       </c>
       <c r="AZ68" t="n">
-        <v>6213</v>
+        <v>5899.9</v>
       </c>
       <c r="BA68" t="n">
-        <v>6213</v>
+        <v>5929.9</v>
       </c>
       <c r="BB68" t="n">
-        <v>6213</v>
+        <v>5949.9</v>
       </c>
       <c r="BC68" t="n">
-        <v>6213</v>
+        <v>5969.9</v>
       </c>
       <c r="BD68" t="n">
-        <v>6267</v>
+        <v>5865.8</v>
       </c>
       <c r="BE68" t="n">
-        <v>6277</v>
+        <v>5875.8</v>
       </c>
       <c r="BF68" t="n">
-        <v>6277</v>
+        <v>5895.8</v>
       </c>
       <c r="BG68" t="n">
-        <v>6277</v>
+        <v>5905.8</v>
       </c>
       <c r="BH68" t="n">
-        <v>6330</v>
+        <v>5876.2</v>
       </c>
       <c r="BI68" t="n">
-        <v>6330</v>
+        <v>5896.2</v>
       </c>
       <c r="BJ68" t="n">
-        <v>6330</v>
+        <v>5916.2</v>
       </c>
       <c r="BK68" t="n">
-        <v>6330</v>
+        <v>5936.2</v>
       </c>
       <c r="BL68" t="n">
-        <v>6454</v>
+        <v>5805.4</v>
       </c>
       <c r="BM68" t="n">
-        <v>6464</v>
+        <v>5835.4</v>
       </c>
       <c r="BN68" t="n">
-        <v>6474</v>
+        <v>5865.4</v>
       </c>
       <c r="BO68" t="n">
-        <v>6504</v>
+        <v>5905.4</v>
       </c>
       <c r="BP68" t="n">
-        <v>6558</v>
+        <v>5580.2</v>
       </c>
       <c r="BQ68" t="n">
-        <v>6608</v>
+        <v>5620.2</v>
       </c>
       <c r="BR68" t="n">
-        <v>6668</v>
+        <v>5680.2</v>
       </c>
       <c r="BS68" t="n">
-        <v>6728</v>
+        <v>5730.2</v>
       </c>
       <c r="BT68" t="n">
-        <v>6772</v>
+        <v>5738.3</v>
       </c>
       <c r="BU68" t="n">
-        <v>6832</v>
+        <v>5798.3</v>
       </c>
       <c r="BV68" t="n">
-        <v>6902</v>
+        <v>5858.3</v>
       </c>
       <c r="BW68" t="n">
-        <v>6962</v>
+        <v>5908.3</v>
       </c>
       <c r="BX68" t="n">
-        <v>6979</v>
+        <v>5532.3</v>
       </c>
       <c r="BY68" t="n">
-        <v>7049</v>
+        <v>5592.3</v>
       </c>
       <c r="BZ68" t="n">
-        <v>7129</v>
+        <v>5652.3</v>
       </c>
       <c r="CA68" t="n">
-        <v>7229</v>
+        <v>5712.3</v>
       </c>
       <c r="CB68" t="n">
-        <v>7137</v>
+        <v>5706.9</v>
       </c>
       <c r="CC68" t="n">
-        <v>7217</v>
+        <v>5756.9</v>
       </c>
       <c r="CD68" t="n">
-        <v>7287</v>
+        <v>5806.9</v>
       </c>
       <c r="CE68" t="n">
-        <v>7327</v>
+        <v>5836.9</v>
       </c>
       <c r="CF68" t="n">
-        <v>7501</v>
+        <v>5749.2</v>
       </c>
       <c r="CG68" t="n">
-        <v>7551</v>
+        <v>5759.2</v>
       </c>
       <c r="CH68" t="n">
-        <v>7551</v>
+        <v>5779.2</v>
       </c>
       <c r="CI68" t="n">
-        <v>7551</v>
+        <v>5779.2</v>
       </c>
       <c r="CJ68" t="n">
-        <v>7509</v>
+        <v>5768.4</v>
       </c>
       <c r="CK68" t="n">
-        <v>7479</v>
+        <v>5738.4</v>
       </c>
       <c r="CL68" t="n">
-        <v>7449</v>
+        <v>5698.4</v>
       </c>
       <c r="CM68" t="n">
-        <v>7409</v>
+        <v>5618.4</v>
       </c>
       <c r="CN68" t="n">
-        <v>7243</v>
+        <v>5922.3</v>
       </c>
       <c r="CO68" t="n">
-        <v>7203</v>
+        <v>5832.3</v>
       </c>
       <c r="CP68" t="n">
-        <v>7063</v>
+        <v>5692.3</v>
       </c>
       <c r="CQ68" t="n">
-        <v>6853</v>
+        <v>5502.3</v>
       </c>
       <c r="CR68" t="n">
-        <v>6574</v>
+        <v>5617.8</v>
       </c>
       <c r="CS68" t="n">
-        <v>6374</v>
+        <v>5437.8</v>
       </c>
       <c r="CT68" t="n">
-        <v>6294</v>
+        <v>5297.8</v>
       </c>
       <c r="CU68" t="n">
-        <v>6184</v>
+        <v>5157.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45867</v>
       </c>
       <c r="D69" t="n">
-        <v>5417</v>
+        <v>5204.8</v>
       </c>
       <c r="E69" t="n">
-        <v>5367</v>
+        <v>5164.8</v>
       </c>
       <c r="F69" t="n">
-        <v>5307</v>
+        <v>5094.8</v>
       </c>
       <c r="G69" t="n">
-        <v>5227</v>
+        <v>4994.8</v>
       </c>
       <c r="H69" t="n">
-        <v>5664</v>
+        <v>5637.4</v>
       </c>
       <c r="I69" t="n">
-        <v>5604</v>
+        <v>5567.4</v>
       </c>
       <c r="J69" t="n">
-        <v>5544</v>
+        <v>5517.4</v>
       </c>
       <c r="K69" t="n">
-        <v>5494</v>
+        <v>5467.4</v>
       </c>
       <c r="L69" t="n">
-        <v>5441</v>
+        <v>5017.9</v>
       </c>
       <c r="M69" t="n">
-        <v>5391</v>
+        <v>4977.9</v>
       </c>
       <c r="N69" t="n">
-        <v>5351</v>
+        <v>4957.9</v>
       </c>
       <c r="O69" t="n">
-        <v>5311</v>
+        <v>4947.9</v>
       </c>
       <c r="P69" t="n">
-        <v>5268</v>
+        <v>5192.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>5248</v>
+        <v>5182.1</v>
       </c>
       <c r="R69" t="n">
-        <v>5238</v>
+        <v>5182.1</v>
       </c>
       <c r="S69" t="n">
-        <v>5218</v>
+        <v>5192.1</v>
       </c>
       <c r="T69" t="n">
-        <v>5212</v>
+        <v>5262.700000000001</v>
       </c>
       <c r="U69" t="n">
-        <v>5212</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="V69" t="n">
-        <v>5222</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="W69" t="n">
-        <v>5242</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="X69" t="n">
-        <v>5287</v>
+        <v>5213.1</v>
       </c>
       <c r="Y69" t="n">
-        <v>5317</v>
+        <v>5213.1</v>
       </c>
       <c r="Z69" t="n">
-        <v>5357</v>
+        <v>5223.1</v>
       </c>
       <c r="AA69" t="n">
-        <v>5417</v>
+        <v>5263.1</v>
       </c>
       <c r="AB69" t="n">
-        <v>5530</v>
+        <v>5310</v>
       </c>
       <c r="AC69" t="n">
+        <v>5410</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>5510</v>
+      </c>
+      <c r="AE69" t="n">
         <v>5610</v>
       </c>
-      <c r="AD69" t="n">
-        <v>5700</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>5800</v>
-      </c>
       <c r="AF69" t="n">
-        <v>5968</v>
+        <v>5329.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>6068</v>
+        <v>5429.2</v>
       </c>
       <c r="AH69" t="n">
-        <v>6158</v>
+        <v>5519.2</v>
       </c>
       <c r="AI69" t="n">
-        <v>6238</v>
+        <v>5599.2</v>
       </c>
       <c r="AJ69" t="n">
-        <v>6366</v>
+        <v>5678.799999999999</v>
       </c>
       <c r="AK69" t="n">
-        <v>6406</v>
+        <v>5738.799999999999</v>
       </c>
       <c r="AL69" t="n">
-        <v>6406</v>
+        <v>5778.799999999999</v>
       </c>
       <c r="AM69" t="n">
-        <v>6406</v>
+        <v>5798.799999999999</v>
       </c>
       <c r="AN69" t="n">
-        <v>6337</v>
+        <v>5848.4</v>
       </c>
       <c r="AO69" t="n">
-        <v>6307</v>
+        <v>5848.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>6267</v>
+        <v>5848.4</v>
       </c>
       <c r="AQ69" t="n">
-        <v>6227</v>
+        <v>5848.4</v>
       </c>
       <c r="AR69" t="n">
-        <v>6189</v>
+        <v>5981.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>6159</v>
+        <v>5961.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>6139</v>
+        <v>5931.8</v>
       </c>
       <c r="AU69" t="n">
-        <v>6129</v>
+        <v>5891.8</v>
       </c>
       <c r="AV69" t="n">
-        <v>6064</v>
+        <v>5997.9</v>
       </c>
       <c r="AW69" t="n">
-        <v>6074</v>
+        <v>5977.9</v>
       </c>
       <c r="AX69" t="n">
-        <v>6084</v>
+        <v>5957.9</v>
       </c>
       <c r="AY69" t="n">
-        <v>6094</v>
+        <v>5947.9</v>
       </c>
       <c r="AZ69" t="n">
-        <v>6063</v>
+        <v>5744.1</v>
       </c>
       <c r="BA69" t="n">
-        <v>6063</v>
+        <v>5744.1</v>
       </c>
       <c r="BB69" t="n">
-        <v>6053</v>
+        <v>5744.1</v>
       </c>
       <c r="BC69" t="n">
-        <v>6043</v>
+        <v>5754.1</v>
       </c>
       <c r="BD69" t="n">
-        <v>6087</v>
+        <v>5504.9</v>
       </c>
       <c r="BE69" t="n">
-        <v>6077</v>
+        <v>5544.9</v>
       </c>
       <c r="BF69" t="n">
-        <v>6067</v>
+        <v>5544.9</v>
       </c>
       <c r="BG69" t="n">
-        <v>6067</v>
+        <v>5554.9</v>
       </c>
       <c r="BH69" t="n">
-        <v>6130</v>
+        <v>5481.7</v>
       </c>
       <c r="BI69" t="n">
-        <v>6140</v>
+        <v>5481.7</v>
       </c>
       <c r="BJ69" t="n">
-        <v>6160</v>
+        <v>5481.7</v>
       </c>
       <c r="BK69" t="n">
-        <v>6190</v>
+        <v>5481.7</v>
       </c>
       <c r="BL69" t="n">
-        <v>6324</v>
+        <v>5453.5</v>
       </c>
       <c r="BM69" t="n">
-        <v>6354</v>
+        <v>5473.5</v>
       </c>
       <c r="BN69" t="n">
-        <v>6394</v>
+        <v>5483.5</v>
       </c>
       <c r="BO69" t="n">
-        <v>6424</v>
+        <v>5503.5</v>
       </c>
       <c r="BP69" t="n">
-        <v>6498</v>
+        <v>5473.7</v>
       </c>
       <c r="BQ69" t="n">
-        <v>6548</v>
+        <v>5503.7</v>
       </c>
       <c r="BR69" t="n">
-        <v>6608</v>
+        <v>5543.7</v>
       </c>
       <c r="BS69" t="n">
-        <v>6668</v>
+        <v>5583.7</v>
       </c>
       <c r="BT69" t="n">
-        <v>6702</v>
+        <v>5487.3</v>
       </c>
       <c r="BU69" t="n">
-        <v>6762</v>
+        <v>5547.3</v>
       </c>
       <c r="BV69" t="n">
-        <v>6812</v>
+        <v>5587.3</v>
       </c>
       <c r="BW69" t="n">
-        <v>6862</v>
+        <v>5637.3</v>
       </c>
       <c r="BX69" t="n">
-        <v>6859</v>
+        <v>5925.2</v>
       </c>
       <c r="BY69" t="n">
-        <v>6909</v>
+        <v>5975.2</v>
       </c>
       <c r="BZ69" t="n">
-        <v>6979</v>
+        <v>6015.2</v>
       </c>
       <c r="CA69" t="n">
-        <v>7059</v>
+        <v>6055.2</v>
       </c>
       <c r="CB69" t="n">
-        <v>6957</v>
+        <v>6108.5</v>
       </c>
       <c r="CC69" t="n">
-        <v>7017</v>
+        <v>6168.5</v>
       </c>
       <c r="CD69" t="n">
-        <v>7067</v>
+        <v>6208.5</v>
       </c>
       <c r="CE69" t="n">
-        <v>7097</v>
+        <v>6238.5</v>
       </c>
       <c r="CF69" t="n">
-        <v>7241</v>
+        <v>6481</v>
       </c>
       <c r="CG69" t="n">
-        <v>7251</v>
+        <v>6521</v>
       </c>
       <c r="CH69" t="n">
-        <v>7251</v>
+        <v>6541</v>
       </c>
       <c r="CI69" t="n">
-        <v>7251</v>
+        <v>6581</v>
       </c>
       <c r="CJ69" t="n">
-        <v>7209</v>
+        <v>6635.9</v>
       </c>
       <c r="CK69" t="n">
-        <v>7209</v>
+        <v>6625.9</v>
       </c>
       <c r="CL69" t="n">
-        <v>7199</v>
+        <v>6595.9</v>
       </c>
       <c r="CM69" t="n">
-        <v>7159</v>
+        <v>6485.9</v>
       </c>
       <c r="CN69" t="n">
-        <v>6983</v>
+        <v>6420.4</v>
       </c>
       <c r="CO69" t="n">
-        <v>6933</v>
+        <v>6250.4</v>
       </c>
       <c r="CP69" t="n">
-        <v>6813</v>
+        <v>6100.4</v>
       </c>
       <c r="CQ69" t="n">
-        <v>6643</v>
+        <v>5940.4</v>
       </c>
       <c r="CR69" t="n">
-        <v>6434</v>
+        <v>6239.6</v>
       </c>
       <c r="CS69" t="n">
-        <v>6294</v>
+        <v>6089.6</v>
       </c>
       <c r="CT69" t="n">
-        <v>6194</v>
+        <v>5979.6</v>
       </c>
       <c r="CU69" t="n">
-        <v>6084</v>
+        <v>5869.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45868</v>
       </c>
       <c r="D70" t="n">
-        <v>5357</v>
+        <v>5695.9</v>
       </c>
       <c r="E70" t="n">
-        <v>5317</v>
+        <v>5645.9</v>
       </c>
       <c r="F70" t="n">
-        <v>5257</v>
+        <v>5595.9</v>
       </c>
       <c r="G70" t="n">
-        <v>5167</v>
+        <v>5545.9</v>
       </c>
       <c r="H70" t="n">
-        <v>5604</v>
+        <v>5454.6</v>
       </c>
       <c r="I70" t="n">
-        <v>5524</v>
+        <v>5404.6</v>
       </c>
       <c r="J70" t="n">
-        <v>5464</v>
+        <v>5364.6</v>
       </c>
       <c r="K70" t="n">
-        <v>5404</v>
+        <v>5314.6</v>
       </c>
       <c r="L70" t="n">
-        <v>5351</v>
+        <v>5379.4</v>
       </c>
       <c r="M70" t="n">
-        <v>5311</v>
+        <v>5329.4</v>
       </c>
       <c r="N70" t="n">
-        <v>5281</v>
+        <v>5289.4</v>
       </c>
       <c r="O70" t="n">
-        <v>5261</v>
+        <v>5249.4</v>
       </c>
       <c r="P70" t="n">
-        <v>5238</v>
+        <v>5245.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>5228</v>
+        <v>5215.8</v>
       </c>
       <c r="R70" t="n">
-        <v>5228</v>
+        <v>5215.8</v>
       </c>
       <c r="S70" t="n">
-        <v>5228</v>
+        <v>5205.8</v>
       </c>
       <c r="T70" t="n">
-        <v>5212</v>
+        <v>5107.9</v>
       </c>
       <c r="U70" t="n">
-        <v>5212</v>
+        <v>5097.9</v>
       </c>
       <c r="V70" t="n">
-        <v>5202</v>
+        <v>5097.9</v>
       </c>
       <c r="W70" t="n">
-        <v>5212</v>
+        <v>5107.9</v>
       </c>
       <c r="X70" t="n">
-        <v>5247</v>
+        <v>4919.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>5267</v>
+        <v>4949.4</v>
       </c>
       <c r="Z70" t="n">
-        <v>5307</v>
+        <v>4999.4</v>
       </c>
       <c r="AA70" t="n">
-        <v>5357</v>
+        <v>5059.4</v>
       </c>
       <c r="AB70" t="n">
-        <v>5470</v>
+        <v>4852.8</v>
       </c>
       <c r="AC70" t="n">
-        <v>5550</v>
+        <v>4932.8</v>
       </c>
       <c r="AD70" t="n">
-        <v>5650</v>
+        <v>5022.8</v>
       </c>
       <c r="AE70" t="n">
-        <v>5760</v>
+        <v>5132.8</v>
       </c>
       <c r="AF70" t="n">
-        <v>5928</v>
+        <v>5310.2</v>
       </c>
       <c r="AG70" t="n">
-        <v>6038</v>
+        <v>5430.2</v>
       </c>
       <c r="AH70" t="n">
-        <v>6138</v>
+        <v>5540.2</v>
       </c>
       <c r="AI70" t="n">
-        <v>6228</v>
+        <v>5630.2</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6366</v>
+        <v>5446.6</v>
       </c>
       <c r="AK70" t="n">
-        <v>6426</v>
+        <v>5526.6</v>
       </c>
       <c r="AL70" t="n">
-        <v>6466</v>
+        <v>5566.6</v>
       </c>
       <c r="AM70" t="n">
-        <v>6486</v>
+        <v>5596.6</v>
       </c>
       <c r="AN70" t="n">
-        <v>6417</v>
+        <v>5748.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>6417</v>
+        <v>5728.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>6397</v>
+        <v>5698.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>6377</v>
+        <v>5668.5</v>
       </c>
       <c r="AR70" t="n">
-        <v>6359</v>
+        <v>5968</v>
       </c>
       <c r="AS70" t="n">
-        <v>6339</v>
+        <v>5938</v>
       </c>
       <c r="AT70" t="n">
-        <v>6319</v>
+        <v>5898</v>
       </c>
       <c r="AU70" t="n">
-        <v>6309</v>
+        <v>5868</v>
       </c>
       <c r="AV70" t="n">
-        <v>6234</v>
+        <v>6007.1</v>
       </c>
       <c r="AW70" t="n">
-        <v>6234</v>
+        <v>5987.1</v>
       </c>
       <c r="AX70" t="n">
-        <v>6234</v>
+        <v>5977.1</v>
       </c>
       <c r="AY70" t="n">
-        <v>6234</v>
+        <v>5957.1</v>
       </c>
       <c r="AZ70" t="n">
-        <v>6213</v>
+        <v>6041.3</v>
       </c>
       <c r="BA70" t="n">
-        <v>6213</v>
+        <v>6021.3</v>
       </c>
       <c r="BB70" t="n">
-        <v>6213</v>
+        <v>6001.3</v>
       </c>
       <c r="BC70" t="n">
-        <v>6223</v>
+        <v>5991.3</v>
       </c>
       <c r="BD70" t="n">
-        <v>6287</v>
+        <v>5912.5</v>
       </c>
       <c r="BE70" t="n">
-        <v>6307</v>
+        <v>5912.5</v>
       </c>
       <c r="BF70" t="n">
-        <v>6317</v>
+        <v>5912.5</v>
       </c>
       <c r="BG70" t="n">
-        <v>6347</v>
+        <v>5912.5</v>
       </c>
       <c r="BH70" t="n">
-        <v>6420</v>
+        <v>5991.6</v>
       </c>
       <c r="BI70" t="n">
-        <v>6450</v>
+        <v>5991.6</v>
       </c>
       <c r="BJ70" t="n">
-        <v>6470</v>
+        <v>5991.6</v>
       </c>
       <c r="BK70" t="n">
-        <v>6490</v>
+        <v>6001.6</v>
       </c>
       <c r="BL70" t="n">
-        <v>6624</v>
+        <v>5997.7</v>
       </c>
       <c r="BM70" t="n">
-        <v>6634</v>
+        <v>6017.7</v>
       </c>
       <c r="BN70" t="n">
-        <v>6654</v>
+        <v>6037.7</v>
       </c>
       <c r="BO70" t="n">
-        <v>6674</v>
+        <v>6057.7</v>
       </c>
       <c r="BP70" t="n">
-        <v>6728</v>
+        <v>5816.5</v>
       </c>
       <c r="BQ70" t="n">
-        <v>6758</v>
+        <v>5856.5</v>
       </c>
       <c r="BR70" t="n">
-        <v>6798</v>
+        <v>5906.5</v>
       </c>
       <c r="BS70" t="n">
-        <v>6838</v>
+        <v>5946.5</v>
       </c>
       <c r="BT70" t="n">
-        <v>6852</v>
+        <v>5907.8</v>
       </c>
       <c r="BU70" t="n">
-        <v>6882</v>
+        <v>5967.8</v>
       </c>
       <c r="BV70" t="n">
-        <v>6902</v>
+        <v>6017.8</v>
       </c>
       <c r="BW70" t="n">
-        <v>6922</v>
+        <v>6067.8</v>
       </c>
       <c r="BX70" t="n">
-        <v>6899</v>
+        <v>5808.4</v>
       </c>
       <c r="BY70" t="n">
-        <v>6919</v>
+        <v>5858.4</v>
       </c>
       <c r="BZ70" t="n">
-        <v>6939</v>
+        <v>5928.4</v>
       </c>
       <c r="CA70" t="n">
-        <v>6969</v>
+        <v>5998.4</v>
       </c>
       <c r="CB70" t="n">
-        <v>6827</v>
+        <v>5973.5</v>
       </c>
       <c r="CC70" t="n">
-        <v>6857</v>
+        <v>6053.5</v>
       </c>
       <c r="CD70" t="n">
-        <v>6877</v>
+        <v>6113.5</v>
       </c>
       <c r="CE70" t="n">
-        <v>6917</v>
+        <v>6153.5</v>
       </c>
       <c r="CF70" t="n">
-        <v>7061</v>
+        <v>6080.6</v>
       </c>
       <c r="CG70" t="n">
-        <v>7091</v>
+        <v>6110.6</v>
       </c>
       <c r="CH70" t="n">
-        <v>7121</v>
+        <v>6130.6</v>
       </c>
       <c r="CI70" t="n">
-        <v>7151</v>
+        <v>6170.6</v>
       </c>
       <c r="CJ70" t="n">
-        <v>7109</v>
+        <v>6069.5</v>
       </c>
       <c r="CK70" t="n">
-        <v>7079</v>
+        <v>6029.5</v>
       </c>
       <c r="CL70" t="n">
-        <v>7049</v>
+        <v>5979.5</v>
       </c>
       <c r="CM70" t="n">
-        <v>6989</v>
+        <v>5869.5</v>
       </c>
       <c r="CN70" t="n">
-        <v>6803</v>
+        <v>6176</v>
       </c>
       <c r="CO70" t="n">
-        <v>6713</v>
+        <v>6016</v>
       </c>
       <c r="CP70" t="n">
-        <v>6593</v>
+        <v>5866</v>
       </c>
       <c r="CQ70" t="n">
-        <v>6423</v>
+        <v>5706</v>
       </c>
       <c r="CR70" t="n">
-        <v>6174</v>
+        <v>5837.3</v>
       </c>
       <c r="CS70" t="n">
-        <v>6004</v>
+        <v>5687.3</v>
       </c>
       <c r="CT70" t="n">
-        <v>5914</v>
+        <v>5577.3</v>
       </c>
       <c r="CU70" t="n">
-        <v>5804</v>
+        <v>5467.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" s="2" t="n">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>45869</v>
       </c>
       <c r="D71" t="n">
-        <v>5257</v>
+        <v>5635.9</v>
       </c>
       <c r="E71" t="n">
-        <v>5217</v>
+        <v>5605.9</v>
       </c>
       <c r="F71" t="n">
-        <v>5157</v>
+        <v>5525.9</v>
       </c>
       <c r="G71" t="n">
-        <v>5087</v>
+        <v>5445.9</v>
       </c>
       <c r="H71" t="n">
-        <v>5544</v>
+        <v>5334.6</v>
       </c>
       <c r="I71" t="n">
-        <v>5494</v>
+        <v>5274.6</v>
       </c>
       <c r="J71" t="n">
-        <v>5444</v>
+        <v>5214.6</v>
       </c>
       <c r="K71" t="n">
-        <v>5384</v>
+        <v>5164.6</v>
       </c>
       <c r="L71" t="n">
-        <v>5331</v>
+        <v>5219.4</v>
       </c>
       <c r="M71" t="n">
-        <v>5281</v>
+        <v>5179.4</v>
       </c>
       <c r="N71" t="n">
-        <v>5241</v>
+        <v>5149.4</v>
       </c>
       <c r="O71" t="n">
-        <v>5201</v>
+        <v>5139.4</v>
       </c>
       <c r="P71" t="n">
-        <v>5158</v>
+        <v>5175.8</v>
       </c>
       <c r="Q71" t="n">
-        <v>5148</v>
+        <v>5175.8</v>
       </c>
       <c r="R71" t="n">
-        <v>5138</v>
+        <v>5175.8</v>
       </c>
       <c r="S71" t="n">
-        <v>5128</v>
+        <v>5165.8</v>
       </c>
       <c r="T71" t="n">
-        <v>5112</v>
+        <v>5067.9</v>
       </c>
       <c r="U71" t="n">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="V71" t="n">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="W71" t="n">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="X71" t="n">
-        <v>5157</v>
+        <v>4869.4</v>
       </c>
       <c r="Y71" t="n">
-        <v>5187</v>
+        <v>4909.4</v>
       </c>
       <c r="Z71" t="n">
-        <v>5237</v>
+        <v>4949.4</v>
       </c>
       <c r="AA71" t="n">
-        <v>5297</v>
+        <v>5009.4</v>
       </c>
       <c r="AB71" t="n">
-        <v>5410</v>
+        <v>4812.8</v>
       </c>
       <c r="AC71" t="n">
-        <v>5500</v>
+        <v>4912.8</v>
       </c>
       <c r="AD71" t="n">
-        <v>5600</v>
+        <v>5012.8</v>
       </c>
       <c r="AE71" t="n">
-        <v>5710</v>
+        <v>5132.8</v>
       </c>
       <c r="AF71" t="n">
-        <v>5898</v>
+        <v>5290.2</v>
       </c>
       <c r="AG71" t="n">
-        <v>6008</v>
+        <v>5400.2</v>
       </c>
       <c r="AH71" t="n">
-        <v>6118</v>
+        <v>5500.2</v>
       </c>
       <c r="AI71" t="n">
-        <v>6208</v>
+        <v>5590.2</v>
       </c>
       <c r="AJ71" t="n">
-        <v>6356</v>
+        <v>5366.6</v>
       </c>
       <c r="AK71" t="n">
-        <v>6416</v>
+        <v>5416.6</v>
       </c>
       <c r="AL71" t="n">
-        <v>6456</v>
+        <v>5436.6</v>
       </c>
       <c r="AM71" t="n">
-        <v>6486</v>
+        <v>5436.6</v>
       </c>
       <c r="AN71" t="n">
-        <v>6427</v>
+        <v>5588.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>6417</v>
+        <v>5588.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>6407</v>
+        <v>5558.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>6387</v>
+        <v>5528.5</v>
       </c>
       <c r="AR71" t="n">
-        <v>6369</v>
+        <v>5828</v>
       </c>
       <c r="AS71" t="n">
-        <v>6359</v>
+        <v>5798</v>
       </c>
       <c r="AT71" t="n">
-        <v>6349</v>
+        <v>5778</v>
       </c>
       <c r="AU71" t="n">
-        <v>6349</v>
+        <v>5768</v>
       </c>
       <c r="AV71" t="n">
-        <v>6294</v>
+        <v>5937.1</v>
       </c>
       <c r="AW71" t="n">
-        <v>6304</v>
+        <v>5937.1</v>
       </c>
       <c r="AX71" t="n">
-        <v>6314</v>
+        <v>5937.1</v>
       </c>
       <c r="AY71" t="n">
-        <v>6324</v>
+        <v>5937.1</v>
       </c>
       <c r="AZ71" t="n">
-        <v>6303</v>
+        <v>6051.3</v>
       </c>
       <c r="BA71" t="n">
-        <v>6303</v>
+        <v>6051.3</v>
       </c>
       <c r="BB71" t="n">
-        <v>6303</v>
+        <v>6041.3</v>
       </c>
       <c r="BC71" t="n">
-        <v>6303</v>
+        <v>6031.3</v>
       </c>
       <c r="BD71" t="n">
-        <v>6367</v>
+        <v>5942.5</v>
       </c>
       <c r="BE71" t="n">
-        <v>6377</v>
+        <v>5942.5</v>
       </c>
       <c r="BF71" t="n">
-        <v>6397</v>
+        <v>5942.5</v>
       </c>
       <c r="BG71" t="n">
-        <v>6417</v>
+        <v>5952.5</v>
       </c>
       <c r="BH71" t="n">
-        <v>6500</v>
+        <v>6051.6</v>
       </c>
       <c r="BI71" t="n">
-        <v>6530</v>
+        <v>6071.6</v>
       </c>
       <c r="BJ71" t="n">
-        <v>6550</v>
+        <v>6091.6</v>
       </c>
       <c r="BK71" t="n">
-        <v>6580</v>
+        <v>6111.6</v>
       </c>
       <c r="BL71" t="n">
-        <v>6704</v>
+        <v>6087.7</v>
       </c>
       <c r="BM71" t="n">
-        <v>6724</v>
+        <v>6107.7</v>
       </c>
       <c r="BN71" t="n">
-        <v>6754</v>
+        <v>6127.7</v>
       </c>
       <c r="BO71" t="n">
-        <v>6764</v>
+        <v>6157.7</v>
       </c>
       <c r="BP71" t="n">
-        <v>6818</v>
+        <v>5916.5</v>
       </c>
       <c r="BQ71" t="n">
-        <v>6838</v>
+        <v>5956.5</v>
       </c>
       <c r="BR71" t="n">
-        <v>6858</v>
+        <v>6006.5</v>
       </c>
       <c r="BS71" t="n">
-        <v>6898</v>
+        <v>6056.5</v>
       </c>
       <c r="BT71" t="n">
-        <v>6922</v>
+        <v>6017.8</v>
       </c>
       <c r="BU71" t="n">
-        <v>6972</v>
+        <v>6067.8</v>
       </c>
       <c r="BV71" t="n">
-        <v>7002</v>
+        <v>6117.8</v>
       </c>
       <c r="BW71" t="n">
-        <v>7012</v>
+        <v>6157.8</v>
       </c>
       <c r="BX71" t="n">
-        <v>6969</v>
+        <v>5858.4</v>
       </c>
       <c r="BY71" t="n">
-        <v>6979</v>
+        <v>5898.4</v>
       </c>
       <c r="BZ71" t="n">
-        <v>6999</v>
+        <v>5958.4</v>
       </c>
       <c r="CA71" t="n">
-        <v>7039</v>
+        <v>6038.4</v>
       </c>
       <c r="CB71" t="n">
-        <v>6897</v>
+        <v>6043.5</v>
       </c>
       <c r="CC71" t="n">
-        <v>6947</v>
+        <v>6123.5</v>
       </c>
       <c r="CD71" t="n">
-        <v>6977</v>
+        <v>6183.5</v>
       </c>
       <c r="CE71" t="n">
-        <v>6987</v>
+        <v>6213.5</v>
       </c>
       <c r="CF71" t="n">
-        <v>7131</v>
+        <v>6140.6</v>
       </c>
       <c r="CG71" t="n">
-        <v>7151</v>
+        <v>6170.6</v>
       </c>
       <c r="CH71" t="n">
-        <v>7181</v>
+        <v>6170.6</v>
       </c>
       <c r="CI71" t="n">
-        <v>7231</v>
+        <v>6170.6</v>
       </c>
       <c r="CJ71" t="n">
-        <v>7199</v>
+        <v>6059.5</v>
       </c>
       <c r="CK71" t="n">
-        <v>7169</v>
+        <v>6059.5</v>
       </c>
       <c r="CL71" t="n">
-        <v>7149</v>
+        <v>6039.5</v>
       </c>
       <c r="CM71" t="n">
-        <v>7079</v>
+        <v>5959.5</v>
       </c>
       <c r="CN71" t="n">
-        <v>6873</v>
+        <v>6296</v>
       </c>
       <c r="CO71" t="n">
-        <v>6773</v>
+        <v>6216</v>
       </c>
       <c r="CP71" t="n">
-        <v>6643</v>
+        <v>6076</v>
       </c>
       <c r="CQ71" t="n">
-        <v>6433</v>
+        <v>5896</v>
       </c>
       <c r="CR71" t="n">
-        <v>6204</v>
+        <v>5937.3</v>
       </c>
       <c r="CS71" t="n">
-        <v>6034</v>
+        <v>5757.3</v>
       </c>
       <c r="CT71" t="n">
-        <v>5944</v>
+        <v>5677.3</v>
       </c>
       <c r="CU71" t="n">
-        <v>5834</v>
+        <v>5567.3</v>
       </c>
     </row>
     <row r="72">

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -7782,2287 +7782,2675 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="D27" t="n">
-        <v>5121</v>
+        <v>5058</v>
       </c>
       <c r="E27" t="n">
-        <v>5061</v>
+        <v>4998</v>
       </c>
       <c r="F27" t="n">
-        <v>5011</v>
+        <v>4938</v>
       </c>
       <c r="G27" t="n">
-        <v>4941</v>
+        <v>4878</v>
       </c>
       <c r="H27" t="n">
-        <v>4813</v>
+        <v>4909.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4753</v>
+        <v>4849.3</v>
       </c>
       <c r="J27" t="n">
-        <v>4703</v>
+        <v>4809.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4653</v>
+        <v>4769.3</v>
       </c>
       <c r="L27" t="n">
-        <v>4641</v>
+        <v>4804.8</v>
       </c>
       <c r="M27" t="n">
-        <v>4601</v>
+        <v>4774.8</v>
       </c>
       <c r="N27" t="n">
-        <v>4581</v>
+        <v>4764.8</v>
       </c>
       <c r="O27" t="n">
-        <v>4561</v>
+        <v>4754.8</v>
       </c>
       <c r="P27" t="n">
-        <v>4558</v>
+        <v>4756</v>
       </c>
       <c r="Q27" t="n">
-        <v>4548</v>
+        <v>4746</v>
       </c>
       <c r="R27" t="n">
-        <v>4558</v>
+        <v>4746</v>
       </c>
       <c r="S27" t="n">
-        <v>4558</v>
+        <v>4746</v>
       </c>
       <c r="T27" t="n">
-        <v>4592</v>
+        <v>4711.4</v>
       </c>
       <c r="U27" t="n">
-        <v>4602</v>
+        <v>4711.4</v>
       </c>
       <c r="V27" t="n">
-        <v>4612</v>
+        <v>4711.4</v>
       </c>
       <c r="W27" t="n">
-        <v>4632</v>
+        <v>4721.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4651</v>
+        <v>4692.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>4691</v>
+        <v>4732.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>4741</v>
+        <v>4782.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>4801</v>
+        <v>4822.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>4870</v>
+        <v>4659</v>
       </c>
       <c r="AC27" t="n">
-        <v>4950</v>
+        <v>4719</v>
       </c>
       <c r="AD27" t="n">
-        <v>5040</v>
+        <v>4809</v>
       </c>
       <c r="AE27" t="n">
-        <v>5130</v>
+        <v>4899</v>
       </c>
       <c r="AF27" t="n">
-        <v>5273</v>
+        <v>5315.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>5353</v>
+        <v>5435.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>5423</v>
+        <v>5495.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>5473</v>
+        <v>5525.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5513</v>
+        <v>5632.8</v>
       </c>
       <c r="AK27" t="n">
-        <v>5523</v>
+        <v>5632.8</v>
       </c>
       <c r="AL27" t="n">
-        <v>5503</v>
+        <v>5622.8</v>
       </c>
       <c r="AM27" t="n">
-        <v>5463</v>
+        <v>5582.8</v>
       </c>
       <c r="AN27" t="n">
-        <v>5298</v>
+        <v>5257.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>5218</v>
+        <v>5167.8</v>
       </c>
       <c r="AP27" t="n">
-        <v>5128</v>
+        <v>5097.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5038</v>
+        <v>5017.8</v>
       </c>
       <c r="AR27" t="n">
-        <v>4917</v>
+        <v>5403.8</v>
       </c>
       <c r="AS27" t="n">
-        <v>4837</v>
+        <v>5323.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>4767</v>
+        <v>5253.8</v>
       </c>
       <c r="AU27" t="n">
-        <v>4717</v>
+        <v>5203.8</v>
       </c>
       <c r="AV27" t="n">
-        <v>4744</v>
+        <v>5438.9</v>
       </c>
       <c r="AW27" t="n">
-        <v>4714</v>
+        <v>5408.9</v>
       </c>
       <c r="AX27" t="n">
-        <v>4684</v>
+        <v>5398.9</v>
       </c>
       <c r="AY27" t="n">
-        <v>4664</v>
+        <v>5388.9</v>
       </c>
       <c r="AZ27" t="n">
-        <v>4704</v>
+        <v>5636.4</v>
       </c>
       <c r="BA27" t="n">
-        <v>4684</v>
+        <v>5636.4</v>
       </c>
       <c r="BB27" t="n">
-        <v>4674</v>
+        <v>5636.4</v>
       </c>
       <c r="BC27" t="n">
-        <v>4674</v>
+        <v>5636.4</v>
       </c>
       <c r="BD27" t="n">
-        <v>4626</v>
+        <v>5588.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>4626</v>
+        <v>5608.5</v>
       </c>
       <c r="BF27" t="n">
-        <v>4646</v>
+        <v>5628.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>4676</v>
+        <v>5658.5</v>
       </c>
       <c r="BH27" t="n">
-        <v>4777</v>
+        <v>5750.9</v>
       </c>
       <c r="BI27" t="n">
-        <v>4827</v>
+        <v>5800.9</v>
       </c>
       <c r="BJ27" t="n">
-        <v>4877</v>
+        <v>5840.9</v>
       </c>
       <c r="BK27" t="n">
-        <v>4937</v>
+        <v>5890.9</v>
       </c>
       <c r="BL27" t="n">
-        <v>5125</v>
+        <v>5934.5</v>
       </c>
       <c r="BM27" t="n">
-        <v>5185</v>
+        <v>5994.5</v>
       </c>
       <c r="BN27" t="n">
-        <v>5245</v>
+        <v>6054.5</v>
       </c>
       <c r="BO27" t="n">
-        <v>5305</v>
+        <v>6114.5</v>
       </c>
       <c r="BP27" t="n">
-        <v>5449</v>
+        <v>5893.3</v>
       </c>
       <c r="BQ27" t="n">
-        <v>5529</v>
+        <v>5973.3</v>
       </c>
       <c r="BR27" t="n">
-        <v>5619</v>
+        <v>6073.3</v>
       </c>
       <c r="BS27" t="n">
-        <v>5719</v>
+        <v>6173.3</v>
       </c>
       <c r="BT27" t="n">
-        <v>5747</v>
+        <v>5944.3</v>
       </c>
       <c r="BU27" t="n">
-        <v>5847</v>
+        <v>6034.3</v>
       </c>
       <c r="BV27" t="n">
-        <v>5937</v>
+        <v>6134.3</v>
       </c>
       <c r="BW27" t="n">
-        <v>6027</v>
+        <v>6224.3</v>
       </c>
       <c r="BX27" t="n">
-        <v>6141</v>
+        <v>6250.6</v>
       </c>
       <c r="BY27" t="n">
-        <v>6231</v>
+        <v>6350.6</v>
       </c>
       <c r="BZ27" t="n">
-        <v>6321</v>
+        <v>6460.6</v>
       </c>
       <c r="CA27" t="n">
-        <v>6431</v>
+        <v>6560.6</v>
       </c>
       <c r="CB27" t="n">
-        <v>6264</v>
+        <v>6558.1</v>
       </c>
       <c r="CC27" t="n">
-        <v>6354</v>
+        <v>6658.1</v>
       </c>
       <c r="CD27" t="n">
-        <v>6424</v>
+        <v>6718.1</v>
       </c>
       <c r="CE27" t="n">
-        <v>6464</v>
+        <v>6768.1</v>
       </c>
       <c r="CF27" t="n">
-        <v>6440</v>
+        <v>6872.8</v>
       </c>
       <c r="CG27" t="n">
-        <v>6460</v>
+        <v>6902.8</v>
       </c>
       <c r="CH27" t="n">
-        <v>6460</v>
+        <v>6932.8</v>
       </c>
       <c r="CI27" t="n">
-        <v>6460</v>
+        <v>6982.8</v>
       </c>
       <c r="CJ27" t="n">
-        <v>6418</v>
+        <v>7077.2</v>
       </c>
       <c r="CK27" t="n">
-        <v>6378</v>
+        <v>7047.2</v>
       </c>
       <c r="CL27" t="n">
-        <v>6348</v>
+        <v>6997.2</v>
       </c>
       <c r="CM27" t="n">
-        <v>6288</v>
+        <v>6887.2</v>
       </c>
       <c r="CN27" t="n">
-        <v>6304</v>
+        <v>7033.3</v>
       </c>
       <c r="CO27" t="n">
-        <v>6224</v>
+        <v>6873.3</v>
       </c>
       <c r="CP27" t="n">
-        <v>6094</v>
+        <v>6723.3</v>
       </c>
       <c r="CQ27" t="n">
-        <v>5944</v>
+        <v>6563.3</v>
       </c>
       <c r="CR27" t="n">
-        <v>5807</v>
+        <v>6512.3</v>
       </c>
       <c r="CS27" t="n">
-        <v>5667</v>
+        <v>6362.3</v>
       </c>
       <c r="CT27" t="n">
-        <v>5567</v>
+        <v>6252.3</v>
       </c>
       <c r="CU27" t="n">
-        <v>5457</v>
+        <v>6142.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" s="2" t="n">
-        <v>45883</v>
+        <v>45889</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="D28" t="n">
-        <v>4760</v>
+        <v>5188</v>
       </c>
       <c r="E28" t="n">
-        <v>4710</v>
+        <v>5128</v>
       </c>
       <c r="F28" t="n">
-        <v>4650</v>
+        <v>5078</v>
       </c>
       <c r="G28" t="n">
-        <v>4560</v>
+        <v>5018</v>
       </c>
       <c r="H28" t="n">
-        <v>5296.9</v>
+        <v>5059.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5216.9</v>
+        <v>4999.3</v>
       </c>
       <c r="J28" t="n">
-        <v>5146.9</v>
+        <v>4949.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5096.9</v>
+        <v>4899.3</v>
       </c>
       <c r="L28" t="n">
-        <v>5062.9</v>
+        <v>4934.8</v>
       </c>
       <c r="M28" t="n">
-        <v>5032.9</v>
+        <v>4894.8</v>
       </c>
       <c r="N28" t="n">
-        <v>5012.9</v>
+        <v>4874.8</v>
       </c>
       <c r="O28" t="n">
-        <v>5002.9</v>
+        <v>4864.8</v>
       </c>
       <c r="P28" t="n">
-        <v>5337.5</v>
+        <v>4876</v>
       </c>
       <c r="Q28" t="n">
-        <v>5337.5</v>
+        <v>4866</v>
       </c>
       <c r="R28" t="n">
-        <v>5327.5</v>
+        <v>4856</v>
       </c>
       <c r="S28" t="n">
-        <v>5337.5</v>
+        <v>4846</v>
       </c>
       <c r="T28" t="n">
-        <v>5387.5</v>
+        <v>4811.4</v>
       </c>
       <c r="U28" t="n">
-        <v>5387.5</v>
+        <v>4811.4</v>
       </c>
       <c r="V28" t="n">
-        <v>5407.5</v>
+        <v>4821.4</v>
       </c>
       <c r="W28" t="n">
-        <v>5427.5</v>
+        <v>4831.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5348.9</v>
+        <v>4782.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>5388.9</v>
+        <v>4812.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>5448.9</v>
+        <v>4842.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>5518.9</v>
+        <v>4912.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>5731.7</v>
+        <v>4759</v>
       </c>
       <c r="AC28" t="n">
-        <v>5821.7</v>
+        <v>4839</v>
       </c>
       <c r="AD28" t="n">
-        <v>5921.7</v>
+        <v>4939</v>
       </c>
       <c r="AE28" t="n">
-        <v>6021.7</v>
+        <v>5039</v>
       </c>
       <c r="AF28" t="n">
-        <v>6208.9</v>
+        <v>5395.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6308.9</v>
+        <v>5505.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>6398.9</v>
+        <v>5605.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>6468.9</v>
+        <v>5695.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6879.2</v>
+        <v>5852.8</v>
       </c>
       <c r="AK28" t="n">
-        <v>6909.2</v>
+        <v>5912.8</v>
       </c>
       <c r="AL28" t="n">
-        <v>6939.2</v>
+        <v>5952.8</v>
       </c>
       <c r="AM28" t="n">
-        <v>6889.2</v>
+        <v>5952.8</v>
       </c>
       <c r="AN28" t="n">
-        <v>7057.5</v>
+        <v>5737.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>7007.5</v>
+        <v>5707.8</v>
       </c>
       <c r="AP28" t="n">
-        <v>6937.5</v>
+        <v>5667.8</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6867.5</v>
+        <v>5617.8</v>
       </c>
       <c r="AR28" t="n">
-        <v>7172.1</v>
+        <v>6023.8</v>
       </c>
       <c r="AS28" t="n">
-        <v>7102.1</v>
+        <v>5973.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>7052.1</v>
+        <v>5913.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>7012.1</v>
+        <v>5873.8</v>
       </c>
       <c r="AV28" t="n">
-        <v>7021.1</v>
+        <v>6148.9</v>
       </c>
       <c r="AW28" t="n">
-        <v>7021.1</v>
+        <v>6118.9</v>
       </c>
       <c r="AX28" t="n">
-        <v>7021.1</v>
+        <v>6098.9</v>
       </c>
       <c r="AY28" t="n">
-        <v>7041.1</v>
+        <v>6078.9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7128.1</v>
+        <v>6326.4</v>
       </c>
       <c r="BA28" t="n">
-        <v>7148.1</v>
+        <v>6316.4</v>
       </c>
       <c r="BB28" t="n">
-        <v>7178.1</v>
+        <v>6306.4</v>
       </c>
       <c r="BC28" t="n">
-        <v>7198.1</v>
+        <v>6306.4</v>
       </c>
       <c r="BD28" t="n">
-        <v>6870.8</v>
+        <v>6238.5</v>
       </c>
       <c r="BE28" t="n">
-        <v>6890.8</v>
+        <v>6238.5</v>
       </c>
       <c r="BF28" t="n">
-        <v>6900.8</v>
+        <v>6238.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>6920.8</v>
+        <v>6248.5</v>
       </c>
       <c r="BH28" t="n">
-        <v>6882</v>
+        <v>6310.9</v>
       </c>
       <c r="BI28" t="n">
-        <v>6902</v>
+        <v>6330.9</v>
       </c>
       <c r="BJ28" t="n">
-        <v>6912</v>
+        <v>6340.9</v>
       </c>
       <c r="BK28" t="n">
-        <v>6932</v>
+        <v>6360.9</v>
       </c>
       <c r="BL28" t="n">
-        <v>7131.6</v>
+        <v>6364.5</v>
       </c>
       <c r="BM28" t="n">
-        <v>7151.6</v>
+        <v>6374.5</v>
       </c>
       <c r="BN28" t="n">
-        <v>7161.6</v>
+        <v>6394.5</v>
       </c>
       <c r="BO28" t="n">
-        <v>7191.6</v>
+        <v>6424.5</v>
       </c>
       <c r="BP28" t="n">
-        <v>6735</v>
+        <v>6143.3</v>
       </c>
       <c r="BQ28" t="n">
-        <v>6775</v>
+        <v>6183.3</v>
       </c>
       <c r="BR28" t="n">
-        <v>6835</v>
+        <v>6233.3</v>
       </c>
       <c r="BS28" t="n">
-        <v>6905</v>
+        <v>6283.3</v>
       </c>
       <c r="BT28" t="n">
-        <v>6337.4</v>
+        <v>6014.3</v>
       </c>
       <c r="BU28" t="n">
-        <v>6407.4</v>
+        <v>6064.3</v>
       </c>
       <c r="BV28" t="n">
-        <v>6467.4</v>
+        <v>6114.3</v>
       </c>
       <c r="BW28" t="n">
-        <v>6517.4</v>
+        <v>6164.3</v>
       </c>
       <c r="BX28" t="n">
-        <v>5270.6</v>
+        <v>6100.6</v>
       </c>
       <c r="BY28" t="n">
-        <v>5330.6</v>
+        <v>6150.6</v>
       </c>
       <c r="BZ28" t="n">
-        <v>5400.6</v>
+        <v>6210.6</v>
       </c>
       <c r="CA28" t="n">
-        <v>5510.6</v>
+        <v>6280.6</v>
       </c>
       <c r="CB28" t="n">
-        <v>6603.9</v>
+        <v>6288.1</v>
       </c>
       <c r="CC28" t="n">
-        <v>6713.9</v>
+        <v>6348.1</v>
       </c>
       <c r="CD28" t="n">
-        <v>6813.9</v>
+        <v>6398.1</v>
       </c>
       <c r="CE28" t="n">
-        <v>6903.9</v>
+        <v>6468.1</v>
       </c>
       <c r="CF28" t="n">
-        <v>7480.3</v>
+        <v>6612.8</v>
       </c>
       <c r="CG28" t="n">
-        <v>7560.3</v>
+        <v>6652.8</v>
       </c>
       <c r="CH28" t="n">
-        <v>7610.3</v>
+        <v>6672.8</v>
       </c>
       <c r="CI28" t="n">
-        <v>7630.3</v>
+        <v>6672.8</v>
       </c>
       <c r="CJ28" t="n">
-        <v>7532.5</v>
+        <v>6747.2</v>
       </c>
       <c r="CK28" t="n">
-        <v>7492.5</v>
+        <v>6737.2</v>
       </c>
       <c r="CL28" t="n">
-        <v>7462.5</v>
+        <v>6707.2</v>
       </c>
       <c r="CM28" t="n">
-        <v>7382.5</v>
+        <v>6657.2</v>
       </c>
       <c r="CN28" t="n">
-        <v>7617.9</v>
+        <v>6893.3</v>
       </c>
       <c r="CO28" t="n">
-        <v>7517.9</v>
+        <v>6773.3</v>
       </c>
       <c r="CP28" t="n">
-        <v>7377.9</v>
+        <v>6633.3</v>
       </c>
       <c r="CQ28" t="n">
-        <v>7237.9</v>
+        <v>6463.3</v>
       </c>
       <c r="CR28" t="n">
-        <v>5978.1</v>
+        <v>6402.3</v>
       </c>
       <c r="CS28" t="n">
-        <v>5828.1</v>
+        <v>6242.3</v>
       </c>
       <c r="CT28" t="n">
-        <v>5738.1</v>
+        <v>6122.3</v>
       </c>
       <c r="CU28" t="n">
-        <v>5628.1</v>
+        <v>5992.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="D29" t="n">
-        <v>5093</v>
+        <v>5041</v>
       </c>
       <c r="E29" t="n">
-        <v>5033</v>
+        <v>4991</v>
       </c>
       <c r="F29" t="n">
-        <v>4973</v>
+        <v>4941</v>
       </c>
       <c r="G29" t="n">
-        <v>4893</v>
+        <v>4871</v>
       </c>
       <c r="H29" t="n">
-        <v>4784</v>
+        <v>4743</v>
       </c>
       <c r="I29" t="n">
-        <v>4724</v>
+        <v>4683</v>
       </c>
       <c r="J29" t="n">
-        <v>4674</v>
+        <v>4623</v>
       </c>
       <c r="K29" t="n">
-        <v>4624</v>
+        <v>4563</v>
       </c>
       <c r="L29" t="n">
-        <v>4606</v>
+        <v>4551</v>
       </c>
       <c r="M29" t="n">
-        <v>4576</v>
+        <v>4511</v>
       </c>
       <c r="N29" t="n">
-        <v>4556</v>
+        <v>4471</v>
       </c>
       <c r="O29" t="n">
-        <v>4546</v>
+        <v>4451</v>
       </c>
       <c r="P29" t="n">
-        <v>4562</v>
+        <v>4448</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562</v>
+        <v>4438</v>
       </c>
       <c r="R29" t="n">
-        <v>4562</v>
+        <v>4428</v>
       </c>
       <c r="S29" t="n">
-        <v>4562</v>
+        <v>4428</v>
       </c>
       <c r="T29" t="n">
-        <v>4568</v>
+        <v>4442</v>
       </c>
       <c r="U29" t="n">
-        <v>4568</v>
+        <v>4432</v>
       </c>
       <c r="V29" t="n">
+        <v>4422</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4422</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4411</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4411</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4411</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>4421</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>4430</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4460</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4480</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>4553</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>4573</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>4603</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>4633</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>4663</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4673</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>4673</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>4673</v>
+      </c>
+      <c r="AN29" t="n">
         <v>4558</v>
       </c>
-      <c r="W29" t="n">
-        <v>4548</v>
-      </c>
-      <c r="X29" t="n">
-        <v>4544</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>4544</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>4544</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>4554</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>4522</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>4542</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>4562</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>4592</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>4670</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>4690</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>4720</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>4730</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>5042</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>5022</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>5002</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>4962</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>5155</v>
-      </c>
       <c r="AO29" t="n">
-        <v>5085</v>
+        <v>4538</v>
       </c>
       <c r="AP29" t="n">
-        <v>5025</v>
+        <v>4508</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4955</v>
+        <v>4468</v>
       </c>
       <c r="AR29" t="n">
-        <v>4956</v>
+        <v>4397</v>
       </c>
       <c r="AS29" t="n">
-        <v>4896</v>
+        <v>4357</v>
       </c>
       <c r="AT29" t="n">
-        <v>4846</v>
+        <v>4317</v>
       </c>
       <c r="AU29" t="n">
-        <v>4806</v>
+        <v>4287</v>
       </c>
       <c r="AV29" t="n">
-        <v>4841</v>
+        <v>4344</v>
       </c>
       <c r="AW29" t="n">
-        <v>4831</v>
+        <v>4324</v>
       </c>
       <c r="AX29" t="n">
-        <v>4831</v>
+        <v>4314</v>
       </c>
       <c r="AY29" t="n">
-        <v>4831</v>
+        <v>4304</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4822</v>
+        <v>4344</v>
       </c>
       <c r="BA29" t="n">
-        <v>4832</v>
+        <v>4334</v>
       </c>
       <c r="BB29" t="n">
-        <v>4842</v>
+        <v>4324</v>
       </c>
       <c r="BC29" t="n">
-        <v>4852</v>
+        <v>4314</v>
       </c>
       <c r="BD29" t="n">
-        <v>4787</v>
+        <v>4266</v>
       </c>
       <c r="BE29" t="n">
+        <v>4256</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4266</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4276</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4357</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>4377</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>4407</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>4437</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>4595</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>4635</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>4665</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>4705</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>4829</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>4889</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>4959</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>5039</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>5067</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5147</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>5237</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>5307</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>5411</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>5481</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>5571</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>5661</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>5504</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>5604</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>5704</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>5774</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>5780</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>5850</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>5860</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>5860</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>5818</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>5798</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>5788</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>5708</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>5674</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>5564</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>5414</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>5284</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>5157</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>5007</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>4917</v>
+      </c>
+      <c r="CU29" t="n">
         <v>4807</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>4837</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>4877</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>4956</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>5006</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>5056</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>5106</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>5150</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>5200</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>5240</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>5290</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>5260</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>5330</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>5410</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>5500</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>5591</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>5691</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>5781</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>5871</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>5632</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>5722</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>5832</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>5952</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>5870</v>
-      </c>
-      <c r="CC29" t="n">
-        <v>5990</v>
-      </c>
-      <c r="CD29" t="n">
-        <v>6090</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>6160</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>6163</v>
-      </c>
-      <c r="CG29" t="n">
-        <v>6213</v>
-      </c>
-      <c r="CH29" t="n">
-        <v>6243</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>6273</v>
-      </c>
-      <c r="CJ29" t="n">
-        <v>6231</v>
-      </c>
-      <c r="CK29" t="n">
-        <v>6231</v>
-      </c>
-      <c r="CL29" t="n">
-        <v>6221</v>
-      </c>
-      <c r="CM29" t="n">
-        <v>6121</v>
-      </c>
-      <c r="CN29" t="n">
-        <v>6002</v>
-      </c>
-      <c r="CO29" t="n">
-        <v>5902</v>
-      </c>
-      <c r="CP29" t="n">
-        <v>5772</v>
-      </c>
-      <c r="CQ29" t="n">
-        <v>5602</v>
-      </c>
-      <c r="CR29" t="n">
-        <v>5596</v>
-      </c>
-      <c r="CS29" t="n">
-        <v>5436</v>
-      </c>
-      <c r="CT29" t="n">
-        <v>5346</v>
-      </c>
-      <c r="CU29" t="n">
-        <v>5236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="n">
-        <v>45885</v>
+        <v>45890</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45893</v>
       </c>
       <c r="D30" t="n">
-        <v>4903</v>
+        <v>4621</v>
       </c>
       <c r="E30" t="n">
-        <v>4873</v>
+        <v>4561</v>
       </c>
       <c r="F30" t="n">
-        <v>4813</v>
+        <v>4521</v>
       </c>
       <c r="G30" t="n">
-        <v>4723</v>
+        <v>4451</v>
       </c>
       <c r="H30" t="n">
-        <v>4594</v>
+        <v>4333</v>
       </c>
       <c r="I30" t="n">
-        <v>4514</v>
+        <v>4283</v>
       </c>
       <c r="J30" t="n">
-        <v>4454</v>
+        <v>4243</v>
       </c>
       <c r="K30" t="n">
-        <v>4394</v>
+        <v>4203</v>
       </c>
       <c r="L30" t="n">
-        <v>4356</v>
+        <v>4201</v>
       </c>
       <c r="M30" t="n">
-        <v>4316</v>
+        <v>4171</v>
       </c>
       <c r="N30" t="n">
-        <v>4286</v>
+        <v>4141</v>
       </c>
       <c r="O30" t="n">
-        <v>4256</v>
+        <v>4121</v>
       </c>
       <c r="P30" t="n">
-        <v>4252</v>
+        <v>4108</v>
       </c>
       <c r="Q30" t="n">
-        <v>4232</v>
+        <v>4088</v>
       </c>
       <c r="R30" t="n">
-        <v>4202</v>
+        <v>4078</v>
       </c>
       <c r="S30" t="n">
-        <v>4172</v>
+        <v>4068</v>
       </c>
       <c r="T30" t="n">
-        <v>4168</v>
+        <v>4082</v>
       </c>
       <c r="U30" t="n">
-        <v>4148</v>
+        <v>4072</v>
       </c>
       <c r="V30" t="n">
-        <v>4138</v>
+        <v>4072</v>
       </c>
       <c r="W30" t="n">
-        <v>4138</v>
+        <v>4072</v>
       </c>
       <c r="X30" t="n">
-        <v>4134</v>
+        <v>4061</v>
       </c>
       <c r="Y30" t="n">
-        <v>4134</v>
+        <v>4051</v>
       </c>
       <c r="Z30" t="n">
-        <v>4144</v>
+        <v>4041</v>
       </c>
       <c r="AA30" t="n">
-        <v>4154</v>
+        <v>4021</v>
       </c>
       <c r="AB30" t="n">
-        <v>4122</v>
+        <v>4010</v>
       </c>
       <c r="AC30" t="n">
-        <v>4122</v>
+        <v>4000</v>
       </c>
       <c r="AD30" t="n">
-        <v>4122</v>
+        <v>3990</v>
       </c>
       <c r="AE30" t="n">
-        <v>4112</v>
+        <v>3970</v>
       </c>
       <c r="AF30" t="n">
-        <v>4150</v>
+        <v>4023</v>
       </c>
       <c r="AG30" t="n">
-        <v>4150</v>
+        <v>4013</v>
       </c>
       <c r="AH30" t="n">
-        <v>4140</v>
+        <v>4013</v>
       </c>
       <c r="AI30" t="n">
-        <v>4120</v>
+        <v>4013</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4402</v>
+        <v>4023</v>
       </c>
       <c r="AK30" t="n">
-        <v>4392</v>
+        <v>4023</v>
       </c>
       <c r="AL30" t="n">
-        <v>4372</v>
+        <v>4003</v>
       </c>
       <c r="AM30" t="n">
-        <v>4342</v>
+        <v>3973</v>
       </c>
       <c r="AN30" t="n">
-        <v>4545</v>
+        <v>3828</v>
       </c>
       <c r="AO30" t="n">
-        <v>4505</v>
+        <v>3768</v>
       </c>
       <c r="AP30" t="n">
-        <v>4455</v>
+        <v>3708</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4415</v>
+        <v>3648</v>
       </c>
       <c r="AR30" t="n">
-        <v>4436</v>
+        <v>3557</v>
       </c>
       <c r="AS30" t="n">
-        <v>4396</v>
+        <v>3497</v>
       </c>
       <c r="AT30" t="n">
-        <v>4366</v>
+        <v>3447</v>
       </c>
       <c r="AU30" t="n">
-        <v>4346</v>
+        <v>3397</v>
       </c>
       <c r="AV30" t="n">
-        <v>4411</v>
+        <v>3434</v>
       </c>
       <c r="AW30" t="n">
-        <v>4411</v>
+        <v>3394</v>
       </c>
       <c r="AX30" t="n">
-        <v>4421</v>
+        <v>3364</v>
       </c>
       <c r="AY30" t="n">
-        <v>4431</v>
+        <v>3334</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4432</v>
+        <v>3364</v>
       </c>
       <c r="BA30" t="n">
-        <v>4452</v>
+        <v>3344</v>
       </c>
       <c r="BB30" t="n">
-        <v>4462</v>
+        <v>3324</v>
       </c>
       <c r="BC30" t="n">
-        <v>4462</v>
+        <v>3304</v>
       </c>
       <c r="BD30" t="n">
-        <v>4397</v>
+        <v>3256</v>
       </c>
       <c r="BE30" t="n">
-        <v>4407</v>
+        <v>3256</v>
       </c>
       <c r="BF30" t="n">
-        <v>4417</v>
+        <v>3266</v>
       </c>
       <c r="BG30" t="n">
-        <v>4447</v>
+        <v>3286</v>
       </c>
       <c r="BH30" t="n">
-        <v>4516</v>
+        <v>3387</v>
       </c>
       <c r="BI30" t="n">
-        <v>4546</v>
+        <v>3427</v>
       </c>
       <c r="BJ30" t="n">
-        <v>4596</v>
+        <v>3477</v>
       </c>
       <c r="BK30" t="n">
-        <v>4646</v>
+        <v>3527</v>
       </c>
       <c r="BL30" t="n">
-        <v>4680</v>
+        <v>3715</v>
       </c>
       <c r="BM30" t="n">
-        <v>4730</v>
+        <v>3775</v>
       </c>
       <c r="BN30" t="n">
-        <v>4790</v>
+        <v>3845</v>
       </c>
       <c r="BO30" t="n">
-        <v>4850</v>
+        <v>3925</v>
       </c>
       <c r="BP30" t="n">
-        <v>4830</v>
+        <v>4079</v>
       </c>
       <c r="BQ30" t="n">
-        <v>4910</v>
+        <v>4179</v>
       </c>
       <c r="BR30" t="n">
-        <v>5010</v>
+        <v>4279</v>
       </c>
       <c r="BS30" t="n">
-        <v>5130</v>
+        <v>4389</v>
       </c>
       <c r="BT30" t="n">
-        <v>5241</v>
+        <v>4427</v>
       </c>
       <c r="BU30" t="n">
-        <v>5361</v>
+        <v>4537</v>
       </c>
       <c r="BV30" t="n">
-        <v>5481</v>
+        <v>4637</v>
       </c>
       <c r="BW30" t="n">
-        <v>5581</v>
+        <v>4727</v>
       </c>
       <c r="BX30" t="n">
-        <v>5362</v>
+        <v>4841</v>
       </c>
       <c r="BY30" t="n">
-        <v>5462</v>
+        <v>4931</v>
       </c>
       <c r="BZ30" t="n">
-        <v>5572</v>
+        <v>5031</v>
       </c>
       <c r="CA30" t="n">
-        <v>5692</v>
+        <v>5141</v>
       </c>
       <c r="CB30" t="n">
-        <v>5600</v>
+        <v>5004</v>
       </c>
       <c r="CC30" t="n">
-        <v>5730</v>
+        <v>5134</v>
       </c>
       <c r="CD30" t="n">
-        <v>5830</v>
+        <v>5264</v>
       </c>
       <c r="CE30" t="n">
-        <v>5900</v>
+        <v>5374</v>
       </c>
       <c r="CF30" t="n">
-        <v>5913</v>
+        <v>5430</v>
       </c>
       <c r="CG30" t="n">
-        <v>5963</v>
+        <v>5540</v>
       </c>
       <c r="CH30" t="n">
-        <v>5963</v>
+        <v>5560</v>
       </c>
       <c r="CI30" t="n">
-        <v>5963</v>
+        <v>5560</v>
       </c>
       <c r="CJ30" t="n">
-        <v>5921</v>
+        <v>5518</v>
       </c>
       <c r="CK30" t="n">
-        <v>5901</v>
+        <v>5518</v>
       </c>
       <c r="CL30" t="n">
-        <v>5881</v>
+        <v>5488</v>
       </c>
       <c r="CM30" t="n">
-        <v>5831</v>
+        <v>5438</v>
       </c>
       <c r="CN30" t="n">
-        <v>5762</v>
+        <v>5454</v>
       </c>
       <c r="CO30" t="n">
-        <v>5692</v>
+        <v>5374</v>
       </c>
       <c r="CP30" t="n">
-        <v>5572</v>
+        <v>5214</v>
       </c>
       <c r="CQ30" t="n">
-        <v>5402</v>
+        <v>5084</v>
       </c>
       <c r="CR30" t="n">
-        <v>5376</v>
+        <v>5007</v>
       </c>
       <c r="CS30" t="n">
-        <v>5226</v>
+        <v>4857</v>
       </c>
       <c r="CT30" t="n">
-        <v>5136</v>
+        <v>4767</v>
       </c>
       <c r="CU30" t="n">
-        <v>5026</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" s="2" t="n">
-        <v>45885</v>
+        <v>45890</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="D31" t="n">
-        <v>4693</v>
+        <v>4381</v>
       </c>
       <c r="E31" t="n">
-        <v>4903</v>
+        <v>4331</v>
       </c>
       <c r="F31" t="n">
-        <v>4583</v>
+        <v>4281</v>
       </c>
       <c r="G31" t="n">
-        <v>4493</v>
+        <v>4221</v>
       </c>
       <c r="H31" t="n">
-        <v>4374</v>
+        <v>4103</v>
       </c>
       <c r="I31" t="n">
-        <v>4304</v>
+        <v>4063</v>
       </c>
       <c r="J31" t="n">
-        <v>4234</v>
+        <v>4033</v>
       </c>
       <c r="K31" t="n">
-        <v>4174</v>
+        <v>3993</v>
       </c>
       <c r="L31" t="n">
-        <v>4186</v>
+        <v>4001</v>
       </c>
       <c r="M31" t="n">
-        <v>4136</v>
+        <v>3981</v>
       </c>
       <c r="N31" t="n">
-        <v>4106</v>
+        <v>3961</v>
       </c>
       <c r="O31" t="n">
-        <v>4076</v>
+        <v>3961</v>
       </c>
       <c r="P31" t="n">
-        <v>4122</v>
+        <v>3968</v>
       </c>
       <c r="Q31" t="n">
-        <v>4122</v>
+        <v>3958</v>
       </c>
       <c r="R31" t="n">
-        <v>4132</v>
+        <v>3958</v>
       </c>
       <c r="S31" t="n">
-        <v>4132</v>
+        <v>3958</v>
       </c>
       <c r="T31" t="n">
-        <v>4158</v>
+        <v>3972</v>
       </c>
       <c r="U31" t="n">
-        <v>4158</v>
+        <v>3972</v>
       </c>
       <c r="V31" t="n">
-        <v>4168</v>
+        <v>3982</v>
       </c>
       <c r="W31" t="n">
-        <v>4198</v>
+        <v>4012</v>
       </c>
       <c r="X31" t="n">
-        <v>4234</v>
+        <v>4031</v>
       </c>
       <c r="Y31" t="n">
-        <v>4294</v>
+        <v>4091</v>
       </c>
       <c r="Z31" t="n">
-        <v>4374</v>
+        <v>4161</v>
       </c>
       <c r="AA31" t="n">
-        <v>4484</v>
+        <v>4251</v>
       </c>
       <c r="AB31" t="n">
-        <v>4652</v>
+        <v>4370</v>
       </c>
       <c r="AC31" t="n">
-        <v>4792</v>
+        <v>4490</v>
       </c>
       <c r="AD31" t="n">
-        <v>4952</v>
+        <v>4630</v>
       </c>
       <c r="AE31" t="n">
-        <v>5122</v>
+        <v>4770</v>
       </c>
       <c r="AF31" t="n">
-        <v>5330</v>
+        <v>4983</v>
       </c>
       <c r="AG31" t="n">
-        <v>5480</v>
+        <v>5123</v>
       </c>
       <c r="AH31" t="n">
-        <v>5620</v>
+        <v>5233</v>
       </c>
       <c r="AI31" t="n">
-        <v>5730</v>
+        <v>5343</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6112</v>
+        <v>5423</v>
       </c>
       <c r="AK31" t="n">
-        <v>6172</v>
+        <v>5423</v>
       </c>
       <c r="AL31" t="n">
-        <v>6182</v>
+        <v>5403</v>
       </c>
       <c r="AM31" t="n">
-        <v>6182</v>
+        <v>5343</v>
       </c>
       <c r="AN31" t="n">
-        <v>6395</v>
+        <v>5178</v>
       </c>
       <c r="AO31" t="n">
-        <v>6345</v>
+        <v>5078</v>
       </c>
       <c r="AP31" t="n">
-        <v>6285</v>
+        <v>4968</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6205</v>
+        <v>4858</v>
       </c>
       <c r="AR31" t="n">
-        <v>6196</v>
+        <v>4717</v>
       </c>
       <c r="AS31" t="n">
-        <v>6116</v>
+        <v>4617</v>
       </c>
       <c r="AT31" t="n">
-        <v>6036</v>
+        <v>4517</v>
       </c>
       <c r="AU31" t="n">
-        <v>5976</v>
+        <v>4447</v>
       </c>
       <c r="AV31" t="n">
-        <v>5991</v>
+        <v>4454</v>
       </c>
       <c r="AW31" t="n">
-        <v>5961</v>
+        <v>4404</v>
       </c>
       <c r="AX31" t="n">
-        <v>5931</v>
+        <v>4364</v>
       </c>
       <c r="AY31" t="n">
-        <v>5921</v>
+        <v>4334</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5902</v>
+        <v>4364</v>
       </c>
       <c r="BA31" t="n">
-        <v>5902</v>
+        <v>4344</v>
       </c>
       <c r="BB31" t="n">
-        <v>5902</v>
+        <v>4334</v>
       </c>
       <c r="BC31" t="n">
-        <v>5902</v>
+        <v>4324</v>
       </c>
       <c r="BD31" t="n">
-        <v>5837</v>
+        <v>4286</v>
       </c>
       <c r="BE31" t="n">
-        <v>5847</v>
+        <v>4296</v>
       </c>
       <c r="BF31" t="n">
-        <v>5867</v>
+        <v>4316</v>
       </c>
       <c r="BG31" t="n">
-        <v>5887</v>
+        <v>4336</v>
       </c>
       <c r="BH31" t="n">
-        <v>5956</v>
+        <v>4437</v>
       </c>
       <c r="BI31" t="n">
-        <v>5986</v>
+        <v>4477</v>
       </c>
       <c r="BJ31" t="n">
-        <v>6026</v>
+        <v>4517</v>
       </c>
       <c r="BK31" t="n">
-        <v>6056</v>
+        <v>4557</v>
       </c>
       <c r="BL31" t="n">
-        <v>6080</v>
+        <v>4725</v>
       </c>
       <c r="BM31" t="n">
-        <v>6110</v>
+        <v>4765</v>
       </c>
       <c r="BN31" t="n">
-        <v>6140</v>
+        <v>4805</v>
       </c>
       <c r="BO31" t="n">
-        <v>6170</v>
+        <v>4855</v>
       </c>
       <c r="BP31" t="n">
-        <v>6120</v>
+        <v>4999</v>
       </c>
       <c r="BQ31" t="n">
-        <v>6170</v>
+        <v>5079</v>
       </c>
       <c r="BR31" t="n">
-        <v>6220</v>
+        <v>5169</v>
       </c>
       <c r="BS31" t="n">
-        <v>6290</v>
+        <v>5279</v>
       </c>
       <c r="BT31" t="n">
-        <v>6341</v>
+        <v>5337</v>
       </c>
       <c r="BU31" t="n">
-        <v>6401</v>
+        <v>5447</v>
       </c>
       <c r="BV31" t="n">
-        <v>6461</v>
+        <v>5547</v>
       </c>
       <c r="BW31" t="n">
-        <v>6521</v>
+        <v>5647</v>
       </c>
       <c r="BX31" t="n">
-        <v>6262</v>
+        <v>5761</v>
       </c>
       <c r="BY31" t="n">
-        <v>6322</v>
+        <v>5861</v>
       </c>
       <c r="BZ31" t="n">
-        <v>6402</v>
+        <v>5981</v>
       </c>
       <c r="CA31" t="n">
-        <v>6492</v>
+        <v>6101</v>
       </c>
       <c r="CB31" t="n">
+        <v>5974</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>6104</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>6204</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>6284</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>6280</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>6340</v>
+      </c>
+      <c r="CH31" t="n">
         <v>6360</v>
       </c>
-      <c r="CC31" t="n">
-        <v>6450</v>
-      </c>
-      <c r="CD31" t="n">
-        <v>6520</v>
-      </c>
-      <c r="CE31" t="n">
-        <v>6570</v>
-      </c>
-      <c r="CF31" t="n">
-        <v>6563</v>
-      </c>
-      <c r="CG31" t="n">
-        <v>6603</v>
-      </c>
-      <c r="CH31" t="n">
-        <v>6633</v>
-      </c>
       <c r="CI31" t="n">
-        <v>6683</v>
+        <v>6360</v>
       </c>
       <c r="CJ31" t="n">
-        <v>6671</v>
+        <v>6318</v>
       </c>
       <c r="CK31" t="n">
-        <v>6651</v>
+        <v>6298</v>
       </c>
       <c r="CL31" t="n">
-        <v>6571</v>
+        <v>6278</v>
       </c>
       <c r="CM31" t="n">
-        <v>6481</v>
+        <v>6178</v>
       </c>
       <c r="CN31" t="n">
-        <v>6412</v>
+        <v>6134</v>
       </c>
       <c r="CO31" t="n">
-        <v>6362</v>
+        <v>6024</v>
       </c>
       <c r="CP31" t="n">
-        <v>6222</v>
+        <v>5874</v>
       </c>
       <c r="CQ31" t="n">
-        <v>6022</v>
+        <v>5694</v>
       </c>
       <c r="CR31" t="n">
-        <v>5956</v>
+        <v>5467</v>
       </c>
       <c r="CS31" t="n">
-        <v>5766</v>
+        <v>5277</v>
       </c>
       <c r="CT31" t="n">
-        <v>5686</v>
+        <v>5197</v>
       </c>
       <c r="CU31" t="n">
-        <v>5506</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" s="2" t="n">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="D32" t="n">
-        <v>5193</v>
+        <v>4951</v>
       </c>
       <c r="E32" t="n">
-        <v>5143</v>
+        <v>4911</v>
       </c>
       <c r="F32" t="n">
-        <v>5083</v>
+        <v>4851</v>
       </c>
       <c r="G32" t="n">
-        <v>4993</v>
+        <v>4781</v>
       </c>
       <c r="H32" t="n">
-        <v>4864</v>
+        <v>4673</v>
       </c>
       <c r="I32" t="n">
-        <v>4784</v>
+        <v>4633</v>
       </c>
       <c r="J32" t="n">
-        <v>4714</v>
+        <v>4593</v>
       </c>
       <c r="K32" t="n">
-        <v>4664</v>
+        <v>4543</v>
       </c>
       <c r="L32" t="n">
-        <v>4636</v>
+        <v>4531</v>
       </c>
       <c r="M32" t="n">
-        <v>4606</v>
+        <v>4501</v>
       </c>
       <c r="N32" t="n">
-        <v>4586</v>
+        <v>4471</v>
       </c>
       <c r="O32" t="n">
-        <v>4576</v>
+        <v>4441</v>
       </c>
       <c r="P32" t="n">
-        <v>4602</v>
+        <v>4448</v>
       </c>
       <c r="Q32" t="n">
-        <v>4602</v>
+        <v>4448</v>
       </c>
       <c r="R32" t="n">
-        <v>4592</v>
+        <v>4448</v>
       </c>
       <c r="S32" t="n">
-        <v>4602</v>
+        <v>4458</v>
       </c>
       <c r="T32" t="n">
-        <v>4628</v>
+        <v>4492</v>
       </c>
       <c r="U32" t="n">
-        <v>4628</v>
+        <v>4502</v>
       </c>
       <c r="V32" t="n">
-        <v>4648</v>
+        <v>4512</v>
       </c>
       <c r="W32" t="n">
-        <v>4668</v>
+        <v>4532</v>
       </c>
       <c r="X32" t="n">
-        <v>4694</v>
+        <v>4541</v>
       </c>
       <c r="Y32" t="n">
-        <v>4734</v>
+        <v>4591</v>
       </c>
       <c r="Z32" t="n">
-        <v>4794</v>
+        <v>4641</v>
       </c>
       <c r="AA32" t="n">
-        <v>4864</v>
+        <v>4721</v>
       </c>
       <c r="AB32" t="n">
-        <v>4902</v>
+        <v>4800</v>
       </c>
       <c r="AC32" t="n">
-        <v>4992</v>
+        <v>4890</v>
       </c>
       <c r="AD32" t="n">
-        <v>5092</v>
+        <v>5000</v>
       </c>
       <c r="AE32" t="n">
-        <v>5192</v>
+        <v>5100</v>
       </c>
       <c r="AF32" t="n">
-        <v>5340</v>
+        <v>5253</v>
       </c>
       <c r="AG32" t="n">
-        <v>5440</v>
+        <v>5343</v>
       </c>
       <c r="AH32" t="n">
-        <v>5530</v>
+        <v>5413</v>
       </c>
       <c r="AI32" t="n">
-        <v>5600</v>
+        <v>5473</v>
       </c>
       <c r="AJ32" t="n">
-        <v>5942</v>
+        <v>5513</v>
       </c>
       <c r="AK32" t="n">
-        <v>5972</v>
+        <v>5523</v>
       </c>
       <c r="AL32" t="n">
-        <v>6002</v>
+        <v>5503</v>
       </c>
       <c r="AM32" t="n">
-        <v>5952</v>
+        <v>5453</v>
       </c>
       <c r="AN32" t="n">
-        <v>6145</v>
+        <v>5278</v>
       </c>
       <c r="AO32" t="n">
-        <v>6095</v>
+        <v>5188</v>
       </c>
       <c r="AP32" t="n">
-        <v>6025</v>
+        <v>5088</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5955</v>
+        <v>4988</v>
       </c>
       <c r="AR32" t="n">
-        <v>5956</v>
+        <v>4857</v>
       </c>
       <c r="AS32" t="n">
-        <v>5886</v>
+        <v>4767</v>
       </c>
       <c r="AT32" t="n">
-        <v>5836</v>
+        <v>4677</v>
       </c>
       <c r="AU32" t="n">
-        <v>5796</v>
+        <v>4617</v>
       </c>
       <c r="AV32" t="n">
-        <v>5841</v>
+        <v>4644</v>
       </c>
       <c r="AW32" t="n">
-        <v>5841</v>
+        <v>4604</v>
       </c>
       <c r="AX32" t="n">
-        <v>5841</v>
+        <v>4584</v>
       </c>
       <c r="AY32" t="n">
-        <v>5861</v>
+        <v>4564</v>
       </c>
       <c r="AZ32" t="n">
-        <v>5872</v>
+        <v>4594</v>
       </c>
       <c r="BA32" t="n">
-        <v>5892</v>
+        <v>4584</v>
       </c>
       <c r="BB32" t="n">
-        <v>5922</v>
+        <v>4564</v>
       </c>
       <c r="BC32" t="n">
-        <v>5942</v>
+        <v>4554</v>
       </c>
       <c r="BD32" t="n">
-        <v>5887</v>
+        <v>4506</v>
       </c>
       <c r="BE32" t="n">
-        <v>5907</v>
+        <v>4506</v>
       </c>
       <c r="BF32" t="n">
-        <v>5917</v>
+        <v>4516</v>
       </c>
       <c r="BG32" t="n">
-        <v>5937</v>
+        <v>4536</v>
       </c>
       <c r="BH32" t="n">
-        <v>5996</v>
+        <v>4637</v>
       </c>
       <c r="BI32" t="n">
-        <v>6016</v>
+        <v>4677</v>
       </c>
       <c r="BJ32" t="n">
-        <v>6026</v>
+        <v>4717</v>
       </c>
       <c r="BK32" t="n">
-        <v>6046</v>
+        <v>4767</v>
       </c>
       <c r="BL32" t="n">
-        <v>6050</v>
+        <v>4945</v>
       </c>
       <c r="BM32" t="n">
-        <v>6070</v>
+        <v>4995</v>
       </c>
       <c r="BN32" t="n">
-        <v>6080</v>
+        <v>5045</v>
       </c>
       <c r="BO32" t="n">
-        <v>6110</v>
+        <v>5105</v>
       </c>
       <c r="BP32" t="n">
-        <v>6060</v>
+        <v>5249</v>
       </c>
       <c r="BQ32" t="n">
-        <v>6100</v>
+        <v>5329</v>
       </c>
       <c r="BR32" t="n">
-        <v>6160</v>
+        <v>5419</v>
       </c>
       <c r="BS32" t="n">
-        <v>6230</v>
+        <v>5519</v>
       </c>
       <c r="BT32" t="n">
-        <v>6291</v>
+        <v>5557</v>
       </c>
       <c r="BU32" t="n">
-        <v>6361</v>
+        <v>5657</v>
       </c>
       <c r="BV32" t="n">
-        <v>6421</v>
+        <v>5747</v>
       </c>
       <c r="BW32" t="n">
-        <v>6471</v>
+        <v>5827</v>
       </c>
       <c r="BX32" t="n">
-        <v>6202</v>
+        <v>5931</v>
       </c>
       <c r="BY32" t="n">
-        <v>6262</v>
+        <v>6021</v>
       </c>
       <c r="BZ32" t="n">
-        <v>6332</v>
+        <v>6121</v>
       </c>
       <c r="CA32" t="n">
-        <v>6412</v>
+        <v>6251</v>
       </c>
       <c r="CB32" t="n">
-        <v>6300</v>
+        <v>6114</v>
       </c>
       <c r="CC32" t="n">
-        <v>6410</v>
+        <v>6254</v>
       </c>
       <c r="CD32" t="n">
+        <v>6364</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>6434</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>6430</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>6490</v>
+      </c>
+      <c r="CH32" t="n">
         <v>6510</v>
       </c>
-      <c r="CE32" t="n">
-        <v>6600</v>
-      </c>
-      <c r="CF32" t="n">
-        <v>6633</v>
-      </c>
-      <c r="CG32" t="n">
-        <v>6713</v>
-      </c>
-      <c r="CH32" t="n">
-        <v>6763</v>
-      </c>
       <c r="CI32" t="n">
-        <v>6783</v>
+        <v>6510</v>
       </c>
       <c r="CJ32" t="n">
-        <v>6741</v>
+        <v>6468</v>
       </c>
       <c r="CK32" t="n">
-        <v>6701</v>
+        <v>6468</v>
       </c>
       <c r="CL32" t="n">
-        <v>6671</v>
+        <v>6448</v>
       </c>
       <c r="CM32" t="n">
-        <v>6591</v>
+        <v>6298</v>
       </c>
       <c r="CN32" t="n">
-        <v>6512</v>
+        <v>6214</v>
       </c>
       <c r="CO32" t="n">
-        <v>6412</v>
+        <v>6074</v>
       </c>
       <c r="CP32" t="n">
-        <v>6272</v>
+        <v>5914</v>
       </c>
       <c r="CQ32" t="n">
-        <v>6132</v>
+        <v>5754</v>
       </c>
       <c r="CR32" t="n">
-        <v>6206</v>
+        <v>5537</v>
       </c>
       <c r="CS32" t="n">
-        <v>6056</v>
+        <v>5347</v>
       </c>
       <c r="CT32" t="n">
-        <v>5966</v>
+        <v>5267</v>
       </c>
       <c r="CU32" t="n">
-        <v>5856</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45896</v>
       </c>
       <c r="D33" t="n">
-        <v>5013</v>
+        <v>5071</v>
       </c>
       <c r="E33" t="n">
-        <v>4933</v>
+        <v>4991</v>
       </c>
       <c r="F33" t="n">
-        <v>4863</v>
+        <v>4921</v>
       </c>
       <c r="G33" t="n">
-        <v>4813</v>
+        <v>4861</v>
       </c>
       <c r="H33" t="n">
-        <v>4714</v>
+        <v>4753</v>
       </c>
       <c r="I33" t="n">
-        <v>4674</v>
+        <v>4713</v>
       </c>
       <c r="J33" t="n">
-        <v>4634</v>
+        <v>4673</v>
       </c>
       <c r="K33" t="n">
-        <v>4604</v>
+        <v>4643</v>
       </c>
       <c r="L33" t="n">
-        <v>4586</v>
+        <v>4631</v>
       </c>
       <c r="M33" t="n">
-        <v>4556</v>
+        <v>4601</v>
       </c>
       <c r="N33" t="n">
-        <v>4536</v>
+        <v>4581</v>
       </c>
       <c r="O33" t="n">
-        <v>4526</v>
+        <v>4561</v>
       </c>
       <c r="P33" t="n">
-        <v>4532</v>
+        <v>4568</v>
       </c>
       <c r="Q33" t="n">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="R33" t="n">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="S33" t="n">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="T33" t="n">
-        <v>4558</v>
+        <v>4592</v>
       </c>
       <c r="U33" t="n">
-        <v>4578</v>
+        <v>4612</v>
       </c>
       <c r="V33" t="n">
-        <v>4588</v>
+        <v>4622</v>
       </c>
       <c r="W33" t="n">
-        <v>4608</v>
+        <v>4642</v>
       </c>
       <c r="X33" t="n">
-        <v>4624</v>
+        <v>4651</v>
       </c>
       <c r="Y33" t="n">
-        <v>4654</v>
+        <v>4681</v>
       </c>
       <c r="Z33" t="n">
-        <v>4694</v>
+        <v>4721</v>
       </c>
       <c r="AA33" t="n">
-        <v>4744</v>
+        <v>4771</v>
       </c>
       <c r="AB33" t="n">
-        <v>4772</v>
+        <v>4840</v>
       </c>
       <c r="AC33" t="n">
-        <v>4862</v>
+        <v>4930</v>
       </c>
       <c r="AD33" t="n">
-        <v>4972</v>
+        <v>5040</v>
       </c>
       <c r="AE33" t="n">
-        <v>5102</v>
+        <v>5170</v>
       </c>
       <c r="AF33" t="n">
-        <v>5290</v>
+        <v>5373</v>
       </c>
       <c r="AG33" t="n">
-        <v>5420</v>
+        <v>5513</v>
       </c>
       <c r="AH33" t="n">
-        <v>5530</v>
+        <v>5623</v>
       </c>
       <c r="AI33" t="n">
-        <v>5610</v>
+        <v>5723</v>
       </c>
       <c r="AJ33" t="n">
-        <v>5952</v>
+        <v>5793</v>
       </c>
       <c r="AK33" t="n">
-        <v>5982</v>
+        <v>5833</v>
       </c>
       <c r="AL33" t="n">
-        <v>5972</v>
+        <v>5833</v>
       </c>
       <c r="AM33" t="n">
-        <v>5942</v>
+        <v>5813</v>
       </c>
       <c r="AN33" t="n">
-        <v>6115</v>
+        <v>5648</v>
       </c>
       <c r="AO33" t="n">
-        <v>6045</v>
+        <v>5598</v>
       </c>
       <c r="AP33" t="n">
-        <v>5995</v>
+        <v>5538</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5935</v>
+        <v>5488</v>
       </c>
       <c r="AR33" t="n">
-        <v>5956</v>
+        <v>5407</v>
       </c>
       <c r="AS33" t="n">
-        <v>5886</v>
+        <v>5337</v>
       </c>
       <c r="AT33" t="n">
-        <v>5806</v>
+        <v>5267</v>
       </c>
       <c r="AU33" t="n">
-        <v>5716</v>
+        <v>5187</v>
       </c>
       <c r="AV33" t="n">
-        <v>5681</v>
+        <v>5174</v>
       </c>
       <c r="AW33" t="n">
-        <v>5601</v>
+        <v>5094</v>
       </c>
       <c r="AX33" t="n">
-        <v>5541</v>
+        <v>5044</v>
       </c>
       <c r="AY33" t="n">
-        <v>5511</v>
+        <v>5004</v>
       </c>
       <c r="AZ33" t="n">
-        <v>5492</v>
+        <v>5034</v>
       </c>
       <c r="BA33" t="n">
-        <v>5492</v>
+        <v>5024</v>
       </c>
       <c r="BB33" t="n">
-        <v>5502</v>
+        <v>5034</v>
       </c>
       <c r="BC33" t="n">
-        <v>5532</v>
+        <v>5064</v>
       </c>
       <c r="BD33" t="n">
-        <v>5487</v>
+        <v>5046</v>
       </c>
       <c r="BE33" t="n">
-        <v>5517</v>
+        <v>5086</v>
       </c>
       <c r="BF33" t="n">
-        <v>5547</v>
+        <v>5106</v>
       </c>
       <c r="BG33" t="n">
-        <v>5577</v>
+        <v>5126</v>
       </c>
       <c r="BH33" t="n">
-        <v>5646</v>
+        <v>5197</v>
       </c>
       <c r="BI33" t="n">
-        <v>5676</v>
+        <v>5207</v>
       </c>
       <c r="BJ33" t="n">
-        <v>5686</v>
+        <v>5207</v>
       </c>
       <c r="BK33" t="n">
-        <v>5696</v>
+        <v>5207</v>
       </c>
       <c r="BL33" t="n">
-        <v>5700</v>
+        <v>5345</v>
       </c>
       <c r="BM33" t="n">
-        <v>5720</v>
+        <v>5365</v>
       </c>
       <c r="BN33" t="n">
-        <v>5760</v>
+        <v>5395</v>
       </c>
       <c r="BO33" t="n">
-        <v>5820</v>
+        <v>5445</v>
       </c>
       <c r="BP33" t="n">
-        <v>5810</v>
+        <v>5589</v>
       </c>
       <c r="BQ33" t="n">
-        <v>5890</v>
+        <v>5659</v>
       </c>
       <c r="BR33" t="n">
-        <v>5980</v>
+        <v>5729</v>
       </c>
       <c r="BS33" t="n">
-        <v>6060</v>
+        <v>5799</v>
       </c>
       <c r="BT33" t="n">
-        <v>6151</v>
+        <v>5817</v>
       </c>
       <c r="BU33" t="n">
-        <v>6241</v>
+        <v>5897</v>
       </c>
       <c r="BV33" t="n">
-        <v>6341</v>
+        <v>5987</v>
       </c>
       <c r="BW33" t="n">
-        <v>6431</v>
+        <v>6087</v>
       </c>
       <c r="BX33" t="n">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="BY33" t="n">
-        <v>6292</v>
+        <v>6301</v>
       </c>
       <c r="BZ33" t="n">
-        <v>6362</v>
+        <v>6361</v>
       </c>
       <c r="CA33" t="n">
-        <v>6402</v>
+        <v>6411</v>
       </c>
       <c r="CB33" t="n">
-        <v>6220</v>
+        <v>6184</v>
       </c>
       <c r="CC33" t="n">
-        <v>6270</v>
+        <v>6234</v>
       </c>
       <c r="CD33" t="n">
-        <v>6340</v>
+        <v>6304</v>
       </c>
       <c r="CE33" t="n">
+        <v>6394</v>
+      </c>
+      <c r="CF33" t="n">
         <v>6430</v>
       </c>
-      <c r="CF33" t="n">
-        <v>6483</v>
-      </c>
       <c r="CG33" t="n">
-        <v>6563</v>
+        <v>6500</v>
       </c>
       <c r="CH33" t="n">
-        <v>6613</v>
+        <v>6550</v>
       </c>
       <c r="CI33" t="n">
-        <v>6633</v>
+        <v>6570</v>
       </c>
       <c r="CJ33" t="n">
-        <v>6581</v>
+        <v>6518</v>
       </c>
       <c r="CK33" t="n">
-        <v>6531</v>
+        <v>6468</v>
       </c>
       <c r="CL33" t="n">
-        <v>6441</v>
+        <v>6378</v>
       </c>
       <c r="CM33" t="n">
-        <v>6311</v>
+        <v>6248</v>
       </c>
       <c r="CN33" t="n">
-        <v>6192</v>
+        <v>6204</v>
       </c>
       <c r="CO33" t="n">
-        <v>6022</v>
+        <v>6034</v>
       </c>
       <c r="CP33" t="n">
-        <v>5852</v>
+        <v>5864</v>
       </c>
       <c r="CQ33" t="n">
-        <v>5682</v>
+        <v>5704</v>
       </c>
       <c r="CR33" t="n">
-        <v>5756</v>
+        <v>5587</v>
       </c>
       <c r="CS33" t="n">
-        <v>5606</v>
+        <v>5437</v>
       </c>
       <c r="CT33" t="n">
-        <v>5476</v>
+        <v>5307</v>
       </c>
       <c r="CU33" t="n">
-        <v>5366</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" s="2" t="n">
+        <v>45890</v>
+      </c>
       <c r="C34" s="2" t="n">
         <v>45897</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="inlineStr"/>
-      <c r="BP34" t="inlineStr"/>
-      <c r="BQ34" t="inlineStr"/>
-      <c r="BR34" t="inlineStr"/>
-      <c r="BS34" t="inlineStr"/>
-      <c r="BT34" t="inlineStr"/>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
-      <c r="BX34" t="inlineStr"/>
-      <c r="BY34" t="inlineStr"/>
-      <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="inlineStr"/>
-      <c r="CB34" t="inlineStr"/>
-      <c r="CC34" t="inlineStr"/>
-      <c r="CD34" t="inlineStr"/>
-      <c r="CE34" t="inlineStr"/>
-      <c r="CF34" t="inlineStr"/>
-      <c r="CG34" t="inlineStr"/>
-      <c r="CH34" t="inlineStr"/>
-      <c r="CI34" t="inlineStr"/>
-      <c r="CJ34" t="inlineStr"/>
-      <c r="CK34" t="inlineStr"/>
-      <c r="CL34" t="inlineStr"/>
-      <c r="CM34" t="inlineStr"/>
-      <c r="CN34" t="inlineStr"/>
-      <c r="CO34" t="inlineStr"/>
-      <c r="CP34" t="inlineStr"/>
-      <c r="CQ34" t="inlineStr"/>
-      <c r="CR34" t="inlineStr"/>
-      <c r="CS34" t="inlineStr"/>
-      <c r="CT34" t="inlineStr"/>
-      <c r="CU34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>5091</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5011</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4941</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4891</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4773</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4733</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4693</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4653</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4651</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4621</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4591</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4571</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4578</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4568</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4568</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4568</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4602</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4612</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4632</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4642</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4661</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>4691</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4721</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4771</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4830</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4910</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5020</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>5160</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5373</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>5503</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>5613</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>5703</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>5763</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>5783</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>5773</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>5723</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5548</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>5468</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>5398</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>5338</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>5247</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>5187</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>5097</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>5007</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>4984</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4894</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>4834</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>4794</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>4824</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>4814</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>4824</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>4844</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>4816</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4846</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4866</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>4886</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4967</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>4977</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>4987</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>4987</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>5125</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>5135</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>5175</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>5225</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>5369</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>5449</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>5529</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>5619</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>5647</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5737</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>5837</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>5947</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>6071</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>6161</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>6241</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>6291</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>6074</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>6134</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>6214</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>6314</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>6360</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>6450</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>6510</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>6530</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>6478</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>6428</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>6338</v>
+      </c>
+      <c r="CM34" t="n">
+        <v>6218</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>6184</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>6014</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>5854</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>5684</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>5567</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>5427</v>
+      </c>
+      <c r="CT34" t="n">
+        <v>5297</v>
+      </c>
+      <c r="CU34" t="n">
+        <v>5187</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" s="2" t="n">
+        <v>45890</v>
+      </c>
       <c r="C35" s="2" t="n">
         <v>45898</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
-      <c r="BN35" t="inlineStr"/>
-      <c r="BO35" t="inlineStr"/>
-      <c r="BP35" t="inlineStr"/>
-      <c r="BQ35" t="inlineStr"/>
-      <c r="BR35" t="inlineStr"/>
-      <c r="BS35" t="inlineStr"/>
-      <c r="BT35" t="inlineStr"/>
-      <c r="BU35" t="inlineStr"/>
-      <c r="BV35" t="inlineStr"/>
-      <c r="BW35" t="inlineStr"/>
-      <c r="BX35" t="inlineStr"/>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
-      <c r="CB35" t="inlineStr"/>
-      <c r="CC35" t="inlineStr"/>
-      <c r="CD35" t="inlineStr"/>
-      <c r="CE35" t="inlineStr"/>
-      <c r="CF35" t="inlineStr"/>
-      <c r="CG35" t="inlineStr"/>
-      <c r="CH35" t="inlineStr"/>
-      <c r="CI35" t="inlineStr"/>
-      <c r="CJ35" t="inlineStr"/>
-      <c r="CK35" t="inlineStr"/>
-      <c r="CL35" t="inlineStr"/>
-      <c r="CM35" t="inlineStr"/>
-      <c r="CN35" t="inlineStr"/>
-      <c r="CO35" t="inlineStr"/>
-      <c r="CP35" t="inlineStr"/>
-      <c r="CQ35" t="inlineStr"/>
-      <c r="CR35" t="inlineStr"/>
-      <c r="CS35" t="inlineStr"/>
-      <c r="CT35" t="inlineStr"/>
-      <c r="CU35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>5031</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4951</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4891</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4831</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4723</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4683</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4643</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4603</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4591</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4561</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4541</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4521</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4528</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4518</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4518</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4518</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4552</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4562</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4572</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4592</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4601</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4641</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4681</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4731</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4790</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4870</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4970</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5090</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>5283</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5403</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5493</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>5563</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>5613</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>5623</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>5583</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>5503</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5288</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>5188</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>5098</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>5028</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>4937</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>4877</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>4797</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>4697</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>4664</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4574</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4514</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>4474</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>4514</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>4504</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4514</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>4544</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>4526</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>4556</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4586</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4606</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4687</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>4707</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>4727</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4737</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>4875</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>4905</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>4955</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>5025</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>5179</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>5269</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>5369</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>5469</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>5617</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>5737</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>5867</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>6021</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>6131</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>6221</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>6271</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>6044</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>6094</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>6174</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>6274</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>6320</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>6410</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>6450</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>6460</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>6388</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>6338</v>
+      </c>
+      <c r="CL35" t="n">
+        <v>6248</v>
+      </c>
+      <c r="CM35" t="n">
+        <v>6138</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>6124</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>5974</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>5824</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>5674</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>5557</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>5417</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>5287</v>
+      </c>
+      <c r="CU35" t="n">
+        <v>5167</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly_production_2023.xlsx
@@ -1841,1033 +1841,2973 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>45930</v>
+      </c>
       <c r="C7" s="2" t="n">
         <v>45931</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
-      <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>5315.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5235.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5175.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5125.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4964.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4959.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4940.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4939.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4993.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4981.3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4979.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4976.9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5016.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5013.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5008.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5024</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4989.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5001.4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5022.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5036</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5049.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5081.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5119.8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5168.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5161.7</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5209.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5250.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5289</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5374</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5417.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5481.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5636.1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5570.7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5598.6</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5635.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5682.4</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5594.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5423.9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5456.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5440.7</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>5235</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>5229</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>5229.1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>5207.8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>5238.7</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5244.2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5214.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>5205.1</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>5173.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>5170.8</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5152.8</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>5171.2</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>5118.9</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>5104.7</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>5106.8</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>5107.7</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>5124.5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>5104.3</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>5104.9</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>5103.4</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>5106.5</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>5066.9</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>5067.9</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5075.5</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>5059.5</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>5055.4</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>5014.5</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>5005.9</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>5155.8</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5122.6</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>5107.6</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>5225.2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>5269.4</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>5332.5</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>5532.9</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>5641.5</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>5786.3</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>5885.6</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>5944.2</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>5995.7</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>6529</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>6542.4</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>6525.3</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>6486.5</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>6342.2</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>6157.9</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>6038.3</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>5994.6</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>6169.3</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>6153.2</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>6094.1</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>6077.2</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>5843</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>5763.8</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>5744.6</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>5675.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>45931</v>
+      </c>
       <c r="C8" s="2" t="n">
         <v>45932</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>5739.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5728.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5742.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5724.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5104</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5064</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5044</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5004</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4886</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4856</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4846</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4836</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4802</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4812</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4812</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4822</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4841</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4861</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4881</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4921</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4981</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5051</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5141</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5271</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5521</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5671</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5831</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6001</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6082</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6242</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6382</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6502</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6620</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6710</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6770</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6820</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6799</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6799</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>6789</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>6759</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6916</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>6876</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6836</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6796</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6758</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6728</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6688</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6688</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>6658</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6638</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6618</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6711</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6721</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6721</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>6721</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>6597</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6567</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>6567</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6567</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>6649</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>6649</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>6649</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>6649</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>6659</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>6689</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>6719</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6759</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>6678</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6728</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>6768</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>6818</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>6744</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>6804</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>6874</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>6964</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>6993</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>7083</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>7133</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>7163</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>7267</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>7257</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>7227</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>7157</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>7024</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>6894</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>6774</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>6604</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>6502</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>6342</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>6172</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6032</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>6009</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>5879</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>5759</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>5649</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" s="2" t="n">
+        <v>45931</v>
+      </c>
       <c r="C9" s="2" t="n">
         <v>45933</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>5759.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5748.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5752.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5744.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5144</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5114</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5084</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5044</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4926</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4906</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4876</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4876</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4862</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4872</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4882</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4892</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4901</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4911</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4931</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4971</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5031</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5101</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5201</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5321</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5581</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5741</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5901</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6071</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6092</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6262</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6412</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6562</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6720</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6830</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6920</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>6990</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6999</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7029</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>7039</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>7039</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>7246</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>7226</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>7206</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7196</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>7198</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>7268</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>7268</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7268</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>7268</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>7351</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>7341</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>7331</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>7321</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>7217</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>7207</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>7197</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>7187</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>7229</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>7219</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>7199</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>7189</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>7169</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>7169</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>7189</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>7209</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>7118</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7148</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>7188</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>7208</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>7084</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7104</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>7124</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>7164</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7143</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>7193</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>7223</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>7223</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>7327</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>7327</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>7307</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>7237</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>7064</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>6904</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>6784</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>6644</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>6572</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>6422</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>6242</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>6102</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>6079</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>5889</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>5809</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>5699</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C10" s="2" t="n">
         <v>45934</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>5729.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5708.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5722.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5714.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5104</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5064</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5024</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4984</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4866</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4836</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4816</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4806</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4782</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4772</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4762</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4772</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4791</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4791</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4791</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4801</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4831</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4851</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4881</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4921</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5091</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5151</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5231</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5331</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5282</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5392</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5512</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5622</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5760</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5860</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>5940</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5989</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5989</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>5989</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>5959</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>6076</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6016</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5966</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5928</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5888</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5858</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>5828</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>5888</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>5868</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>5858</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5838</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5921</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5911</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>5921</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5921</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5857</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>5867</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>5887</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>5907</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>5979</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>5999</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>6019</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>6049</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6059</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>6099</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>6159</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>6219</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>6158</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6228</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>6288</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6358</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>6274</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>6344</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>6434</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>6534</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6563</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>6643</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>6673</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>6673</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>6777</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>6737</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6647</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>6577</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>6424</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>6294</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>6214</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>6114</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>6092</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>5992</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>5842</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>5702</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>5639</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>5509</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>5409</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>5299</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C11" s="2" t="n">
         <v>45935</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>5449.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5428.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5452.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5434.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4804</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4754</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4714</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4674</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4566</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4546</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4526</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4506</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4482</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4462</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4472</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4472</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4481</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4481</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4491</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4511</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4531</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4541</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4561</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>4711</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4751</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4791</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4831</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4732</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>4782</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4822</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>4852</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4910</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>4930</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>4910</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4890</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4819</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>4779</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>4739</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>4689</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>4856</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4806</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4776</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>4736</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>4728</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4708</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4688</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4668</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>4728</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4718</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4708</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4698</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4771</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4771</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4781</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>4791</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4727</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4747</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>4777</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4807</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>4909</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4949</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>5009</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5069</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>5129</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>5219</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>5409</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>5378</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5468</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>5558</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5648</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>5584</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>5684</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>5794</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5904</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>5953</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>6043</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6103</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>6123</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>6227</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>6217</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>6177</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>6127</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>6004</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>5894</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>5834</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>5764</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>5772</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>5682</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>5532</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>5422</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>5429</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>5309</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>5199</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>5099</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C12" s="2" t="n">
         <v>45936</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>5209.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5228.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5222.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5194.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4574</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4544</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4504</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4474</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4366</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4346</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4326</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4336</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4322</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4332</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4332</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4332</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4351</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4371</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4401</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4461</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4561</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4671</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4811</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4981</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5291</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5491</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5691</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5891</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5922</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6082</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6212</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6312</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>6430</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>6430</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>6410</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6249</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>6169</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>6089</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>6206</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>6126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>6046</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>5976</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>5928</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5868</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5818</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>5778</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5808</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5778</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5748</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5718</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>5791</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>5781</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>5771</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>5781</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5697</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>5707</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>5717</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5727</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>5789</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>5799</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>5809</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5829</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>5849</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>5909</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>5979</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>6079</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>6048</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6168</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>6278</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>6398</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>6374</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>6504</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>6664</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>6814</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>6903</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>7033</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>7073</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>7073</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>7177</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>7177</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>7127</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>7087</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>6974</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>6854</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>6764</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>6624</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>6562</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>6452</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>6292</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>6112</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>5979</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>5789</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>5709</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>5599</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C13" s="2" t="n">
         <v>45937</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>5769.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5768.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5772.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5754.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5134</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5084</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5054</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5014</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4906</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4866</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4856</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4832</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4832</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4832</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4812</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4831</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4841</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4851</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4881</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4941</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5011</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5101</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5221</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5481</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5631</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5801</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5961</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5972</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6122</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6242</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6342</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6430</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6480</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6450</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>6410</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6299</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6209</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>6099</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>5979</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>6066</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>5946</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>5846</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>5756</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>5698</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5638</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5598</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>5558</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5608</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5588</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5568</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5548</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5621</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>5601</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5591</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>5591</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5507</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5517</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5527</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>5547</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>5639</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>5669</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>5719</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>5769</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>5809</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>5889</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>5979</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>6079</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>6058</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6168</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>6288</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>6408</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>6394</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>6554</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>6714</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>6894</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>6983</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>7123</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>7173</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>7173</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>7277</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>7277</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>7187</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>7117</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>6964</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>6804</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>6704</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>6564</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>6522</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>6402</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>6242</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>6062</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>5939</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>5739</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>5659</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>5549</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C14" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
-      <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>5729.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5718.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5722.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5724.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5084</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5044</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5014</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4896</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4876</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4866</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4866</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4862</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4872</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4882</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4892</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4911</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4921</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4941</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4971</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5031</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5091</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5181</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5281</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5531</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5661</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5811</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5961</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5972</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6112</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6242</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6342</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6450</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>6520</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>6500</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6409</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6329</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>6219</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>6109</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>6186</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>6066</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5946</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5836</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>5758</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5688</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5628</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5588</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>5628</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>5608</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>5588</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>5568</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5641</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>5631</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5621</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>5621</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5537</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>5537</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>5547</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>5557</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>5629</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>5659</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>5699</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>5749</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>5799</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>5889</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>5999</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>6109</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>6098</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6218</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>6328</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>6428</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>6374</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>6474</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>6594</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>6724</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>6783</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>6903</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>6993</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>7033</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>7147</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>7137</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>7077</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>7037</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>6904</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>6774</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>6674</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>6524</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>6452</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>6302</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>6142</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>6002</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>5929</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>5769</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>5679</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>5569</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C15" s="2" t="n">
         <v>45939</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr"/>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr"/>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>5779.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5748.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5782.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5784.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5164</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5124</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5084</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5064</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4956</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4936</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4926</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4916</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4902</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4912</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4922</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4932</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4961</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4981</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5001</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5041</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5091</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5151</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5221</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5321</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>5561</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5701</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5861</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6021</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>6032</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6182</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6312</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6412</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6530</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6520</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>6480</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6369</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6279</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>6179</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6069</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>6176</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6066</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5976</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>5886</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>5808</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5728</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5658</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>5598</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>5628</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>5578</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5558</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>5538</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>5621</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>5641</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5651</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>5671</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5607</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>5617</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>5617</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>5607</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>5669</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>5679</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>5699</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>5759</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>5819</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>5919</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>6049</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>6179</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>6168</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6278</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>6368</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>6438</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>6364</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>6454</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>6574</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>6724</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>6803</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>6953</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>7053</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>7093</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>7197</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>7187</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>7127</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>7087</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>6954</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>6824</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>6724</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>6574</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>6502</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>6362</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>6192</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>6042</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>5989</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>5819</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>5729</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>5619</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>45932</v>
+      </c>
       <c r="C16" s="2" t="n">
         <v>45940</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5729.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5698.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5732.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5734.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5114</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5074</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5034</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5014</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4906</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4886</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4876</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4866</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4852</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4862</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4872</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4882</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4911</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4931</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4951</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4991</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5041</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5101</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5171</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5271</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5511</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5651</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5811</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5971</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5982</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6132</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6262</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6362</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>6450</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>6480</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>6470</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>6430</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6229</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>6129</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>6019</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>6126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>6016</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5926</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>5836</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5758</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5678</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5608</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5548</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5578</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>5528</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5508</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5488</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>5571</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5591</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5601</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5621</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5557</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>5567</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>5567</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>5557</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>5619</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>5629</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>5649</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>5709</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>5769</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>5869</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>5999</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>6129</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>6118</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6228</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>6318</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>6388</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6314</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>6404</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>6524</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>6674</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>6753</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>6903</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>7003</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>7043</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>7147</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>7137</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>7077</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>7037</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>6904</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>6774</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>6674</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>6524</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>6452</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>6312</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>6142</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>5992</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>5939</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>5769</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>5679</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>5569</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -12264,2377 +14204,2377 @@
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" s="2" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="D63" t="n">
-        <v>4724</v>
+        <v>4710</v>
       </c>
       <c r="E63" t="n">
-        <v>4694</v>
+        <v>4640</v>
       </c>
       <c r="F63" t="n">
-        <v>4664</v>
+        <v>4590</v>
       </c>
       <c r="G63" t="n">
-        <v>4594</v>
+        <v>4540</v>
       </c>
       <c r="H63" t="n">
-        <v>4373</v>
+        <v>5058</v>
       </c>
       <c r="I63" t="n">
-        <v>4333</v>
+        <v>5008</v>
       </c>
       <c r="J63" t="n">
-        <v>4303</v>
+        <v>4978</v>
       </c>
       <c r="K63" t="n">
-        <v>4273</v>
+        <v>4958</v>
       </c>
       <c r="L63" t="n">
-        <v>4265</v>
+        <v>4935.6</v>
       </c>
       <c r="M63" t="n">
-        <v>4245</v>
+        <v>4925.6</v>
       </c>
       <c r="N63" t="n">
-        <v>4235</v>
+        <v>4915.6</v>
       </c>
       <c r="O63" t="n">
-        <v>4225</v>
+        <v>4915.6</v>
       </c>
       <c r="P63" t="n">
-        <v>4237</v>
+        <v>4855.6</v>
       </c>
       <c r="Q63" t="n">
-        <v>4247</v>
+        <v>4855.6</v>
       </c>
       <c r="R63" t="n">
-        <v>4247</v>
+        <v>4855.6</v>
       </c>
       <c r="S63" t="n">
-        <v>4247</v>
+        <v>4855.6</v>
       </c>
       <c r="T63" t="n">
-        <v>4222</v>
+        <v>4741.4</v>
       </c>
       <c r="U63" t="n">
-        <v>4232</v>
+        <v>4761.4</v>
       </c>
       <c r="V63" t="n">
-        <v>4242</v>
+        <v>4771.4</v>
       </c>
       <c r="W63" t="n">
-        <v>4272</v>
+        <v>4801.4</v>
       </c>
       <c r="X63" t="n">
-        <v>4360</v>
+        <v>4582.6</v>
       </c>
       <c r="Y63" t="n">
-        <v>4420</v>
+        <v>4642.6</v>
       </c>
       <c r="Z63" t="n">
-        <v>4500</v>
+        <v>4722.6</v>
       </c>
       <c r="AA63" t="n">
-        <v>4600</v>
+        <v>4822.6</v>
       </c>
       <c r="AB63" t="n">
-        <v>4492</v>
+        <v>4348</v>
       </c>
       <c r="AC63" t="n">
-        <v>4622</v>
+        <v>4478</v>
       </c>
       <c r="AD63" t="n">
-        <v>4752</v>
+        <v>4598</v>
       </c>
       <c r="AE63" t="n">
-        <v>4872</v>
+        <v>4748</v>
       </c>
       <c r="AF63" t="n">
-        <v>4881</v>
+        <v>5073.1</v>
       </c>
       <c r="AG63" t="n">
-        <v>4981</v>
+        <v>5193.1</v>
       </c>
       <c r="AH63" t="n">
+        <v>5283.1</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>5313.1</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>6074</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>6064</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>6024</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>5934</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>5652.5</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>5532.5</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>5402.5</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>5262.5</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>5490.6</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>5350.6</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>5230.6</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>5120.6</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>5306</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>5216</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>5136</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>5056</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>5160</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>5110</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>5090</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>5090</v>
+      </c>
+      <c r="BD63" t="n">
         <v>5061</v>
       </c>
-      <c r="AI63" t="n">
-        <v>5121</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>5334</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>5334</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>5324</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>5264</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>5279</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>5179</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>5069</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>4959</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>5163</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>5053</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>4963</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>4873</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>4643</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>4583</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>4543</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>4503</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>4426</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>4406</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>4396</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>4386</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>4415</v>
-      </c>
       <c r="BE63" t="n">
-        <v>4415</v>
+        <v>5071</v>
       </c>
       <c r="BF63" t="n">
-        <v>4425</v>
+        <v>5081</v>
       </c>
       <c r="BG63" t="n">
-        <v>4445</v>
+        <v>5101</v>
       </c>
       <c r="BH63" t="n">
-        <v>4464</v>
+        <v>5014.7</v>
       </c>
       <c r="BI63" t="n">
-        <v>4504</v>
+        <v>5054.7</v>
       </c>
       <c r="BJ63" t="n">
-        <v>4544</v>
+        <v>5094.7</v>
       </c>
       <c r="BK63" t="n">
-        <v>4594</v>
+        <v>5144.7</v>
       </c>
       <c r="BL63" t="n">
-        <v>4735</v>
+        <v>5052</v>
       </c>
       <c r="BM63" t="n">
-        <v>4795</v>
+        <v>5122</v>
       </c>
       <c r="BN63" t="n">
-        <v>4855</v>
+        <v>5192</v>
       </c>
       <c r="BO63" t="n">
-        <v>4925</v>
+        <v>5282</v>
       </c>
       <c r="BP63" t="n">
-        <v>5088</v>
+        <v>4934.1</v>
       </c>
       <c r="BQ63" t="n">
-        <v>5178</v>
+        <v>5054.1</v>
       </c>
       <c r="BR63" t="n">
-        <v>5278</v>
+        <v>5184.1</v>
       </c>
       <c r="BS63" t="n">
-        <v>5378</v>
+        <v>5334.1</v>
       </c>
       <c r="BT63" t="n">
-        <v>5459</v>
+        <v>4937.7</v>
       </c>
       <c r="BU63" t="n">
-        <v>5569</v>
+        <v>5087.7</v>
       </c>
       <c r="BV63" t="n">
-        <v>5689</v>
+        <v>5227.7</v>
       </c>
       <c r="BW63" t="n">
-        <v>5799</v>
+        <v>5357.7</v>
       </c>
       <c r="BX63" t="n">
-        <v>5350</v>
+        <v>5271.8</v>
       </c>
       <c r="BY63" t="n">
-        <v>5460</v>
+        <v>5391.8</v>
       </c>
       <c r="BZ63" t="n">
-        <v>5580</v>
+        <v>5521.8</v>
       </c>
       <c r="CA63" t="n">
-        <v>5690</v>
+        <v>5641.8</v>
       </c>
       <c r="CB63" t="n">
-        <v>5667</v>
+        <v>5615.3</v>
       </c>
       <c r="CC63" t="n">
-        <v>5777</v>
+        <v>5745.3</v>
       </c>
       <c r="CD63" t="n">
-        <v>5867</v>
+        <v>5855.3</v>
       </c>
       <c r="CE63" t="n">
-        <v>5937</v>
+        <v>5945.3</v>
       </c>
       <c r="CF63" t="n">
-        <v>5946</v>
+        <v>6127.7</v>
       </c>
       <c r="CG63" t="n">
-        <v>5966</v>
+        <v>6177.7</v>
       </c>
       <c r="CH63" t="n">
-        <v>5956</v>
+        <v>6167.7</v>
       </c>
       <c r="CI63" t="n">
-        <v>5906</v>
+        <v>6117.7</v>
       </c>
       <c r="CJ63" t="n">
-        <v>5808</v>
+        <v>6194.4</v>
       </c>
       <c r="CK63" t="n">
-        <v>5648</v>
+        <v>6044.4</v>
       </c>
       <c r="CL63" t="n">
-        <v>5538</v>
+        <v>5914.4</v>
       </c>
       <c r="CM63" t="n">
-        <v>5418</v>
+        <v>5794.4</v>
       </c>
       <c r="CN63" t="n">
-        <v>5433</v>
+        <v>5728.4</v>
       </c>
       <c r="CO63" t="n">
-        <v>5313</v>
+        <v>5598.4</v>
       </c>
       <c r="CP63" t="n">
-        <v>5133</v>
+        <v>5438.4</v>
       </c>
       <c r="CQ63" t="n">
-        <v>4963</v>
+        <v>5268.4</v>
       </c>
       <c r="CR63" t="n">
-        <v>5050</v>
+        <v>5254.4</v>
       </c>
       <c r="CS63" t="n">
-        <v>4840</v>
+        <v>5104.4</v>
       </c>
       <c r="CT63" t="n">
-        <v>4770</v>
+        <v>4984.4</v>
       </c>
       <c r="CU63" t="n">
-        <v>4660</v>
+        <v>4874.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45924</v>
       </c>
       <c r="D64" t="n">
-        <v>5034</v>
+        <v>4857.4</v>
       </c>
       <c r="E64" t="n">
-        <v>4994</v>
+        <v>4797.4</v>
       </c>
       <c r="F64" t="n">
-        <v>4944</v>
+        <v>4747.4</v>
       </c>
       <c r="G64" t="n">
-        <v>4884</v>
+        <v>4707.4</v>
       </c>
       <c r="H64" t="n">
-        <v>4896</v>
+        <v>3470.5</v>
       </c>
       <c r="I64" t="n">
-        <v>4856</v>
+        <v>3440.5</v>
       </c>
       <c r="J64" t="n">
-        <v>4826</v>
+        <v>3420.5</v>
       </c>
       <c r="K64" t="n">
-        <v>4786</v>
+        <v>3390.5</v>
       </c>
       <c r="L64" t="n">
-        <v>4777</v>
+        <v>3040.2</v>
       </c>
       <c r="M64" t="n">
-        <v>4757</v>
+        <v>3020.2</v>
       </c>
       <c r="N64" t="n">
-        <v>4737</v>
+        <v>3010.2</v>
       </c>
       <c r="O64" t="n">
-        <v>4737</v>
+        <v>2990.2</v>
       </c>
       <c r="P64" t="n">
-        <v>4832</v>
+        <v>2971.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>4842</v>
+        <v>2971.4</v>
       </c>
       <c r="R64" t="n">
-        <v>4842</v>
+        <v>2971.4</v>
       </c>
       <c r="S64" t="n">
-        <v>4852</v>
+        <v>2971.4</v>
       </c>
       <c r="T64" t="n">
-        <v>4816</v>
+        <v>2941</v>
       </c>
       <c r="U64" t="n">
-        <v>4826</v>
+        <v>2951</v>
       </c>
       <c r="V64" t="n">
-        <v>4846</v>
+        <v>2961</v>
       </c>
       <c r="W64" t="n">
-        <v>4886</v>
+        <v>2991</v>
       </c>
       <c r="X64" t="n">
-        <v>4947</v>
+        <v>3208.1</v>
       </c>
       <c r="Y64" t="n">
-        <v>5017</v>
+        <v>3278.1</v>
       </c>
       <c r="Z64" t="n">
-        <v>5107</v>
+        <v>3368.1</v>
       </c>
       <c r="AA64" t="n">
-        <v>5217</v>
+        <v>3498.1</v>
       </c>
       <c r="AB64" t="n">
-        <v>5417</v>
+        <v>3652</v>
       </c>
       <c r="AC64" t="n">
-        <v>5547</v>
+        <v>3792</v>
       </c>
       <c r="AD64" t="n">
-        <v>5667</v>
+        <v>3942</v>
       </c>
       <c r="AE64" t="n">
-        <v>5787</v>
+        <v>4082</v>
       </c>
       <c r="AF64" t="n">
-        <v>6002</v>
+        <v>4019.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>6102</v>
+        <v>4149.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>6172</v>
+        <v>4209.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>6232</v>
+        <v>4259.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6261</v>
+        <v>5454.4</v>
       </c>
       <c r="AK64" t="n">
-        <v>6271</v>
+        <v>5424.4</v>
       </c>
       <c r="AL64" t="n">
-        <v>6271</v>
+        <v>5384.4</v>
       </c>
       <c r="AM64" t="n">
-        <v>6261</v>
+        <v>5314.4</v>
       </c>
       <c r="AN64" t="n">
-        <v>6507</v>
+        <v>6469.8</v>
       </c>
       <c r="AO64" t="n">
-        <v>6467</v>
+        <v>6369.8</v>
       </c>
       <c r="AP64" t="n">
-        <v>6407</v>
+        <v>6259.8</v>
       </c>
       <c r="AQ64" t="n">
-        <v>6337</v>
+        <v>6139.8</v>
       </c>
       <c r="AR64" t="n">
-        <v>6219</v>
+        <v>6932.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>6149</v>
+        <v>6812.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>6079</v>
+        <v>6702.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>6009</v>
+        <v>6592.5</v>
       </c>
       <c r="AV64" t="n">
-        <v>5952</v>
+        <v>6494.9</v>
       </c>
       <c r="AW64" t="n">
-        <v>5902</v>
+        <v>6414.9</v>
       </c>
       <c r="AX64" t="n">
-        <v>5852</v>
+        <v>6344.9</v>
       </c>
       <c r="AY64" t="n">
-        <v>5812</v>
+        <v>6294.9</v>
       </c>
       <c r="AZ64" t="n">
-        <v>5688</v>
+        <v>5997.9</v>
       </c>
       <c r="BA64" t="n">
-        <v>5668</v>
+        <v>5987.9</v>
       </c>
       <c r="BB64" t="n">
-        <v>5648</v>
+        <v>5967.9</v>
       </c>
       <c r="BC64" t="n">
-        <v>5638</v>
+        <v>5967.9</v>
       </c>
       <c r="BD64" t="n">
-        <v>5651</v>
+        <v>5925</v>
       </c>
       <c r="BE64" t="n">
-        <v>5651</v>
+        <v>5935</v>
       </c>
       <c r="BF64" t="n">
-        <v>5651</v>
+        <v>5955</v>
       </c>
       <c r="BG64" t="n">
-        <v>5651</v>
+        <v>5975</v>
       </c>
       <c r="BH64" t="n">
-        <v>5595</v>
+        <v>5993.3</v>
       </c>
       <c r="BI64" t="n">
-        <v>5605</v>
+        <v>6023.3</v>
       </c>
       <c r="BJ64" t="n">
-        <v>5625</v>
+        <v>6073.3</v>
       </c>
       <c r="BK64" t="n">
-        <v>5645</v>
+        <v>6133.3</v>
       </c>
       <c r="BL64" t="n">
-        <v>5677</v>
+        <v>6137.2</v>
       </c>
       <c r="BM64" t="n">
-        <v>5717</v>
+        <v>6207.2</v>
       </c>
       <c r="BN64" t="n">
-        <v>5757</v>
+        <v>6277.2</v>
       </c>
       <c r="BO64" t="n">
-        <v>5817</v>
+        <v>6347.2</v>
       </c>
       <c r="BP64" t="n">
-        <v>5826</v>
+        <v>6109.6</v>
       </c>
       <c r="BQ64" t="n">
-        <v>5906</v>
+        <v>6209.6</v>
       </c>
       <c r="BR64" t="n">
-        <v>5996</v>
+        <v>6319.6</v>
       </c>
       <c r="BS64" t="n">
-        <v>6086</v>
+        <v>6439.6</v>
       </c>
       <c r="BT64" t="n">
-        <v>5870</v>
+        <v>5568.8</v>
       </c>
       <c r="BU64" t="n">
-        <v>5970</v>
+        <v>5688.8</v>
       </c>
       <c r="BV64" t="n">
-        <v>6060</v>
+        <v>5808.8</v>
       </c>
       <c r="BW64" t="n">
-        <v>6140</v>
+        <v>5928.8</v>
       </c>
       <c r="BX64" t="n">
-        <v>6337</v>
+        <v>5120.4</v>
       </c>
       <c r="BY64" t="n">
-        <v>6417</v>
+        <v>5230.4</v>
       </c>
       <c r="BZ64" t="n">
-        <v>6497</v>
+        <v>5330.4</v>
       </c>
       <c r="CA64" t="n">
-        <v>6587</v>
+        <v>5440.4</v>
       </c>
       <c r="CB64" t="n">
-        <v>6408</v>
+        <v>5261.6</v>
       </c>
       <c r="CC64" t="n">
-        <v>6508</v>
+        <v>5371.6</v>
       </c>
       <c r="CD64" t="n">
-        <v>6598</v>
+        <v>5451.6</v>
       </c>
       <c r="CE64" t="n">
-        <v>6668</v>
+        <v>5531.6</v>
       </c>
       <c r="CF64" t="n">
-        <v>6719</v>
+        <v>5687.7</v>
       </c>
       <c r="CG64" t="n">
-        <v>6759</v>
+        <v>5727.7</v>
       </c>
       <c r="CH64" t="n">
-        <v>6729</v>
+        <v>5707.7</v>
       </c>
       <c r="CI64" t="n">
-        <v>6679</v>
+        <v>5667.7</v>
       </c>
       <c r="CJ64" t="n">
-        <v>6577</v>
+        <v>5714.8</v>
       </c>
       <c r="CK64" t="n">
-        <v>6417</v>
+        <v>5584.8</v>
       </c>
       <c r="CL64" t="n">
-        <v>6307</v>
+        <v>5454.8</v>
       </c>
       <c r="CM64" t="n">
-        <v>6197</v>
+        <v>5304.8</v>
       </c>
       <c r="CN64" t="n">
-        <v>6315</v>
+        <v>5549.1</v>
       </c>
       <c r="CO64" t="n">
-        <v>6185</v>
+        <v>5389.1</v>
       </c>
       <c r="CP64" t="n">
-        <v>6005</v>
+        <v>5209.1</v>
       </c>
       <c r="CQ64" t="n">
-        <v>5865</v>
+        <v>5059.1</v>
       </c>
       <c r="CR64" t="n">
-        <v>5718</v>
+        <v>4291.8</v>
       </c>
       <c r="CS64" t="n">
-        <v>5538</v>
+        <v>4141.8</v>
       </c>
       <c r="CT64" t="n">
-        <v>5458</v>
+        <v>4021.8</v>
       </c>
       <c r="CU64" t="n">
-        <v>5348</v>
+        <v>3911.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" s="2" t="n">
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45925</v>
       </c>
       <c r="D65" t="n">
-        <v>5084</v>
+        <v>4258.6</v>
       </c>
       <c r="E65" t="n">
-        <v>5044</v>
+        <v>4198.6</v>
       </c>
       <c r="F65" t="n">
-        <v>4994</v>
+        <v>4148.6</v>
       </c>
       <c r="G65" t="n">
-        <v>4934</v>
+        <v>4108.6</v>
       </c>
       <c r="H65" t="n">
-        <v>4946</v>
+        <v>4111.5</v>
       </c>
       <c r="I65" t="n">
-        <v>4906</v>
+        <v>4071.5</v>
       </c>
       <c r="J65" t="n">
-        <v>4876</v>
+        <v>4051.5</v>
       </c>
       <c r="K65" t="n">
-        <v>4836</v>
+        <v>4011.5</v>
       </c>
       <c r="L65" t="n">
-        <v>4827</v>
+        <v>4278.3</v>
       </c>
       <c r="M65" t="n">
-        <v>4807</v>
+        <v>4258.3</v>
       </c>
       <c r="N65" t="n">
-        <v>4787</v>
+        <v>4248.3</v>
       </c>
       <c r="O65" t="n">
-        <v>4787</v>
+        <v>4238.3</v>
       </c>
       <c r="P65" t="n">
-        <v>4882</v>
+        <v>4571.4</v>
       </c>
       <c r="Q65" t="n">
-        <v>4892</v>
+        <v>4581.4</v>
       </c>
       <c r="R65" t="n">
-        <v>4892</v>
+        <v>4591.4</v>
       </c>
       <c r="S65" t="n">
-        <v>4902</v>
+        <v>4591.4</v>
       </c>
       <c r="T65" t="n">
-        <v>4866</v>
+        <v>4589.6</v>
       </c>
       <c r="U65" t="n">
-        <v>4876</v>
+        <v>4599.6</v>
       </c>
       <c r="V65" t="n">
-        <v>4896</v>
+        <v>4619.6</v>
       </c>
       <c r="W65" t="n">
-        <v>4936</v>
+        <v>4649.6</v>
       </c>
       <c r="X65" t="n">
-        <v>4997</v>
+        <v>4539</v>
       </c>
       <c r="Y65" t="n">
-        <v>5067</v>
+        <v>4609</v>
       </c>
       <c r="Z65" t="n">
-        <v>5157</v>
+        <v>4699</v>
       </c>
       <c r="AA65" t="n">
-        <v>5267</v>
+        <v>4809</v>
       </c>
       <c r="AB65" t="n">
-        <v>5467</v>
+        <v>4315.1</v>
       </c>
       <c r="AC65" t="n">
-        <v>5597</v>
+        <v>4445.1</v>
       </c>
       <c r="AD65" t="n">
-        <v>5717</v>
+        <v>4575.1</v>
       </c>
       <c r="AE65" t="n">
-        <v>5837</v>
+        <v>4725.1</v>
       </c>
       <c r="AF65" t="n">
-        <v>6052</v>
+        <v>5727.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>6152</v>
+        <v>5867.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>6222</v>
+        <v>5957.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>6282</v>
+        <v>6037.5</v>
       </c>
       <c r="AJ65" t="n">
-        <v>6311</v>
+        <v>6722.2</v>
       </c>
       <c r="AK65" t="n">
-        <v>6321</v>
+        <v>6752.2</v>
       </c>
       <c r="AL65" t="n">
-        <v>6321</v>
+        <v>6762.2</v>
       </c>
       <c r="AM65" t="n">
-        <v>6311</v>
+        <v>6772.2</v>
       </c>
       <c r="AN65" t="n">
-        <v>6557</v>
+        <v>7506.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>6517</v>
+        <v>7486.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>6457</v>
+        <v>7456.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>6387</v>
+        <v>7406.5</v>
       </c>
       <c r="AR65" t="n">
-        <v>6269</v>
+        <v>7853</v>
       </c>
       <c r="AS65" t="n">
-        <v>6199</v>
+        <v>7783</v>
       </c>
       <c r="AT65" t="n">
-        <v>6129</v>
+        <v>7713</v>
       </c>
       <c r="AU65" t="n">
-        <v>6059</v>
+        <v>7653</v>
       </c>
       <c r="AV65" t="n">
-        <v>6002</v>
+        <v>7125.2</v>
       </c>
       <c r="AW65" t="n">
-        <v>5952</v>
+        <v>7065.2</v>
       </c>
       <c r="AX65" t="n">
-        <v>5902</v>
+        <v>7015.2</v>
       </c>
       <c r="AY65" t="n">
-        <v>5862</v>
+        <v>6975.2</v>
       </c>
       <c r="AZ65" t="n">
-        <v>5738</v>
+        <v>6943.7</v>
       </c>
       <c r="BA65" t="n">
-        <v>5718</v>
+        <v>6913.7</v>
       </c>
       <c r="BB65" t="n">
-        <v>5698</v>
+        <v>6883.7</v>
       </c>
       <c r="BC65" t="n">
-        <v>5688</v>
+        <v>6873.7</v>
       </c>
       <c r="BD65" t="n">
-        <v>5701</v>
+        <v>6658.3</v>
       </c>
       <c r="BE65" t="n">
-        <v>5701</v>
+        <v>6658.3</v>
       </c>
       <c r="BF65" t="n">
-        <v>5701</v>
+        <v>6658.3</v>
       </c>
       <c r="BG65" t="n">
-        <v>5701</v>
+        <v>6658.3</v>
       </c>
       <c r="BH65" t="n">
-        <v>5645</v>
+        <v>6710.2</v>
       </c>
       <c r="BI65" t="n">
-        <v>5655</v>
+        <v>6710.2</v>
       </c>
       <c r="BJ65" t="n">
-        <v>5675</v>
+        <v>6710.2</v>
       </c>
       <c r="BK65" t="n">
-        <v>5695</v>
+        <v>6720.2</v>
       </c>
       <c r="BL65" t="n">
-        <v>5727</v>
+        <v>6704.3</v>
       </c>
       <c r="BM65" t="n">
-        <v>5767</v>
+        <v>6734.3</v>
       </c>
       <c r="BN65" t="n">
-        <v>5807</v>
+        <v>6754.3</v>
       </c>
       <c r="BO65" t="n">
-        <v>5867</v>
+        <v>6784.3</v>
       </c>
       <c r="BP65" t="n">
-        <v>5876</v>
+        <v>6920</v>
       </c>
       <c r="BQ65" t="n">
-        <v>5956</v>
+        <v>6980</v>
       </c>
       <c r="BR65" t="n">
-        <v>6046</v>
+        <v>7050</v>
       </c>
       <c r="BS65" t="n">
-        <v>6136</v>
+        <v>7120</v>
       </c>
       <c r="BT65" t="n">
-        <v>5920</v>
+        <v>6608.9</v>
       </c>
       <c r="BU65" t="n">
-        <v>6020</v>
+        <v>6678.9</v>
       </c>
       <c r="BV65" t="n">
-        <v>6110</v>
+        <v>6758.9</v>
       </c>
       <c r="BW65" t="n">
-        <v>6190</v>
+        <v>6848.9</v>
       </c>
       <c r="BX65" t="n">
-        <v>6387</v>
+        <v>6871.1</v>
       </c>
       <c r="BY65" t="n">
-        <v>6467</v>
+        <v>6971.1</v>
       </c>
       <c r="BZ65" t="n">
-        <v>6547</v>
+        <v>7081.1</v>
       </c>
       <c r="CA65" t="n">
-        <v>6637</v>
+        <v>7191.1</v>
       </c>
       <c r="CB65" t="n">
-        <v>6458</v>
+        <v>7557.4</v>
       </c>
       <c r="CC65" t="n">
-        <v>6558</v>
+        <v>7667.4</v>
       </c>
       <c r="CD65" t="n">
-        <v>6648</v>
+        <v>7747.4</v>
       </c>
       <c r="CE65" t="n">
-        <v>6718</v>
+        <v>7817.4</v>
       </c>
       <c r="CF65" t="n">
-        <v>6769</v>
+        <v>7695.4</v>
       </c>
       <c r="CG65" t="n">
-        <v>6809</v>
+        <v>7705.4</v>
       </c>
       <c r="CH65" t="n">
-        <v>6779</v>
+        <v>7675.4</v>
       </c>
       <c r="CI65" t="n">
-        <v>6729</v>
+        <v>7625.4</v>
       </c>
       <c r="CJ65" t="n">
-        <v>6627</v>
+        <v>7623</v>
       </c>
       <c r="CK65" t="n">
-        <v>6467</v>
+        <v>7473</v>
       </c>
       <c r="CL65" t="n">
-        <v>6357</v>
+        <v>7363</v>
       </c>
       <c r="CM65" t="n">
-        <v>6247</v>
+        <v>7233</v>
       </c>
       <c r="CN65" t="n">
-        <v>6365</v>
+        <v>6767.3</v>
       </c>
       <c r="CO65" t="n">
-        <v>6235</v>
+        <v>6607.3</v>
       </c>
       <c r="CP65" t="n">
-        <v>6055</v>
+        <v>6427.3</v>
       </c>
       <c r="CQ65" t="n">
-        <v>5915</v>
+        <v>6277.3</v>
       </c>
       <c r="CR65" t="n">
-        <v>5768</v>
+        <v>6157</v>
       </c>
       <c r="CS65" t="n">
-        <v>5588</v>
+        <v>6027</v>
       </c>
       <c r="CT65" t="n">
-        <v>5508</v>
+        <v>5897</v>
       </c>
       <c r="CU65" t="n">
-        <v>5398</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" s="2" t="n">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="D66" t="n">
-        <v>5104</v>
+        <v>5629.9</v>
       </c>
       <c r="E66" t="n">
-        <v>5064</v>
+        <v>5569.9</v>
       </c>
       <c r="F66" t="n">
-        <v>5014</v>
+        <v>5529.9</v>
       </c>
       <c r="G66" t="n">
-        <v>4954</v>
+        <v>5479.9</v>
       </c>
       <c r="H66" t="n">
-        <v>4966</v>
+        <v>5731.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4926</v>
+        <v>5701.9</v>
       </c>
       <c r="J66" t="n">
-        <v>4896</v>
+        <v>5661.9</v>
       </c>
       <c r="K66" t="n">
-        <v>4856</v>
+        <v>5631.9</v>
       </c>
       <c r="L66" t="n">
-        <v>4847</v>
+        <v>5884.8</v>
       </c>
       <c r="M66" t="n">
-        <v>4827</v>
+        <v>5864.8</v>
       </c>
       <c r="N66" t="n">
-        <v>4787</v>
+        <v>5854.8</v>
       </c>
       <c r="O66" t="n">
-        <v>4787</v>
+        <v>5854.8</v>
       </c>
       <c r="P66" t="n">
-        <v>4882</v>
+        <v>6149.7</v>
       </c>
       <c r="Q66" t="n">
-        <v>4892</v>
+        <v>6149.7</v>
       </c>
       <c r="R66" t="n">
-        <v>4842</v>
+        <v>6149.7</v>
       </c>
       <c r="S66" t="n">
-        <v>4852</v>
+        <v>6149.7</v>
       </c>
       <c r="T66" t="n">
-        <v>4816</v>
+        <v>6234.3</v>
       </c>
       <c r="U66" t="n">
-        <v>4826</v>
+        <v>6244.3</v>
       </c>
       <c r="V66" t="n">
-        <v>4846</v>
+        <v>6254.3</v>
       </c>
       <c r="W66" t="n">
-        <v>4886</v>
+        <v>6284.3</v>
       </c>
       <c r="X66" t="n">
-        <v>4947</v>
+        <v>6003.7</v>
       </c>
       <c r="Y66" t="n">
-        <v>5017</v>
+        <v>6053.7</v>
       </c>
       <c r="Z66" t="n">
-        <v>5107</v>
+        <v>6133.7</v>
       </c>
       <c r="AA66" t="n">
-        <v>5217</v>
+        <v>6233.7</v>
       </c>
       <c r="AB66" t="n">
-        <v>5417</v>
+        <v>5601.7</v>
       </c>
       <c r="AC66" t="n">
-        <v>5547</v>
+        <v>5721.7</v>
       </c>
       <c r="AD66" t="n">
-        <v>5667</v>
+        <v>5861.7</v>
       </c>
       <c r="AE66" t="n">
-        <v>5787</v>
+        <v>6001.7</v>
       </c>
       <c r="AF66" t="n">
-        <v>6002</v>
+        <v>6451.8</v>
       </c>
       <c r="AG66" t="n">
-        <v>6102</v>
+        <v>6581.8</v>
       </c>
       <c r="AH66" t="n">
-        <v>6172</v>
+        <v>6691.8</v>
       </c>
       <c r="AI66" t="n">
-        <v>6232</v>
+        <v>6791.8</v>
       </c>
       <c r="AJ66" t="n">
-        <v>6261</v>
+        <v>6761.6</v>
       </c>
       <c r="AK66" t="n">
-        <v>6271</v>
+        <v>6821.6</v>
       </c>
       <c r="AL66" t="n">
-        <v>6271</v>
+        <v>6851.6</v>
       </c>
       <c r="AM66" t="n">
-        <v>6261</v>
+        <v>6861.6</v>
       </c>
       <c r="AN66" t="n">
-        <v>6507</v>
+        <v>6257.3</v>
       </c>
       <c r="AO66" t="n">
-        <v>6467</v>
+        <v>6227.3</v>
       </c>
       <c r="AP66" t="n">
-        <v>6407</v>
+        <v>6187.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>6337</v>
+        <v>6117.3</v>
       </c>
       <c r="AR66" t="n">
-        <v>6219</v>
+        <v>6603.7</v>
       </c>
       <c r="AS66" t="n">
-        <v>6149</v>
+        <v>6533.7</v>
       </c>
       <c r="AT66" t="n">
-        <v>6079</v>
+        <v>6473.7</v>
       </c>
       <c r="AU66" t="n">
-        <v>6009</v>
+        <v>6403.7</v>
       </c>
       <c r="AV66" t="n">
-        <v>5952</v>
+        <v>6208.5</v>
       </c>
       <c r="AW66" t="n">
-        <v>5902</v>
+        <v>6148.5</v>
       </c>
       <c r="AX66" t="n">
-        <v>5852</v>
+        <v>6108.5</v>
       </c>
       <c r="AY66" t="n">
-        <v>5812</v>
+        <v>6068.5</v>
       </c>
       <c r="AZ66" t="n">
-        <v>5688</v>
+        <v>6101.2</v>
       </c>
       <c r="BA66" t="n">
-        <v>5668</v>
+        <v>6071.2</v>
       </c>
       <c r="BB66" t="n">
-        <v>5648</v>
+        <v>6051.2</v>
       </c>
       <c r="BC66" t="n">
-        <v>5638</v>
+        <v>6031.2</v>
       </c>
       <c r="BD66" t="n">
-        <v>5651</v>
+        <v>6047.9</v>
       </c>
       <c r="BE66" t="n">
-        <v>5651</v>
+        <v>6037.9</v>
       </c>
       <c r="BF66" t="n">
-        <v>5651</v>
+        <v>6027.9</v>
       </c>
       <c r="BG66" t="n">
-        <v>5651</v>
+        <v>6017.9</v>
       </c>
       <c r="BH66" t="n">
-        <v>5595</v>
+        <v>5794</v>
       </c>
       <c r="BI66" t="n">
-        <v>5605</v>
+        <v>5794</v>
       </c>
       <c r="BJ66" t="n">
-        <v>5625</v>
+        <v>5804</v>
       </c>
       <c r="BK66" t="n">
-        <v>5645</v>
+        <v>5814</v>
       </c>
       <c r="BL66" t="n">
-        <v>5677</v>
+        <v>5803.4</v>
       </c>
       <c r="BM66" t="n">
-        <v>5717</v>
+        <v>5823.4</v>
       </c>
       <c r="BN66" t="n">
-        <v>5757</v>
+        <v>5843.4</v>
       </c>
       <c r="BO66" t="n">
-        <v>5817</v>
+        <v>5883.4</v>
       </c>
       <c r="BP66" t="n">
-        <v>5826</v>
+        <v>5884.1</v>
       </c>
       <c r="BQ66" t="n">
-        <v>5906</v>
+        <v>5954.1</v>
       </c>
       <c r="BR66" t="n">
-        <v>5996</v>
+        <v>6014.1</v>
       </c>
       <c r="BS66" t="n">
-        <v>6086</v>
+        <v>6094.1</v>
       </c>
       <c r="BT66" t="n">
-        <v>5870</v>
+        <v>6186.9</v>
       </c>
       <c r="BU66" t="n">
-        <v>5970</v>
+        <v>6276.9</v>
       </c>
       <c r="BV66" t="n">
-        <v>6060</v>
+        <v>6366.9</v>
       </c>
       <c r="BW66" t="n">
-        <v>6140</v>
+        <v>6456.9</v>
       </c>
       <c r="BX66" t="n">
-        <v>6337</v>
+        <v>6556.7</v>
       </c>
       <c r="BY66" t="n">
-        <v>6417</v>
+        <v>6636.7</v>
       </c>
       <c r="BZ66" t="n">
-        <v>6497</v>
+        <v>6726.7</v>
       </c>
       <c r="CA66" t="n">
-        <v>6587</v>
+        <v>6826.7</v>
       </c>
       <c r="CB66" t="n">
-        <v>6408</v>
+        <v>7728</v>
       </c>
       <c r="CC66" t="n">
-        <v>6508</v>
+        <v>7828</v>
       </c>
       <c r="CD66" t="n">
-        <v>6598</v>
+        <v>7898</v>
       </c>
       <c r="CE66" t="n">
-        <v>6668</v>
+        <v>7948</v>
       </c>
       <c r="CF66" t="n">
-        <v>6719</v>
+        <v>7645.8</v>
       </c>
       <c r="CG66" t="n">
-        <v>6759</v>
+        <v>7655.8</v>
       </c>
       <c r="CH66" t="n">
-        <v>6729</v>
+        <v>7625.8</v>
       </c>
       <c r="CI66" t="n">
-        <v>6679</v>
+        <v>7575.8</v>
       </c>
       <c r="CJ66" t="n">
-        <v>6577</v>
+        <v>7342.1</v>
       </c>
       <c r="CK66" t="n">
-        <v>6417</v>
+        <v>7212.1</v>
       </c>
       <c r="CL66" t="n">
-        <v>6307</v>
+        <v>7102.1</v>
       </c>
       <c r="CM66" t="n">
-        <v>6197</v>
+        <v>6952.1</v>
       </c>
       <c r="CN66" t="n">
-        <v>6315</v>
+        <v>6463.1</v>
       </c>
       <c r="CO66" t="n">
-        <v>6185</v>
+        <v>6303.1</v>
       </c>
       <c r="CP66" t="n">
-        <v>6005</v>
+        <v>6143.1</v>
       </c>
       <c r="CQ66" t="n">
-        <v>5865</v>
+        <v>5993.1</v>
       </c>
       <c r="CR66" t="n">
-        <v>5718</v>
+        <v>5936.3</v>
       </c>
       <c r="CS66" t="n">
-        <v>5538</v>
+        <v>5796.3</v>
       </c>
       <c r="CT66" t="n">
-        <v>5458</v>
+        <v>5676.3</v>
       </c>
       <c r="CU66" t="n">
-        <v>5348</v>
+        <v>5566.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" s="2" t="n">
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45927</v>
       </c>
       <c r="D67" t="n">
-        <v>5267</v>
+        <v>6217.7</v>
       </c>
       <c r="E67" t="n">
-        <v>5197</v>
+        <v>6147.7</v>
       </c>
       <c r="F67" t="n">
-        <v>5157</v>
+        <v>6097.7</v>
       </c>
       <c r="G67" t="n">
-        <v>5107</v>
+        <v>6047.7</v>
       </c>
       <c r="H67" t="n">
-        <v>4967</v>
+        <v>4927.3</v>
       </c>
       <c r="I67" t="n">
-        <v>4917</v>
+        <v>4877.3</v>
       </c>
       <c r="J67" t="n">
-        <v>4867</v>
+        <v>4837.3</v>
       </c>
       <c r="K67" t="n">
-        <v>4827</v>
+        <v>4807.3</v>
       </c>
       <c r="L67" t="n">
-        <v>4844</v>
+        <v>5010</v>
       </c>
       <c r="M67" t="n">
-        <v>4824</v>
+        <v>4990</v>
       </c>
       <c r="N67" t="n">
-        <v>4814</v>
+        <v>4990</v>
       </c>
       <c r="O67" t="n">
-        <v>4804</v>
+        <v>4970</v>
       </c>
       <c r="P67" t="n">
-        <v>4695</v>
+        <v>5109.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>4685</v>
+        <v>5099.4</v>
       </c>
       <c r="R67" t="n">
-        <v>4685</v>
+        <v>5099.4</v>
       </c>
       <c r="S67" t="n">
-        <v>4685</v>
+        <v>5099.4</v>
       </c>
       <c r="T67" t="n">
-        <v>4659</v>
+        <v>5135.8</v>
       </c>
       <c r="U67" t="n">
-        <v>4659</v>
+        <v>5135.8</v>
       </c>
       <c r="V67" t="n">
-        <v>4669</v>
+        <v>5135.8</v>
       </c>
       <c r="W67" t="n">
-        <v>4669</v>
+        <v>5145.8</v>
       </c>
       <c r="X67" t="n">
-        <v>4697</v>
+        <v>5066</v>
       </c>
       <c r="Y67" t="n">
-        <v>4707</v>
+        <v>5086</v>
       </c>
       <c r="Z67" t="n">
-        <v>4717</v>
+        <v>5116</v>
       </c>
       <c r="AA67" t="n">
-        <v>4737</v>
+        <v>5146</v>
       </c>
       <c r="AB67" t="n">
-        <v>4607</v>
+        <v>5189</v>
       </c>
       <c r="AC67" t="n">
-        <v>4627</v>
+        <v>5239</v>
       </c>
       <c r="AD67" t="n">
-        <v>4647</v>
+        <v>5279</v>
       </c>
       <c r="AE67" t="n">
-        <v>4677</v>
+        <v>5339</v>
       </c>
       <c r="AF67" t="n">
-        <v>4510</v>
+        <v>5451.8</v>
       </c>
       <c r="AG67" t="n">
-        <v>4540</v>
+        <v>5511.8</v>
       </c>
       <c r="AH67" t="n">
-        <v>4570</v>
+        <v>5561.8</v>
       </c>
       <c r="AI67" t="n">
-        <v>4610</v>
+        <v>5621.8</v>
       </c>
       <c r="AJ67" t="n">
-        <v>4830</v>
+        <v>5545.2</v>
       </c>
       <c r="AK67" t="n">
-        <v>4860</v>
+        <v>5565.2</v>
       </c>
       <c r="AL67" t="n">
-        <v>4880</v>
+        <v>5565.2</v>
       </c>
       <c r="AM67" t="n">
-        <v>4870</v>
+        <v>5545.2</v>
       </c>
       <c r="AN67" t="n">
-        <v>5234</v>
+        <v>5093.8</v>
       </c>
       <c r="AO67" t="n">
-        <v>5194</v>
+        <v>5023.8</v>
       </c>
       <c r="AP67" t="n">
-        <v>5144</v>
+        <v>4963.8</v>
       </c>
       <c r="AQ67" t="n">
-        <v>5074</v>
+        <v>4893.8</v>
       </c>
       <c r="AR67" t="n">
-        <v>5047</v>
+        <v>4982.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>4967</v>
+        <v>4892.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>4877</v>
+        <v>4822.5</v>
       </c>
       <c r="AU67" t="n">
-        <v>4797</v>
+        <v>4752.5</v>
       </c>
       <c r="AV67" t="n">
-        <v>4856</v>
+        <v>4892.1</v>
       </c>
       <c r="AW67" t="n">
-        <v>4796</v>
+        <v>4822.1</v>
       </c>
       <c r="AX67" t="n">
-        <v>4756</v>
+        <v>4772.1</v>
       </c>
       <c r="AY67" t="n">
-        <v>4716</v>
+        <v>4732.1</v>
       </c>
       <c r="AZ67" t="n">
-        <v>4570</v>
+        <v>4791.3</v>
       </c>
       <c r="BA67" t="n">
-        <v>4550</v>
+        <v>4751.3</v>
       </c>
       <c r="BB67" t="n">
-        <v>4550</v>
+        <v>4731.3</v>
       </c>
       <c r="BC67" t="n">
-        <v>4540</v>
+        <v>4701.3</v>
       </c>
       <c r="BD67" t="n">
-        <v>4456</v>
+        <v>4605.8</v>
       </c>
       <c r="BE67" t="n">
-        <v>4456</v>
+        <v>4585.8</v>
       </c>
       <c r="BF67" t="n">
-        <v>4466</v>
+        <v>4575.8</v>
       </c>
       <c r="BG67" t="n">
-        <v>4476</v>
+        <v>4575.8</v>
       </c>
       <c r="BH67" t="n">
-        <v>4344</v>
+        <v>4456.8</v>
       </c>
       <c r="BI67" t="n">
-        <v>4374</v>
+        <v>4456.8</v>
       </c>
       <c r="BJ67" t="n">
-        <v>4414</v>
+        <v>4486.8</v>
       </c>
       <c r="BK67" t="n">
-        <v>4454</v>
+        <v>4516.8</v>
       </c>
       <c r="BL67" t="n">
-        <v>4544</v>
+        <v>4323.6</v>
       </c>
       <c r="BM67" t="n">
-        <v>4604</v>
+        <v>4363.6</v>
       </c>
       <c r="BN67" t="n">
-        <v>4654</v>
+        <v>4413.6</v>
       </c>
       <c r="BO67" t="n">
-        <v>4724</v>
+        <v>4483.6</v>
       </c>
       <c r="BP67" t="n">
-        <v>4676</v>
+        <v>4105</v>
       </c>
       <c r="BQ67" t="n">
-        <v>4746</v>
+        <v>4205</v>
       </c>
       <c r="BR67" t="n">
-        <v>4836</v>
+        <v>4315</v>
       </c>
       <c r="BS67" t="n">
-        <v>4926</v>
+        <v>4435</v>
       </c>
       <c r="BT67" t="n">
-        <v>5099</v>
+        <v>4145.7</v>
       </c>
       <c r="BU67" t="n">
-        <v>5199</v>
+        <v>4275.7</v>
       </c>
       <c r="BV67" t="n">
-        <v>5299</v>
+        <v>4405.7</v>
       </c>
       <c r="BW67" t="n">
-        <v>5409</v>
+        <v>4525.7</v>
       </c>
       <c r="BX67" t="n">
-        <v>5028</v>
+        <v>4617.5</v>
       </c>
       <c r="BY67" t="n">
-        <v>5138</v>
+        <v>4727.5</v>
       </c>
       <c r="BZ67" t="n">
+        <v>4847.5</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>4977.5</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>4928</v>
+      </c>
+      <c r="CC67" t="n">
+        <v>5068</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>5178</v>
+      </c>
+      <c r="CE67" t="n">
         <v>5258</v>
       </c>
-      <c r="CA67" t="n">
-        <v>5388</v>
-      </c>
-      <c r="CB67" t="n">
-        <v>5582</v>
-      </c>
-      <c r="CC67" t="n">
-        <v>5722</v>
-      </c>
-      <c r="CD67" t="n">
-        <v>5862</v>
-      </c>
-      <c r="CE67" t="n">
-        <v>5962</v>
-      </c>
       <c r="CF67" t="n">
-        <v>5879</v>
+        <v>5254.2</v>
       </c>
       <c r="CG67" t="n">
-        <v>5929</v>
+        <v>5284.2</v>
       </c>
       <c r="CH67" t="n">
-        <v>5929</v>
+        <v>5264.2</v>
       </c>
       <c r="CI67" t="n">
-        <v>5889</v>
+        <v>5214.2</v>
       </c>
       <c r="CJ67" t="n">
-        <v>5689</v>
+        <v>5315.6</v>
       </c>
       <c r="CK67" t="n">
-        <v>5539</v>
+        <v>5205.6</v>
       </c>
       <c r="CL67" t="n">
-        <v>5449</v>
+        <v>5095.6</v>
       </c>
       <c r="CM67" t="n">
-        <v>5359</v>
+        <v>4975.6</v>
       </c>
       <c r="CN67" t="n">
-        <v>5682</v>
+        <v>5058.6</v>
       </c>
       <c r="CO67" t="n">
-        <v>5582</v>
+        <v>4918.6</v>
       </c>
       <c r="CP67" t="n">
-        <v>5412</v>
+        <v>4768.6</v>
       </c>
       <c r="CQ67" t="n">
-        <v>5272</v>
+        <v>4618.6</v>
       </c>
       <c r="CR67" t="n">
-        <v>5342</v>
+        <v>4370.6</v>
       </c>
       <c r="CS67" t="n">
-        <v>5182</v>
+        <v>4260.6</v>
       </c>
       <c r="CT67" t="n">
-        <v>5092</v>
+        <v>4140.6</v>
       </c>
       <c r="CU67" t="n">
-        <v>4982</v>
+        <v>4030.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" s="2" t="n">
-        <v>45919</v>
+        <v>45927</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45928</v>
       </c>
       <c r="D68" t="n">
-        <v>4997</v>
+        <v>4161.5</v>
       </c>
       <c r="E68" t="n">
-        <v>4927</v>
+        <v>4091.5</v>
       </c>
       <c r="F68" t="n">
-        <v>4897</v>
+        <v>4041.5</v>
       </c>
       <c r="G68" t="n">
-        <v>4827</v>
+        <v>3991.5</v>
       </c>
       <c r="H68" t="n">
-        <v>4677</v>
+        <v>4075.7</v>
       </c>
       <c r="I68" t="n">
-        <v>4617</v>
+        <v>4035.7</v>
       </c>
       <c r="J68" t="n">
-        <v>4567</v>
+        <v>4005.7</v>
       </c>
       <c r="K68" t="n">
-        <v>4537</v>
+        <v>3985.7</v>
       </c>
       <c r="L68" t="n">
-        <v>4564</v>
+        <v>4005.7</v>
       </c>
       <c r="M68" t="n">
-        <v>4544</v>
+        <v>3985.7</v>
       </c>
       <c r="N68" t="n">
-        <v>4524</v>
+        <v>3965.7</v>
       </c>
       <c r="O68" t="n">
-        <v>4504</v>
+        <v>3945.7</v>
       </c>
       <c r="P68" t="n">
-        <v>4385</v>
+        <v>3976.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>4375</v>
+        <v>3956.5</v>
       </c>
       <c r="R68" t="n">
-        <v>4365</v>
+        <v>3946.5</v>
       </c>
       <c r="S68" t="n">
-        <v>4365</v>
+        <v>3946.5</v>
       </c>
       <c r="T68" t="n">
-        <v>4339</v>
+        <v>3975.9</v>
       </c>
       <c r="U68" t="n">
-        <v>4349</v>
+        <v>3985.9</v>
       </c>
       <c r="V68" t="n">
-        <v>4349</v>
+        <v>3985.9</v>
       </c>
       <c r="W68" t="n">
-        <v>4359</v>
+        <v>4005.9</v>
       </c>
       <c r="X68" t="n">
-        <v>4377</v>
+        <v>4041.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>4377</v>
+        <v>4061.4</v>
       </c>
       <c r="Z68" t="n">
-        <v>4377</v>
+        <v>4081.4</v>
       </c>
       <c r="AA68" t="n">
-        <v>4377</v>
+        <v>4101.4</v>
       </c>
       <c r="AB68" t="n">
-        <v>4237</v>
+        <v>4054.7</v>
       </c>
       <c r="AC68" t="n">
-        <v>4237</v>
+        <v>4074.7</v>
       </c>
       <c r="AD68" t="n">
-        <v>4237</v>
+        <v>4074.7</v>
       </c>
       <c r="AE68" t="n">
-        <v>4237</v>
+        <v>4094.7</v>
       </c>
       <c r="AF68" t="n">
-        <v>4050</v>
+        <v>4294.4</v>
       </c>
       <c r="AG68" t="n">
-        <v>4070</v>
+        <v>4304.4</v>
       </c>
       <c r="AH68" t="n">
-        <v>4070</v>
+        <v>4314.4</v>
       </c>
       <c r="AI68" t="n">
-        <v>4070</v>
+        <v>4314.4</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4260</v>
+        <v>4586.3</v>
       </c>
       <c r="AK68" t="n">
-        <v>4260</v>
+        <v>4586.3</v>
       </c>
       <c r="AL68" t="n">
-        <v>4230</v>
+        <v>4566.3</v>
       </c>
       <c r="AM68" t="n">
-        <v>4180</v>
+        <v>4506.3</v>
       </c>
       <c r="AN68" t="n">
-        <v>4494</v>
+        <v>4456.2</v>
       </c>
       <c r="AO68" t="n">
-        <v>4424</v>
+        <v>4356.2</v>
       </c>
       <c r="AP68" t="n">
-        <v>4334</v>
+        <v>4256.2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>4244</v>
+        <v>4156.2</v>
       </c>
       <c r="AR68" t="n">
-        <v>4217</v>
+        <v>4417.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>4127</v>
+        <v>4307.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>4057</v>
+        <v>4207.4</v>
       </c>
       <c r="AU68" t="n">
-        <v>3997</v>
+        <v>4117.4</v>
       </c>
       <c r="AV68" t="n">
-        <v>4076</v>
+        <v>4328.3</v>
       </c>
       <c r="AW68" t="n">
-        <v>4036</v>
+        <v>4268.3</v>
       </c>
       <c r="AX68" t="n">
-        <v>4006</v>
+        <v>4228.3</v>
       </c>
       <c r="AY68" t="n">
-        <v>3986</v>
+        <v>4198.3</v>
       </c>
       <c r="AZ68" t="n">
-        <v>3840</v>
+        <v>4063.4</v>
       </c>
       <c r="BA68" t="n">
-        <v>3830</v>
+        <v>4053.4</v>
       </c>
       <c r="BB68" t="n">
-        <v>3810</v>
+        <v>4053.4</v>
       </c>
       <c r="BC68" t="n">
-        <v>3810</v>
+        <v>4063.4</v>
       </c>
       <c r="BD68" t="n">
-        <v>3726</v>
+        <v>3964.3</v>
       </c>
       <c r="BE68" t="n">
-        <v>3736</v>
+        <v>3974.3</v>
       </c>
       <c r="BF68" t="n">
-        <v>3756</v>
+        <v>3974.3</v>
       </c>
       <c r="BG68" t="n">
-        <v>3796</v>
+        <v>3974.3</v>
       </c>
       <c r="BH68" t="n">
-        <v>3684</v>
+        <v>3859.1</v>
       </c>
       <c r="BI68" t="n">
-        <v>3744</v>
+        <v>3879.1</v>
       </c>
       <c r="BJ68" t="n">
-        <v>3814</v>
+        <v>3909.1</v>
       </c>
       <c r="BK68" t="n">
-        <v>3884</v>
+        <v>3949.1</v>
       </c>
       <c r="BL68" t="n">
-        <v>3994</v>
+        <v>3876.4</v>
       </c>
       <c r="BM68" t="n">
-        <v>4064</v>
+        <v>3936.4</v>
       </c>
       <c r="BN68" t="n">
-        <v>4134</v>
+        <v>4016.4</v>
       </c>
       <c r="BO68" t="n">
-        <v>4194</v>
+        <v>4116.4</v>
       </c>
       <c r="BP68" t="n">
-        <v>4156</v>
+        <v>3825.1</v>
       </c>
       <c r="BQ68" t="n">
-        <v>4236</v>
+        <v>3965.1</v>
       </c>
       <c r="BR68" t="n">
-        <v>4326</v>
+        <v>4105.1</v>
       </c>
       <c r="BS68" t="n">
-        <v>4436</v>
+        <v>4225.1</v>
       </c>
       <c r="BT68" t="n">
-        <v>4639</v>
+        <v>4390.5</v>
       </c>
       <c r="BU68" t="n">
-        <v>4759</v>
+        <v>4520.5</v>
       </c>
       <c r="BV68" t="n">
-        <v>4879</v>
+        <v>4650.5</v>
       </c>
       <c r="BW68" t="n">
-        <v>4999</v>
+        <v>4770.5</v>
       </c>
       <c r="BX68" t="n">
-        <v>4628</v>
+        <v>4984.2</v>
       </c>
       <c r="BY68" t="n">
-        <v>4718</v>
+        <v>5094.2</v>
       </c>
       <c r="BZ68" t="n">
-        <v>4818</v>
+        <v>5224.2</v>
       </c>
       <c r="CA68" t="n">
-        <v>4918</v>
+        <v>5364.2</v>
       </c>
       <c r="CB68" t="n">
-        <v>5072</v>
+        <v>5335.9</v>
       </c>
       <c r="CC68" t="n">
-        <v>5192</v>
+        <v>5465.9</v>
       </c>
       <c r="CD68" t="n">
-        <v>5302</v>
+        <v>5575.9</v>
       </c>
       <c r="CE68" t="n">
-        <v>5412</v>
+        <v>5645.9</v>
       </c>
       <c r="CF68" t="n">
-        <v>5339</v>
+        <v>5645.5</v>
       </c>
       <c r="CG68" t="n">
-        <v>5409</v>
+        <v>5665.5</v>
       </c>
       <c r="CH68" t="n">
-        <v>5409</v>
+        <v>5665.5</v>
       </c>
       <c r="CI68" t="n">
-        <v>5409</v>
+        <v>5645.5</v>
       </c>
       <c r="CJ68" t="n">
-        <v>5229</v>
+        <v>5790.1</v>
       </c>
       <c r="CK68" t="n">
-        <v>5099</v>
+        <v>5690.1</v>
       </c>
       <c r="CL68" t="n">
-        <v>5029</v>
+        <v>5600.1</v>
       </c>
       <c r="CM68" t="n">
-        <v>4969</v>
+        <v>5480.1</v>
       </c>
       <c r="CN68" t="n">
-        <v>5302</v>
+        <v>5683.3</v>
       </c>
       <c r="CO68" t="n">
-        <v>5202</v>
+        <v>5563.3</v>
       </c>
       <c r="CP68" t="n">
-        <v>5032</v>
+        <v>5403.3</v>
       </c>
       <c r="CQ68" t="n">
-        <v>4922</v>
+        <v>5283.3</v>
       </c>
       <c r="CR68" t="n">
-        <v>5062</v>
+        <v>5408</v>
       </c>
       <c r="CS68" t="n">
-        <v>4922</v>
+        <v>5298</v>
       </c>
       <c r="CT68" t="n">
-        <v>4822</v>
+        <v>5198</v>
       </c>
       <c r="CU68" t="n">
-        <v>4712</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" s="2" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="D69" t="n">
-        <v>4747</v>
+        <v>4735.8</v>
       </c>
       <c r="E69" t="n">
-        <v>4997</v>
+        <v>4675.8</v>
       </c>
       <c r="F69" t="n">
-        <v>4697</v>
+        <v>4635.8</v>
       </c>
       <c r="G69" t="n">
-        <v>4637</v>
+        <v>4575.8</v>
       </c>
       <c r="H69" t="n">
-        <v>4537</v>
+        <v>2997.9</v>
       </c>
       <c r="I69" t="n">
-        <v>4507</v>
+        <v>2967.9</v>
       </c>
       <c r="J69" t="n">
-        <v>4487</v>
+        <v>2937.9</v>
       </c>
       <c r="K69" t="n">
-        <v>4457</v>
+        <v>2927.9</v>
       </c>
       <c r="L69" t="n">
-        <v>4494</v>
+        <v>3173.1</v>
       </c>
       <c r="M69" t="n">
-        <v>4474</v>
+        <v>3173.1</v>
       </c>
       <c r="N69" t="n">
-        <v>4474</v>
+        <v>3173.1</v>
       </c>
       <c r="O69" t="n">
-        <v>4474</v>
+        <v>3173.1</v>
       </c>
       <c r="P69" t="n">
-        <v>4365</v>
+        <v>3414.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>4375</v>
+        <v>3414.2</v>
       </c>
       <c r="R69" t="n">
-        <v>4385</v>
+        <v>3414.2</v>
       </c>
       <c r="S69" t="n">
-        <v>4395</v>
+        <v>3424.2</v>
       </c>
       <c r="T69" t="n">
-        <v>4369</v>
+        <v>3347.2</v>
       </c>
       <c r="U69" t="n">
-        <v>4359</v>
+        <v>3367.2</v>
       </c>
       <c r="V69" t="n">
-        <v>4369</v>
+        <v>3397.2</v>
       </c>
       <c r="W69" t="n">
-        <v>4379</v>
+        <v>3457.2</v>
       </c>
       <c r="X69" t="n">
-        <v>4437</v>
+        <v>3200.6</v>
       </c>
       <c r="Y69" t="n">
-        <v>4487</v>
+        <v>3280.6</v>
       </c>
       <c r="Z69" t="n">
-        <v>4577</v>
+        <v>3390.6</v>
       </c>
       <c r="AA69" t="n">
-        <v>4687</v>
+        <v>3530.6</v>
       </c>
       <c r="AB69" t="n">
-        <v>4687</v>
+        <v>2828.2</v>
       </c>
       <c r="AC69" t="n">
-        <v>4837</v>
+        <v>2968.2</v>
       </c>
       <c r="AD69" t="n">
-        <v>5007</v>
+        <v>3128.2</v>
       </c>
       <c r="AE69" t="n">
-        <v>5177</v>
+        <v>3308.2</v>
       </c>
       <c r="AF69" t="n">
-        <v>5140</v>
+        <v>3660.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>5290</v>
+        <v>3830.2</v>
       </c>
       <c r="AH69" t="n">
-        <v>5420</v>
+        <v>3980.2</v>
       </c>
       <c r="AI69" t="n">
-        <v>5520</v>
+        <v>4110.2</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5780</v>
+        <v>4586.7</v>
       </c>
       <c r="AK69" t="n">
-        <v>5810</v>
+        <v>4676.7</v>
       </c>
       <c r="AL69" t="n">
-        <v>5810</v>
+        <v>4746.7</v>
       </c>
       <c r="AM69" t="n">
-        <v>5790</v>
+        <v>4776.7</v>
       </c>
       <c r="AN69" t="n">
-        <v>6114</v>
+        <v>4276.2</v>
       </c>
       <c r="AO69" t="n">
-        <v>6034</v>
+        <v>4256.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>5944</v>
+        <v>4246.2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>5834</v>
+        <v>4216.2</v>
       </c>
       <c r="AR69" t="n">
-        <v>5787</v>
+        <v>4585.9</v>
       </c>
       <c r="AS69" t="n">
-        <v>5677</v>
+        <v>4535.9</v>
       </c>
       <c r="AT69" t="n">
-        <v>5567</v>
+        <v>4495.9</v>
       </c>
       <c r="AU69" t="n">
-        <v>5467</v>
+        <v>4435.9</v>
       </c>
       <c r="AV69" t="n">
-        <v>5506</v>
+        <v>3765.3</v>
       </c>
       <c r="AW69" t="n">
-        <v>5426</v>
+        <v>3695.3</v>
       </c>
       <c r="AX69" t="n">
-        <v>5366</v>
+        <v>3655.3</v>
       </c>
       <c r="AY69" t="n">
-        <v>5316</v>
+        <v>3605.3</v>
       </c>
       <c r="AZ69" t="n">
-        <v>5150</v>
+        <v>3765</v>
       </c>
       <c r="BA69" t="n">
-        <v>5120</v>
+        <v>3715</v>
       </c>
       <c r="BB69" t="n">
-        <v>5100</v>
+        <v>3705</v>
       </c>
       <c r="BC69" t="n">
-        <v>5090</v>
+        <v>3705</v>
       </c>
       <c r="BD69" t="n">
-        <v>4996</v>
+        <v>4170.9</v>
       </c>
       <c r="BE69" t="n">
-        <v>4996</v>
+        <v>4190.9</v>
       </c>
       <c r="BF69" t="n">
-        <v>5006</v>
+        <v>4190.9</v>
       </c>
       <c r="BG69" t="n">
-        <v>5006</v>
+        <v>4190.9</v>
       </c>
       <c r="BH69" t="n">
-        <v>4864</v>
+        <v>4435</v>
       </c>
       <c r="BI69" t="n">
-        <v>4874</v>
+        <v>4435</v>
       </c>
       <c r="BJ69" t="n">
-        <v>4884</v>
+        <v>4435</v>
       </c>
       <c r="BK69" t="n">
-        <v>4904</v>
+        <v>4435</v>
       </c>
       <c r="BL69" t="n">
-        <v>4974</v>
+        <v>4260.9</v>
       </c>
       <c r="BM69" t="n">
-        <v>5014</v>
+        <v>4260.9</v>
       </c>
       <c r="BN69" t="n">
-        <v>5064</v>
+        <v>4260.9</v>
       </c>
       <c r="BO69" t="n">
-        <v>5144</v>
+        <v>4270.9</v>
       </c>
       <c r="BP69" t="n">
-        <v>5116</v>
+        <v>4041</v>
       </c>
       <c r="BQ69" t="n">
-        <v>5216</v>
+        <v>4101</v>
       </c>
       <c r="BR69" t="n">
-        <v>5326</v>
+        <v>4171</v>
       </c>
       <c r="BS69" t="n">
-        <v>5436</v>
+        <v>4241</v>
       </c>
       <c r="BT69" t="n">
-        <v>5629</v>
+        <v>3494.4</v>
       </c>
       <c r="BU69" t="n">
-        <v>5739</v>
+        <v>3564.4</v>
       </c>
       <c r="BV69" t="n">
-        <v>5829</v>
+        <v>3624.4</v>
       </c>
       <c r="BW69" t="n">
-        <v>5929</v>
+        <v>3694.4</v>
       </c>
       <c r="BX69" t="n">
-        <v>5548</v>
+        <v>4295.4</v>
       </c>
       <c r="BY69" t="n">
-        <v>5648</v>
+        <v>4375.4</v>
       </c>
       <c r="BZ69" t="n">
-        <v>5778</v>
+        <v>4455.4</v>
       </c>
       <c r="CA69" t="n">
-        <v>5918</v>
+        <v>4535.4</v>
       </c>
       <c r="CB69" t="n">
-        <v>6112</v>
+        <v>5312.9</v>
       </c>
       <c r="CC69" t="n">
-        <v>6242</v>
+        <v>5412.9</v>
       </c>
       <c r="CD69" t="n">
-        <v>6352</v>
+        <v>5492.9</v>
       </c>
       <c r="CE69" t="n">
-        <v>6412</v>
+        <v>5552.9</v>
       </c>
       <c r="CF69" t="n">
-        <v>6289</v>
+        <v>5777.8</v>
       </c>
       <c r="CG69" t="n">
-        <v>6309</v>
+        <v>5817.8</v>
       </c>
       <c r="CH69" t="n">
-        <v>6299</v>
+        <v>5807.8</v>
       </c>
       <c r="CI69" t="n">
-        <v>6279</v>
+        <v>5747.8</v>
       </c>
       <c r="CJ69" t="n">
-        <v>6109</v>
+        <v>5019.8</v>
       </c>
       <c r="CK69" t="n">
-        <v>5979</v>
+        <v>4859.8</v>
       </c>
       <c r="CL69" t="n">
-        <v>5879</v>
+        <v>4749.8</v>
       </c>
       <c r="CM69" t="n">
-        <v>5729</v>
+        <v>4599.8</v>
       </c>
       <c r="CN69" t="n">
-        <v>5972</v>
+        <v>4457.5</v>
       </c>
       <c r="CO69" t="n">
-        <v>5812</v>
+        <v>4307.5</v>
       </c>
       <c r="CP69" t="n">
-        <v>5622</v>
+        <v>4137.5</v>
       </c>
       <c r="CQ69" t="n">
-        <v>5482</v>
+        <v>3977.5</v>
       </c>
       <c r="CR69" t="n">
-        <v>5552</v>
+        <v>3616.4</v>
       </c>
       <c r="CS69" t="n">
-        <v>5352</v>
+        <v>3486.4</v>
       </c>
       <c r="CT69" t="n">
-        <v>5272</v>
+        <v>3366.4</v>
       </c>
       <c r="CU69" t="n">
-        <v>5162</v>
+        <v>3256.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" s="2" t="n">
-        <v>45921</v>
+        <v>45929</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="D70" t="n">
-        <v>5247</v>
+        <v>3421.7</v>
       </c>
       <c r="E70" t="n">
-        <v>5227</v>
+        <v>3361.7</v>
       </c>
       <c r="F70" t="n">
-        <v>5187</v>
+        <v>3311.7</v>
       </c>
       <c r="G70" t="n">
-        <v>5147</v>
+        <v>3261.7</v>
       </c>
       <c r="H70" t="n">
-        <v>5017</v>
+        <v>4414.8</v>
       </c>
       <c r="I70" t="n">
-        <v>4977</v>
+        <v>4374.8</v>
       </c>
       <c r="J70" t="n">
-        <v>4947</v>
+        <v>4334.8</v>
       </c>
       <c r="K70" t="n">
-        <v>4917</v>
+        <v>4304.8</v>
       </c>
       <c r="L70" t="n">
-        <v>4944</v>
+        <v>4306.5</v>
       </c>
       <c r="M70" t="n">
-        <v>4924</v>
+        <v>4296.5</v>
       </c>
       <c r="N70" t="n">
-        <v>4914</v>
+        <v>4286.5</v>
       </c>
       <c r="O70" t="n">
-        <v>4904</v>
+        <v>4286.5</v>
       </c>
       <c r="P70" t="n">
-        <v>4805</v>
+        <v>4346.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>4815</v>
+        <v>4356.8</v>
       </c>
       <c r="R70" t="n">
-        <v>4815</v>
+        <v>4356.8</v>
       </c>
       <c r="S70" t="n">
-        <v>4815</v>
+        <v>4356.8</v>
       </c>
       <c r="T70" t="n">
-        <v>4789</v>
+        <v>4327.4</v>
       </c>
       <c r="U70" t="n">
-        <v>4799</v>
+        <v>4347.4</v>
       </c>
       <c r="V70" t="n">
-        <v>4809</v>
+        <v>4367.4</v>
       </c>
       <c r="W70" t="n">
-        <v>4839</v>
+        <v>4397.4</v>
       </c>
       <c r="X70" t="n">
-        <v>4897</v>
+        <v>4260.1</v>
       </c>
       <c r="Y70" t="n">
-        <v>4957</v>
+        <v>4330.1</v>
       </c>
       <c r="Z70" t="n">
-        <v>5037</v>
+        <v>4410.1</v>
       </c>
       <c r="AA70" t="n">
-        <v>5137</v>
+        <v>4510.1</v>
       </c>
       <c r="AB70" t="n">
-        <v>5107</v>
+        <v>4812.3</v>
       </c>
       <c r="AC70" t="n">
-        <v>5237</v>
+        <v>4952.3</v>
       </c>
       <c r="AD70" t="n">
-        <v>5367</v>
+        <v>5092.3</v>
       </c>
       <c r="AE70" t="n">
-        <v>5487</v>
+        <v>5252.3</v>
       </c>
       <c r="AF70" t="n">
-        <v>5410</v>
+        <v>5366.3</v>
       </c>
       <c r="AG70" t="n">
-        <v>5510</v>
+        <v>5516.3</v>
       </c>
       <c r="AH70" t="n">
-        <v>5590</v>
+        <v>5646.3</v>
       </c>
       <c r="AI70" t="n">
-        <v>5650</v>
+        <v>5766.3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>5840</v>
+        <v>5796.7</v>
       </c>
       <c r="AK70" t="n">
-        <v>5840</v>
+        <v>5876.7</v>
       </c>
       <c r="AL70" t="n">
-        <v>5830</v>
+        <v>5926.7</v>
       </c>
       <c r="AM70" t="n">
-        <v>5770</v>
+        <v>5946.7</v>
       </c>
       <c r="AN70" t="n">
-        <v>6064</v>
+        <v>6127.7</v>
       </c>
       <c r="AO70" t="n">
-        <v>5964</v>
+        <v>6097.7</v>
       </c>
       <c r="AP70" t="n">
-        <v>5854</v>
+        <v>6057.7</v>
       </c>
       <c r="AQ70" t="n">
-        <v>5744</v>
+        <v>5997.7</v>
       </c>
       <c r="AR70" t="n">
-        <v>5677</v>
+        <v>6064.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>5567</v>
+        <v>5984.8</v>
       </c>
       <c r="AT70" t="n">
-        <v>5477</v>
+        <v>5904.8</v>
       </c>
       <c r="AU70" t="n">
-        <v>5387</v>
+        <v>5824.8</v>
       </c>
       <c r="AV70" t="n">
-        <v>5446</v>
+        <v>6013.2</v>
       </c>
       <c r="AW70" t="n">
-        <v>5386</v>
+        <v>5953.2</v>
       </c>
       <c r="AX70" t="n">
-        <v>5346</v>
+        <v>5883.2</v>
       </c>
       <c r="AY70" t="n">
-        <v>5306</v>
+        <v>5833.2</v>
       </c>
       <c r="AZ70" t="n">
-        <v>5160</v>
+        <v>5750.2</v>
       </c>
       <c r="BA70" t="n">
-        <v>5140</v>
+        <v>5710.2</v>
       </c>
       <c r="BB70" t="n">
-        <v>5130</v>
+        <v>5690.2</v>
       </c>
       <c r="BC70" t="n">
-        <v>5120</v>
+        <v>5680.2</v>
       </c>
       <c r="BD70" t="n">
-        <v>5036</v>
+        <v>5557.5</v>
       </c>
       <c r="BE70" t="n">
-        <v>5036</v>
+        <v>5557.5</v>
       </c>
       <c r="BF70" t="n">
-        <v>5046</v>
+        <v>5567.5</v>
       </c>
       <c r="BG70" t="n">
-        <v>5066</v>
+        <v>5577.5</v>
       </c>
       <c r="BH70" t="n">
-        <v>4934</v>
+        <v>5486</v>
       </c>
       <c r="BI70" t="n">
-        <v>4974</v>
+        <v>5496</v>
       </c>
       <c r="BJ70" t="n">
-        <v>5014</v>
+        <v>5506</v>
       </c>
       <c r="BK70" t="n">
-        <v>5064</v>
+        <v>5506</v>
       </c>
       <c r="BL70" t="n">
-        <v>5154</v>
+        <v>5407.6</v>
       </c>
       <c r="BM70" t="n">
-        <v>5214</v>
+        <v>5407.6</v>
       </c>
       <c r="BN70" t="n">
-        <v>5274</v>
+        <v>5427.6</v>
       </c>
       <c r="BO70" t="n">
-        <v>5344</v>
+        <v>5457.6</v>
       </c>
       <c r="BP70" t="n">
-        <v>5306</v>
+        <v>5332.3</v>
       </c>
       <c r="BQ70" t="n">
-        <v>5396</v>
+        <v>5392.3</v>
       </c>
       <c r="BR70" t="n">
-        <v>5496</v>
+        <v>5462.3</v>
       </c>
       <c r="BS70" t="n">
-        <v>5596</v>
+        <v>5532.3</v>
       </c>
       <c r="BT70" t="n">
-        <v>5799</v>
+        <v>5549.6</v>
       </c>
       <c r="BU70" t="n">
-        <v>5909</v>
+        <v>5619.6</v>
       </c>
       <c r="BV70" t="n">
-        <v>6029</v>
+        <v>5719.6</v>
       </c>
       <c r="BW70" t="n">
-        <v>6139</v>
+        <v>5799.6</v>
       </c>
       <c r="BX70" t="n">
-        <v>5768</v>
+        <v>6154.3</v>
       </c>
       <c r="BY70" t="n">
-        <v>5878</v>
+        <v>6244.3</v>
       </c>
       <c r="BZ70" t="n">
-        <v>5998</v>
+        <v>6344.3</v>
       </c>
       <c r="CA70" t="n">
-        <v>6108</v>
+        <v>6454.3</v>
       </c>
       <c r="CB70" t="n">
-        <v>6272</v>
+        <v>6308.7</v>
       </c>
       <c r="CC70" t="n">
-        <v>6382</v>
+        <v>6428.7</v>
       </c>
       <c r="CD70" t="n">
-        <v>6472</v>
+        <v>6508.7</v>
       </c>
       <c r="CE70" t="n">
-        <v>6542</v>
+        <v>6538.7</v>
       </c>
       <c r="CF70" t="n">
-        <v>6419</v>
+        <v>6445.2</v>
       </c>
       <c r="CG70" t="n">
-        <v>6439</v>
+        <v>6415.2</v>
       </c>
       <c r="CH70" t="n">
-        <v>6429</v>
+        <v>6355.2</v>
       </c>
       <c r="CI70" t="n">
-        <v>6379</v>
+        <v>6285.2</v>
       </c>
       <c r="CJ70" t="n">
-        <v>6169</v>
+        <v>6244.5</v>
       </c>
       <c r="CK70" t="n">
-        <v>6009</v>
+        <v>6124.5</v>
       </c>
       <c r="CL70" t="n">
-        <v>5899</v>
+        <v>6004.5</v>
       </c>
       <c r="CM70" t="n">
-        <v>5779</v>
+        <v>5844.5</v>
       </c>
       <c r="CN70" t="n">
-        <v>6072</v>
+        <v>6179.4</v>
       </c>
       <c r="CO70" t="n">
-        <v>5952</v>
+        <v>6039.4</v>
       </c>
       <c r="CP70" t="n">
-        <v>5772</v>
+        <v>5879.4</v>
       </c>
       <c r="CQ70" t="n">
-        <v>5602</v>
+        <v>5729.4</v>
       </c>
       <c r="CR70" t="n">
-        <v>5632</v>
+        <v>5690.5</v>
       </c>
       <c r="CS70" t="n">
-        <v>5422</v>
+        <v>5540.5</v>
       </c>
       <c r="CT70" t="n">
-        <v>5352</v>
+        <v>5420.5</v>
       </c>
       <c r="CU70" t="n">
-        <v>5242</v>
+        <v>5310.5</v>
       </c>
     </row>
     <row r="71">
